--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.03166</v>
+        <v>5.86896</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8608</v>
+        <v>7.61365</v>
       </c>
       <c r="D2" t="n">
-        <v>14.8724</v>
+        <v>8.47184</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.7981</v>
+        <v>6.31233</v>
       </c>
       <c r="C3" t="n">
-        <v>19.0362</v>
+        <v>5.88003</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2389</v>
+        <v>10.1455</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.6321</v>
+        <v>7.37905</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3729</v>
+        <v>6.27865</v>
       </c>
       <c r="D4" t="n">
-        <v>36.3914</v>
+        <v>12.2111</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4983</v>
+        <v>8.601129999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3645</v>
+        <v>6.60184</v>
       </c>
       <c r="D5" t="n">
-        <v>46.7246</v>
+        <v>14.1008</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>25.3461</v>
+        <v>10.0905</v>
       </c>
       <c r="C6" t="n">
-        <v>22.2238</v>
+        <v>7.4362</v>
       </c>
       <c r="D6" t="n">
-        <v>37.2077</v>
+        <v>16.0794</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.6712</v>
+        <v>11.3363</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7423</v>
+        <v>8.05003</v>
       </c>
       <c r="D7" t="n">
-        <v>37.1229</v>
+        <v>17.8289</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30.4853</v>
+        <v>12.429</v>
       </c>
       <c r="C8" t="n">
-        <v>17.3418</v>
+        <v>8.62209</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9239</v>
+        <v>19.4666</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7456</v>
+        <v>14.0776</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2322</v>
+        <v>9.282489999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>36.0778</v>
+        <v>21.6771</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>31.4338</v>
+        <v>12.095</v>
       </c>
       <c r="C10" t="n">
-        <v>16.6247</v>
+        <v>9.566079999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>35.2448</v>
+        <v>19.2978</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>31.6039</v>
+        <v>12.4021</v>
       </c>
       <c r="C11" t="n">
-        <v>17.9514</v>
+        <v>9.785869999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>38.7777</v>
+        <v>19.7755</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.1041</v>
+        <v>11.7648</v>
       </c>
       <c r="C12" t="n">
-        <v>16.085</v>
+        <v>9.980919999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8479</v>
+        <v>18.4921</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3986</v>
+        <v>11.9696</v>
       </c>
       <c r="C13" t="n">
-        <v>16.1092</v>
+        <v>10.3177</v>
       </c>
       <c r="D13" t="n">
-        <v>38.9921</v>
+        <v>18.5658</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8368</v>
+        <v>12.2572</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6269</v>
+        <v>10.5137</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0483</v>
+        <v>18.5638</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.6258</v>
+        <v>12.2973</v>
       </c>
       <c r="C15" t="n">
-        <v>17.1519</v>
+        <v>10.7759</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9075</v>
+        <v>19.042</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4138</v>
+        <v>12.2424</v>
       </c>
       <c r="C16" t="n">
-        <v>16.4714</v>
+        <v>10.8653</v>
       </c>
       <c r="D16" t="n">
-        <v>39.772</v>
+        <v>20.3948</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.019</v>
+        <v>12.1366</v>
       </c>
       <c r="C17" t="n">
-        <v>15.655</v>
+        <v>10.8973</v>
       </c>
       <c r="D17" t="n">
-        <v>40.061</v>
+        <v>20.5413</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02237</v>
+        <v>5.87843</v>
       </c>
       <c r="C2" t="n">
-        <v>11.7334</v>
+        <v>7.52774</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5767</v>
+        <v>8.418519999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.718</v>
+        <v>6.2753</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9533</v>
+        <v>5.8464</v>
       </c>
       <c r="D3" t="n">
-        <v>25.8368</v>
+        <v>9.999980000000001</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.0151</v>
+        <v>7.6391</v>
       </c>
       <c r="C4" t="n">
-        <v>24.2748</v>
+        <v>6.16715</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7464</v>
+        <v>12.3108</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.5299</v>
+        <v>8.821899999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3041</v>
+        <v>6.54482</v>
       </c>
       <c r="D5" t="n">
-        <v>42.4143</v>
+        <v>14.0323</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>24.9747</v>
+        <v>10.2288</v>
       </c>
       <c r="C6" t="n">
-        <v>22.978</v>
+        <v>7.22995</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0704</v>
+        <v>16.0585</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>28.0203</v>
+        <v>11.5059</v>
       </c>
       <c r="C7" t="n">
-        <v>19.7073</v>
+        <v>8.11848</v>
       </c>
       <c r="D7" t="n">
-        <v>36.458</v>
+        <v>17.7776</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>29.29</v>
+        <v>12.5987</v>
       </c>
       <c r="C8" t="n">
-        <v>17.0985</v>
+        <v>8.649179999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>23.002</v>
+        <v>19.4375</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1501</v>
+        <v>14.3294</v>
       </c>
       <c r="C9" t="n">
-        <v>16.3237</v>
+        <v>9.2159</v>
       </c>
       <c r="D9" t="n">
-        <v>27.6495</v>
+        <v>21.7726</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32.693</v>
+        <v>12.176</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2385</v>
+        <v>9.50478</v>
       </c>
       <c r="D10" t="n">
-        <v>26.3916</v>
+        <v>19.3344</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32.3848</v>
+        <v>12.7021</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3554</v>
+        <v>9.7715</v>
       </c>
       <c r="D11" t="n">
-        <v>28.931</v>
+        <v>19.7114</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32.2453</v>
+        <v>12.0782</v>
       </c>
       <c r="C12" t="n">
-        <v>15.4606</v>
+        <v>9.95744</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6498</v>
+        <v>18.366</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32.102</v>
+        <v>12.0522</v>
       </c>
       <c r="C13" t="n">
-        <v>15.3376</v>
+        <v>10.3244</v>
       </c>
       <c r="D13" t="n">
-        <v>38.0142</v>
+        <v>18.7303</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32.1789</v>
+        <v>12.4135</v>
       </c>
       <c r="C14" t="n">
-        <v>15.463</v>
+        <v>10.5276</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6072</v>
+        <v>18.7585</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32.6105</v>
+        <v>12.4203</v>
       </c>
       <c r="C15" t="n">
-        <v>15.3018</v>
+        <v>10.6693</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8512</v>
+        <v>19.7235</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32.7213</v>
+        <v>12.4566</v>
       </c>
       <c r="C16" t="n">
-        <v>15.5868</v>
+        <v>10.8141</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8967</v>
+        <v>20.3154</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32.7943</v>
+        <v>12.4728</v>
       </c>
       <c r="C17" t="n">
-        <v>15.644</v>
+        <v>10.9413</v>
       </c>
       <c r="D17" t="n">
-        <v>31.2418</v>
+        <v>20.7419</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.721830000000001</v>
+        <v>6.77995</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5423</v>
+        <v>7.78568</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2373</v>
+        <v>8.569979999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.6542</v>
+        <v>6.97999</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3335</v>
+        <v>5.88605</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2214</v>
+        <v>10.704</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24.9056</v>
+        <v>8.54303</v>
       </c>
       <c r="C4" t="n">
-        <v>25.0841</v>
+        <v>6.27344</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1562</v>
+        <v>13.6655</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.78</v>
+        <v>10.0197</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7009</v>
+        <v>6.77309</v>
       </c>
       <c r="D5" t="n">
-        <v>44.6243</v>
+        <v>16.3038</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>26.4044</v>
+        <v>11.6264</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4901</v>
+        <v>7.41941</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8592</v>
+        <v>18.9788</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>29.3201</v>
+        <v>13.1607</v>
       </c>
       <c r="C7" t="n">
-        <v>16.3911</v>
+        <v>8.115209999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2415</v>
+        <v>21.3996</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>31.8948</v>
+        <v>14.707</v>
       </c>
       <c r="C8" t="n">
-        <v>15.6362</v>
+        <v>8.80076</v>
       </c>
       <c r="D8" t="n">
-        <v>28.6323</v>
+        <v>23.8647</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3348</v>
+        <v>16.7014</v>
       </c>
       <c r="C9" t="n">
-        <v>14.9527</v>
+        <v>9.29487</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9031</v>
+        <v>27.1097</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.1561</v>
+        <v>14.3032</v>
       </c>
       <c r="C10" t="n">
-        <v>15.2955</v>
+        <v>9.545500000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>24.4438</v>
+        <v>22.055</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>34.2055</v>
+        <v>14.6142</v>
       </c>
       <c r="C11" t="n">
-        <v>15.4582</v>
+        <v>9.713039999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>37.008</v>
+        <v>22.4878</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>34.3474</v>
+        <v>14.0508</v>
       </c>
       <c r="C12" t="n">
-        <v>15.3526</v>
+        <v>9.91699</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1498</v>
+        <v>20.8967</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.5834</v>
+        <v>14.3922</v>
       </c>
       <c r="C13" t="n">
-        <v>15.0951</v>
+        <v>10.1828</v>
       </c>
       <c r="D13" t="n">
-        <v>32.052</v>
+        <v>21.6951</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.6443</v>
+        <v>14.7048</v>
       </c>
       <c r="C14" t="n">
-        <v>15.3318</v>
+        <v>10.4014</v>
       </c>
       <c r="D14" t="n">
-        <v>34.897</v>
+        <v>23.4315</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>34.6539</v>
+        <v>14.9018</v>
       </c>
       <c r="C15" t="n">
-        <v>15.6808</v>
+        <v>10.5532</v>
       </c>
       <c r="D15" t="n">
-        <v>35.2887</v>
+        <v>24.4911</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.9711</v>
+        <v>14.8501</v>
       </c>
       <c r="C16" t="n">
-        <v>15.4452</v>
+        <v>10.7097</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1082</v>
+        <v>25.2262</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8797</v>
+        <v>14.807</v>
       </c>
       <c r="C17" t="n">
-        <v>15.4801</v>
+        <v>10.7479</v>
       </c>
       <c r="D17" t="n">
-        <v>30.6256</v>
+        <v>26.0336</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.09721</v>
+        <v>4.86181</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2228</v>
+        <v>7.25287</v>
       </c>
       <c r="D2" t="n">
-        <v>14.457</v>
+        <v>8.087820000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3393</v>
+        <v>5.93047</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5166</v>
+        <v>6.05857</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2626</v>
+        <v>9.741569999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.6084</v>
+        <v>7.08242</v>
       </c>
       <c r="C4" t="n">
-        <v>24.131</v>
+        <v>6.73024</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5167</v>
+        <v>11.8398</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.1248</v>
+        <v>8.41194</v>
       </c>
       <c r="C5" t="n">
-        <v>28.0307</v>
+        <v>7.23335</v>
       </c>
       <c r="D5" t="n">
-        <v>46.978</v>
+        <v>13.5549</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.2707</v>
+        <v>9.786899999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3957</v>
+        <v>7.99512</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3822</v>
+        <v>15.6362</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30.7996</v>
+        <v>10.9138</v>
       </c>
       <c r="C7" t="n">
-        <v>17.186</v>
+        <v>8.55527</v>
       </c>
       <c r="D7" t="n">
-        <v>39.5344</v>
+        <v>17.449</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.566</v>
+        <v>12.0161</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5087</v>
+        <v>9.114879999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>37.081</v>
+        <v>19.2213</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>33.767</v>
+        <v>13.7532</v>
       </c>
       <c r="C9" t="n">
-        <v>16.2737</v>
+        <v>9.55376</v>
       </c>
       <c r="D9" t="n">
-        <v>39.1716</v>
+        <v>21.692</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33.6641</v>
+        <v>12.505</v>
       </c>
       <c r="C10" t="n">
-        <v>18.5234</v>
+        <v>9.490600000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>39.5998</v>
+        <v>19.4732</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.5379</v>
+        <v>12.5539</v>
       </c>
       <c r="C11" t="n">
-        <v>18.6429</v>
+        <v>9.65935</v>
       </c>
       <c r="D11" t="n">
-        <v>40.4112</v>
+        <v>19.3872</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.3604</v>
+        <v>12.6792</v>
       </c>
       <c r="C12" t="n">
-        <v>17.6123</v>
+        <v>9.87284</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3708</v>
+        <v>20.1248</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>33.6947</v>
+        <v>12.7782</v>
       </c>
       <c r="C13" t="n">
-        <v>17.4415</v>
+        <v>10.2069</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8286</v>
+        <v>20.3157</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>33.4647</v>
+        <v>13.0371</v>
       </c>
       <c r="C14" t="n">
-        <v>17.3753</v>
+        <v>10.3873</v>
       </c>
       <c r="D14" t="n">
-        <v>41.991</v>
+        <v>20.2166</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.5319</v>
+        <v>13.2676</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2072</v>
+        <v>10.6407</v>
       </c>
       <c r="D15" t="n">
-        <v>42.8606</v>
+        <v>19.8767</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.7085</v>
+        <v>13.1303</v>
       </c>
       <c r="C16" t="n">
-        <v>16.9204</v>
+        <v>10.8868</v>
       </c>
       <c r="D16" t="n">
-        <v>41.79</v>
+        <v>19.9279</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.6776</v>
+        <v>13.0035</v>
       </c>
       <c r="C17" t="n">
-        <v>17.3752</v>
+        <v>11.0676</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0192</v>
+        <v>18.3195</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.11683</v>
+        <v>4.96253</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2075</v>
+        <v>7.25537</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1602</v>
+        <v>8.011950000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.3919</v>
+        <v>6.11773</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5231</v>
+        <v>6.11538</v>
       </c>
       <c r="D3" t="n">
-        <v>25.7837</v>
+        <v>9.80903</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>21.8325</v>
+        <v>7.38783</v>
       </c>
       <c r="C4" t="n">
-        <v>24.3355</v>
+        <v>6.82281</v>
       </c>
       <c r="D4" t="n">
-        <v>35.9034</v>
+        <v>11.9362</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>28.3215</v>
+        <v>8.60622</v>
       </c>
       <c r="C5" t="n">
-        <v>28.5111</v>
+        <v>7.44183</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2761</v>
+        <v>13.6441</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>29.3642</v>
+        <v>9.926270000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7466</v>
+        <v>8.17863</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4859</v>
+        <v>15.6447</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>31.0959</v>
+        <v>11.1709</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0759</v>
+        <v>8.72983</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5639</v>
+        <v>17.5225</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>32.7657</v>
+        <v>12.2376</v>
       </c>
       <c r="C8" t="n">
-        <v>16.3538</v>
+        <v>9.305149999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>37.5905</v>
+        <v>19.0524</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.3259</v>
+        <v>14.0398</v>
       </c>
       <c r="C9" t="n">
-        <v>16.5549</v>
+        <v>9.678839999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>38.999</v>
+        <v>21.7428</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>34.0359</v>
+        <v>12.4762</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0648</v>
+        <v>9.702579999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>38.1417</v>
+        <v>19.7583</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>33.6602</v>
+        <v>12.7584</v>
       </c>
       <c r="C11" t="n">
-        <v>18.7322</v>
+        <v>9.824159999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>39.1172</v>
+        <v>19.9872</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>33.8642</v>
+        <v>12.9385</v>
       </c>
       <c r="C12" t="n">
-        <v>17.5728</v>
+        <v>10.1025</v>
       </c>
       <c r="D12" t="n">
-        <v>40.7898</v>
+        <v>19.7164</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>34.0399</v>
+        <v>13.109</v>
       </c>
       <c r="C13" t="n">
-        <v>17.75</v>
+        <v>10.3334</v>
       </c>
       <c r="D13" t="n">
-        <v>41.3517</v>
+        <v>19.9542</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>34.0543</v>
+        <v>13.1913</v>
       </c>
       <c r="C14" t="n">
-        <v>17.7311</v>
+        <v>10.6129</v>
       </c>
       <c r="D14" t="n">
-        <v>40.8393</v>
+        <v>20.2976</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>33.925</v>
+        <v>13.4973</v>
       </c>
       <c r="C15" t="n">
-        <v>17.2257</v>
+        <v>10.8773</v>
       </c>
       <c r="D15" t="n">
-        <v>42.4861</v>
+        <v>20.4364</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>33.5843</v>
+        <v>13.3636</v>
       </c>
       <c r="C16" t="n">
-        <v>17.5159</v>
+        <v>11.0218</v>
       </c>
       <c r="D16" t="n">
-        <v>41.032</v>
+        <v>19.9489</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>33.8074</v>
+        <v>13.4069</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6133</v>
+        <v>11.2172</v>
       </c>
       <c r="D17" t="n">
-        <v>42.4521</v>
+        <v>18.3998</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.525180000000001</v>
+        <v>6.3962</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5313</v>
+        <v>7.44919</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>8.341519999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.8214</v>
+        <v>7.10214</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4755</v>
+        <v>6.61806</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9184</v>
+        <v>10.7724</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>25.2949</v>
+        <v>8.473560000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7548</v>
+        <v>7.19351</v>
       </c>
       <c r="D4" t="n">
-        <v>35.253</v>
+        <v>14.0125</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>33.2062</v>
+        <v>10.1746</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4337</v>
+        <v>7.71786</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2382</v>
+        <v>16.9657</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.8263</v>
+        <v>11.9021</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3607</v>
+        <v>8.396240000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0898</v>
+        <v>19.8845</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>34.3088</v>
+        <v>13.4596</v>
       </c>
       <c r="C7" t="n">
-        <v>17.932</v>
+        <v>8.98898</v>
       </c>
       <c r="D7" t="n">
-        <v>39.6881</v>
+        <v>22.6601</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>36.3772</v>
+        <v>15.2124</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2234</v>
+        <v>9.48058</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6808</v>
+        <v>25.3596</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>38.1281</v>
+        <v>17.4166</v>
       </c>
       <c r="C9" t="n">
-        <v>17.0313</v>
+        <v>9.95504</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0055</v>
+        <v>29.0848</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.0241</v>
+        <v>15.5481</v>
       </c>
       <c r="C10" t="n">
-        <v>18.8306</v>
+        <v>9.970800000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>39.9198</v>
+        <v>25.0797</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.8548</v>
+        <v>15.6414</v>
       </c>
       <c r="C11" t="n">
-        <v>18.9468</v>
+        <v>10.0696</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1388</v>
+        <v>25.5313</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>37.8403</v>
+        <v>15.8609</v>
       </c>
       <c r="C12" t="n">
-        <v>18.3933</v>
+        <v>10.2877</v>
       </c>
       <c r="D12" t="n">
-        <v>40.6115</v>
+        <v>26.2767</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>37.7732</v>
+        <v>16.2238</v>
       </c>
       <c r="C13" t="n">
-        <v>18.2664</v>
+        <v>10.5536</v>
       </c>
       <c r="D13" t="n">
-        <v>42.5397</v>
+        <v>26.4827</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>38.0313</v>
+        <v>16.2959</v>
       </c>
       <c r="C14" t="n">
-        <v>18.3828</v>
+        <v>10.811</v>
       </c>
       <c r="D14" t="n">
-        <v>42.2313</v>
+        <v>26.1818</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>38.0344</v>
+        <v>16.7726</v>
       </c>
       <c r="C15" t="n">
-        <v>17.6861</v>
+        <v>11.0515</v>
       </c>
       <c r="D15" t="n">
-        <v>43.2848</v>
+        <v>26.3201</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>37.9617</v>
+        <v>16.6551</v>
       </c>
       <c r="C16" t="n">
-        <v>17.7581</v>
+        <v>11.2778</v>
       </c>
       <c r="D16" t="n">
-        <v>43.1151</v>
+        <v>26.333</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>38.1113</v>
+        <v>16.3987</v>
       </c>
       <c r="C17" t="n">
-        <v>17.6398</v>
+        <v>11.4403</v>
       </c>
       <c r="D17" t="n">
-        <v>41.9754</v>
+        <v>24.8457</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.89613</v>
+        <v>8.027240000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>7.52918</v>
+        <v>11.407</v>
       </c>
       <c r="D2" t="n">
-        <v>8.47456</v>
+        <v>14.1636</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.24596</v>
+        <v>7.62616</v>
       </c>
       <c r="C3" t="n">
-        <v>7.01638</v>
+        <v>8.90217</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0598</v>
+        <v>14.0185</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.38451</v>
+        <v>8.78951</v>
       </c>
       <c r="C4" t="n">
-        <v>8.896459999999999</v>
+        <v>10.7805</v>
       </c>
       <c r="D4" t="n">
-        <v>12.4052</v>
+        <v>15.7793</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.718730000000001</v>
+        <v>9.7462</v>
       </c>
       <c r="C5" t="n">
-        <v>10.7943</v>
+        <v>12.963</v>
       </c>
       <c r="D5" t="n">
-        <v>14.1174</v>
+        <v>17.4399</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0889</v>
+        <v>11.4941</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0252</v>
+        <v>15.4564</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0699</v>
+        <v>19.6289</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3188</v>
+        <v>12.929</v>
       </c>
       <c r="C7" t="n">
-        <v>14.9418</v>
+        <v>18.0271</v>
       </c>
       <c r="D7" t="n">
-        <v>17.7702</v>
+        <v>21.5716</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.4336</v>
+        <v>14.142</v>
       </c>
       <c r="C8" t="n">
-        <v>16.8474</v>
+        <v>20.4602</v>
       </c>
       <c r="D8" t="n">
-        <v>19.4542</v>
+        <v>23.533</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0878</v>
+        <v>16.1164</v>
       </c>
       <c r="C9" t="n">
-        <v>18.9512</v>
+        <v>23.0938</v>
       </c>
       <c r="D9" t="n">
-        <v>21.6675</v>
+        <v>25.887</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.1329</v>
+        <v>13.8515</v>
       </c>
       <c r="C10" t="n">
-        <v>17.3213</v>
+        <v>21.0647</v>
       </c>
       <c r="D10" t="n">
-        <v>19.1515</v>
+        <v>23.8603</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.5101</v>
+        <v>14.5315</v>
       </c>
       <c r="C11" t="n">
-        <v>17.0153</v>
+        <v>20.1395</v>
       </c>
       <c r="D11" t="n">
-        <v>19.6725</v>
+        <v>24.5149</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.8941</v>
+        <v>13.3924</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2505</v>
+        <v>20.0176</v>
       </c>
       <c r="D12" t="n">
-        <v>18.6885</v>
+        <v>22.8262</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.0519</v>
+        <v>13.7035</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5333</v>
+        <v>20.3634</v>
       </c>
       <c r="D13" t="n">
-        <v>18.2842</v>
+        <v>23.0018</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.1153</v>
+        <v>13.7926</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9015</v>
+        <v>20.8542</v>
       </c>
       <c r="D14" t="n">
-        <v>18.8492</v>
+        <v>22.9809</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.3939</v>
+        <v>14.1694</v>
       </c>
       <c r="C15" t="n">
-        <v>18.2655</v>
+        <v>21.3023</v>
       </c>
       <c r="D15" t="n">
-        <v>19.1803</v>
+        <v>23.2273</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3681</v>
+        <v>13.9453</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5653</v>
+        <v>21.2973</v>
       </c>
       <c r="D16" t="n">
-        <v>20.5295</v>
+        <v>24.6175</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.3416</v>
+        <v>14.066</v>
       </c>
       <c r="C17" t="n">
-        <v>18.5914</v>
+        <v>21.4707</v>
       </c>
       <c r="D17" t="n">
-        <v>20.5643</v>
+        <v>25.1479</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.90365</v>
+        <v>8.059670000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>7.46203</v>
+        <v>11.3351</v>
       </c>
       <c r="D2" t="n">
-        <v>8.4313</v>
+        <v>13.9626</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.31081</v>
+        <v>7.57662</v>
       </c>
       <c r="C3" t="n">
-        <v>6.9838</v>
+        <v>8.952719999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>10.0044</v>
+        <v>13.9132</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.66418</v>
+        <v>8.87528</v>
       </c>
       <c r="C4" t="n">
-        <v>8.931139999999999</v>
+        <v>10.5465</v>
       </c>
       <c r="D4" t="n">
-        <v>12.3086</v>
+        <v>15.719</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.83775</v>
+        <v>9.747249999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>10.8969</v>
+        <v>12.8843</v>
       </c>
       <c r="D5" t="n">
-        <v>14.138</v>
+        <v>17.4694</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.2186</v>
+        <v>11.6612</v>
       </c>
       <c r="C6" t="n">
-        <v>13.0412</v>
+        <v>15.387</v>
       </c>
       <c r="D6" t="n">
-        <v>16.0993</v>
+        <v>19.4826</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.4828</v>
+        <v>13.0937</v>
       </c>
       <c r="C7" t="n">
-        <v>14.8217</v>
+        <v>17.8269</v>
       </c>
       <c r="D7" t="n">
-        <v>17.818</v>
+        <v>21.0104</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.6107</v>
+        <v>14.3253</v>
       </c>
       <c r="C8" t="n">
-        <v>16.9654</v>
+        <v>20.7159</v>
       </c>
       <c r="D8" t="n">
-        <v>19.5249</v>
+        <v>23.3687</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.3374</v>
+        <v>16.366</v>
       </c>
       <c r="C9" t="n">
-        <v>18.446</v>
+        <v>22.8856</v>
       </c>
       <c r="D9" t="n">
-        <v>21.825</v>
+        <v>25.8908</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2212</v>
+        <v>14.142</v>
       </c>
       <c r="C10" t="n">
-        <v>17.4474</v>
+        <v>21.3077</v>
       </c>
       <c r="D10" t="n">
-        <v>19.362</v>
+        <v>23.828</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6741</v>
+        <v>14.6527</v>
       </c>
       <c r="C11" t="n">
-        <v>16.915</v>
+        <v>20.2326</v>
       </c>
       <c r="D11" t="n">
-        <v>19.9057</v>
+        <v>24.2317</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.8555</v>
+        <v>13.6544</v>
       </c>
       <c r="C12" t="n">
-        <v>17.1007</v>
+        <v>20.1644</v>
       </c>
       <c r="D12" t="n">
-        <v>18.416</v>
+        <v>22.8559</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1784</v>
+        <v>13.877</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5741</v>
+        <v>20.5086</v>
       </c>
       <c r="D13" t="n">
-        <v>18.6479</v>
+        <v>22.544</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>12.3334</v>
+        <v>13.9223</v>
       </c>
       <c r="C14" t="n">
-        <v>17.8207</v>
+        <v>20.9141</v>
       </c>
       <c r="D14" t="n">
-        <v>18.7561</v>
+        <v>22.7151</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>12.5217</v>
+        <v>14.3963</v>
       </c>
       <c r="C15" t="n">
-        <v>18.057</v>
+        <v>21.2112</v>
       </c>
       <c r="D15" t="n">
-        <v>19.696</v>
+        <v>23.6104</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>12.3454</v>
+        <v>14.2046</v>
       </c>
       <c r="C16" t="n">
-        <v>18.5878</v>
+        <v>21.1461</v>
       </c>
       <c r="D16" t="n">
-        <v>20.5705</v>
+        <v>24.2762</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2278</v>
+        <v>14.2774</v>
       </c>
       <c r="C17" t="n">
-        <v>18.6075</v>
+        <v>21.4308</v>
       </c>
       <c r="D17" t="n">
-        <v>20.5314</v>
+        <v>25.1385</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.80581</v>
+        <v>9.725910000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>7.74249</v>
+        <v>11.5971</v>
       </c>
       <c r="D2" t="n">
-        <v>8.589230000000001</v>
+        <v>14.1822</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.05693</v>
+        <v>8.938750000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>7.38563</v>
+        <v>9.43835</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7584</v>
+        <v>14.9109</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.183120000000001</v>
+        <v>9.988189999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>9.17831</v>
+        <v>11.4039</v>
       </c>
       <c r="D4" t="n">
-        <v>13.2552</v>
+        <v>18.0691</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.62677</v>
+        <v>12.1295</v>
       </c>
       <c r="C5" t="n">
-        <v>11.4823</v>
+        <v>13.4548</v>
       </c>
       <c r="D5" t="n">
-        <v>16.2944</v>
+        <v>20.7499</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6342</v>
+        <v>13.854</v>
       </c>
       <c r="C6" t="n">
-        <v>13.6333</v>
+        <v>16.0561</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6066</v>
+        <v>23.8489</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.1385</v>
+        <v>16.1544</v>
       </c>
       <c r="C7" t="n">
-        <v>16.0709</v>
+        <v>18.8458</v>
       </c>
       <c r="D7" t="n">
-        <v>21.4661</v>
+        <v>26.517</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.6875</v>
+        <v>18.2177</v>
       </c>
       <c r="C8" t="n">
-        <v>18.4267</v>
+        <v>21.7333</v>
       </c>
       <c r="D8" t="n">
-        <v>23.8574</v>
+        <v>29.3162</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.6748</v>
+        <v>20.8185</v>
       </c>
       <c r="C9" t="n">
-        <v>20.667</v>
+        <v>24.2845</v>
       </c>
       <c r="D9" t="n">
-        <v>27.0907</v>
+        <v>32.9201</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.2385</v>
+        <v>17.6405</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4959</v>
+        <v>21.9609</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0343</v>
+        <v>27.94</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6025</v>
+        <v>18.2136</v>
       </c>
       <c r="C11" t="n">
-        <v>17.7455</v>
+        <v>21.407</v>
       </c>
       <c r="D11" t="n">
-        <v>22.7758</v>
+        <v>27.2643</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.1225</v>
+        <v>17.3075</v>
       </c>
       <c r="C12" t="n">
-        <v>17.7254</v>
+        <v>20.9055</v>
       </c>
       <c r="D12" t="n">
-        <v>21.3187</v>
+        <v>27.0981</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.369</v>
+        <v>17.6589</v>
       </c>
       <c r="C13" t="n">
-        <v>18.233</v>
+        <v>21.2505</v>
       </c>
       <c r="D13" t="n">
-        <v>21.9432</v>
+        <v>27.6095</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7543</v>
+        <v>17.7787</v>
       </c>
       <c r="C14" t="n">
-        <v>18.658</v>
+        <v>21.7589</v>
       </c>
       <c r="D14" t="n">
-        <v>23.5074</v>
+        <v>29.2049</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9382</v>
+        <v>18.361</v>
       </c>
       <c r="C15" t="n">
-        <v>18.9106</v>
+        <v>21.9262</v>
       </c>
       <c r="D15" t="n">
-        <v>24.5289</v>
+        <v>30.0403</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8505</v>
+        <v>18.2439</v>
       </c>
       <c r="C16" t="n">
-        <v>19.3813</v>
+        <v>22.2765</v>
       </c>
       <c r="D16" t="n">
-        <v>25.0735</v>
+        <v>31.0419</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.956</v>
+        <v>18.3588</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2517</v>
+        <v>22.2918</v>
       </c>
       <c r="D17" t="n">
-        <v>26.0159</v>
+        <v>31.5666</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.92422</v>
+        <v>6.44265</v>
       </c>
       <c r="C2" t="n">
-        <v>7.15069</v>
+        <v>10.7603</v>
       </c>
       <c r="D2" t="n">
-        <v>8.11914</v>
+        <v>13.4431</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.02321</v>
+        <v>7.28733</v>
       </c>
       <c r="C3" t="n">
-        <v>6.80342</v>
+        <v>8.72864</v>
       </c>
       <c r="D3" t="n">
-        <v>9.78711</v>
+        <v>13.5982</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.32107</v>
+        <v>8.51144</v>
       </c>
       <c r="C4" t="n">
-        <v>8.586650000000001</v>
+        <v>10.5406</v>
       </c>
       <c r="D4" t="n">
-        <v>11.958</v>
+        <v>15.3415</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.417490000000001</v>
+        <v>9.71725</v>
       </c>
       <c r="C5" t="n">
-        <v>10.2423</v>
+        <v>12.6395</v>
       </c>
       <c r="D5" t="n">
-        <v>13.687</v>
+        <v>16.8929</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>9.79213</v>
+        <v>11.1143</v>
       </c>
       <c r="C6" t="n">
-        <v>12.3871</v>
+        <v>14.7188</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7411</v>
+        <v>19.0613</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>10.9867</v>
+        <v>12.4657</v>
       </c>
       <c r="C7" t="n">
-        <v>14.3527</v>
+        <v>17.2327</v>
       </c>
       <c r="D7" t="n">
-        <v>17.5899</v>
+        <v>21.2356</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.0472</v>
+        <v>13.6014</v>
       </c>
       <c r="C8" t="n">
-        <v>16.2852</v>
+        <v>19.6206</v>
       </c>
       <c r="D8" t="n">
-        <v>19.1964</v>
+        <v>23.2184</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>13.7015</v>
+        <v>15.5589</v>
       </c>
       <c r="C9" t="n">
-        <v>18.376</v>
+        <v>21.9272</v>
       </c>
       <c r="D9" t="n">
-        <v>21.7587</v>
+        <v>25.9484</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.2921</v>
+        <v>14.0326</v>
       </c>
       <c r="C10" t="n">
-        <v>16.7368</v>
+        <v>19.8161</v>
       </c>
       <c r="D10" t="n">
-        <v>19.4964</v>
+        <v>24.2113</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.4461</v>
+        <v>14.217</v>
       </c>
       <c r="C11" t="n">
-        <v>16.7629</v>
+        <v>20.0542</v>
       </c>
       <c r="D11" t="n">
-        <v>19.4996</v>
+        <v>23.4617</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.6201</v>
+        <v>14.2272</v>
       </c>
       <c r="C12" t="n">
-        <v>17.0683</v>
+        <v>20.2308</v>
       </c>
       <c r="D12" t="n">
-        <v>20.0715</v>
+        <v>23.8604</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12.8417</v>
+        <v>14.6103</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5271</v>
+        <v>20.7856</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1923</v>
+        <v>23.5955</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.0098</v>
+        <v>14.6957</v>
       </c>
       <c r="C14" t="n">
-        <v>17.9702</v>
+        <v>21.4526</v>
       </c>
       <c r="D14" t="n">
-        <v>20.2206</v>
+        <v>23.8757</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.1966</v>
+        <v>14.9798</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3884</v>
+        <v>21.4649</v>
       </c>
       <c r="D15" t="n">
-        <v>20.1191</v>
+        <v>23.6848</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.1057</v>
+        <v>14.8673</v>
       </c>
       <c r="C16" t="n">
-        <v>18.9538</v>
+        <v>21.8232</v>
       </c>
       <c r="D16" t="n">
-        <v>19.5744</v>
+        <v>24.0295</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>12.9989</v>
+        <v>14.7594</v>
       </c>
       <c r="C17" t="n">
-        <v>18.7731</v>
+        <v>22.0294</v>
       </c>
       <c r="D17" t="n">
-        <v>17.9266</v>
+        <v>22.4628</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5.02249</v>
+        <v>6.42846</v>
       </c>
       <c r="C2" t="n">
-        <v>7.18118</v>
+        <v>10.8416</v>
       </c>
       <c r="D2" t="n">
-        <v>8.037520000000001</v>
+        <v>13.22</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.07275</v>
+        <v>7.20816</v>
       </c>
       <c r="C3" t="n">
-        <v>6.86319</v>
+        <v>8.56977</v>
       </c>
       <c r="D3" t="n">
-        <v>9.73972</v>
+        <v>13.1311</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>7.42451</v>
+        <v>8.64565</v>
       </c>
       <c r="C4" t="n">
-        <v>8.69237</v>
+        <v>10.5391</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9892</v>
+        <v>15.2371</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8.681760000000001</v>
+        <v>9.832470000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>10.6419</v>
+        <v>12.6832</v>
       </c>
       <c r="D5" t="n">
-        <v>13.7368</v>
+        <v>16.8553</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10.0692</v>
+        <v>11.3363</v>
       </c>
       <c r="C6" t="n">
-        <v>12.6399</v>
+        <v>15.0406</v>
       </c>
       <c r="D6" t="n">
-        <v>15.7198</v>
+        <v>19.1034</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>11.2674</v>
+        <v>12.6455</v>
       </c>
       <c r="C7" t="n">
-        <v>14.529</v>
+        <v>17.2195</v>
       </c>
       <c r="D7" t="n">
-        <v>17.4072</v>
+        <v>21.0227</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>12.2664</v>
+        <v>13.7928</v>
       </c>
       <c r="C8" t="n">
-        <v>16.5508</v>
+        <v>19.8748</v>
       </c>
       <c r="D8" t="n">
-        <v>19.2074</v>
+        <v>23.0287</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14.0084</v>
+        <v>15.9516</v>
       </c>
       <c r="C9" t="n">
-        <v>18.3968</v>
+        <v>22.26</v>
       </c>
       <c r="D9" t="n">
-        <v>21.82</v>
+        <v>26.0624</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>12.4355</v>
+        <v>14.1876</v>
       </c>
       <c r="C10" t="n">
-        <v>17.0764</v>
+        <v>20.5171</v>
       </c>
       <c r="D10" t="n">
-        <v>19.9009</v>
+        <v>23.7189</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12.6984</v>
+        <v>14.4287</v>
       </c>
       <c r="C11" t="n">
-        <v>17.1814</v>
+        <v>19.8386</v>
       </c>
       <c r="D11" t="n">
-        <v>19.8569</v>
+        <v>23.6719</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>12.8716</v>
+        <v>14.734</v>
       </c>
       <c r="C12" t="n">
-        <v>17.2783</v>
+        <v>20.6819</v>
       </c>
       <c r="D12" t="n">
-        <v>19.7714</v>
+        <v>23.6754</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.029</v>
+        <v>14.7692</v>
       </c>
       <c r="C13" t="n">
-        <v>17.5443</v>
+        <v>20.95</v>
       </c>
       <c r="D13" t="n">
-        <v>20.3431</v>
+        <v>23.7337</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2033</v>
+        <v>14.9365</v>
       </c>
       <c r="C14" t="n">
-        <v>18.0643</v>
+        <v>21.2505</v>
       </c>
       <c r="D14" t="n">
-        <v>20.2716</v>
+        <v>23.4137</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>13.3695</v>
+        <v>15.2098</v>
       </c>
       <c r="C15" t="n">
-        <v>18.3137</v>
+        <v>21.7023</v>
       </c>
       <c r="D15" t="n">
-        <v>20.4907</v>
+        <v>24.1333</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.5119</v>
+        <v>15.1316</v>
       </c>
       <c r="C16" t="n">
-        <v>19.0224</v>
+        <v>21.7281</v>
       </c>
       <c r="D16" t="n">
-        <v>19.8555</v>
+        <v>23.8299</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.2279</v>
+        <v>15.1024</v>
       </c>
       <c r="C17" t="n">
-        <v>19.2305</v>
+        <v>22.194</v>
       </c>
       <c r="D17" t="n">
-        <v>17.8015</v>
+        <v>21.9027</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.4129</v>
+        <v>9.07009</v>
       </c>
       <c r="C2" t="n">
-        <v>7.55887</v>
+        <v>11.3805</v>
       </c>
       <c r="D2" t="n">
-        <v>8.37405</v>
+        <v>13.9531</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.10225</v>
+        <v>8.793620000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>7.28988</v>
+        <v>9.13827</v>
       </c>
       <c r="D3" t="n">
-        <v>10.9227</v>
+        <v>15.1039</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.16986</v>
+        <v>10.6031</v>
       </c>
       <c r="C4" t="n">
-        <v>8.995139999999999</v>
+        <v>11.2302</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9903</v>
+        <v>18.5799</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.1436</v>
+        <v>12.5254</v>
       </c>
       <c r="C5" t="n">
-        <v>10.9907</v>
+        <v>13.4572</v>
       </c>
       <c r="D5" t="n">
-        <v>16.601</v>
+        <v>21.7551</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6012</v>
+        <v>14.6342</v>
       </c>
       <c r="C6" t="n">
-        <v>13.2188</v>
+        <v>15.7881</v>
       </c>
       <c r="D6" t="n">
-        <v>19.5158</v>
+        <v>24.8727</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.5701</v>
+        <v>16.6465</v>
       </c>
       <c r="C7" t="n">
-        <v>15.314</v>
+        <v>18.2948</v>
       </c>
       <c r="D7" t="n">
-        <v>22.6072</v>
+        <v>28.1708</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.2342</v>
+        <v>18.7801</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1729</v>
+        <v>20.3109</v>
       </c>
       <c r="D8" t="n">
-        <v>25.2591</v>
+        <v>31.4701</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.3388</v>
+        <v>21.5523</v>
       </c>
       <c r="C9" t="n">
-        <v>19.2295</v>
+        <v>22.6298</v>
       </c>
       <c r="D9" t="n">
-        <v>28.9511</v>
+        <v>35.5349</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.3615</v>
+        <v>19.0857</v>
       </c>
       <c r="C10" t="n">
-        <v>17.8546</v>
+        <v>21.3918</v>
       </c>
       <c r="D10" t="n">
-        <v>24.9833</v>
+        <v>31.9012</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>15.4785</v>
+        <v>19.1878</v>
       </c>
       <c r="C11" t="n">
-        <v>17.7126</v>
+        <v>20.7268</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8063</v>
+        <v>31.7682</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>15.9111</v>
+        <v>19.6387</v>
       </c>
       <c r="C12" t="n">
-        <v>18.4016</v>
+        <v>21.3014</v>
       </c>
       <c r="D12" t="n">
-        <v>25.9199</v>
+        <v>31.5869</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.1023</v>
+        <v>19.9707</v>
       </c>
       <c r="C13" t="n">
-        <v>18.3783</v>
+        <v>21.7719</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3472</v>
+        <v>31.7594</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.5289</v>
+        <v>20.1455</v>
       </c>
       <c r="C14" t="n">
-        <v>18.8535</v>
+        <v>21.7756</v>
       </c>
       <c r="D14" t="n">
-        <v>26.4072</v>
+        <v>31.7374</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.6447</v>
+        <v>20.4508</v>
       </c>
       <c r="C15" t="n">
-        <v>19.2177</v>
+        <v>22.2867</v>
       </c>
       <c r="D15" t="n">
-        <v>25.7971</v>
+        <v>31.5612</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.6541</v>
+        <v>20.4461</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6354</v>
+        <v>22.5145</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5195</v>
+        <v>31.4208</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.3757</v>
+        <v>20.0875</v>
       </c>
       <c r="C17" t="n">
-        <v>19.6504</v>
+        <v>22.8745</v>
       </c>
       <c r="D17" t="n">
-        <v>25.4937</v>
+        <v>29.6452</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.027240000000001</v>
+        <v>8.06246</v>
       </c>
       <c r="C2" t="n">
-        <v>11.407</v>
+        <v>11.4119</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1636</v>
+        <v>14.1582</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.62616</v>
+        <v>7.50657</v>
       </c>
       <c r="C3" t="n">
-        <v>8.90217</v>
+        <v>8.60036</v>
       </c>
       <c r="D3" t="n">
-        <v>14.0185</v>
+        <v>13.67</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.78951</v>
+        <v>8.693160000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7805</v>
+        <v>10.4407</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7793</v>
+        <v>15.6599</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.7462</v>
+        <v>9.89424</v>
       </c>
       <c r="C5" t="n">
-        <v>12.963</v>
+        <v>13.0184</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4399</v>
+        <v>17.4221</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4941</v>
+        <v>11.5</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4564</v>
+        <v>15.3035</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6289</v>
+        <v>19.597</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.929</v>
+        <v>12.8487</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0271</v>
+        <v>17.939</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5716</v>
+        <v>21.5669</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.142</v>
+        <v>14.1471</v>
       </c>
       <c r="C8" t="n">
-        <v>20.4602</v>
+        <v>20.3284</v>
       </c>
       <c r="D8" t="n">
-        <v>23.533</v>
+        <v>23.3976</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.1164</v>
+        <v>16.0748</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0938</v>
+        <v>23.0892</v>
       </c>
       <c r="D9" t="n">
-        <v>25.887</v>
+        <v>25.7037</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8515</v>
+        <v>13.8547</v>
       </c>
       <c r="C10" t="n">
-        <v>21.0647</v>
+        <v>21.2792</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8603</v>
+        <v>23.9925</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5315</v>
+        <v>14.4724</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1395</v>
+        <v>19.9566</v>
       </c>
       <c r="D11" t="n">
-        <v>24.5149</v>
+        <v>24.1693</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.3924</v>
+        <v>13.5462</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0176</v>
+        <v>20.1014</v>
       </c>
       <c r="D12" t="n">
-        <v>22.8262</v>
+        <v>22.5939</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.7035</v>
+        <v>13.486</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3634</v>
+        <v>20.4777</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0018</v>
+        <v>22.4641</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7926</v>
+        <v>13.8758</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8542</v>
+        <v>20.8357</v>
       </c>
       <c r="D14" t="n">
-        <v>22.9809</v>
+        <v>22.8285</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1694</v>
+        <v>14.191</v>
       </c>
       <c r="C15" t="n">
-        <v>21.3023</v>
+        <v>21.0828</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2273</v>
+        <v>23.333</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9453</v>
+        <v>14.0472</v>
       </c>
       <c r="C16" t="n">
-        <v>21.2973</v>
+        <v>21.3244</v>
       </c>
       <c r="D16" t="n">
-        <v>24.6175</v>
+        <v>24.3142</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.066</v>
+        <v>14.1509</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4707</v>
+        <v>21.4233</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1479</v>
+        <v>24.6534</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.059670000000001</v>
+        <v>8.12162</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3351</v>
+        <v>11.322</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9626</v>
+        <v>14.0176</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.57662</v>
+        <v>7.49998</v>
       </c>
       <c r="C3" t="n">
-        <v>8.952719999999999</v>
+        <v>8.491770000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.9132</v>
+        <v>13.4711</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.87528</v>
+        <v>8.779920000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5465</v>
+        <v>10.6858</v>
       </c>
       <c r="D4" t="n">
-        <v>15.719</v>
+        <v>15.6745</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.747249999999999</v>
+        <v>9.66273</v>
       </c>
       <c r="C5" t="n">
-        <v>12.8843</v>
+        <v>12.9145</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4694</v>
+        <v>17.4345</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6612</v>
+        <v>11.6514</v>
       </c>
       <c r="C6" t="n">
-        <v>15.387</v>
+        <v>15.3825</v>
       </c>
       <c r="D6" t="n">
-        <v>19.4826</v>
+        <v>19.5149</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0937</v>
+        <v>13.0708</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8269</v>
+        <v>17.8151</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0104</v>
+        <v>21.0603</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3253</v>
+        <v>14.3647</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7159</v>
+        <v>20.5445</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3687</v>
+        <v>23.3793</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.366</v>
+        <v>16.3407</v>
       </c>
       <c r="C9" t="n">
-        <v>22.8856</v>
+        <v>22.8891</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8908</v>
+        <v>25.662</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.142</v>
+        <v>14.0184</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3077</v>
+        <v>21.0599</v>
       </c>
       <c r="D10" t="n">
-        <v>23.828</v>
+        <v>23.7043</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.6527</v>
+        <v>14.7112</v>
       </c>
       <c r="C11" t="n">
-        <v>20.2326</v>
+        <v>20.0395</v>
       </c>
       <c r="D11" t="n">
-        <v>24.2317</v>
+        <v>24.1199</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6544</v>
+        <v>13.689</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1644</v>
+        <v>19.9442</v>
       </c>
       <c r="D12" t="n">
-        <v>22.8559</v>
+        <v>22.3738</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.877</v>
+        <v>13.6857</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5086</v>
+        <v>20.3758</v>
       </c>
       <c r="D13" t="n">
-        <v>22.544</v>
+        <v>22.3901</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9223</v>
+        <v>13.953</v>
       </c>
       <c r="C14" t="n">
-        <v>20.9141</v>
+        <v>20.7314</v>
       </c>
       <c r="D14" t="n">
-        <v>22.7151</v>
+        <v>22.8111</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3963</v>
+        <v>14.3721</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2112</v>
+        <v>21.1261</v>
       </c>
       <c r="D15" t="n">
-        <v>23.6104</v>
+        <v>23.8071</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.2046</v>
+        <v>14.3594</v>
       </c>
       <c r="C16" t="n">
-        <v>21.1461</v>
+        <v>21.4101</v>
       </c>
       <c r="D16" t="n">
-        <v>24.2762</v>
+        <v>24.2572</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2774</v>
+        <v>14.2558</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4308</v>
+        <v>21.3397</v>
       </c>
       <c r="D17" t="n">
-        <v>25.1385</v>
+        <v>24.8053</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.725910000000001</v>
+        <v>9.718629999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5971</v>
+        <v>11.628</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1822</v>
+        <v>14.2295</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.938750000000001</v>
+        <v>8.67212</v>
       </c>
       <c r="C3" t="n">
-        <v>9.43835</v>
+        <v>9.10934</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9109</v>
+        <v>14.6662</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.988189999999999</v>
+        <v>10.5673</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4039</v>
+        <v>11.1364</v>
       </c>
       <c r="D4" t="n">
-        <v>18.0691</v>
+        <v>17.4697</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1295</v>
+        <v>11.6329</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4548</v>
+        <v>13.3498</v>
       </c>
       <c r="D5" t="n">
-        <v>20.7499</v>
+        <v>20.2346</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.854</v>
+        <v>13.7066</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0561</v>
+        <v>16.0326</v>
       </c>
       <c r="D6" t="n">
-        <v>23.8489</v>
+        <v>23.5139</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1544</v>
+        <v>15.8647</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8458</v>
+        <v>18.8078</v>
       </c>
       <c r="D7" t="n">
-        <v>26.517</v>
+        <v>26.4928</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2177</v>
+        <v>18.2126</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7333</v>
+        <v>21.68</v>
       </c>
       <c r="D8" t="n">
-        <v>29.3162</v>
+        <v>29.0137</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8185</v>
+        <v>20.8263</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2845</v>
+        <v>24.1643</v>
       </c>
       <c r="D9" t="n">
-        <v>32.9201</v>
+        <v>32.917</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6405</v>
+        <v>17.6779</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9609</v>
+        <v>22.0952</v>
       </c>
       <c r="D10" t="n">
-        <v>27.94</v>
+        <v>27.6764</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.2136</v>
+        <v>18.1869</v>
       </c>
       <c r="C11" t="n">
-        <v>21.407</v>
+        <v>21.4291</v>
       </c>
       <c r="D11" t="n">
-        <v>27.2643</v>
+        <v>27.1317</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3075</v>
+        <v>17.3091</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9055</v>
+        <v>20.7491</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0981</v>
+        <v>27.091</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6589</v>
+        <v>17.5617</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2505</v>
+        <v>21.2802</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6095</v>
+        <v>27.3939</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7787</v>
+        <v>18.0797</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7589</v>
+        <v>21.6938</v>
       </c>
       <c r="D14" t="n">
-        <v>29.2049</v>
+        <v>29.0988</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.361</v>
+        <v>18.3768</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9262</v>
+        <v>21.9162</v>
       </c>
       <c r="D15" t="n">
-        <v>30.0403</v>
+        <v>30.1676</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2439</v>
+        <v>18.2574</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2765</v>
+        <v>22.1952</v>
       </c>
       <c r="D16" t="n">
-        <v>31.0419</v>
+        <v>30.6325</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.3588</v>
+        <v>18.2703</v>
       </c>
       <c r="C17" t="n">
-        <v>22.2918</v>
+        <v>22.1056</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5666</v>
+        <v>31.0849</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.44265</v>
+        <v>6.42838</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7603</v>
+        <v>10.7716</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4431</v>
+        <v>13.4015</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.28733</v>
+        <v>6.68542</v>
       </c>
       <c r="C3" t="n">
-        <v>8.72864</v>
+        <v>8.575390000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.5982</v>
+        <v>13.1341</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.51144</v>
+        <v>8.17802</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5406</v>
+        <v>10.3417</v>
       </c>
       <c r="D4" t="n">
-        <v>15.3415</v>
+        <v>15.2222</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.71725</v>
+        <v>9.618600000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6395</v>
+        <v>12.5314</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8929</v>
+        <v>16.7494</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1143</v>
+        <v>11.0806</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7188</v>
+        <v>14.7467</v>
       </c>
       <c r="D6" t="n">
-        <v>19.0613</v>
+        <v>19.05</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4657</v>
+        <v>12.4325</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2327</v>
+        <v>16.9008</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2356</v>
+        <v>21.1517</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.6014</v>
+        <v>13.5963</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6206</v>
+        <v>19.5438</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2184</v>
+        <v>23.0214</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.5589</v>
+        <v>15.6239</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9272</v>
+        <v>21.5386</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9484</v>
+        <v>25.9825</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0326</v>
+        <v>13.9141</v>
       </c>
       <c r="C10" t="n">
-        <v>19.8161</v>
+        <v>20.3349</v>
       </c>
       <c r="D10" t="n">
-        <v>24.2113</v>
+        <v>23.9299</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.217</v>
+        <v>14.1115</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0542</v>
+        <v>19.654</v>
       </c>
       <c r="D11" t="n">
-        <v>23.4617</v>
+        <v>23.887</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.2272</v>
+        <v>14.3557</v>
       </c>
       <c r="C12" t="n">
-        <v>20.2308</v>
+        <v>20.1871</v>
       </c>
       <c r="D12" t="n">
-        <v>23.8604</v>
+        <v>23.9472</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.6103</v>
+        <v>14.5215</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7856</v>
+        <v>20.7953</v>
       </c>
       <c r="D13" t="n">
-        <v>23.5955</v>
+        <v>24.0596</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.6957</v>
+        <v>14.709</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4526</v>
+        <v>21.2232</v>
       </c>
       <c r="D14" t="n">
-        <v>23.8757</v>
+        <v>24.1301</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.9798</v>
+        <v>14.8989</v>
       </c>
       <c r="C15" t="n">
-        <v>21.4649</v>
+        <v>21.4764</v>
       </c>
       <c r="D15" t="n">
-        <v>23.6848</v>
+        <v>23.8658</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.8673</v>
+        <v>14.7953</v>
       </c>
       <c r="C16" t="n">
-        <v>21.8232</v>
+        <v>21.5664</v>
       </c>
       <c r="D16" t="n">
-        <v>24.0295</v>
+        <v>23.8662</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.7594</v>
+        <v>14.6835</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0294</v>
+        <v>21.8639</v>
       </c>
       <c r="D17" t="n">
-        <v>22.4628</v>
+        <v>22.8032</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42846</v>
+        <v>6.50333</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8416</v>
+        <v>10.8285</v>
       </c>
       <c r="D2" t="n">
-        <v>13.22</v>
+        <v>13.255</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.20816</v>
+        <v>7.18117</v>
       </c>
       <c r="C3" t="n">
-        <v>8.56977</v>
+        <v>8.424010000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1311</v>
+        <v>12.9712</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.64565</v>
+        <v>8.57376</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5391</v>
+        <v>10.4801</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2371</v>
+        <v>15.0889</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.832470000000001</v>
+        <v>9.551130000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6832</v>
+        <v>12.3937</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8553</v>
+        <v>16.7539</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.3363</v>
+        <v>11.1319</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0406</v>
+        <v>14.8792</v>
       </c>
       <c r="D6" t="n">
-        <v>19.1034</v>
+        <v>18.9588</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6455</v>
+        <v>12.4281</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2195</v>
+        <v>17.3563</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0227</v>
+        <v>21.0463</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7928</v>
+        <v>13.9046</v>
       </c>
       <c r="C8" t="n">
-        <v>19.8748</v>
+        <v>19.8161</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0287</v>
+        <v>23.1405</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.9516</v>
+        <v>15.8557</v>
       </c>
       <c r="C9" t="n">
-        <v>22.26</v>
+        <v>21.9916</v>
       </c>
       <c r="D9" t="n">
-        <v>26.0624</v>
+        <v>25.9654</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.1876</v>
+        <v>14.0612</v>
       </c>
       <c r="C10" t="n">
-        <v>20.5171</v>
+        <v>20.0264</v>
       </c>
       <c r="D10" t="n">
-        <v>23.7189</v>
+        <v>23.8279</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4287</v>
+        <v>14.3701</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8386</v>
+        <v>20.0209</v>
       </c>
       <c r="D11" t="n">
-        <v>23.6719</v>
+        <v>23.5699</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.734</v>
+        <v>14.4855</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6819</v>
+        <v>20.631</v>
       </c>
       <c r="D12" t="n">
-        <v>23.6754</v>
+        <v>23.6497</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7692</v>
+        <v>14.8781</v>
       </c>
       <c r="C13" t="n">
-        <v>20.95</v>
+        <v>20.6828</v>
       </c>
       <c r="D13" t="n">
-        <v>23.7337</v>
+        <v>24.0358</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.9365</v>
+        <v>14.8597</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2505</v>
+        <v>21.2736</v>
       </c>
       <c r="D14" t="n">
-        <v>23.4137</v>
+        <v>23.9523</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.2098</v>
+        <v>15.1846</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7023</v>
+        <v>21.5787</v>
       </c>
       <c r="D15" t="n">
-        <v>24.1333</v>
+        <v>23.6658</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.1316</v>
+        <v>15.0901</v>
       </c>
       <c r="C16" t="n">
-        <v>21.7281</v>
+        <v>22.0725</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8299</v>
+        <v>23.2361</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.1024</v>
+        <v>15.0702</v>
       </c>
       <c r="C17" t="n">
-        <v>22.194</v>
+        <v>22.0668</v>
       </c>
       <c r="D17" t="n">
-        <v>21.9027</v>
+        <v>23.1177</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.07009</v>
+        <v>9.006930000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3805</v>
+        <v>11.3689</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9531</v>
+        <v>13.916</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.793620000000001</v>
+        <v>8.650090000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.13827</v>
+        <v>9.146420000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1039</v>
+        <v>15.0174</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.6031</v>
+        <v>10.0537</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2302</v>
+        <v>11.269</v>
       </c>
       <c r="D4" t="n">
-        <v>18.5799</v>
+        <v>18.7387</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5254</v>
+        <v>12.5101</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4572</v>
+        <v>13.4582</v>
       </c>
       <c r="D5" t="n">
-        <v>21.7551</v>
+        <v>21.8033</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.6342</v>
+        <v>14.5938</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7881</v>
+        <v>15.8288</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8727</v>
+        <v>24.8096</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.6465</v>
+        <v>16.2479</v>
       </c>
       <c r="C7" t="n">
-        <v>18.2948</v>
+        <v>18.0558</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1708</v>
+        <v>28.1877</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7801</v>
+        <v>18.8385</v>
       </c>
       <c r="C8" t="n">
-        <v>20.3109</v>
+        <v>20.411</v>
       </c>
       <c r="D8" t="n">
-        <v>31.4701</v>
+        <v>31.5574</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5523</v>
+        <v>21.6254</v>
       </c>
       <c r="C9" t="n">
-        <v>22.6298</v>
+        <v>22.4431</v>
       </c>
       <c r="D9" t="n">
-        <v>35.5349</v>
+        <v>35.7006</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0857</v>
+        <v>19.0369</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3918</v>
+        <v>21.2093</v>
       </c>
       <c r="D10" t="n">
-        <v>31.9012</v>
+        <v>31.7891</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.1878</v>
+        <v>19.0138</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7268</v>
+        <v>20.9082</v>
       </c>
       <c r="D11" t="n">
-        <v>31.7682</v>
+        <v>32.206</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.6387</v>
+        <v>19.4584</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3014</v>
+        <v>21.4225</v>
       </c>
       <c r="D12" t="n">
-        <v>31.5869</v>
+        <v>31.8643</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.9707</v>
+        <v>19.81</v>
       </c>
       <c r="C13" t="n">
-        <v>21.7719</v>
+        <v>21.3695</v>
       </c>
       <c r="D13" t="n">
-        <v>31.7594</v>
+        <v>31.9211</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1455</v>
+        <v>20.3283</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7756</v>
+        <v>21.7923</v>
       </c>
       <c r="D14" t="n">
-        <v>31.7374</v>
+        <v>31.9852</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4508</v>
+        <v>20.5633</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2867</v>
+        <v>22.2694</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5612</v>
+        <v>31.8361</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4461</v>
+        <v>20.3344</v>
       </c>
       <c r="C16" t="n">
-        <v>22.5145</v>
+        <v>22.2711</v>
       </c>
       <c r="D16" t="n">
-        <v>31.4208</v>
+        <v>30.6293</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0875</v>
+        <v>20.2353</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8745</v>
+        <v>22.8032</v>
       </c>
       <c r="D17" t="n">
-        <v>29.6452</v>
+        <v>29.9435</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.06246</v>
+        <v>8.01741</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4119</v>
+        <v>11.3843</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1582</v>
+        <v>14.2407</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.50657</v>
+        <v>7.53101</v>
       </c>
       <c r="C3" t="n">
-        <v>8.60036</v>
+        <v>9.16038</v>
       </c>
       <c r="D3" t="n">
-        <v>13.67</v>
+        <v>14.1185</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.693160000000001</v>
+        <v>8.40527</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4407</v>
+        <v>10.5341</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6599</v>
+        <v>15.833</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.89424</v>
+        <v>9.63753</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0184</v>
+        <v>12.6996</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4221</v>
+        <v>17.3737</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5</v>
+        <v>11.4729</v>
       </c>
       <c r="C6" t="n">
-        <v>15.3035</v>
+        <v>15.4603</v>
       </c>
       <c r="D6" t="n">
-        <v>19.597</v>
+        <v>19.6198</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8487</v>
+        <v>12.8733</v>
       </c>
       <c r="C7" t="n">
-        <v>17.939</v>
+        <v>17.8747</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5669</v>
+        <v>21.5256</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.1471</v>
+        <v>14.1026</v>
       </c>
       <c r="C8" t="n">
-        <v>20.3284</v>
+        <v>20.5077</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3976</v>
+        <v>23.5448</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0748</v>
+        <v>16.0609</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0892</v>
+        <v>22.9043</v>
       </c>
       <c r="D9" t="n">
-        <v>25.7037</v>
+        <v>25.7848</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8547</v>
+        <v>13.817</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2792</v>
+        <v>21.2164</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9925</v>
+        <v>23.9506</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4724</v>
+        <v>14.4435</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9566</v>
+        <v>20.163</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1693</v>
+        <v>24.0084</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.5462</v>
+        <v>13.349</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1014</v>
+        <v>20.0916</v>
       </c>
       <c r="D12" t="n">
-        <v>22.5939</v>
+        <v>22.7139</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.486</v>
+        <v>13.6352</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4777</v>
+        <v>20.5434</v>
       </c>
       <c r="D13" t="n">
-        <v>22.4641</v>
+        <v>22.8142</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.8758</v>
+        <v>13.7604</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8357</v>
+        <v>20.7432</v>
       </c>
       <c r="D14" t="n">
-        <v>22.8285</v>
+        <v>22.6964</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.191</v>
+        <v>14.1476</v>
       </c>
       <c r="C15" t="n">
-        <v>21.0828</v>
+        <v>21.1367</v>
       </c>
       <c r="D15" t="n">
-        <v>23.333</v>
+        <v>23.1195</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.0472</v>
+        <v>13.9181</v>
       </c>
       <c r="C16" t="n">
-        <v>21.3244</v>
+        <v>21.399</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3142</v>
+        <v>24.4022</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1509</v>
+        <v>13.9613</v>
       </c>
       <c r="C17" t="n">
-        <v>21.4233</v>
+        <v>21.556</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6534</v>
+        <v>24.6871</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.12162</v>
+        <v>8.01116</v>
       </c>
       <c r="C2" t="n">
-        <v>11.322</v>
+        <v>11.2968</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0176</v>
+        <v>14.1443</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.49998</v>
+        <v>7.68319</v>
       </c>
       <c r="C3" t="n">
-        <v>8.491770000000001</v>
+        <v>8.7814</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4711</v>
+        <v>14.0061</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.779920000000001</v>
+        <v>8.49409</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6858</v>
+        <v>10.7128</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6745</v>
+        <v>15.7567</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.66273</v>
+        <v>9.672779999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>12.9145</v>
+        <v>12.6394</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4345</v>
+        <v>17.4206</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.6514</v>
+        <v>11.5959</v>
       </c>
       <c r="C6" t="n">
-        <v>15.3825</v>
+        <v>15.3153</v>
       </c>
       <c r="D6" t="n">
-        <v>19.5149</v>
+        <v>19.6044</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0708</v>
+        <v>13.0535</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8151</v>
+        <v>17.7974</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0603</v>
+        <v>21.5079</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3647</v>
+        <v>14.3122</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5445</v>
+        <v>20.4368</v>
       </c>
       <c r="D8" t="n">
-        <v>23.3793</v>
+        <v>23.4687</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3407</v>
+        <v>16.3343</v>
       </c>
       <c r="C9" t="n">
-        <v>22.8891</v>
+        <v>23.1131</v>
       </c>
       <c r="D9" t="n">
-        <v>25.662</v>
+        <v>25.8377</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0184</v>
+        <v>13.8211</v>
       </c>
       <c r="C10" t="n">
-        <v>21.0599</v>
+        <v>21.2014</v>
       </c>
       <c r="D10" t="n">
-        <v>23.7043</v>
+        <v>23.7463</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.7112</v>
+        <v>14.5529</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0395</v>
+        <v>20.0208</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1199</v>
+        <v>24.1843</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.689</v>
+        <v>13.6404</v>
       </c>
       <c r="C12" t="n">
-        <v>19.9442</v>
+        <v>20.0053</v>
       </c>
       <c r="D12" t="n">
-        <v>22.3738</v>
+        <v>22.3717</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6857</v>
+        <v>13.5998</v>
       </c>
       <c r="C13" t="n">
-        <v>20.3758</v>
+        <v>20.4748</v>
       </c>
       <c r="D13" t="n">
-        <v>22.3901</v>
+        <v>22.3575</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.953</v>
+        <v>13.9544</v>
       </c>
       <c r="C14" t="n">
-        <v>20.7314</v>
+        <v>20.8937</v>
       </c>
       <c r="D14" t="n">
-        <v>22.8111</v>
+        <v>22.9075</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.3721</v>
+        <v>14.4664</v>
       </c>
       <c r="C15" t="n">
-        <v>21.1261</v>
+        <v>21.081</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8071</v>
+        <v>23.7045</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.3594</v>
+        <v>14.014</v>
       </c>
       <c r="C16" t="n">
-        <v>21.4101</v>
+        <v>21.3088</v>
       </c>
       <c r="D16" t="n">
-        <v>24.2572</v>
+        <v>24.396</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.2558</v>
+        <v>14.1078</v>
       </c>
       <c r="C17" t="n">
-        <v>21.3397</v>
+        <v>21.7179</v>
       </c>
       <c r="D17" t="n">
-        <v>24.8053</v>
+        <v>24.5857</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.718629999999999</v>
+        <v>9.687849999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.628</v>
+        <v>11.5981</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2295</v>
+        <v>14.3463</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.67212</v>
+        <v>8.973990000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.10934</v>
+        <v>9.42605</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6662</v>
+        <v>15.1798</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5673</v>
+        <v>10.5073</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1364</v>
+        <v>11.1416</v>
       </c>
       <c r="D4" t="n">
-        <v>17.4697</v>
+        <v>18.104</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.6329</v>
+        <v>12.3031</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3498</v>
+        <v>13.7233</v>
       </c>
       <c r="D5" t="n">
-        <v>20.2346</v>
+        <v>20.8046</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7066</v>
+        <v>13.9603</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0326</v>
+        <v>16.2715</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5139</v>
+        <v>23.942</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.8647</v>
+        <v>16.0542</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8078</v>
+        <v>18.7844</v>
       </c>
       <c r="D7" t="n">
-        <v>26.4928</v>
+        <v>26.7195</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.2126</v>
+        <v>18.1396</v>
       </c>
       <c r="C8" t="n">
-        <v>21.68</v>
+        <v>21.6542</v>
       </c>
       <c r="D8" t="n">
-        <v>29.0137</v>
+        <v>29.5478</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.8263</v>
+        <v>20.7957</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1643</v>
+        <v>24.2409</v>
       </c>
       <c r="D9" t="n">
-        <v>32.917</v>
+        <v>33.0556</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.6779</v>
+        <v>17.676</v>
       </c>
       <c r="C10" t="n">
         <v>22.0952</v>
       </c>
       <c r="D10" t="n">
-        <v>27.6764</v>
+        <v>28.1356</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.1869</v>
+        <v>18.0698</v>
       </c>
       <c r="C11" t="n">
-        <v>21.4291</v>
+        <v>21.1006</v>
       </c>
       <c r="D11" t="n">
-        <v>27.1317</v>
+        <v>28.0721</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.3091</v>
+        <v>17.0998</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7491</v>
+        <v>20.8462</v>
       </c>
       <c r="D12" t="n">
-        <v>27.091</v>
+        <v>27.0747</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5617</v>
+        <v>17.4633</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2802</v>
+        <v>21.2992</v>
       </c>
       <c r="D13" t="n">
-        <v>27.3939</v>
+        <v>27.9107</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>18.0797</v>
+        <v>17.9051</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6938</v>
+        <v>21.636</v>
       </c>
       <c r="D14" t="n">
-        <v>29.0988</v>
+        <v>29.1914</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.3768</v>
+        <v>18.2991</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9162</v>
+        <v>21.8177</v>
       </c>
       <c r="D15" t="n">
-        <v>30.1676</v>
+        <v>30.3394</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.2574</v>
+        <v>18.342</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1952</v>
+        <v>22.166</v>
       </c>
       <c r="D16" t="n">
-        <v>30.6325</v>
+        <v>30.9605</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.2703</v>
+        <v>18.5186</v>
       </c>
       <c r="C17" t="n">
-        <v>22.1056</v>
+        <v>22.1069</v>
       </c>
       <c r="D17" t="n">
-        <v>31.0849</v>
+        <v>31.9177</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.42838</v>
+        <v>6.35505</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7716</v>
+        <v>10.7346</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4015</v>
+        <v>13.4876</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.68542</v>
+        <v>7.18229</v>
       </c>
       <c r="C3" t="n">
-        <v>8.575390000000001</v>
+        <v>8.368130000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1341</v>
+        <v>13.2091</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.17802</v>
+        <v>8.422230000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3417</v>
+        <v>10.3588</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2222</v>
+        <v>15.1628</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.618600000000001</v>
+        <v>9.67102</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5314</v>
+        <v>12.3516</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7494</v>
+        <v>16.953</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0806</v>
+        <v>11.1233</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7467</v>
+        <v>14.7722</v>
       </c>
       <c r="D6" t="n">
-        <v>19.05</v>
+        <v>19.0319</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4325</v>
+        <v>12.3947</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9008</v>
+        <v>17.1982</v>
       </c>
       <c r="D7" t="n">
-        <v>21.1517</v>
+        <v>21.2154</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.5963</v>
+        <v>13.5363</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5438</v>
+        <v>19.5771</v>
       </c>
       <c r="D8" t="n">
-        <v>23.0214</v>
+        <v>23.2771</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.6239</v>
+        <v>15.5517</v>
       </c>
       <c r="C9" t="n">
-        <v>21.5386</v>
+        <v>21.7818</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9825</v>
+        <v>25.9606</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9141</v>
+        <v>13.9047</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3349</v>
+        <v>20.3334</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9299</v>
+        <v>23.8905</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.1115</v>
+        <v>14.0073</v>
       </c>
       <c r="C11" t="n">
-        <v>19.654</v>
+        <v>19.8162</v>
       </c>
       <c r="D11" t="n">
-        <v>23.887</v>
+        <v>23.8479</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.3557</v>
+        <v>14.4143</v>
       </c>
       <c r="C12" t="n">
-        <v>20.1871</v>
+        <v>20.3297</v>
       </c>
       <c r="D12" t="n">
-        <v>23.9472</v>
+        <v>23.3577</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5215</v>
+        <v>14.5494</v>
       </c>
       <c r="C13" t="n">
-        <v>20.7953</v>
+        <v>20.9371</v>
       </c>
       <c r="D13" t="n">
-        <v>24.0596</v>
+        <v>23.9381</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.709</v>
+        <v>14.7305</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2232</v>
+        <v>20.755</v>
       </c>
       <c r="D14" t="n">
-        <v>24.1301</v>
+        <v>23.8473</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.8989</v>
+        <v>14.7864</v>
       </c>
       <c r="C15" t="n">
-        <v>21.4764</v>
+        <v>21.2492</v>
       </c>
       <c r="D15" t="n">
-        <v>23.8658</v>
+        <v>24.3432</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7953</v>
+        <v>14.7461</v>
       </c>
       <c r="C16" t="n">
-        <v>21.5664</v>
+        <v>21.7957</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8662</v>
+        <v>23.4518</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.6835</v>
+        <v>14.7157</v>
       </c>
       <c r="C17" t="n">
-        <v>21.8639</v>
+        <v>22.132</v>
       </c>
       <c r="D17" t="n">
-        <v>22.8032</v>
+        <v>22.6908</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.50333</v>
+        <v>6.59562</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8285</v>
+        <v>10.8047</v>
       </c>
       <c r="D2" t="n">
-        <v>13.255</v>
+        <v>13.3203</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.18117</v>
+        <v>7.40352</v>
       </c>
       <c r="C3" t="n">
-        <v>8.424010000000001</v>
+        <v>8.83892</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9712</v>
+        <v>13.499</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.57376</v>
+        <v>8.35055</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4801</v>
+        <v>10.6043</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0889</v>
+        <v>15.2245</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.551130000000001</v>
+        <v>9.846920000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3937</v>
+        <v>12.5533</v>
       </c>
       <c r="D5" t="n">
-        <v>16.7539</v>
+        <v>16.8637</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1319</v>
+        <v>11.2703</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8792</v>
+        <v>14.8258</v>
       </c>
       <c r="D6" t="n">
-        <v>18.9588</v>
+        <v>18.9986</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.4281</v>
+        <v>12.6393</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3563</v>
+        <v>16.9842</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0463</v>
+        <v>21.0061</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.9046</v>
+        <v>13.7665</v>
       </c>
       <c r="C8" t="n">
-        <v>19.8161</v>
+        <v>19.73</v>
       </c>
       <c r="D8" t="n">
-        <v>23.1405</v>
+        <v>22.982</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8557</v>
+        <v>15.9018</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9916</v>
+        <v>22.021</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9654</v>
+        <v>25.8872</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0612</v>
+        <v>14.0946</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0264</v>
+        <v>20.422</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8279</v>
+        <v>24.0422</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3701</v>
+        <v>14.3663</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0209</v>
+        <v>19.9675</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5699</v>
+        <v>23.5824</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4855</v>
+        <v>14.542</v>
       </c>
       <c r="C12" t="n">
-        <v>20.631</v>
+        <v>20.7562</v>
       </c>
       <c r="D12" t="n">
-        <v>23.6497</v>
+        <v>23.6905</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.8781</v>
+        <v>14.7735</v>
       </c>
       <c r="C13" t="n">
-        <v>20.6828</v>
+        <v>20.9356</v>
       </c>
       <c r="D13" t="n">
-        <v>24.0358</v>
+        <v>23.5061</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8597</v>
+        <v>14.8799</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2736</v>
+        <v>21.2644</v>
       </c>
       <c r="D14" t="n">
-        <v>23.9523</v>
+        <v>23.8269</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.1846</v>
+        <v>15.057</v>
       </c>
       <c r="C15" t="n">
-        <v>21.5787</v>
+        <v>21.5073</v>
       </c>
       <c r="D15" t="n">
-        <v>23.6658</v>
+        <v>23.7926</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0901</v>
+        <v>15.0409</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0725</v>
+        <v>21.8559</v>
       </c>
       <c r="D16" t="n">
-        <v>23.2361</v>
+        <v>23.5399</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>15.0702</v>
+        <v>14.9003</v>
       </c>
       <c r="C17" t="n">
-        <v>22.0668</v>
+        <v>22.1159</v>
       </c>
       <c r="D17" t="n">
-        <v>23.1177</v>
+        <v>22.3094</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.006930000000001</v>
+        <v>8.88888</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3689</v>
+        <v>11.36</v>
       </c>
       <c r="D2" t="n">
-        <v>13.916</v>
+        <v>13.9268</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.650090000000001</v>
+        <v>8.71597</v>
       </c>
       <c r="C3" t="n">
-        <v>9.146420000000001</v>
+        <v>9.06631</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0174</v>
+        <v>15.0899</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0537</v>
+        <v>10.5066</v>
       </c>
       <c r="C4" t="n">
-        <v>11.269</v>
+        <v>10.9221</v>
       </c>
       <c r="D4" t="n">
-        <v>18.7387</v>
+        <v>18.5906</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5101</v>
+        <v>12.3231</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4582</v>
+        <v>13.2522</v>
       </c>
       <c r="D5" t="n">
-        <v>21.8033</v>
+        <v>21.3498</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.5938</v>
+        <v>14.0213</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8288</v>
+        <v>15.7524</v>
       </c>
       <c r="D6" t="n">
-        <v>24.8096</v>
+        <v>25.1321</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2479</v>
+        <v>16.2843</v>
       </c>
       <c r="C7" t="n">
-        <v>18.0558</v>
+        <v>18.2553</v>
       </c>
       <c r="D7" t="n">
-        <v>28.1877</v>
+        <v>28.2728</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8385</v>
+        <v>18.5884</v>
       </c>
       <c r="C8" t="n">
-        <v>20.411</v>
+        <v>20.5044</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5574</v>
+        <v>31.5479</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6254</v>
+        <v>21.4471</v>
       </c>
       <c r="C9" t="n">
-        <v>22.4431</v>
+        <v>22.742</v>
       </c>
       <c r="D9" t="n">
-        <v>35.7006</v>
+        <v>35.7035</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0369</v>
+        <v>19.0752</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2093</v>
+        <v>20.8787</v>
       </c>
       <c r="D10" t="n">
-        <v>31.7891</v>
+        <v>31.6062</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.0138</v>
+        <v>18.7057</v>
       </c>
       <c r="C11" t="n">
-        <v>20.9082</v>
+        <v>20.8568</v>
       </c>
       <c r="D11" t="n">
-        <v>32.206</v>
+        <v>31.4615</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4584</v>
+        <v>19.2595</v>
       </c>
       <c r="C12" t="n">
-        <v>21.4225</v>
+        <v>20.9911</v>
       </c>
       <c r="D12" t="n">
-        <v>31.8643</v>
+        <v>32.1196</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.81</v>
+        <v>19.7128</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3695</v>
+        <v>21.8528</v>
       </c>
       <c r="D13" t="n">
-        <v>31.9211</v>
+        <v>32.1577</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3283</v>
+        <v>20.1626</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7923</v>
+        <v>21.7075</v>
       </c>
       <c r="D14" t="n">
-        <v>31.9852</v>
+        <v>32.1178</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5633</v>
+        <v>20.0242</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2694</v>
+        <v>22.4028</v>
       </c>
       <c r="D15" t="n">
-        <v>31.8361</v>
+        <v>31.5859</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3344</v>
+        <v>19.9911</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2711</v>
+        <v>22.6721</v>
       </c>
       <c r="D16" t="n">
-        <v>30.6293</v>
+        <v>30.7575</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2353</v>
+        <v>20.0984</v>
       </c>
       <c r="C17" t="n">
-        <v>22.8032</v>
+        <v>22.7185</v>
       </c>
       <c r="D17" t="n">
-        <v>29.9435</v>
+        <v>29.7787</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.01741</v>
+        <v>7.85887</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3843</v>
+        <v>10.3433</v>
       </c>
       <c r="D2" t="n">
-        <v>14.2407</v>
+        <v>12.562</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.53101</v>
+        <v>10.084</v>
       </c>
       <c r="C3" t="n">
-        <v>9.16038</v>
+        <v>8.381830000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.1185</v>
+        <v>13.1118</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.40527</v>
+        <v>13.1379</v>
       </c>
       <c r="C4" t="n">
-        <v>10.5341</v>
+        <v>10.2554</v>
       </c>
       <c r="D4" t="n">
-        <v>15.833</v>
+        <v>15.6154</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.63753</v>
+        <v>16.4838</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6996</v>
+        <v>12.6642</v>
       </c>
       <c r="D5" t="n">
-        <v>17.3737</v>
+        <v>17.9139</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4729</v>
+        <v>19.7239</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4603</v>
+        <v>15.0823</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6198</v>
+        <v>20.7659</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.8733</v>
+        <v>23.4771</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8747</v>
+        <v>17.4197</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5256</v>
+        <v>23.3006</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.1026</v>
+        <v>27.9698</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5077</v>
+        <v>19.5581</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5448</v>
+        <v>24.8923</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.0609</v>
+        <v>32.5854</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9043</v>
+        <v>22.155</v>
       </c>
       <c r="D9" t="n">
-        <v>25.7848</v>
+        <v>28.5016</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.817</v>
+        <v>26.736</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2164</v>
+        <v>20.5984</v>
       </c>
       <c r="D10" t="n">
-        <v>23.9506</v>
+        <v>26.0512</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4435</v>
+        <v>28.0776</v>
       </c>
       <c r="C11" t="n">
-        <v>20.163</v>
+        <v>19.9428</v>
       </c>
       <c r="D11" t="n">
-        <v>24.0084</v>
+        <v>25.7355</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.349</v>
+        <v>28.805</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0916</v>
+        <v>20.5521</v>
       </c>
       <c r="D12" t="n">
-        <v>22.7139</v>
+        <v>25.5804</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.6352</v>
+        <v>31.5361</v>
       </c>
       <c r="C13" t="n">
-        <v>20.5434</v>
+        <v>21.1854</v>
       </c>
       <c r="D13" t="n">
-        <v>22.8142</v>
+        <v>25.5089</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.7604</v>
+        <v>28.5703</v>
       </c>
       <c r="C14" t="n">
-        <v>20.7432</v>
+        <v>21.3483</v>
       </c>
       <c r="D14" t="n">
-        <v>22.6964</v>
+        <v>25.1115</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.1476</v>
+        <v>28.2666</v>
       </c>
       <c r="C15" t="n">
-        <v>21.1367</v>
+        <v>21.7441</v>
       </c>
       <c r="D15" t="n">
-        <v>23.1195</v>
+        <v>24.9054</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>13.9181</v>
+        <v>29.5112</v>
       </c>
       <c r="C16" t="n">
-        <v>21.399</v>
+        <v>22.3342</v>
       </c>
       <c r="D16" t="n">
-        <v>24.4022</v>
+        <v>25.4482</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>13.9613</v>
+        <v>28.8923</v>
       </c>
       <c r="C17" t="n">
-        <v>21.556</v>
+        <v>22.6278</v>
       </c>
       <c r="D17" t="n">
-        <v>24.6871</v>
+        <v>24.4501</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.01116</v>
+        <v>8.532970000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2968</v>
+        <v>10.349</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1443</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.68319</v>
+        <v>10.3185</v>
       </c>
       <c r="C3" t="n">
-        <v>8.7814</v>
+        <v>8.337870000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.0061</v>
+        <v>13.3274</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.49409</v>
+        <v>13.2824</v>
       </c>
       <c r="C4" t="n">
-        <v>10.7128</v>
+        <v>10.3589</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7567</v>
+        <v>16.0792</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.672779999999999</v>
+        <v>16.6973</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6394</v>
+        <v>12.6244</v>
       </c>
       <c r="D5" t="n">
-        <v>17.4206</v>
+        <v>18.6731</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.5959</v>
+        <v>19.8782</v>
       </c>
       <c r="C6" t="n">
-        <v>15.3153</v>
+        <v>15.0849</v>
       </c>
       <c r="D6" t="n">
-        <v>19.6044</v>
+        <v>21.5257</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0535</v>
+        <v>23.6198</v>
       </c>
       <c r="C7" t="n">
-        <v>17.7974</v>
+        <v>17.2364</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5079</v>
+        <v>24.4459</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>14.3122</v>
+        <v>27.9899</v>
       </c>
       <c r="C8" t="n">
-        <v>20.4368</v>
+        <v>19.535</v>
       </c>
       <c r="D8" t="n">
-        <v>23.4687</v>
+        <v>25.9521</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.3343</v>
+        <v>32.6657</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1131</v>
+        <v>21.837</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8377</v>
+        <v>29.778</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.8211</v>
+        <v>27.694</v>
       </c>
       <c r="C10" t="n">
-        <v>21.2014</v>
+        <v>20.334</v>
       </c>
       <c r="D10" t="n">
-        <v>23.7463</v>
+        <v>27.4086</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.5529</v>
+        <v>28.1796</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0208</v>
+        <v>19.9882</v>
       </c>
       <c r="D11" t="n">
-        <v>24.1843</v>
+        <v>26.7211</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>13.6404</v>
+        <v>29.2371</v>
       </c>
       <c r="C12" t="n">
-        <v>20.0053</v>
+        <v>20.4365</v>
       </c>
       <c r="D12" t="n">
-        <v>22.3717</v>
+        <v>26.841</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>13.5998</v>
+        <v>31.1466</v>
       </c>
       <c r="C13" t="n">
-        <v>20.4748</v>
+        <v>20.9683</v>
       </c>
       <c r="D13" t="n">
-        <v>22.3575</v>
+        <v>27.2298</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>13.9544</v>
+        <v>28.8256</v>
       </c>
       <c r="C14" t="n">
-        <v>20.8937</v>
+        <v>21.2584</v>
       </c>
       <c r="D14" t="n">
-        <v>22.9075</v>
+        <v>26.4568</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.4664</v>
+        <v>29.6689</v>
       </c>
       <c r="C15" t="n">
-        <v>21.081</v>
+        <v>21.6452</v>
       </c>
       <c r="D15" t="n">
-        <v>23.7045</v>
+        <v>26.0209</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.014</v>
+        <v>29.7754</v>
       </c>
       <c r="C16" t="n">
-        <v>21.3088</v>
+        <v>22.3056</v>
       </c>
       <c r="D16" t="n">
-        <v>24.396</v>
+        <v>26.1328</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.1078</v>
+        <v>28.6746</v>
       </c>
       <c r="C17" t="n">
-        <v>21.7179</v>
+        <v>22.4073</v>
       </c>
       <c r="D17" t="n">
-        <v>24.5857</v>
+        <v>24.814</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.687849999999999</v>
+        <v>11.2884</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5981</v>
+        <v>11.1074</v>
       </c>
       <c r="D2" t="n">
-        <v>14.3463</v>
+        <v>13.8337</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.973990000000001</v>
+        <v>10.8662</v>
       </c>
       <c r="C3" t="n">
-        <v>9.42605</v>
+        <v>9.04899</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1798</v>
+        <v>15.1541</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5073</v>
+        <v>13.8026</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1416</v>
+        <v>11.2869</v>
       </c>
       <c r="D4" t="n">
-        <v>18.104</v>
+        <v>19.1685</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3031</v>
+        <v>15.4622</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7233</v>
+        <v>13.4558</v>
       </c>
       <c r="D5" t="n">
-        <v>20.8046</v>
+        <v>22.7228</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9603</v>
+        <v>18.833</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2715</v>
+        <v>16.0966</v>
       </c>
       <c r="D6" t="n">
-        <v>23.942</v>
+        <v>26.592</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0542</v>
+        <v>22.61</v>
       </c>
       <c r="C7" t="n">
-        <v>18.7844</v>
+        <v>18.8296</v>
       </c>
       <c r="D7" t="n">
-        <v>26.7195</v>
+        <v>31.1493</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.1396</v>
+        <v>26.6762</v>
       </c>
       <c r="C8" t="n">
-        <v>21.6542</v>
+        <v>21.0161</v>
       </c>
       <c r="D8" t="n">
-        <v>29.5478</v>
+        <v>34.0848</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>20.7957</v>
+        <v>31.8856</v>
       </c>
       <c r="C9" t="n">
-        <v>24.2409</v>
+        <v>23.3676</v>
       </c>
       <c r="D9" t="n">
-        <v>33.0556</v>
+        <v>38.3317</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.676</v>
+        <v>29.4286</v>
       </c>
       <c r="C10" t="n">
-        <v>22.0952</v>
+        <v>22.3831</v>
       </c>
       <c r="D10" t="n">
-        <v>28.1356</v>
+        <v>34.7207</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.0698</v>
+        <v>28.0524</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1006</v>
+        <v>21.1619</v>
       </c>
       <c r="D11" t="n">
-        <v>28.0721</v>
+        <v>34.0427</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.0998</v>
+        <v>28.9981</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8462</v>
+        <v>21.7848</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0747</v>
+        <v>34.6009</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.4633</v>
+        <v>30.7065</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2992</v>
+        <v>22.2074</v>
       </c>
       <c r="D13" t="n">
-        <v>27.9107</v>
+        <v>34.2511</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.9051</v>
+        <v>29.1989</v>
       </c>
       <c r="C14" t="n">
-        <v>21.636</v>
+        <v>22.5255</v>
       </c>
       <c r="D14" t="n">
-        <v>29.1914</v>
+        <v>33.9641</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.2991</v>
+        <v>28.515</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8177</v>
+        <v>22.9365</v>
       </c>
       <c r="D15" t="n">
-        <v>30.3394</v>
+        <v>33.6265</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.342</v>
+        <v>28.1982</v>
       </c>
       <c r="C16" t="n">
-        <v>22.166</v>
+        <v>23.4597</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9605</v>
+        <v>33.6082</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.5186</v>
+        <v>28.8367</v>
       </c>
       <c r="C17" t="n">
-        <v>22.1069</v>
+        <v>23.8281</v>
       </c>
       <c r="D17" t="n">
-        <v>31.9177</v>
+        <v>33.5497</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.35505</v>
+        <v>4.27095</v>
       </c>
       <c r="C2" t="n">
-        <v>10.7346</v>
+        <v>8.46299</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4876</v>
+        <v>10.0396</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.18229</v>
+        <v>7.22364</v>
       </c>
       <c r="C3" t="n">
-        <v>8.368130000000001</v>
+        <v>8.093669999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2091</v>
+        <v>12.7136</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.422230000000001</v>
+        <v>10.7647</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3588</v>
+        <v>10.3476</v>
       </c>
       <c r="D4" t="n">
-        <v>15.1628</v>
+        <v>15.673</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.67102</v>
+        <v>14.2947</v>
       </c>
       <c r="C5" t="n">
-        <v>12.3516</v>
+        <v>12.6814</v>
       </c>
       <c r="D5" t="n">
-        <v>16.953</v>
+        <v>18.0264</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.1233</v>
+        <v>17.8585</v>
       </c>
       <c r="C6" t="n">
-        <v>14.7722</v>
+        <v>15.0799</v>
       </c>
       <c r="D6" t="n">
-        <v>19.0319</v>
+        <v>20.4962</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.3947</v>
+        <v>21.3811</v>
       </c>
       <c r="C7" t="n">
-        <v>17.1982</v>
+        <v>17.4976</v>
       </c>
       <c r="D7" t="n">
-        <v>21.2154</v>
+        <v>23.0168</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.5363</v>
+        <v>24.8487</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5771</v>
+        <v>20.2767</v>
       </c>
       <c r="D8" t="n">
-        <v>23.2771</v>
+        <v>25.2066</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.5517</v>
+        <v>28.3366</v>
       </c>
       <c r="C9" t="n">
-        <v>21.7818</v>
+        <v>23.1648</v>
       </c>
       <c r="D9" t="n">
-        <v>25.9606</v>
+        <v>29.3978</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>13.9047</v>
+        <v>25.4457</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3334</v>
+        <v>21.5764</v>
       </c>
       <c r="D10" t="n">
-        <v>23.8905</v>
+        <v>28.0516</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.0073</v>
+        <v>25.2441</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8162</v>
+        <v>21.1398</v>
       </c>
       <c r="D11" t="n">
-        <v>23.8479</v>
+        <v>27.9103</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4143</v>
+        <v>26.1863</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3297</v>
+        <v>21.3983</v>
       </c>
       <c r="D12" t="n">
-        <v>23.3577</v>
+        <v>28.3294</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.5494</v>
+        <v>27.144</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9371</v>
+        <v>21.3797</v>
       </c>
       <c r="D13" t="n">
-        <v>23.9381</v>
+        <v>28.3726</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.7305</v>
+        <v>26.2213</v>
       </c>
       <c r="C14" t="n">
-        <v>20.755</v>
+        <v>21.5308</v>
       </c>
       <c r="D14" t="n">
-        <v>23.8473</v>
+        <v>28.0075</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>14.7864</v>
+        <v>27.6079</v>
       </c>
       <c r="C15" t="n">
-        <v>21.2492</v>
+        <v>21.842</v>
       </c>
       <c r="D15" t="n">
-        <v>24.3432</v>
+        <v>27.914</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>14.7461</v>
+        <v>27.4529</v>
       </c>
       <c r="C16" t="n">
-        <v>21.7957</v>
+        <v>22.1038</v>
       </c>
       <c r="D16" t="n">
-        <v>23.4518</v>
+        <v>27.6997</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.7157</v>
+        <v>28.186</v>
       </c>
       <c r="C17" t="n">
-        <v>22.132</v>
+        <v>22.3969</v>
       </c>
       <c r="D17" t="n">
-        <v>22.6908</v>
+        <v>28.0353</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.59562</v>
+        <v>4.43201</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8047</v>
+        <v>8.603870000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>13.3203</v>
+        <v>10.1164</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.40352</v>
+        <v>7.43265</v>
       </c>
       <c r="C3" t="n">
-        <v>8.83892</v>
+        <v>8.14265</v>
       </c>
       <c r="D3" t="n">
-        <v>13.499</v>
+        <v>12.9097</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.35055</v>
+        <v>10.9896</v>
       </c>
       <c r="C4" t="n">
-        <v>10.6043</v>
+        <v>10.3801</v>
       </c>
       <c r="D4" t="n">
-        <v>15.2245</v>
+        <v>16.0971</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>9.846920000000001</v>
+        <v>14.5385</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5533</v>
+        <v>12.6885</v>
       </c>
       <c r="D5" t="n">
-        <v>16.8637</v>
+        <v>18.6847</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>11.2703</v>
+        <v>18.0949</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8258</v>
+        <v>15.0972</v>
       </c>
       <c r="D6" t="n">
-        <v>18.9986</v>
+        <v>21.3385</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>12.6393</v>
+        <v>21.592</v>
       </c>
       <c r="C7" t="n">
-        <v>16.9842</v>
+        <v>17.6077</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0061</v>
+        <v>23.9602</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>13.7665</v>
+        <v>25.1812</v>
       </c>
       <c r="C8" t="n">
-        <v>19.73</v>
+        <v>20.2005</v>
       </c>
       <c r="D8" t="n">
-        <v>22.982</v>
+        <v>26.2745</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.9018</v>
+        <v>28.8136</v>
       </c>
       <c r="C9" t="n">
-        <v>22.021</v>
+        <v>23.1337</v>
       </c>
       <c r="D9" t="n">
-        <v>25.8872</v>
+        <v>30.6471</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>14.0946</v>
+        <v>25.6613</v>
       </c>
       <c r="C10" t="n">
-        <v>20.422</v>
+        <v>21.3412</v>
       </c>
       <c r="D10" t="n">
-        <v>24.0422</v>
+        <v>29.2399</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>14.3663</v>
+        <v>25.6597</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9675</v>
+        <v>21.2833</v>
       </c>
       <c r="D11" t="n">
-        <v>23.5824</v>
+        <v>29.3027</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>14.542</v>
+        <v>26.8097</v>
       </c>
       <c r="C12" t="n">
-        <v>20.7562</v>
+        <v>21.4259</v>
       </c>
       <c r="D12" t="n">
-        <v>23.6905</v>
+        <v>29.411</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>14.7735</v>
+        <v>27.7619</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9356</v>
+        <v>21.4714</v>
       </c>
       <c r="D13" t="n">
-        <v>23.5061</v>
+        <v>29.5553</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>14.8799</v>
+        <v>26.4009</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2644</v>
+        <v>21.5703</v>
       </c>
       <c r="D14" t="n">
-        <v>23.8269</v>
+        <v>28.8115</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>15.057</v>
+        <v>28.007</v>
       </c>
       <c r="C15" t="n">
-        <v>21.5073</v>
+        <v>21.8703</v>
       </c>
       <c r="D15" t="n">
-        <v>23.7926</v>
+        <v>29.2471</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.0409</v>
+        <v>27.8809</v>
       </c>
       <c r="C16" t="n">
-        <v>21.8559</v>
+        <v>22.2511</v>
       </c>
       <c r="D16" t="n">
-        <v>23.5399</v>
+        <v>29.2067</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>14.9003</v>
+        <v>28.1857</v>
       </c>
       <c r="C17" t="n">
-        <v>22.1159</v>
+        <v>22.4587</v>
       </c>
       <c r="D17" t="n">
-        <v>22.3094</v>
+        <v>29.2279</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.88888</v>
+        <v>7.81676</v>
       </c>
       <c r="C2" t="n">
-        <v>11.36</v>
+        <v>10.586</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9268</v>
+        <v>12.9577</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.71597</v>
+        <v>9.85807</v>
       </c>
       <c r="C3" t="n">
-        <v>9.06631</v>
+        <v>8.956300000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0899</v>
+        <v>15.2076</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.5066</v>
+        <v>13.0238</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9221</v>
+        <v>11.1435</v>
       </c>
       <c r="D4" t="n">
-        <v>18.5906</v>
+        <v>19.4036</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3231</v>
+        <v>16.4367</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2522</v>
+        <v>13.5077</v>
       </c>
       <c r="D5" t="n">
-        <v>21.3498</v>
+        <v>23.4948</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.0213</v>
+        <v>19.7762</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7524</v>
+        <v>15.7641</v>
       </c>
       <c r="D6" t="n">
-        <v>25.1321</v>
+        <v>27.5549</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2843</v>
+        <v>23.2241</v>
       </c>
       <c r="C7" t="n">
-        <v>18.2553</v>
+        <v>18.1171</v>
       </c>
       <c r="D7" t="n">
-        <v>28.2728</v>
+        <v>31.6062</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.5884</v>
+        <v>26.9546</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5044</v>
+        <v>20.6981</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5479</v>
+        <v>35.8032</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.4471</v>
+        <v>31.5009</v>
       </c>
       <c r="C9" t="n">
-        <v>22.742</v>
+        <v>23.1374</v>
       </c>
       <c r="D9" t="n">
-        <v>35.7035</v>
+        <v>41.0238</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.0752</v>
+        <v>29.603</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8787</v>
+        <v>22.5709</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6062</v>
+        <v>38.5593</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>18.7057</v>
+        <v>29.6045</v>
       </c>
       <c r="C11" t="n">
-        <v>20.8568</v>
+        <v>22.1549</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4615</v>
+        <v>38.3411</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.2595</v>
+        <v>29.6669</v>
       </c>
       <c r="C12" t="n">
-        <v>20.9911</v>
+        <v>22.4518</v>
       </c>
       <c r="D12" t="n">
-        <v>32.1196</v>
+        <v>38.502</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.7128</v>
+        <v>30.0458</v>
       </c>
       <c r="C13" t="n">
-        <v>21.8528</v>
+        <v>22.6424</v>
       </c>
       <c r="D13" t="n">
-        <v>32.1577</v>
+        <v>38.8585</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1626</v>
+        <v>29.2812</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7075</v>
+        <v>22.8467</v>
       </c>
       <c r="D14" t="n">
-        <v>32.1178</v>
+        <v>38.3092</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.0242</v>
+        <v>30.2751</v>
       </c>
       <c r="C15" t="n">
-        <v>22.4028</v>
+        <v>23.2135</v>
       </c>
       <c r="D15" t="n">
-        <v>31.5859</v>
+        <v>38.761</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.9911</v>
+        <v>30.4057</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6721</v>
+        <v>23.6527</v>
       </c>
       <c r="D16" t="n">
-        <v>30.7575</v>
+        <v>38.8341</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0984</v>
+        <v>30.2972</v>
       </c>
       <c r="C17" t="n">
-        <v>22.7185</v>
+        <v>23.8781</v>
       </c>
       <c r="D17" t="n">
-        <v>29.7787</v>
+        <v>38.6759</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.85887</v>
+        <v>7.78721</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3433</v>
+        <v>10.3647</v>
       </c>
       <c r="D2" t="n">
-        <v>12.562</v>
+        <v>12.5407</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.084</v>
+        <v>8.5969</v>
       </c>
       <c r="C3" t="n">
-        <v>8.381830000000001</v>
+        <v>8.32075</v>
       </c>
       <c r="D3" t="n">
-        <v>13.1118</v>
+        <v>13.0242</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1379</v>
+        <v>10.705</v>
       </c>
       <c r="C4" t="n">
-        <v>10.2554</v>
+        <v>10.3801</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6154</v>
+        <v>15.6073</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4838</v>
+        <v>13.344</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6642</v>
+        <v>12.6575</v>
       </c>
       <c r="D5" t="n">
-        <v>17.9139</v>
+        <v>18.0542</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.7239</v>
+        <v>15.9794</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0823</v>
+        <v>14.9547</v>
       </c>
       <c r="D6" t="n">
-        <v>20.7659</v>
+        <v>20.5597</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.4771</v>
+        <v>18.7583</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4197</v>
+        <v>17.3617</v>
       </c>
       <c r="D7" t="n">
-        <v>23.3006</v>
+        <v>23.4932</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9698</v>
+        <v>21.6769</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5581</v>
+        <v>19.6783</v>
       </c>
       <c r="D8" t="n">
-        <v>24.8923</v>
+        <v>24.8383</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.5854</v>
+        <v>26.766</v>
       </c>
       <c r="C9" t="n">
-        <v>22.155</v>
+        <v>21.8233</v>
       </c>
       <c r="D9" t="n">
-        <v>28.5016</v>
+        <v>28.2016</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.736</v>
+        <v>21.1173</v>
       </c>
       <c r="C10" t="n">
-        <v>20.5984</v>
+        <v>20.6044</v>
       </c>
       <c r="D10" t="n">
-        <v>26.0512</v>
+        <v>26.1672</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0776</v>
+        <v>21.2091</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9428</v>
+        <v>20.1493</v>
       </c>
       <c r="D11" t="n">
-        <v>25.7355</v>
+        <v>25.7244</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.805</v>
+        <v>21.991</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5521</v>
+        <v>20.5688</v>
       </c>
       <c r="D12" t="n">
-        <v>25.5804</v>
+        <v>25.3734</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.5361</v>
+        <v>22.3111</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1854</v>
+        <v>20.9478</v>
       </c>
       <c r="D13" t="n">
-        <v>25.5089</v>
+        <v>25.4304</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5703</v>
+        <v>22.7419</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3483</v>
+        <v>21.3763</v>
       </c>
       <c r="D14" t="n">
-        <v>25.1115</v>
+        <v>25.2835</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2666</v>
+        <v>22.0157</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7441</v>
+        <v>21.8657</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9054</v>
+        <v>25.2588</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.5112</v>
+        <v>22.4806</v>
       </c>
       <c r="C16" t="n">
-        <v>22.3342</v>
+        <v>22.1948</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4482</v>
+        <v>24.3999</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8923</v>
+        <v>22.289</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6278</v>
+        <v>22.5145</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4501</v>
+        <v>24.8695</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.532970000000001</v>
+        <v>8.2018</v>
       </c>
       <c r="C2" t="n">
-        <v>10.349</v>
+        <v>10.4313</v>
       </c>
       <c r="D2" t="n">
-        <v>12.75</v>
+        <v>12.7228</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3185</v>
+        <v>8.65509</v>
       </c>
       <c r="C3" t="n">
-        <v>8.337870000000001</v>
+        <v>8.30574</v>
       </c>
       <c r="D3" t="n">
-        <v>13.3274</v>
+        <v>13.2138</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2824</v>
+        <v>11.1447</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3589</v>
+        <v>10.238</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0792</v>
+        <v>16.0042</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.6973</v>
+        <v>13.3968</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6244</v>
+        <v>12.6034</v>
       </c>
       <c r="D5" t="n">
-        <v>18.6731</v>
+        <v>18.7299</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.8782</v>
+        <v>16.2193</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0849</v>
+        <v>14.8996</v>
       </c>
       <c r="D6" t="n">
-        <v>21.5257</v>
+        <v>21.4734</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.6198</v>
+        <v>19.0442</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2364</v>
+        <v>17.0956</v>
       </c>
       <c r="D7" t="n">
-        <v>24.4459</v>
+        <v>24.3203</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.9899</v>
+        <v>21.9125</v>
       </c>
       <c r="C8" t="n">
-        <v>19.535</v>
+        <v>19.4075</v>
       </c>
       <c r="D8" t="n">
-        <v>25.9521</v>
+        <v>26.0333</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.6657</v>
+        <v>26.5012</v>
       </c>
       <c r="C9" t="n">
-        <v>21.837</v>
+        <v>21.9751</v>
       </c>
       <c r="D9" t="n">
-        <v>29.778</v>
+        <v>29.6342</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.694</v>
+        <v>22.6106</v>
       </c>
       <c r="C10" t="n">
-        <v>20.334</v>
+        <v>20.6419</v>
       </c>
       <c r="D10" t="n">
-        <v>27.4086</v>
+        <v>27.3415</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1796</v>
+        <v>21.9877</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9882</v>
+        <v>20.2255</v>
       </c>
       <c r="D11" t="n">
-        <v>26.7211</v>
+        <v>27.0164</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.2371</v>
+        <v>22.3169</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4365</v>
+        <v>20.5902</v>
       </c>
       <c r="D12" t="n">
-        <v>26.841</v>
+        <v>26.6553</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.1466</v>
+        <v>22.615</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9683</v>
+        <v>21.1067</v>
       </c>
       <c r="D13" t="n">
-        <v>27.2298</v>
+        <v>27.1411</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8256</v>
+        <v>22.5049</v>
       </c>
       <c r="C14" t="n">
-        <v>21.2584</v>
+        <v>21.3012</v>
       </c>
       <c r="D14" t="n">
-        <v>26.4568</v>
+        <v>26.1323</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.6689</v>
+        <v>23.1652</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6452</v>
+        <v>21.7235</v>
       </c>
       <c r="D15" t="n">
-        <v>26.0209</v>
+        <v>26.5676</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7754</v>
+        <v>22.0198</v>
       </c>
       <c r="C16" t="n">
-        <v>22.3056</v>
+        <v>22.0116</v>
       </c>
       <c r="D16" t="n">
-        <v>26.1328</v>
+        <v>26.0494</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.6746</v>
+        <v>21.7754</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4073</v>
+        <v>22.5201</v>
       </c>
       <c r="D17" t="n">
-        <v>24.814</v>
+        <v>23.1532</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.2884</v>
+        <v>9.9854</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1074</v>
+        <v>11.1461</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8337</v>
+        <v>13.8012</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8662</v>
+        <v>9.73972</v>
       </c>
       <c r="C3" t="n">
-        <v>9.04899</v>
+        <v>9.08239</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1541</v>
+        <v>15.1758</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8026</v>
+        <v>12.3383</v>
       </c>
       <c r="C4" t="n">
-        <v>11.2869</v>
+        <v>11.303</v>
       </c>
       <c r="D4" t="n">
-        <v>19.1685</v>
+        <v>19.2063</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.4622</v>
+        <v>14.4155</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4558</v>
+        <v>13.4377</v>
       </c>
       <c r="D5" t="n">
-        <v>22.7228</v>
+        <v>22.2307</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.833</v>
+        <v>17.2412</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0966</v>
+        <v>16.1794</v>
       </c>
       <c r="D6" t="n">
-        <v>26.592</v>
+        <v>26.8798</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.61</v>
+        <v>20.1141</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8296</v>
+        <v>18.7997</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1493</v>
+        <v>31.5439</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.6762</v>
+        <v>24.0162</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0161</v>
+        <v>20.989</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0848</v>
+        <v>33.9003</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8856</v>
+        <v>27.9256</v>
       </c>
       <c r="C9" t="n">
-        <v>23.3676</v>
+        <v>23.457</v>
       </c>
       <c r="D9" t="n">
-        <v>38.3317</v>
+        <v>38.248</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4286</v>
+        <v>25.3162</v>
       </c>
       <c r="C10" t="n">
-        <v>22.3831</v>
+        <v>22.4481</v>
       </c>
       <c r="D10" t="n">
-        <v>34.7207</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0524</v>
+        <v>24.4007</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1619</v>
+        <v>21.2507</v>
       </c>
       <c r="D11" t="n">
-        <v>34.0427</v>
+        <v>34.2881</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.9981</v>
+        <v>24.4919</v>
       </c>
       <c r="C12" t="n">
-        <v>21.7848</v>
+        <v>21.7444</v>
       </c>
       <c r="D12" t="n">
-        <v>34.6009</v>
+        <v>34.8202</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7065</v>
+        <v>25.7712</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2074</v>
+        <v>22.235</v>
       </c>
       <c r="D13" t="n">
-        <v>34.2511</v>
+        <v>34.9885</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.1989</v>
+        <v>24.4596</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5255</v>
+        <v>22.8357</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9641</v>
+        <v>34.1701</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.515</v>
+        <v>23.9877</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9365</v>
+        <v>22.942</v>
       </c>
       <c r="D15" t="n">
-        <v>33.6265</v>
+        <v>33.6578</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1982</v>
+        <v>24.2034</v>
       </c>
       <c r="C16" t="n">
-        <v>23.4597</v>
+        <v>23.8098</v>
       </c>
       <c r="D16" t="n">
-        <v>33.6082</v>
+        <v>33.1599</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8367</v>
+        <v>24.5176</v>
       </c>
       <c r="C17" t="n">
-        <v>23.8281</v>
+        <v>23.9535</v>
       </c>
       <c r="D17" t="n">
-        <v>33.5497</v>
+        <v>33.0149</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.27095</v>
+        <v>3.54809</v>
       </c>
       <c r="C2" t="n">
-        <v>8.46299</v>
+        <v>8.467549999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0396</v>
+        <v>9.97458</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.22364</v>
+        <v>5.95104</v>
       </c>
       <c r="C3" t="n">
-        <v>8.093669999999999</v>
+        <v>8.42657</v>
       </c>
       <c r="D3" t="n">
-        <v>12.7136</v>
+        <v>13.0923</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.7647</v>
+        <v>8.534560000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3476</v>
+        <v>10.4136</v>
       </c>
       <c r="D4" t="n">
-        <v>15.673</v>
+        <v>15.7102</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2947</v>
+        <v>11.0736</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6814</v>
+        <v>12.6782</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0264</v>
+        <v>18.0533</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8585</v>
+        <v>13.6201</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0799</v>
+        <v>15.0602</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4962</v>
+        <v>20.4955</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3811</v>
+        <v>16.3408</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4976</v>
+        <v>17.4496</v>
       </c>
       <c r="D7" t="n">
-        <v>23.0168</v>
+        <v>22.9221</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.8487</v>
+        <v>18.933</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2767</v>
+        <v>20.1135</v>
       </c>
       <c r="D8" t="n">
-        <v>25.2066</v>
+        <v>25.0564</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.3366</v>
+        <v>21.7372</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1648</v>
+        <v>23.004</v>
       </c>
       <c r="D9" t="n">
-        <v>29.3978</v>
+        <v>29.3112</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4457</v>
+        <v>20.1043</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5764</v>
+        <v>21.4861</v>
       </c>
       <c r="D10" t="n">
-        <v>28.0516</v>
+        <v>27.9914</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2441</v>
+        <v>20.4434</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1398</v>
+        <v>21.014</v>
       </c>
       <c r="D11" t="n">
-        <v>27.9103</v>
+        <v>27.9242</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1863</v>
+        <v>20.1863</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3983</v>
+        <v>21.2881</v>
       </c>
       <c r="D12" t="n">
-        <v>28.3294</v>
+        <v>28.0504</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.144</v>
+        <v>20.5965</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3797</v>
+        <v>21.178</v>
       </c>
       <c r="D13" t="n">
-        <v>28.3726</v>
+        <v>28.3325</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.2213</v>
+        <v>19.7127</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5308</v>
+        <v>21.4879</v>
       </c>
       <c r="D14" t="n">
-        <v>28.0075</v>
+        <v>27.5988</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6079</v>
+        <v>20.5321</v>
       </c>
       <c r="C15" t="n">
-        <v>21.842</v>
+        <v>21.8092</v>
       </c>
       <c r="D15" t="n">
-        <v>27.914</v>
+        <v>27.5648</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.4529</v>
+        <v>20.2042</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1038</v>
+        <v>22.0566</v>
       </c>
       <c r="D16" t="n">
-        <v>27.6997</v>
+        <v>27.9995</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.186</v>
+        <v>20.0142</v>
       </c>
       <c r="C17" t="n">
-        <v>22.3969</v>
+        <v>22.4087</v>
       </c>
       <c r="D17" t="n">
-        <v>28.0353</v>
+        <v>27.7921</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.43201</v>
+        <v>3.53023</v>
       </c>
       <c r="C2" t="n">
-        <v>8.603870000000001</v>
+        <v>8.52604</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1164</v>
+        <v>10.0516</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7.43265</v>
+        <v>5.93251</v>
       </c>
       <c r="C3" t="n">
-        <v>8.14265</v>
+        <v>8.174429999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9097</v>
+        <v>12.9257</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9896</v>
+        <v>8.55813</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3801</v>
+        <v>10.4715</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0971</v>
+        <v>16.158</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5385</v>
+        <v>11.1902</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6885</v>
+        <v>12.6975</v>
       </c>
       <c r="D5" t="n">
-        <v>18.6847</v>
+        <v>18.6181</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0949</v>
+        <v>13.7022</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0972</v>
+        <v>15.0734</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3385</v>
+        <v>21.3729</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.592</v>
+        <v>16.4459</v>
       </c>
       <c r="C7" t="n">
-        <v>17.6077</v>
+        <v>17.5271</v>
       </c>
       <c r="D7" t="n">
-        <v>23.9602</v>
+        <v>23.7691</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.1812</v>
+        <v>19.0582</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2005</v>
+        <v>20.0955</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2745</v>
+        <v>26.2207</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8136</v>
+        <v>21.7484</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1337</v>
+        <v>23.0491</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6471</v>
+        <v>30.6036</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6613</v>
+        <v>20.1888</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3412</v>
+        <v>21.5114</v>
       </c>
       <c r="D10" t="n">
-        <v>29.2399</v>
+        <v>28.9132</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.6597</v>
+        <v>20.1626</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2833</v>
+        <v>21.2796</v>
       </c>
       <c r="D11" t="n">
-        <v>29.3027</v>
+        <v>28.9518</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.8097</v>
+        <v>20.4558</v>
       </c>
       <c r="C12" t="n">
-        <v>21.4259</v>
+        <v>21.0841</v>
       </c>
       <c r="D12" t="n">
-        <v>29.411</v>
+        <v>29.1793</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.7619</v>
+        <v>20.7545</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4714</v>
+        <v>21.3483</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5553</v>
+        <v>29.7186</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.4009</v>
+        <v>19.9156</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5703</v>
+        <v>21.5111</v>
       </c>
       <c r="D14" t="n">
-        <v>28.8115</v>
+        <v>28.8099</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.007</v>
+        <v>20.3643</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8703</v>
+        <v>21.8792</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2471</v>
+        <v>29.1365</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.8809</v>
+        <v>20.5149</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2511</v>
+        <v>22.2582</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2067</v>
+        <v>28.9667</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1857</v>
+        <v>20.4283</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4587</v>
+        <v>22.5217</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2279</v>
+        <v>28.8353</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.81676</v>
+        <v>6.99255</v>
       </c>
       <c r="C2" t="n">
-        <v>10.586</v>
+        <v>10.5253</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9577</v>
+        <v>12.9277</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.85807</v>
+        <v>8.725160000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>8.956300000000001</v>
+        <v>8.920450000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2076</v>
+        <v>15.0958</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.0238</v>
+        <v>11.5245</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1435</v>
+        <v>11.1553</v>
       </c>
       <c r="D4" t="n">
-        <v>19.4036</v>
+        <v>19.4024</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4367</v>
+        <v>14.2799</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5077</v>
+        <v>13.446</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4948</v>
+        <v>23.2734</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.7762</v>
+        <v>17.1457</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7641</v>
+        <v>15.8469</v>
       </c>
       <c r="D6" t="n">
-        <v>27.5549</v>
+        <v>27.4235</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.2241</v>
+        <v>20.1195</v>
       </c>
       <c r="C7" t="n">
-        <v>18.1171</v>
+        <v>18.4383</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6062</v>
+        <v>31.5963</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.9546</v>
+        <v>23.1201</v>
       </c>
       <c r="C8" t="n">
-        <v>20.6981</v>
+        <v>20.6402</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8032</v>
+        <v>35.6409</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5009</v>
+        <v>27.021</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1374</v>
+        <v>23.2687</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0238</v>
+        <v>40.8373</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.603</v>
+        <v>25.7116</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5709</v>
+        <v>22.4971</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5593</v>
+        <v>38.5881</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.6045</v>
+        <v>25.3955</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1549</v>
+        <v>22.0262</v>
       </c>
       <c r="D11" t="n">
-        <v>38.3411</v>
+        <v>38.2719</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.6669</v>
+        <v>25.8159</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4518</v>
+        <v>22.3591</v>
       </c>
       <c r="D12" t="n">
-        <v>38.502</v>
+        <v>38.3727</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0458</v>
+        <v>26.0837</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6424</v>
+        <v>22.6428</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8585</v>
+        <v>39.3288</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.2812</v>
+        <v>24.9939</v>
       </c>
       <c r="C14" t="n">
-        <v>22.8467</v>
+        <v>22.7211</v>
       </c>
       <c r="D14" t="n">
-        <v>38.3092</v>
+        <v>38.0505</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.2751</v>
+        <v>25.7295</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2135</v>
+        <v>22.9395</v>
       </c>
       <c r="D15" t="n">
-        <v>38.761</v>
+        <v>38.5131</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.4057</v>
+        <v>25.3709</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6527</v>
+        <v>23.6403</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8341</v>
+        <v>38.6369</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.2972</v>
+        <v>25.2893</v>
       </c>
       <c r="C17" t="n">
-        <v>23.8781</v>
+        <v>23.9308</v>
       </c>
       <c r="D17" t="n">
-        <v>38.6759</v>
+        <v>38.339</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.78721</v>
+        <v>7.75904</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3647</v>
+        <v>10.3876</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5407</v>
+        <v>12.5717</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.5969</v>
+        <v>8.552440000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>8.32075</v>
+        <v>8.496549999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0242</v>
+        <v>13.2669</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.705</v>
+        <v>10.6148</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3801</v>
+        <v>10.1731</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6073</v>
+        <v>15.6619</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.344</v>
+        <v>13.3911</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6575</v>
+        <v>12.711</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0542</v>
+        <v>18.1122</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9794</v>
+        <v>16.0437</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9547</v>
+        <v>15.1709</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5597</v>
+        <v>20.8532</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7583</v>
+        <v>19.0159</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3617</v>
+        <v>17.386</v>
       </c>
       <c r="D7" t="n">
-        <v>23.4932</v>
+        <v>23.351</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6769</v>
+        <v>21.6433</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6783</v>
+        <v>19.624</v>
       </c>
       <c r="D8" t="n">
-        <v>24.8383</v>
+        <v>24.9234</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.766</v>
+        <v>26.3317</v>
       </c>
       <c r="C9" t="n">
-        <v>21.8233</v>
+        <v>22.0517</v>
       </c>
       <c r="D9" t="n">
-        <v>28.2016</v>
+        <v>28.3979</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.1173</v>
+        <v>21.9749</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6044</v>
+        <v>20.8378</v>
       </c>
       <c r="D10" t="n">
-        <v>26.1672</v>
+        <v>26.1628</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.2091</v>
+        <v>21.8729</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1493</v>
+        <v>19.8623</v>
       </c>
       <c r="D11" t="n">
-        <v>25.7244</v>
+        <v>26.1951</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.991</v>
+        <v>22.0692</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5688</v>
+        <v>20.5235</v>
       </c>
       <c r="D12" t="n">
-        <v>25.3734</v>
+        <v>25.7089</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3111</v>
+        <v>22.7931</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9478</v>
+        <v>21.0257</v>
       </c>
       <c r="D13" t="n">
-        <v>25.4304</v>
+        <v>26.3659</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7419</v>
+        <v>22.9166</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3763</v>
+        <v>21.4594</v>
       </c>
       <c r="D14" t="n">
-        <v>25.2835</v>
+        <v>25.4521</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0157</v>
+        <v>22.0067</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8657</v>
+        <v>21.9067</v>
       </c>
       <c r="D15" t="n">
-        <v>25.2588</v>
+        <v>25.1771</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.4806</v>
+        <v>21.6548</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1948</v>
+        <v>22.1855</v>
       </c>
       <c r="D16" t="n">
-        <v>24.3999</v>
+        <v>24.2967</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.289</v>
+        <v>21.3414</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5145</v>
+        <v>22.7739</v>
       </c>
       <c r="D17" t="n">
-        <v>24.8695</v>
+        <v>24.0066</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.2018</v>
+        <v>8.224919999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4313</v>
+        <v>10.464</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7228</v>
+        <v>12.7295</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.65509</v>
+        <v>8.791</v>
       </c>
       <c r="C3" t="n">
-        <v>8.30574</v>
+        <v>8.45867</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2138</v>
+        <v>13.4885</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1447</v>
+        <v>11.1453</v>
       </c>
       <c r="C4" t="n">
-        <v>10.238</v>
+        <v>10.3037</v>
       </c>
       <c r="D4" t="n">
-        <v>16.0042</v>
+        <v>16.1083</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.3968</v>
+        <v>13.4058</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6034</v>
+        <v>12.4962</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7299</v>
+        <v>18.6846</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.2193</v>
+        <v>16.3524</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8996</v>
+        <v>14.9244</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4734</v>
+        <v>21.4666</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0442</v>
+        <v>19.034</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0956</v>
+        <v>17.4769</v>
       </c>
       <c r="D7" t="n">
-        <v>24.3203</v>
+        <v>24.2668</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9125</v>
+        <v>22.013</v>
       </c>
       <c r="C8" t="n">
-        <v>19.4075</v>
+        <v>19.5815</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0333</v>
+        <v>25.8577</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.5012</v>
+        <v>26.1601</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9751</v>
+        <v>21.6371</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6342</v>
+        <v>29.6553</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.6106</v>
+        <v>21.7191</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6419</v>
+        <v>20.3266</v>
       </c>
       <c r="D10" t="n">
-        <v>27.3415</v>
+        <v>27.2885</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9877</v>
+        <v>21.6073</v>
       </c>
       <c r="C11" t="n">
-        <v>20.2255</v>
+        <v>20.1675</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0164</v>
+        <v>27.0357</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3169</v>
+        <v>22.2668</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5902</v>
+        <v>20.8715</v>
       </c>
       <c r="D12" t="n">
-        <v>26.6553</v>
+        <v>26.8272</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.615</v>
+        <v>22.8546</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1067</v>
+        <v>21.2714</v>
       </c>
       <c r="D13" t="n">
-        <v>27.1411</v>
+        <v>26.9569</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.5049</v>
+        <v>22.8134</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3012</v>
+        <v>21.4797</v>
       </c>
       <c r="D14" t="n">
-        <v>26.1323</v>
+        <v>27.0344</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1652</v>
+        <v>22.4011</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7235</v>
+        <v>21.8046</v>
       </c>
       <c r="D15" t="n">
-        <v>26.5676</v>
+        <v>26.8125</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.0198</v>
+        <v>22.7973</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0116</v>
+        <v>22.4499</v>
       </c>
       <c r="D16" t="n">
-        <v>26.0494</v>
+        <v>25.8514</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.7754</v>
+        <v>21.8837</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5201</v>
+        <v>22.6651</v>
       </c>
       <c r="D17" t="n">
-        <v>23.1532</v>
+        <v>24.7688</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.9854</v>
+        <v>10.0269</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1461</v>
+        <v>11.1824</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8012</v>
+        <v>13.9335</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.73972</v>
+        <v>9.77444</v>
       </c>
       <c r="C3" t="n">
-        <v>9.08239</v>
+        <v>9.289870000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1758</v>
+        <v>15.4008</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3383</v>
+        <v>12.2912</v>
       </c>
       <c r="C4" t="n">
-        <v>11.303</v>
+        <v>11.3838</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2063</v>
+        <v>19.2707</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4155</v>
+        <v>15.113</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4377</v>
+        <v>13.7329</v>
       </c>
       <c r="D5" t="n">
-        <v>22.2307</v>
+        <v>23.1845</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2412</v>
+        <v>17.2736</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1794</v>
+        <v>16.1455</v>
       </c>
       <c r="D6" t="n">
-        <v>26.8798</v>
+        <v>27.131</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1141</v>
+        <v>20.1751</v>
       </c>
       <c r="C7" t="n">
-        <v>18.7997</v>
+        <v>19.0029</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5439</v>
+        <v>31.5519</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0162</v>
+        <v>23.6252</v>
       </c>
       <c r="C8" t="n">
-        <v>20.989</v>
+        <v>21.0033</v>
       </c>
       <c r="D8" t="n">
-        <v>33.9003</v>
+        <v>34.154</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.9256</v>
+        <v>27.6631</v>
       </c>
       <c r="C9" t="n">
-        <v>23.457</v>
+        <v>23.5154</v>
       </c>
       <c r="D9" t="n">
-        <v>38.248</v>
+        <v>38.6365</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3162</v>
+        <v>25.3302</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4481</v>
+        <v>22.3165</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6</v>
+        <v>34.9439</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4007</v>
+        <v>23.9534</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2507</v>
+        <v>21.3355</v>
       </c>
       <c r="D11" t="n">
-        <v>34.2881</v>
+        <v>34.2456</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.4919</v>
+        <v>24.7261</v>
       </c>
       <c r="C12" t="n">
-        <v>21.7444</v>
+        <v>21.9886</v>
       </c>
       <c r="D12" t="n">
-        <v>34.8202</v>
+        <v>34.6323</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7712</v>
+        <v>24.3141</v>
       </c>
       <c r="C13" t="n">
-        <v>22.235</v>
+        <v>22.1985</v>
       </c>
       <c r="D13" t="n">
-        <v>34.9885</v>
+        <v>35.3244</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.4596</v>
+        <v>25.2886</v>
       </c>
       <c r="C14" t="n">
-        <v>22.8357</v>
+        <v>22.7461</v>
       </c>
       <c r="D14" t="n">
-        <v>34.1701</v>
+        <v>34.4272</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9877</v>
+        <v>23.9016</v>
       </c>
       <c r="C15" t="n">
-        <v>22.942</v>
+        <v>23.1228</v>
       </c>
       <c r="D15" t="n">
-        <v>33.6578</v>
+        <v>33.9726</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.2034</v>
+        <v>24.4582</v>
       </c>
       <c r="C16" t="n">
-        <v>23.8098</v>
+        <v>23.6371</v>
       </c>
       <c r="D16" t="n">
-        <v>33.1599</v>
+        <v>33.9885</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5176</v>
+        <v>24.1545</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9535</v>
+        <v>24.0088</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0149</v>
+        <v>32.5641</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.54809</v>
+        <v>3.4689</v>
       </c>
       <c r="C2" t="n">
-        <v>8.467549999999999</v>
+        <v>8.42009</v>
       </c>
       <c r="D2" t="n">
-        <v>9.97458</v>
+        <v>10.019</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.95104</v>
+        <v>5.90476</v>
       </c>
       <c r="C3" t="n">
-        <v>8.42657</v>
+        <v>8.27425</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0923</v>
+        <v>12.9793</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.534560000000001</v>
+        <v>8.63457</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4136</v>
+        <v>10.4156</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7102</v>
+        <v>15.7225</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0736</v>
+        <v>11.2386</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6782</v>
+        <v>12.7191</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0533</v>
+        <v>18.0382</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.6201</v>
+        <v>13.7271</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0602</v>
+        <v>15.0891</v>
       </c>
       <c r="D6" t="n">
-        <v>20.4955</v>
+        <v>20.5393</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3408</v>
+        <v>16.4733</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4496</v>
+        <v>17.4652</v>
       </c>
       <c r="D7" t="n">
-        <v>22.9221</v>
+        <v>22.8454</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.933</v>
+        <v>18.8911</v>
       </c>
       <c r="C8" t="n">
-        <v>20.1135</v>
+        <v>20.2052</v>
       </c>
       <c r="D8" t="n">
-        <v>25.0564</v>
+        <v>25.098</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7372</v>
+        <v>21.7966</v>
       </c>
       <c r="C9" t="n">
-        <v>23.004</v>
+        <v>23.1751</v>
       </c>
       <c r="D9" t="n">
-        <v>29.3112</v>
+        <v>29.3599</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1043</v>
+        <v>20.2177</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4861</v>
+        <v>21.546</v>
       </c>
       <c r="D10" t="n">
-        <v>27.9914</v>
+        <v>27.8964</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4434</v>
+        <v>19.8381</v>
       </c>
       <c r="C11" t="n">
-        <v>21.014</v>
+        <v>21.1746</v>
       </c>
       <c r="D11" t="n">
-        <v>27.9242</v>
+        <v>27.9065</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1863</v>
+        <v>20.3749</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2881</v>
+        <v>21.1942</v>
       </c>
       <c r="D12" t="n">
-        <v>28.0504</v>
+        <v>28.1287</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5965</v>
+        <v>20.5927</v>
       </c>
       <c r="C13" t="n">
-        <v>21.178</v>
+        <v>21.3681</v>
       </c>
       <c r="D13" t="n">
-        <v>28.3325</v>
+        <v>28.1813</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7127</v>
+        <v>19.9508</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4879</v>
+        <v>21.4712</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5988</v>
+        <v>27.7224</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5321</v>
+        <v>20.6161</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8092</v>
+        <v>21.8488</v>
       </c>
       <c r="D15" t="n">
-        <v>27.5648</v>
+        <v>28.1504</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.2042</v>
+        <v>20.3461</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0566</v>
+        <v>22.1865</v>
       </c>
       <c r="D16" t="n">
-        <v>27.9995</v>
+        <v>27.6703</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0142</v>
+        <v>20.1159</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4087</v>
+        <v>22.5133</v>
       </c>
       <c r="D17" t="n">
-        <v>27.7921</v>
+        <v>28.1394</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.53023</v>
+        <v>3.55171</v>
       </c>
       <c r="C2" t="n">
-        <v>8.52604</v>
+        <v>8.57995</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0516</v>
+        <v>10.1295</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.93251</v>
+        <v>5.95321</v>
       </c>
       <c r="C3" t="n">
-        <v>8.174429999999999</v>
+        <v>8.18432</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9257</v>
+        <v>13.0274</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.55813</v>
+        <v>8.65155</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4715</v>
+        <v>10.435</v>
       </c>
       <c r="D4" t="n">
-        <v>16.158</v>
+        <v>16.1713</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1902</v>
+        <v>11.254</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6975</v>
+        <v>12.761</v>
       </c>
       <c r="D5" t="n">
-        <v>18.6181</v>
+        <v>18.7144</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7022</v>
+        <v>13.8431</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0734</v>
+        <v>15.1188</v>
       </c>
       <c r="D6" t="n">
-        <v>21.3729</v>
+        <v>21.4214</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4459</v>
+        <v>16.3833</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5271</v>
+        <v>17.5912</v>
       </c>
       <c r="D7" t="n">
-        <v>23.7691</v>
+        <v>23.8902</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0582</v>
+        <v>19.0332</v>
       </c>
       <c r="C8" t="n">
-        <v>20.0955</v>
+        <v>20.2518</v>
       </c>
       <c r="D8" t="n">
-        <v>26.2207</v>
+        <v>26.0939</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7484</v>
+        <v>21.8441</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0491</v>
+        <v>23.2981</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6036</v>
+        <v>30.6773</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1888</v>
+        <v>20.3196</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5114</v>
+        <v>21.6463</v>
       </c>
       <c r="D10" t="n">
-        <v>28.9132</v>
+        <v>29.0441</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1626</v>
+        <v>20.2707</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2796</v>
+        <v>21.1821</v>
       </c>
       <c r="D11" t="n">
-        <v>28.9518</v>
+        <v>28.8978</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4558</v>
+        <v>20.5108</v>
       </c>
       <c r="C12" t="n">
-        <v>21.0841</v>
+        <v>21.4282</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1793</v>
+        <v>29.1957</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7545</v>
+        <v>20.9846</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3483</v>
+        <v>21.2809</v>
       </c>
       <c r="D13" t="n">
-        <v>29.7186</v>
+        <v>29.4089</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9156</v>
+        <v>19.929</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5111</v>
+        <v>21.7051</v>
       </c>
       <c r="D14" t="n">
-        <v>28.8099</v>
+        <v>28.8731</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3643</v>
+        <v>20.3897</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8792</v>
+        <v>21.8946</v>
       </c>
       <c r="D15" t="n">
-        <v>29.1365</v>
+        <v>29.2289</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5149</v>
+        <v>20.5269</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2582</v>
+        <v>22.2808</v>
       </c>
       <c r="D16" t="n">
-        <v>28.9667</v>
+        <v>29.0159</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4283</v>
+        <v>20.5229</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5217</v>
+        <v>22.591</v>
       </c>
       <c r="D17" t="n">
-        <v>28.8353</v>
+        <v>28.9341</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.99255</v>
+        <v>7.00054</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5253</v>
+        <v>10.5908</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9277</v>
+        <v>12.9783</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.725160000000001</v>
+        <v>8.66864</v>
       </c>
       <c r="C3" t="n">
-        <v>8.920450000000001</v>
+        <v>8.92329</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0958</v>
+        <v>15.1203</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5245</v>
+        <v>11.5747</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1553</v>
+        <v>11.1936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.4024</v>
+        <v>19.4337</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2799</v>
+        <v>14.2418</v>
       </c>
       <c r="C5" t="n">
-        <v>13.446</v>
+        <v>13.3276</v>
       </c>
       <c r="D5" t="n">
-        <v>23.2734</v>
+        <v>23.2373</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1457</v>
+        <v>17.1292</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8469</v>
+        <v>15.9739</v>
       </c>
       <c r="D6" t="n">
-        <v>27.4235</v>
+        <v>27.5115</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1195</v>
+        <v>20.163</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4383</v>
+        <v>18.4231</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5963</v>
+        <v>31.4033</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.1201</v>
+        <v>23.374</v>
       </c>
       <c r="C8" t="n">
-        <v>20.6402</v>
+        <v>20.7452</v>
       </c>
       <c r="D8" t="n">
-        <v>35.6409</v>
+        <v>35.7916</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.021</v>
+        <v>27.5192</v>
       </c>
       <c r="C9" t="n">
-        <v>23.2687</v>
+        <v>23.0538</v>
       </c>
       <c r="D9" t="n">
-        <v>40.8373</v>
+        <v>41.0147</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7116</v>
+        <v>25.8786</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4971</v>
+        <v>22.4817</v>
       </c>
       <c r="D10" t="n">
-        <v>38.5881</v>
+        <v>38.6292</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.3955</v>
+        <v>25.2797</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0262</v>
+        <v>22.1785</v>
       </c>
       <c r="D11" t="n">
-        <v>38.2719</v>
+        <v>38.2619</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8159</v>
+        <v>26.103</v>
       </c>
       <c r="C12" t="n">
-        <v>22.3591</v>
+        <v>22.4584</v>
       </c>
       <c r="D12" t="n">
-        <v>38.3727</v>
+        <v>38.4618</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0837</v>
+        <v>26.3134</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6428</v>
+        <v>22.6205</v>
       </c>
       <c r="D13" t="n">
-        <v>39.3288</v>
+        <v>39.1198</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.9939</v>
+        <v>25.144</v>
       </c>
       <c r="C14" t="n">
-        <v>22.7211</v>
+        <v>22.8692</v>
       </c>
       <c r="D14" t="n">
-        <v>38.0505</v>
+        <v>38.2893</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7295</v>
+        <v>25.8883</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9395</v>
+        <v>23.2262</v>
       </c>
       <c r="D15" t="n">
-        <v>38.5131</v>
+        <v>38.8066</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3709</v>
+        <v>25.6861</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6403</v>
+        <v>23.6774</v>
       </c>
       <c r="D16" t="n">
-        <v>38.6369</v>
+        <v>38.6737</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2893</v>
+        <v>25.5361</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9308</v>
+        <v>23.9168</v>
       </c>
       <c r="D17" t="n">
-        <v>38.339</v>
+        <v>38.3524</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.75904</v>
+        <v>7.69635</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3876</v>
+        <v>10.4057</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5717</v>
+        <v>12.5657</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.552440000000001</v>
+        <v>8.673579999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.496549999999999</v>
+        <v>8.45288</v>
       </c>
       <c r="D3" t="n">
-        <v>13.2669</v>
+        <v>14.9381</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.6148</v>
+        <v>11.0433</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1731</v>
+        <v>10.4352</v>
       </c>
       <c r="D4" t="n">
-        <v>15.6619</v>
+        <v>19.0033</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.3911</v>
+        <v>13.5621</v>
       </c>
       <c r="C5" t="n">
-        <v>12.711</v>
+        <v>12.7112</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1122</v>
+        <v>23.167</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0437</v>
+        <v>15.8132</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1709</v>
+        <v>15.0517</v>
       </c>
       <c r="D6" t="n">
-        <v>20.8532</v>
+        <v>27.8234</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0159</v>
+        <v>19.1261</v>
       </c>
       <c r="C7" t="n">
-        <v>17.386</v>
+        <v>17.3015</v>
       </c>
       <c r="D7" t="n">
-        <v>23.351</v>
+        <v>32.3087</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6433</v>
+        <v>21.7656</v>
       </c>
       <c r="C8" t="n">
-        <v>19.624</v>
+        <v>19.6917</v>
       </c>
       <c r="D8" t="n">
-        <v>24.9234</v>
+        <v>36.3927</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3317</v>
+        <v>26.2253</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0517</v>
+        <v>22.0402</v>
       </c>
       <c r="D9" t="n">
-        <v>28.3979</v>
+        <v>41.9165</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9749</v>
+        <v>20.9224</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8378</v>
+        <v>20.6613</v>
       </c>
       <c r="D10" t="n">
-        <v>26.1628</v>
+        <v>37.3323</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8729</v>
+        <v>21.154</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8623</v>
+        <v>19.9218</v>
       </c>
       <c r="D11" t="n">
-        <v>26.1951</v>
+        <v>36.7886</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0692</v>
+        <v>21.565</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5235</v>
+        <v>20.3674</v>
       </c>
       <c r="D12" t="n">
-        <v>25.7089</v>
+        <v>37.1072</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7931</v>
+        <v>22.1016</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0257</v>
+        <v>21.0779</v>
       </c>
       <c r="D13" t="n">
-        <v>26.3659</v>
+        <v>39.4618</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9166</v>
+        <v>22.2623</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4594</v>
+        <v>21.5248</v>
       </c>
       <c r="D14" t="n">
-        <v>25.4521</v>
+        <v>37.9537</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0067</v>
+        <v>22.0287</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9067</v>
+        <v>21.896</v>
       </c>
       <c r="D15" t="n">
-        <v>25.1771</v>
+        <v>38.0878</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.6548</v>
+        <v>21.617</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1855</v>
+        <v>22.1222</v>
       </c>
       <c r="D16" t="n">
-        <v>24.2967</v>
+        <v>36.1139</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.3414</v>
+        <v>21.8918</v>
       </c>
       <c r="C17" t="n">
-        <v>22.7739</v>
+        <v>22.6728</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0066</v>
+        <v>37.9441</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.224919999999999</v>
+        <v>8.346170000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.464</v>
+        <v>10.4289</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7295</v>
+        <v>12.7185</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.791</v>
+        <v>8.94509</v>
       </c>
       <c r="C3" t="n">
-        <v>8.45867</v>
+        <v>8.4068</v>
       </c>
       <c r="D3" t="n">
-        <v>13.4885</v>
+        <v>14.8302</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1453</v>
+        <v>11.1528</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3037</v>
+        <v>10.3995</v>
       </c>
       <c r="D4" t="n">
-        <v>16.1083</v>
+        <v>19.5746</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.4058</v>
+        <v>13.7365</v>
       </c>
       <c r="C5" t="n">
-        <v>12.4962</v>
+        <v>12.6864</v>
       </c>
       <c r="D5" t="n">
-        <v>18.6846</v>
+        <v>23.6478</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3524</v>
+        <v>16.3186</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9244</v>
+        <v>15.0635</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4666</v>
+        <v>28.4075</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.034</v>
+        <v>19.2166</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4769</v>
+        <v>17.4952</v>
       </c>
       <c r="D7" t="n">
-        <v>24.2668</v>
+        <v>32.702</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.013</v>
+        <v>22.0713</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5815</v>
+        <v>19.7119</v>
       </c>
       <c r="D8" t="n">
-        <v>25.8577</v>
+        <v>36.4074</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.1601</v>
+        <v>26.2111</v>
       </c>
       <c r="C9" t="n">
-        <v>21.6371</v>
+        <v>21.9206</v>
       </c>
       <c r="D9" t="n">
-        <v>29.6553</v>
+        <v>42.2014</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7191</v>
+        <v>22.5523</v>
       </c>
       <c r="C10" t="n">
-        <v>20.3266</v>
+        <v>20.8782</v>
       </c>
       <c r="D10" t="n">
-        <v>27.2885</v>
+        <v>38.0291</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6073</v>
+        <v>21.8255</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1675</v>
+        <v>20.2017</v>
       </c>
       <c r="D11" t="n">
-        <v>27.0357</v>
+        <v>36.7117</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2668</v>
+        <v>22.1375</v>
       </c>
       <c r="C12" t="n">
-        <v>20.8715</v>
+        <v>20.3633</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8272</v>
+        <v>37.6951</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8546</v>
+        <v>22.6404</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2714</v>
+        <v>21.0829</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9569</v>
+        <v>38.6507</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.8134</v>
+        <v>21.86</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4797</v>
+        <v>21.5221</v>
       </c>
       <c r="D14" t="n">
-        <v>27.0344</v>
+        <v>39.6016</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4011</v>
+        <v>22.0619</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8046</v>
+        <v>21.6785</v>
       </c>
       <c r="D15" t="n">
-        <v>26.8125</v>
+        <v>39.2921</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7973</v>
+        <v>22.2701</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4499</v>
+        <v>21.9783</v>
       </c>
       <c r="D16" t="n">
-        <v>25.8514</v>
+        <v>37.5978</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8837</v>
+        <v>22.2148</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6651</v>
+        <v>22.3866</v>
       </c>
       <c r="D17" t="n">
-        <v>24.7688</v>
+        <v>37.657</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0269</v>
+        <v>10.0649</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1824</v>
+        <v>11.2029</v>
       </c>
       <c r="D2" t="n">
-        <v>13.9335</v>
+        <v>13.8565</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.77444</v>
+        <v>9.48545</v>
       </c>
       <c r="C3" t="n">
-        <v>9.289870000000001</v>
+        <v>9.16164</v>
       </c>
       <c r="D3" t="n">
-        <v>15.4008</v>
+        <v>15.8426</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2912</v>
+        <v>12.3575</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3838</v>
+        <v>11.3422</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2707</v>
+        <v>20.3262</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.113</v>
+        <v>15.0957</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7329</v>
+        <v>13.7679</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1845</v>
+        <v>26.005</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2736</v>
+        <v>17.4873</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1455</v>
+        <v>16.0878</v>
       </c>
       <c r="D6" t="n">
-        <v>27.131</v>
+        <v>29.9473</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1751</v>
+        <v>20.8219</v>
       </c>
       <c r="C7" t="n">
-        <v>19.0029</v>
+        <v>18.8624</v>
       </c>
       <c r="D7" t="n">
-        <v>31.5519</v>
+        <v>35.3177</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.6252</v>
+        <v>24.1387</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0033</v>
+        <v>21.1058</v>
       </c>
       <c r="D8" t="n">
-        <v>34.154</v>
+        <v>38.8907</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6631</v>
+        <v>27.8169</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5154</v>
+        <v>23.7086</v>
       </c>
       <c r="D9" t="n">
-        <v>38.6365</v>
+        <v>44.1549</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3302</v>
+        <v>25.3917</v>
       </c>
       <c r="C10" t="n">
-        <v>22.3165</v>
+        <v>22.3896</v>
       </c>
       <c r="D10" t="n">
-        <v>34.9439</v>
+        <v>39.6477</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9534</v>
+        <v>24.3924</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3355</v>
+        <v>21.2242</v>
       </c>
       <c r="D11" t="n">
-        <v>34.2456</v>
+        <v>39.8772</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.7261</v>
+        <v>24.3817</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9886</v>
+        <v>21.7486</v>
       </c>
       <c r="D12" t="n">
-        <v>34.6323</v>
+        <v>40.2784</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.3141</v>
+        <v>24.6953</v>
       </c>
       <c r="C13" t="n">
-        <v>22.1985</v>
+        <v>22.4132</v>
       </c>
       <c r="D13" t="n">
-        <v>35.3244</v>
+        <v>40.353</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2886</v>
+        <v>24.949</v>
       </c>
       <c r="C14" t="n">
-        <v>22.7461</v>
+        <v>22.7146</v>
       </c>
       <c r="D14" t="n">
-        <v>34.4272</v>
+        <v>41.9642</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.9016</v>
+        <v>24.5323</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1228</v>
+        <v>22.9454</v>
       </c>
       <c r="D15" t="n">
-        <v>33.9726</v>
+        <v>39.3189</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.4582</v>
+        <v>24.0934</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6371</v>
+        <v>23.5803</v>
       </c>
       <c r="D16" t="n">
-        <v>33.9885</v>
+        <v>41.3366</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.1545</v>
+        <v>24.2808</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0088</v>
+        <v>23.993</v>
       </c>
       <c r="D17" t="n">
-        <v>32.5641</v>
+        <v>41.1271</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.4689</v>
+        <v>3.47426</v>
       </c>
       <c r="C2" t="n">
-        <v>8.42009</v>
+        <v>8.411049999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.019</v>
+        <v>10.0244</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.90476</v>
+        <v>5.87854</v>
       </c>
       <c r="C3" t="n">
-        <v>8.27425</v>
+        <v>8.19754</v>
       </c>
       <c r="D3" t="n">
-        <v>12.9793</v>
+        <v>15.019</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.63457</v>
+        <v>8.503209999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4156</v>
+        <v>10.3996</v>
       </c>
       <c r="D4" t="n">
-        <v>15.7225</v>
+        <v>20.3654</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2386</v>
+        <v>11.2637</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7191</v>
+        <v>12.7368</v>
       </c>
       <c r="D5" t="n">
-        <v>18.0382</v>
+        <v>25.3484</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7271</v>
+        <v>13.84</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0891</v>
+        <v>15.1055</v>
       </c>
       <c r="D6" t="n">
-        <v>20.5393</v>
+        <v>30.2773</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4733</v>
+        <v>16.3785</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4652</v>
+        <v>17.5885</v>
       </c>
       <c r="D7" t="n">
-        <v>22.8454</v>
+        <v>35.5855</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8911</v>
+        <v>18.9183</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2052</v>
+        <v>20.2204</v>
       </c>
       <c r="D8" t="n">
-        <v>25.098</v>
+        <v>40.8864</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7966</v>
+        <v>21.7905</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1751</v>
+        <v>23.259</v>
       </c>
       <c r="D9" t="n">
-        <v>29.3599</v>
+        <v>48.5803</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.2177</v>
+        <v>20.3603</v>
       </c>
       <c r="C10" t="n">
-        <v>21.546</v>
+        <v>21.459</v>
       </c>
       <c r="D10" t="n">
-        <v>27.8964</v>
+        <v>44.9627</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.8381</v>
+        <v>19.8</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1746</v>
+        <v>21.5025</v>
       </c>
       <c r="D11" t="n">
-        <v>27.9065</v>
+        <v>43.6565</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3749</v>
+        <v>20.3786</v>
       </c>
       <c r="C12" t="n">
-        <v>21.1942</v>
+        <v>21.3041</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1287</v>
+        <v>44.0182</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5927</v>
+        <v>20.8065</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3681</v>
+        <v>21.4357</v>
       </c>
       <c r="D13" t="n">
-        <v>28.1813</v>
+        <v>45.2135</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9508</v>
+        <v>19.8903</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4712</v>
+        <v>21.622</v>
       </c>
       <c r="D14" t="n">
-        <v>27.7224</v>
+        <v>43.9394</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6161</v>
+        <v>20.6506</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8488</v>
+        <v>21.8171</v>
       </c>
       <c r="D15" t="n">
-        <v>28.1504</v>
+        <v>45.1083</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3461</v>
+        <v>20.5094</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1865</v>
+        <v>22.1062</v>
       </c>
       <c r="D16" t="n">
-        <v>27.6703</v>
+        <v>44.623</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.1159</v>
+        <v>20.2977</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5133</v>
+        <v>22.356</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1394</v>
+        <v>46.0205</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.55171</v>
+        <v>3.5809</v>
       </c>
       <c r="C2" t="n">
-        <v>8.57995</v>
+        <v>8.507350000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1295</v>
+        <v>10.088</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.95321</v>
+        <v>5.92909</v>
       </c>
       <c r="C3" t="n">
-        <v>8.18432</v>
+        <v>8.16982</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0274</v>
+        <v>14.9024</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.65155</v>
+        <v>8.57409</v>
       </c>
       <c r="C4" t="n">
-        <v>10.435</v>
+        <v>10.4078</v>
       </c>
       <c r="D4" t="n">
-        <v>16.1713</v>
+        <v>20.2718</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.254</v>
+        <v>11.2501</v>
       </c>
       <c r="C5" t="n">
-        <v>12.761</v>
+        <v>12.706</v>
       </c>
       <c r="D5" t="n">
-        <v>18.7144</v>
+        <v>25.1442</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8431</v>
+        <v>13.8127</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1188</v>
+        <v>15.1365</v>
       </c>
       <c r="D6" t="n">
-        <v>21.4214</v>
+        <v>30.3075</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3833</v>
+        <v>16.4164</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5912</v>
+        <v>17.5607</v>
       </c>
       <c r="D7" t="n">
-        <v>23.8902</v>
+        <v>35.5988</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0332</v>
+        <v>18.898</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2518</v>
+        <v>20.2579</v>
       </c>
       <c r="D8" t="n">
-        <v>26.0939</v>
+        <v>40.6182</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.8441</v>
+        <v>22.0019</v>
       </c>
       <c r="C9" t="n">
-        <v>23.2981</v>
+        <v>23.3113</v>
       </c>
       <c r="D9" t="n">
-        <v>30.6773</v>
+        <v>48.3296</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3196</v>
+        <v>20.1685</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6463</v>
+        <v>21.6911</v>
       </c>
       <c r="D10" t="n">
-        <v>29.0441</v>
+        <v>42.6873</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2707</v>
+        <v>20.1022</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1821</v>
+        <v>21.4018</v>
       </c>
       <c r="D11" t="n">
-        <v>28.8978</v>
+        <v>43.1346</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5108</v>
+        <v>20.298</v>
       </c>
       <c r="C12" t="n">
-        <v>21.4282</v>
+        <v>21.2793</v>
       </c>
       <c r="D12" t="n">
-        <v>29.1957</v>
+        <v>43.8585</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9846</v>
+        <v>21.0096</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2809</v>
+        <v>21.3663</v>
       </c>
       <c r="D13" t="n">
-        <v>29.4089</v>
+        <v>44.574</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.929</v>
+        <v>20.2051</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7051</v>
+        <v>21.6103</v>
       </c>
       <c r="D14" t="n">
-        <v>28.8731</v>
+        <v>43.8095</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.3897</v>
+        <v>21.0929</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8946</v>
+        <v>21.9703</v>
       </c>
       <c r="D15" t="n">
-        <v>29.2289</v>
+        <v>44.5654</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5269</v>
+        <v>20.4225</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2808</v>
+        <v>22.2433</v>
       </c>
       <c r="D16" t="n">
-        <v>29.0159</v>
+        <v>44.3356</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5229</v>
+        <v>20.5103</v>
       </c>
       <c r="C17" t="n">
-        <v>22.591</v>
+        <v>22.5884</v>
       </c>
       <c r="D17" t="n">
-        <v>28.9341</v>
+        <v>44.7683</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.00054</v>
+        <v>6.88053</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5908</v>
+        <v>10.5893</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9783</v>
+        <v>12.9582</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.66864</v>
+        <v>8.807589999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.92329</v>
+        <v>9.006349999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>15.1203</v>
+        <v>16.0515</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5747</v>
+        <v>11.5362</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1936</v>
+        <v>11.1738</v>
       </c>
       <c r="D4" t="n">
-        <v>19.4337</v>
+        <v>21.0159</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2418</v>
+        <v>14.239</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3276</v>
+        <v>13.3115</v>
       </c>
       <c r="D5" t="n">
-        <v>23.2373</v>
+        <v>26.4918</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1292</v>
+        <v>17.1924</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9739</v>
+        <v>15.8523</v>
       </c>
       <c r="D6" t="n">
-        <v>27.5115</v>
+        <v>31.9067</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.163</v>
+        <v>20.0895</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4231</v>
+        <v>18.209</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4033</v>
+        <v>37.7409</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.374</v>
+        <v>23.1926</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7452</v>
+        <v>20.6814</v>
       </c>
       <c r="D8" t="n">
-        <v>35.7916</v>
+        <v>43.8033</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5192</v>
+        <v>27.6578</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0538</v>
+        <v>23.2391</v>
       </c>
       <c r="D9" t="n">
-        <v>41.0147</v>
+        <v>51.2126</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.8786</v>
+        <v>25.8636</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4817</v>
+        <v>22.5184</v>
       </c>
       <c r="D10" t="n">
-        <v>38.6292</v>
+        <v>46.3573</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2797</v>
+        <v>25.4793</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1785</v>
+        <v>22.1874</v>
       </c>
       <c r="D11" t="n">
-        <v>38.2619</v>
+        <v>46.2437</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.103</v>
+        <v>26.0673</v>
       </c>
       <c r="C12" t="n">
-        <v>22.4584</v>
+        <v>22.521</v>
       </c>
       <c r="D12" t="n">
-        <v>38.4618</v>
+        <v>46.8772</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.3134</v>
+        <v>26.1063</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6205</v>
+        <v>22.717</v>
       </c>
       <c r="D13" t="n">
-        <v>39.1198</v>
+        <v>47.6055</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.144</v>
+        <v>25.3763</v>
       </c>
       <c r="C14" t="n">
-        <v>22.8692</v>
+        <v>22.9185</v>
       </c>
       <c r="D14" t="n">
-        <v>38.2893</v>
+        <v>46.8894</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.8883</v>
+        <v>26.1794</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2262</v>
+        <v>23.3712</v>
       </c>
       <c r="D15" t="n">
-        <v>38.8066</v>
+        <v>47.418</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6861</v>
+        <v>24.8763</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6774</v>
+        <v>23.3668</v>
       </c>
       <c r="D16" t="n">
-        <v>38.6737</v>
+        <v>47.8169</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5361</v>
+        <v>25.3672</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9168</v>
+        <v>24.0367</v>
       </c>
       <c r="D17" t="n">
-        <v>38.3524</v>
+        <v>47.8359</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.69635</v>
+        <v>7.76714</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4057</v>
+        <v>10.3239</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5657</v>
+        <v>12.5425</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.673579999999999</v>
+        <v>8.656599999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.45288</v>
+        <v>8.353490000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9381</v>
+        <v>14.8102</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0433</v>
+        <v>10.8919</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4352</v>
+        <v>10.3102</v>
       </c>
       <c r="D4" t="n">
-        <v>19.0033</v>
+        <v>18.7757</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5621</v>
+        <v>13.5285</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7112</v>
+        <v>12.6528</v>
       </c>
       <c r="D5" t="n">
-        <v>23.167</v>
+        <v>23.0511</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8132</v>
+        <v>16.0747</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0517</v>
+        <v>15.0955</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8234</v>
+        <v>27.8002</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1261</v>
+        <v>19.1601</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3015</v>
+        <v>17.5759</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3087</v>
+        <v>32.3172</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7656</v>
+        <v>21.6326</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6917</v>
+        <v>19.69</v>
       </c>
       <c r="D8" t="n">
-        <v>36.3927</v>
+        <v>35.8038</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2253</v>
+        <v>25.9304</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0402</v>
+        <v>21.9256</v>
       </c>
       <c r="D9" t="n">
-        <v>41.9165</v>
+        <v>39.657</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9224</v>
+        <v>21.6293</v>
       </c>
       <c r="C10" t="n">
-        <v>20.6613</v>
+        <v>20.4573</v>
       </c>
       <c r="D10" t="n">
-        <v>37.3323</v>
+        <v>37.0454</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.154</v>
+        <v>21.6789</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9218</v>
+        <v>20.1563</v>
       </c>
       <c r="D11" t="n">
-        <v>36.7886</v>
+        <v>36.9362</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.565</v>
+        <v>22.0619</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3674</v>
+        <v>20.37</v>
       </c>
       <c r="D12" t="n">
-        <v>37.1072</v>
+        <v>36.8622</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.1016</v>
+        <v>21.4288</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0779</v>
+        <v>21.0925</v>
       </c>
       <c r="D13" t="n">
-        <v>39.4618</v>
+        <v>37.8158</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2623</v>
+        <v>22.1378</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5248</v>
+        <v>21.3747</v>
       </c>
       <c r="D14" t="n">
-        <v>37.9537</v>
+        <v>37.4069</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0287</v>
+        <v>21.7733</v>
       </c>
       <c r="C15" t="n">
-        <v>21.896</v>
+        <v>21.7729</v>
       </c>
       <c r="D15" t="n">
-        <v>38.0878</v>
+        <v>37.8106</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.617</v>
+        <v>22.0069</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1222</v>
+        <v>22.3832</v>
       </c>
       <c r="D16" t="n">
-        <v>36.1139</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8918</v>
+        <v>22.1857</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6728</v>
+        <v>22.6631</v>
       </c>
       <c r="D17" t="n">
-        <v>37.9441</v>
+        <v>36.5147</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.346170000000001</v>
+        <v>8.27004</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4289</v>
+        <v>10.3813</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7185</v>
+        <v>12.6957</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.94509</v>
+        <v>8.81883</v>
       </c>
       <c r="C3" t="n">
-        <v>8.4068</v>
+        <v>8.362769999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8302</v>
+        <v>14.6077</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1528</v>
+        <v>11.0319</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3995</v>
+        <v>10.4383</v>
       </c>
       <c r="D4" t="n">
-        <v>19.5746</v>
+        <v>19.3238</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7365</v>
+        <v>13.5045</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6864</v>
+        <v>12.6164</v>
       </c>
       <c r="D5" t="n">
-        <v>23.6478</v>
+        <v>23.2365</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3186</v>
+        <v>16.3149</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0635</v>
+        <v>14.8578</v>
       </c>
       <c r="D6" t="n">
-        <v>28.4075</v>
+        <v>27.574</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.2166</v>
+        <v>18.9104</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4952</v>
+        <v>17.5808</v>
       </c>
       <c r="D7" t="n">
-        <v>32.702</v>
+        <v>32.9511</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.0713</v>
+        <v>21.8493</v>
       </c>
       <c r="C8" t="n">
-        <v>19.7119</v>
+        <v>19.5083</v>
       </c>
       <c r="D8" t="n">
-        <v>36.4074</v>
+        <v>35.7165</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2111</v>
+        <v>26.0029</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9206</v>
+        <v>21.796</v>
       </c>
       <c r="D9" t="n">
-        <v>42.2014</v>
+        <v>39.7732</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5523</v>
+        <v>22.0885</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8782</v>
+        <v>20.8396</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0291</v>
+        <v>37.1837</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8255</v>
+        <v>21.5083</v>
       </c>
       <c r="C11" t="n">
-        <v>20.2017</v>
+        <v>20.1877</v>
       </c>
       <c r="D11" t="n">
-        <v>36.7117</v>
+        <v>36.9289</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1375</v>
+        <v>22.3128</v>
       </c>
       <c r="C12" t="n">
-        <v>20.3633</v>
+        <v>20.409</v>
       </c>
       <c r="D12" t="n">
-        <v>37.6951</v>
+        <v>35.9273</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6404</v>
+        <v>22.6346</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0829</v>
+        <v>21.1889</v>
       </c>
       <c r="D13" t="n">
-        <v>38.6507</v>
+        <v>39.1894</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.86</v>
+        <v>22.2756</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5221</v>
+        <v>21.7136</v>
       </c>
       <c r="D14" t="n">
-        <v>39.6016</v>
+        <v>36.8578</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0619</v>
+        <v>21.3343</v>
       </c>
       <c r="C15" t="n">
-        <v>21.6785</v>
+        <v>21.7055</v>
       </c>
       <c r="D15" t="n">
-        <v>39.2921</v>
+        <v>37.0048</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.2701</v>
+        <v>21.7101</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9783</v>
+        <v>22.1195</v>
       </c>
       <c r="D16" t="n">
-        <v>37.5978</v>
+        <v>39.3275</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.2148</v>
+        <v>21.8314</v>
       </c>
       <c r="C17" t="n">
-        <v>22.3866</v>
+        <v>22.5456</v>
       </c>
       <c r="D17" t="n">
-        <v>37.657</v>
+        <v>36.6424</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0649</v>
+        <v>10.0432</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2029</v>
+        <v>11.1421</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8565</v>
+        <v>13.8914</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.48545</v>
+        <v>9.46677</v>
       </c>
       <c r="C3" t="n">
-        <v>9.16164</v>
+        <v>9.098839999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>15.8426</v>
+        <v>15.5819</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3575</v>
+        <v>11.5014</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3422</v>
+        <v>11.1445</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3262</v>
+        <v>19.8675</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0957</v>
+        <v>14.2604</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7679</v>
+        <v>13.4217</v>
       </c>
       <c r="D5" t="n">
-        <v>26.005</v>
+        <v>24.5876</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.4873</v>
+        <v>17.1567</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0878</v>
+        <v>16.0257</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9473</v>
+        <v>29.9095</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.8219</v>
+        <v>20.7847</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8624</v>
+        <v>18.7728</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3177</v>
+        <v>34.5172</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1387</v>
+        <v>23.6595</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1058</v>
+        <v>21.1408</v>
       </c>
       <c r="D8" t="n">
-        <v>38.8907</v>
+        <v>38.4034</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.8169</v>
+        <v>27.6591</v>
       </c>
       <c r="C9" t="n">
-        <v>23.7086</v>
+        <v>23.5216</v>
       </c>
       <c r="D9" t="n">
-        <v>44.1549</v>
+        <v>42.508</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3917</v>
+        <v>25.467</v>
       </c>
       <c r="C10" t="n">
-        <v>22.3896</v>
+        <v>22.2508</v>
       </c>
       <c r="D10" t="n">
-        <v>39.6477</v>
+        <v>39.0838</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3924</v>
+        <v>24.4334</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2242</v>
+        <v>21.1316</v>
       </c>
       <c r="D11" t="n">
-        <v>39.8772</v>
+        <v>38.9428</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.3817</v>
+        <v>24.9708</v>
       </c>
       <c r="C12" t="n">
-        <v>21.7486</v>
+        <v>21.681</v>
       </c>
       <c r="D12" t="n">
-        <v>40.2784</v>
+        <v>38.6065</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.6953</v>
+        <v>24.7631</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4132</v>
+        <v>22.2276</v>
       </c>
       <c r="D13" t="n">
-        <v>40.353</v>
+        <v>40.0069</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.949</v>
+        <v>25.0104</v>
       </c>
       <c r="C14" t="n">
-        <v>22.7146</v>
+        <v>22.5851</v>
       </c>
       <c r="D14" t="n">
-        <v>41.9642</v>
+        <v>40.9531</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5323</v>
+        <v>24.3718</v>
       </c>
       <c r="C15" t="n">
-        <v>22.9454</v>
+        <v>23.3315</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3189</v>
+        <v>39.3677</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0934</v>
+        <v>24.0695</v>
       </c>
       <c r="C16" t="n">
-        <v>23.5803</v>
+        <v>23.6468</v>
       </c>
       <c r="D16" t="n">
-        <v>41.3366</v>
+        <v>40.5754</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2808</v>
+        <v>23.653</v>
       </c>
       <c r="C17" t="n">
-        <v>23.993</v>
+        <v>23.8259</v>
       </c>
       <c r="D17" t="n">
-        <v>41.1271</v>
+        <v>39.8424</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.47426</v>
+        <v>3.51641</v>
       </c>
       <c r="C2" t="n">
-        <v>8.411049999999999</v>
+        <v>8.429069999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0244</v>
+        <v>9.98054</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.87854</v>
+        <v>5.87154</v>
       </c>
       <c r="C3" t="n">
-        <v>8.19754</v>
+        <v>8.09746</v>
       </c>
       <c r="D3" t="n">
-        <v>15.019</v>
+        <v>14.8329</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.503209999999999</v>
+        <v>8.575810000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3996</v>
+        <v>10.3628</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3654</v>
+        <v>20.2341</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2637</v>
+        <v>11.191</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7368</v>
+        <v>12.6697</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3484</v>
+        <v>25.2788</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.84</v>
+        <v>13.7013</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1055</v>
+        <v>15.0362</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2773</v>
+        <v>30.2345</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3785</v>
+        <v>16.3448</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5885</v>
+        <v>17.4303</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5855</v>
+        <v>35.5264</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9183</v>
+        <v>18.8233</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2204</v>
+        <v>20.2236</v>
       </c>
       <c r="D8" t="n">
-        <v>40.8864</v>
+        <v>40.7843</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7905</v>
+        <v>21.5948</v>
       </c>
       <c r="C9" t="n">
-        <v>23.259</v>
+        <v>23.1758</v>
       </c>
       <c r="D9" t="n">
-        <v>48.5803</v>
+        <v>48.3223</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3603</v>
+        <v>20.3761</v>
       </c>
       <c r="C10" t="n">
-        <v>21.459</v>
+        <v>21.5639</v>
       </c>
       <c r="D10" t="n">
-        <v>44.9627</v>
+        <v>43.8207</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.8</v>
+        <v>19.803</v>
       </c>
       <c r="C11" t="n">
-        <v>21.5025</v>
+        <v>21.3484</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6565</v>
+        <v>43.9042</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3786</v>
+        <v>20.3038</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3041</v>
+        <v>21.1199</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0182</v>
+        <v>44.7101</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.8065</v>
+        <v>20.6946</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4357</v>
+        <v>21.2891</v>
       </c>
       <c r="D13" t="n">
-        <v>45.2135</v>
+        <v>45.1589</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8903</v>
+        <v>20.0012</v>
       </c>
       <c r="C14" t="n">
-        <v>21.622</v>
+        <v>21.535</v>
       </c>
       <c r="D14" t="n">
-        <v>43.9394</v>
+        <v>44.1526</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6506</v>
+        <v>20.7362</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8171</v>
+        <v>21.8851</v>
       </c>
       <c r="D15" t="n">
-        <v>45.1083</v>
+        <v>44.5987</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5094</v>
+        <v>20.3864</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1062</v>
+        <v>22.1389</v>
       </c>
       <c r="D16" t="n">
-        <v>44.623</v>
+        <v>45.057</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2977</v>
+        <v>20.208</v>
       </c>
       <c r="C17" t="n">
-        <v>22.356</v>
+        <v>22.4341</v>
       </c>
       <c r="D17" t="n">
-        <v>46.0205</v>
+        <v>46.0627</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5809</v>
+        <v>3.57787</v>
       </c>
       <c r="C2" t="n">
-        <v>8.507350000000001</v>
+        <v>8.57033</v>
       </c>
       <c r="D2" t="n">
-        <v>10.088</v>
+        <v>10.133</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92909</v>
+        <v>5.92642</v>
       </c>
       <c r="C3" t="n">
-        <v>8.16982</v>
+        <v>8.14189</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9024</v>
+        <v>14.8081</v>
       </c>
     </row>
     <row r="4">
@@ -5171,10 +5171,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.57409</v>
+        <v>8.61697</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4078</v>
+        <v>10.3847</v>
       </c>
       <c r="D4" t="n">
         <v>20.2718</v>
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2501</v>
+        <v>11.257</v>
       </c>
       <c r="C5" t="n">
-        <v>12.706</v>
+        <v>12.6961</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1442</v>
+        <v>24.9693</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8127</v>
+        <v>13.7576</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1365</v>
+        <v>15.0955</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3075</v>
+        <v>30.1401</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4164</v>
+        <v>16.3186</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5607</v>
+        <v>17.5345</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5988</v>
+        <v>35.2761</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.898</v>
+        <v>19.0212</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2579</v>
+        <v>20.1517</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6182</v>
+        <v>40.5561</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0019</v>
+        <v>21.7821</v>
       </c>
       <c r="C9" t="n">
-        <v>23.3113</v>
+        <v>23.0517</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3296</v>
+        <v>47.6859</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1685</v>
+        <v>20.5811</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6911</v>
+        <v>21.527</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6873</v>
+        <v>42.5631</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1022</v>
+        <v>20.3177</v>
       </c>
       <c r="C11" t="n">
-        <v>21.4018</v>
+        <v>20.9688</v>
       </c>
       <c r="D11" t="n">
-        <v>43.1346</v>
+        <v>43.4894</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.298</v>
+        <v>20.3564</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2793</v>
+        <v>21.3164</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8585</v>
+        <v>43.886</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.0096</v>
+        <v>20.9321</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3663</v>
+        <v>21.3601</v>
       </c>
       <c r="D13" t="n">
-        <v>44.574</v>
+        <v>44.837</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2051</v>
+        <v>20.1218</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6103</v>
+        <v>21.6098</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8095</v>
+        <v>43.8695</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.0929</v>
+        <v>20.7271</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9703</v>
+        <v>21.9323</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5654</v>
+        <v>44.1849</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4225</v>
+        <v>20.6489</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2433</v>
+        <v>22.2474</v>
       </c>
       <c r="D16" t="n">
-        <v>44.3356</v>
+        <v>44.7261</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5103</v>
+        <v>20.2958</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5884</v>
+        <v>22.5834</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7683</v>
+        <v>44.2395</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.88053</v>
+        <v>6.89833</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5893</v>
+        <v>10.5155</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9582</v>
+        <v>12.9326</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.807589999999999</v>
+        <v>8.81124</v>
       </c>
       <c r="C3" t="n">
-        <v>9.006349999999999</v>
+        <v>8.95706</v>
       </c>
       <c r="D3" t="n">
-        <v>16.0515</v>
+        <v>15.9606</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5362</v>
+        <v>11.4733</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1738</v>
+        <v>11.1236</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0159</v>
+        <v>20.9464</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.239</v>
+        <v>14.3394</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3115</v>
+        <v>13.442</v>
       </c>
       <c r="D5" t="n">
-        <v>26.4918</v>
+        <v>26.3381</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1924</v>
+        <v>17.1749</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8523</v>
+        <v>15.7363</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9067</v>
+        <v>31.9153</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0895</v>
+        <v>20.0484</v>
       </c>
       <c r="C7" t="n">
-        <v>18.209</v>
+        <v>18.3668</v>
       </c>
       <c r="D7" t="n">
-        <v>37.7409</v>
+        <v>37.6917</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.1926</v>
+        <v>23.327</v>
       </c>
       <c r="C8" t="n">
-        <v>20.6814</v>
+        <v>20.7124</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8033</v>
+        <v>43.3657</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6578</v>
+        <v>27.4619</v>
       </c>
       <c r="C9" t="n">
-        <v>23.2391</v>
+        <v>23.1449</v>
       </c>
       <c r="D9" t="n">
-        <v>51.2126</v>
+        <v>50.2898</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.8636</v>
+        <v>26.0943</v>
       </c>
       <c r="C10" t="n">
-        <v>22.5184</v>
+        <v>22.189</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3573</v>
+        <v>46.35</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4793</v>
+        <v>25.4719</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1874</v>
+        <v>22.1945</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2437</v>
+        <v>46.2381</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.0673</v>
+        <v>25.6125</v>
       </c>
       <c r="C12" t="n">
-        <v>22.521</v>
+        <v>22.453</v>
       </c>
       <c r="D12" t="n">
-        <v>46.8772</v>
+        <v>46.553</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.1063</v>
+        <v>25.9216</v>
       </c>
       <c r="C13" t="n">
-        <v>22.717</v>
+        <v>22.4816</v>
       </c>
       <c r="D13" t="n">
-        <v>47.6055</v>
+        <v>46.8995</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3763</v>
+        <v>25.2675</v>
       </c>
       <c r="C14" t="n">
-        <v>22.9185</v>
+        <v>22.8542</v>
       </c>
       <c r="D14" t="n">
-        <v>46.8894</v>
+        <v>46.2657</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>26.1794</v>
+        <v>25.7739</v>
       </c>
       <c r="C15" t="n">
-        <v>23.3712</v>
+        <v>23.1108</v>
       </c>
       <c r="D15" t="n">
-        <v>47.418</v>
+        <v>46.9295</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.8763</v>
+        <v>26.1503</v>
       </c>
       <c r="C16" t="n">
-        <v>23.3668</v>
+        <v>23.4954</v>
       </c>
       <c r="D16" t="n">
-        <v>47.8169</v>
+        <v>46.6889</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3672</v>
+        <v>25.8118</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0367</v>
+        <v>24.1008</v>
       </c>
       <c r="D17" t="n">
-        <v>47.8359</v>
+        <v>47.3281</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.76714</v>
+        <v>7.78661</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3239</v>
+        <v>10.3349</v>
       </c>
       <c r="D2" t="n">
-        <v>12.5425</v>
+        <v>12.4811</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.656599999999999</v>
+        <v>8.60765</v>
       </c>
       <c r="C3" t="n">
-        <v>8.353490000000001</v>
+        <v>8.32011</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8102</v>
+        <v>14.6646</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8919</v>
+        <v>10.8247</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3102</v>
+        <v>10.4447</v>
       </c>
       <c r="D4" t="n">
-        <v>18.7757</v>
+        <v>18.709</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5285</v>
+        <v>13.421</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6528</v>
+        <v>12.6656</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0511</v>
+        <v>22.675</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0747</v>
+        <v>16.0633</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0955</v>
+        <v>15.1568</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8002</v>
+        <v>27.0822</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1601</v>
+        <v>18.7659</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5759</v>
+        <v>17.5048</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3172</v>
+        <v>31.8882</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6326</v>
+        <v>22.1133</v>
       </c>
       <c r="C8" t="n">
-        <v>19.69</v>
+        <v>19.5679</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8038</v>
+        <v>35.118</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9304</v>
+        <v>26.7796</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9256</v>
+        <v>22.0257</v>
       </c>
       <c r="D9" t="n">
-        <v>39.657</v>
+        <v>38.7542</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.6293</v>
+        <v>21.4695</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4573</v>
+        <v>20.7874</v>
       </c>
       <c r="D10" t="n">
-        <v>37.0454</v>
+        <v>36.5394</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6789</v>
+        <v>21.9545</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1563</v>
+        <v>20.0021</v>
       </c>
       <c r="D11" t="n">
-        <v>36.9362</v>
+        <v>36.2832</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0619</v>
+        <v>22.1319</v>
       </c>
       <c r="C12" t="n">
-        <v>20.37</v>
+        <v>20.6299</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8622</v>
+        <v>37.0786</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.4288</v>
+        <v>22.8279</v>
       </c>
       <c r="C13" t="n">
-        <v>21.0925</v>
+        <v>20.9473</v>
       </c>
       <c r="D13" t="n">
-        <v>37.8158</v>
+        <v>37.316</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1378</v>
+        <v>21.8443</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3747</v>
+        <v>21.7894</v>
       </c>
       <c r="D14" t="n">
-        <v>37.4069</v>
+        <v>37.7052</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7733</v>
+        <v>22.4738</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7729</v>
+        <v>22.0023</v>
       </c>
       <c r="D15" t="n">
-        <v>37.8106</v>
+        <v>39.3971</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.0069</v>
+        <v>21.9504</v>
       </c>
       <c r="C16" t="n">
-        <v>22.3832</v>
+        <v>22.0904</v>
       </c>
       <c r="D16" t="n">
-        <v>38.59</v>
+        <v>38.7448</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.1857</v>
+        <v>22.1132</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6631</v>
+        <v>22.5616</v>
       </c>
       <c r="D17" t="n">
-        <v>36.5147</v>
+        <v>38.9176</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.27004</v>
+        <v>8.33949</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3813</v>
+        <v>10.3521</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6957</v>
+        <v>12.6153</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.81883</v>
+        <v>8.71773</v>
       </c>
       <c r="C3" t="n">
-        <v>8.362769999999999</v>
+        <v>8.47785</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6077</v>
+        <v>14.8003</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0319</v>
+        <v>10.9358</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4383</v>
+        <v>10.3357</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3238</v>
+        <v>18.8751</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5045</v>
+        <v>13.4129</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6164</v>
+        <v>12.6552</v>
       </c>
       <c r="D5" t="n">
-        <v>23.2365</v>
+        <v>22.9213</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3149</v>
+        <v>15.9475</v>
       </c>
       <c r="C6" t="n">
-        <v>14.8578</v>
+        <v>14.9878</v>
       </c>
       <c r="D6" t="n">
-        <v>27.574</v>
+        <v>26.9629</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9104</v>
+        <v>19.1493</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5808</v>
+        <v>17.353</v>
       </c>
       <c r="D7" t="n">
-        <v>32.9511</v>
+        <v>31.4932</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.8493</v>
+        <v>21.9517</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5083</v>
+        <v>19.6848</v>
       </c>
       <c r="D8" t="n">
-        <v>35.7165</v>
+        <v>34.5753</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.0029</v>
+        <v>26.3632</v>
       </c>
       <c r="C9" t="n">
-        <v>21.796</v>
+        <v>21.9622</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7732</v>
+        <v>39.261</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0885</v>
+        <v>22.5369</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8396</v>
+        <v>20.8513</v>
       </c>
       <c r="D10" t="n">
-        <v>37.1837</v>
+        <v>36.634</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5083</v>
+        <v>22.3533</v>
       </c>
       <c r="C11" t="n">
-        <v>20.1877</v>
+        <v>19.9195</v>
       </c>
       <c r="D11" t="n">
-        <v>36.9289</v>
+        <v>36.5771</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3128</v>
+        <v>23.0082</v>
       </c>
       <c r="C12" t="n">
-        <v>20.409</v>
+        <v>20.5991</v>
       </c>
       <c r="D12" t="n">
-        <v>35.9273</v>
+        <v>37.4993</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6346</v>
+        <v>23.4323</v>
       </c>
       <c r="C13" t="n">
-        <v>21.1889</v>
+        <v>20.9946</v>
       </c>
       <c r="D13" t="n">
-        <v>39.1894</v>
+        <v>38.7193</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2756</v>
+        <v>22.1625</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7136</v>
+        <v>21.5423</v>
       </c>
       <c r="D14" t="n">
-        <v>36.8578</v>
+        <v>38.2651</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.3343</v>
+        <v>22.2982</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7055</v>
+        <v>21.7887</v>
       </c>
       <c r="D15" t="n">
-        <v>37.0048</v>
+        <v>37.4653</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7101</v>
+        <v>21.8375</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1195</v>
+        <v>22.2663</v>
       </c>
       <c r="D16" t="n">
-        <v>39.3275</v>
+        <v>39.3352</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8314</v>
+        <v>22.4244</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5456</v>
+        <v>22.4828</v>
       </c>
       <c r="D17" t="n">
-        <v>36.6424</v>
+        <v>40.9616</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0432</v>
+        <v>10.0559</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1421</v>
+        <v>11.1484</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8914</v>
+        <v>13.756</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.46677</v>
+        <v>9.37247</v>
       </c>
       <c r="C3" t="n">
-        <v>9.098839999999999</v>
+        <v>9.10703</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5819</v>
+        <v>15.3837</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5014</v>
+        <v>12.1414</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1445</v>
+        <v>11.3938</v>
       </c>
       <c r="D4" t="n">
-        <v>19.8675</v>
+        <v>19.9827</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2604</v>
+        <v>14.9984</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4217</v>
+        <v>13.8239</v>
       </c>
       <c r="D5" t="n">
-        <v>24.5876</v>
+        <v>24.3792</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1567</v>
+        <v>17.9477</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0257</v>
+        <v>16.2456</v>
       </c>
       <c r="D6" t="n">
-        <v>29.9095</v>
+        <v>29.5546</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.7847</v>
+        <v>20.8455</v>
       </c>
       <c r="C7" t="n">
-        <v>18.7728</v>
+        <v>18.8171</v>
       </c>
       <c r="D7" t="n">
-        <v>34.5172</v>
+        <v>33.52</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.6595</v>
+        <v>24.0254</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1408</v>
+        <v>21.1356</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4034</v>
+        <v>37.3288</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6591</v>
+        <v>27.6342</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5216</v>
+        <v>23.124</v>
       </c>
       <c r="D9" t="n">
-        <v>42.508</v>
+        <v>41.3915</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.467</v>
+        <v>25.765</v>
       </c>
       <c r="C10" t="n">
-        <v>22.2508</v>
+        <v>22.2341</v>
       </c>
       <c r="D10" t="n">
-        <v>39.0838</v>
+        <v>38.6564</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4334</v>
+        <v>23.8782</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1316</v>
+        <v>21.4006</v>
       </c>
       <c r="D11" t="n">
-        <v>38.9428</v>
+        <v>38.454</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9708</v>
+        <v>24.6966</v>
       </c>
       <c r="C12" t="n">
-        <v>21.681</v>
+        <v>21.7367</v>
       </c>
       <c r="D12" t="n">
-        <v>38.6065</v>
+        <v>40.3348</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.7631</v>
+        <v>25.2538</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2276</v>
+        <v>22.2202</v>
       </c>
       <c r="D13" t="n">
-        <v>40.0069</v>
+        <v>41.344</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0104</v>
+        <v>24.769</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5851</v>
+        <v>22.5367</v>
       </c>
       <c r="D14" t="n">
-        <v>40.9531</v>
+        <v>40.5746</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3718</v>
+        <v>24.7632</v>
       </c>
       <c r="C15" t="n">
-        <v>23.3315</v>
+        <v>23.2182</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3677</v>
+        <v>40.8915</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.0695</v>
+        <v>24.1426</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6468</v>
+        <v>23.6517</v>
       </c>
       <c r="D16" t="n">
-        <v>40.5754</v>
+        <v>39.4147</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.653</v>
+        <v>24.2701</v>
       </c>
       <c r="C17" t="n">
-        <v>23.8259</v>
+        <v>24.1398</v>
       </c>
       <c r="D17" t="n">
-        <v>39.8424</v>
+        <v>40.5243</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.51641</v>
+        <v>3.49505</v>
       </c>
       <c r="C2" t="n">
-        <v>8.429069999999999</v>
+        <v>8.416090000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>9.98054</v>
+        <v>9.947279999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.87154</v>
+        <v>5.82733</v>
       </c>
       <c r="C3" t="n">
-        <v>8.09746</v>
+        <v>8.101470000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8329</v>
+        <v>14.749</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.575810000000001</v>
+        <v>8.59829</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3628</v>
+        <v>10.3843</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2341</v>
+        <v>20.2735</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.191</v>
+        <v>11.1329</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6697</v>
+        <v>12.6953</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2788</v>
+        <v>25.1945</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7013</v>
+        <v>13.792</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0362</v>
+        <v>15.1173</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2345</v>
+        <v>30.3212</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3448</v>
+        <v>16.3708</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4303</v>
+        <v>17.5139</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5264</v>
+        <v>35.3398</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8233</v>
+        <v>18.9151</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2236</v>
+        <v>20.2387</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7843</v>
+        <v>40.3832</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5948</v>
+        <v>21.7251</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1758</v>
+        <v>23.1762</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3223</v>
+        <v>47.8398</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3761</v>
+        <v>19.9948</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5639</v>
+        <v>21.809</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8207</v>
+        <v>44.8067</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.803</v>
+        <v>19.8979</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3484</v>
+        <v>21.252</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9042</v>
+        <v>42.8696</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3038</v>
+        <v>20.3806</v>
       </c>
       <c r="C12" t="n">
-        <v>21.1199</v>
+        <v>21.3659</v>
       </c>
       <c r="D12" t="n">
-        <v>44.7101</v>
+        <v>44.4173</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6946</v>
+        <v>20.6849</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2891</v>
+        <v>21.4259</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1589</v>
+        <v>44.7703</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0012</v>
+        <v>20.0904</v>
       </c>
       <c r="C14" t="n">
-        <v>21.535</v>
+        <v>21.6732</v>
       </c>
       <c r="D14" t="n">
-        <v>44.1526</v>
+        <v>43.789</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7362</v>
+        <v>20.7022</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8851</v>
+        <v>21.9173</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5987</v>
+        <v>44.7787</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3864</v>
+        <v>20.4127</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1389</v>
+        <v>22.2153</v>
       </c>
       <c r="D16" t="n">
-        <v>45.057</v>
+        <v>44.5844</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.208</v>
+        <v>20.0616</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4341</v>
+        <v>22.5578</v>
       </c>
       <c r="D17" t="n">
-        <v>46.0627</v>
+        <v>43.9804</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.57787</v>
+        <v>3.61894</v>
       </c>
       <c r="C2" t="n">
-        <v>8.57033</v>
+        <v>8.581049999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>10.133</v>
+        <v>10.0488</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92642</v>
+        <v>5.90529</v>
       </c>
       <c r="C3" t="n">
-        <v>8.14189</v>
+        <v>8.17154</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8081</v>
+        <v>14.7278</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.61697</v>
+        <v>8.630940000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3847</v>
+        <v>10.4544</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2718</v>
+        <v>20.0125</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.257</v>
+        <v>11.2685</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6961</v>
+        <v>12.7474</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9693</v>
+        <v>24.9251</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7576</v>
+        <v>13.7483</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0955</v>
+        <v>15.147</v>
       </c>
       <c r="D6" t="n">
-        <v>30.1401</v>
+        <v>30.0361</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3186</v>
+        <v>16.5127</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5345</v>
+        <v>17.5323</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2761</v>
+        <v>35.5607</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0212</v>
+        <v>19.0375</v>
       </c>
       <c r="C8" t="n">
-        <v>20.1517</v>
+        <v>20.3061</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5561</v>
+        <v>40.2567</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7821</v>
+        <v>21.7793</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0517</v>
+        <v>23.257</v>
       </c>
       <c r="D9" t="n">
-        <v>47.6859</v>
+        <v>47.5249</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5811</v>
+        <v>20.0694</v>
       </c>
       <c r="C10" t="n">
-        <v>21.527</v>
+        <v>21.5318</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5631</v>
+        <v>43.6267</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3177</v>
+        <v>20.0299</v>
       </c>
       <c r="C11" t="n">
-        <v>20.9688</v>
+        <v>21.2392</v>
       </c>
       <c r="D11" t="n">
-        <v>43.4894</v>
+        <v>43.3492</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3564</v>
+        <v>20.2726</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3164</v>
+        <v>21.2085</v>
       </c>
       <c r="D12" t="n">
-        <v>43.886</v>
+        <v>43.2108</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9321</v>
+        <v>20.7625</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3601</v>
+        <v>21.3355</v>
       </c>
       <c r="D13" t="n">
-        <v>44.837</v>
+        <v>44.1918</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1218</v>
+        <v>20.1876</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6098</v>
+        <v>21.7448</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8695</v>
+        <v>43.8464</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7271</v>
+        <v>20.6736</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9323</v>
+        <v>21.9967</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1849</v>
+        <v>45.2713</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6489</v>
+        <v>20.6447</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2474</v>
+        <v>22.4064</v>
       </c>
       <c r="D16" t="n">
-        <v>44.7261</v>
+        <v>44.5265</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2958</v>
+        <v>20.6391</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5834</v>
+        <v>22.5424</v>
       </c>
       <c r="D17" t="n">
-        <v>44.2395</v>
+        <v>45.0548</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.89833</v>
+        <v>6.86826</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5155</v>
+        <v>10.5578</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9326</v>
+        <v>12.8854</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.81124</v>
+        <v>8.8956</v>
       </c>
       <c r="C3" t="n">
-        <v>8.95706</v>
+        <v>9.05767</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9606</v>
+        <v>15.7071</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4733</v>
+        <v>11.5033</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1236</v>
+        <v>11.1639</v>
       </c>
       <c r="D4" t="n">
-        <v>20.9464</v>
+        <v>20.6943</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.3394</v>
+        <v>14.2098</v>
       </c>
       <c r="C5" t="n">
-        <v>13.442</v>
+        <v>13.5027</v>
       </c>
       <c r="D5" t="n">
-        <v>26.3381</v>
+        <v>26.0225</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1749</v>
+        <v>17.1714</v>
       </c>
       <c r="C6" t="n">
-        <v>15.7363</v>
+        <v>15.9913</v>
       </c>
       <c r="D6" t="n">
-        <v>31.9153</v>
+        <v>31.4103</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.0484</v>
+        <v>20.1574</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3668</v>
+        <v>18.4032</v>
       </c>
       <c r="D7" t="n">
-        <v>37.6917</v>
+        <v>37.2005</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.327</v>
+        <v>23.2503</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7124</v>
+        <v>21.0592</v>
       </c>
       <c r="D8" t="n">
-        <v>43.3657</v>
+        <v>43.0022</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.4619</v>
+        <v>27.571</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1449</v>
+        <v>23.5882</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2898</v>
+        <v>49.7376</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0943</v>
+        <v>25.8857</v>
       </c>
       <c r="C10" t="n">
-        <v>22.189</v>
+        <v>22.4652</v>
       </c>
       <c r="D10" t="n">
-        <v>46.35</v>
+        <v>46.3543</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4719</v>
+        <v>25.6101</v>
       </c>
       <c r="C11" t="n">
-        <v>22.1945</v>
+        <v>22.3482</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2381</v>
+        <v>45.5105</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6125</v>
+        <v>25.8552</v>
       </c>
       <c r="C12" t="n">
-        <v>22.453</v>
+        <v>22.6216</v>
       </c>
       <c r="D12" t="n">
-        <v>46.553</v>
+        <v>46.9373</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9216</v>
+        <v>25.9707</v>
       </c>
       <c r="C13" t="n">
-        <v>22.4816</v>
+        <v>22.717</v>
       </c>
       <c r="D13" t="n">
-        <v>46.8995</v>
+        <v>47.9256</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2675</v>
+        <v>25.1299</v>
       </c>
       <c r="C14" t="n">
-        <v>22.8542</v>
+        <v>22.9547</v>
       </c>
       <c r="D14" t="n">
-        <v>46.2657</v>
+        <v>47.008</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.7739</v>
+        <v>25.9578</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1108</v>
+        <v>23.2927</v>
       </c>
       <c r="D15" t="n">
-        <v>46.9295</v>
+        <v>47.3337</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.1503</v>
+        <v>25.4967</v>
       </c>
       <c r="C16" t="n">
-        <v>23.4954</v>
+        <v>23.7965</v>
       </c>
       <c r="D16" t="n">
-        <v>46.6889</v>
+        <v>47.9942</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8118</v>
+        <v>25.2859</v>
       </c>
       <c r="C17" t="n">
-        <v>24.1008</v>
+        <v>23.9647</v>
       </c>
       <c r="D17" t="n">
-        <v>47.3281</v>
+        <v>47.3139</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.78661</v>
+        <v>7.74231</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3349</v>
+        <v>10.3325</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4811</v>
+        <v>12.4624</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.60765</v>
+        <v>8.792070000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>8.32011</v>
+        <v>8.425420000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6646</v>
+        <v>14.5144</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.8247</v>
+        <v>11.0942</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4447</v>
+        <v>10.3712</v>
       </c>
       <c r="D4" t="n">
-        <v>18.709</v>
+        <v>18.4399</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.421</v>
+        <v>13.2822</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6656</v>
+        <v>12.491</v>
       </c>
       <c r="D5" t="n">
-        <v>22.675</v>
+        <v>22.7089</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.0633</v>
+        <v>15.8217</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1568</v>
+        <v>14.9227</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0822</v>
+        <v>27.2397</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7659</v>
+        <v>18.6932</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5048</v>
+        <v>16.89</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8882</v>
+        <v>31.1318</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1133</v>
+        <v>21.511</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5679</v>
+        <v>19.5524</v>
       </c>
       <c r="D8" t="n">
-        <v>35.118</v>
+        <v>34.4718</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7796</v>
+        <v>25.837</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0257</v>
+        <v>21.9906</v>
       </c>
       <c r="D9" t="n">
-        <v>38.7542</v>
+        <v>39.2174</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4695</v>
+        <v>21.4519</v>
       </c>
       <c r="C10" t="n">
-        <v>20.7874</v>
+        <v>20.4869</v>
       </c>
       <c r="D10" t="n">
-        <v>36.5394</v>
+        <v>36.279</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9545</v>
+        <v>21.4632</v>
       </c>
       <c r="C11" t="n">
-        <v>20.0021</v>
+        <v>19.8321</v>
       </c>
       <c r="D11" t="n">
-        <v>36.2832</v>
+        <v>35.4774</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1319</v>
+        <v>21.9239</v>
       </c>
       <c r="C12" t="n">
-        <v>20.6299</v>
+        <v>20.4156</v>
       </c>
       <c r="D12" t="n">
-        <v>37.0786</v>
+        <v>37.042</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8279</v>
+        <v>22.5965</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9473</v>
+        <v>20.9275</v>
       </c>
       <c r="D13" t="n">
-        <v>37.316</v>
+        <v>38.8949</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8443</v>
+        <v>22.2787</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7894</v>
+        <v>21.4905</v>
       </c>
       <c r="D14" t="n">
-        <v>37.7052</v>
+        <v>36.7874</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4738</v>
+        <v>22.1332</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0023</v>
+        <v>21.844</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3971</v>
+        <v>39.6284</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.9504</v>
+        <v>21.833</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0904</v>
+        <v>22.2766</v>
       </c>
       <c r="D16" t="n">
-        <v>38.7448</v>
+        <v>39.4293</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.1132</v>
+        <v>20.9536</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5616</v>
+        <v>22.4854</v>
       </c>
       <c r="D17" t="n">
-        <v>38.9176</v>
+        <v>39.3188</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.33949</v>
+        <v>8.33033</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3521</v>
+        <v>10.4093</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6153</v>
+        <v>12.7221</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.71773</v>
+        <v>8.833970000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>8.47785</v>
+        <v>8.25962</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8003</v>
+        <v>14.3584</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9358</v>
+        <v>10.879</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3357</v>
+        <v>10.324</v>
       </c>
       <c r="D4" t="n">
-        <v>18.8751</v>
+        <v>18.2663</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.4129</v>
+        <v>13.0118</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6552</v>
+        <v>12.5638</v>
       </c>
       <c r="D5" t="n">
-        <v>22.9213</v>
+        <v>22.1093</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9475</v>
+        <v>15.633</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9878</v>
+        <v>14.6705</v>
       </c>
       <c r="D6" t="n">
-        <v>26.9629</v>
+        <v>27.0342</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.1493</v>
+        <v>18.7569</v>
       </c>
       <c r="C7" t="n">
-        <v>17.353</v>
+        <v>17.2367</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4932</v>
+        <v>31.1322</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9517</v>
+        <v>21.4163</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6848</v>
+        <v>19.13</v>
       </c>
       <c r="D8" t="n">
-        <v>34.5753</v>
+        <v>34.6716</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.3632</v>
+        <v>25.867</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9622</v>
+        <v>22.0711</v>
       </c>
       <c r="D9" t="n">
-        <v>39.261</v>
+        <v>39.3918</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.5369</v>
+        <v>21.6313</v>
       </c>
       <c r="C10" t="n">
-        <v>20.8513</v>
+        <v>20.2751</v>
       </c>
       <c r="D10" t="n">
-        <v>36.634</v>
+        <v>36.0348</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3533</v>
+        <v>22.3</v>
       </c>
       <c r="C11" t="n">
-        <v>19.9195</v>
+        <v>19.8052</v>
       </c>
       <c r="D11" t="n">
-        <v>36.5771</v>
+        <v>36.3933</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.0082</v>
+        <v>21.759</v>
       </c>
       <c r="C12" t="n">
-        <v>20.5991</v>
+        <v>20.4208</v>
       </c>
       <c r="D12" t="n">
-        <v>37.4993</v>
+        <v>37.8628</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.4323</v>
+        <v>22.3281</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9946</v>
+        <v>20.9953</v>
       </c>
       <c r="D13" t="n">
-        <v>38.7193</v>
+        <v>37.0653</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1625</v>
+        <v>23.1983</v>
       </c>
       <c r="C14" t="n">
-        <v>21.5423</v>
+        <v>21.3534</v>
       </c>
       <c r="D14" t="n">
-        <v>38.2651</v>
+        <v>38.3569</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.2982</v>
+        <v>22.6761</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7887</v>
+        <v>21.8666</v>
       </c>
       <c r="D15" t="n">
-        <v>37.4653</v>
+        <v>38.8251</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.8375</v>
+        <v>22.5221</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2663</v>
+        <v>22.1552</v>
       </c>
       <c r="D16" t="n">
-        <v>39.3352</v>
+        <v>36.9483</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4244</v>
+        <v>22.0754</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4828</v>
+        <v>22.6677</v>
       </c>
       <c r="D17" t="n">
-        <v>40.9616</v>
+        <v>40.6566</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0559</v>
+        <v>9.963649999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1484</v>
+        <v>11.1311</v>
       </c>
       <c r="D2" t="n">
-        <v>13.756</v>
+        <v>13.6684</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.37247</v>
+        <v>9.250500000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.10703</v>
+        <v>9.27962</v>
       </c>
       <c r="D3" t="n">
-        <v>15.3837</v>
+        <v>15.4019</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1414</v>
+        <v>11.9201</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3938</v>
+        <v>11.4437</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9827</v>
+        <v>19.9601</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9984</v>
+        <v>14.4312</v>
       </c>
       <c r="C5" t="n">
-        <v>13.8239</v>
+        <v>13.4368</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3792</v>
+        <v>24.2899</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9477</v>
+        <v>16.6191</v>
       </c>
       <c r="C6" t="n">
-        <v>16.2456</v>
+        <v>16.09</v>
       </c>
       <c r="D6" t="n">
-        <v>29.5546</v>
+        <v>28.0625</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.8455</v>
+        <v>19.3572</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8171</v>
+        <v>17.8953</v>
       </c>
       <c r="D7" t="n">
-        <v>33.52</v>
+        <v>31.8086</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0254</v>
+        <v>21.9152</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1356</v>
+        <v>20.5935</v>
       </c>
       <c r="D8" t="n">
-        <v>37.3288</v>
+        <v>36.1438</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.6342</v>
+        <v>25.9278</v>
       </c>
       <c r="C9" t="n">
-        <v>23.124</v>
+        <v>22.9955</v>
       </c>
       <c r="D9" t="n">
-        <v>41.3915</v>
+        <v>39.8304</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.765</v>
+        <v>23.1127</v>
       </c>
       <c r="C10" t="n">
-        <v>22.2341</v>
+        <v>21.4337</v>
       </c>
       <c r="D10" t="n">
-        <v>38.6564</v>
+        <v>38.479</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.8782</v>
+        <v>23.57</v>
       </c>
       <c r="C11" t="n">
-        <v>21.4006</v>
+        <v>20.7069</v>
       </c>
       <c r="D11" t="n">
-        <v>38.454</v>
+        <v>37.6968</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6966</v>
+        <v>25.0856</v>
       </c>
       <c r="C12" t="n">
-        <v>21.7367</v>
+        <v>21.7197</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3348</v>
+        <v>39.6435</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.2538</v>
+        <v>25.5235</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2202</v>
+        <v>22.2573</v>
       </c>
       <c r="D13" t="n">
-        <v>41.344</v>
+        <v>41.0583</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.769</v>
+        <v>24.304</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5367</v>
+        <v>22.4636</v>
       </c>
       <c r="D14" t="n">
-        <v>40.5746</v>
+        <v>40.4532</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7632</v>
+        <v>23.5092</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2182</v>
+        <v>23.1055</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8915</v>
+        <v>39.6957</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.1426</v>
+        <v>24.5921</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6517</v>
+        <v>23.7406</v>
       </c>
       <c r="D16" t="n">
-        <v>39.4147</v>
+        <v>40.1678</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.2701</v>
+        <v>24.3086</v>
       </c>
       <c r="C17" t="n">
-        <v>24.1398</v>
+        <v>24.0599</v>
       </c>
       <c r="D17" t="n">
-        <v>40.5243</v>
+        <v>39.6888</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.49505</v>
+        <v>3.58431</v>
       </c>
       <c r="C2" t="n">
-        <v>8.416090000000001</v>
+        <v>8.439959999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.947279999999999</v>
+        <v>9.96692</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.82733</v>
+        <v>5.75561</v>
       </c>
       <c r="C3" t="n">
-        <v>8.101470000000001</v>
+        <v>8.09136</v>
       </c>
       <c r="D3" t="n">
-        <v>14.749</v>
+        <v>14.6339</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.59829</v>
+        <v>8.53922</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3843</v>
+        <v>10.3371</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2735</v>
+        <v>20.1701</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1329</v>
+        <v>11.1162</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6953</v>
+        <v>12.6592</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1945</v>
+        <v>25.032</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.792</v>
+        <v>13.7073</v>
       </c>
       <c r="C6" t="n">
-        <v>15.1173</v>
+        <v>14.9616</v>
       </c>
       <c r="D6" t="n">
-        <v>30.3212</v>
+        <v>30.0396</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3708</v>
+        <v>16.2704</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5139</v>
+        <v>17.4074</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3398</v>
+        <v>35.2912</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9151</v>
+        <v>18.9853</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2387</v>
+        <v>20.0741</v>
       </c>
       <c r="D8" t="n">
-        <v>40.3832</v>
+        <v>39.5646</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7251</v>
+        <v>21.7248</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1762</v>
+        <v>23.0681</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8398</v>
+        <v>47.8385</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9948</v>
+        <v>20.3352</v>
       </c>
       <c r="C10" t="n">
-        <v>21.809</v>
+        <v>21.5164</v>
       </c>
       <c r="D10" t="n">
-        <v>44.8067</v>
+        <v>44.4906</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.8979</v>
+        <v>19.8177</v>
       </c>
       <c r="C11" t="n">
-        <v>21.252</v>
+        <v>21.1517</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8696</v>
+        <v>42.8896</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.3806</v>
+        <v>20.0853</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3659</v>
+        <v>21.1221</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4173</v>
+        <v>43.5484</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6849</v>
+        <v>20.4602</v>
       </c>
       <c r="C13" t="n">
-        <v>21.4259</v>
+        <v>21.2471</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7703</v>
+        <v>44.8586</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0904</v>
+        <v>19.835</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6732</v>
+        <v>21.4118</v>
       </c>
       <c r="D14" t="n">
-        <v>43.789</v>
+        <v>43.5842</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.7022</v>
+        <v>20.446</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9173</v>
+        <v>21.7472</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7787</v>
+        <v>44.508</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4127</v>
+        <v>20.1358</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2153</v>
+        <v>22.0396</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5844</v>
+        <v>45.1906</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.0616</v>
+        <v>20.2508</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5578</v>
+        <v>22.4353</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9804</v>
+        <v>44.4325</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.61894</v>
+        <v>3.57833</v>
       </c>
       <c r="C2" t="n">
-        <v>8.581049999999999</v>
+        <v>8.567310000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0488</v>
+        <v>10.0936</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.90529</v>
+        <v>6.0348</v>
       </c>
       <c r="C3" t="n">
-        <v>8.17154</v>
+        <v>8.463889999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7278</v>
+        <v>14.7032</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.630940000000001</v>
+        <v>8.51873</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4544</v>
+        <v>10.4186</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0125</v>
+        <v>20.1043</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.2685</v>
+        <v>11.1594</v>
       </c>
       <c r="C5" t="n">
-        <v>12.7474</v>
+        <v>12.6787</v>
       </c>
       <c r="D5" t="n">
-        <v>24.9251</v>
+        <v>25.1136</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7483</v>
+        <v>13.722</v>
       </c>
       <c r="C6" t="n">
-        <v>15.147</v>
+        <v>15.0964</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0361</v>
+        <v>30.0627</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.5127</v>
+        <v>16.3268</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5323</v>
+        <v>17.4908</v>
       </c>
       <c r="D7" t="n">
-        <v>35.5607</v>
+        <v>35.3749</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0375</v>
+        <v>18.8616</v>
       </c>
       <c r="C8" t="n">
-        <v>20.3061</v>
+        <v>20.0241</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2567</v>
+        <v>40.1853</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7793</v>
+        <v>21.7278</v>
       </c>
       <c r="C9" t="n">
-        <v>23.257</v>
+        <v>22.9429</v>
       </c>
       <c r="D9" t="n">
-        <v>47.5249</v>
+        <v>47.7215</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.0694</v>
+        <v>20.224</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5318</v>
+        <v>21.6847</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6267</v>
+        <v>44.1286</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.0299</v>
+        <v>20.0891</v>
       </c>
       <c r="C11" t="n">
-        <v>21.2392</v>
+        <v>21.0031</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3492</v>
+        <v>43.2227</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.2726</v>
+        <v>20.1446</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2085</v>
+        <v>21.2331</v>
       </c>
       <c r="D12" t="n">
-        <v>43.2108</v>
+        <v>43.8929</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7625</v>
+        <v>20.5506</v>
       </c>
       <c r="C13" t="n">
-        <v>21.3355</v>
+        <v>21.2513</v>
       </c>
       <c r="D13" t="n">
-        <v>44.1918</v>
+        <v>44.6532</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1876</v>
+        <v>20.0213</v>
       </c>
       <c r="C14" t="n">
-        <v>21.7448</v>
+        <v>21.4299</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8464</v>
+        <v>43.8693</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6736</v>
+        <v>20.4507</v>
       </c>
       <c r="C15" t="n">
-        <v>21.9967</v>
+        <v>21.8487</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2713</v>
+        <v>44.3553</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6447</v>
+        <v>20.3758</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4064</v>
+        <v>22.1947</v>
       </c>
       <c r="D16" t="n">
-        <v>44.5265</v>
+        <v>45.0965</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6391</v>
+        <v>20.3268</v>
       </c>
       <c r="C17" t="n">
-        <v>22.5424</v>
+        <v>22.4149</v>
       </c>
       <c r="D17" t="n">
-        <v>45.0548</v>
+        <v>43.7769</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.86826</v>
+        <v>7.1262</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5578</v>
+        <v>10.4931</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8854</v>
+        <v>12.8349</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.8956</v>
+        <v>8.63771</v>
       </c>
       <c r="C3" t="n">
-        <v>9.05767</v>
+        <v>8.912800000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7071</v>
+        <v>15.7501</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5033</v>
+        <v>11.4143</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1639</v>
+        <v>11.0058</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6943</v>
+        <v>20.7801</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2098</v>
+        <v>14.13</v>
       </c>
       <c r="C5" t="n">
-        <v>13.5027</v>
+        <v>13.1486</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0225</v>
+        <v>26.0558</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1714</v>
+        <v>17.1613</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9913</v>
+        <v>15.695</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4103</v>
+        <v>31.4711</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.1574</v>
+        <v>19.8437</v>
       </c>
       <c r="C7" t="n">
-        <v>18.4032</v>
+        <v>17.8792</v>
       </c>
       <c r="D7" t="n">
-        <v>37.2005</v>
+        <v>37.133</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.2503</v>
+        <v>22.5176</v>
       </c>
       <c r="C8" t="n">
-        <v>21.0592</v>
+        <v>20.5184</v>
       </c>
       <c r="D8" t="n">
-        <v>43.0022</v>
+        <v>42.688</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.571</v>
+        <v>26.2371</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5882</v>
+        <v>22.3764</v>
       </c>
       <c r="D9" t="n">
-        <v>49.7376</v>
+        <v>49.4015</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.8857</v>
+        <v>25.399</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4652</v>
+        <v>22.245</v>
       </c>
       <c r="D10" t="n">
-        <v>46.3543</v>
+        <v>46.727</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.6101</v>
+        <v>25.0195</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3482</v>
+        <v>21.9226</v>
       </c>
       <c r="D11" t="n">
-        <v>45.5105</v>
+        <v>45.7436</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8552</v>
+        <v>24.6131</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6216</v>
+        <v>22.0502</v>
       </c>
       <c r="D12" t="n">
-        <v>46.9373</v>
+        <v>46.5072</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9707</v>
+        <v>25.2751</v>
       </c>
       <c r="C13" t="n">
-        <v>22.717</v>
+        <v>22.2661</v>
       </c>
       <c r="D13" t="n">
-        <v>47.9256</v>
+        <v>47.2294</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.1299</v>
+        <v>24.7054</v>
       </c>
       <c r="C14" t="n">
-        <v>22.9547</v>
+        <v>22.4237</v>
       </c>
       <c r="D14" t="n">
-        <v>47.008</v>
+        <v>45.9337</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.9578</v>
+        <v>24.7825</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2927</v>
+        <v>22.8072</v>
       </c>
       <c r="D15" t="n">
-        <v>47.3337</v>
+        <v>47.4237</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4967</v>
+        <v>25.2767</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7965</v>
+        <v>23.0064</v>
       </c>
       <c r="D16" t="n">
-        <v>47.9942</v>
+        <v>47.3924</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2859</v>
+        <v>24.4678</v>
       </c>
       <c r="C17" t="n">
-        <v>23.9647</v>
+        <v>23.4695</v>
       </c>
       <c r="D17" t="n">
-        <v>47.3139</v>
+        <v>48.0332</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.74231</v>
+        <v>7.75304</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3325</v>
+        <v>10.4642</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4624</v>
+        <v>12.4796</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.792070000000001</v>
+        <v>8.7155</v>
       </c>
       <c r="C3" t="n">
-        <v>8.425420000000001</v>
+        <v>9.19617</v>
       </c>
       <c r="D3" t="n">
-        <v>14.5144</v>
+        <v>15.0601</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.0942</v>
+        <v>10.9424</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3712</v>
+        <v>10.9293</v>
       </c>
       <c r="D4" t="n">
-        <v>18.4399</v>
+        <v>18.9669</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2822</v>
+        <v>13.2904</v>
       </c>
       <c r="C5" t="n">
-        <v>12.491</v>
+        <v>13.0921</v>
       </c>
       <c r="D5" t="n">
-        <v>22.7089</v>
+        <v>22.8889</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8217</v>
+        <v>15.8497</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9227</v>
+        <v>15.5436</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2397</v>
+        <v>27.3994</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.6932</v>
+        <v>18.942</v>
       </c>
       <c r="C7" t="n">
-        <v>16.89</v>
+        <v>17.7858</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1318</v>
+        <v>32.3479</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.511</v>
+        <v>21.3651</v>
       </c>
       <c r="C8" t="n">
-        <v>19.5524</v>
+        <v>20.2647</v>
       </c>
       <c r="D8" t="n">
-        <v>34.4718</v>
+        <v>35.8447</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.837</v>
+        <v>25.8055</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9906</v>
+        <v>22.858</v>
       </c>
       <c r="D9" t="n">
-        <v>39.2174</v>
+        <v>39.214</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4519</v>
+        <v>20.4129</v>
       </c>
       <c r="C10" t="n">
-        <v>20.4869</v>
+        <v>21.3019</v>
       </c>
       <c r="D10" t="n">
-        <v>36.279</v>
+        <v>36.2455</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4632</v>
+        <v>20.905</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8321</v>
+        <v>20.7373</v>
       </c>
       <c r="D11" t="n">
-        <v>35.4774</v>
+        <v>36.401</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.9239</v>
+        <v>22.3567</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4156</v>
+        <v>21.6412</v>
       </c>
       <c r="D12" t="n">
-        <v>37.042</v>
+        <v>36.1741</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5965</v>
+        <v>21.9181</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9275</v>
+        <v>22.1929</v>
       </c>
       <c r="D13" t="n">
-        <v>38.8949</v>
+        <v>37.3754</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.2787</v>
+        <v>21.8627</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4905</v>
+        <v>22.42</v>
       </c>
       <c r="D14" t="n">
-        <v>36.7874</v>
+        <v>38.7975</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.1332</v>
+        <v>21.5856</v>
       </c>
       <c r="C15" t="n">
-        <v>21.844</v>
+        <v>23.161</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6284</v>
+        <v>38.5649</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.833</v>
+        <v>22.0125</v>
       </c>
       <c r="C16" t="n">
-        <v>22.2766</v>
+        <v>23.7979</v>
       </c>
       <c r="D16" t="n">
-        <v>39.4293</v>
+        <v>38.8783</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.9536</v>
+        <v>21.9835</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4854</v>
+        <v>24.2295</v>
       </c>
       <c r="D17" t="n">
-        <v>39.3188</v>
+        <v>39.629</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.33033</v>
+        <v>8.193709999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4093</v>
+        <v>10.5318</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7221</v>
+        <v>12.6679</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.833970000000001</v>
+        <v>8.90517</v>
       </c>
       <c r="C3" t="n">
-        <v>8.25962</v>
+        <v>9.192</v>
       </c>
       <c r="D3" t="n">
-        <v>14.3584</v>
+        <v>14.8508</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.879</v>
+        <v>11.2273</v>
       </c>
       <c r="C4" t="n">
-        <v>10.324</v>
+        <v>11.0238</v>
       </c>
       <c r="D4" t="n">
-        <v>18.2663</v>
+        <v>19.2938</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.0118</v>
+        <v>13.3677</v>
       </c>
       <c r="C5" t="n">
-        <v>12.5638</v>
+        <v>13.2339</v>
       </c>
       <c r="D5" t="n">
-        <v>22.1093</v>
+        <v>23.5371</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.633</v>
+        <v>15.8428</v>
       </c>
       <c r="C6" t="n">
-        <v>14.6705</v>
+        <v>15.2572</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0342</v>
+        <v>27.6399</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.7569</v>
+        <v>18.9039</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2367</v>
+        <v>17.7204</v>
       </c>
       <c r="D7" t="n">
-        <v>31.1322</v>
+        <v>31.8283</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.4163</v>
+        <v>21.7918</v>
       </c>
       <c r="C8" t="n">
-        <v>19.13</v>
+        <v>19.9764</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6716</v>
+        <v>35.5815</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.867</v>
+        <v>26.7527</v>
       </c>
       <c r="C9" t="n">
-        <v>22.0711</v>
+        <v>22.673</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3918</v>
+        <v>41.1416</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.6313</v>
+        <v>21.556</v>
       </c>
       <c r="C10" t="n">
-        <v>20.2751</v>
+        <v>21.8957</v>
       </c>
       <c r="D10" t="n">
-        <v>36.0348</v>
+        <v>37.9646</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3</v>
+        <v>21.4798</v>
       </c>
       <c r="C11" t="n">
-        <v>19.8052</v>
+        <v>21.3307</v>
       </c>
       <c r="D11" t="n">
-        <v>36.3933</v>
+        <v>37.672</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.759</v>
+        <v>22.2983</v>
       </c>
       <c r="C12" t="n">
-        <v>20.4208</v>
+        <v>21.8958</v>
       </c>
       <c r="D12" t="n">
-        <v>37.8628</v>
+        <v>37.7372</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.3281</v>
+        <v>22.7063</v>
       </c>
       <c r="C13" t="n">
-        <v>20.9953</v>
+        <v>22.2841</v>
       </c>
       <c r="D13" t="n">
-        <v>37.0653</v>
+        <v>39.1449</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.1983</v>
+        <v>22.0689</v>
       </c>
       <c r="C14" t="n">
-        <v>21.3534</v>
+        <v>22.6178</v>
       </c>
       <c r="D14" t="n">
-        <v>38.3569</v>
+        <v>37.6929</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6761</v>
+        <v>22.0121</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8666</v>
+        <v>23.2302</v>
       </c>
       <c r="D15" t="n">
-        <v>38.8251</v>
+        <v>39.3063</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5221</v>
+        <v>21.9756</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1552</v>
+        <v>23.8305</v>
       </c>
       <c r="D16" t="n">
-        <v>36.9483</v>
+        <v>37.2073</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.0754</v>
+        <v>22.178</v>
       </c>
       <c r="C17" t="n">
-        <v>22.6677</v>
+        <v>24.0172</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6566</v>
+        <v>39.9447</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.963649999999999</v>
+        <v>10.0649</v>
       </c>
       <c r="C2" t="n">
-        <v>11.1311</v>
+        <v>11.5957</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6684</v>
+        <v>13.7603</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.250500000000001</v>
+        <v>9.492139999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.27962</v>
+        <v>9.81232</v>
       </c>
       <c r="D3" t="n">
-        <v>15.4019</v>
+        <v>15.5052</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9201</v>
+        <v>11.9233</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4437</v>
+        <v>11.624</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9601</v>
+        <v>19.403</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4312</v>
+        <v>13.6296</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4368</v>
+        <v>13.7077</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2899</v>
+        <v>23.8648</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.6191</v>
+        <v>16.7302</v>
       </c>
       <c r="C6" t="n">
-        <v>16.09</v>
+        <v>16.066</v>
       </c>
       <c r="D6" t="n">
-        <v>28.0625</v>
+        <v>28.7321</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.3572</v>
+        <v>19.7001</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8953</v>
+        <v>18.8774</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8086</v>
+        <v>33.437</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.9152</v>
+        <v>22.8135</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5935</v>
+        <v>21.1374</v>
       </c>
       <c r="D8" t="n">
-        <v>36.1438</v>
+        <v>37.1858</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.9278</v>
+        <v>25.3901</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9955</v>
+        <v>23.6444</v>
       </c>
       <c r="D9" t="n">
-        <v>39.8304</v>
+        <v>40.8823</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.1127</v>
+        <v>23.2958</v>
       </c>
       <c r="C10" t="n">
-        <v>21.4337</v>
+        <v>21.9253</v>
       </c>
       <c r="D10" t="n">
-        <v>38.479</v>
+        <v>38.4586</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.57</v>
+        <v>22.6072</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7069</v>
+        <v>21.6261</v>
       </c>
       <c r="D11" t="n">
-        <v>37.6968</v>
+        <v>36.4726</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0856</v>
+        <v>22.999</v>
       </c>
       <c r="C12" t="n">
-        <v>21.7197</v>
+        <v>22.5744</v>
       </c>
       <c r="D12" t="n">
-        <v>39.6435</v>
+        <v>40.1137</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5235</v>
+        <v>24.5745</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2573</v>
+        <v>23.4286</v>
       </c>
       <c r="D13" t="n">
-        <v>41.0583</v>
+        <v>42.4966</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.304</v>
+        <v>24.3157</v>
       </c>
       <c r="C14" t="n">
-        <v>22.4636</v>
+        <v>23.927</v>
       </c>
       <c r="D14" t="n">
-        <v>40.4532</v>
+        <v>41.1507</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.5092</v>
+        <v>24.2585</v>
       </c>
       <c r="C15" t="n">
-        <v>23.1055</v>
+        <v>24.6283</v>
       </c>
       <c r="D15" t="n">
-        <v>39.6957</v>
+        <v>39.7385</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.5921</v>
+        <v>23.7465</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7406</v>
+        <v>25.3652</v>
       </c>
       <c r="D16" t="n">
-        <v>40.1678</v>
+        <v>41.1253</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.3086</v>
+        <v>24.7946</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0599</v>
+        <v>26.0716</v>
       </c>
       <c r="D17" t="n">
-        <v>39.6888</v>
+        <v>40.6132</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.58431</v>
+        <v>3.50849</v>
       </c>
       <c r="C2" t="n">
-        <v>8.439959999999999</v>
+        <v>8.49788</v>
       </c>
       <c r="D2" t="n">
-        <v>9.96692</v>
+        <v>10.0025</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.75561</v>
+        <v>5.956</v>
       </c>
       <c r="C3" t="n">
-        <v>8.09136</v>
+        <v>8.956009999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6339</v>
+        <v>14.9237</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.53922</v>
+        <v>8.519310000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>10.3371</v>
+        <v>10.9953</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1701</v>
+        <v>20.1348</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1162</v>
+        <v>11.1844</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6592</v>
+        <v>13.2433</v>
       </c>
       <c r="D5" t="n">
-        <v>25.032</v>
+        <v>25.3148</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7073</v>
+        <v>13.8308</v>
       </c>
       <c r="C6" t="n">
-        <v>14.9616</v>
+        <v>15.632</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0396</v>
+        <v>30.0859</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.2704</v>
+        <v>16.4051</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4074</v>
+        <v>18.1123</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2912</v>
+        <v>35.1875</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9853</v>
+        <v>18.8164</v>
       </c>
       <c r="C8" t="n">
-        <v>20.0741</v>
+        <v>20.8785</v>
       </c>
       <c r="D8" t="n">
-        <v>39.5646</v>
+        <v>40.0816</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7248</v>
+        <v>21.6768</v>
       </c>
       <c r="C9" t="n">
-        <v>23.0681</v>
+        <v>24.1768</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8385</v>
+        <v>48.3031</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.3352</v>
+        <v>20.1616</v>
       </c>
       <c r="C10" t="n">
-        <v>21.5164</v>
+        <v>22.275</v>
       </c>
       <c r="D10" t="n">
-        <v>44.4906</v>
+        <v>43.6565</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.8177</v>
+        <v>20.2617</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1517</v>
+        <v>22.3637</v>
       </c>
       <c r="D11" t="n">
-        <v>42.8896</v>
+        <v>43.3819</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.0853</v>
+        <v>20.5919</v>
       </c>
       <c r="C12" t="n">
-        <v>21.1221</v>
+        <v>22.3285</v>
       </c>
       <c r="D12" t="n">
-        <v>43.5484</v>
+        <v>44.6453</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.4602</v>
+        <v>20.6548</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2471</v>
+        <v>22.6257</v>
       </c>
       <c r="D13" t="n">
-        <v>44.8586</v>
+        <v>45.4373</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.835</v>
+        <v>19.9797</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4118</v>
+        <v>22.8521</v>
       </c>
       <c r="D14" t="n">
-        <v>43.5842</v>
+        <v>43.7658</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.446</v>
+        <v>20.5759</v>
       </c>
       <c r="C15" t="n">
-        <v>21.7472</v>
+        <v>23.2181</v>
       </c>
       <c r="D15" t="n">
-        <v>44.508</v>
+        <v>45.3164</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.1358</v>
+        <v>20.4567</v>
       </c>
       <c r="C16" t="n">
-        <v>22.0396</v>
+        <v>23.7575</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1906</v>
+        <v>45.0042</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.2508</v>
+        <v>20.4019</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4353</v>
+        <v>24.0657</v>
       </c>
       <c r="D17" t="n">
-        <v>44.4325</v>
+        <v>44.9828</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.57833</v>
+        <v>3.66796</v>
       </c>
       <c r="C2" t="n">
-        <v>8.567310000000001</v>
+        <v>8.65658</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0936</v>
+        <v>10.1273</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.0348</v>
+        <v>5.82612</v>
       </c>
       <c r="C3" t="n">
-        <v>8.463889999999999</v>
+        <v>8.742330000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7032</v>
+        <v>14.6304</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.51873</v>
+        <v>8.58093</v>
       </c>
       <c r="C4" t="n">
-        <v>10.4186</v>
+        <v>11.0008</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1043</v>
+        <v>20.0947</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1594</v>
+        <v>11.1991</v>
       </c>
       <c r="C5" t="n">
-        <v>12.6787</v>
+        <v>13.2893</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1136</v>
+        <v>25.1772</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.722</v>
+        <v>13.7666</v>
       </c>
       <c r="C6" t="n">
-        <v>15.0964</v>
+        <v>15.6775</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0627</v>
+        <v>30.4179</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3268</v>
+        <v>16.5032</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4908</v>
+        <v>18.1768</v>
       </c>
       <c r="D7" t="n">
-        <v>35.3749</v>
+        <v>35.2416</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8616</v>
+        <v>18.9841</v>
       </c>
       <c r="C8" t="n">
-        <v>20.0241</v>
+        <v>20.9213</v>
       </c>
       <c r="D8" t="n">
-        <v>40.1853</v>
+        <v>40.5013</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.7278</v>
+        <v>21.8461</v>
       </c>
       <c r="C9" t="n">
-        <v>22.9429</v>
+        <v>24.0609</v>
       </c>
       <c r="D9" t="n">
-        <v>47.7215</v>
+        <v>48.0153</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.224</v>
+        <v>20.4955</v>
       </c>
       <c r="C10" t="n">
-        <v>21.6847</v>
+        <v>22.4554</v>
       </c>
       <c r="D10" t="n">
-        <v>44.1286</v>
+        <v>44.2611</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.0891</v>
+        <v>19.9459</v>
       </c>
       <c r="C11" t="n">
-        <v>21.0031</v>
+        <v>22.4885</v>
       </c>
       <c r="D11" t="n">
-        <v>43.2227</v>
+        <v>43.9907</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.1446</v>
+        <v>20.4424</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2331</v>
+        <v>22.6285</v>
       </c>
       <c r="D12" t="n">
-        <v>43.8929</v>
+        <v>43.4872</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.5506</v>
+        <v>20.7442</v>
       </c>
       <c r="C13" t="n">
-        <v>21.2513</v>
+        <v>22.5841</v>
       </c>
       <c r="D13" t="n">
-        <v>44.6532</v>
+        <v>45.6413</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0213</v>
+        <v>20.0483</v>
       </c>
       <c r="C14" t="n">
-        <v>21.4299</v>
+        <v>22.7433</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8693</v>
+        <v>43.7119</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.4507</v>
+        <v>20.8621</v>
       </c>
       <c r="C15" t="n">
-        <v>21.8487</v>
+        <v>23.0828</v>
       </c>
       <c r="D15" t="n">
-        <v>44.3553</v>
+        <v>44.5183</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.3758</v>
+        <v>20.5699</v>
       </c>
       <c r="C16" t="n">
-        <v>22.1947</v>
+        <v>23.6311</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0965</v>
+        <v>44.8577</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3268</v>
+        <v>20.3977</v>
       </c>
       <c r="C17" t="n">
-        <v>22.4149</v>
+        <v>24.0913</v>
       </c>
       <c r="D17" t="n">
-        <v>43.7769</v>
+        <v>43.8867</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.1262</v>
+        <v>6.88902</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4931</v>
+        <v>10.8257</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8349</v>
+        <v>12.8823</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.63771</v>
+        <v>8.765689999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>8.912800000000001</v>
+        <v>9.83469</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7501</v>
+        <v>15.7211</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4143</v>
+        <v>11.4979</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0058</v>
+        <v>11.5601</v>
       </c>
       <c r="D4" t="n">
-        <v>20.7801</v>
+        <v>20.8066</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.13</v>
+        <v>14.2878</v>
       </c>
       <c r="C5" t="n">
-        <v>13.1486</v>
+        <v>13.7639</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0558</v>
+        <v>26.0177</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.1613</v>
+        <v>17.0978</v>
       </c>
       <c r="C6" t="n">
-        <v>15.695</v>
+        <v>16.1129</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4711</v>
+        <v>31.7562</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8437</v>
+        <v>19.9428</v>
       </c>
       <c r="C7" t="n">
-        <v>17.8792</v>
+        <v>18.5213</v>
       </c>
       <c r="D7" t="n">
-        <v>37.133</v>
+        <v>37.2527</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.5176</v>
+        <v>22.9994</v>
       </c>
       <c r="C8" t="n">
-        <v>20.5184</v>
+        <v>20.7242</v>
       </c>
       <c r="D8" t="n">
-        <v>42.688</v>
+        <v>42.4173</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2371</v>
+        <v>27.3781</v>
       </c>
       <c r="C9" t="n">
-        <v>22.3764</v>
+        <v>23.3259</v>
       </c>
       <c r="D9" t="n">
-        <v>49.4015</v>
+        <v>49.8834</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.399</v>
+        <v>25.3622</v>
       </c>
       <c r="C10" t="n">
-        <v>22.245</v>
+        <v>23.0328</v>
       </c>
       <c r="D10" t="n">
-        <v>46.727</v>
+        <v>46.5707</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0195</v>
+        <v>25.0386</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9226</v>
+        <v>23.2906</v>
       </c>
       <c r="D11" t="n">
-        <v>45.7436</v>
+        <v>46.3909</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.6131</v>
+        <v>25.5333</v>
       </c>
       <c r="C12" t="n">
-        <v>22.0502</v>
+        <v>23.3415</v>
       </c>
       <c r="D12" t="n">
-        <v>46.5072</v>
+        <v>47.0169</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.2751</v>
+        <v>25.9225</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2661</v>
+        <v>23.4387</v>
       </c>
       <c r="D13" t="n">
-        <v>47.2294</v>
+        <v>47.662</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7054</v>
+        <v>24.5605</v>
       </c>
       <c r="C14" t="n">
-        <v>22.4237</v>
+        <v>24.1694</v>
       </c>
       <c r="D14" t="n">
-        <v>45.9337</v>
+        <v>47.0848</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7825</v>
+        <v>25.1076</v>
       </c>
       <c r="C15" t="n">
-        <v>22.8072</v>
+        <v>24.5642</v>
       </c>
       <c r="D15" t="n">
-        <v>47.4237</v>
+        <v>47.1684</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2767</v>
+        <v>25.3885</v>
       </c>
       <c r="C16" t="n">
-        <v>23.0064</v>
+        <v>24.6888</v>
       </c>
       <c r="D16" t="n">
-        <v>47.3924</v>
+        <v>47.4283</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4678</v>
+        <v>24.8996</v>
       </c>
       <c r="C17" t="n">
-        <v>23.4695</v>
+        <v>26.0607</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0332</v>
+        <v>48.0885</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.75304</v>
+        <v>8.106730000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4642</v>
+        <v>11.06</v>
       </c>
       <c r="D2" t="n">
-        <v>12.4796</v>
+        <v>13.2397</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.7155</v>
+        <v>8.912570000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.19617</v>
+        <v>9.447229999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0601</v>
+        <v>15.2739</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9424</v>
+        <v>10.9298</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9293</v>
+        <v>11.1999</v>
       </c>
       <c r="D4" t="n">
-        <v>18.9669</v>
+        <v>19.2367</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2904</v>
+        <v>13.178</v>
       </c>
       <c r="C5" t="n">
-        <v>13.0921</v>
+        <v>13.3906</v>
       </c>
       <c r="D5" t="n">
-        <v>22.8889</v>
+        <v>23.5038</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8497</v>
+        <v>15.9309</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5436</v>
+        <v>15.8211</v>
       </c>
       <c r="D6" t="n">
-        <v>27.3994</v>
+        <v>28.7797</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.942</v>
+        <v>18.8848</v>
       </c>
       <c r="C7" t="n">
-        <v>17.7858</v>
+        <v>18.7595</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3479</v>
+        <v>33.4287</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.3651</v>
+        <v>21.6389</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2647</v>
+        <v>20.6649</v>
       </c>
       <c r="D8" t="n">
-        <v>35.8447</v>
+        <v>35.2806</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.8055</v>
+        <v>27.0645</v>
       </c>
       <c r="C9" t="n">
-        <v>22.858</v>
+        <v>23.2763</v>
       </c>
       <c r="D9" t="n">
-        <v>39.214</v>
+        <v>40.9273</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4129</v>
+        <v>22.1736</v>
       </c>
       <c r="C10" t="n">
-        <v>21.3019</v>
+        <v>21.706</v>
       </c>
       <c r="D10" t="n">
-        <v>36.2455</v>
+        <v>38.0113</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.905</v>
+        <v>21.6011</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7373</v>
+        <v>21.6504</v>
       </c>
       <c r="D11" t="n">
-        <v>36.401</v>
+        <v>37.9885</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3567</v>
+        <v>22.5703</v>
       </c>
       <c r="C12" t="n">
-        <v>21.6412</v>
+        <v>21.885</v>
       </c>
       <c r="D12" t="n">
-        <v>36.1741</v>
+        <v>37.326</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>21.9181</v>
+        <v>22.8901</v>
       </c>
       <c r="C13" t="n">
-        <v>22.1929</v>
+        <v>22.6292</v>
       </c>
       <c r="D13" t="n">
-        <v>37.3754</v>
+        <v>38.191</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8627</v>
+        <v>23.0338</v>
       </c>
       <c r="C14" t="n">
-        <v>22.42</v>
+        <v>23.0003</v>
       </c>
       <c r="D14" t="n">
-        <v>38.7975</v>
+        <v>38.8731</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5856</v>
+        <v>22.1556</v>
       </c>
       <c r="C15" t="n">
-        <v>23.161</v>
+        <v>23.6656</v>
       </c>
       <c r="D15" t="n">
-        <v>38.5649</v>
+        <v>39.9314</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.0125</v>
+        <v>23.1808</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7979</v>
+        <v>24.262</v>
       </c>
       <c r="D16" t="n">
-        <v>38.8783</v>
+        <v>39.3926</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.9835</v>
+        <v>22.6621</v>
       </c>
       <c r="C17" t="n">
-        <v>24.2295</v>
+        <v>24.8159</v>
       </c>
       <c r="D17" t="n">
-        <v>39.629</v>
+        <v>41.5089</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.193709999999999</v>
+        <v>8.471069999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>10.5318</v>
+        <v>10.9744</v>
       </c>
       <c r="D2" t="n">
-        <v>12.6679</v>
+        <v>13.1704</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.90517</v>
+        <v>8.980359999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.192</v>
+        <v>9.33821</v>
       </c>
       <c r="D3" t="n">
-        <v>14.8508</v>
+        <v>14.939</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2273</v>
+        <v>10.9486</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0238</v>
+        <v>11.1001</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2938</v>
+        <v>18.8481</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.3677</v>
+        <v>13.6773</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2339</v>
+        <v>13.3078</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5371</v>
+        <v>23.0136</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8428</v>
+        <v>16.3475</v>
       </c>
       <c r="C6" t="n">
-        <v>15.2572</v>
+        <v>15.4495</v>
       </c>
       <c r="D6" t="n">
-        <v>27.6399</v>
+        <v>27.2166</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9039</v>
+        <v>18.9968</v>
       </c>
       <c r="C7" t="n">
-        <v>17.7204</v>
+        <v>18.2496</v>
       </c>
       <c r="D7" t="n">
-        <v>31.8283</v>
+        <v>32.5116</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7918</v>
+        <v>21.7985</v>
       </c>
       <c r="C8" t="n">
-        <v>19.9764</v>
+        <v>20.2421</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5815</v>
+        <v>34.7899</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.7527</v>
+        <v>26.2714</v>
       </c>
       <c r="C9" t="n">
-        <v>22.673</v>
+        <v>23.1373</v>
       </c>
       <c r="D9" t="n">
-        <v>41.1416</v>
+        <v>39.7237</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.556</v>
+        <v>21.9618</v>
       </c>
       <c r="C10" t="n">
-        <v>21.8957</v>
+        <v>21.7807</v>
       </c>
       <c r="D10" t="n">
-        <v>37.9646</v>
+        <v>36.9588</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4798</v>
+        <v>22.4423</v>
       </c>
       <c r="C11" t="n">
-        <v>21.3307</v>
+        <v>21.501</v>
       </c>
       <c r="D11" t="n">
-        <v>37.672</v>
+        <v>36.3534</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2983</v>
+        <v>22.3872</v>
       </c>
       <c r="C12" t="n">
-        <v>21.8958</v>
+        <v>21.9547</v>
       </c>
       <c r="D12" t="n">
-        <v>37.7372</v>
+        <v>39.2967</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7063</v>
+        <v>22.6877</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2841</v>
+        <v>22.5113</v>
       </c>
       <c r="D13" t="n">
-        <v>39.1449</v>
+        <v>37.9391</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0689</v>
+        <v>22.3557</v>
       </c>
       <c r="C14" t="n">
-        <v>22.6178</v>
+        <v>23.2254</v>
       </c>
       <c r="D14" t="n">
-        <v>37.6929</v>
+        <v>38.1723</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.0121</v>
+        <v>21.5737</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2302</v>
+        <v>23.6775</v>
       </c>
       <c r="D15" t="n">
-        <v>39.3063</v>
+        <v>40.2133</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.9756</v>
+        <v>22.562</v>
       </c>
       <c r="C16" t="n">
-        <v>23.8305</v>
+        <v>24.2548</v>
       </c>
       <c r="D16" t="n">
-        <v>37.2073</v>
+        <v>39.4458</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.178</v>
+        <v>22.3199</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0172</v>
+        <v>24.8487</v>
       </c>
       <c r="D17" t="n">
-        <v>39.9447</v>
+        <v>39.0652</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0649</v>
+        <v>10.6168</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5957</v>
+        <v>12.2093</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7603</v>
+        <v>14.5154</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.492139999999999</v>
+        <v>9.801270000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9.81232</v>
+        <v>10.066</v>
       </c>
       <c r="D3" t="n">
-        <v>15.5052</v>
+        <v>15.9097</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9233</v>
+        <v>12.2923</v>
       </c>
       <c r="C4" t="n">
-        <v>11.624</v>
+        <v>12.2517</v>
       </c>
       <c r="D4" t="n">
-        <v>19.403</v>
+        <v>20.3291</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6296</v>
+        <v>14.3875</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7077</v>
+        <v>14.2795</v>
       </c>
       <c r="D5" t="n">
-        <v>23.8648</v>
+        <v>24.477</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.7302</v>
+        <v>17.3589</v>
       </c>
       <c r="C6" t="n">
-        <v>16.066</v>
+        <v>17.1661</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7321</v>
+        <v>29.2777</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.7001</v>
+        <v>20.3449</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8774</v>
+        <v>20.4234</v>
       </c>
       <c r="D7" t="n">
-        <v>33.437</v>
+        <v>34.2884</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8135</v>
+        <v>23.9404</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1374</v>
+        <v>21.7679</v>
       </c>
       <c r="D8" t="n">
-        <v>37.1858</v>
+        <v>37.6236</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>25.3901</v>
+        <v>27.3723</v>
       </c>
       <c r="C9" t="n">
-        <v>23.6444</v>
+        <v>24.5478</v>
       </c>
       <c r="D9" t="n">
-        <v>40.8823</v>
+        <v>41.3305</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.2958</v>
+        <v>26.0078</v>
       </c>
       <c r="C10" t="n">
-        <v>21.9253</v>
+        <v>23.6213</v>
       </c>
       <c r="D10" t="n">
-        <v>38.4586</v>
+        <v>39.7602</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.6072</v>
+        <v>25.0041</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6261</v>
+        <v>22.7724</v>
       </c>
       <c r="D11" t="n">
-        <v>36.4726</v>
+        <v>38.809</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.999</v>
+        <v>24.0888</v>
       </c>
       <c r="C12" t="n">
-        <v>22.5744</v>
+        <v>23.2289</v>
       </c>
       <c r="D12" t="n">
-        <v>40.1137</v>
+        <v>40.828</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.5745</v>
+        <v>24.7455</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4286</v>
+        <v>23.9139</v>
       </c>
       <c r="D13" t="n">
-        <v>42.4966</v>
+        <v>40.356</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.3157</v>
+        <v>25.0865</v>
       </c>
       <c r="C14" t="n">
-        <v>23.927</v>
+        <v>24.5141</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1507</v>
+        <v>41.8833</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2585</v>
+        <v>24.7052</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6283</v>
+        <v>24.9983</v>
       </c>
       <c r="D15" t="n">
-        <v>39.7385</v>
+        <v>41.8006</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7465</v>
+        <v>25.0521</v>
       </c>
       <c r="C16" t="n">
-        <v>25.3652</v>
+        <v>25.7262</v>
       </c>
       <c r="D16" t="n">
-        <v>41.1253</v>
+        <v>40.1254</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7946</v>
+        <v>23.8952</v>
       </c>
       <c r="C17" t="n">
-        <v>26.0716</v>
+        <v>26.4737</v>
       </c>
       <c r="D17" t="n">
-        <v>40.6132</v>
+        <v>39.917</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.50849</v>
+        <v>3.55214</v>
       </c>
       <c r="C2" t="n">
-        <v>8.49788</v>
+        <v>8.7873</v>
       </c>
       <c r="D2" t="n">
-        <v>10.0025</v>
+        <v>10.3897</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.956</v>
+        <v>6.03238</v>
       </c>
       <c r="C3" t="n">
-        <v>8.956009999999999</v>
+        <v>9.111409999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.9237</v>
+        <v>15.3628</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.519310000000001</v>
+        <v>8.57325</v>
       </c>
       <c r="C4" t="n">
-        <v>10.9953</v>
+        <v>11.1712</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1348</v>
+        <v>20.6369</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1844</v>
+        <v>11.1842</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2433</v>
+        <v>13.4685</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3148</v>
+        <v>25.9059</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8308</v>
+        <v>13.9514</v>
       </c>
       <c r="C6" t="n">
-        <v>15.632</v>
+        <v>15.9279</v>
       </c>
       <c r="D6" t="n">
-        <v>30.0859</v>
+        <v>30.6529</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4051</v>
+        <v>16.4989</v>
       </c>
       <c r="C7" t="n">
-        <v>18.1123</v>
+        <v>18.3829</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1875</v>
+        <v>36.1408</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.8164</v>
+        <v>19.2257</v>
       </c>
       <c r="C8" t="n">
-        <v>20.8785</v>
+        <v>21.2669</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0816</v>
+        <v>41.1541</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6768</v>
+        <v>22.1741</v>
       </c>
       <c r="C9" t="n">
-        <v>24.1768</v>
+        <v>24.6691</v>
       </c>
       <c r="D9" t="n">
-        <v>48.3031</v>
+        <v>49.1495</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.1616</v>
+        <v>20.5354</v>
       </c>
       <c r="C10" t="n">
-        <v>22.275</v>
+        <v>22.7195</v>
       </c>
       <c r="D10" t="n">
-        <v>43.6565</v>
+        <v>45.5581</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2617</v>
+        <v>20.2198</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3637</v>
+        <v>22.4149</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3819</v>
+        <v>43.7234</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.5919</v>
+        <v>20.645</v>
       </c>
       <c r="C12" t="n">
-        <v>22.3285</v>
+        <v>22.6981</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6453</v>
+        <v>44.941</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6548</v>
+        <v>20.7314</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6257</v>
+        <v>23.1</v>
       </c>
       <c r="D13" t="n">
-        <v>45.4373</v>
+        <v>46.2783</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.9797</v>
+        <v>20.3725</v>
       </c>
       <c r="C14" t="n">
-        <v>22.8521</v>
+        <v>23.101</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7658</v>
+        <v>44.8737</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.5759</v>
+        <v>20.9274</v>
       </c>
       <c r="C15" t="n">
-        <v>23.2181</v>
+        <v>23.6675</v>
       </c>
       <c r="D15" t="n">
-        <v>45.3164</v>
+        <v>46.349</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4567</v>
+        <v>20.9056</v>
       </c>
       <c r="C16" t="n">
-        <v>23.7575</v>
+        <v>24.126</v>
       </c>
       <c r="D16" t="n">
-        <v>45.0042</v>
+        <v>46.297</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.4019</v>
+        <v>20.6654</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0657</v>
+        <v>24.6078</v>
       </c>
       <c r="D17" t="n">
-        <v>44.9828</v>
+        <v>45.7369</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.66796</v>
+        <v>3.66837</v>
       </c>
       <c r="C2" t="n">
-        <v>8.65658</v>
+        <v>8.84707</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1273</v>
+        <v>10.3896</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.82612</v>
+        <v>5.84236</v>
       </c>
       <c r="C3" t="n">
-        <v>8.742330000000001</v>
+        <v>8.883369999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6304</v>
+        <v>14.7992</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.58093</v>
+        <v>8.648580000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>11.0008</v>
+        <v>11.158</v>
       </c>
       <c r="D4" t="n">
-        <v>20.0947</v>
+        <v>20.2483</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1991</v>
+        <v>11.209</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2893</v>
+        <v>13.4201</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1772</v>
+        <v>25.0228</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.7666</v>
+        <v>13.8187</v>
       </c>
       <c r="C6" t="n">
-        <v>15.6775</v>
+        <v>15.8445</v>
       </c>
       <c r="D6" t="n">
-        <v>30.4179</v>
+        <v>30.2954</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.5032</v>
+        <v>16.5131</v>
       </c>
       <c r="C7" t="n">
-        <v>18.1768</v>
+        <v>18.3239</v>
       </c>
       <c r="D7" t="n">
-        <v>35.2416</v>
+        <v>35.1839</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.9841</v>
+        <v>19.1669</v>
       </c>
       <c r="C8" t="n">
-        <v>20.9213</v>
+        <v>21.1196</v>
       </c>
       <c r="D8" t="n">
-        <v>40.5013</v>
+        <v>40.2526</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.8461</v>
+        <v>22.1745</v>
       </c>
       <c r="C9" t="n">
-        <v>24.0609</v>
+        <v>24.45</v>
       </c>
       <c r="D9" t="n">
-        <v>48.0153</v>
+        <v>47.583</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.4955</v>
+        <v>20.9849</v>
       </c>
       <c r="C10" t="n">
-        <v>22.4554</v>
+        <v>22.8758</v>
       </c>
       <c r="D10" t="n">
-        <v>44.2611</v>
+        <v>43.7704</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9459</v>
+        <v>20.5167</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4885</v>
+        <v>22.6768</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9907</v>
+        <v>42.9255</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.4424</v>
+        <v>20.6712</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6285</v>
+        <v>22.7379</v>
       </c>
       <c r="D12" t="n">
-        <v>43.4872</v>
+        <v>44.1566</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7442</v>
+        <v>20.7734</v>
       </c>
       <c r="C13" t="n">
-        <v>22.5841</v>
+        <v>22.7878</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6413</v>
+        <v>45.0607</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0483</v>
+        <v>20.2432</v>
       </c>
       <c r="C14" t="n">
-        <v>22.7433</v>
+        <v>23.2092</v>
       </c>
       <c r="D14" t="n">
-        <v>43.7119</v>
+        <v>44.4874</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8621</v>
+        <v>20.8756</v>
       </c>
       <c r="C15" t="n">
-        <v>23.0828</v>
+        <v>23.5387</v>
       </c>
       <c r="D15" t="n">
-        <v>44.5183</v>
+        <v>44.4765</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.5699</v>
+        <v>20.6212</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6311</v>
+        <v>23.9709</v>
       </c>
       <c r="D16" t="n">
-        <v>44.8577</v>
+        <v>44.71</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3977</v>
+        <v>20.5232</v>
       </c>
       <c r="C17" t="n">
-        <v>24.0913</v>
+        <v>24.4256</v>
       </c>
       <c r="D17" t="n">
-        <v>43.8867</v>
+        <v>44.7604</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.88902</v>
+        <v>7.30485</v>
       </c>
       <c r="C2" t="n">
-        <v>10.8257</v>
+        <v>11.3007</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8823</v>
+        <v>13.5679</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.765689999999999</v>
+        <v>8.943339999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>9.83469</v>
+        <v>9.870279999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7211</v>
+        <v>16.1966</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.4979</v>
+        <v>11.6801</v>
       </c>
       <c r="C4" t="n">
-        <v>11.5601</v>
+        <v>11.8072</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8066</v>
+        <v>21.1729</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2878</v>
+        <v>14.5837</v>
       </c>
       <c r="C5" t="n">
-        <v>13.7639</v>
+        <v>14.3028</v>
       </c>
       <c r="D5" t="n">
-        <v>26.0177</v>
+        <v>26.5161</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.0978</v>
+        <v>17.2898</v>
       </c>
       <c r="C6" t="n">
-        <v>16.1129</v>
+        <v>16.8149</v>
       </c>
       <c r="D6" t="n">
-        <v>31.7562</v>
+        <v>32.1761</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.9428</v>
+        <v>20.3625</v>
       </c>
       <c r="C7" t="n">
-        <v>18.5213</v>
+        <v>19.5558</v>
       </c>
       <c r="D7" t="n">
-        <v>37.2527</v>
+        <v>37.967</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.9994</v>
+        <v>23.6041</v>
       </c>
       <c r="C8" t="n">
-        <v>20.7242</v>
+        <v>21.9383</v>
       </c>
       <c r="D8" t="n">
-        <v>42.4173</v>
+        <v>43.8686</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3781</v>
+        <v>27.5094</v>
       </c>
       <c r="C9" t="n">
-        <v>23.3259</v>
+        <v>23.9939</v>
       </c>
       <c r="D9" t="n">
-        <v>49.8834</v>
+        <v>50.8173</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3622</v>
+        <v>25.7769</v>
       </c>
       <c r="C10" t="n">
-        <v>23.0328</v>
+        <v>23.5052</v>
       </c>
       <c r="D10" t="n">
-        <v>46.5707</v>
+        <v>46.6232</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0386</v>
+        <v>25.4477</v>
       </c>
       <c r="C11" t="n">
-        <v>23.2906</v>
+        <v>23.8499</v>
       </c>
       <c r="D11" t="n">
-        <v>46.3909</v>
+        <v>46.6154</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5333</v>
+        <v>26.0607</v>
       </c>
       <c r="C12" t="n">
-        <v>23.3415</v>
+        <v>23.715</v>
       </c>
       <c r="D12" t="n">
-        <v>47.0169</v>
+        <v>48.465</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9225</v>
+        <v>25.5875</v>
       </c>
       <c r="C13" t="n">
-        <v>23.4387</v>
+        <v>24.2173</v>
       </c>
       <c r="D13" t="n">
-        <v>47.662</v>
+        <v>48.3497</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5605</v>
+        <v>25.3478</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1694</v>
+        <v>24.1619</v>
       </c>
       <c r="D14" t="n">
-        <v>47.0848</v>
+        <v>47.7666</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1076</v>
+        <v>25.9418</v>
       </c>
       <c r="C15" t="n">
-        <v>24.5642</v>
+        <v>24.6694</v>
       </c>
       <c r="D15" t="n">
-        <v>47.1684</v>
+        <v>48.2325</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3885</v>
+        <v>25.5386</v>
       </c>
       <c r="C16" t="n">
-        <v>24.6888</v>
+        <v>25.1827</v>
       </c>
       <c r="D16" t="n">
-        <v>47.4283</v>
+        <v>48.8828</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.8996</v>
+        <v>25.4128</v>
       </c>
       <c r="C17" t="n">
-        <v>26.0607</v>
+        <v>25.7838</v>
       </c>
       <c r="D17" t="n">
-        <v>48.0885</v>
+        <v>48.6737</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.106730000000001</v>
+        <v>10.2049</v>
       </c>
       <c r="C2" t="n">
-        <v>11.06</v>
+        <v>15.2475</v>
       </c>
       <c r="D2" t="n">
-        <v>13.2397</v>
+        <v>19.0009</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.912570000000001</v>
+        <v>10.0281</v>
       </c>
       <c r="C3" t="n">
-        <v>9.447229999999999</v>
+        <v>10.7033</v>
       </c>
       <c r="D3" t="n">
-        <v>15.2739</v>
+        <v>18.4182</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9298</v>
+        <v>12.0978</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1999</v>
+        <v>12.4562</v>
       </c>
       <c r="D4" t="n">
-        <v>19.2367</v>
+        <v>22.6403</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.178</v>
+        <v>14.7796</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3906</v>
+        <v>15.0219</v>
       </c>
       <c r="D5" t="n">
-        <v>23.5038</v>
+        <v>26.472</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9309</v>
+        <v>18.0826</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8211</v>
+        <v>17.7316</v>
       </c>
       <c r="D6" t="n">
-        <v>28.7797</v>
+        <v>32.2339</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.8848</v>
+        <v>21.8113</v>
       </c>
       <c r="C7" t="n">
-        <v>18.7595</v>
+        <v>20.6304</v>
       </c>
       <c r="D7" t="n">
-        <v>33.4287</v>
+        <v>36.0661</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6389</v>
+        <v>24.3738</v>
       </c>
       <c r="C8" t="n">
-        <v>20.6649</v>
+        <v>23.0563</v>
       </c>
       <c r="D8" t="n">
-        <v>35.2806</v>
+        <v>39.654</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.0645</v>
+        <v>28.8136</v>
       </c>
       <c r="C9" t="n">
-        <v>23.2763</v>
+        <v>25.1803</v>
       </c>
       <c r="D9" t="n">
-        <v>40.9273</v>
+        <v>45.1819</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1736</v>
+        <v>25.0011</v>
       </c>
       <c r="C10" t="n">
-        <v>21.706</v>
+        <v>24.4594</v>
       </c>
       <c r="D10" t="n">
-        <v>38.0113</v>
+        <v>42.795</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6011</v>
+        <v>24.5042</v>
       </c>
       <c r="C11" t="n">
-        <v>21.6504</v>
+        <v>23.7483</v>
       </c>
       <c r="D11" t="n">
-        <v>37.9885</v>
+        <v>42.0836</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5703</v>
+        <v>25.2126</v>
       </c>
       <c r="C12" t="n">
-        <v>21.885</v>
+        <v>24.5664</v>
       </c>
       <c r="D12" t="n">
-        <v>37.326</v>
+        <v>42.3132</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8901</v>
+        <v>26.0463</v>
       </c>
       <c r="C13" t="n">
-        <v>22.6292</v>
+        <v>24.8056</v>
       </c>
       <c r="D13" t="n">
-        <v>38.191</v>
+        <v>44.2291</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.0338</v>
+        <v>24.2091</v>
       </c>
       <c r="C14" t="n">
-        <v>23.0003</v>
+        <v>25.684</v>
       </c>
       <c r="D14" t="n">
-        <v>38.8731</v>
+        <v>45.0345</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.1556</v>
+        <v>24.8806</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6656</v>
+        <v>26.5337</v>
       </c>
       <c r="D15" t="n">
-        <v>39.9314</v>
+        <v>45.8568</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1808</v>
+        <v>25.1847</v>
       </c>
       <c r="C16" t="n">
-        <v>24.262</v>
+        <v>27.1471</v>
       </c>
       <c r="D16" t="n">
-        <v>39.3926</v>
+        <v>45.2227</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6621</v>
+        <v>24.8478</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8159</v>
+        <v>27.7891</v>
       </c>
       <c r="D17" t="n">
-        <v>41.5089</v>
+        <v>46.4947</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.471069999999999</v>
+        <v>11.1051</v>
       </c>
       <c r="C2" t="n">
-        <v>10.9744</v>
+        <v>15.1009</v>
       </c>
       <c r="D2" t="n">
-        <v>13.1704</v>
+        <v>18.83</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.980359999999999</v>
+        <v>10.493</v>
       </c>
       <c r="C3" t="n">
-        <v>9.33821</v>
+        <v>11.0141</v>
       </c>
       <c r="D3" t="n">
-        <v>14.939</v>
+        <v>18.1842</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10.9486</v>
+        <v>12.2979</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1001</v>
+        <v>12.5013</v>
       </c>
       <c r="D4" t="n">
-        <v>18.8481</v>
+        <v>22.2069</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.6773</v>
+        <v>14.8403</v>
       </c>
       <c r="C5" t="n">
-        <v>13.3078</v>
+        <v>14.8897</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0136</v>
+        <v>27.344</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.3475</v>
+        <v>18.1513</v>
       </c>
       <c r="C6" t="n">
-        <v>15.4495</v>
+        <v>17.5993</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2166</v>
+        <v>30.7932</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9968</v>
+        <v>22.0088</v>
       </c>
       <c r="C7" t="n">
-        <v>18.2496</v>
+        <v>20.1362</v>
       </c>
       <c r="D7" t="n">
-        <v>32.5116</v>
+        <v>36.9236</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.7985</v>
+        <v>24.6986</v>
       </c>
       <c r="C8" t="n">
-        <v>20.2421</v>
+        <v>22.3127</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7899</v>
+        <v>39.4255</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2714</v>
+        <v>30.014</v>
       </c>
       <c r="C9" t="n">
-        <v>23.1373</v>
+        <v>24.8995</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7237</v>
+        <v>44.5501</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9618</v>
+        <v>25.5591</v>
       </c>
       <c r="C10" t="n">
-        <v>21.7807</v>
+        <v>24.8603</v>
       </c>
       <c r="D10" t="n">
-        <v>36.9588</v>
+        <v>41.9247</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.4423</v>
+        <v>26.3336</v>
       </c>
       <c r="C11" t="n">
-        <v>21.501</v>
+        <v>23.9154</v>
       </c>
       <c r="D11" t="n">
-        <v>36.3534</v>
+        <v>41.0133</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3872</v>
+        <v>25.5452</v>
       </c>
       <c r="C12" t="n">
-        <v>21.9547</v>
+        <v>24.615</v>
       </c>
       <c r="D12" t="n">
-        <v>39.2967</v>
+        <v>42.95</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6877</v>
+        <v>26.5212</v>
       </c>
       <c r="C13" t="n">
-        <v>22.5113</v>
+        <v>25.3336</v>
       </c>
       <c r="D13" t="n">
-        <v>37.9391</v>
+        <v>44.7899</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3557</v>
+        <v>25.468</v>
       </c>
       <c r="C14" t="n">
-        <v>23.2254</v>
+        <v>25.9657</v>
       </c>
       <c r="D14" t="n">
-        <v>38.1723</v>
+        <v>42.4838</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.5737</v>
+        <v>25.6356</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6775</v>
+        <v>26.5354</v>
       </c>
       <c r="D15" t="n">
-        <v>40.2133</v>
+        <v>44.8288</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.562</v>
+        <v>26.1016</v>
       </c>
       <c r="C16" t="n">
-        <v>24.2548</v>
+        <v>27.3103</v>
       </c>
       <c r="D16" t="n">
-        <v>39.4458</v>
+        <v>44.1968</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3199</v>
+        <v>25.1541</v>
       </c>
       <c r="C17" t="n">
-        <v>24.8487</v>
+        <v>28.1024</v>
       </c>
       <c r="D17" t="n">
-        <v>39.0652</v>
+        <v>44.7481</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6168</v>
+        <v>14.2112</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2093</v>
+        <v>17.3934</v>
       </c>
       <c r="D2" t="n">
-        <v>14.5154</v>
+        <v>21.3203</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.801270000000001</v>
+        <v>11.7351</v>
       </c>
       <c r="C3" t="n">
-        <v>10.066</v>
+        <v>11.8837</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9097</v>
+        <v>19.197</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2923</v>
+        <v>14.2686</v>
       </c>
       <c r="C4" t="n">
-        <v>12.2517</v>
+        <v>14.1771</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3291</v>
+        <v>23.9439</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.3875</v>
+        <v>17.0826</v>
       </c>
       <c r="C5" t="n">
-        <v>14.2795</v>
+        <v>17.0842</v>
       </c>
       <c r="D5" t="n">
-        <v>24.477</v>
+        <v>29.1586</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3589</v>
+        <v>19.8778</v>
       </c>
       <c r="C6" t="n">
-        <v>17.1661</v>
+        <v>19.2561</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2777</v>
+        <v>34.9592</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.3449</v>
+        <v>22.7311</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4234</v>
+        <v>21.7867</v>
       </c>
       <c r="D7" t="n">
-        <v>34.2884</v>
+        <v>38.4474</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.9404</v>
+        <v>26.0303</v>
       </c>
       <c r="C8" t="n">
-        <v>21.7679</v>
+        <v>25.152</v>
       </c>
       <c r="D8" t="n">
-        <v>37.6236</v>
+        <v>43.8047</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.3723</v>
+        <v>31.9345</v>
       </c>
       <c r="C9" t="n">
-        <v>24.5478</v>
+        <v>27.043</v>
       </c>
       <c r="D9" t="n">
-        <v>41.3305</v>
+        <v>47.2591</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.0078</v>
+        <v>30.4147</v>
       </c>
       <c r="C10" t="n">
-        <v>23.6213</v>
+        <v>26.7284</v>
       </c>
       <c r="D10" t="n">
-        <v>39.7602</v>
+        <v>47.392</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0041</v>
+        <v>27.5209</v>
       </c>
       <c r="C11" t="n">
-        <v>22.7724</v>
+        <v>25.7849</v>
       </c>
       <c r="D11" t="n">
-        <v>38.809</v>
+        <v>47.1609</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.0888</v>
+        <v>28.8048</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2289</v>
+        <v>26.1054</v>
       </c>
       <c r="D12" t="n">
-        <v>40.828</v>
+        <v>47.9231</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.7455</v>
+        <v>29.9679</v>
       </c>
       <c r="C13" t="n">
-        <v>23.9139</v>
+        <v>26.7056</v>
       </c>
       <c r="D13" t="n">
-        <v>40.356</v>
+        <v>50.6731</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0865</v>
+        <v>28.706</v>
       </c>
       <c r="C14" t="n">
-        <v>24.5141</v>
+        <v>27.2743</v>
       </c>
       <c r="D14" t="n">
-        <v>41.8833</v>
+        <v>48.3673</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7052</v>
+        <v>28.2191</v>
       </c>
       <c r="C15" t="n">
-        <v>24.9983</v>
+        <v>28.2451</v>
       </c>
       <c r="D15" t="n">
-        <v>41.8006</v>
+        <v>47.2928</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0521</v>
+        <v>28.9379</v>
       </c>
       <c r="C16" t="n">
-        <v>25.7262</v>
+        <v>28.8566</v>
       </c>
       <c r="D16" t="n">
-        <v>40.1254</v>
+        <v>48.9333</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.8952</v>
+        <v>28.1892</v>
       </c>
       <c r="C17" t="n">
-        <v>26.4737</v>
+        <v>29.6031</v>
       </c>
       <c r="D17" t="n">
-        <v>39.917</v>
+        <v>45.192</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.55214</v>
+        <v>3.96769</v>
       </c>
       <c r="C2" t="n">
-        <v>8.7873</v>
+        <v>11.3445</v>
       </c>
       <c r="D2" t="n">
-        <v>10.3897</v>
+        <v>13.6995</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.03238</v>
+        <v>6.58909</v>
       </c>
       <c r="C3" t="n">
-        <v>9.111409999999999</v>
+        <v>10.5973</v>
       </c>
       <c r="D3" t="n">
-        <v>15.3628</v>
+        <v>18.71</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.57325</v>
+        <v>9.40807</v>
       </c>
       <c r="C4" t="n">
-        <v>11.1712</v>
+        <v>12.7032</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6369</v>
+        <v>24.6691</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1842</v>
+        <v>12.2927</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4685</v>
+        <v>15.2623</v>
       </c>
       <c r="D5" t="n">
-        <v>25.9059</v>
+        <v>30.3323</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.9514</v>
+        <v>15.2095</v>
       </c>
       <c r="C6" t="n">
-        <v>15.9279</v>
+        <v>17.8839</v>
       </c>
       <c r="D6" t="n">
-        <v>30.6529</v>
+        <v>36.112</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4989</v>
+        <v>18.0466</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3829</v>
+        <v>20.5521</v>
       </c>
       <c r="D7" t="n">
-        <v>36.1408</v>
+        <v>41.8459</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.2257</v>
+        <v>20.7828</v>
       </c>
       <c r="C8" t="n">
-        <v>21.2669</v>
+        <v>23.6651</v>
       </c>
       <c r="D8" t="n">
-        <v>41.1541</v>
+        <v>47.2037</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1741</v>
+        <v>23.8837</v>
       </c>
       <c r="C9" t="n">
-        <v>24.6691</v>
+        <v>27.088</v>
       </c>
       <c r="D9" t="n">
-        <v>49.1495</v>
+        <v>56.5564</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.5354</v>
+        <v>22.2855</v>
       </c>
       <c r="C10" t="n">
-        <v>22.7195</v>
+        <v>25.28</v>
       </c>
       <c r="D10" t="n">
-        <v>45.5581</v>
+        <v>52.036</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.2198</v>
+        <v>21.6742</v>
       </c>
       <c r="C11" t="n">
-        <v>22.4149</v>
+        <v>25.5332</v>
       </c>
       <c r="D11" t="n">
-        <v>43.7234</v>
+        <v>51.2204</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.645</v>
+        <v>22.6039</v>
       </c>
       <c r="C12" t="n">
-        <v>22.6981</v>
+        <v>25.3055</v>
       </c>
       <c r="D12" t="n">
-        <v>44.941</v>
+        <v>51.9262</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7314</v>
+        <v>22.4607</v>
       </c>
       <c r="C13" t="n">
-        <v>23.1</v>
+        <v>25.6299</v>
       </c>
       <c r="D13" t="n">
-        <v>46.2783</v>
+        <v>52.4049</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.3725</v>
+        <v>22.0253</v>
       </c>
       <c r="C14" t="n">
-        <v>23.101</v>
+        <v>26.0419</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8737</v>
+        <v>52.3356</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.9274</v>
+        <v>22.7927</v>
       </c>
       <c r="C15" t="n">
-        <v>23.6675</v>
+        <v>26.4541</v>
       </c>
       <c r="D15" t="n">
-        <v>46.349</v>
+        <v>52.8273</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.9056</v>
+        <v>22.6839</v>
       </c>
       <c r="C16" t="n">
-        <v>24.126</v>
+        <v>27.0204</v>
       </c>
       <c r="D16" t="n">
-        <v>46.297</v>
+        <v>52.7629</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6654</v>
+        <v>22.6704</v>
       </c>
       <c r="C17" t="n">
-        <v>24.6078</v>
+        <v>27.7049</v>
       </c>
       <c r="D17" t="n">
-        <v>45.7369</v>
+        <v>52.8768</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.66837</v>
+        <v>3.98151</v>
       </c>
       <c r="C2" t="n">
-        <v>8.84707</v>
+        <v>11.4488</v>
       </c>
       <c r="D2" t="n">
-        <v>10.3896</v>
+        <v>13.6034</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.84236</v>
+        <v>6.57914</v>
       </c>
       <c r="C3" t="n">
-        <v>8.883369999999999</v>
+        <v>10.5847</v>
       </c>
       <c r="D3" t="n">
-        <v>14.7992</v>
+        <v>18.0599</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.648580000000001</v>
+        <v>9.39771</v>
       </c>
       <c r="C4" t="n">
-        <v>11.158</v>
+        <v>12.7234</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2483</v>
+        <v>23.778</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.209</v>
+        <v>12.2081</v>
       </c>
       <c r="C5" t="n">
-        <v>13.4201</v>
+        <v>15.1529</v>
       </c>
       <c r="D5" t="n">
-        <v>25.0228</v>
+        <v>29.3727</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8187</v>
+        <v>15.1931</v>
       </c>
       <c r="C6" t="n">
-        <v>15.8445</v>
+        <v>17.7975</v>
       </c>
       <c r="D6" t="n">
-        <v>30.2954</v>
+        <v>35.0063</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.5131</v>
+        <v>17.8613</v>
       </c>
       <c r="C7" t="n">
-        <v>18.3239</v>
+        <v>20.5175</v>
       </c>
       <c r="D7" t="n">
-        <v>35.1839</v>
+        <v>41.0009</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.1669</v>
+        <v>20.7323</v>
       </c>
       <c r="C8" t="n">
-        <v>21.1196</v>
+        <v>23.2947</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2526</v>
+        <v>47.0113</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>22.1745</v>
+        <v>23.9012</v>
       </c>
       <c r="C9" t="n">
-        <v>24.45</v>
+        <v>26.7628</v>
       </c>
       <c r="D9" t="n">
-        <v>47.583</v>
+        <v>55.455</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.9849</v>
+        <v>22.3181</v>
       </c>
       <c r="C10" t="n">
-        <v>22.8758</v>
+        <v>25.3851</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7704</v>
+        <v>51.0489</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.5167</v>
+        <v>22.3076</v>
       </c>
       <c r="C11" t="n">
-        <v>22.6768</v>
+        <v>25.2297</v>
       </c>
       <c r="D11" t="n">
-        <v>42.9255</v>
+        <v>49.3943</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.6712</v>
+        <v>22.4154</v>
       </c>
       <c r="C12" t="n">
-        <v>22.7379</v>
+        <v>25.3667</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1566</v>
+        <v>51.1616</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.7734</v>
+        <v>22.7017</v>
       </c>
       <c r="C13" t="n">
-        <v>22.7878</v>
+        <v>25.4725</v>
       </c>
       <c r="D13" t="n">
-        <v>45.0607</v>
+        <v>51.7301</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.2432</v>
+        <v>21.7709</v>
       </c>
       <c r="C14" t="n">
-        <v>23.2092</v>
+        <v>25.745</v>
       </c>
       <c r="D14" t="n">
-        <v>44.4874</v>
+        <v>50.8556</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8756</v>
+        <v>22.8932</v>
       </c>
       <c r="C15" t="n">
-        <v>23.5387</v>
+        <v>26.2422</v>
       </c>
       <c r="D15" t="n">
-        <v>44.4765</v>
+        <v>51.228</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6212</v>
+        <v>22.7413</v>
       </c>
       <c r="C16" t="n">
-        <v>23.9709</v>
+        <v>26.9801</v>
       </c>
       <c r="D16" t="n">
-        <v>44.71</v>
+        <v>51.5633</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.5232</v>
+        <v>23.092</v>
       </c>
       <c r="C17" t="n">
-        <v>24.4256</v>
+        <v>27.5939</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7604</v>
+        <v>51.1148</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.30485</v>
+        <v>8.75996</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3007</v>
+        <v>15.6935</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5679</v>
+        <v>19.5655</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.943339999999999</v>
+        <v>10.4874</v>
       </c>
       <c r="C3" t="n">
-        <v>9.870279999999999</v>
+        <v>11.9853</v>
       </c>
       <c r="D3" t="n">
-        <v>16.1966</v>
+        <v>19.7088</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.6801</v>
+        <v>13.2922</v>
       </c>
       <c r="C4" t="n">
-        <v>11.8072</v>
+        <v>13.8927</v>
       </c>
       <c r="D4" t="n">
-        <v>21.1729</v>
+        <v>25.9254</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5837</v>
+        <v>16.3609</v>
       </c>
       <c r="C5" t="n">
-        <v>14.3028</v>
+        <v>15.8798</v>
       </c>
       <c r="D5" t="n">
-        <v>26.5161</v>
+        <v>31.5844</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.2898</v>
+        <v>19.5027</v>
       </c>
       <c r="C6" t="n">
-        <v>16.8149</v>
+        <v>18.7213</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1761</v>
+        <v>38.2901</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>20.3625</v>
+        <v>22.8594</v>
       </c>
       <c r="C7" t="n">
-        <v>19.5558</v>
+        <v>21.2776</v>
       </c>
       <c r="D7" t="n">
-        <v>37.967</v>
+        <v>44.7154</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.6041</v>
+        <v>26.4877</v>
       </c>
       <c r="C8" t="n">
-        <v>21.9383</v>
+        <v>24.3464</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8686</v>
+        <v>51.1831</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>27.5094</v>
+        <v>31.1568</v>
       </c>
       <c r="C9" t="n">
-        <v>23.9939</v>
+        <v>26.2211</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8173</v>
+        <v>59.1559</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7769</v>
+        <v>28.721</v>
       </c>
       <c r="C10" t="n">
-        <v>23.5052</v>
+        <v>26.34</v>
       </c>
       <c r="D10" t="n">
-        <v>46.6232</v>
+        <v>54.9619</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4477</v>
+        <v>28.2995</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8499</v>
+        <v>25.9142</v>
       </c>
       <c r="D11" t="n">
-        <v>46.6154</v>
+        <v>55.1028</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.0607</v>
+        <v>29.1714</v>
       </c>
       <c r="C12" t="n">
-        <v>23.715</v>
+        <v>26.2083</v>
       </c>
       <c r="D12" t="n">
-        <v>48.465</v>
+        <v>55.5194</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.5875</v>
+        <v>29.4223</v>
       </c>
       <c r="C13" t="n">
-        <v>24.2173</v>
+        <v>26.4454</v>
       </c>
       <c r="D13" t="n">
-        <v>48.3497</v>
+        <v>57.1843</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3478</v>
+        <v>28.3097</v>
       </c>
       <c r="C14" t="n">
-        <v>24.1619</v>
+        <v>27.1526</v>
       </c>
       <c r="D14" t="n">
-        <v>47.7666</v>
+        <v>56.2725</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.9418</v>
+        <v>29.1463</v>
       </c>
       <c r="C15" t="n">
-        <v>24.6694</v>
+        <v>28.0986</v>
       </c>
       <c r="D15" t="n">
-        <v>48.2325</v>
+        <v>57.1727</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5386</v>
+        <v>29.6874</v>
       </c>
       <c r="C16" t="n">
-        <v>25.1827</v>
+        <v>28.0855</v>
       </c>
       <c r="D16" t="n">
-        <v>48.8828</v>
+        <v>57.7222</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4128</v>
+        <v>28.8883</v>
       </c>
       <c r="C17" t="n">
-        <v>25.7838</v>
+        <v>30.3271</v>
       </c>
       <c r="D17" t="n">
-        <v>48.6737</v>
+        <v>57.1903</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7.76983</v>
+        <v>10.134</v>
       </c>
       <c r="C2" t="n">
-        <v>12.4146</v>
+        <v>18.9419</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6066</v>
+        <v>19.8308</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.944879999999999</v>
+        <v>10.0258</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9969</v>
+        <v>18.6062</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7848</v>
+        <v>23.4271</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1195</v>
+        <v>11.9287</v>
       </c>
       <c r="C4" t="n">
-        <v>19.2855</v>
+        <v>22.785</v>
       </c>
       <c r="D4" t="n">
-        <v>25.4712</v>
+        <v>30.6034</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.5112</v>
+        <v>14.8288</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2881</v>
+        <v>27.4995</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7276</v>
+        <v>37.1659</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.9635</v>
+        <v>18.0058</v>
       </c>
       <c r="C6" t="n">
-        <v>27.7597</v>
+        <v>33.2428</v>
       </c>
       <c r="D6" t="n">
-        <v>37.5378</v>
+        <v>43.2342</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.3743</v>
+        <v>21.7553</v>
       </c>
       <c r="C7" t="n">
-        <v>31.7733</v>
+        <v>36.3482</v>
       </c>
       <c r="D7" t="n">
-        <v>44.1868</v>
+        <v>47.914</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.1413</v>
+        <v>25.0187</v>
       </c>
       <c r="C8" t="n">
-        <v>35.5047</v>
+        <v>40.4024</v>
       </c>
       <c r="D8" t="n">
-        <v>49.5284</v>
+        <v>53.8557</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2628</v>
+        <v>29.2367</v>
       </c>
       <c r="C9" t="n">
-        <v>41.536</v>
+        <v>45.2542</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9132</v>
+        <v>58.985</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.8976</v>
+        <v>24.3136</v>
       </c>
       <c r="C10" t="n">
-        <v>37.6534</v>
+        <v>42.4705</v>
       </c>
       <c r="D10" t="n">
-        <v>48.0838</v>
+        <v>54.9078</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6838</v>
+        <v>24.7716</v>
       </c>
       <c r="C11" t="n">
-        <v>37.0819</v>
+        <v>43.4346</v>
       </c>
       <c r="D11" t="n">
-        <v>48.2166</v>
+        <v>54.8937</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.557</v>
+        <v>25.7502</v>
       </c>
       <c r="C12" t="n">
-        <v>37.4436</v>
+        <v>42.5148</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7248</v>
+        <v>58.366</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.1266</v>
+        <v>26.8886</v>
       </c>
       <c r="C13" t="n">
-        <v>38.1594</v>
+        <v>45.2552</v>
       </c>
       <c r="D13" t="n">
-        <v>53.9032</v>
+        <v>60.7873</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.3133</v>
+        <v>24.7547</v>
       </c>
       <c r="C14" t="n">
-        <v>37.1392</v>
+        <v>44.4546</v>
       </c>
       <c r="D14" t="n">
-        <v>51.8355</v>
+        <v>61.5962</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5201</v>
+        <v>24.9063</v>
       </c>
       <c r="C15" t="n">
-        <v>38.0092</v>
+        <v>44.7346</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8573</v>
+        <v>62.8863</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.7336</v>
+        <v>25.6718</v>
       </c>
       <c r="C16" t="n">
-        <v>38.9601</v>
+        <v>47.026</v>
       </c>
       <c r="D16" t="n">
-        <v>50.9123</v>
+        <v>64.57089999999999</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.8243</v>
+        <v>24.049</v>
       </c>
       <c r="C17" t="n">
-        <v>38.115</v>
+        <v>46.1478</v>
       </c>
       <c r="D17" t="n">
-        <v>50.4469</v>
+        <v>63.5598</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.26947</v>
+        <v>10.99</v>
       </c>
       <c r="C2" t="n">
-        <v>12.5435</v>
+        <v>18.7538</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4927</v>
+        <v>19.71</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.969519999999999</v>
+        <v>10.5701</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0831</v>
+        <v>18.1501</v>
       </c>
       <c r="D3" t="n">
-        <v>18.6296</v>
+        <v>23.0331</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.1296</v>
+        <v>12.5148</v>
       </c>
       <c r="C4" t="n">
-        <v>19.4696</v>
+        <v>22.0028</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3904</v>
+        <v>29.617</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.1014</v>
+        <v>14.632</v>
       </c>
       <c r="C5" t="n">
-        <v>23.2035</v>
+        <v>26.5644</v>
       </c>
       <c r="D5" t="n">
-        <v>31.6709</v>
+        <v>36.0734</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.82</v>
+        <v>18.1712</v>
       </c>
       <c r="C6" t="n">
-        <v>28.046</v>
+        <v>32.2833</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8218</v>
+        <v>42.9752</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0414</v>
+        <v>21.8255</v>
       </c>
       <c r="C7" t="n">
-        <v>32.1199</v>
+        <v>36.6578</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0878</v>
+        <v>50.0819</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.3835</v>
+        <v>24.4445</v>
       </c>
       <c r="C8" t="n">
-        <v>35.7396</v>
+        <v>39.9912</v>
       </c>
       <c r="D8" t="n">
-        <v>48.7674</v>
+        <v>54.2942</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.9359</v>
+        <v>29.2531</v>
       </c>
       <c r="C9" t="n">
-        <v>40.3846</v>
+        <v>44.5754</v>
       </c>
       <c r="D9" t="n">
-        <v>54.464</v>
+        <v>59.3089</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2762</v>
+        <v>25.0047</v>
       </c>
       <c r="C10" t="n">
-        <v>37.2255</v>
+        <v>42.3564</v>
       </c>
       <c r="D10" t="n">
-        <v>47.4364</v>
+        <v>54.4678</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.2195</v>
+        <v>24.8933</v>
       </c>
       <c r="C11" t="n">
-        <v>37.5009</v>
+        <v>41.8794</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3748</v>
+        <v>57.602</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.8969</v>
+        <v>25.4422</v>
       </c>
       <c r="C12" t="n">
-        <v>36.8577</v>
+        <v>42.2672</v>
       </c>
       <c r="D12" t="n">
-        <v>49.1229</v>
+        <v>59.9484</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.5172</v>
+        <v>26.4471</v>
       </c>
       <c r="C13" t="n">
-        <v>37.6058</v>
+        <v>43.1479</v>
       </c>
       <c r="D13" t="n">
-        <v>50.2072</v>
+        <v>59.3762</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0493</v>
+        <v>24.6259</v>
       </c>
       <c r="C14" t="n">
-        <v>36.9959</v>
+        <v>45.1389</v>
       </c>
       <c r="D14" t="n">
-        <v>51.21</v>
+        <v>59.7762</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.2929</v>
+        <v>24.6391</v>
       </c>
       <c r="C15" t="n">
-        <v>37.8485</v>
+        <v>42.9193</v>
       </c>
       <c r="D15" t="n">
-        <v>52.961</v>
+        <v>60.8992</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>21.9882</v>
+        <v>25.8548</v>
       </c>
       <c r="C16" t="n">
-        <v>39.3364</v>
+        <v>44.0768</v>
       </c>
       <c r="D16" t="n">
-        <v>55.6823</v>
+        <v>61.2143</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4433</v>
+        <v>24.108</v>
       </c>
       <c r="C17" t="n">
-        <v>38.4501</v>
+        <v>44.9657</v>
       </c>
       <c r="D17" t="n">
-        <v>48.8495</v>
+        <v>62.5472</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0694</v>
+        <v>14.2139</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7509</v>
+        <v>21.2429</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1197</v>
+        <v>20.843</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.36201</v>
+        <v>11.1482</v>
       </c>
       <c r="C3" t="n">
-        <v>15.4947</v>
+        <v>19.2878</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6182</v>
+        <v>24.7491</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3615</v>
+        <v>14.1523</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8948</v>
+        <v>24.5255</v>
       </c>
       <c r="D4" t="n">
-        <v>27.1618</v>
+        <v>31.9065</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0999</v>
+        <v>17.2022</v>
       </c>
       <c r="C5" t="n">
-        <v>25.6651</v>
+        <v>29.6928</v>
       </c>
       <c r="D5" t="n">
-        <v>33.1539</v>
+        <v>38.465</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>16.9585</v>
+        <v>20.8749</v>
       </c>
       <c r="C6" t="n">
-        <v>29.354</v>
+        <v>34.0737</v>
       </c>
       <c r="D6" t="n">
-        <v>38.4228</v>
+        <v>44.2127</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.5821</v>
+        <v>24.4188</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6912</v>
+        <v>39.7205</v>
       </c>
       <c r="D7" t="n">
-        <v>44.3422</v>
+        <v>49.9172</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.5937</v>
+        <v>27.5222</v>
       </c>
       <c r="C8" t="n">
-        <v>38.4227</v>
+        <v>42.882</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8264</v>
+        <v>54.1613</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.2897</v>
+        <v>30.35</v>
       </c>
       <c r="C9" t="n">
-        <v>42.3863</v>
+        <v>47.3989</v>
       </c>
       <c r="D9" t="n">
-        <v>53.998</v>
+        <v>58.7053</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9674</v>
+        <v>26.2307</v>
       </c>
       <c r="C10" t="n">
-        <v>40.5749</v>
+        <v>45.7481</v>
       </c>
       <c r="D10" t="n">
-        <v>48.188</v>
+        <v>56.5435</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7076</v>
+        <v>27.5987</v>
       </c>
       <c r="C11" t="n">
-        <v>39.7329</v>
+        <v>45.1234</v>
       </c>
       <c r="D11" t="n">
-        <v>47.9505</v>
+        <v>54.795</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.5528</v>
+        <v>28.5864</v>
       </c>
       <c r="C12" t="n">
-        <v>40.7169</v>
+        <v>46.7164</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4802</v>
+        <v>56.9229</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>24.9307</v>
+        <v>30.238</v>
       </c>
       <c r="C13" t="n">
-        <v>42.5811</v>
+        <v>47.5867</v>
       </c>
       <c r="D13" t="n">
-        <v>52.1885</v>
+        <v>57.4273</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8818</v>
+        <v>29.4269</v>
       </c>
       <c r="C14" t="n">
-        <v>40.9637</v>
+        <v>45.989</v>
       </c>
       <c r="D14" t="n">
-        <v>52.0081</v>
+        <v>57.267</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3642</v>
+        <v>27.9486</v>
       </c>
       <c r="C15" t="n">
-        <v>40.4464</v>
+        <v>48.0865</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5065</v>
+        <v>57.736</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.9348</v>
+        <v>28.1875</v>
       </c>
       <c r="C16" t="n">
-        <v>42.2063</v>
+        <v>49.0899</v>
       </c>
       <c r="D16" t="n">
-        <v>51.3176</v>
+        <v>55.0252</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0397</v>
+        <v>27.6081</v>
       </c>
       <c r="C17" t="n">
-        <v>40.262</v>
+        <v>45.5053</v>
       </c>
       <c r="D17" t="n">
-        <v>49.6186</v>
+        <v>54.5511</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.53485</v>
+        <v>4.03998</v>
       </c>
       <c r="C2" t="n">
-        <v>9.9823</v>
+        <v>13.6648</v>
       </c>
       <c r="D2" t="n">
-        <v>12.3528</v>
+        <v>17.1525</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.96109</v>
+        <v>6.40623</v>
       </c>
       <c r="C3" t="n">
-        <v>14.9027</v>
+        <v>18.452</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5669</v>
+        <v>24.7557</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.42989</v>
+        <v>9.452909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>20.1131</v>
+        <v>24.6649</v>
       </c>
       <c r="D4" t="n">
-        <v>27.6073</v>
+        <v>34.553</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1289</v>
+        <v>12.2893</v>
       </c>
       <c r="C5" t="n">
-        <v>25.2467</v>
+        <v>30.3321</v>
       </c>
       <c r="D5" t="n">
-        <v>35.5053</v>
+        <v>43.8927</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.639</v>
+        <v>14.9743</v>
       </c>
       <c r="C6" t="n">
-        <v>30.3901</v>
+        <v>35.9272</v>
       </c>
       <c r="D6" t="n">
-        <v>43.4924</v>
+        <v>53.1862</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.4379</v>
+        <v>17.8789</v>
       </c>
       <c r="C7" t="n">
-        <v>35.4339</v>
+        <v>41.9609</v>
       </c>
       <c r="D7" t="n">
-        <v>51.1</v>
+        <v>62.3394</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0537</v>
+        <v>20.8338</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9858</v>
+        <v>47.996</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6792</v>
+        <v>71.1358</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5576</v>
+        <v>23.8799</v>
       </c>
       <c r="C9" t="n">
-        <v>48.4386</v>
+        <v>57.5484</v>
       </c>
       <c r="D9" t="n">
-        <v>66.9636</v>
+        <v>79.9867</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.124</v>
+        <v>21.5933</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8296</v>
+        <v>52.3615</v>
       </c>
       <c r="D10" t="n">
-        <v>58.8829</v>
+        <v>70.8344</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.9913</v>
+        <v>21.8492</v>
       </c>
       <c r="C11" t="n">
-        <v>43.4529</v>
+        <v>50.8657</v>
       </c>
       <c r="D11" t="n">
-        <v>59.4412</v>
+        <v>70.82729999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.323</v>
+        <v>22.3663</v>
       </c>
       <c r="C12" t="n">
-        <v>43.8054</v>
+        <v>53.1079</v>
       </c>
       <c r="D12" t="n">
-        <v>59.6808</v>
+        <v>72.1717</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.6693</v>
+        <v>22.582</v>
       </c>
       <c r="C13" t="n">
-        <v>44.283</v>
+        <v>52.9679</v>
       </c>
       <c r="D13" t="n">
-        <v>61.4793</v>
+        <v>72.60809999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.8615</v>
+        <v>21.9621</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3999</v>
+        <v>52.6797</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7909</v>
+        <v>72.48869999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.6761</v>
+        <v>22.835</v>
       </c>
       <c r="C15" t="n">
-        <v>44.5867</v>
+        <v>52.9385</v>
       </c>
       <c r="D15" t="n">
-        <v>61.7759</v>
+        <v>72.6174</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.4292</v>
+        <v>22.8594</v>
       </c>
       <c r="C16" t="n">
-        <v>43.2628</v>
+        <v>52.3647</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1</v>
+        <v>71.9819</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.3932</v>
+        <v>22.5661</v>
       </c>
       <c r="C17" t="n">
-        <v>44.939</v>
+        <v>52.9628</v>
       </c>
       <c r="D17" t="n">
-        <v>62.9524</v>
+        <v>73.5823</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.53678</v>
+        <v>4.09929</v>
       </c>
       <c r="C2" t="n">
-        <v>10.0204</v>
+        <v>13.737</v>
       </c>
       <c r="D2" t="n">
-        <v>12.298</v>
+        <v>17.4386</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>5.95207</v>
+        <v>6.36513</v>
       </c>
       <c r="C3" t="n">
-        <v>14.821</v>
+        <v>17.8529</v>
       </c>
       <c r="D3" t="n">
-        <v>19.2844</v>
+        <v>24.4439</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>8.57774</v>
+        <v>9.38124</v>
       </c>
       <c r="C4" t="n">
-        <v>20.2043</v>
+        <v>24.0477</v>
       </c>
       <c r="D4" t="n">
-        <v>27.3237</v>
+        <v>33.9321</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11.1585</v>
+        <v>12.1867</v>
       </c>
       <c r="C5" t="n">
-        <v>25.2989</v>
+        <v>29.6637</v>
       </c>
       <c r="D5" t="n">
-        <v>35.2027</v>
+        <v>43.3337</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>13.8424</v>
+        <v>15.07</v>
       </c>
       <c r="C6" t="n">
-        <v>30.4667</v>
+        <v>35.3361</v>
       </c>
       <c r="D6" t="n">
-        <v>43.1029</v>
+        <v>52.6305</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.3745</v>
+        <v>17.9649</v>
       </c>
       <c r="C7" t="n">
-        <v>35.5359</v>
+        <v>41.4127</v>
       </c>
       <c r="D7" t="n">
-        <v>50.8236</v>
+        <v>61.5175</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0152</v>
+        <v>21.0766</v>
       </c>
       <c r="C8" t="n">
-        <v>40.4478</v>
+        <v>47.1048</v>
       </c>
       <c r="D8" t="n">
-        <v>58.3223</v>
+        <v>69.90940000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.8453</v>
+        <v>23.9761</v>
       </c>
       <c r="C9" t="n">
-        <v>48.1498</v>
+        <v>55.4813</v>
       </c>
       <c r="D9" t="n">
-        <v>66.5241</v>
+        <v>79.32299999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9602</v>
+        <v>21.8935</v>
       </c>
       <c r="C10" t="n">
-        <v>43.6554</v>
+        <v>51.2113</v>
       </c>
       <c r="D10" t="n">
-        <v>57.433</v>
+        <v>71.9375</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1411</v>
+        <v>22.0451</v>
       </c>
       <c r="C11" t="n">
-        <v>43.21</v>
+        <v>50.2688</v>
       </c>
       <c r="D11" t="n">
-        <v>58.1191</v>
+        <v>70.1724</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>20.358</v>
+        <v>22.4332</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9454</v>
+        <v>50.968</v>
       </c>
       <c r="D12" t="n">
-        <v>59.3128</v>
+        <v>69.919</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.9225</v>
+        <v>22.7239</v>
       </c>
       <c r="C13" t="n">
-        <v>45.135</v>
+        <v>51.6024</v>
       </c>
       <c r="D13" t="n">
-        <v>61.56</v>
+        <v>71.52849999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.1059</v>
+        <v>22.0078</v>
       </c>
       <c r="C14" t="n">
-        <v>44.153</v>
+        <v>50.7725</v>
       </c>
       <c r="D14" t="n">
-        <v>59.4489</v>
+        <v>70.15989999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>20.8989</v>
+        <v>22.9448</v>
       </c>
       <c r="C15" t="n">
-        <v>44.4699</v>
+        <v>51.5944</v>
       </c>
       <c r="D15" t="n">
-        <v>61.042</v>
+        <v>71.83329999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>20.6053</v>
+        <v>22.9736</v>
       </c>
       <c r="C16" t="n">
-        <v>44.4078</v>
+        <v>50.2756</v>
       </c>
       <c r="D16" t="n">
-        <v>60.5801</v>
+        <v>71.9577</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.6908</v>
+        <v>22.6766</v>
       </c>
       <c r="C17" t="n">
-        <v>44.6967</v>
+        <v>50.7058</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8701</v>
+        <v>71.5705</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6.936</v>
+        <v>8.78124</v>
       </c>
       <c r="C2" t="n">
-        <v>12.8798</v>
+        <v>19.5694</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8673</v>
+        <v>20.5609</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>8.77694</v>
+        <v>10.1616</v>
       </c>
       <c r="C3" t="n">
-        <v>15.777</v>
+        <v>20.0073</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5951</v>
+        <v>26.6535</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.329</v>
+        <v>13.2947</v>
       </c>
       <c r="C4" t="n">
-        <v>20.8308</v>
+        <v>25.7189</v>
       </c>
       <c r="D4" t="n">
-        <v>28.8647</v>
+        <v>36.5969</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.2975</v>
+        <v>16.4477</v>
       </c>
       <c r="C5" t="n">
-        <v>26.0188</v>
+        <v>31.5812</v>
       </c>
       <c r="D5" t="n">
-        <v>36.8764</v>
+        <v>45.5577</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.0483</v>
+        <v>19.6189</v>
       </c>
       <c r="C6" t="n">
-        <v>31.9429</v>
+        <v>37.9984</v>
       </c>
       <c r="D6" t="n">
-        <v>44.6219</v>
+        <v>54.5727</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.8379</v>
+        <v>22.8675</v>
       </c>
       <c r="C7" t="n">
-        <v>37.1837</v>
+        <v>44.5245</v>
       </c>
       <c r="D7" t="n">
-        <v>51.9807</v>
+        <v>62.2971</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.8344</v>
+        <v>26.013</v>
       </c>
       <c r="C8" t="n">
-        <v>42.9782</v>
+        <v>50.2853</v>
       </c>
       <c r="D8" t="n">
-        <v>58.7651</v>
+        <v>69.93300000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>26.6212</v>
+        <v>30.3807</v>
       </c>
       <c r="C9" t="n">
-        <v>50.2972</v>
+        <v>59.452</v>
       </c>
       <c r="D9" t="n">
-        <v>67.5757</v>
+        <v>78.92059999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4811</v>
+        <v>29.1918</v>
       </c>
       <c r="C10" t="n">
-        <v>46.1754</v>
+        <v>55.1426</v>
       </c>
       <c r="D10" t="n">
-        <v>60.0477</v>
+        <v>70.1879</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0356</v>
+        <v>28.6439</v>
       </c>
       <c r="C11" t="n">
-        <v>45.5394</v>
+        <v>55.0831</v>
       </c>
       <c r="D11" t="n">
-        <v>60.7993</v>
+        <v>72.86709999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.141</v>
+        <v>28.5371</v>
       </c>
       <c r="C12" t="n">
-        <v>45.803</v>
+        <v>55.3066</v>
       </c>
       <c r="D12" t="n">
-        <v>61.4178</v>
+        <v>74.5446</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.4392</v>
+        <v>29.2779</v>
       </c>
       <c r="C13" t="n">
-        <v>46.2648</v>
+        <v>56.9891</v>
       </c>
       <c r="D13" t="n">
-        <v>60.4417</v>
+        <v>73.5617</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.46</v>
+        <v>28.6449</v>
       </c>
       <c r="C14" t="n">
-        <v>45.7898</v>
+        <v>56.0876</v>
       </c>
       <c r="D14" t="n">
-        <v>61.3652</v>
+        <v>74.002</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7276</v>
+        <v>28.434</v>
       </c>
       <c r="C15" t="n">
-        <v>46.8853</v>
+        <v>56.8441</v>
       </c>
       <c r="D15" t="n">
-        <v>61.1035</v>
+        <v>75.06740000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7818</v>
+        <v>29.5136</v>
       </c>
       <c r="C16" t="n">
-        <v>46.1806</v>
+        <v>56.8216</v>
       </c>
       <c r="D16" t="n">
-        <v>62.0515</v>
+        <v>75.339</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9953</v>
+        <v>29.191</v>
       </c>
       <c r="C17" t="n">
-        <v>47.567</v>
+        <v>56.8369</v>
       </c>
       <c r="D17" t="n">
-        <v>63.5101</v>
+        <v>74.8972</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2049</v>
+        <v>10.1841</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2475</v>
+        <v>15.2643</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0009</v>
+        <v>18.9802</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0281</v>
+        <v>10.0541</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7033</v>
+        <v>10.7264</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4182</v>
+        <v>18.491</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0978</v>
+        <v>12.1224</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4562</v>
+        <v>12.706</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6403</v>
+        <v>23.3719</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7796</v>
+        <v>14.8061</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0219</v>
+        <v>15.106</v>
       </c>
       <c r="D5" t="n">
-        <v>26.472</v>
+        <v>28.2053</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0826</v>
+        <v>18.0108</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7316</v>
+        <v>17.8071</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2339</v>
+        <v>33.7809</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8113</v>
+        <v>21.4965</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6304</v>
+        <v>20.7074</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0661</v>
+        <v>39.7318</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3738</v>
+        <v>24.2904</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0563</v>
+        <v>22.6195</v>
       </c>
       <c r="D8" t="n">
-        <v>39.654</v>
+        <v>42.1418</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8136</v>
+        <v>28.5076</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1803</v>
+        <v>25.0336</v>
       </c>
       <c r="D9" t="n">
-        <v>45.1819</v>
+        <v>48.8344</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0011</v>
+        <v>24.7454</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4594</v>
+        <v>24.9526</v>
       </c>
       <c r="D10" t="n">
-        <v>42.795</v>
+        <v>45.5563</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5042</v>
+        <v>25.1356</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7483</v>
+        <v>24.1346</v>
       </c>
       <c r="D11" t="n">
-        <v>42.0836</v>
+        <v>43.7686</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2126</v>
+        <v>26.4286</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5664</v>
+        <v>24.2862</v>
       </c>
       <c r="D12" t="n">
-        <v>42.3132</v>
+        <v>44.4899</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0463</v>
+        <v>26.0889</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8056</v>
+        <v>24.8004</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2291</v>
+        <v>45.981</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2091</v>
+        <v>24.645</v>
       </c>
       <c r="C14" t="n">
-        <v>25.684</v>
+        <v>25.6703</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0345</v>
+        <v>44.2284</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8806</v>
+        <v>25.2791</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5337</v>
+        <v>26.5632</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8568</v>
+        <v>45.7237</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1847</v>
+        <v>25.0482</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1471</v>
+        <v>27.197</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2227</v>
+        <v>46.4894</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.8478</v>
+        <v>25.5926</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7891</v>
+        <v>27.8611</v>
       </c>
       <c r="D17" t="n">
-        <v>46.4947</v>
+        <v>46.3361</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1051</v>
+        <v>10.9633</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1009</v>
+        <v>15.0867</v>
       </c>
       <c r="D2" t="n">
-        <v>18.83</v>
+        <v>18.8283</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.493</v>
+        <v>10.4028</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0141</v>
+        <v>10.667</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1842</v>
+        <v>18.2719</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2979</v>
+        <v>12.4076</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5013</v>
+        <v>12.6464</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2069</v>
+        <v>23.1275</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8403</v>
+        <v>15.4188</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8897</v>
+        <v>15.0031</v>
       </c>
       <c r="D5" t="n">
-        <v>27.344</v>
+        <v>27.9521</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1513</v>
+        <v>18.638</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5993</v>
+        <v>17.6692</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7932</v>
+        <v>32.9296</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0088</v>
+        <v>21.9993</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1362</v>
+        <v>20.2324</v>
       </c>
       <c r="D7" t="n">
-        <v>36.9236</v>
+        <v>38.1179</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6986</v>
+        <v>24.846</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3127</v>
+        <v>22.4456</v>
       </c>
       <c r="D8" t="n">
-        <v>39.4255</v>
+        <v>42.349</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.014</v>
+        <v>30.1465</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8995</v>
+        <v>25.0194</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5501</v>
+        <v>47.535</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5591</v>
+        <v>24.5786</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8603</v>
+        <v>24.8295</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9247</v>
+        <v>44.8525</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.3336</v>
+        <v>25.1739</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9154</v>
+        <v>23.9514</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0133</v>
+        <v>43.2191</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5452</v>
+        <v>25.871</v>
       </c>
       <c r="C12" t="n">
-        <v>24.615</v>
+        <v>24.3166</v>
       </c>
       <c r="D12" t="n">
-        <v>42.95</v>
+        <v>44.0972</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5212</v>
+        <v>26.7242</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3336</v>
+        <v>24.9981</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7899</v>
+        <v>43.9945</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.468</v>
+        <v>24.8892</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9657</v>
+        <v>25.8887</v>
       </c>
       <c r="D14" t="n">
-        <v>42.4838</v>
+        <v>44.7727</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6356</v>
+        <v>25.7008</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5354</v>
+        <v>26.6492</v>
       </c>
       <c r="D15" t="n">
-        <v>44.8288</v>
+        <v>44.7746</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.1016</v>
+        <v>25.8297</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3103</v>
+        <v>27.2627</v>
       </c>
       <c r="D16" t="n">
-        <v>44.1968</v>
+        <v>44.6461</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1541</v>
+        <v>25.3867</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1024</v>
+        <v>27.97</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7481</v>
+        <v>47.6328</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2112</v>
+        <v>14.1996</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3934</v>
+        <v>17.3574</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3203</v>
+        <v>21.3087</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7351</v>
+        <v>11.2564</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8837</v>
+        <v>12.1201</v>
       </c>
       <c r="D3" t="n">
-        <v>19.197</v>
+        <v>19.7294</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2686</v>
+        <v>14.2182</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1771</v>
+        <v>14.1683</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9439</v>
+        <v>24.7968</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0826</v>
+        <v>17.1839</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0842</v>
+        <v>17.1221</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1586</v>
+        <v>30.6404</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.8778</v>
+        <v>20.6212</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2561</v>
+        <v>19.9766</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9592</v>
+        <v>36.8552</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7311</v>
+        <v>24.3007</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7867</v>
+        <v>22.7489</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4474</v>
+        <v>40.2851</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.0303</v>
+        <v>27.6226</v>
       </c>
       <c r="C8" t="n">
-        <v>25.152</v>
+        <v>24.9728</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8047</v>
+        <v>46.0812</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9345</v>
+        <v>31.6669</v>
       </c>
       <c r="C9" t="n">
-        <v>27.043</v>
+        <v>27.2473</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2591</v>
+        <v>50.2559</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4147</v>
+        <v>30.2309</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7284</v>
+        <v>26.7083</v>
       </c>
       <c r="D10" t="n">
-        <v>47.392</v>
+        <v>48.943</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5209</v>
+        <v>27.4201</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7849</v>
+        <v>25.9313</v>
       </c>
       <c r="D11" t="n">
-        <v>47.1609</v>
+        <v>48.2931</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8048</v>
+        <v>29.0126</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1054</v>
+        <v>26.109</v>
       </c>
       <c r="D12" t="n">
-        <v>47.9231</v>
+        <v>46.8236</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9679</v>
+        <v>30.6222</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7056</v>
+        <v>26.6475</v>
       </c>
       <c r="D13" t="n">
-        <v>50.6731</v>
+        <v>49.7849</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.706</v>
+        <v>28.6853</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2743</v>
+        <v>27.2428</v>
       </c>
       <c r="D14" t="n">
-        <v>48.3673</v>
+        <v>49.6478</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2191</v>
+        <v>27.429</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2451</v>
+        <v>28.0581</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2928</v>
+        <v>47.8605</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.9379</v>
+        <v>27.9699</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8566</v>
+        <v>28.8404</v>
       </c>
       <c r="D16" t="n">
-        <v>48.9333</v>
+        <v>46.622</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1892</v>
+        <v>27.8889</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6031</v>
+        <v>29.576</v>
       </c>
       <c r="D17" t="n">
-        <v>45.192</v>
+        <v>46.3756</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.96769</v>
+        <v>3.99556</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3445</v>
+        <v>11.3483</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6995</v>
+        <v>13.759</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.58909</v>
+        <v>6.57513</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5973</v>
+        <v>10.6054</v>
       </c>
       <c r="D3" t="n">
-        <v>18.71</v>
+        <v>18.7116</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40807</v>
+        <v>9.4598</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7032</v>
+        <v>12.724</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6691</v>
+        <v>24.7528</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2927</v>
+        <v>12.2386</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2623</v>
+        <v>15.2497</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3323</v>
+        <v>30.4203</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2095</v>
+        <v>15.1594</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8839</v>
+        <v>17.9436</v>
       </c>
       <c r="D6" t="n">
-        <v>36.112</v>
+        <v>35.9392</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0466</v>
+        <v>18.0544</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5521</v>
+        <v>20.5688</v>
       </c>
       <c r="D7" t="n">
-        <v>41.8459</v>
+        <v>42.1681</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7828</v>
+        <v>20.7659</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6651</v>
+        <v>23.6463</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2037</v>
+        <v>48.2131</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8837</v>
+        <v>23.8852</v>
       </c>
       <c r="C9" t="n">
-        <v>27.088</v>
+        <v>27.2159</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5564</v>
+        <v>57.4049</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2855</v>
+        <v>21.7073</v>
       </c>
       <c r="C10" t="n">
-        <v>25.28</v>
+        <v>25.3963</v>
       </c>
       <c r="D10" t="n">
-        <v>52.036</v>
+        <v>50.2928</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6742</v>
+        <v>21.7937</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5332</v>
+        <v>25.5238</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2204</v>
+        <v>51.9918</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6039</v>
+        <v>22.4461</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3055</v>
+        <v>25.4453</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9262</v>
+        <v>51.7129</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4607</v>
+        <v>22.6732</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6299</v>
+        <v>25.8251</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4049</v>
+        <v>54.0428</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0253</v>
+        <v>21.9598</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0419</v>
+        <v>26.1443</v>
       </c>
       <c r="D14" t="n">
-        <v>52.3356</v>
+        <v>51.9982</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7927</v>
+        <v>22.9014</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4541</v>
+        <v>26.4949</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8273</v>
+        <v>51.8723</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6839</v>
+        <v>22.6677</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0204</v>
+        <v>27.1264</v>
       </c>
       <c r="D16" t="n">
-        <v>52.7629</v>
+        <v>53.1505</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6704</v>
+        <v>22.688</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7049</v>
+        <v>27.6435</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8768</v>
+        <v>51.1225</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98151</v>
+        <v>4.02401</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4488</v>
+        <v>11.4795</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6034</v>
+        <v>13.775</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.57914</v>
+        <v>6.53857</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5847</v>
+        <v>10.6417</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0599</v>
+        <v>18.229</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.39771</v>
+        <v>9.383649999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7234</v>
+        <v>12.7675</v>
       </c>
       <c r="D4" t="n">
-        <v>23.778</v>
+        <v>24.0298</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2081</v>
+        <v>12.1859</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1529</v>
+        <v>15.2537</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3727</v>
+        <v>29.498</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1931</v>
+        <v>15.1147</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7975</v>
+        <v>17.9028</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0063</v>
+        <v>35.5441</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8613</v>
+        <v>17.8639</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5175</v>
+        <v>20.6577</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0009</v>
+        <v>41.3816</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7323</v>
+        <v>20.9393</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2947</v>
+        <v>23.866</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0113</v>
+        <v>46.9528</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9012</v>
+        <v>23.9167</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7628</v>
+        <v>27.3254</v>
       </c>
       <c r="D9" t="n">
-        <v>55.455</v>
+        <v>55.7864</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3181</v>
+        <v>21.8482</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3851</v>
+        <v>25.3044</v>
       </c>
       <c r="D10" t="n">
-        <v>51.0489</v>
+        <v>50.3208</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3076</v>
+        <v>21.677</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2297</v>
+        <v>25.2795</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3943</v>
+        <v>49.912</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4154</v>
+        <v>22.1879</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3667</v>
+        <v>25.4205</v>
       </c>
       <c r="D12" t="n">
-        <v>51.1616</v>
+        <v>51.3686</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7017</v>
+        <v>23.1</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4725</v>
+        <v>25.7489</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7301</v>
+        <v>51.1365</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7709</v>
+        <v>21.9642</v>
       </c>
       <c r="C14" t="n">
-        <v>25.745</v>
+        <v>26.0965</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8556</v>
+        <v>50.6925</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8932</v>
+        <v>22.9559</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2422</v>
+        <v>26.3684</v>
       </c>
       <c r="D15" t="n">
-        <v>51.228</v>
+        <v>51.2187</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7413</v>
+        <v>22.9662</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9801</v>
+        <v>26.9823</v>
       </c>
       <c r="D16" t="n">
-        <v>51.5633</v>
+        <v>51.061</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.092</v>
+        <v>22.6196</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5939</v>
+        <v>27.6466</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1148</v>
+        <v>50.6433</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.75996</v>
+        <v>8.70879</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6935</v>
+        <v>15.7076</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5655</v>
+        <v>19.6702</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4874</v>
+        <v>10.225</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9853</v>
+        <v>11.7697</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7088</v>
+        <v>20.0818</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2922</v>
+        <v>13.3013</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8927</v>
+        <v>13.993</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9254</v>
+        <v>25.7916</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3609</v>
+        <v>16.3804</v>
       </c>
       <c r="C5" t="n">
-        <v>15.8798</v>
+        <v>16.3718</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5844</v>
+        <v>31.8962</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5027</v>
+        <v>19.5742</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7213</v>
+        <v>19.282</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2901</v>
+        <v>38.2259</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8594</v>
+        <v>22.9072</v>
       </c>
       <c r="C7" t="n">
-        <v>21.2776</v>
+        <v>22.0515</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7154</v>
+        <v>44.9108</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4877</v>
+        <v>26.4666</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3464</v>
+        <v>25.0121</v>
       </c>
       <c r="D8" t="n">
-        <v>51.1831</v>
+        <v>52.4867</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1568</v>
+        <v>31.4395</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2211</v>
+        <v>27.6926</v>
       </c>
       <c r="D9" t="n">
-        <v>59.1559</v>
+        <v>60.4959</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.721</v>
+        <v>29.1872</v>
       </c>
       <c r="C10" t="n">
-        <v>26.34</v>
+        <v>26.8146</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9619</v>
+        <v>55.4163</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2995</v>
+        <v>29.3141</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9142</v>
+        <v>26.5613</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1028</v>
+        <v>56.2334</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1714</v>
+        <v>29.5009</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2083</v>
+        <v>26.9606</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5194</v>
+        <v>56.6506</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.4223</v>
+        <v>29.8696</v>
       </c>
       <c r="C13" t="n">
-        <v>26.4454</v>
+        <v>27.42</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1843</v>
+        <v>57.4883</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3097</v>
+        <v>28.9582</v>
       </c>
       <c r="C14" t="n">
-        <v>27.1526</v>
+        <v>27.9898</v>
       </c>
       <c r="D14" t="n">
-        <v>56.2725</v>
+        <v>56.5556</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.1463</v>
+        <v>29.985</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0986</v>
+        <v>28.6104</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1727</v>
+        <v>57.7619</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6874</v>
+        <v>30.0005</v>
       </c>
       <c r="C16" t="n">
-        <v>28.0855</v>
+        <v>29.4634</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7222</v>
+        <v>57.829</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8883</v>
+        <v>30.2549</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3271</v>
+        <v>30.3452</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1903</v>
+        <v>58.3302</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.134</v>
+        <v>10.0676</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9419</v>
+        <v>18.8998</v>
       </c>
       <c r="D2" t="n">
-        <v>19.8308</v>
+        <v>19.7849</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0258</v>
+        <v>10.0062</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6062</v>
+        <v>18.5921</v>
       </c>
       <c r="D3" t="n">
-        <v>23.4271</v>
+        <v>23.1411</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9287</v>
+        <v>11.9988</v>
       </c>
       <c r="C4" t="n">
-        <v>22.785</v>
+        <v>22.5231</v>
       </c>
       <c r="D4" t="n">
-        <v>30.6034</v>
+        <v>30.4658</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8288</v>
+        <v>14.9525</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4995</v>
+        <v>27.5461</v>
       </c>
       <c r="D5" t="n">
-        <v>37.1659</v>
+        <v>37.8673</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0058</v>
+        <v>18.1828</v>
       </c>
       <c r="C6" t="n">
-        <v>33.2428</v>
+        <v>31.975</v>
       </c>
       <c r="D6" t="n">
-        <v>43.2342</v>
+        <v>44.7626</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7553</v>
+        <v>21.1365</v>
       </c>
       <c r="C7" t="n">
-        <v>36.3482</v>
+        <v>37.3141</v>
       </c>
       <c r="D7" t="n">
-        <v>47.914</v>
+        <v>50.4441</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0187</v>
+        <v>24.2064</v>
       </c>
       <c r="C8" t="n">
-        <v>40.4024</v>
+        <v>40.1953</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8557</v>
+        <v>55.1607</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2367</v>
+        <v>29.6794</v>
       </c>
       <c r="C9" t="n">
-        <v>45.2542</v>
+        <v>44.0424</v>
       </c>
       <c r="D9" t="n">
-        <v>58.985</v>
+        <v>60.647</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3136</v>
+        <v>24.9544</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4705</v>
+        <v>43.4904</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9078</v>
+        <v>55.5115</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7716</v>
+        <v>24.9785</v>
       </c>
       <c r="C11" t="n">
-        <v>43.4346</v>
+        <v>42.8477</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8937</v>
+        <v>55.7094</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7502</v>
+        <v>26.2023</v>
       </c>
       <c r="C12" t="n">
-        <v>42.5148</v>
+        <v>44.0307</v>
       </c>
       <c r="D12" t="n">
-        <v>58.366</v>
+        <v>59.4612</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8886</v>
+        <v>27.2263</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2552</v>
+        <v>44.5218</v>
       </c>
       <c r="D13" t="n">
-        <v>60.7873</v>
+        <v>59.6771</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7547</v>
+        <v>24.2714</v>
       </c>
       <c r="C14" t="n">
-        <v>44.4546</v>
+        <v>44.3774</v>
       </c>
       <c r="D14" t="n">
-        <v>61.5962</v>
+        <v>62.4322</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.9063</v>
+        <v>24.4987</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7346</v>
+        <v>44.1936</v>
       </c>
       <c r="D15" t="n">
-        <v>62.8863</v>
+        <v>63.1619</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6718</v>
+        <v>24.7577</v>
       </c>
       <c r="C16" t="n">
-        <v>47.026</v>
+        <v>47.4103</v>
       </c>
       <c r="D16" t="n">
-        <v>64.57089999999999</v>
+        <v>65.3184</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.049</v>
+        <v>24.6332</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1478</v>
+        <v>46.218</v>
       </c>
       <c r="D17" t="n">
-        <v>63.5598</v>
+        <v>64.0065</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.99</v>
+        <v>10.8786</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7538</v>
+        <v>18.8441</v>
       </c>
       <c r="D2" t="n">
-        <v>19.71</v>
+        <v>19.6685</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5701</v>
+        <v>10.3204</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1501</v>
+        <v>18.1126</v>
       </c>
       <c r="D3" t="n">
-        <v>23.0331</v>
+        <v>22.9522</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5148</v>
+        <v>12.416</v>
       </c>
       <c r="C4" t="n">
-        <v>22.0028</v>
+        <v>22.3369</v>
       </c>
       <c r="D4" t="n">
-        <v>29.617</v>
+        <v>30.103</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.632</v>
+        <v>14.997</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5644</v>
+        <v>26.1871</v>
       </c>
       <c r="D5" t="n">
-        <v>36.0734</v>
+        <v>36.9149</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1712</v>
+        <v>18.6084</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2833</v>
+        <v>31.4478</v>
       </c>
       <c r="D6" t="n">
-        <v>42.9752</v>
+        <v>44.8658</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8255</v>
+        <v>21.6533</v>
       </c>
       <c r="C7" t="n">
-        <v>36.6578</v>
+        <v>35.6195</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0819</v>
+        <v>49.3192</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4445</v>
+        <v>24.6545</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9912</v>
+        <v>39.7902</v>
       </c>
       <c r="D8" t="n">
-        <v>54.2942</v>
+        <v>56.123</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2531</v>
+        <v>29.201</v>
       </c>
       <c r="C9" t="n">
-        <v>44.5754</v>
+        <v>45.0556</v>
       </c>
       <c r="D9" t="n">
-        <v>59.3089</v>
+        <v>59.438</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0047</v>
+        <v>24.5114</v>
       </c>
       <c r="C10" t="n">
-        <v>42.3564</v>
+        <v>42.4297</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4678</v>
+        <v>54.8385</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8933</v>
+        <v>24.5156</v>
       </c>
       <c r="C11" t="n">
-        <v>41.8794</v>
+        <v>42.4875</v>
       </c>
       <c r="D11" t="n">
-        <v>57.602</v>
+        <v>55.2816</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4422</v>
+        <v>26.4159</v>
       </c>
       <c r="C12" t="n">
-        <v>42.2672</v>
+        <v>44.001</v>
       </c>
       <c r="D12" t="n">
-        <v>59.9484</v>
+        <v>57.416</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4471</v>
+        <v>27.5361</v>
       </c>
       <c r="C13" t="n">
-        <v>43.1479</v>
+        <v>46.0131</v>
       </c>
       <c r="D13" t="n">
-        <v>59.3762</v>
+        <v>59.359</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6259</v>
+        <v>25.2325</v>
       </c>
       <c r="C14" t="n">
-        <v>45.1389</v>
+        <v>42.7655</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7762</v>
+        <v>60.9188</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6391</v>
+        <v>25.1052</v>
       </c>
       <c r="C15" t="n">
-        <v>42.9193</v>
+        <v>44.1652</v>
       </c>
       <c r="D15" t="n">
-        <v>60.8992</v>
+        <v>60.9071</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.8548</v>
+        <v>26.304</v>
       </c>
       <c r="C16" t="n">
-        <v>44.0768</v>
+        <v>43.57</v>
       </c>
       <c r="D16" t="n">
-        <v>61.2143</v>
+        <v>60.1482</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.108</v>
+        <v>24.7032</v>
       </c>
       <c r="C17" t="n">
-        <v>44.9657</v>
+        <v>45.5948</v>
       </c>
       <c r="D17" t="n">
-        <v>62.5472</v>
+        <v>60.8418</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2139</v>
+        <v>14.1301</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2429</v>
+        <v>21.317</v>
       </c>
       <c r="D2" t="n">
-        <v>20.843</v>
+        <v>20.8451</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1482</v>
+        <v>11.0531</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2878</v>
+        <v>19.3295</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7491</v>
+        <v>24.388</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1523</v>
+        <v>14.3038</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5255</v>
+        <v>24.7256</v>
       </c>
       <c r="D4" t="n">
-        <v>31.9065</v>
+        <v>32.5716</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2022</v>
+        <v>17.1795</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6928</v>
+        <v>29.2189</v>
       </c>
       <c r="D5" t="n">
-        <v>38.465</v>
+        <v>38.5911</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8749</v>
+        <v>20.5769</v>
       </c>
       <c r="C6" t="n">
-        <v>34.0737</v>
+        <v>34.9323</v>
       </c>
       <c r="D6" t="n">
-        <v>44.2127</v>
+        <v>46.1199</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4188</v>
+        <v>23.9187</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7205</v>
+        <v>39.7617</v>
       </c>
       <c r="D7" t="n">
-        <v>49.9172</v>
+        <v>50.7052</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5222</v>
+        <v>27.6847</v>
       </c>
       <c r="C8" t="n">
-        <v>42.882</v>
+        <v>43.9196</v>
       </c>
       <c r="D8" t="n">
-        <v>54.1613</v>
+        <v>54.3271</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.35</v>
+        <v>31.9155</v>
       </c>
       <c r="C9" t="n">
-        <v>47.3989</v>
+        <v>46.9429</v>
       </c>
       <c r="D9" t="n">
-        <v>58.7053</v>
+        <v>58.5461</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2307</v>
+        <v>29.7904</v>
       </c>
       <c r="C10" t="n">
-        <v>45.7481</v>
+        <v>46.9056</v>
       </c>
       <c r="D10" t="n">
-        <v>56.5435</v>
+        <v>56.2008</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5987</v>
+        <v>28.0855</v>
       </c>
       <c r="C11" t="n">
-        <v>45.1234</v>
+        <v>45.2197</v>
       </c>
       <c r="D11" t="n">
-        <v>54.795</v>
+        <v>56.4777</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.5864</v>
+        <v>29.064</v>
       </c>
       <c r="C12" t="n">
-        <v>46.7164</v>
+        <v>45.5635</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9229</v>
+        <v>57.2318</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.238</v>
+        <v>31.0694</v>
       </c>
       <c r="C13" t="n">
-        <v>47.5867</v>
+        <v>46.7447</v>
       </c>
       <c r="D13" t="n">
-        <v>57.4273</v>
+        <v>56.6508</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.4269</v>
+        <v>29.5054</v>
       </c>
       <c r="C14" t="n">
-        <v>45.989</v>
+        <v>47.2795</v>
       </c>
       <c r="D14" t="n">
-        <v>57.267</v>
+        <v>58.4148</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9486</v>
+        <v>27.8846</v>
       </c>
       <c r="C15" t="n">
-        <v>48.0865</v>
+        <v>47.1594</v>
       </c>
       <c r="D15" t="n">
-        <v>57.736</v>
+        <v>59.6674</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1875</v>
+        <v>28.2253</v>
       </c>
       <c r="C16" t="n">
-        <v>49.0899</v>
+        <v>48.1927</v>
       </c>
       <c r="D16" t="n">
-        <v>55.0252</v>
+        <v>56.5919</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.6081</v>
+        <v>28.392</v>
       </c>
       <c r="C17" t="n">
-        <v>45.5053</v>
+        <v>46.5517</v>
       </c>
       <c r="D17" t="n">
-        <v>54.5511</v>
+        <v>55.8005</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.03998</v>
+        <v>3.9254</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6648</v>
+        <v>13.6277</v>
       </c>
       <c r="D2" t="n">
-        <v>17.1525</v>
+        <v>16.9996</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.40623</v>
+        <v>6.49734</v>
       </c>
       <c r="C3" t="n">
-        <v>18.452</v>
+        <v>18.6585</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7557</v>
+        <v>24.9428</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.452909999999999</v>
+        <v>9.37332</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6649</v>
+        <v>24.4933</v>
       </c>
       <c r="D4" t="n">
-        <v>34.553</v>
+        <v>34.4945</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2893</v>
+        <v>12.2834</v>
       </c>
       <c r="C5" t="n">
-        <v>30.3321</v>
+        <v>30.0936</v>
       </c>
       <c r="D5" t="n">
-        <v>43.8927</v>
+        <v>43.9962</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9743</v>
+        <v>15.0184</v>
       </c>
       <c r="C6" t="n">
-        <v>35.9272</v>
+        <v>36.039</v>
       </c>
       <c r="D6" t="n">
-        <v>53.1862</v>
+        <v>53.2843</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8789</v>
+        <v>17.9699</v>
       </c>
       <c r="C7" t="n">
-        <v>41.9609</v>
+        <v>42.0951</v>
       </c>
       <c r="D7" t="n">
-        <v>62.3394</v>
+        <v>62.4066</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8338</v>
+        <v>21.0774</v>
       </c>
       <c r="C8" t="n">
-        <v>47.996</v>
+        <v>47.3218</v>
       </c>
       <c r="D8" t="n">
-        <v>71.1358</v>
+        <v>71.124</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8799</v>
+        <v>23.8488</v>
       </c>
       <c r="C9" t="n">
-        <v>57.5484</v>
+        <v>56.1925</v>
       </c>
       <c r="D9" t="n">
-        <v>79.9867</v>
+        <v>80.6519</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5933</v>
+        <v>21.9978</v>
       </c>
       <c r="C10" t="n">
-        <v>52.3615</v>
+        <v>51.8066</v>
       </c>
       <c r="D10" t="n">
-        <v>70.8344</v>
+        <v>70.24290000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8492</v>
+        <v>22.0677</v>
       </c>
       <c r="C11" t="n">
-        <v>50.8657</v>
+        <v>51.5035</v>
       </c>
       <c r="D11" t="n">
-        <v>70.82729999999999</v>
+        <v>70.5215</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3663</v>
+        <v>22.2959</v>
       </c>
       <c r="C12" t="n">
-        <v>53.1079</v>
+        <v>51.2418</v>
       </c>
       <c r="D12" t="n">
-        <v>72.1717</v>
+        <v>72.0749</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.582</v>
+        <v>22.7285</v>
       </c>
       <c r="C13" t="n">
-        <v>52.9679</v>
+        <v>53.237</v>
       </c>
       <c r="D13" t="n">
-        <v>72.60809999999999</v>
+        <v>73.9819</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9621</v>
+        <v>21.8174</v>
       </c>
       <c r="C14" t="n">
-        <v>52.6797</v>
+        <v>51.4737</v>
       </c>
       <c r="D14" t="n">
-        <v>72.48869999999999</v>
+        <v>71.4057</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.835</v>
+        <v>22.8793</v>
       </c>
       <c r="C15" t="n">
-        <v>52.9385</v>
+        <v>52.7067</v>
       </c>
       <c r="D15" t="n">
-        <v>72.6174</v>
+        <v>73.5744</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8594</v>
+        <v>23.0074</v>
       </c>
       <c r="C16" t="n">
-        <v>52.3647</v>
+        <v>52.649</v>
       </c>
       <c r="D16" t="n">
-        <v>71.9819</v>
+        <v>72.0912</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5661</v>
+        <v>22.8186</v>
       </c>
       <c r="C17" t="n">
-        <v>52.9628</v>
+        <v>52.3342</v>
       </c>
       <c r="D17" t="n">
-        <v>73.5823</v>
+        <v>73.2881</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.09929</v>
+        <v>4.04886</v>
       </c>
       <c r="C2" t="n">
-        <v>13.737</v>
+        <v>13.6005</v>
       </c>
       <c r="D2" t="n">
-        <v>17.4386</v>
+        <v>17.2482</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.36513</v>
+        <v>6.62734</v>
       </c>
       <c r="C3" t="n">
-        <v>17.8529</v>
+        <v>17.9937</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4439</v>
+        <v>24.7331</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.38124</v>
+        <v>9.466670000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>24.0477</v>
+        <v>23.9255</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9321</v>
+        <v>34.2167</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1867</v>
+        <v>12.2775</v>
       </c>
       <c r="C5" t="n">
-        <v>29.6637</v>
+        <v>29.2432</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3337</v>
+        <v>43.2161</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.07</v>
+        <v>15.1401</v>
       </c>
       <c r="C6" t="n">
-        <v>35.3361</v>
+        <v>35.1301</v>
       </c>
       <c r="D6" t="n">
-        <v>52.6305</v>
+        <v>52.7806</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9649</v>
+        <v>17.8246</v>
       </c>
       <c r="C7" t="n">
-        <v>41.4127</v>
+        <v>40.8803</v>
       </c>
       <c r="D7" t="n">
-        <v>61.5175</v>
+        <v>62.0721</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0766</v>
+        <v>20.7926</v>
       </c>
       <c r="C8" t="n">
-        <v>47.1048</v>
+        <v>46.7421</v>
       </c>
       <c r="D8" t="n">
-        <v>69.90940000000001</v>
+        <v>70.8413</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9761</v>
+        <v>23.8357</v>
       </c>
       <c r="C9" t="n">
-        <v>55.4813</v>
+        <v>55.2297</v>
       </c>
       <c r="D9" t="n">
-        <v>79.32299999999999</v>
+        <v>80.0942</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8935</v>
+        <v>22.3357</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2113</v>
+        <v>50.9952</v>
       </c>
       <c r="D10" t="n">
-        <v>71.9375</v>
+        <v>69.8781</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0451</v>
+        <v>21.9337</v>
       </c>
       <c r="C11" t="n">
-        <v>50.2688</v>
+        <v>51.0797</v>
       </c>
       <c r="D11" t="n">
-        <v>70.1724</v>
+        <v>68.4045</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4332</v>
+        <v>22.3943</v>
       </c>
       <c r="C12" t="n">
-        <v>50.968</v>
+        <v>51.1729</v>
       </c>
       <c r="D12" t="n">
-        <v>69.919</v>
+        <v>71.4678</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7239</v>
+        <v>22.9781</v>
       </c>
       <c r="C13" t="n">
-        <v>51.6024</v>
+        <v>51.2211</v>
       </c>
       <c r="D13" t="n">
-        <v>71.52849999999999</v>
+        <v>72.5774</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0078</v>
+        <v>21.8998</v>
       </c>
       <c r="C14" t="n">
-        <v>50.7725</v>
+        <v>50.5107</v>
       </c>
       <c r="D14" t="n">
-        <v>70.15989999999999</v>
+        <v>71.2337</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9448</v>
+        <v>22.891</v>
       </c>
       <c r="C15" t="n">
-        <v>51.5944</v>
+        <v>50.6018</v>
       </c>
       <c r="D15" t="n">
-        <v>71.83329999999999</v>
+        <v>72.46469999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9736</v>
+        <v>23.0286</v>
       </c>
       <c r="C16" t="n">
-        <v>50.2756</v>
+        <v>51.3709</v>
       </c>
       <c r="D16" t="n">
-        <v>71.9577</v>
+        <v>71.7046</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6766</v>
+        <v>22.4849</v>
       </c>
       <c r="C17" t="n">
-        <v>50.7058</v>
+        <v>50.8306</v>
       </c>
       <c r="D17" t="n">
-        <v>71.5705</v>
+        <v>71.74250000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.78124</v>
+        <v>8.679639999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5694</v>
+        <v>19.5499</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5609</v>
+        <v>20.5619</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1616</v>
+        <v>10.3924</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0073</v>
+        <v>19.9699</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6535</v>
+        <v>27.0734</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2947</v>
+        <v>13.3815</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7189</v>
+        <v>25.6385</v>
       </c>
       <c r="D4" t="n">
-        <v>36.5969</v>
+        <v>36.8376</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4477</v>
+        <v>16.4092</v>
       </c>
       <c r="C5" t="n">
-        <v>31.5812</v>
+        <v>31.8091</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5577</v>
+        <v>45.7862</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6189</v>
+        <v>19.6212</v>
       </c>
       <c r="C6" t="n">
-        <v>37.9984</v>
+        <v>38.1509</v>
       </c>
       <c r="D6" t="n">
-        <v>54.5727</v>
+        <v>54.7483</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8675</v>
+        <v>22.7428</v>
       </c>
       <c r="C7" t="n">
-        <v>44.5245</v>
+        <v>45.0804</v>
       </c>
       <c r="D7" t="n">
-        <v>62.2971</v>
+        <v>62.9219</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.013</v>
+        <v>26.4541</v>
       </c>
       <c r="C8" t="n">
-        <v>50.2853</v>
+        <v>51.9921</v>
       </c>
       <c r="D8" t="n">
-        <v>69.93300000000001</v>
+        <v>71.292</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.3807</v>
+        <v>31.3652</v>
       </c>
       <c r="C9" t="n">
-        <v>59.452</v>
+        <v>59.1911</v>
       </c>
       <c r="D9" t="n">
-        <v>78.92059999999999</v>
+        <v>79.42910000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1918</v>
+        <v>29.1986</v>
       </c>
       <c r="C10" t="n">
-        <v>55.1426</v>
+        <v>54.9089</v>
       </c>
       <c r="D10" t="n">
-        <v>70.1879</v>
+        <v>69.87569999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6439</v>
+        <v>28.7554</v>
       </c>
       <c r="C11" t="n">
-        <v>55.0831</v>
+        <v>55.2759</v>
       </c>
       <c r="D11" t="n">
-        <v>72.86709999999999</v>
+        <v>72.3884</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.5371</v>
+        <v>29.2846</v>
       </c>
       <c r="C12" t="n">
-        <v>55.3066</v>
+        <v>56.2465</v>
       </c>
       <c r="D12" t="n">
-        <v>74.5446</v>
+        <v>73.81619999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.2779</v>
+        <v>29.8598</v>
       </c>
       <c r="C13" t="n">
-        <v>56.9891</v>
+        <v>56.7932</v>
       </c>
       <c r="D13" t="n">
-        <v>73.5617</v>
+        <v>74.2324</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6449</v>
+        <v>28.9381</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0876</v>
+        <v>56.0718</v>
       </c>
       <c r="D14" t="n">
-        <v>74.002</v>
+        <v>74.7946</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.434</v>
+        <v>29.8239</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8441</v>
+        <v>56.8655</v>
       </c>
       <c r="D15" t="n">
-        <v>75.06740000000001</v>
+        <v>76.17059999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.5136</v>
+        <v>29.8225</v>
       </c>
       <c r="C16" t="n">
-        <v>56.8216</v>
+        <v>56.8376</v>
       </c>
       <c r="D16" t="n">
-        <v>75.339</v>
+        <v>74.1238</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.191</v>
+        <v>30.021</v>
       </c>
       <c r="C17" t="n">
-        <v>56.8369</v>
+        <v>57.0048</v>
       </c>
       <c r="D17" t="n">
-        <v>74.8972</v>
+        <v>74.50279999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0676</v>
+        <v>10.1245</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8998</v>
+        <v>18.9339</v>
       </c>
       <c r="D2" t="n">
-        <v>19.7849</v>
+        <v>19.676</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0062</v>
+        <v>10.0991</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5921</v>
+        <v>18.8688</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1411</v>
+        <v>23.509</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9988</v>
+        <v>12.1843</v>
       </c>
       <c r="C4" t="n">
-        <v>22.5231</v>
+        <v>23.1642</v>
       </c>
       <c r="D4" t="n">
-        <v>30.4658</v>
+        <v>31.0259</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9525</v>
+        <v>14.7613</v>
       </c>
       <c r="C5" t="n">
-        <v>27.5461</v>
+        <v>27.9029</v>
       </c>
       <c r="D5" t="n">
-        <v>37.8673</v>
+        <v>37.9162</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1828</v>
+        <v>17.8233</v>
       </c>
       <c r="C6" t="n">
-        <v>31.975</v>
+        <v>32.1448</v>
       </c>
       <c r="D6" t="n">
-        <v>44.7626</v>
+        <v>44.6052</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1365</v>
+        <v>21.7823</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3141</v>
+        <v>37.8729</v>
       </c>
       <c r="D7" t="n">
-        <v>50.4441</v>
+        <v>50.4525</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.2064</v>
+        <v>25.0096</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1953</v>
+        <v>40.6713</v>
       </c>
       <c r="D8" t="n">
-        <v>55.1607</v>
+        <v>57.4911</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6794</v>
+        <v>29.5413</v>
       </c>
       <c r="C9" t="n">
-        <v>44.0424</v>
+        <v>46.4969</v>
       </c>
       <c r="D9" t="n">
-        <v>60.647</v>
+        <v>60.4862</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9544</v>
+        <v>24.4392</v>
       </c>
       <c r="C10" t="n">
-        <v>43.4904</v>
+        <v>43.2798</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5115</v>
+        <v>54.5552</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9785</v>
+        <v>23.91</v>
       </c>
       <c r="C11" t="n">
-        <v>42.8477</v>
+        <v>44.1743</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7094</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.2023</v>
+        <v>25.6658</v>
       </c>
       <c r="C12" t="n">
-        <v>44.0307</v>
+        <v>44.856</v>
       </c>
       <c r="D12" t="n">
-        <v>59.4612</v>
+        <v>60.6672</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.2263</v>
+        <v>26.4158</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5218</v>
+        <v>46.2645</v>
       </c>
       <c r="D13" t="n">
-        <v>59.6771</v>
+        <v>59.7931</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2714</v>
+        <v>24.8765</v>
       </c>
       <c r="C14" t="n">
-        <v>44.3774</v>
+        <v>45.1874</v>
       </c>
       <c r="D14" t="n">
-        <v>62.4322</v>
+        <v>61.2476</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4987</v>
+        <v>24.7171</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1936</v>
+        <v>44.7248</v>
       </c>
       <c r="D15" t="n">
-        <v>63.1619</v>
+        <v>62.4881</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7577</v>
+        <v>24.7079</v>
       </c>
       <c r="C16" t="n">
-        <v>47.4103</v>
+        <v>45.9707</v>
       </c>
       <c r="D16" t="n">
-        <v>65.3184</v>
+        <v>65.5578</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.6332</v>
+        <v>24.5873</v>
       </c>
       <c r="C17" t="n">
-        <v>46.218</v>
+        <v>45.5216</v>
       </c>
       <c r="D17" t="n">
-        <v>64.0065</v>
+        <v>61.7505</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8786</v>
+        <v>10.838</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8441</v>
+        <v>18.9681</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6685</v>
+        <v>19.5927</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3204</v>
+        <v>10.3347</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1126</v>
+        <v>18.2277</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9522</v>
+        <v>22.9247</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.416</v>
+        <v>12.4461</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3369</v>
+        <v>22.7059</v>
       </c>
       <c r="D4" t="n">
-        <v>30.103</v>
+        <v>30.5022</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.997</v>
+        <v>15.0532</v>
       </c>
       <c r="C5" t="n">
-        <v>26.1871</v>
+        <v>26.9157</v>
       </c>
       <c r="D5" t="n">
-        <v>36.9149</v>
+        <v>36.8472</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.6084</v>
+        <v>18.5252</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4478</v>
+        <v>31.4177</v>
       </c>
       <c r="D6" t="n">
-        <v>44.8658</v>
+        <v>43.8062</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6533</v>
+        <v>21.9187</v>
       </c>
       <c r="C7" t="n">
-        <v>35.6195</v>
+        <v>37.3537</v>
       </c>
       <c r="D7" t="n">
-        <v>49.3192</v>
+        <v>49.5949</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6545</v>
+        <v>24.1911</v>
       </c>
       <c r="C8" t="n">
-        <v>39.7902</v>
+        <v>41.9979</v>
       </c>
       <c r="D8" t="n">
-        <v>56.123</v>
+        <v>54.6289</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.201</v>
+        <v>29.513</v>
       </c>
       <c r="C9" t="n">
-        <v>45.0556</v>
+        <v>46.251</v>
       </c>
       <c r="D9" t="n">
-        <v>59.438</v>
+        <v>59.7571</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5114</v>
+        <v>24.1031</v>
       </c>
       <c r="C10" t="n">
-        <v>42.4297</v>
+        <v>44.0835</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8385</v>
+        <v>54.7921</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5156</v>
+        <v>25.4139</v>
       </c>
       <c r="C11" t="n">
-        <v>42.4875</v>
+        <v>43.1047</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2816</v>
+        <v>57.2427</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.4159</v>
+        <v>26.3548</v>
       </c>
       <c r="C12" t="n">
-        <v>44.001</v>
+        <v>43.2533</v>
       </c>
       <c r="D12" t="n">
-        <v>57.416</v>
+        <v>55.2197</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5361</v>
+        <v>26.7154</v>
       </c>
       <c r="C13" t="n">
-        <v>46.0131</v>
+        <v>45.2369</v>
       </c>
       <c r="D13" t="n">
-        <v>59.359</v>
+        <v>61.4738</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2325</v>
+        <v>25.0946</v>
       </c>
       <c r="C14" t="n">
-        <v>42.7655</v>
+        <v>44.8372</v>
       </c>
       <c r="D14" t="n">
-        <v>60.9188</v>
+        <v>59.5697</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1052</v>
+        <v>25.5067</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1652</v>
+        <v>45.538</v>
       </c>
       <c r="D15" t="n">
-        <v>60.9071</v>
+        <v>60.2594</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.304</v>
+        <v>25.9988</v>
       </c>
       <c r="C16" t="n">
-        <v>43.57</v>
+        <v>44.2784</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1482</v>
+        <v>58.06</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7032</v>
+        <v>25.3581</v>
       </c>
       <c r="C17" t="n">
-        <v>45.5948</v>
+        <v>42.5587</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8418</v>
+        <v>63.2028</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1301</v>
+        <v>14.278</v>
       </c>
       <c r="C2" t="n">
-        <v>21.317</v>
+        <v>21.2866</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8451</v>
+        <v>20.5919</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0531</v>
+        <v>11.0521</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3295</v>
+        <v>19.4476</v>
       </c>
       <c r="D3" t="n">
-        <v>24.388</v>
+        <v>24.5205</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.3038</v>
+        <v>14.0493</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7256</v>
+        <v>24.6491</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5716</v>
+        <v>31.9153</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1795</v>
+        <v>17.1368</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2189</v>
+        <v>29.7275</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5911</v>
+        <v>38.394</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5769</v>
+        <v>20.4931</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9323</v>
+        <v>35.5262</v>
       </c>
       <c r="D6" t="n">
-        <v>46.1199</v>
+        <v>45.3401</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.9187</v>
+        <v>23.8056</v>
       </c>
       <c r="C7" t="n">
-        <v>39.7617</v>
+        <v>40.2128</v>
       </c>
       <c r="D7" t="n">
-        <v>50.7052</v>
+        <v>51.1509</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6847</v>
+        <v>27.5672</v>
       </c>
       <c r="C8" t="n">
-        <v>43.9196</v>
+        <v>44.8411</v>
       </c>
       <c r="D8" t="n">
-        <v>54.3271</v>
+        <v>54.531</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9155</v>
+        <v>31.8194</v>
       </c>
       <c r="C9" t="n">
-        <v>46.9429</v>
+        <v>48.1365</v>
       </c>
       <c r="D9" t="n">
-        <v>58.5461</v>
+        <v>59.8413</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7904</v>
+        <v>30.0362</v>
       </c>
       <c r="C10" t="n">
-        <v>46.9056</v>
+        <v>47.7207</v>
       </c>
       <c r="D10" t="n">
-        <v>56.2008</v>
+        <v>55.7728</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0855</v>
+        <v>28.3175</v>
       </c>
       <c r="C11" t="n">
-        <v>45.2197</v>
+        <v>47.1744</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4777</v>
+        <v>56.0402</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.064</v>
+        <v>29.0822</v>
       </c>
       <c r="C12" t="n">
-        <v>45.5635</v>
+        <v>48.1797</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2318</v>
+        <v>57.0001</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>31.0694</v>
+        <v>30.7502</v>
       </c>
       <c r="C13" t="n">
-        <v>46.7447</v>
+        <v>48.4586</v>
       </c>
       <c r="D13" t="n">
-        <v>56.6508</v>
+        <v>58.6928</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.5054</v>
+        <v>28.3061</v>
       </c>
       <c r="C14" t="n">
-        <v>47.2795</v>
+        <v>48.8744</v>
       </c>
       <c r="D14" t="n">
-        <v>58.4148</v>
+        <v>57.5694</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.8846</v>
+        <v>27.925</v>
       </c>
       <c r="C15" t="n">
-        <v>47.1594</v>
+        <v>49.6012</v>
       </c>
       <c r="D15" t="n">
-        <v>59.6674</v>
+        <v>56.9618</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2253</v>
+        <v>28.9044</v>
       </c>
       <c r="C16" t="n">
-        <v>48.1927</v>
+        <v>47.6374</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5919</v>
+        <v>53.4252</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.392</v>
+        <v>28.2346</v>
       </c>
       <c r="C17" t="n">
-        <v>46.5517</v>
+        <v>46.6595</v>
       </c>
       <c r="D17" t="n">
-        <v>55.8005</v>
+        <v>57.3809</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9254</v>
+        <v>4.0043</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6277</v>
+        <v>13.6818</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9996</v>
+        <v>17.2131</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49734</v>
+        <v>6.62686</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6585</v>
+        <v>18.7517</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9428</v>
+        <v>24.9662</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.37332</v>
+        <v>9.523669999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4933</v>
+        <v>24.6738</v>
       </c>
       <c r="D4" t="n">
-        <v>34.4945</v>
+        <v>34.6135</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2834</v>
+        <v>12.2236</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0936</v>
+        <v>30.4566</v>
       </c>
       <c r="D5" t="n">
-        <v>43.9962</v>
+        <v>43.8922</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0184</v>
+        <v>15.2159</v>
       </c>
       <c r="C6" t="n">
-        <v>36.039</v>
+        <v>35.8611</v>
       </c>
       <c r="D6" t="n">
-        <v>53.2843</v>
+        <v>53.4816</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9699</v>
+        <v>17.7835</v>
       </c>
       <c r="C7" t="n">
-        <v>42.0951</v>
+        <v>41.7254</v>
       </c>
       <c r="D7" t="n">
-        <v>62.4066</v>
+        <v>62.8141</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.0774</v>
+        <v>20.7925</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3218</v>
+        <v>47.4914</v>
       </c>
       <c r="D8" t="n">
-        <v>71.124</v>
+        <v>71.8075</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8488</v>
+        <v>23.8548</v>
       </c>
       <c r="C9" t="n">
-        <v>56.1925</v>
+        <v>56.9071</v>
       </c>
       <c r="D9" t="n">
-        <v>80.6519</v>
+        <v>80.93259999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9978</v>
+        <v>22.0238</v>
       </c>
       <c r="C10" t="n">
-        <v>51.8066</v>
+        <v>52.6249</v>
       </c>
       <c r="D10" t="n">
-        <v>70.24290000000001</v>
+        <v>72.764</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0677</v>
+        <v>21.7752</v>
       </c>
       <c r="C11" t="n">
-        <v>51.5035</v>
+        <v>52.421</v>
       </c>
       <c r="D11" t="n">
-        <v>70.5215</v>
+        <v>70.79900000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2959</v>
+        <v>21.9985</v>
       </c>
       <c r="C12" t="n">
-        <v>51.2418</v>
+        <v>52.3924</v>
       </c>
       <c r="D12" t="n">
-        <v>72.0749</v>
+        <v>72.42700000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7285</v>
+        <v>22.7696</v>
       </c>
       <c r="C13" t="n">
-        <v>53.237</v>
+        <v>53.5444</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9819</v>
+        <v>73.0626</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8174</v>
+        <v>21.9057</v>
       </c>
       <c r="C14" t="n">
-        <v>51.4737</v>
+        <v>51.8566</v>
       </c>
       <c r="D14" t="n">
-        <v>71.4057</v>
+        <v>71.705</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8793</v>
+        <v>23.2288</v>
       </c>
       <c r="C15" t="n">
-        <v>52.7067</v>
+        <v>52.7692</v>
       </c>
       <c r="D15" t="n">
-        <v>73.5744</v>
+        <v>72.1238</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0074</v>
+        <v>22.8075</v>
       </c>
       <c r="C16" t="n">
-        <v>52.649</v>
+        <v>54.3506</v>
       </c>
       <c r="D16" t="n">
-        <v>72.0912</v>
+        <v>72.8463</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8186</v>
+        <v>22.6402</v>
       </c>
       <c r="C17" t="n">
-        <v>52.3342</v>
+        <v>52.6271</v>
       </c>
       <c r="D17" t="n">
-        <v>73.2881</v>
+        <v>73.3651</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.04886</v>
+        <v>3.99115</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6005</v>
+        <v>13.5597</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2482</v>
+        <v>16.9975</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.62734</v>
+        <v>6.56487</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9937</v>
+        <v>18.0798</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7331</v>
+        <v>24.5879</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.466670000000001</v>
+        <v>9.40551</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9255</v>
+        <v>23.7496</v>
       </c>
       <c r="D4" t="n">
-        <v>34.2167</v>
+        <v>34.0871</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2775</v>
+        <v>12.2123</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2432</v>
+        <v>29.1267</v>
       </c>
       <c r="D5" t="n">
-        <v>43.2161</v>
+        <v>43.3154</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1401</v>
+        <v>15.122</v>
       </c>
       <c r="C6" t="n">
-        <v>35.1301</v>
+        <v>35.3065</v>
       </c>
       <c r="D6" t="n">
-        <v>52.7806</v>
+        <v>52.9646</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8246</v>
+        <v>17.9056</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8803</v>
+        <v>41.2665</v>
       </c>
       <c r="D7" t="n">
-        <v>62.0721</v>
+        <v>61.9753</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7926</v>
+        <v>20.714</v>
       </c>
       <c r="C8" t="n">
-        <v>46.7421</v>
+        <v>46.7662</v>
       </c>
       <c r="D8" t="n">
-        <v>70.8413</v>
+        <v>70.8751</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8357</v>
+        <v>24.0746</v>
       </c>
       <c r="C9" t="n">
-        <v>55.2297</v>
+        <v>55.4321</v>
       </c>
       <c r="D9" t="n">
-        <v>80.0942</v>
+        <v>80.45480000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3357</v>
+        <v>21.9208</v>
       </c>
       <c r="C10" t="n">
-        <v>50.9952</v>
+        <v>50.7356</v>
       </c>
       <c r="D10" t="n">
-        <v>69.8781</v>
+        <v>68.973</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9337</v>
+        <v>21.9054</v>
       </c>
       <c r="C11" t="n">
-        <v>51.0797</v>
+        <v>50.1498</v>
       </c>
       <c r="D11" t="n">
-        <v>68.4045</v>
+        <v>68.8348</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3943</v>
+        <v>22.3431</v>
       </c>
       <c r="C12" t="n">
-        <v>51.1729</v>
+        <v>51.465</v>
       </c>
       <c r="D12" t="n">
-        <v>71.4678</v>
+        <v>72.1135</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9781</v>
+        <v>22.755</v>
       </c>
       <c r="C13" t="n">
-        <v>51.2211</v>
+        <v>51.7524</v>
       </c>
       <c r="D13" t="n">
-        <v>72.5774</v>
+        <v>72.5137</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8998</v>
+        <v>21.8637</v>
       </c>
       <c r="C14" t="n">
-        <v>50.5107</v>
+        <v>50.5719</v>
       </c>
       <c r="D14" t="n">
-        <v>71.2337</v>
+        <v>71.5147</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.891</v>
+        <v>23.1093</v>
       </c>
       <c r="C15" t="n">
-        <v>50.6018</v>
+        <v>50.9647</v>
       </c>
       <c r="D15" t="n">
-        <v>72.46469999999999</v>
+        <v>72.70480000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0286</v>
+        <v>22.8362</v>
       </c>
       <c r="C16" t="n">
-        <v>51.3709</v>
+        <v>51.6575</v>
       </c>
       <c r="D16" t="n">
-        <v>71.7046</v>
+        <v>70.7236</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4849</v>
+        <v>22.4964</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8306</v>
+        <v>51.0655</v>
       </c>
       <c r="D17" t="n">
-        <v>71.74250000000001</v>
+        <v>71.9927</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.679639999999999</v>
+        <v>8.8086</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5499</v>
+        <v>19.4978</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5619</v>
+        <v>20.3288</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3924</v>
+        <v>10.4523</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9699</v>
+        <v>19.9168</v>
       </c>
       <c r="D3" t="n">
-        <v>27.0734</v>
+        <v>26.7221</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3815</v>
+        <v>13.4353</v>
       </c>
       <c r="C4" t="n">
-        <v>25.6385</v>
+        <v>25.8987</v>
       </c>
       <c r="D4" t="n">
-        <v>36.8376</v>
+        <v>36.6461</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4092</v>
+        <v>16.4589</v>
       </c>
       <c r="C5" t="n">
-        <v>31.8091</v>
+        <v>31.8958</v>
       </c>
       <c r="D5" t="n">
-        <v>45.7862</v>
+        <v>45.7759</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6212</v>
+        <v>19.6459</v>
       </c>
       <c r="C6" t="n">
-        <v>38.1509</v>
+        <v>38.4897</v>
       </c>
       <c r="D6" t="n">
-        <v>54.7483</v>
+        <v>54.6491</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7428</v>
+        <v>22.8962</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0804</v>
+        <v>45.2848</v>
       </c>
       <c r="D7" t="n">
-        <v>62.9219</v>
+        <v>62.7059</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4541</v>
+        <v>26.5849</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9921</v>
+        <v>52.4911</v>
       </c>
       <c r="D8" t="n">
-        <v>71.292</v>
+        <v>71.3116</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3652</v>
+        <v>31.2174</v>
       </c>
       <c r="C9" t="n">
-        <v>59.1911</v>
+        <v>59.8871</v>
       </c>
       <c r="D9" t="n">
-        <v>79.42910000000001</v>
+        <v>78.9038</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1986</v>
+        <v>29.2999</v>
       </c>
       <c r="C10" t="n">
-        <v>54.9089</v>
+        <v>55.0502</v>
       </c>
       <c r="D10" t="n">
-        <v>69.87569999999999</v>
+        <v>69.8236</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.7554</v>
+        <v>28.7032</v>
       </c>
       <c r="C11" t="n">
-        <v>55.2759</v>
+        <v>55.5746</v>
       </c>
       <c r="D11" t="n">
-        <v>72.3884</v>
+        <v>72.4149</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.2846</v>
+        <v>29.5678</v>
       </c>
       <c r="C12" t="n">
-        <v>56.2465</v>
+        <v>56.7088</v>
       </c>
       <c r="D12" t="n">
-        <v>73.81619999999999</v>
+        <v>72.9216</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8598</v>
+        <v>29.6705</v>
       </c>
       <c r="C13" t="n">
-        <v>56.7932</v>
+        <v>57.1098</v>
       </c>
       <c r="D13" t="n">
-        <v>74.2324</v>
+        <v>73.7299</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9381</v>
+        <v>28.8306</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0718</v>
+        <v>56.4124</v>
       </c>
       <c r="D14" t="n">
-        <v>74.7946</v>
+        <v>74.07640000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8239</v>
+        <v>29.887</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8655</v>
+        <v>57.2227</v>
       </c>
       <c r="D15" t="n">
-        <v>76.17059999999999</v>
+        <v>75.90309999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8225</v>
+        <v>29.6257</v>
       </c>
       <c r="C16" t="n">
-        <v>56.8376</v>
+        <v>57.1501</v>
       </c>
       <c r="D16" t="n">
-        <v>74.1238</v>
+        <v>74.4147</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.021</v>
+        <v>29.9877</v>
       </c>
       <c r="C17" t="n">
-        <v>57.0048</v>
+        <v>57.6458</v>
       </c>
       <c r="D17" t="n">
-        <v>74.50279999999999</v>
+        <v>75.1023</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1245</v>
+        <v>10.1194</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9339</v>
+        <v>18.9119</v>
       </c>
       <c r="D2" t="n">
-        <v>19.676</v>
+        <v>20.9896</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0991</v>
+        <v>10.1806</v>
       </c>
       <c r="C3" t="n">
-        <v>18.8688</v>
+        <v>18.5146</v>
       </c>
       <c r="D3" t="n">
-        <v>23.509</v>
+        <v>23.8728</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1843</v>
+        <v>12.1369</v>
       </c>
       <c r="C4" t="n">
-        <v>23.1642</v>
+        <v>22.529</v>
       </c>
       <c r="D4" t="n">
-        <v>31.0259</v>
+        <v>29.7285</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7613</v>
+        <v>14.6332</v>
       </c>
       <c r="C5" t="n">
-        <v>27.9029</v>
+        <v>27.2195</v>
       </c>
       <c r="D5" t="n">
-        <v>37.9162</v>
+        <v>36.6818</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8233</v>
+        <v>17.8901</v>
       </c>
       <c r="C6" t="n">
-        <v>32.1448</v>
+        <v>32.2106</v>
       </c>
       <c r="D6" t="n">
-        <v>44.6052</v>
+        <v>43.3317</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7823</v>
+        <v>21.5244</v>
       </c>
       <c r="C7" t="n">
-        <v>37.8729</v>
+        <v>37.6495</v>
       </c>
       <c r="D7" t="n">
-        <v>50.4525</v>
+        <v>47.3504</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0096</v>
+        <v>23.9615</v>
       </c>
       <c r="C8" t="n">
-        <v>40.6713</v>
+        <v>40.5546</v>
       </c>
       <c r="D8" t="n">
-        <v>57.4911</v>
+        <v>51.7517</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5413</v>
+        <v>29.2185</v>
       </c>
       <c r="C9" t="n">
-        <v>46.4969</v>
+        <v>45.1591</v>
       </c>
       <c r="D9" t="n">
-        <v>60.4862</v>
+        <v>56.8846</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.4392</v>
+        <v>25.6451</v>
       </c>
       <c r="C10" t="n">
-        <v>43.2798</v>
+        <v>43.9835</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5552</v>
+        <v>54.6036</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.91</v>
+        <v>24.6105</v>
       </c>
       <c r="C11" t="n">
-        <v>44.1743</v>
+        <v>42.6677</v>
       </c>
       <c r="D11" t="n">
-        <v>55.71</v>
+        <v>55.421</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6658</v>
+        <v>25.5956</v>
       </c>
       <c r="C12" t="n">
-        <v>44.856</v>
+        <v>44.7124</v>
       </c>
       <c r="D12" t="n">
-        <v>60.6672</v>
+        <v>59.5555</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4158</v>
+        <v>25.9382</v>
       </c>
       <c r="C13" t="n">
-        <v>46.2645</v>
+        <v>44.1948</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7931</v>
+        <v>56.4609</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8765</v>
+        <v>25.1263</v>
       </c>
       <c r="C14" t="n">
-        <v>45.1874</v>
+        <v>43.827</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2476</v>
+        <v>61.2644</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7171</v>
+        <v>24.2319</v>
       </c>
       <c r="C15" t="n">
-        <v>44.7248</v>
+        <v>44.8896</v>
       </c>
       <c r="D15" t="n">
-        <v>62.4881</v>
+        <v>61.9374</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7079</v>
+        <v>25.6457</v>
       </c>
       <c r="C16" t="n">
-        <v>45.9707</v>
+        <v>47.6426</v>
       </c>
       <c r="D16" t="n">
-        <v>65.5578</v>
+        <v>61.1014</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5873</v>
+        <v>25.1469</v>
       </c>
       <c r="C17" t="n">
-        <v>45.5216</v>
+        <v>45.3479</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7505</v>
+        <v>67.187</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.838</v>
+        <v>10.992</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9681</v>
+        <v>18.7632</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5927</v>
+        <v>20.7822</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3347</v>
+        <v>10.231</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2277</v>
+        <v>17.983</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9247</v>
+        <v>22.856</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4461</v>
+        <v>12.2788</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7059</v>
+        <v>22.4146</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5022</v>
+        <v>28.9928</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0532</v>
+        <v>14.6237</v>
       </c>
       <c r="C5" t="n">
-        <v>26.9157</v>
+        <v>26.4412</v>
       </c>
       <c r="D5" t="n">
-        <v>36.8472</v>
+        <v>35.9113</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5252</v>
+        <v>18.3269</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4177</v>
+        <v>31.6633</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8062</v>
+        <v>41.9441</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9187</v>
+        <v>21.9881</v>
       </c>
       <c r="C7" t="n">
-        <v>37.3537</v>
+        <v>35.8341</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5949</v>
+        <v>46.7016</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1911</v>
+        <v>24.6735</v>
       </c>
       <c r="C8" t="n">
-        <v>41.9979</v>
+        <v>40.3064</v>
       </c>
       <c r="D8" t="n">
-        <v>54.6289</v>
+        <v>50.6726</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.513</v>
+        <v>29.1377</v>
       </c>
       <c r="C9" t="n">
-        <v>46.251</v>
+        <v>45.8517</v>
       </c>
       <c r="D9" t="n">
-        <v>59.7571</v>
+        <v>55.4556</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1031</v>
+        <v>25.7451</v>
       </c>
       <c r="C10" t="n">
-        <v>44.0835</v>
+        <v>43.5163</v>
       </c>
       <c r="D10" t="n">
-        <v>54.7921</v>
+        <v>53.8289</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.4139</v>
+        <v>24.4325</v>
       </c>
       <c r="C11" t="n">
-        <v>43.1047</v>
+        <v>42.9022</v>
       </c>
       <c r="D11" t="n">
-        <v>57.2427</v>
+        <v>55.4619</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3548</v>
+        <v>25.3066</v>
       </c>
       <c r="C12" t="n">
-        <v>43.2533</v>
+        <v>41.8749</v>
       </c>
       <c r="D12" t="n">
-        <v>55.2197</v>
+        <v>58.087</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.7154</v>
+        <v>26.812</v>
       </c>
       <c r="C13" t="n">
-        <v>45.2369</v>
+        <v>42.6729</v>
       </c>
       <c r="D13" t="n">
-        <v>61.4738</v>
+        <v>57.8647</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0946</v>
+        <v>25.5568</v>
       </c>
       <c r="C14" t="n">
-        <v>44.8372</v>
+        <v>43.0186</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5697</v>
+        <v>55.1079</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5067</v>
+        <v>25.2864</v>
       </c>
       <c r="C15" t="n">
-        <v>45.538</v>
+        <v>44.223</v>
       </c>
       <c r="D15" t="n">
-        <v>60.2594</v>
+        <v>59.7526</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.9988</v>
+        <v>25.7853</v>
       </c>
       <c r="C16" t="n">
-        <v>44.2784</v>
+        <v>44.861</v>
       </c>
       <c r="D16" t="n">
-        <v>58.06</v>
+        <v>60.4328</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3581</v>
+        <v>26.2366</v>
       </c>
       <c r="C17" t="n">
-        <v>42.5587</v>
+        <v>46.504</v>
       </c>
       <c r="D17" t="n">
-        <v>63.2028</v>
+        <v>62.7602</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.278</v>
+        <v>14.1891</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2866</v>
+        <v>21.31</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5919</v>
+        <v>22.0051</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0521</v>
+        <v>11.1511</v>
       </c>
       <c r="C3" t="n">
-        <v>19.4476</v>
+        <v>19.5883</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5205</v>
+        <v>25.1631</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0493</v>
+        <v>14.1775</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6491</v>
+        <v>24.6876</v>
       </c>
       <c r="D4" t="n">
-        <v>31.9153</v>
+        <v>32.4791</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1368</v>
+        <v>17.1308</v>
       </c>
       <c r="C5" t="n">
-        <v>29.7275</v>
+        <v>30.2259</v>
       </c>
       <c r="D5" t="n">
-        <v>38.394</v>
+        <v>37.817</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.4931</v>
+        <v>20.5286</v>
       </c>
       <c r="C6" t="n">
-        <v>35.5262</v>
+        <v>34.7983</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3401</v>
+        <v>44.768</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.8056</v>
+        <v>24.0437</v>
       </c>
       <c r="C7" t="n">
-        <v>40.2128</v>
+        <v>40.3414</v>
       </c>
       <c r="D7" t="n">
-        <v>51.1509</v>
+        <v>49.6889</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5672</v>
+        <v>27.4368</v>
       </c>
       <c r="C8" t="n">
-        <v>44.8411</v>
+        <v>44.1131</v>
       </c>
       <c r="D8" t="n">
-        <v>54.531</v>
+        <v>52.2804</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8194</v>
+        <v>31.6744</v>
       </c>
       <c r="C9" t="n">
-        <v>48.1365</v>
+        <v>47.8243</v>
       </c>
       <c r="D9" t="n">
-        <v>59.8413</v>
+        <v>57.7959</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0362</v>
+        <v>30.0747</v>
       </c>
       <c r="C10" t="n">
-        <v>47.7207</v>
+        <v>46.1864</v>
       </c>
       <c r="D10" t="n">
-        <v>55.7728</v>
+        <v>55.8343</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3175</v>
+        <v>27.5981</v>
       </c>
       <c r="C11" t="n">
-        <v>47.1744</v>
+        <v>45.4512</v>
       </c>
       <c r="D11" t="n">
-        <v>56.0402</v>
+        <v>55.5231</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.0822</v>
+        <v>29.1801</v>
       </c>
       <c r="C12" t="n">
-        <v>48.1797</v>
+        <v>47.7916</v>
       </c>
       <c r="D12" t="n">
-        <v>57.0001</v>
+        <v>56.9427</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7502</v>
+        <v>30.6773</v>
       </c>
       <c r="C13" t="n">
-        <v>48.4586</v>
+        <v>48.0584</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6928</v>
+        <v>58.8154</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3061</v>
+        <v>28.8397</v>
       </c>
       <c r="C14" t="n">
-        <v>48.8744</v>
+        <v>49.2257</v>
       </c>
       <c r="D14" t="n">
-        <v>57.5694</v>
+        <v>59.1628</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.925</v>
+        <v>28.2484</v>
       </c>
       <c r="C15" t="n">
-        <v>49.6012</v>
+        <v>47.2593</v>
       </c>
       <c r="D15" t="n">
-        <v>56.9618</v>
+        <v>53.5503</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.9044</v>
+        <v>28.4061</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6374</v>
+        <v>47.4824</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4252</v>
+        <v>55.9662</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.2346</v>
+        <v>27.7649</v>
       </c>
       <c r="C17" t="n">
-        <v>46.6595</v>
+        <v>46.8297</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3809</v>
+        <v>54.3602</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0043</v>
+        <v>4.01568</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6818</v>
+        <v>13.7272</v>
       </c>
       <c r="D2" t="n">
-        <v>17.2131</v>
+        <v>18.1127</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.62686</v>
+        <v>6.61096</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7517</v>
+        <v>18.6525</v>
       </c>
       <c r="D3" t="n">
-        <v>24.9662</v>
+        <v>25.6063</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.523669999999999</v>
+        <v>9.42084</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6738</v>
+        <v>24.772</v>
       </c>
       <c r="D4" t="n">
-        <v>34.6135</v>
+        <v>34.9699</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2236</v>
+        <v>12.26</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4566</v>
+        <v>30.333</v>
       </c>
       <c r="D5" t="n">
-        <v>43.8922</v>
+        <v>44.5637</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2159</v>
+        <v>14.94</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8611</v>
+        <v>35.8306</v>
       </c>
       <c r="D6" t="n">
-        <v>53.4816</v>
+        <v>53.7225</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7835</v>
+        <v>17.9758</v>
       </c>
       <c r="C7" t="n">
-        <v>41.7254</v>
+        <v>41.7449</v>
       </c>
       <c r="D7" t="n">
-        <v>62.8141</v>
+        <v>62.5475</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7925</v>
+        <v>20.7498</v>
       </c>
       <c r="C8" t="n">
-        <v>47.4914</v>
+        <v>47.0707</v>
       </c>
       <c r="D8" t="n">
-        <v>71.8075</v>
+        <v>71.3766</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8548</v>
+        <v>23.7223</v>
       </c>
       <c r="C9" t="n">
-        <v>56.9071</v>
+        <v>56.8793</v>
       </c>
       <c r="D9" t="n">
-        <v>80.93259999999999</v>
+        <v>80.0478</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0238</v>
+        <v>21.8567</v>
       </c>
       <c r="C10" t="n">
-        <v>52.6249</v>
+        <v>51.7744</v>
       </c>
       <c r="D10" t="n">
-        <v>72.764</v>
+        <v>71.3783</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7752</v>
+        <v>21.8862</v>
       </c>
       <c r="C11" t="n">
-        <v>52.421</v>
+        <v>51.0424</v>
       </c>
       <c r="D11" t="n">
-        <v>70.79900000000001</v>
+        <v>70.2949</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.9985</v>
+        <v>22.1853</v>
       </c>
       <c r="C12" t="n">
-        <v>52.3924</v>
+        <v>51.6901</v>
       </c>
       <c r="D12" t="n">
-        <v>72.42700000000001</v>
+        <v>72.8601</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7696</v>
+        <v>22.7961</v>
       </c>
       <c r="C13" t="n">
-        <v>53.5444</v>
+        <v>53.306</v>
       </c>
       <c r="D13" t="n">
-        <v>73.0626</v>
+        <v>73.4722</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9057</v>
+        <v>21.7634</v>
       </c>
       <c r="C14" t="n">
-        <v>51.8566</v>
+        <v>52.1481</v>
       </c>
       <c r="D14" t="n">
-        <v>71.705</v>
+        <v>72.85120000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.2288</v>
+        <v>22.8123</v>
       </c>
       <c r="C15" t="n">
-        <v>52.7692</v>
+        <v>53.216</v>
       </c>
       <c r="D15" t="n">
-        <v>72.1238</v>
+        <v>72.726</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8075</v>
+        <v>22.72</v>
       </c>
       <c r="C16" t="n">
-        <v>54.3506</v>
+        <v>52.7541</v>
       </c>
       <c r="D16" t="n">
-        <v>72.8463</v>
+        <v>74.3074</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6402</v>
+        <v>22.5405</v>
       </c>
       <c r="C17" t="n">
-        <v>52.6271</v>
+        <v>53.459</v>
       </c>
       <c r="D17" t="n">
-        <v>73.3651</v>
+        <v>72.9923</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99115</v>
+        <v>3.9646</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5597</v>
+        <v>13.4664</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9975</v>
+        <v>17.9002</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.56487</v>
+        <v>6.52157</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0798</v>
+        <v>18.0182</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5879</v>
+        <v>25.0882</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40551</v>
+        <v>9.437720000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7496</v>
+        <v>23.9282</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0871</v>
+        <v>34.5289</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2123</v>
+        <v>12.2414</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1267</v>
+        <v>29.5464</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3154</v>
+        <v>43.7696</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.122</v>
+        <v>15.0816</v>
       </c>
       <c r="C6" t="n">
-        <v>35.3065</v>
+        <v>35.0817</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9646</v>
+        <v>52.9801</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9056</v>
+        <v>17.818</v>
       </c>
       <c r="C7" t="n">
-        <v>41.2665</v>
+        <v>40.963</v>
       </c>
       <c r="D7" t="n">
-        <v>61.9753</v>
+        <v>61.9154</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.714</v>
+        <v>20.5663</v>
       </c>
       <c r="C8" t="n">
-        <v>46.7662</v>
+        <v>46.7754</v>
       </c>
       <c r="D8" t="n">
-        <v>70.8751</v>
+        <v>70.34999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0746</v>
+        <v>23.7456</v>
       </c>
       <c r="C9" t="n">
-        <v>55.4321</v>
+        <v>54.764</v>
       </c>
       <c r="D9" t="n">
-        <v>80.45480000000001</v>
+        <v>79.8563</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9208</v>
+        <v>22.1739</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7356</v>
+        <v>48.8877</v>
       </c>
       <c r="D10" t="n">
-        <v>68.973</v>
+        <v>70.5363</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9054</v>
+        <v>21.843</v>
       </c>
       <c r="C11" t="n">
-        <v>50.1498</v>
+        <v>49.7322</v>
       </c>
       <c r="D11" t="n">
-        <v>68.8348</v>
+        <v>70.15309999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3431</v>
+        <v>22.3372</v>
       </c>
       <c r="C12" t="n">
-        <v>51.465</v>
+        <v>50.2678</v>
       </c>
       <c r="D12" t="n">
-        <v>72.1135</v>
+        <v>71.63339999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.755</v>
+        <v>22.6834</v>
       </c>
       <c r="C13" t="n">
-        <v>51.7524</v>
+        <v>51.7003</v>
       </c>
       <c r="D13" t="n">
-        <v>72.5137</v>
+        <v>72.93770000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8637</v>
+        <v>21.8423</v>
       </c>
       <c r="C14" t="n">
-        <v>50.5719</v>
+        <v>49.8163</v>
       </c>
       <c r="D14" t="n">
-        <v>71.5147</v>
+        <v>71.0123</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1093</v>
+        <v>22.8758</v>
       </c>
       <c r="C15" t="n">
-        <v>50.9647</v>
+        <v>51.5724</v>
       </c>
       <c r="D15" t="n">
-        <v>72.70480000000001</v>
+        <v>71.7728</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8362</v>
+        <v>22.9059</v>
       </c>
       <c r="C16" t="n">
-        <v>51.6575</v>
+        <v>50.6275</v>
       </c>
       <c r="D16" t="n">
-        <v>70.7236</v>
+        <v>73.435</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4964</v>
+        <v>23.171</v>
       </c>
       <c r="C17" t="n">
-        <v>51.0655</v>
+        <v>52.6503</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9927</v>
+        <v>72.30240000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.8086</v>
+        <v>8.64629</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4978</v>
+        <v>19.5885</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3288</v>
+        <v>21.6922</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4523</v>
+        <v>10.1199</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9168</v>
+        <v>19.9875</v>
       </c>
       <c r="D3" t="n">
-        <v>26.7221</v>
+        <v>27.5724</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.4353</v>
+        <v>13.2667</v>
       </c>
       <c r="C4" t="n">
-        <v>25.8987</v>
+        <v>25.7123</v>
       </c>
       <c r="D4" t="n">
-        <v>36.6461</v>
+        <v>37.2533</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4589</v>
+        <v>16.3604</v>
       </c>
       <c r="C5" t="n">
-        <v>31.8958</v>
+        <v>31.7793</v>
       </c>
       <c r="D5" t="n">
-        <v>45.7759</v>
+        <v>46.2941</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6459</v>
+        <v>19.487</v>
       </c>
       <c r="C6" t="n">
-        <v>38.4897</v>
+        <v>38.2774</v>
       </c>
       <c r="D6" t="n">
-        <v>54.6491</v>
+        <v>55.2396</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8962</v>
+        <v>22.8398</v>
       </c>
       <c r="C7" t="n">
-        <v>45.2848</v>
+        <v>45.0183</v>
       </c>
       <c r="D7" t="n">
-        <v>62.7059</v>
+        <v>63.0577</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5849</v>
+        <v>26.3933</v>
       </c>
       <c r="C8" t="n">
-        <v>52.4911</v>
+        <v>51.8621</v>
       </c>
       <c r="D8" t="n">
-        <v>71.3116</v>
+        <v>70.97969999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2174</v>
+        <v>31.1564</v>
       </c>
       <c r="C9" t="n">
-        <v>59.8871</v>
+        <v>59.6159</v>
       </c>
       <c r="D9" t="n">
-        <v>78.9038</v>
+        <v>78.191</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2999</v>
+        <v>29.5167</v>
       </c>
       <c r="C10" t="n">
-        <v>55.0502</v>
+        <v>55.8363</v>
       </c>
       <c r="D10" t="n">
-        <v>69.8236</v>
+        <v>70.1767</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.7032</v>
+        <v>29.1065</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5746</v>
+        <v>55.5698</v>
       </c>
       <c r="D11" t="n">
-        <v>72.4149</v>
+        <v>73.5069</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5678</v>
+        <v>29.5725</v>
       </c>
       <c r="C12" t="n">
-        <v>56.7088</v>
+        <v>56.1044</v>
       </c>
       <c r="D12" t="n">
-        <v>72.9216</v>
+        <v>74.5254</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6705</v>
+        <v>29.7222</v>
       </c>
       <c r="C13" t="n">
-        <v>57.1098</v>
+        <v>57.4658</v>
       </c>
       <c r="D13" t="n">
-        <v>73.7299</v>
+        <v>74.6242</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8306</v>
+        <v>28.8281</v>
       </c>
       <c r="C14" t="n">
-        <v>56.4124</v>
+        <v>56.4151</v>
       </c>
       <c r="D14" t="n">
-        <v>74.07640000000001</v>
+        <v>75.2692</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.887</v>
+        <v>29.8335</v>
       </c>
       <c r="C15" t="n">
-        <v>57.2227</v>
+        <v>57.7028</v>
       </c>
       <c r="D15" t="n">
-        <v>75.90309999999999</v>
+        <v>75.2744</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6257</v>
+        <v>29.7218</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1501</v>
+        <v>57.7124</v>
       </c>
       <c r="D16" t="n">
-        <v>74.4147</v>
+        <v>76.0304</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9877</v>
+        <v>30.177</v>
       </c>
       <c r="C17" t="n">
-        <v>57.6458</v>
+        <v>57.1961</v>
       </c>
       <c r="D17" t="n">
-        <v>75.1023</v>
+        <v>76.1782</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1194</v>
+        <v>10.1696</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9119</v>
+        <v>18.9569</v>
       </c>
       <c r="D2" t="n">
-        <v>20.9896</v>
+        <v>19.4124</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1806</v>
+        <v>9.9215</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5146</v>
+        <v>18.3145</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8728</v>
+        <v>22.5081</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1369</v>
+        <v>12.0557</v>
       </c>
       <c r="C4" t="n">
-        <v>22.529</v>
+        <v>22.7189</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7285</v>
+        <v>29.2336</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6332</v>
+        <v>15.0959</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2195</v>
+        <v>27.4503</v>
       </c>
       <c r="D5" t="n">
-        <v>36.6818</v>
+        <v>35.6281</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8901</v>
+        <v>18.0476</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2106</v>
+        <v>31.2592</v>
       </c>
       <c r="D6" t="n">
-        <v>43.3317</v>
+        <v>41.6692</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5244</v>
+        <v>21.2563</v>
       </c>
       <c r="C7" t="n">
-        <v>37.6495</v>
+        <v>36.933</v>
       </c>
       <c r="D7" t="n">
-        <v>47.3504</v>
+        <v>47.2788</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.9615</v>
+        <v>23.9455</v>
       </c>
       <c r="C8" t="n">
-        <v>40.5546</v>
+        <v>39.8477</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7517</v>
+        <v>50.8041</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2185</v>
+        <v>29.6992</v>
       </c>
       <c r="C9" t="n">
-        <v>45.1591</v>
+        <v>44.9331</v>
       </c>
       <c r="D9" t="n">
-        <v>56.8846</v>
+        <v>56.1851</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.6451</v>
+        <v>24.3239</v>
       </c>
       <c r="C10" t="n">
-        <v>43.9835</v>
+        <v>42.8017</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6036</v>
+        <v>53.2569</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6105</v>
+        <v>24.9417</v>
       </c>
       <c r="C11" t="n">
-        <v>42.6677</v>
+        <v>42.6568</v>
       </c>
       <c r="D11" t="n">
-        <v>55.421</v>
+        <v>53.8335</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5956</v>
+        <v>25.7431</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7124</v>
+        <v>44.7978</v>
       </c>
       <c r="D12" t="n">
-        <v>59.5555</v>
+        <v>56.1436</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9382</v>
+        <v>26.5912</v>
       </c>
       <c r="C13" t="n">
-        <v>44.1948</v>
+        <v>44.4189</v>
       </c>
       <c r="D13" t="n">
-        <v>56.4609</v>
+        <v>57.9004</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.1263</v>
+        <v>25.3068</v>
       </c>
       <c r="C14" t="n">
-        <v>43.827</v>
+        <v>45.4422</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2644</v>
+        <v>58.2428</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.2319</v>
+        <v>24.8876</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8896</v>
+        <v>46.1344</v>
       </c>
       <c r="D15" t="n">
-        <v>61.9374</v>
+        <v>62.3047</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6457</v>
+        <v>24.6955</v>
       </c>
       <c r="C16" t="n">
-        <v>47.6426</v>
+        <v>45.9795</v>
       </c>
       <c r="D16" t="n">
-        <v>61.1014</v>
+        <v>62.7484</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1469</v>
+        <v>25.4833</v>
       </c>
       <c r="C17" t="n">
-        <v>45.3479</v>
+        <v>46.7087</v>
       </c>
       <c r="D17" t="n">
-        <v>67.187</v>
+        <v>62.0168</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.992</v>
+        <v>10.976</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7632</v>
+        <v>18.7569</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7822</v>
+        <v>19.2687</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.231</v>
+        <v>10.3221</v>
       </c>
       <c r="C3" t="n">
-        <v>17.983</v>
+        <v>18.1621</v>
       </c>
       <c r="D3" t="n">
-        <v>22.856</v>
+        <v>22.3178</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2788</v>
+        <v>12.2534</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4146</v>
+        <v>22.6014</v>
       </c>
       <c r="D4" t="n">
-        <v>28.9928</v>
+        <v>29.1269</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6237</v>
+        <v>14.8291</v>
       </c>
       <c r="C5" t="n">
-        <v>26.4412</v>
+        <v>26.7238</v>
       </c>
       <c r="D5" t="n">
-        <v>35.9113</v>
+        <v>34.805</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3269</v>
+        <v>18.4377</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6633</v>
+        <v>31.6877</v>
       </c>
       <c r="D6" t="n">
-        <v>41.9441</v>
+        <v>40.7279</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9881</v>
+        <v>21.5302</v>
       </c>
       <c r="C7" t="n">
-        <v>35.8341</v>
+        <v>36.8368</v>
       </c>
       <c r="D7" t="n">
-        <v>46.7016</v>
+        <v>45.9326</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6735</v>
+        <v>24.5883</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3064</v>
+        <v>39.5161</v>
       </c>
       <c r="D8" t="n">
-        <v>50.6726</v>
+        <v>49.9479</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1377</v>
+        <v>29.6312</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8517</v>
+        <v>43.6369</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4556</v>
+        <v>55.0821</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7451</v>
+        <v>24.6181</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5163</v>
+        <v>43.394</v>
       </c>
       <c r="D10" t="n">
-        <v>53.8289</v>
+        <v>54.6623</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4325</v>
+        <v>25.1186</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9022</v>
+        <v>42.6338</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4619</v>
+        <v>54.434</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3066</v>
+        <v>25.7848</v>
       </c>
       <c r="C12" t="n">
-        <v>41.8749</v>
+        <v>44.3576</v>
       </c>
       <c r="D12" t="n">
-        <v>58.087</v>
+        <v>56.3529</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.812</v>
+        <v>26.2549</v>
       </c>
       <c r="C13" t="n">
-        <v>42.6729</v>
+        <v>43.4991</v>
       </c>
       <c r="D13" t="n">
-        <v>57.8647</v>
+        <v>57.6641</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.5568</v>
+        <v>25.7198</v>
       </c>
       <c r="C14" t="n">
-        <v>43.0186</v>
+        <v>42.5628</v>
       </c>
       <c r="D14" t="n">
-        <v>55.1079</v>
+        <v>59.7023</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2864</v>
+        <v>24.6314</v>
       </c>
       <c r="C15" t="n">
-        <v>44.223</v>
+        <v>42.2805</v>
       </c>
       <c r="D15" t="n">
-        <v>59.7526</v>
+        <v>59.3408</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7853</v>
+        <v>25.0009</v>
       </c>
       <c r="C16" t="n">
-        <v>44.861</v>
+        <v>44.8108</v>
       </c>
       <c r="D16" t="n">
-        <v>60.4328</v>
+        <v>57.5328</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2366</v>
+        <v>25.953</v>
       </c>
       <c r="C17" t="n">
-        <v>46.504</v>
+        <v>47.0759</v>
       </c>
       <c r="D17" t="n">
-        <v>62.7602</v>
+        <v>61.7386</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1891</v>
+        <v>14.2603</v>
       </c>
       <c r="C2" t="n">
-        <v>21.31</v>
+        <v>21.2197</v>
       </c>
       <c r="D2" t="n">
-        <v>22.0051</v>
+        <v>20.3584</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1511</v>
+        <v>11.4015</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5883</v>
+        <v>19.8072</v>
       </c>
       <c r="D3" t="n">
-        <v>25.1631</v>
+        <v>24.422</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1775</v>
+        <v>14.235</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6876</v>
+        <v>24.9895</v>
       </c>
       <c r="D4" t="n">
-        <v>32.4791</v>
+        <v>31.7132</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1308</v>
+        <v>17.0401</v>
       </c>
       <c r="C5" t="n">
-        <v>30.2259</v>
+        <v>29.4396</v>
       </c>
       <c r="D5" t="n">
-        <v>37.817</v>
+        <v>39.1282</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5286</v>
+        <v>20.6808</v>
       </c>
       <c r="C6" t="n">
-        <v>34.7983</v>
+        <v>35.3763</v>
       </c>
       <c r="D6" t="n">
-        <v>44.768</v>
+        <v>44.9141</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.0437</v>
+        <v>24.3677</v>
       </c>
       <c r="C7" t="n">
-        <v>40.3414</v>
+        <v>40.566</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6889</v>
+        <v>49.6756</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4368</v>
+        <v>27.6935</v>
       </c>
       <c r="C8" t="n">
-        <v>44.1131</v>
+        <v>42.3545</v>
       </c>
       <c r="D8" t="n">
-        <v>52.2804</v>
+        <v>52.2588</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.6744</v>
+        <v>31.743</v>
       </c>
       <c r="C9" t="n">
-        <v>47.8243</v>
+        <v>47.1737</v>
       </c>
       <c r="D9" t="n">
-        <v>57.7959</v>
+        <v>56.661</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0747</v>
+        <v>29.7839</v>
       </c>
       <c r="C10" t="n">
-        <v>46.1864</v>
+        <v>47.2668</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8343</v>
+        <v>54.9797</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5981</v>
+        <v>28.0429</v>
       </c>
       <c r="C11" t="n">
-        <v>45.4512</v>
+        <v>45.2763</v>
       </c>
       <c r="D11" t="n">
-        <v>55.5231</v>
+        <v>54.0994</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1801</v>
+        <v>28.7957</v>
       </c>
       <c r="C12" t="n">
-        <v>47.7916</v>
+        <v>47.0528</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9427</v>
+        <v>56.8569</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.6773</v>
+        <v>30.0784</v>
       </c>
       <c r="C13" t="n">
-        <v>48.0584</v>
+        <v>48.9621</v>
       </c>
       <c r="D13" t="n">
-        <v>58.8154</v>
+        <v>59.3512</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8397</v>
+        <v>27.8993</v>
       </c>
       <c r="C14" t="n">
-        <v>49.2257</v>
+        <v>48.7055</v>
       </c>
       <c r="D14" t="n">
-        <v>59.1628</v>
+        <v>56.793</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2484</v>
+        <v>27.7186</v>
       </c>
       <c r="C15" t="n">
-        <v>47.2593</v>
+        <v>48.1632</v>
       </c>
       <c r="D15" t="n">
-        <v>53.5503</v>
+        <v>56.4985</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.4061</v>
+        <v>29.4416</v>
       </c>
       <c r="C16" t="n">
-        <v>47.4824</v>
+        <v>48.7732</v>
       </c>
       <c r="D16" t="n">
-        <v>55.9662</v>
+        <v>56.2407</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7649</v>
+        <v>27.5785</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8297</v>
+        <v>45.0841</v>
       </c>
       <c r="D17" t="n">
-        <v>54.3602</v>
+        <v>55.2438</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01568</v>
+        <v>3.91441</v>
       </c>
       <c r="C2" t="n">
-        <v>13.7272</v>
+        <v>13.6064</v>
       </c>
       <c r="D2" t="n">
-        <v>18.1127</v>
+        <v>16.7374</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.61096</v>
+        <v>6.44955</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6525</v>
+        <v>18.5177</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6063</v>
+        <v>24.4454</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.42084</v>
+        <v>9.51329</v>
       </c>
       <c r="C4" t="n">
-        <v>24.772</v>
+        <v>24.6333</v>
       </c>
       <c r="D4" t="n">
-        <v>34.9699</v>
+        <v>34.1324</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.26</v>
+        <v>12.2662</v>
       </c>
       <c r="C5" t="n">
-        <v>30.333</v>
+        <v>30.1772</v>
       </c>
       <c r="D5" t="n">
-        <v>44.5637</v>
+        <v>42.9538</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.94</v>
+        <v>15.1537</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8306</v>
+        <v>35.8169</v>
       </c>
       <c r="D6" t="n">
-        <v>53.7225</v>
+        <v>52.3808</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9758</v>
+        <v>17.8813</v>
       </c>
       <c r="C7" t="n">
-        <v>41.7449</v>
+        <v>41.4695</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5475</v>
+        <v>60.9446</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7498</v>
+        <v>20.695</v>
       </c>
       <c r="C8" t="n">
-        <v>47.0707</v>
+        <v>47.1121</v>
       </c>
       <c r="D8" t="n">
-        <v>71.3766</v>
+        <v>69.3295</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7223</v>
+        <v>23.8296</v>
       </c>
       <c r="C9" t="n">
-        <v>56.8793</v>
+        <v>56.7055</v>
       </c>
       <c r="D9" t="n">
-        <v>80.0478</v>
+        <v>77.5937</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8567</v>
+        <v>22.3123</v>
       </c>
       <c r="C10" t="n">
-        <v>51.7744</v>
+        <v>52.899</v>
       </c>
       <c r="D10" t="n">
-        <v>71.3783</v>
+        <v>70.5292</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8862</v>
+        <v>21.5303</v>
       </c>
       <c r="C11" t="n">
-        <v>51.0424</v>
+        <v>51.8318</v>
       </c>
       <c r="D11" t="n">
-        <v>70.2949</v>
+        <v>69.03570000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1853</v>
+        <v>22.1647</v>
       </c>
       <c r="C12" t="n">
-        <v>51.6901</v>
+        <v>51.5378</v>
       </c>
       <c r="D12" t="n">
-        <v>72.8601</v>
+        <v>69.7687</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7961</v>
+        <v>22.8519</v>
       </c>
       <c r="C13" t="n">
-        <v>53.306</v>
+        <v>52.3405</v>
       </c>
       <c r="D13" t="n">
-        <v>73.4722</v>
+        <v>73.0519</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7634</v>
+        <v>21.6981</v>
       </c>
       <c r="C14" t="n">
-        <v>52.1481</v>
+        <v>51.2605</v>
       </c>
       <c r="D14" t="n">
-        <v>72.85120000000001</v>
+        <v>70.845</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8123</v>
+        <v>23.0118</v>
       </c>
       <c r="C15" t="n">
-        <v>53.216</v>
+        <v>51.8322</v>
       </c>
       <c r="D15" t="n">
-        <v>72.726</v>
+        <v>72.3122</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.72</v>
+        <v>22.7936</v>
       </c>
       <c r="C16" t="n">
-        <v>52.7541</v>
+        <v>52.022</v>
       </c>
       <c r="D16" t="n">
-        <v>74.3074</v>
+        <v>71.31010000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5405</v>
+        <v>22.6251</v>
       </c>
       <c r="C17" t="n">
-        <v>53.459</v>
+        <v>53.4282</v>
       </c>
       <c r="D17" t="n">
-        <v>72.9923</v>
+        <v>71.67</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9646</v>
+        <v>4.05818</v>
       </c>
       <c r="C2" t="n">
-        <v>13.4664</v>
+        <v>13.6518</v>
       </c>
       <c r="D2" t="n">
-        <v>17.9002</v>
+        <v>16.9845</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52157</v>
+        <v>6.6376</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0182</v>
+        <v>17.953</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0882</v>
+        <v>24.3039</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.437720000000001</v>
+        <v>9.476369999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9282</v>
+        <v>23.9955</v>
       </c>
       <c r="D4" t="n">
-        <v>34.5289</v>
+        <v>33.7379</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2414</v>
+        <v>12.2226</v>
       </c>
       <c r="C5" t="n">
-        <v>29.5464</v>
+        <v>29.2173</v>
       </c>
       <c r="D5" t="n">
-        <v>43.7696</v>
+        <v>42.7542</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0816</v>
+        <v>15.0863</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0817</v>
+        <v>34.8794</v>
       </c>
       <c r="D6" t="n">
-        <v>52.9801</v>
+        <v>51.5947</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.818</v>
+        <v>17.8346</v>
       </c>
       <c r="C7" t="n">
-        <v>40.963</v>
+        <v>40.8824</v>
       </c>
       <c r="D7" t="n">
-        <v>61.9154</v>
+        <v>60.6906</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5663</v>
+        <v>20.456</v>
       </c>
       <c r="C8" t="n">
-        <v>46.7754</v>
+        <v>46.8547</v>
       </c>
       <c r="D8" t="n">
-        <v>70.34999999999999</v>
+        <v>69.4208</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7456</v>
+        <v>23.9732</v>
       </c>
       <c r="C9" t="n">
-        <v>54.764</v>
+        <v>54.696</v>
       </c>
       <c r="D9" t="n">
-        <v>79.8563</v>
+        <v>77.526</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1739</v>
+        <v>22.3409</v>
       </c>
       <c r="C10" t="n">
-        <v>48.8877</v>
+        <v>49.4616</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5363</v>
+        <v>70.3339</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.843</v>
+        <v>22.1628</v>
       </c>
       <c r="C11" t="n">
-        <v>49.7322</v>
+        <v>49.9608</v>
       </c>
       <c r="D11" t="n">
-        <v>70.15309999999999</v>
+        <v>69.89490000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3372</v>
+        <v>22.0222</v>
       </c>
       <c r="C12" t="n">
-        <v>50.2678</v>
+        <v>51.0968</v>
       </c>
       <c r="D12" t="n">
-        <v>71.63339999999999</v>
+        <v>69.1388</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6834</v>
+        <v>22.9012</v>
       </c>
       <c r="C13" t="n">
-        <v>51.7003</v>
+        <v>51.1528</v>
       </c>
       <c r="D13" t="n">
-        <v>72.93770000000001</v>
+        <v>69.8342</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8423</v>
+        <v>22.0524</v>
       </c>
       <c r="C14" t="n">
-        <v>49.8163</v>
+        <v>49.3469</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0123</v>
+        <v>69.66240000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8758</v>
+        <v>22.6789</v>
       </c>
       <c r="C15" t="n">
-        <v>51.5724</v>
+        <v>50.7707</v>
       </c>
       <c r="D15" t="n">
-        <v>71.7728</v>
+        <v>69.8651</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9059</v>
+        <v>22.6501</v>
       </c>
       <c r="C16" t="n">
-        <v>50.6275</v>
+        <v>51.2692</v>
       </c>
       <c r="D16" t="n">
-        <v>73.435</v>
+        <v>71.24890000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.171</v>
+        <v>22.954</v>
       </c>
       <c r="C17" t="n">
-        <v>52.6503</v>
+        <v>50.108</v>
       </c>
       <c r="D17" t="n">
-        <v>72.30240000000001</v>
+        <v>70.063</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.64629</v>
+        <v>8.69575</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5885</v>
+        <v>19.5081</v>
       </c>
       <c r="D2" t="n">
-        <v>21.6922</v>
+        <v>20.0908</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1199</v>
+        <v>10.4258</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9875</v>
+        <v>19.9839</v>
       </c>
       <c r="D3" t="n">
-        <v>27.5724</v>
+        <v>26.4681</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2667</v>
+        <v>13.296</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7123</v>
+        <v>25.7717</v>
       </c>
       <c r="D4" t="n">
-        <v>37.2533</v>
+        <v>36.1298</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3604</v>
+        <v>16.33</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7793</v>
+        <v>31.7575</v>
       </c>
       <c r="D5" t="n">
-        <v>46.2941</v>
+        <v>45.1239</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.487</v>
+        <v>19.532</v>
       </c>
       <c r="C6" t="n">
-        <v>38.2774</v>
+        <v>37.9727</v>
       </c>
       <c r="D6" t="n">
-        <v>55.2396</v>
+        <v>54.2671</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8398</v>
+        <v>22.8322</v>
       </c>
       <c r="C7" t="n">
-        <v>45.0183</v>
+        <v>44.9676</v>
       </c>
       <c r="D7" t="n">
-        <v>63.0577</v>
+        <v>62.6293</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.3933</v>
+        <v>26.4334</v>
       </c>
       <c r="C8" t="n">
-        <v>51.8621</v>
+        <v>52.065</v>
       </c>
       <c r="D8" t="n">
-        <v>70.97969999999999</v>
+        <v>70.0545</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1564</v>
+        <v>31.3592</v>
       </c>
       <c r="C9" t="n">
-        <v>59.6159</v>
+        <v>59.4397</v>
       </c>
       <c r="D9" t="n">
-        <v>78.191</v>
+        <v>77.24290000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.5167</v>
+        <v>29.1519</v>
       </c>
       <c r="C10" t="n">
-        <v>55.8363</v>
+        <v>55.7339</v>
       </c>
       <c r="D10" t="n">
-        <v>70.1767</v>
+        <v>69.1966</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1065</v>
+        <v>28.9757</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5698</v>
+        <v>55.5758</v>
       </c>
       <c r="D11" t="n">
-        <v>73.5069</v>
+        <v>70.2688</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5725</v>
+        <v>29.3068</v>
       </c>
       <c r="C12" t="n">
-        <v>56.1044</v>
+        <v>55.6166</v>
       </c>
       <c r="D12" t="n">
-        <v>74.5254</v>
+        <v>73.20610000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7222</v>
+        <v>29.9016</v>
       </c>
       <c r="C13" t="n">
-        <v>57.4658</v>
+        <v>57.2804</v>
       </c>
       <c r="D13" t="n">
-        <v>74.6242</v>
+        <v>73.5784</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8281</v>
+        <v>28.9597</v>
       </c>
       <c r="C14" t="n">
-        <v>56.4151</v>
+        <v>56.5903</v>
       </c>
       <c r="D14" t="n">
-        <v>75.2692</v>
+        <v>73.5711</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8335</v>
+        <v>29.5982</v>
       </c>
       <c r="C15" t="n">
-        <v>57.7028</v>
+        <v>56.8108</v>
       </c>
       <c r="D15" t="n">
-        <v>75.2744</v>
+        <v>74.2638</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7218</v>
+        <v>29.9904</v>
       </c>
       <c r="C16" t="n">
-        <v>57.7124</v>
+        <v>57.8076</v>
       </c>
       <c r="D16" t="n">
-        <v>76.0304</v>
+        <v>74.8257</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.177</v>
+        <v>30.0093</v>
       </c>
       <c r="C17" t="n">
-        <v>57.1961</v>
+        <v>56.2671</v>
       </c>
       <c r="D17" t="n">
-        <v>76.1782</v>
+        <v>73.42100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1696</v>
+        <v>10.147</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9569</v>
+        <v>18.9782</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4124</v>
+        <v>19.4226</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.9215</v>
+        <v>9.89676</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3145</v>
+        <v>18.2856</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5081</v>
+        <v>22.8678</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0557</v>
+        <v>12.395</v>
       </c>
       <c r="C4" t="n">
-        <v>22.7189</v>
+        <v>22.789</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2336</v>
+        <v>29.7784</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0959</v>
+        <v>14.8337</v>
       </c>
       <c r="C5" t="n">
-        <v>27.4503</v>
+        <v>27.0078</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6281</v>
+        <v>35.5029</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0476</v>
+        <v>17.8098</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2592</v>
+        <v>32.2342</v>
       </c>
       <c r="D6" t="n">
-        <v>41.6692</v>
+        <v>41.5016</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2563</v>
+        <v>21.4602</v>
       </c>
       <c r="C7" t="n">
-        <v>36.933</v>
+        <v>37.4018</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2788</v>
+        <v>45.5961</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.9455</v>
+        <v>24.5251</v>
       </c>
       <c r="C8" t="n">
-        <v>39.8477</v>
+        <v>39.9483</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8041</v>
+        <v>50.5289</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6992</v>
+        <v>28.8421</v>
       </c>
       <c r="C9" t="n">
-        <v>44.9331</v>
+        <v>45.1988</v>
       </c>
       <c r="D9" t="n">
-        <v>56.1851</v>
+        <v>56.9125</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3239</v>
+        <v>25.3926</v>
       </c>
       <c r="C10" t="n">
-        <v>42.8017</v>
+        <v>43.5762</v>
       </c>
       <c r="D10" t="n">
-        <v>53.2569</v>
+        <v>54.8132</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9417</v>
+        <v>24.2754</v>
       </c>
       <c r="C11" t="n">
-        <v>42.6568</v>
+        <v>42.9253</v>
       </c>
       <c r="D11" t="n">
-        <v>53.8335</v>
+        <v>56.7419</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7431</v>
+        <v>25.4062</v>
       </c>
       <c r="C12" t="n">
-        <v>44.7978</v>
+        <v>43.5983</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1436</v>
+        <v>55.3712</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5912</v>
+        <v>27.1307</v>
       </c>
       <c r="C13" t="n">
-        <v>44.4189</v>
+        <v>44.1868</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9004</v>
+        <v>57.0738</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3068</v>
+        <v>24.8861</v>
       </c>
       <c r="C14" t="n">
-        <v>45.4422</v>
+        <v>45.3343</v>
       </c>
       <c r="D14" t="n">
-        <v>58.2428</v>
+        <v>59.8191</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8876</v>
+        <v>24.8058</v>
       </c>
       <c r="C15" t="n">
-        <v>46.1344</v>
+        <v>44.525</v>
       </c>
       <c r="D15" t="n">
-        <v>62.3047</v>
+        <v>59.6708</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.6955</v>
+        <v>24.3871</v>
       </c>
       <c r="C16" t="n">
-        <v>45.9795</v>
+        <v>46.0408</v>
       </c>
       <c r="D16" t="n">
-        <v>62.7484</v>
+        <v>61.0258</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4833</v>
+        <v>25.0951</v>
       </c>
       <c r="C17" t="n">
-        <v>46.7087</v>
+        <v>47.1231</v>
       </c>
       <c r="D17" t="n">
-        <v>62.0168</v>
+        <v>58.0669</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.976</v>
+        <v>10.9655</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7569</v>
+        <v>18.7296</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2687</v>
+        <v>19.264</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3221</v>
+        <v>10.3561</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1621</v>
+        <v>18.0633</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3178</v>
+        <v>22.253</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2534</v>
+        <v>12.4296</v>
       </c>
       <c r="C4" t="n">
-        <v>22.6014</v>
+        <v>22.3027</v>
       </c>
       <c r="D4" t="n">
-        <v>29.1269</v>
+        <v>29.4942</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8291</v>
+        <v>15.3816</v>
       </c>
       <c r="C5" t="n">
-        <v>26.7238</v>
+        <v>27.1298</v>
       </c>
       <c r="D5" t="n">
-        <v>34.805</v>
+        <v>33.9387</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4377</v>
+        <v>18.4758</v>
       </c>
       <c r="C6" t="n">
-        <v>31.6877</v>
+        <v>31.4179</v>
       </c>
       <c r="D6" t="n">
-        <v>40.7279</v>
+        <v>41.1971</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5302</v>
+        <v>21.8909</v>
       </c>
       <c r="C7" t="n">
-        <v>36.8368</v>
+        <v>36.0653</v>
       </c>
       <c r="D7" t="n">
-        <v>45.9326</v>
+        <v>46.2956</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.5883</v>
+        <v>24.4594</v>
       </c>
       <c r="C8" t="n">
-        <v>39.5161</v>
+        <v>39.7255</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9479</v>
+        <v>50.4658</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6312</v>
+        <v>29.6468</v>
       </c>
       <c r="C9" t="n">
-        <v>43.6369</v>
+        <v>42.9709</v>
       </c>
       <c r="D9" t="n">
-        <v>55.0821</v>
+        <v>55.1069</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6181</v>
+        <v>24.8804</v>
       </c>
       <c r="C10" t="n">
-        <v>43.394</v>
+        <v>41.9305</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6623</v>
+        <v>53.4958</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1186</v>
+        <v>25.3771</v>
       </c>
       <c r="C11" t="n">
-        <v>42.6338</v>
+        <v>42.6161</v>
       </c>
       <c r="D11" t="n">
-        <v>54.434</v>
+        <v>55.0262</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7848</v>
+        <v>26.1001</v>
       </c>
       <c r="C12" t="n">
-        <v>44.3576</v>
+        <v>42.5948</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3529</v>
+        <v>56.1024</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2549</v>
+        <v>26.2654</v>
       </c>
       <c r="C13" t="n">
-        <v>43.4991</v>
+        <v>43.7474</v>
       </c>
       <c r="D13" t="n">
-        <v>57.6641</v>
+        <v>58.3993</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.7198</v>
+        <v>25.9291</v>
       </c>
       <c r="C14" t="n">
-        <v>42.5628</v>
+        <v>42.95</v>
       </c>
       <c r="D14" t="n">
-        <v>59.7023</v>
+        <v>55.8627</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6314</v>
+        <v>25.409</v>
       </c>
       <c r="C15" t="n">
-        <v>42.2805</v>
+        <v>43.3053</v>
       </c>
       <c r="D15" t="n">
-        <v>59.3408</v>
+        <v>59.8234</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0009</v>
+        <v>26.2522</v>
       </c>
       <c r="C16" t="n">
-        <v>44.8108</v>
+        <v>43.0864</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5328</v>
+        <v>60.0538</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.953</v>
+        <v>25.1391</v>
       </c>
       <c r="C17" t="n">
-        <v>47.0759</v>
+        <v>43.6218</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7386</v>
+        <v>62.4206</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2603</v>
+        <v>14.3117</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2197</v>
+        <v>21.3187</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3584</v>
+        <v>20.3847</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4015</v>
+        <v>11.1328</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8072</v>
+        <v>19.5778</v>
       </c>
       <c r="D3" t="n">
-        <v>24.422</v>
+        <v>24.5623</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.235</v>
+        <v>14.1896</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9895</v>
+        <v>24.9309</v>
       </c>
       <c r="D4" t="n">
-        <v>31.7132</v>
+        <v>31.8813</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0401</v>
+        <v>17.1154</v>
       </c>
       <c r="C5" t="n">
-        <v>29.4396</v>
+        <v>29.8016</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1282</v>
+        <v>37.3782</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6808</v>
+        <v>20.8642</v>
       </c>
       <c r="C6" t="n">
-        <v>35.3763</v>
+        <v>34.8366</v>
       </c>
       <c r="D6" t="n">
-        <v>44.9141</v>
+        <v>43.9909</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.3677</v>
+        <v>24.4424</v>
       </c>
       <c r="C7" t="n">
-        <v>40.566</v>
+        <v>40.7793</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6756</v>
+        <v>49.4758</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6935</v>
+        <v>27.5904</v>
       </c>
       <c r="C8" t="n">
-        <v>42.3545</v>
+        <v>42.7278</v>
       </c>
       <c r="D8" t="n">
-        <v>52.2588</v>
+        <v>52.9667</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.743</v>
+        <v>31.7753</v>
       </c>
       <c r="C9" t="n">
-        <v>47.1737</v>
+        <v>48.208</v>
       </c>
       <c r="D9" t="n">
-        <v>56.661</v>
+        <v>54.4984</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7839</v>
+        <v>29.207</v>
       </c>
       <c r="C10" t="n">
-        <v>47.2668</v>
+        <v>46.8453</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9797</v>
+        <v>54.4025</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.0429</v>
+        <v>27.6112</v>
       </c>
       <c r="C11" t="n">
-        <v>45.2763</v>
+        <v>45.5143</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0994</v>
+        <v>55.1796</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7957</v>
+        <v>29.5736</v>
       </c>
       <c r="C12" t="n">
-        <v>47.0528</v>
+        <v>45.3358</v>
       </c>
       <c r="D12" t="n">
-        <v>56.8569</v>
+        <v>55.0649</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0784</v>
+        <v>30.6138</v>
       </c>
       <c r="C13" t="n">
-        <v>48.9621</v>
+        <v>50.0274</v>
       </c>
       <c r="D13" t="n">
-        <v>59.3512</v>
+        <v>55.6538</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8993</v>
+        <v>28.3608</v>
       </c>
       <c r="C14" t="n">
-        <v>48.7055</v>
+        <v>47.8996</v>
       </c>
       <c r="D14" t="n">
-        <v>56.793</v>
+        <v>53.8515</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7186</v>
+        <v>27.7089</v>
       </c>
       <c r="C15" t="n">
-        <v>48.1632</v>
+        <v>47.4346</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4985</v>
+        <v>57.4502</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4416</v>
+        <v>28.4009</v>
       </c>
       <c r="C16" t="n">
-        <v>48.7732</v>
+        <v>45.7738</v>
       </c>
       <c r="D16" t="n">
-        <v>56.2407</v>
+        <v>55.2386</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.5785</v>
+        <v>28.1971</v>
       </c>
       <c r="C17" t="n">
-        <v>45.0841</v>
+        <v>47.2247</v>
       </c>
       <c r="D17" t="n">
-        <v>55.2438</v>
+        <v>56.2476</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.91441</v>
+        <v>3.94419</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6064</v>
+        <v>13.6187</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7374</v>
+        <v>16.7676</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.44955</v>
+        <v>6.50868</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5177</v>
+        <v>18.7573</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4454</v>
+        <v>24.6891</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.51329</v>
+        <v>9.408329999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6333</v>
+        <v>24.7202</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1324</v>
+        <v>34.0436</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2662</v>
+        <v>12.2323</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1772</v>
+        <v>30.097</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9538</v>
+        <v>43.0987</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1537</v>
+        <v>15.0756</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8169</v>
+        <v>36.0109</v>
       </c>
       <c r="D6" t="n">
-        <v>52.3808</v>
+        <v>52.2037</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8813</v>
+        <v>18.0139</v>
       </c>
       <c r="C7" t="n">
-        <v>41.4695</v>
+        <v>42.0377</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9446</v>
+        <v>61.4213</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.695</v>
+        <v>20.9412</v>
       </c>
       <c r="C8" t="n">
-        <v>47.1121</v>
+        <v>47.3168</v>
       </c>
       <c r="D8" t="n">
-        <v>69.3295</v>
+        <v>69.7636</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8296</v>
+        <v>23.788</v>
       </c>
       <c r="C9" t="n">
-        <v>56.7055</v>
+        <v>56.6009</v>
       </c>
       <c r="D9" t="n">
-        <v>77.5937</v>
+        <v>78.51819999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3123</v>
+        <v>22.167</v>
       </c>
       <c r="C10" t="n">
-        <v>52.899</v>
+        <v>51.957</v>
       </c>
       <c r="D10" t="n">
-        <v>70.5292</v>
+        <v>71.10469999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5303</v>
+        <v>21.722</v>
       </c>
       <c r="C11" t="n">
-        <v>51.8318</v>
+        <v>50.6349</v>
       </c>
       <c r="D11" t="n">
-        <v>69.03570000000001</v>
+        <v>68.6426</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1647</v>
+        <v>22.2461</v>
       </c>
       <c r="C12" t="n">
-        <v>51.5378</v>
+        <v>52.1209</v>
       </c>
       <c r="D12" t="n">
-        <v>69.7687</v>
+        <v>70.5269</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8519</v>
+        <v>22.7802</v>
       </c>
       <c r="C13" t="n">
-        <v>52.3405</v>
+        <v>52.6327</v>
       </c>
       <c r="D13" t="n">
-        <v>73.0519</v>
+        <v>71.57810000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6981</v>
+        <v>21.8959</v>
       </c>
       <c r="C14" t="n">
-        <v>51.2605</v>
+        <v>51.976</v>
       </c>
       <c r="D14" t="n">
-        <v>70.845</v>
+        <v>71.4864</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0118</v>
+        <v>22.8311</v>
       </c>
       <c r="C15" t="n">
-        <v>51.8322</v>
+        <v>53.4096</v>
       </c>
       <c r="D15" t="n">
-        <v>72.3122</v>
+        <v>72.6109</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7936</v>
+        <v>22.9679</v>
       </c>
       <c r="C16" t="n">
-        <v>52.022</v>
+        <v>53.0451</v>
       </c>
       <c r="D16" t="n">
-        <v>71.31010000000001</v>
+        <v>70.5261</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6251</v>
+        <v>23.2245</v>
       </c>
       <c r="C17" t="n">
-        <v>53.4282</v>
+        <v>53.1427</v>
       </c>
       <c r="D17" t="n">
-        <v>71.67</v>
+        <v>71.7375</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.05818</v>
+        <v>4.04843</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6518</v>
+        <v>13.6432</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9845</v>
+        <v>17.0206</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.6376</v>
+        <v>6.5836</v>
       </c>
       <c r="C3" t="n">
-        <v>17.953</v>
+        <v>17.9426</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3039</v>
+        <v>24.3236</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.476369999999999</v>
+        <v>9.40428</v>
       </c>
       <c r="C4" t="n">
-        <v>23.9955</v>
+        <v>23.859</v>
       </c>
       <c r="D4" t="n">
-        <v>33.7379</v>
+        <v>33.6615</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2226</v>
+        <v>12.1952</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2173</v>
+        <v>29.1497</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7542</v>
+        <v>42.7045</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0863</v>
+        <v>15.0648</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8794</v>
+        <v>35.0006</v>
       </c>
       <c r="D6" t="n">
-        <v>51.5947</v>
+        <v>51.6644</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8346</v>
+        <v>17.9138</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8824</v>
+        <v>41.113</v>
       </c>
       <c r="D7" t="n">
-        <v>60.6906</v>
+        <v>60.879</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.456</v>
+        <v>20.7336</v>
       </c>
       <c r="C8" t="n">
-        <v>46.8547</v>
+        <v>47.2536</v>
       </c>
       <c r="D8" t="n">
-        <v>69.4208</v>
+        <v>69.0363</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9732</v>
+        <v>23.9645</v>
       </c>
       <c r="C9" t="n">
-        <v>54.696</v>
+        <v>55.4263</v>
       </c>
       <c r="D9" t="n">
-        <v>77.526</v>
+        <v>77.583</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3409</v>
+        <v>22.1335</v>
       </c>
       <c r="C10" t="n">
-        <v>49.4616</v>
+        <v>51.3677</v>
       </c>
       <c r="D10" t="n">
-        <v>70.3339</v>
+        <v>69.57980000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.1628</v>
+        <v>22.1227</v>
       </c>
       <c r="C11" t="n">
-        <v>49.9608</v>
+        <v>50.1028</v>
       </c>
       <c r="D11" t="n">
-        <v>69.89490000000001</v>
+        <v>68.7302</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0222</v>
+        <v>22.2384</v>
       </c>
       <c r="C12" t="n">
-        <v>51.0968</v>
+        <v>50.3031</v>
       </c>
       <c r="D12" t="n">
-        <v>69.1388</v>
+        <v>70.53530000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9012</v>
+        <v>22.9453</v>
       </c>
       <c r="C13" t="n">
-        <v>51.1528</v>
+        <v>51.3117</v>
       </c>
       <c r="D13" t="n">
-        <v>69.8342</v>
+        <v>71.23009999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0524</v>
+        <v>21.9194</v>
       </c>
       <c r="C14" t="n">
-        <v>49.3469</v>
+        <v>50.0367</v>
       </c>
       <c r="D14" t="n">
-        <v>69.66240000000001</v>
+        <v>69.0975</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6789</v>
+        <v>22.7965</v>
       </c>
       <c r="C15" t="n">
-        <v>50.7707</v>
+        <v>51.06</v>
       </c>
       <c r="D15" t="n">
-        <v>69.8651</v>
+        <v>70.5608</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6501</v>
+        <v>22.8082</v>
       </c>
       <c r="C16" t="n">
-        <v>51.2692</v>
+        <v>52.0544</v>
       </c>
       <c r="D16" t="n">
-        <v>71.24890000000001</v>
+        <v>71.7285</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.954</v>
+        <v>23.3804</v>
       </c>
       <c r="C17" t="n">
-        <v>50.108</v>
+        <v>50.8852</v>
       </c>
       <c r="D17" t="n">
-        <v>70.063</v>
+        <v>71.7513</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69575</v>
+        <v>8.643000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5081</v>
+        <v>19.6779</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0908</v>
+        <v>20.1573</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4258</v>
+        <v>10.1703</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9839</v>
+        <v>20.0313</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4681</v>
+        <v>26.3743</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.296</v>
+        <v>13.2602</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7717</v>
+        <v>25.7321</v>
       </c>
       <c r="D4" t="n">
-        <v>36.1298</v>
+        <v>36.1051</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.33</v>
+        <v>16.4004</v>
       </c>
       <c r="C5" t="n">
-        <v>31.7575</v>
+        <v>31.6188</v>
       </c>
       <c r="D5" t="n">
-        <v>45.1239</v>
+        <v>45.137</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.532</v>
+        <v>19.6638</v>
       </c>
       <c r="C6" t="n">
-        <v>37.9727</v>
+        <v>38.1567</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2671</v>
+        <v>53.5604</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8322</v>
+        <v>22.9134</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9676</v>
+        <v>44.8637</v>
       </c>
       <c r="D7" t="n">
-        <v>62.6293</v>
+        <v>62.1994</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4334</v>
+        <v>26.558</v>
       </c>
       <c r="C8" t="n">
-        <v>52.065</v>
+        <v>52.1621</v>
       </c>
       <c r="D8" t="n">
-        <v>70.0545</v>
+        <v>69.69329999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3592</v>
+        <v>31.3715</v>
       </c>
       <c r="C9" t="n">
-        <v>59.4397</v>
+        <v>59.57</v>
       </c>
       <c r="D9" t="n">
-        <v>77.24290000000001</v>
+        <v>77.95829999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1519</v>
+        <v>29.1457</v>
       </c>
       <c r="C10" t="n">
-        <v>55.7339</v>
+        <v>54.819</v>
       </c>
       <c r="D10" t="n">
-        <v>69.1966</v>
+        <v>70.50920000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.9757</v>
+        <v>28.77</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5758</v>
+        <v>55.0992</v>
       </c>
       <c r="D11" t="n">
-        <v>70.2688</v>
+        <v>70.62390000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3068</v>
+        <v>29.4816</v>
       </c>
       <c r="C12" t="n">
-        <v>55.6166</v>
+        <v>56.2915</v>
       </c>
       <c r="D12" t="n">
-        <v>73.20610000000001</v>
+        <v>73.5331</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9016</v>
+        <v>29.7729</v>
       </c>
       <c r="C13" t="n">
-        <v>57.2804</v>
+        <v>57.4347</v>
       </c>
       <c r="D13" t="n">
-        <v>73.5784</v>
+        <v>74.6101</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9597</v>
+        <v>28.6468</v>
       </c>
       <c r="C14" t="n">
-        <v>56.5903</v>
+        <v>56.2477</v>
       </c>
       <c r="D14" t="n">
-        <v>73.5711</v>
+        <v>73.8421</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.5982</v>
+        <v>29.6666</v>
       </c>
       <c r="C15" t="n">
-        <v>56.8108</v>
+        <v>56.723</v>
       </c>
       <c r="D15" t="n">
-        <v>74.2638</v>
+        <v>75.31440000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.9904</v>
+        <v>29.9275</v>
       </c>
       <c r="C16" t="n">
-        <v>57.8076</v>
+        <v>57.3753</v>
       </c>
       <c r="D16" t="n">
-        <v>74.8257</v>
+        <v>75.0825</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.0093</v>
+        <v>29.8898</v>
       </c>
       <c r="C17" t="n">
-        <v>56.2671</v>
+        <v>57.3531</v>
       </c>
       <c r="D17" t="n">
-        <v>73.42100000000001</v>
+        <v>73.1071</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.147</v>
+        <v>10.2267</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9782</v>
+        <v>18.951</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4226</v>
+        <v>19.3808</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.89676</v>
+        <v>9.843120000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2856</v>
+        <v>18.2462</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8678</v>
+        <v>22.4797</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.395</v>
+        <v>12.1156</v>
       </c>
       <c r="C4" t="n">
-        <v>22.789</v>
+        <v>23.0478</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7784</v>
+        <v>29.6124</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8337</v>
+        <v>14.4303</v>
       </c>
       <c r="C5" t="n">
-        <v>27.0078</v>
+        <v>27.1873</v>
       </c>
       <c r="D5" t="n">
-        <v>35.5029</v>
+        <v>36.0158</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8098</v>
+        <v>17.852</v>
       </c>
       <c r="C6" t="n">
-        <v>32.2342</v>
+        <v>31.8483</v>
       </c>
       <c r="D6" t="n">
-        <v>41.5016</v>
+        <v>41.8441</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4602</v>
+        <v>21.9511</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4018</v>
+        <v>37.2557</v>
       </c>
       <c r="D7" t="n">
-        <v>45.5961</v>
+        <v>48.3912</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.5251</v>
+        <v>25.0001</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9483</v>
+        <v>40.1835</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5289</v>
+        <v>50.8082</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8421</v>
+        <v>29.2138</v>
       </c>
       <c r="C9" t="n">
-        <v>45.1988</v>
+        <v>45.1897</v>
       </c>
       <c r="D9" t="n">
-        <v>56.9125</v>
+        <v>56.3976</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3926</v>
+        <v>25.1926</v>
       </c>
       <c r="C10" t="n">
-        <v>43.5762</v>
+        <v>43.2647</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8132</v>
+        <v>53.3715</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.2754</v>
+        <v>24.6857</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9253</v>
+        <v>43.7626</v>
       </c>
       <c r="D11" t="n">
-        <v>56.7419</v>
+        <v>55.0226</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4062</v>
+        <v>25.4251</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5983</v>
+        <v>43.7242</v>
       </c>
       <c r="D12" t="n">
-        <v>55.3712</v>
+        <v>56.2988</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1307</v>
+        <v>25.8293</v>
       </c>
       <c r="C13" t="n">
-        <v>44.1868</v>
+        <v>46.0454</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0738</v>
+        <v>58.6403</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8861</v>
+        <v>25.2053</v>
       </c>
       <c r="C14" t="n">
-        <v>45.3343</v>
+        <v>43.5597</v>
       </c>
       <c r="D14" t="n">
-        <v>59.8191</v>
+        <v>60.0427</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8058</v>
+        <v>25.2527</v>
       </c>
       <c r="C15" t="n">
-        <v>44.525</v>
+        <v>45.3437</v>
       </c>
       <c r="D15" t="n">
-        <v>59.6708</v>
+        <v>62.1659</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.3871</v>
+        <v>25.5828</v>
       </c>
       <c r="C16" t="n">
-        <v>46.0408</v>
+        <v>45.2888</v>
       </c>
       <c r="D16" t="n">
-        <v>61.0258</v>
+        <v>60.1085</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.0951</v>
+        <v>24.7039</v>
       </c>
       <c r="C17" t="n">
-        <v>47.1231</v>
+        <v>47.3715</v>
       </c>
       <c r="D17" t="n">
-        <v>58.0669</v>
+        <v>60.581</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9655</v>
+        <v>10.8923</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7296</v>
+        <v>18.767</v>
       </c>
       <c r="D2" t="n">
-        <v>19.264</v>
+        <v>19.2635</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3561</v>
+        <v>10.4368</v>
       </c>
       <c r="C3" t="n">
-        <v>18.0633</v>
+        <v>18.1286</v>
       </c>
       <c r="D3" t="n">
-        <v>22.253</v>
+        <v>22.5866</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4296</v>
+        <v>12.269</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3027</v>
+        <v>21.9991</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4942</v>
+        <v>29.4459</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3816</v>
+        <v>14.7442</v>
       </c>
       <c r="C5" t="n">
-        <v>27.1298</v>
+        <v>26.3821</v>
       </c>
       <c r="D5" t="n">
-        <v>33.9387</v>
+        <v>36.1939</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4758</v>
+        <v>17.908</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4179</v>
+        <v>30.8736</v>
       </c>
       <c r="D6" t="n">
-        <v>41.1971</v>
+        <v>42.1466</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8909</v>
+        <v>22.4078</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0653</v>
+        <v>36.0092</v>
       </c>
       <c r="D7" t="n">
-        <v>46.2956</v>
+        <v>47.3159</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4594</v>
+        <v>24.6617</v>
       </c>
       <c r="C8" t="n">
-        <v>39.7255</v>
+        <v>40.2022</v>
       </c>
       <c r="D8" t="n">
-        <v>50.4658</v>
+        <v>53.5973</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6468</v>
+        <v>29.5841</v>
       </c>
       <c r="C9" t="n">
-        <v>42.9709</v>
+        <v>44.4106</v>
       </c>
       <c r="D9" t="n">
-        <v>55.1069</v>
+        <v>55.5573</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8804</v>
+        <v>25.9297</v>
       </c>
       <c r="C10" t="n">
-        <v>41.9305</v>
+        <v>42.0344</v>
       </c>
       <c r="D10" t="n">
-        <v>53.4958</v>
+        <v>54.2885</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.3771</v>
+        <v>25.9368</v>
       </c>
       <c r="C11" t="n">
-        <v>42.6161</v>
+        <v>41.4423</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0262</v>
+        <v>55.4383</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.1001</v>
+        <v>25.5996</v>
       </c>
       <c r="C12" t="n">
-        <v>42.5948</v>
+        <v>43.9827</v>
       </c>
       <c r="D12" t="n">
-        <v>56.1024</v>
+        <v>57.7312</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2654</v>
+        <v>27.2245</v>
       </c>
       <c r="C13" t="n">
-        <v>43.7474</v>
+        <v>44.5369</v>
       </c>
       <c r="D13" t="n">
-        <v>58.3993</v>
+        <v>58.8213</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.9291</v>
+        <v>25.0393</v>
       </c>
       <c r="C14" t="n">
-        <v>42.95</v>
+        <v>43.9178</v>
       </c>
       <c r="D14" t="n">
-        <v>55.8627</v>
+        <v>58.19</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.409</v>
+        <v>24.7416</v>
       </c>
       <c r="C15" t="n">
-        <v>43.3053</v>
+        <v>41.9712</v>
       </c>
       <c r="D15" t="n">
-        <v>59.8234</v>
+        <v>60.5971</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.2522</v>
+        <v>25.5033</v>
       </c>
       <c r="C16" t="n">
-        <v>43.0864</v>
+        <v>43.7993</v>
       </c>
       <c r="D16" t="n">
-        <v>60.0538</v>
+        <v>62.1195</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1391</v>
+        <v>25.0078</v>
       </c>
       <c r="C17" t="n">
-        <v>43.6218</v>
+        <v>44.68</v>
       </c>
       <c r="D17" t="n">
-        <v>62.4206</v>
+        <v>59.9062</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3117</v>
+        <v>14.2873</v>
       </c>
       <c r="C2" t="n">
-        <v>21.3187</v>
+        <v>21.2917</v>
       </c>
       <c r="D2" t="n">
-        <v>20.3847</v>
+        <v>20.2893</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1328</v>
+        <v>11.3445</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5778</v>
+        <v>19.2187</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5623</v>
+        <v>24.306</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1896</v>
+        <v>14.0536</v>
       </c>
       <c r="C4" t="n">
-        <v>24.9309</v>
+        <v>24.7063</v>
       </c>
       <c r="D4" t="n">
-        <v>31.8813</v>
+        <v>31.5755</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1154</v>
+        <v>17.2395</v>
       </c>
       <c r="C5" t="n">
-        <v>29.8016</v>
+        <v>30.0012</v>
       </c>
       <c r="D5" t="n">
-        <v>37.3782</v>
+        <v>38.4713</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8642</v>
+        <v>20.7566</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8366</v>
+        <v>35.0803</v>
       </c>
       <c r="D6" t="n">
-        <v>43.9909</v>
+        <v>42.587</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4424</v>
+        <v>24.406</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7793</v>
+        <v>39.9133</v>
       </c>
       <c r="D7" t="n">
-        <v>49.4758</v>
+        <v>49.2594</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5904</v>
+        <v>27.6082</v>
       </c>
       <c r="C8" t="n">
-        <v>42.7278</v>
+        <v>44.4213</v>
       </c>
       <c r="D8" t="n">
-        <v>52.9667</v>
+        <v>52.4896</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7753</v>
+        <v>31.8294</v>
       </c>
       <c r="C9" t="n">
-        <v>48.208</v>
+        <v>48.191</v>
       </c>
       <c r="D9" t="n">
-        <v>54.4984</v>
+        <v>57.0606</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.207</v>
+        <v>29.7628</v>
       </c>
       <c r="C10" t="n">
-        <v>46.8453</v>
+        <v>44.7975</v>
       </c>
       <c r="D10" t="n">
-        <v>54.4025</v>
+        <v>55.9724</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.6112</v>
+        <v>27.7762</v>
       </c>
       <c r="C11" t="n">
-        <v>45.5143</v>
+        <v>45.8458</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1796</v>
+        <v>55.9163</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5736</v>
+        <v>28.9521</v>
       </c>
       <c r="C12" t="n">
-        <v>45.3358</v>
+        <v>45.2405</v>
       </c>
       <c r="D12" t="n">
-        <v>55.0649</v>
+        <v>56.6634</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.6138</v>
+        <v>29.9083</v>
       </c>
       <c r="C13" t="n">
-        <v>50.0274</v>
+        <v>49.0382</v>
       </c>
       <c r="D13" t="n">
-        <v>55.6538</v>
+        <v>56.2837</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3608</v>
+        <v>28.901</v>
       </c>
       <c r="C14" t="n">
-        <v>47.8996</v>
+        <v>48.2183</v>
       </c>
       <c r="D14" t="n">
-        <v>53.8515</v>
+        <v>57.2633</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7089</v>
+        <v>27.7265</v>
       </c>
       <c r="C15" t="n">
-        <v>47.4346</v>
+        <v>47.4165</v>
       </c>
       <c r="D15" t="n">
-        <v>57.4502</v>
+        <v>53.6192</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.4009</v>
+        <v>28.5586</v>
       </c>
       <c r="C16" t="n">
-        <v>45.7738</v>
+        <v>46.4076</v>
       </c>
       <c r="D16" t="n">
-        <v>55.2386</v>
+        <v>57.3569</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1971</v>
+        <v>28.1211</v>
       </c>
       <c r="C17" t="n">
-        <v>47.2247</v>
+        <v>45.2019</v>
       </c>
       <c r="D17" t="n">
-        <v>56.2476</v>
+        <v>54.262</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94419</v>
+        <v>3.97423</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6187</v>
+        <v>13.6315</v>
       </c>
       <c r="D2" t="n">
-        <v>16.7676</v>
+        <v>16.839</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.50868</v>
+        <v>6.49571</v>
       </c>
       <c r="C3" t="n">
-        <v>18.7573</v>
+        <v>18.4729</v>
       </c>
       <c r="D3" t="n">
-        <v>24.6891</v>
+        <v>24.5279</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.408329999999999</v>
+        <v>9.445679999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7202</v>
+        <v>24.5318</v>
       </c>
       <c r="D4" t="n">
-        <v>34.0436</v>
+        <v>33.8829</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2323</v>
+        <v>12.34</v>
       </c>
       <c r="C5" t="n">
-        <v>30.097</v>
+        <v>30.004</v>
       </c>
       <c r="D5" t="n">
-        <v>43.0987</v>
+        <v>42.9943</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0756</v>
+        <v>15.0846</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0109</v>
+        <v>35.7478</v>
       </c>
       <c r="D6" t="n">
-        <v>52.2037</v>
+        <v>52.0284</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0139</v>
+        <v>17.9337</v>
       </c>
       <c r="C7" t="n">
-        <v>42.0377</v>
+        <v>41.5887</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4213</v>
+        <v>60.9143</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9412</v>
+        <v>20.7685</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3168</v>
+        <v>47.3044</v>
       </c>
       <c r="D8" t="n">
-        <v>69.7636</v>
+        <v>69.8824</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.788</v>
+        <v>23.8253</v>
       </c>
       <c r="C9" t="n">
-        <v>56.6009</v>
+        <v>56.1969</v>
       </c>
       <c r="D9" t="n">
-        <v>78.51819999999999</v>
+        <v>78.17870000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.167</v>
+        <v>21.8366</v>
       </c>
       <c r="C10" t="n">
-        <v>51.957</v>
+        <v>51.3303</v>
       </c>
       <c r="D10" t="n">
-        <v>71.10469999999999</v>
+        <v>70.91160000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.722</v>
+        <v>22.1391</v>
       </c>
       <c r="C11" t="n">
-        <v>50.6349</v>
+        <v>50.9816</v>
       </c>
       <c r="D11" t="n">
-        <v>68.6426</v>
+        <v>68.61879999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2461</v>
+        <v>22.2401</v>
       </c>
       <c r="C12" t="n">
-        <v>52.1209</v>
+        <v>51.8873</v>
       </c>
       <c r="D12" t="n">
-        <v>70.5269</v>
+        <v>71.39100000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7802</v>
+        <v>22.7963</v>
       </c>
       <c r="C13" t="n">
-        <v>52.6327</v>
+        <v>52.7006</v>
       </c>
       <c r="D13" t="n">
-        <v>71.57810000000001</v>
+        <v>71.77370000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8959</v>
+        <v>21.7975</v>
       </c>
       <c r="C14" t="n">
-        <v>51.976</v>
+        <v>51.876</v>
       </c>
       <c r="D14" t="n">
-        <v>71.4864</v>
+        <v>71.4081</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8311</v>
+        <v>22.682</v>
       </c>
       <c r="C15" t="n">
-        <v>53.4096</v>
+        <v>51.5622</v>
       </c>
       <c r="D15" t="n">
-        <v>72.6109</v>
+        <v>72.8907</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9679</v>
+        <v>22.718</v>
       </c>
       <c r="C16" t="n">
-        <v>53.0451</v>
+        <v>52.8651</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5261</v>
+        <v>71.4498</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.2245</v>
+        <v>22.614</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1427</v>
+        <v>52.4403</v>
       </c>
       <c r="D17" t="n">
-        <v>71.7375</v>
+        <v>73.5029</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.04843</v>
+        <v>4.00943</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6432</v>
+        <v>13.5162</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0206</v>
+        <v>16.8848</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.5836</v>
+        <v>6.53297</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9426</v>
+        <v>17.9665</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3236</v>
+        <v>24.1909</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40428</v>
+        <v>9.471019999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.859</v>
+        <v>23.773</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6615</v>
+        <v>33.6686</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1952</v>
+        <v>12.2403</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1497</v>
+        <v>28.9438</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7045</v>
+        <v>42.5385</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0648</v>
+        <v>15.2099</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0006</v>
+        <v>34.7201</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6644</v>
+        <v>51.6142</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9138</v>
+        <v>17.9351</v>
       </c>
       <c r="C7" t="n">
-        <v>41.113</v>
+        <v>40.7243</v>
       </c>
       <c r="D7" t="n">
-        <v>60.879</v>
+        <v>60.4823</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7336</v>
+        <v>20.8004</v>
       </c>
       <c r="C8" t="n">
-        <v>47.2536</v>
+        <v>46.8474</v>
       </c>
       <c r="D8" t="n">
-        <v>69.0363</v>
+        <v>69.8506</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9645</v>
+        <v>23.8687</v>
       </c>
       <c r="C9" t="n">
-        <v>55.4263</v>
+        <v>54.8549</v>
       </c>
       <c r="D9" t="n">
-        <v>77.583</v>
+        <v>78.7457</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1335</v>
+        <v>21.8914</v>
       </c>
       <c r="C10" t="n">
-        <v>51.3677</v>
+        <v>49.9944</v>
       </c>
       <c r="D10" t="n">
-        <v>69.57980000000001</v>
+        <v>68.69580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.1227</v>
+        <v>22.3424</v>
       </c>
       <c r="C11" t="n">
-        <v>50.1028</v>
+        <v>48.7677</v>
       </c>
       <c r="D11" t="n">
-        <v>68.7302</v>
+        <v>68.57599999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2384</v>
+        <v>22.5052</v>
       </c>
       <c r="C12" t="n">
-        <v>50.3031</v>
+        <v>50.0087</v>
       </c>
       <c r="D12" t="n">
-        <v>70.53530000000001</v>
+        <v>69.74039999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9453</v>
+        <v>23.1694</v>
       </c>
       <c r="C13" t="n">
-        <v>51.3117</v>
+        <v>51.0376</v>
       </c>
       <c r="D13" t="n">
-        <v>71.23009999999999</v>
+        <v>71.1367</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9194</v>
+        <v>21.8265</v>
       </c>
       <c r="C14" t="n">
-        <v>50.0367</v>
+        <v>49.8533</v>
       </c>
       <c r="D14" t="n">
-        <v>69.0975</v>
+        <v>70.2908</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7965</v>
+        <v>22.9824</v>
       </c>
       <c r="C15" t="n">
-        <v>51.06</v>
+        <v>49.8727</v>
       </c>
       <c r="D15" t="n">
-        <v>70.5608</v>
+        <v>70.72620000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8082</v>
+        <v>22.9968</v>
       </c>
       <c r="C16" t="n">
-        <v>52.0544</v>
+        <v>51.0806</v>
       </c>
       <c r="D16" t="n">
-        <v>71.7285</v>
+        <v>70.5428</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.3804</v>
+        <v>22.818</v>
       </c>
       <c r="C17" t="n">
-        <v>50.8852</v>
+        <v>49.4669</v>
       </c>
       <c r="D17" t="n">
-        <v>71.7513</v>
+        <v>70.0975</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.643000000000001</v>
+        <v>8.71918</v>
       </c>
       <c r="C2" t="n">
-        <v>19.6779</v>
+        <v>19.5064</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1573</v>
+        <v>20.028</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1703</v>
+        <v>10.1454</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0313</v>
+        <v>19.9499</v>
       </c>
       <c r="D3" t="n">
-        <v>26.3743</v>
+        <v>26.2808</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2602</v>
+        <v>13.2585</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7321</v>
+        <v>25.5249</v>
       </c>
       <c r="D4" t="n">
-        <v>36.1051</v>
+        <v>36.0143</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4004</v>
+        <v>16.3432</v>
       </c>
       <c r="C5" t="n">
-        <v>31.6188</v>
+        <v>31.6974</v>
       </c>
       <c r="D5" t="n">
-        <v>45.137</v>
+        <v>45.0096</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6638</v>
+        <v>19.5248</v>
       </c>
       <c r="C6" t="n">
-        <v>38.1567</v>
+        <v>38.155</v>
       </c>
       <c r="D6" t="n">
-        <v>53.5604</v>
+        <v>54.2271</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9134</v>
+        <v>22.8892</v>
       </c>
       <c r="C7" t="n">
-        <v>44.8637</v>
+        <v>44.8499</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1994</v>
+        <v>62.2987</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.558</v>
+        <v>26.5246</v>
       </c>
       <c r="C8" t="n">
-        <v>52.1621</v>
+        <v>51.6207</v>
       </c>
       <c r="D8" t="n">
-        <v>69.69329999999999</v>
+        <v>69.5234</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3715</v>
+        <v>31.4326</v>
       </c>
       <c r="C9" t="n">
-        <v>59.57</v>
+        <v>58.9661</v>
       </c>
       <c r="D9" t="n">
-        <v>77.95829999999999</v>
+        <v>78.1811</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1457</v>
+        <v>29.5773</v>
       </c>
       <c r="C10" t="n">
-        <v>54.819</v>
+        <v>55.455</v>
       </c>
       <c r="D10" t="n">
-        <v>70.50920000000001</v>
+        <v>68.8186</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.77</v>
+        <v>29.3779</v>
       </c>
       <c r="C11" t="n">
-        <v>55.0992</v>
+        <v>55.1438</v>
       </c>
       <c r="D11" t="n">
-        <v>70.62390000000001</v>
+        <v>71.1803</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4816</v>
+        <v>29.7868</v>
       </c>
       <c r="C12" t="n">
-        <v>56.2915</v>
+        <v>56.1177</v>
       </c>
       <c r="D12" t="n">
-        <v>73.5331</v>
+        <v>71.9782</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7729</v>
+        <v>29.962</v>
       </c>
       <c r="C13" t="n">
-        <v>57.4347</v>
+        <v>56.9857</v>
       </c>
       <c r="D13" t="n">
-        <v>74.6101</v>
+        <v>74.2997</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6468</v>
+        <v>28.8481</v>
       </c>
       <c r="C14" t="n">
-        <v>56.2477</v>
+        <v>55.8365</v>
       </c>
       <c r="D14" t="n">
-        <v>73.8421</v>
+        <v>74.0728</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.6666</v>
+        <v>29.7698</v>
       </c>
       <c r="C15" t="n">
-        <v>56.723</v>
+        <v>57.3908</v>
       </c>
       <c r="D15" t="n">
-        <v>75.31440000000001</v>
+        <v>74.7189</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.9275</v>
+        <v>29.882</v>
       </c>
       <c r="C16" t="n">
-        <v>57.3753</v>
+        <v>57.7083</v>
       </c>
       <c r="D16" t="n">
-        <v>75.0825</v>
+        <v>75.71550000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.8898</v>
+        <v>30.6477</v>
       </c>
       <c r="C17" t="n">
-        <v>57.3531</v>
+        <v>57.67</v>
       </c>
       <c r="D17" t="n">
-        <v>73.1071</v>
+        <v>73.46259999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2267</v>
+        <v>10.2206</v>
       </c>
       <c r="C2" t="n">
-        <v>18.951</v>
+        <v>18.9518</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3808</v>
+        <v>19.4614</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.843120000000001</v>
+        <v>10.0373</v>
       </c>
       <c r="C3" t="n">
-        <v>18.2462</v>
+        <v>18.4237</v>
       </c>
       <c r="D3" t="n">
-        <v>22.4797</v>
+        <v>22.8578</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1156</v>
+        <v>12.1674</v>
       </c>
       <c r="C4" t="n">
-        <v>23.0478</v>
+        <v>22.8733</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6124</v>
+        <v>29.8092</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.4303</v>
+        <v>14.7104</v>
       </c>
       <c r="C5" t="n">
-        <v>27.1873</v>
+        <v>27.3297</v>
       </c>
       <c r="D5" t="n">
-        <v>36.0158</v>
+        <v>35.7686</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.852</v>
+        <v>17.9911</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8483</v>
+        <v>31.5875</v>
       </c>
       <c r="D6" t="n">
-        <v>41.8441</v>
+        <v>42.5829</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9511</v>
+        <v>22.0159</v>
       </c>
       <c r="C7" t="n">
-        <v>37.2557</v>
+        <v>37.4269</v>
       </c>
       <c r="D7" t="n">
-        <v>48.3912</v>
+        <v>47.5461</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0001</v>
+        <v>24.2098</v>
       </c>
       <c r="C8" t="n">
-        <v>40.1835</v>
+        <v>40.9324</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8082</v>
+        <v>50.8874</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2138</v>
+        <v>28.6212</v>
       </c>
       <c r="C9" t="n">
-        <v>45.1897</v>
+        <v>46.986</v>
       </c>
       <c r="D9" t="n">
-        <v>56.3976</v>
+        <v>57.4525</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.1926</v>
+        <v>24.1674</v>
       </c>
       <c r="C10" t="n">
-        <v>43.2647</v>
+        <v>44.4554</v>
       </c>
       <c r="D10" t="n">
-        <v>53.3715</v>
+        <v>54.6046</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6857</v>
+        <v>24.4658</v>
       </c>
       <c r="C11" t="n">
-        <v>43.7626</v>
+        <v>42.9106</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0226</v>
+        <v>55.9967</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4251</v>
+        <v>25.4692</v>
       </c>
       <c r="C12" t="n">
-        <v>43.7242</v>
+        <v>43.9291</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2988</v>
+        <v>55.1792</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8293</v>
+        <v>26.8505</v>
       </c>
       <c r="C13" t="n">
-        <v>46.0454</v>
+        <v>44.5685</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6403</v>
+        <v>56.5309</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2053</v>
+        <v>25.0695</v>
       </c>
       <c r="C14" t="n">
-        <v>43.5597</v>
+        <v>43.9632</v>
       </c>
       <c r="D14" t="n">
-        <v>60.0427</v>
+        <v>61.1773</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2527</v>
+        <v>25.2856</v>
       </c>
       <c r="C15" t="n">
-        <v>45.3437</v>
+        <v>45.2292</v>
       </c>
       <c r="D15" t="n">
-        <v>62.1659</v>
+        <v>58.383</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5828</v>
+        <v>26.274</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2888</v>
+        <v>45.4982</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1085</v>
+        <v>61.6184</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7039</v>
+        <v>24.8765</v>
       </c>
       <c r="C17" t="n">
-        <v>47.3715</v>
+        <v>45.9725</v>
       </c>
       <c r="D17" t="n">
-        <v>60.581</v>
+        <v>64.801</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8923</v>
+        <v>11.0187</v>
       </c>
       <c r="C2" t="n">
-        <v>18.767</v>
+        <v>18.7826</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2635</v>
+        <v>19.322</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4368</v>
+        <v>10.2789</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1286</v>
+        <v>17.9711</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5866</v>
+        <v>22.3201</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.269</v>
+        <v>12.5069</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9991</v>
+        <v>22.4465</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4459</v>
+        <v>28.9498</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7442</v>
+        <v>14.8747</v>
       </c>
       <c r="C5" t="n">
-        <v>26.3821</v>
+        <v>26.5712</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1939</v>
+        <v>35.3744</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.908</v>
+        <v>18.0275</v>
       </c>
       <c r="C6" t="n">
-        <v>30.8736</v>
+        <v>31.2162</v>
       </c>
       <c r="D6" t="n">
-        <v>42.1466</v>
+        <v>41.708</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4078</v>
+        <v>21.9175</v>
       </c>
       <c r="C7" t="n">
-        <v>36.0092</v>
+        <v>36.5443</v>
       </c>
       <c r="D7" t="n">
-        <v>47.3159</v>
+        <v>47.1816</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6617</v>
+        <v>24.9513</v>
       </c>
       <c r="C8" t="n">
-        <v>40.2022</v>
+        <v>41.2652</v>
       </c>
       <c r="D8" t="n">
-        <v>53.5973</v>
+        <v>50.3771</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5841</v>
+        <v>29.3661</v>
       </c>
       <c r="C9" t="n">
-        <v>44.4106</v>
+        <v>44.2538</v>
       </c>
       <c r="D9" t="n">
-        <v>55.5573</v>
+        <v>54.8673</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.9297</v>
+        <v>24.5847</v>
       </c>
       <c r="C10" t="n">
-        <v>42.0344</v>
+        <v>43.0946</v>
       </c>
       <c r="D10" t="n">
-        <v>54.2885</v>
+        <v>51.0681</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.9368</v>
+        <v>24.6049</v>
       </c>
       <c r="C11" t="n">
-        <v>41.4423</v>
+        <v>42.0443</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4383</v>
+        <v>54.8757</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5996</v>
+        <v>25.9101</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9827</v>
+        <v>42.4838</v>
       </c>
       <c r="D12" t="n">
-        <v>57.7312</v>
+        <v>57.6951</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.2245</v>
+        <v>27.6011</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5369</v>
+        <v>44.7375</v>
       </c>
       <c r="D13" t="n">
-        <v>58.8213</v>
+        <v>58.137</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0393</v>
+        <v>25.8103</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9178</v>
+        <v>44.9678</v>
       </c>
       <c r="D14" t="n">
-        <v>58.19</v>
+        <v>58.7266</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7416</v>
+        <v>24.8133</v>
       </c>
       <c r="C15" t="n">
-        <v>41.9712</v>
+        <v>44.8549</v>
       </c>
       <c r="D15" t="n">
-        <v>60.5971</v>
+        <v>60.0864</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5033</v>
+        <v>25.0184</v>
       </c>
       <c r="C16" t="n">
-        <v>43.7993</v>
+        <v>44.57</v>
       </c>
       <c r="D16" t="n">
-        <v>62.1195</v>
+        <v>59.1222</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.0078</v>
+        <v>25.51</v>
       </c>
       <c r="C17" t="n">
-        <v>44.68</v>
+        <v>43.5681</v>
       </c>
       <c r="D17" t="n">
-        <v>59.9062</v>
+        <v>61.2627</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2873</v>
+        <v>14.3223</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2917</v>
+        <v>21.2817</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2893</v>
+        <v>20.4037</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3445</v>
+        <v>11.3754</v>
       </c>
       <c r="C3" t="n">
-        <v>19.2187</v>
+        <v>19.7376</v>
       </c>
       <c r="D3" t="n">
-        <v>24.306</v>
+        <v>24.4669</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0536</v>
+        <v>14.2631</v>
       </c>
       <c r="C4" t="n">
-        <v>24.7063</v>
+        <v>24.6671</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5755</v>
+        <v>31.2516</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2395</v>
+        <v>17.3513</v>
       </c>
       <c r="C5" t="n">
-        <v>30.0012</v>
+        <v>29.3465</v>
       </c>
       <c r="D5" t="n">
-        <v>38.4713</v>
+        <v>38.2369</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7566</v>
+        <v>20.8257</v>
       </c>
       <c r="C6" t="n">
-        <v>35.0803</v>
+        <v>34.7078</v>
       </c>
       <c r="D6" t="n">
-        <v>42.587</v>
+        <v>44.4357</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.406</v>
+        <v>24.4688</v>
       </c>
       <c r="C7" t="n">
-        <v>39.9133</v>
+        <v>40.0553</v>
       </c>
       <c r="D7" t="n">
-        <v>49.2594</v>
+        <v>50.1968</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6082</v>
+        <v>27.7353</v>
       </c>
       <c r="C8" t="n">
-        <v>44.4213</v>
+        <v>44.6548</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4896</v>
+        <v>51.2462</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8294</v>
+        <v>31.9775</v>
       </c>
       <c r="C9" t="n">
-        <v>48.191</v>
+        <v>46.7747</v>
       </c>
       <c r="D9" t="n">
-        <v>57.0606</v>
+        <v>55.4803</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7628</v>
+        <v>30.3638</v>
       </c>
       <c r="C10" t="n">
-        <v>44.7975</v>
+        <v>46.4224</v>
       </c>
       <c r="D10" t="n">
-        <v>55.9724</v>
+        <v>54.8616</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7762</v>
+        <v>27.5065</v>
       </c>
       <c r="C11" t="n">
-        <v>45.8458</v>
+        <v>45.521</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9163</v>
+        <v>54.5839</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.9521</v>
+        <v>29.0108</v>
       </c>
       <c r="C12" t="n">
-        <v>45.2405</v>
+        <v>47.3563</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6634</v>
+        <v>56.673</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9083</v>
+        <v>30.914</v>
       </c>
       <c r="C13" t="n">
-        <v>49.0382</v>
+        <v>49.2344</v>
       </c>
       <c r="D13" t="n">
-        <v>56.2837</v>
+        <v>58.8426</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.901</v>
+        <v>28.8901</v>
       </c>
       <c r="C14" t="n">
-        <v>48.2183</v>
+        <v>47.2219</v>
       </c>
       <c r="D14" t="n">
-        <v>57.2633</v>
+        <v>56.9377</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7265</v>
+        <v>28.0614</v>
       </c>
       <c r="C15" t="n">
-        <v>47.4165</v>
+        <v>48.9524</v>
       </c>
       <c r="D15" t="n">
-        <v>53.6192</v>
+        <v>55.5387</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.5586</v>
+        <v>27.8145</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4076</v>
+        <v>46.8727</v>
       </c>
       <c r="D16" t="n">
-        <v>57.3569</v>
+        <v>57.5226</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1211</v>
+        <v>28.262</v>
       </c>
       <c r="C17" t="n">
-        <v>45.2019</v>
+        <v>46.8648</v>
       </c>
       <c r="D17" t="n">
-        <v>54.262</v>
+        <v>56.0778</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97423</v>
+        <v>3.98204</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6315</v>
+        <v>13.6349</v>
       </c>
       <c r="D2" t="n">
-        <v>16.839</v>
+        <v>16.876</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49571</v>
+        <v>6.49108</v>
       </c>
       <c r="C3" t="n">
-        <v>18.4729</v>
+        <v>18.4339</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5279</v>
+        <v>24.4607</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.445679999999999</v>
+        <v>9.4292</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5318</v>
+        <v>24.5442</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8829</v>
+        <v>33.9225</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.34</v>
+        <v>12.3556</v>
       </c>
       <c r="C5" t="n">
-        <v>30.004</v>
+        <v>30.272</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9943</v>
+        <v>42.9865</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0846</v>
+        <v>15.2632</v>
       </c>
       <c r="C6" t="n">
-        <v>35.7478</v>
+        <v>36.0112</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0284</v>
+        <v>52.2005</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9337</v>
+        <v>17.8953</v>
       </c>
       <c r="C7" t="n">
-        <v>41.5887</v>
+        <v>41.6237</v>
       </c>
       <c r="D7" t="n">
-        <v>60.9143</v>
+        <v>60.8646</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7685</v>
+        <v>20.8216</v>
       </c>
       <c r="C8" t="n">
-        <v>47.3044</v>
+        <v>47.7367</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8824</v>
+        <v>69.6558</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8253</v>
+        <v>23.9938</v>
       </c>
       <c r="C9" t="n">
-        <v>56.1969</v>
+        <v>56.878</v>
       </c>
       <c r="D9" t="n">
-        <v>78.17870000000001</v>
+        <v>78.83669999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8366</v>
+        <v>21.7322</v>
       </c>
       <c r="C10" t="n">
-        <v>51.3303</v>
+        <v>50.7336</v>
       </c>
       <c r="D10" t="n">
-        <v>70.91160000000001</v>
+        <v>69.5235</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.1391</v>
+        <v>21.5746</v>
       </c>
       <c r="C11" t="n">
-        <v>50.9816</v>
+        <v>52.6578</v>
       </c>
       <c r="D11" t="n">
-        <v>68.61879999999999</v>
+        <v>67.5902</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2401</v>
+        <v>22.269</v>
       </c>
       <c r="C12" t="n">
-        <v>51.8873</v>
+        <v>51.7229</v>
       </c>
       <c r="D12" t="n">
-        <v>71.39100000000001</v>
+        <v>70.94240000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7963</v>
+        <v>22.9014</v>
       </c>
       <c r="C13" t="n">
-        <v>52.7006</v>
+        <v>52.9681</v>
       </c>
       <c r="D13" t="n">
-        <v>71.77370000000001</v>
+        <v>72.131</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7975</v>
+        <v>21.8257</v>
       </c>
       <c r="C14" t="n">
-        <v>51.876</v>
+        <v>51.5331</v>
       </c>
       <c r="D14" t="n">
-        <v>71.4081</v>
+        <v>72.5301</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.682</v>
+        <v>22.7441</v>
       </c>
       <c r="C15" t="n">
-        <v>51.5622</v>
+        <v>52.7796</v>
       </c>
       <c r="D15" t="n">
-        <v>72.8907</v>
+        <v>72.7351</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.718</v>
+        <v>22.8033</v>
       </c>
       <c r="C16" t="n">
-        <v>52.8651</v>
+        <v>51.5109</v>
       </c>
       <c r="D16" t="n">
-        <v>71.4498</v>
+        <v>71.2791</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.614</v>
+        <v>23.3197</v>
       </c>
       <c r="C17" t="n">
-        <v>52.4403</v>
+        <v>53.1245</v>
       </c>
       <c r="D17" t="n">
-        <v>73.5029</v>
+        <v>72.1889</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.00943</v>
+        <v>4.01908</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5162</v>
+        <v>13.5476</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8848</v>
+        <v>16.9701</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53297</v>
+        <v>6.49172</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9665</v>
+        <v>17.988</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1909</v>
+        <v>24.1823</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.471019999999999</v>
+        <v>9.483499999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>23.773</v>
+        <v>23.7806</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6686</v>
+        <v>33.6003</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2403</v>
+        <v>12.2162</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9438</v>
+        <v>28.9778</v>
       </c>
       <c r="D5" t="n">
-        <v>42.5385</v>
+        <v>42.7277</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2099</v>
+        <v>15.0828</v>
       </c>
       <c r="C6" t="n">
-        <v>34.7201</v>
+        <v>34.9317</v>
       </c>
       <c r="D6" t="n">
-        <v>51.6142</v>
+        <v>51.4278</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9351</v>
+        <v>17.9453</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7243</v>
+        <v>40.7176</v>
       </c>
       <c r="D7" t="n">
-        <v>60.4823</v>
+        <v>60.8493</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8004</v>
+        <v>20.7503</v>
       </c>
       <c r="C8" t="n">
-        <v>46.8474</v>
+        <v>46.733</v>
       </c>
       <c r="D8" t="n">
-        <v>69.8506</v>
+        <v>69.901</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8687</v>
+        <v>23.8029</v>
       </c>
       <c r="C9" t="n">
-        <v>54.8549</v>
+        <v>55.2083</v>
       </c>
       <c r="D9" t="n">
-        <v>78.7457</v>
+        <v>77.88590000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8914</v>
+        <v>21.7693</v>
       </c>
       <c r="C10" t="n">
-        <v>49.9944</v>
+        <v>49.6817</v>
       </c>
       <c r="D10" t="n">
-        <v>68.69580000000001</v>
+        <v>69.57389999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3424</v>
+        <v>21.912</v>
       </c>
       <c r="C11" t="n">
-        <v>48.7677</v>
+        <v>49.6826</v>
       </c>
       <c r="D11" t="n">
-        <v>68.57599999999999</v>
+        <v>69.014</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5052</v>
+        <v>22.2201</v>
       </c>
       <c r="C12" t="n">
-        <v>50.0087</v>
+        <v>49.8527</v>
       </c>
       <c r="D12" t="n">
-        <v>69.74039999999999</v>
+        <v>69.8698</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.1694</v>
+        <v>22.779</v>
       </c>
       <c r="C13" t="n">
-        <v>51.0376</v>
+        <v>51.2071</v>
       </c>
       <c r="D13" t="n">
-        <v>71.1367</v>
+        <v>71.5021</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8265</v>
+        <v>21.8158</v>
       </c>
       <c r="C14" t="n">
-        <v>49.8533</v>
+        <v>50.2899</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2908</v>
+        <v>71.2878</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9824</v>
+        <v>23.0811</v>
       </c>
       <c r="C15" t="n">
-        <v>49.8727</v>
+        <v>50.6202</v>
       </c>
       <c r="D15" t="n">
-        <v>70.72620000000001</v>
+        <v>70.3694</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9968</v>
+        <v>22.8108</v>
       </c>
       <c r="C16" t="n">
-        <v>51.0806</v>
+        <v>50.339</v>
       </c>
       <c r="D16" t="n">
-        <v>70.5428</v>
+        <v>69.4854</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.818</v>
+        <v>22.9454</v>
       </c>
       <c r="C17" t="n">
-        <v>49.4669</v>
+        <v>52.3106</v>
       </c>
       <c r="D17" t="n">
-        <v>70.0975</v>
+        <v>71.9479</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.71918</v>
+        <v>8.712120000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5064</v>
+        <v>19.5275</v>
       </c>
       <c r="D2" t="n">
-        <v>20.028</v>
+        <v>20.1335</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1454</v>
+        <v>10.3915</v>
       </c>
       <c r="C3" t="n">
-        <v>19.9499</v>
+        <v>19.8125</v>
       </c>
       <c r="D3" t="n">
-        <v>26.2808</v>
+        <v>26.4991</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2585</v>
+        <v>13.3338</v>
       </c>
       <c r="C4" t="n">
-        <v>25.5249</v>
+        <v>25.6013</v>
       </c>
       <c r="D4" t="n">
-        <v>36.0143</v>
+        <v>36.2461</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3432</v>
+        <v>16.4461</v>
       </c>
       <c r="C5" t="n">
-        <v>31.6974</v>
+        <v>31.8968</v>
       </c>
       <c r="D5" t="n">
-        <v>45.0096</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5248</v>
+        <v>19.6582</v>
       </c>
       <c r="C6" t="n">
-        <v>38.155</v>
+        <v>37.7955</v>
       </c>
       <c r="D6" t="n">
-        <v>54.2271</v>
+        <v>53.8832</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8892</v>
+        <v>22.9839</v>
       </c>
       <c r="C7" t="n">
-        <v>44.8499</v>
+        <v>44.8151</v>
       </c>
       <c r="D7" t="n">
-        <v>62.2987</v>
+        <v>62.4199</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5246</v>
+        <v>26.6327</v>
       </c>
       <c r="C8" t="n">
-        <v>51.6207</v>
+        <v>51.8959</v>
       </c>
       <c r="D8" t="n">
-        <v>69.5234</v>
+        <v>70.11750000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.4326</v>
+        <v>31.4054</v>
       </c>
       <c r="C9" t="n">
-        <v>58.9661</v>
+        <v>59.8064</v>
       </c>
       <c r="D9" t="n">
-        <v>78.1811</v>
+        <v>78.04259999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.5773</v>
+        <v>29.201</v>
       </c>
       <c r="C10" t="n">
-        <v>55.455</v>
+        <v>55.2561</v>
       </c>
       <c r="D10" t="n">
-        <v>68.8186</v>
+        <v>69.3828</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.3779</v>
+        <v>28.9108</v>
       </c>
       <c r="C11" t="n">
-        <v>55.1438</v>
+        <v>55.5657</v>
       </c>
       <c r="D11" t="n">
-        <v>71.1803</v>
+        <v>71.1845</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.7868</v>
+        <v>29.3795</v>
       </c>
       <c r="C12" t="n">
-        <v>56.1177</v>
+        <v>56.1077</v>
       </c>
       <c r="D12" t="n">
-        <v>71.9782</v>
+        <v>72.77509999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.962</v>
+        <v>29.7566</v>
       </c>
       <c r="C13" t="n">
-        <v>56.9857</v>
+        <v>56.3828</v>
       </c>
       <c r="D13" t="n">
-        <v>74.2997</v>
+        <v>72.4975</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8481</v>
+        <v>28.7651</v>
       </c>
       <c r="C14" t="n">
-        <v>55.8365</v>
+        <v>56.0833</v>
       </c>
       <c r="D14" t="n">
-        <v>74.0728</v>
+        <v>73.7347</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7698</v>
+        <v>29.9531</v>
       </c>
       <c r="C15" t="n">
-        <v>57.3908</v>
+        <v>57.7303</v>
       </c>
       <c r="D15" t="n">
-        <v>74.7189</v>
+        <v>74.4649</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.882</v>
+        <v>29.8091</v>
       </c>
       <c r="C16" t="n">
-        <v>57.7083</v>
+        <v>57.4634</v>
       </c>
       <c r="D16" t="n">
-        <v>75.71550000000001</v>
+        <v>74.4678</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.6477</v>
+        <v>29.9284</v>
       </c>
       <c r="C17" t="n">
-        <v>57.67</v>
+        <v>57.933</v>
       </c>
       <c r="D17" t="n">
-        <v>73.46259999999999</v>
+        <v>73.8163</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2206</v>
+        <v>10.1652</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9518</v>
+        <v>18.9371</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4614</v>
+        <v>19.5304</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0373</v>
+        <v>10.2427</v>
       </c>
       <c r="C3" t="n">
-        <v>18.4237</v>
+        <v>18.5986</v>
       </c>
       <c r="D3" t="n">
-        <v>22.8578</v>
+        <v>22.9446</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1674</v>
+        <v>12.077</v>
       </c>
       <c r="C4" t="n">
-        <v>22.8733</v>
+        <v>22.9165</v>
       </c>
       <c r="D4" t="n">
-        <v>29.8092</v>
+        <v>29.9628</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7104</v>
+        <v>14.8569</v>
       </c>
       <c r="C5" t="n">
-        <v>27.3297</v>
+        <v>27.7</v>
       </c>
       <c r="D5" t="n">
-        <v>35.7686</v>
+        <v>36.5894</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9911</v>
+        <v>17.7825</v>
       </c>
       <c r="C6" t="n">
-        <v>31.5875</v>
+        <v>32.4794</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5829</v>
+        <v>42.637</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0159</v>
+        <v>21.0818</v>
       </c>
       <c r="C7" t="n">
-        <v>37.4269</v>
+        <v>38.0975</v>
       </c>
       <c r="D7" t="n">
-        <v>47.5461</v>
+        <v>49.0341</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.2098</v>
+        <v>24.5887</v>
       </c>
       <c r="C8" t="n">
-        <v>40.9324</v>
+        <v>40.4895</v>
       </c>
       <c r="D8" t="n">
-        <v>50.8874</v>
+        <v>53.8704</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6212</v>
+        <v>29.2111</v>
       </c>
       <c r="C9" t="n">
-        <v>46.986</v>
+        <v>45.7015</v>
       </c>
       <c r="D9" t="n">
-        <v>57.4525</v>
+        <v>58.5469</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1674</v>
+        <v>24.5141</v>
       </c>
       <c r="C10" t="n">
-        <v>44.4554</v>
+        <v>43.3912</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6046</v>
+        <v>55.4179</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4658</v>
+        <v>24.6161</v>
       </c>
       <c r="C11" t="n">
-        <v>42.9106</v>
+        <v>43.8678</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9967</v>
+        <v>55.6885</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4692</v>
+        <v>25.4378</v>
       </c>
       <c r="C12" t="n">
-        <v>43.9291</v>
+        <v>43.4633</v>
       </c>
       <c r="D12" t="n">
-        <v>55.1792</v>
+        <v>58.1105</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8505</v>
+        <v>26.5827</v>
       </c>
       <c r="C13" t="n">
-        <v>44.5685</v>
+        <v>44.9617</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5309</v>
+        <v>58.6721</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0695</v>
+        <v>24.9713</v>
       </c>
       <c r="C14" t="n">
-        <v>43.9632</v>
+        <v>44.2746</v>
       </c>
       <c r="D14" t="n">
-        <v>61.1773</v>
+        <v>61.9678</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2856</v>
+        <v>24.4799</v>
       </c>
       <c r="C15" t="n">
-        <v>45.2292</v>
+        <v>44.4447</v>
       </c>
       <c r="D15" t="n">
-        <v>58.383</v>
+        <v>62.2923</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.274</v>
+        <v>25.3454</v>
       </c>
       <c r="C16" t="n">
-        <v>45.4982</v>
+        <v>45.2294</v>
       </c>
       <c r="D16" t="n">
-        <v>61.6184</v>
+        <v>63.9994</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.8765</v>
+        <v>24.5896</v>
       </c>
       <c r="C17" t="n">
-        <v>45.9725</v>
+        <v>46.1903</v>
       </c>
       <c r="D17" t="n">
-        <v>64.801</v>
+        <v>64.32550000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0187</v>
+        <v>10.8882</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7826</v>
+        <v>18.8028</v>
       </c>
       <c r="D2" t="n">
-        <v>19.322</v>
+        <v>19.4035</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2789</v>
+        <v>10.6216</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9711</v>
+        <v>18.6186</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3201</v>
+        <v>22.9709</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5069</v>
+        <v>12.9309</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4465</v>
+        <v>22.3746</v>
       </c>
       <c r="D4" t="n">
-        <v>28.9498</v>
+        <v>29.5546</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8747</v>
+        <v>15.3079</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5712</v>
+        <v>27.2249</v>
       </c>
       <c r="D5" t="n">
-        <v>35.3744</v>
+        <v>36.178</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0275</v>
+        <v>18.38</v>
       </c>
       <c r="C6" t="n">
-        <v>31.2162</v>
+        <v>31.8768</v>
       </c>
       <c r="D6" t="n">
-        <v>41.708</v>
+        <v>43.2291</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9175</v>
+        <v>22.0017</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5443</v>
+        <v>36.5757</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1816</v>
+        <v>48.8941</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.9513</v>
+        <v>25.0714</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2652</v>
+        <v>41.2693</v>
       </c>
       <c r="D8" t="n">
-        <v>50.3771</v>
+        <v>53.602</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3661</v>
+        <v>29.3017</v>
       </c>
       <c r="C9" t="n">
-        <v>44.2538</v>
+        <v>45.405</v>
       </c>
       <c r="D9" t="n">
-        <v>54.8673</v>
+        <v>59.988</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5847</v>
+        <v>24.6939</v>
       </c>
       <c r="C10" t="n">
-        <v>43.0946</v>
+        <v>43.1895</v>
       </c>
       <c r="D10" t="n">
-        <v>51.0681</v>
+        <v>54.0701</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6049</v>
+        <v>24.8697</v>
       </c>
       <c r="C11" t="n">
-        <v>42.0443</v>
+        <v>41.7104</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8757</v>
+        <v>55.0417</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9101</v>
+        <v>25.3625</v>
       </c>
       <c r="C12" t="n">
-        <v>42.4838</v>
+        <v>41.257</v>
       </c>
       <c r="D12" t="n">
-        <v>57.6951</v>
+        <v>57.5717</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.6011</v>
+        <v>26.4156</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7375</v>
+        <v>42.5026</v>
       </c>
       <c r="D13" t="n">
-        <v>58.137</v>
+        <v>59.3416</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.8103</v>
+        <v>25.5673</v>
       </c>
       <c r="C14" t="n">
-        <v>44.9678</v>
+        <v>45.065</v>
       </c>
       <c r="D14" t="n">
-        <v>58.7266</v>
+        <v>59.9437</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8133</v>
+        <v>25.5232</v>
       </c>
       <c r="C15" t="n">
-        <v>44.8549</v>
+        <v>46.2718</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0864</v>
+        <v>58.6865</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0184</v>
+        <v>25.6028</v>
       </c>
       <c r="C16" t="n">
-        <v>44.57</v>
+        <v>45.6675</v>
       </c>
       <c r="D16" t="n">
-        <v>59.1222</v>
+        <v>62.5548</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.51</v>
+        <v>25.4074</v>
       </c>
       <c r="C17" t="n">
-        <v>43.5681</v>
+        <v>46.1172</v>
       </c>
       <c r="D17" t="n">
-        <v>61.2627</v>
+        <v>60.7957</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3223</v>
+        <v>14.2226</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2817</v>
+        <v>21.2856</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4037</v>
+        <v>20.4571</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3754</v>
+        <v>11.3632</v>
       </c>
       <c r="C3" t="n">
-        <v>19.7376</v>
+        <v>19.3366</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4669</v>
+        <v>24.8203</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2631</v>
+        <v>14.2304</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6671</v>
+        <v>24.8876</v>
       </c>
       <c r="D4" t="n">
-        <v>31.2516</v>
+        <v>31.6119</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3513</v>
+        <v>17.1638</v>
       </c>
       <c r="C5" t="n">
-        <v>29.3465</v>
+        <v>30.3443</v>
       </c>
       <c r="D5" t="n">
-        <v>38.2369</v>
+        <v>39.1194</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8257</v>
+        <v>20.8026</v>
       </c>
       <c r="C6" t="n">
-        <v>34.7078</v>
+        <v>34.5739</v>
       </c>
       <c r="D6" t="n">
-        <v>44.4357</v>
+        <v>45.5074</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4688</v>
+        <v>24.3735</v>
       </c>
       <c r="C7" t="n">
-        <v>40.0553</v>
+        <v>40.4641</v>
       </c>
       <c r="D7" t="n">
-        <v>50.1968</v>
+        <v>50.6433</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.7353</v>
+        <v>27.6042</v>
       </c>
       <c r="C8" t="n">
-        <v>44.6548</v>
+        <v>43.2901</v>
       </c>
       <c r="D8" t="n">
-        <v>51.2462</v>
+        <v>55.0443</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9775</v>
+        <v>32.0152</v>
       </c>
       <c r="C9" t="n">
-        <v>46.7747</v>
+        <v>48.5157</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4803</v>
+        <v>56.1767</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3638</v>
+        <v>28.9584</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4224</v>
+        <v>46.8312</v>
       </c>
       <c r="D10" t="n">
-        <v>54.8616</v>
+        <v>55.7442</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5065</v>
+        <v>27.9412</v>
       </c>
       <c r="C11" t="n">
-        <v>45.521</v>
+        <v>46.2674</v>
       </c>
       <c r="D11" t="n">
-        <v>54.5839</v>
+        <v>54.8317</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.0108</v>
+        <v>29.1577</v>
       </c>
       <c r="C12" t="n">
-        <v>47.3563</v>
+        <v>47.5392</v>
       </c>
       <c r="D12" t="n">
-        <v>56.673</v>
+        <v>56.8401</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.914</v>
+        <v>30.7753</v>
       </c>
       <c r="C13" t="n">
-        <v>49.2344</v>
+        <v>48.2359</v>
       </c>
       <c r="D13" t="n">
-        <v>58.8426</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8901</v>
+        <v>29.0196</v>
       </c>
       <c r="C14" t="n">
-        <v>47.2219</v>
+        <v>48.3965</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9377</v>
+        <v>56.7235</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0614</v>
+        <v>27.817</v>
       </c>
       <c r="C15" t="n">
-        <v>48.9524</v>
+        <v>47.9626</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5387</v>
+        <v>56.6944</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.8145</v>
+        <v>29.1444</v>
       </c>
       <c r="C16" t="n">
-        <v>46.8727</v>
+        <v>48.5638</v>
       </c>
       <c r="D16" t="n">
-        <v>57.5226</v>
+        <v>54.6059</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.262</v>
+        <v>28.1653</v>
       </c>
       <c r="C17" t="n">
-        <v>46.8648</v>
+        <v>46.3469</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0778</v>
+        <v>56.3249</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98204</v>
+        <v>3.91997</v>
       </c>
       <c r="C2" t="n">
-        <v>13.6349</v>
+        <v>13.5558</v>
       </c>
       <c r="D2" t="n">
-        <v>16.876</v>
+        <v>16.8498</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49108</v>
+        <v>6.53827</v>
       </c>
       <c r="C3" t="n">
-        <v>18.4339</v>
+        <v>18.684</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4607</v>
+        <v>24.8153</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.4292</v>
+        <v>9.49146</v>
       </c>
       <c r="C4" t="n">
-        <v>24.5442</v>
+        <v>24.4754</v>
       </c>
       <c r="D4" t="n">
-        <v>33.9225</v>
+        <v>34.2868</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3556</v>
+        <v>12.2756</v>
       </c>
       <c r="C5" t="n">
-        <v>30.272</v>
+        <v>30.4302</v>
       </c>
       <c r="D5" t="n">
-        <v>42.9865</v>
+        <v>43.3856</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2632</v>
+        <v>15.1928</v>
       </c>
       <c r="C6" t="n">
-        <v>36.0112</v>
+        <v>35.5429</v>
       </c>
       <c r="D6" t="n">
-        <v>52.2005</v>
+        <v>52.5952</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8953</v>
+        <v>17.7953</v>
       </c>
       <c r="C7" t="n">
-        <v>41.6237</v>
+        <v>41.5234</v>
       </c>
       <c r="D7" t="n">
-        <v>60.8646</v>
+        <v>62.1717</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8216</v>
+        <v>20.9686</v>
       </c>
       <c r="C8" t="n">
-        <v>47.7367</v>
+        <v>47.8851</v>
       </c>
       <c r="D8" t="n">
-        <v>69.6558</v>
+        <v>70.8531</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9938</v>
+        <v>24.0179</v>
       </c>
       <c r="C9" t="n">
-        <v>56.878</v>
+        <v>57.0577</v>
       </c>
       <c r="D9" t="n">
-        <v>78.83669999999999</v>
+        <v>79.27330000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7322</v>
+        <v>22.1713</v>
       </c>
       <c r="C10" t="n">
-        <v>50.7336</v>
+        <v>51.4274</v>
       </c>
       <c r="D10" t="n">
-        <v>69.5235</v>
+        <v>68.9881</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.5746</v>
+        <v>21.6933</v>
       </c>
       <c r="C11" t="n">
-        <v>52.6578</v>
+        <v>50.4817</v>
       </c>
       <c r="D11" t="n">
-        <v>67.5902</v>
+        <v>69.68000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.269</v>
+        <v>22.2363</v>
       </c>
       <c r="C12" t="n">
-        <v>51.7229</v>
+        <v>51.8424</v>
       </c>
       <c r="D12" t="n">
-        <v>70.94240000000001</v>
+        <v>71.02160000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9014</v>
+        <v>22.751</v>
       </c>
       <c r="C13" t="n">
-        <v>52.9681</v>
+        <v>52.2109</v>
       </c>
       <c r="D13" t="n">
-        <v>72.131</v>
+        <v>71.64060000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8257</v>
+        <v>21.9575</v>
       </c>
       <c r="C14" t="n">
-        <v>51.5331</v>
+        <v>51.3393</v>
       </c>
       <c r="D14" t="n">
-        <v>72.5301</v>
+        <v>71.7453</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7441</v>
+        <v>22.8104</v>
       </c>
       <c r="C15" t="n">
-        <v>52.7796</v>
+        <v>52.6117</v>
       </c>
       <c r="D15" t="n">
-        <v>72.7351</v>
+        <v>71.27209999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8033</v>
+        <v>22.8678</v>
       </c>
       <c r="C16" t="n">
-        <v>51.5109</v>
+        <v>52.4574</v>
       </c>
       <c r="D16" t="n">
-        <v>71.2791</v>
+        <v>72.423</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.3197</v>
+        <v>23.1276</v>
       </c>
       <c r="C17" t="n">
-        <v>53.1245</v>
+        <v>51.9452</v>
       </c>
       <c r="D17" t="n">
-        <v>72.1889</v>
+        <v>72.4085</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01908</v>
+        <v>4.01956</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5476</v>
+        <v>13.5546</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9701</v>
+        <v>17.0004</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49172</v>
+        <v>6.52171</v>
       </c>
       <c r="C3" t="n">
-        <v>17.988</v>
+        <v>17.9536</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1823</v>
+        <v>24.3525</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.483499999999999</v>
+        <v>9.45983</v>
       </c>
       <c r="C4" t="n">
-        <v>23.7806</v>
+        <v>23.6941</v>
       </c>
       <c r="D4" t="n">
-        <v>33.6003</v>
+        <v>33.8528</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2162</v>
+        <v>12.2874</v>
       </c>
       <c r="C5" t="n">
-        <v>28.9778</v>
+        <v>29.2337</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7277</v>
+        <v>42.7233</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0828</v>
+        <v>15.1554</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9317</v>
+        <v>34.9147</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4278</v>
+        <v>52.0268</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9453</v>
+        <v>17.8495</v>
       </c>
       <c r="C7" t="n">
-        <v>40.7176</v>
+        <v>40.9936</v>
       </c>
       <c r="D7" t="n">
-        <v>60.8493</v>
+        <v>61.2161</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7503</v>
+        <v>20.59</v>
       </c>
       <c r="C8" t="n">
-        <v>46.733</v>
+        <v>46.8048</v>
       </c>
       <c r="D8" t="n">
-        <v>69.901</v>
+        <v>70.32380000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8029</v>
+        <v>23.7097</v>
       </c>
       <c r="C9" t="n">
-        <v>55.2083</v>
+        <v>55.1378</v>
       </c>
       <c r="D9" t="n">
-        <v>77.88590000000001</v>
+        <v>79.432</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7693</v>
+        <v>22.2107</v>
       </c>
       <c r="C10" t="n">
-        <v>49.6817</v>
+        <v>50.0375</v>
       </c>
       <c r="D10" t="n">
-        <v>69.57389999999999</v>
+        <v>67.8678</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.912</v>
+        <v>21.8307</v>
       </c>
       <c r="C11" t="n">
-        <v>49.6826</v>
+        <v>49.2539</v>
       </c>
       <c r="D11" t="n">
-        <v>69.014</v>
+        <v>69.0883</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2201</v>
+        <v>22.3308</v>
       </c>
       <c r="C12" t="n">
-        <v>49.8527</v>
+        <v>50.2048</v>
       </c>
       <c r="D12" t="n">
-        <v>69.8698</v>
+        <v>70.2457</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.779</v>
+        <v>22.639</v>
       </c>
       <c r="C13" t="n">
-        <v>51.2071</v>
+        <v>51.4401</v>
       </c>
       <c r="D13" t="n">
-        <v>71.5021</v>
+        <v>72.80629999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8158</v>
+        <v>21.9737</v>
       </c>
       <c r="C14" t="n">
-        <v>50.2899</v>
+        <v>50.4253</v>
       </c>
       <c r="D14" t="n">
-        <v>71.2878</v>
+        <v>70.8357</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0811</v>
+        <v>23.0958</v>
       </c>
       <c r="C15" t="n">
-        <v>50.6202</v>
+        <v>50.3664</v>
       </c>
       <c r="D15" t="n">
-        <v>70.3694</v>
+        <v>70.9742</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8108</v>
+        <v>22.8436</v>
       </c>
       <c r="C16" t="n">
-        <v>50.339</v>
+        <v>51.1027</v>
       </c>
       <c r="D16" t="n">
-        <v>69.4854</v>
+        <v>70.9695</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9454</v>
+        <v>22.7942</v>
       </c>
       <c r="C17" t="n">
-        <v>52.3106</v>
+        <v>50.93</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9479</v>
+        <v>72.8428</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.712120000000001</v>
+        <v>8.69924</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5275</v>
+        <v>19.4673</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1335</v>
+        <v>20.1205</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3915</v>
+        <v>10.3808</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8125</v>
+        <v>20.0812</v>
       </c>
       <c r="D3" t="n">
-        <v>26.4991</v>
+        <v>26.6701</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3338</v>
+        <v>13.2938</v>
       </c>
       <c r="C4" t="n">
-        <v>25.6013</v>
+        <v>25.7169</v>
       </c>
       <c r="D4" t="n">
-        <v>36.2461</v>
+        <v>36.2138</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4461</v>
+        <v>16.4216</v>
       </c>
       <c r="C5" t="n">
-        <v>31.8968</v>
+        <v>31.6433</v>
       </c>
       <c r="D5" t="n">
-        <v>45.3</v>
+        <v>45.6261</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6582</v>
+        <v>19.5227</v>
       </c>
       <c r="C6" t="n">
-        <v>37.7955</v>
+        <v>38.2422</v>
       </c>
       <c r="D6" t="n">
-        <v>53.8832</v>
+        <v>54.3837</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9839</v>
+        <v>23.0289</v>
       </c>
       <c r="C7" t="n">
-        <v>44.8151</v>
+        <v>44.9964</v>
       </c>
       <c r="D7" t="n">
-        <v>62.4199</v>
+        <v>62.7166</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.6327</v>
+        <v>26.6027</v>
       </c>
       <c r="C8" t="n">
-        <v>51.8959</v>
+        <v>51.9767</v>
       </c>
       <c r="D8" t="n">
-        <v>70.11750000000001</v>
+        <v>71.0303</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.4054</v>
+        <v>31.229</v>
       </c>
       <c r="C9" t="n">
-        <v>59.8064</v>
+        <v>59.3547</v>
       </c>
       <c r="D9" t="n">
-        <v>78.04259999999999</v>
+        <v>78.8811</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.201</v>
+        <v>29.6466</v>
       </c>
       <c r="C10" t="n">
-        <v>55.2561</v>
+        <v>55.796</v>
       </c>
       <c r="D10" t="n">
-        <v>69.3828</v>
+        <v>69.5936</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.9108</v>
+        <v>29.2061</v>
       </c>
       <c r="C11" t="n">
-        <v>55.5657</v>
+        <v>55.7058</v>
       </c>
       <c r="D11" t="n">
-        <v>71.1845</v>
+        <v>69.145</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3795</v>
+        <v>29.5579</v>
       </c>
       <c r="C12" t="n">
-        <v>56.1077</v>
+        <v>55.5873</v>
       </c>
       <c r="D12" t="n">
-        <v>72.77509999999999</v>
+        <v>74.3489</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7566</v>
+        <v>29.7435</v>
       </c>
       <c r="C13" t="n">
-        <v>56.3828</v>
+        <v>58.2168</v>
       </c>
       <c r="D13" t="n">
-        <v>72.4975</v>
+        <v>74.16419999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7651</v>
+        <v>28.8319</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0833</v>
+        <v>56.0191</v>
       </c>
       <c r="D14" t="n">
-        <v>73.7347</v>
+        <v>74.1739</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.9531</v>
+        <v>29.9019</v>
       </c>
       <c r="C15" t="n">
-        <v>57.7303</v>
+        <v>57.5927</v>
       </c>
       <c r="D15" t="n">
-        <v>74.4649</v>
+        <v>74.10639999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8091</v>
+        <v>29.964</v>
       </c>
       <c r="C16" t="n">
-        <v>57.4634</v>
+        <v>57.237</v>
       </c>
       <c r="D16" t="n">
-        <v>74.4678</v>
+        <v>74.99290000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9284</v>
+        <v>29.7536</v>
       </c>
       <c r="C17" t="n">
-        <v>57.933</v>
+        <v>57.4671</v>
       </c>
       <c r="D17" t="n">
-        <v>73.8163</v>
+        <v>73.64109999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1652</v>
+        <v>10.139</v>
       </c>
       <c r="C2" t="n">
-        <v>18.9371</v>
+        <v>18.8981</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5304</v>
+        <v>19.4889</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2427</v>
+        <v>9.93815</v>
       </c>
       <c r="C3" t="n">
-        <v>18.5986</v>
+        <v>18.396</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9446</v>
+        <v>22.9471</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.077</v>
+        <v>12.2306</v>
       </c>
       <c r="C4" t="n">
-        <v>22.9165</v>
+        <v>22.2157</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9628</v>
+        <v>29.7602</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8569</v>
+        <v>14.8495</v>
       </c>
       <c r="C5" t="n">
-        <v>27.7</v>
+        <v>27.6874</v>
       </c>
       <c r="D5" t="n">
-        <v>36.5894</v>
+        <v>35.5313</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7825</v>
+        <v>17.9443</v>
       </c>
       <c r="C6" t="n">
-        <v>32.4794</v>
+        <v>31.9466</v>
       </c>
       <c r="D6" t="n">
-        <v>42.637</v>
+        <v>42.5919</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.0818</v>
+        <v>21.8072</v>
       </c>
       <c r="C7" t="n">
-        <v>38.0975</v>
+        <v>37.9863</v>
       </c>
       <c r="D7" t="n">
-        <v>49.0341</v>
+        <v>47.9674</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.5887</v>
+        <v>24.309</v>
       </c>
       <c r="C8" t="n">
-        <v>40.4895</v>
+        <v>40.3656</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8704</v>
+        <v>51.8583</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2111</v>
+        <v>29.1745</v>
       </c>
       <c r="C9" t="n">
-        <v>45.7015</v>
+        <v>45.8042</v>
       </c>
       <c r="D9" t="n">
-        <v>58.5469</v>
+        <v>57.7408</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5141</v>
+        <v>24.7343</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3912</v>
+        <v>44.64</v>
       </c>
       <c r="D10" t="n">
-        <v>55.4179</v>
+        <v>54.915</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6161</v>
+        <v>24.9564</v>
       </c>
       <c r="C11" t="n">
-        <v>43.8678</v>
+        <v>42.1164</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6885</v>
+        <v>54.3845</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4378</v>
+        <v>25.5157</v>
       </c>
       <c r="C12" t="n">
-        <v>43.4633</v>
+        <v>43.5587</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1105</v>
+        <v>57.2438</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5827</v>
+        <v>26.8975</v>
       </c>
       <c r="C13" t="n">
-        <v>44.9617</v>
+        <v>44.7965</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6721</v>
+        <v>58.655</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.9713</v>
+        <v>25.8631</v>
       </c>
       <c r="C14" t="n">
-        <v>44.2746</v>
+        <v>44.4914</v>
       </c>
       <c r="D14" t="n">
-        <v>61.9678</v>
+        <v>61.2775</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4799</v>
+        <v>24.95</v>
       </c>
       <c r="C15" t="n">
-        <v>44.4447</v>
+        <v>44.1935</v>
       </c>
       <c r="D15" t="n">
-        <v>62.2923</v>
+        <v>62.5725</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3454</v>
+        <v>25.355</v>
       </c>
       <c r="C16" t="n">
-        <v>45.2294</v>
+        <v>44.5008</v>
       </c>
       <c r="D16" t="n">
-        <v>63.9994</v>
+        <v>63.0592</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5896</v>
+        <v>24.0414</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1903</v>
+        <v>46.2617</v>
       </c>
       <c r="D17" t="n">
-        <v>64.32550000000001</v>
+        <v>60.8532</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8882</v>
+        <v>10.9039</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8028</v>
+        <v>18.7431</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4035</v>
+        <v>19.3796</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.6216</v>
+        <v>10.5053</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6186</v>
+        <v>18.3651</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9709</v>
+        <v>22.6345</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.9309</v>
+        <v>12.6208</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3746</v>
+        <v>22.4351</v>
       </c>
       <c r="D4" t="n">
-        <v>29.5546</v>
+        <v>29.7139</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3079</v>
+        <v>15.2224</v>
       </c>
       <c r="C5" t="n">
-        <v>27.2249</v>
+        <v>26.5189</v>
       </c>
       <c r="D5" t="n">
-        <v>36.178</v>
+        <v>35.6225</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.38</v>
+        <v>18.616</v>
       </c>
       <c r="C6" t="n">
-        <v>31.8768</v>
+        <v>31.4794</v>
       </c>
       <c r="D6" t="n">
-        <v>43.2291</v>
+        <v>41.6192</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0017</v>
+        <v>22.1038</v>
       </c>
       <c r="C7" t="n">
-        <v>36.5757</v>
+        <v>36.9103</v>
       </c>
       <c r="D7" t="n">
-        <v>48.8941</v>
+        <v>46.7196</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0714</v>
+        <v>24.7622</v>
       </c>
       <c r="C8" t="n">
-        <v>41.2693</v>
+        <v>39.9362</v>
       </c>
       <c r="D8" t="n">
-        <v>53.602</v>
+        <v>50.5214</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3017</v>
+        <v>29.3163</v>
       </c>
       <c r="C9" t="n">
-        <v>45.405</v>
+        <v>44.012</v>
       </c>
       <c r="D9" t="n">
-        <v>59.988</v>
+        <v>56.0537</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.6939</v>
+        <v>25.5894</v>
       </c>
       <c r="C10" t="n">
-        <v>43.1895</v>
+        <v>44.1017</v>
       </c>
       <c r="D10" t="n">
-        <v>54.0701</v>
+        <v>55.5679</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8697</v>
+        <v>25.5398</v>
       </c>
       <c r="C11" t="n">
-        <v>41.7104</v>
+        <v>42.3639</v>
       </c>
       <c r="D11" t="n">
-        <v>55.0417</v>
+        <v>54.0783</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3625</v>
+        <v>26.2147</v>
       </c>
       <c r="C12" t="n">
-        <v>41.257</v>
+        <v>43.1011</v>
       </c>
       <c r="D12" t="n">
-        <v>57.5717</v>
+        <v>57.7756</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4156</v>
+        <v>26.6078</v>
       </c>
       <c r="C13" t="n">
-        <v>42.5026</v>
+        <v>42.4648</v>
       </c>
       <c r="D13" t="n">
-        <v>59.3416</v>
+        <v>59.7188</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.5673</v>
+        <v>25.6864</v>
       </c>
       <c r="C14" t="n">
-        <v>45.065</v>
+        <v>42.9143</v>
       </c>
       <c r="D14" t="n">
-        <v>59.9437</v>
+        <v>57.1896</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.5232</v>
+        <v>25.2368</v>
       </c>
       <c r="C15" t="n">
-        <v>46.2718</v>
+        <v>42.5874</v>
       </c>
       <c r="D15" t="n">
-        <v>58.6865</v>
+        <v>62.5129</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6028</v>
+        <v>25.5622</v>
       </c>
       <c r="C16" t="n">
-        <v>45.6675</v>
+        <v>46.4004</v>
       </c>
       <c r="D16" t="n">
-        <v>62.5548</v>
+        <v>59.149</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.4074</v>
+        <v>24.9684</v>
       </c>
       <c r="C17" t="n">
-        <v>46.1172</v>
+        <v>43.7251</v>
       </c>
       <c r="D17" t="n">
-        <v>60.7957</v>
+        <v>60.2106</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2226</v>
+        <v>14.0215</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2856</v>
+        <v>21.2787</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4571</v>
+        <v>20.4824</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3632</v>
+        <v>11.3291</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3366</v>
+        <v>19.6984</v>
       </c>
       <c r="D3" t="n">
-        <v>24.8203</v>
+        <v>25.0412</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2304</v>
+        <v>14.2227</v>
       </c>
       <c r="C4" t="n">
-        <v>24.8876</v>
+        <v>24.4145</v>
       </c>
       <c r="D4" t="n">
-        <v>31.6119</v>
+        <v>31.5707</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1638</v>
+        <v>17.117</v>
       </c>
       <c r="C5" t="n">
-        <v>30.3443</v>
+        <v>29.1938</v>
       </c>
       <c r="D5" t="n">
-        <v>39.1194</v>
+        <v>38.5875</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.8026</v>
+        <v>20.7664</v>
       </c>
       <c r="C6" t="n">
-        <v>34.5739</v>
+        <v>35.101</v>
       </c>
       <c r="D6" t="n">
-        <v>45.5074</v>
+        <v>44.1536</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.3735</v>
+        <v>24.4663</v>
       </c>
       <c r="C7" t="n">
-        <v>40.4641</v>
+        <v>41.0078</v>
       </c>
       <c r="D7" t="n">
-        <v>50.6433</v>
+        <v>51.3126</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6042</v>
+        <v>27.6449</v>
       </c>
       <c r="C8" t="n">
-        <v>43.2901</v>
+        <v>44.3863</v>
       </c>
       <c r="D8" t="n">
-        <v>55.0443</v>
+        <v>52.1131</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0152</v>
+        <v>31.9976</v>
       </c>
       <c r="C9" t="n">
-        <v>48.5157</v>
+        <v>47.8201</v>
       </c>
       <c r="D9" t="n">
-        <v>56.1767</v>
+        <v>56.4441</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.9584</v>
+        <v>29.5812</v>
       </c>
       <c r="C10" t="n">
-        <v>46.8312</v>
+        <v>46.4447</v>
       </c>
       <c r="D10" t="n">
-        <v>55.7442</v>
+        <v>55.8635</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9412</v>
+        <v>28.2658</v>
       </c>
       <c r="C11" t="n">
-        <v>46.2674</v>
+        <v>46.5091</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8317</v>
+        <v>55.7065</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1577</v>
+        <v>28.7751</v>
       </c>
       <c r="C12" t="n">
-        <v>47.5392</v>
+        <v>47.7755</v>
       </c>
       <c r="D12" t="n">
-        <v>56.8401</v>
+        <v>56.8745</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.7753</v>
+        <v>29.6725</v>
       </c>
       <c r="C13" t="n">
-        <v>48.2359</v>
+        <v>48.0574</v>
       </c>
       <c r="D13" t="n">
-        <v>58.7</v>
+        <v>57.7537</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.0196</v>
+        <v>28.1227</v>
       </c>
       <c r="C14" t="n">
-        <v>48.3965</v>
+        <v>46.1013</v>
       </c>
       <c r="D14" t="n">
-        <v>56.7235</v>
+        <v>56.5459</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.817</v>
+        <v>28.2896</v>
       </c>
       <c r="C15" t="n">
-        <v>47.9626</v>
+        <v>48.208</v>
       </c>
       <c r="D15" t="n">
-        <v>56.6944</v>
+        <v>55.6209</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.1444</v>
+        <v>28.2427</v>
       </c>
       <c r="C16" t="n">
-        <v>48.5638</v>
+        <v>49.5095</v>
       </c>
       <c r="D16" t="n">
-        <v>54.6059</v>
+        <v>56.4587</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1653</v>
+        <v>27.7351</v>
       </c>
       <c r="C17" t="n">
-        <v>46.3469</v>
+        <v>47.2396</v>
       </c>
       <c r="D17" t="n">
-        <v>56.3249</v>
+        <v>55.5273</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.91997</v>
+        <v>3.92177</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5558</v>
+        <v>13.5845</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8498</v>
+        <v>16.8167</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53827</v>
+        <v>6.53728</v>
       </c>
       <c r="C3" t="n">
-        <v>18.684</v>
+        <v>18.6466</v>
       </c>
       <c r="D3" t="n">
-        <v>24.8153</v>
+        <v>24.7836</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.49146</v>
+        <v>9.484439999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4754</v>
+        <v>24.6436</v>
       </c>
       <c r="D4" t="n">
-        <v>34.2868</v>
+        <v>34.1099</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2756</v>
+        <v>12.3452</v>
       </c>
       <c r="C5" t="n">
-        <v>30.4302</v>
+        <v>30.1222</v>
       </c>
       <c r="D5" t="n">
-        <v>43.3856</v>
+        <v>43.1839</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1928</v>
+        <v>15.0422</v>
       </c>
       <c r="C6" t="n">
-        <v>35.5429</v>
+        <v>35.8622</v>
       </c>
       <c r="D6" t="n">
-        <v>52.5952</v>
+        <v>52.6194</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7953</v>
+        <v>17.8638</v>
       </c>
       <c r="C7" t="n">
-        <v>41.5234</v>
+        <v>41.7641</v>
       </c>
       <c r="D7" t="n">
-        <v>62.1717</v>
+        <v>61.5705</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9686</v>
+        <v>20.8605</v>
       </c>
       <c r="C8" t="n">
-        <v>47.8851</v>
+        <v>47.5482</v>
       </c>
       <c r="D8" t="n">
-        <v>70.8531</v>
+        <v>70.3691</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0179</v>
+        <v>23.7021</v>
       </c>
       <c r="C9" t="n">
-        <v>57.0577</v>
+        <v>56.7159</v>
       </c>
       <c r="D9" t="n">
-        <v>79.27330000000001</v>
+        <v>78.87990000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1713</v>
+        <v>22.0179</v>
       </c>
       <c r="C10" t="n">
-        <v>51.4274</v>
+        <v>51.6985</v>
       </c>
       <c r="D10" t="n">
-        <v>68.9881</v>
+        <v>69.2739</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6933</v>
+        <v>21.7582</v>
       </c>
       <c r="C11" t="n">
-        <v>50.4817</v>
+        <v>50.7915</v>
       </c>
       <c r="D11" t="n">
-        <v>69.68000000000001</v>
+        <v>70.7535</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2363</v>
+        <v>22.2623</v>
       </c>
       <c r="C12" t="n">
-        <v>51.8424</v>
+        <v>51.7878</v>
       </c>
       <c r="D12" t="n">
-        <v>71.02160000000001</v>
+        <v>71.3484</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.751</v>
+        <v>22.6691</v>
       </c>
       <c r="C13" t="n">
-        <v>52.2109</v>
+        <v>52.624</v>
       </c>
       <c r="D13" t="n">
-        <v>71.64060000000001</v>
+        <v>72.20050000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9575</v>
+        <v>21.923</v>
       </c>
       <c r="C14" t="n">
-        <v>51.3393</v>
+        <v>51.7274</v>
       </c>
       <c r="D14" t="n">
-        <v>71.7453</v>
+        <v>71.0975</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8104</v>
+        <v>23.0559</v>
       </c>
       <c r="C15" t="n">
-        <v>52.6117</v>
+        <v>51.4108</v>
       </c>
       <c r="D15" t="n">
-        <v>71.27209999999999</v>
+        <v>69.84229999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8678</v>
+        <v>22.8044</v>
       </c>
       <c r="C16" t="n">
-        <v>52.4574</v>
+        <v>52.658</v>
       </c>
       <c r="D16" t="n">
-        <v>72.423</v>
+        <v>72.3711</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1276</v>
+        <v>22.5295</v>
       </c>
       <c r="C17" t="n">
-        <v>51.9452</v>
+        <v>52.5415</v>
       </c>
       <c r="D17" t="n">
-        <v>72.4085</v>
+        <v>71.9646</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01956</v>
+        <v>4.01146</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5546</v>
+        <v>13.5768</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0004</v>
+        <v>16.9099</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52171</v>
+        <v>6.59335</v>
       </c>
       <c r="C3" t="n">
-        <v>17.9536</v>
+        <v>18.1669</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3525</v>
+        <v>24.5423</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.45983</v>
+        <v>9.41724</v>
       </c>
       <c r="C4" t="n">
-        <v>23.6941</v>
+        <v>23.8095</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8528</v>
+        <v>33.8139</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2874</v>
+        <v>12.1929</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2337</v>
+        <v>29.2388</v>
       </c>
       <c r="D5" t="n">
-        <v>42.7233</v>
+        <v>42.8393</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1554</v>
+        <v>15.1376</v>
       </c>
       <c r="C6" t="n">
-        <v>34.9147</v>
+        <v>34.8018</v>
       </c>
       <c r="D6" t="n">
-        <v>52.0268</v>
+        <v>52.1974</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8495</v>
+        <v>17.8697</v>
       </c>
       <c r="C7" t="n">
-        <v>40.9936</v>
+        <v>40.8872</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2161</v>
+        <v>61.4311</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.59</v>
+        <v>20.5563</v>
       </c>
       <c r="C8" t="n">
-        <v>46.8048</v>
+        <v>46.9683</v>
       </c>
       <c r="D8" t="n">
-        <v>70.32380000000001</v>
+        <v>70.35120000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7097</v>
+        <v>23.8036</v>
       </c>
       <c r="C9" t="n">
-        <v>55.1378</v>
+        <v>55.0233</v>
       </c>
       <c r="D9" t="n">
-        <v>79.432</v>
+        <v>78.9264</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2107</v>
+        <v>22.2526</v>
       </c>
       <c r="C10" t="n">
-        <v>50.0375</v>
+        <v>51.3243</v>
       </c>
       <c r="D10" t="n">
-        <v>67.8678</v>
+        <v>68.1057</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8307</v>
+        <v>21.7207</v>
       </c>
       <c r="C11" t="n">
-        <v>49.2539</v>
+        <v>49.8882</v>
       </c>
       <c r="D11" t="n">
-        <v>69.0883</v>
+        <v>68.46129999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3308</v>
+        <v>22.2067</v>
       </c>
       <c r="C12" t="n">
-        <v>50.2048</v>
+        <v>49.8468</v>
       </c>
       <c r="D12" t="n">
-        <v>70.2457</v>
+        <v>69.2179</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.639</v>
+        <v>22.523</v>
       </c>
       <c r="C13" t="n">
-        <v>51.4401</v>
+        <v>51.7687</v>
       </c>
       <c r="D13" t="n">
-        <v>72.80629999999999</v>
+        <v>71.62139999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9737</v>
+        <v>21.8221</v>
       </c>
       <c r="C14" t="n">
-        <v>50.4253</v>
+        <v>50.7477</v>
       </c>
       <c r="D14" t="n">
-        <v>70.8357</v>
+        <v>71.47329999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0958</v>
+        <v>22.8528</v>
       </c>
       <c r="C15" t="n">
-        <v>50.3664</v>
+        <v>50.3305</v>
       </c>
       <c r="D15" t="n">
-        <v>70.9742</v>
+        <v>70.5553</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8436</v>
+        <v>23.1025</v>
       </c>
       <c r="C16" t="n">
-        <v>51.1027</v>
+        <v>50.5675</v>
       </c>
       <c r="D16" t="n">
-        <v>70.9695</v>
+        <v>72.03530000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7942</v>
+        <v>22.8545</v>
       </c>
       <c r="C17" t="n">
-        <v>50.93</v>
+        <v>51.0253</v>
       </c>
       <c r="D17" t="n">
-        <v>72.8428</v>
+        <v>70.83320000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69924</v>
+        <v>8.69341</v>
       </c>
       <c r="C2" t="n">
-        <v>19.4673</v>
+        <v>19.5283</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1205</v>
+        <v>20.1842</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3808</v>
+        <v>10.2055</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0812</v>
+        <v>20.0442</v>
       </c>
       <c r="D3" t="n">
-        <v>26.6701</v>
+        <v>26.5472</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2938</v>
+        <v>13.2859</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7169</v>
+        <v>25.7258</v>
       </c>
       <c r="D4" t="n">
-        <v>36.2138</v>
+        <v>36.4009</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4216</v>
+        <v>16.3798</v>
       </c>
       <c r="C5" t="n">
-        <v>31.6433</v>
+        <v>31.717</v>
       </c>
       <c r="D5" t="n">
-        <v>45.6261</v>
+        <v>45.5542</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5227</v>
+        <v>19.6789</v>
       </c>
       <c r="C6" t="n">
-        <v>38.2422</v>
+        <v>38.0546</v>
       </c>
       <c r="D6" t="n">
-        <v>54.3837</v>
+        <v>54.6208</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>23.0289</v>
+        <v>22.945</v>
       </c>
       <c r="C7" t="n">
-        <v>44.9964</v>
+        <v>44.5374</v>
       </c>
       <c r="D7" t="n">
-        <v>62.7166</v>
+        <v>62.9572</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.6027</v>
+        <v>26.4907</v>
       </c>
       <c r="C8" t="n">
-        <v>51.9767</v>
+        <v>51.7874</v>
       </c>
       <c r="D8" t="n">
-        <v>71.0303</v>
+        <v>70.8788</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.229</v>
+        <v>31.3024</v>
       </c>
       <c r="C9" t="n">
-        <v>59.3547</v>
+        <v>59.8013</v>
       </c>
       <c r="D9" t="n">
-        <v>78.8811</v>
+        <v>79.614</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.6466</v>
+        <v>29.2829</v>
       </c>
       <c r="C10" t="n">
-        <v>55.796</v>
+        <v>54.9281</v>
       </c>
       <c r="D10" t="n">
-        <v>69.5936</v>
+        <v>70.4105</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.2061</v>
+        <v>28.6606</v>
       </c>
       <c r="C11" t="n">
-        <v>55.7058</v>
+        <v>54.9401</v>
       </c>
       <c r="D11" t="n">
-        <v>69.145</v>
+        <v>71.0449</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5579</v>
+        <v>29.4</v>
       </c>
       <c r="C12" t="n">
-        <v>55.5873</v>
+        <v>56.415</v>
       </c>
       <c r="D12" t="n">
-        <v>74.3489</v>
+        <v>72.9843</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7435</v>
+        <v>29.7252</v>
       </c>
       <c r="C13" t="n">
-        <v>58.2168</v>
+        <v>56.6877</v>
       </c>
       <c r="D13" t="n">
-        <v>74.16419999999999</v>
+        <v>74.9529</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8319</v>
+        <v>28.8098</v>
       </c>
       <c r="C14" t="n">
-        <v>56.0191</v>
+        <v>56.4462</v>
       </c>
       <c r="D14" t="n">
-        <v>74.1739</v>
+        <v>74.2882</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.9019</v>
+        <v>30.1691</v>
       </c>
       <c r="C15" t="n">
-        <v>57.5927</v>
+        <v>57.4557</v>
       </c>
       <c r="D15" t="n">
-        <v>74.10639999999999</v>
+        <v>74.96339999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.964</v>
+        <v>29.8822</v>
       </c>
       <c r="C16" t="n">
-        <v>57.237</v>
+        <v>57.1838</v>
       </c>
       <c r="D16" t="n">
-        <v>74.99290000000001</v>
+        <v>74.80549999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.7536</v>
+        <v>29.9759</v>
       </c>
       <c r="C17" t="n">
-        <v>57.4671</v>
+        <v>57.1784</v>
       </c>
       <c r="D17" t="n">
-        <v>73.64109999999999</v>
+        <v>73.7501</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4087,13 +4087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.139</v>
+        <v>10.1779</v>
       </c>
       <c r="C2" t="n">
-        <v>18.8981</v>
+        <v>15.2205</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4889</v>
+        <v>19.4769</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.93815</v>
+        <v>10.03</v>
       </c>
       <c r="C3" t="n">
-        <v>18.396</v>
+        <v>10.8334</v>
       </c>
       <c r="D3" t="n">
-        <v>22.9471</v>
+        <v>22.9523</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2306</v>
+        <v>12.1641</v>
       </c>
       <c r="C4" t="n">
-        <v>22.2157</v>
+        <v>12.553</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7602</v>
+        <v>30.0881</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4129,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8495</v>
+        <v>14.5061</v>
       </c>
       <c r="C5" t="n">
-        <v>27.6874</v>
+        <v>15.0555</v>
       </c>
       <c r="D5" t="n">
-        <v>35.5313</v>
+        <v>36.538</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9443</v>
+        <v>17.9889</v>
       </c>
       <c r="C6" t="n">
-        <v>31.9466</v>
+        <v>17.5567</v>
       </c>
       <c r="D6" t="n">
-        <v>42.5919</v>
+        <v>42.7988</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4157,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8072</v>
+        <v>21.5454</v>
       </c>
       <c r="C7" t="n">
-        <v>37.9863</v>
+        <v>20.4111</v>
       </c>
       <c r="D7" t="n">
-        <v>47.9674</v>
+        <v>47.9563</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4171,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.309</v>
+        <v>24.1944</v>
       </c>
       <c r="C8" t="n">
-        <v>40.3656</v>
+        <v>22.6144</v>
       </c>
       <c r="D8" t="n">
-        <v>51.8583</v>
+        <v>51.5189</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4185,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1745</v>
+        <v>29.1675</v>
       </c>
       <c r="C9" t="n">
-        <v>45.8042</v>
+        <v>24.9057</v>
       </c>
       <c r="D9" t="n">
-        <v>57.7408</v>
+        <v>58.3647</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4199,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7343</v>
+        <v>25.2443</v>
       </c>
       <c r="C10" t="n">
-        <v>44.64</v>
+        <v>24.5327</v>
       </c>
       <c r="D10" t="n">
-        <v>54.915</v>
+        <v>54.1539</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9564</v>
+        <v>24.577</v>
       </c>
       <c r="C11" t="n">
-        <v>42.1164</v>
+        <v>23.8909</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3845</v>
+        <v>56.1792</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4227,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5157</v>
+        <v>26.3408</v>
       </c>
       <c r="C12" t="n">
-        <v>43.5587</v>
+        <v>24.359</v>
       </c>
       <c r="D12" t="n">
-        <v>57.2438</v>
+        <v>55.3084</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4241,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.8975</v>
+        <v>25.3679</v>
       </c>
       <c r="C13" t="n">
-        <v>44.7965</v>
+        <v>24.8096</v>
       </c>
       <c r="D13" t="n">
-        <v>58.655</v>
+        <v>60.2134</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +4255,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.8631</v>
+        <v>24.9057</v>
       </c>
       <c r="C14" t="n">
-        <v>44.4914</v>
+        <v>25.7331</v>
       </c>
       <c r="D14" t="n">
-        <v>61.2775</v>
+        <v>59.8583</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +4269,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.95</v>
+        <v>24.4694</v>
       </c>
       <c r="C15" t="n">
-        <v>44.1935</v>
+        <v>26.2812</v>
       </c>
       <c r="D15" t="n">
-        <v>62.5725</v>
+        <v>61.4484</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.355</v>
+        <v>25.3539</v>
       </c>
       <c r="C16" t="n">
-        <v>44.5008</v>
+        <v>27.2417</v>
       </c>
       <c r="D16" t="n">
-        <v>63.0592</v>
+        <v>60.935</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +4297,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0414</v>
+        <v>24.015</v>
       </c>
       <c r="C17" t="n">
-        <v>46.2617</v>
+        <v>27.5075</v>
       </c>
       <c r="D17" t="n">
-        <v>60.8532</v>
+        <v>64.85250000000001</v>
       </c>
     </row>
   </sheetData>
@@ -4351,13 +4351,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9039</v>
+        <v>11.0373</v>
       </c>
       <c r="C2" t="n">
-        <v>18.7431</v>
+        <v>15.09</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3796</v>
+        <v>19.3411</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +4365,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5053</v>
+        <v>10.25</v>
       </c>
       <c r="C3" t="n">
-        <v>18.3651</v>
+        <v>10.5937</v>
       </c>
       <c r="D3" t="n">
-        <v>22.6345</v>
+        <v>22.4723</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6208</v>
+        <v>12.2333</v>
       </c>
       <c r="C4" t="n">
-        <v>22.4351</v>
+        <v>12.4489</v>
       </c>
       <c r="D4" t="n">
-        <v>29.7139</v>
+        <v>29.2438</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +4393,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.2224</v>
+        <v>15.3654</v>
       </c>
       <c r="C5" t="n">
-        <v>26.5189</v>
+        <v>14.9769</v>
       </c>
       <c r="D5" t="n">
-        <v>35.6225</v>
+        <v>35.5861</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +4407,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.616</v>
+        <v>18.3674</v>
       </c>
       <c r="C6" t="n">
-        <v>31.4794</v>
+        <v>17.5751</v>
       </c>
       <c r="D6" t="n">
-        <v>41.6192</v>
+        <v>42.2707</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +4421,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1038</v>
+        <v>22.0801</v>
       </c>
       <c r="C7" t="n">
-        <v>36.9103</v>
+        <v>20.3141</v>
       </c>
       <c r="D7" t="n">
-        <v>46.7196</v>
+        <v>47.5656</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +4435,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.7622</v>
+        <v>24.4896</v>
       </c>
       <c r="C8" t="n">
-        <v>39.9362</v>
+        <v>22.4678</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5214</v>
+        <v>51.8971</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +4449,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3163</v>
+        <v>28.7975</v>
       </c>
       <c r="C9" t="n">
-        <v>44.012</v>
+        <v>24.9945</v>
       </c>
       <c r="D9" t="n">
-        <v>56.0537</v>
+        <v>56.9175</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +4463,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5894</v>
+        <v>25.4432</v>
       </c>
       <c r="C10" t="n">
-        <v>44.1017</v>
+        <v>24.5736</v>
       </c>
       <c r="D10" t="n">
-        <v>55.5679</v>
+        <v>53.32</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +4477,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5398</v>
+        <v>24.9509</v>
       </c>
       <c r="C11" t="n">
-        <v>42.3639</v>
+        <v>23.9086</v>
       </c>
       <c r="D11" t="n">
-        <v>54.0783</v>
+        <v>53.985</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +4491,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.2147</v>
+        <v>25.7466</v>
       </c>
       <c r="C12" t="n">
-        <v>43.1011</v>
+        <v>24.595</v>
       </c>
       <c r="D12" t="n">
-        <v>57.7756</v>
+        <v>56.9807</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +4505,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.6078</v>
+        <v>26.706</v>
       </c>
       <c r="C13" t="n">
-        <v>42.4648</v>
+        <v>24.8315</v>
       </c>
       <c r="D13" t="n">
-        <v>59.7188</v>
+        <v>60.6776</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +4519,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.6864</v>
+        <v>26.0156</v>
       </c>
       <c r="C14" t="n">
-        <v>42.9143</v>
+        <v>25.6462</v>
       </c>
       <c r="D14" t="n">
-        <v>57.1896</v>
+        <v>58.7744</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +4533,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2368</v>
+        <v>24.905</v>
       </c>
       <c r="C15" t="n">
-        <v>42.5874</v>
+        <v>26.4752</v>
       </c>
       <c r="D15" t="n">
-        <v>62.5129</v>
+        <v>61.8635</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +4547,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5622</v>
+        <v>26.092</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4004</v>
+        <v>27.141</v>
       </c>
       <c r="D16" t="n">
-        <v>59.149</v>
+        <v>60.6022</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +4561,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9684</v>
+        <v>24.0789</v>
       </c>
       <c r="C17" t="n">
-        <v>43.7251</v>
+        <v>27.8822</v>
       </c>
       <c r="D17" t="n">
-        <v>60.2106</v>
+        <v>60.6852</v>
       </c>
     </row>
   </sheetData>
@@ -4615,13 +4615,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.0215</v>
+        <v>14.2553</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2787</v>
+        <v>17.3533</v>
       </c>
       <c r="D2" t="n">
-        <v>20.4824</v>
+        <v>20.522</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +4629,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3291</v>
+        <v>11.1229</v>
       </c>
       <c r="C3" t="n">
-        <v>19.6984</v>
+        <v>11.92</v>
       </c>
       <c r="D3" t="n">
-        <v>25.0412</v>
+        <v>24.8394</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +4643,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2227</v>
+        <v>14.2653</v>
       </c>
       <c r="C4" t="n">
-        <v>24.4145</v>
+        <v>14.1874</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5707</v>
+        <v>31.8012</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +4657,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.117</v>
+        <v>17.1533</v>
       </c>
       <c r="C5" t="n">
-        <v>29.1938</v>
+        <v>16.9047</v>
       </c>
       <c r="D5" t="n">
-        <v>38.5875</v>
+        <v>38.0644</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +4671,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7664</v>
+        <v>20.7557</v>
       </c>
       <c r="C6" t="n">
-        <v>35.101</v>
+        <v>19.8848</v>
       </c>
       <c r="D6" t="n">
-        <v>44.1536</v>
+        <v>43.1345</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +4685,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4663</v>
+        <v>24.3951</v>
       </c>
       <c r="C7" t="n">
-        <v>41.0078</v>
+        <v>22.778</v>
       </c>
       <c r="D7" t="n">
-        <v>51.3126</v>
+        <v>50.1466</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +4699,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6449</v>
+        <v>27.5031</v>
       </c>
       <c r="C8" t="n">
-        <v>44.3863</v>
+        <v>25.1844</v>
       </c>
       <c r="D8" t="n">
-        <v>52.1131</v>
+        <v>53.8736</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9976</v>
+        <v>31.9595</v>
       </c>
       <c r="C9" t="n">
-        <v>47.8201</v>
+        <v>27.498</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4441</v>
+        <v>57.2219</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.5812</v>
+        <v>29.3673</v>
       </c>
       <c r="C10" t="n">
-        <v>46.4447</v>
+        <v>26.5796</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8635</v>
+        <v>55.592</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +4741,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2658</v>
+        <v>28.4913</v>
       </c>
       <c r="C11" t="n">
-        <v>46.5091</v>
+        <v>25.6717</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7065</v>
+        <v>56.6745</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +4755,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7751</v>
+        <v>28.8185</v>
       </c>
       <c r="C12" t="n">
-        <v>47.7755</v>
+        <v>26.0223</v>
       </c>
       <c r="D12" t="n">
-        <v>56.8745</v>
+        <v>55.8526</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +4769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6725</v>
+        <v>30.439</v>
       </c>
       <c r="C13" t="n">
-        <v>48.0574</v>
+        <v>26.8378</v>
       </c>
       <c r="D13" t="n">
-        <v>57.7537</v>
+        <v>57.2167</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +4783,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.1227</v>
+        <v>28.7232</v>
       </c>
       <c r="C14" t="n">
-        <v>46.1013</v>
+        <v>27.2584</v>
       </c>
       <c r="D14" t="n">
-        <v>56.5459</v>
+        <v>60.446</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +4797,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2896</v>
+        <v>27.9122</v>
       </c>
       <c r="C15" t="n">
-        <v>48.208</v>
+        <v>28.05</v>
       </c>
       <c r="D15" t="n">
-        <v>55.6209</v>
+        <v>57.3184</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +4811,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2427</v>
+        <v>27.9382</v>
       </c>
       <c r="C16" t="n">
-        <v>49.5095</v>
+        <v>28.8754</v>
       </c>
       <c r="D16" t="n">
-        <v>56.4587</v>
+        <v>54.2403</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7351</v>
+        <v>27.9982</v>
       </c>
       <c r="C17" t="n">
-        <v>47.2396</v>
+        <v>29.4876</v>
       </c>
       <c r="D17" t="n">
-        <v>55.5273</v>
+        <v>54.641</v>
       </c>
     </row>
   </sheetData>
@@ -4879,13 +4879,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92177</v>
+        <v>3.92673</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5845</v>
+        <v>11.3296</v>
       </c>
       <c r="D2" t="n">
-        <v>16.8167</v>
+        <v>16.8213</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +4893,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53728</v>
+        <v>6.49615</v>
       </c>
       <c r="C3" t="n">
-        <v>18.6466</v>
+        <v>10.5081</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7836</v>
+        <v>24.7023</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +4907,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.484439999999999</v>
+        <v>9.4665</v>
       </c>
       <c r="C4" t="n">
-        <v>24.6436</v>
+        <v>12.7304</v>
       </c>
       <c r="D4" t="n">
-        <v>34.1099</v>
+        <v>34.1128</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +4921,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3452</v>
+        <v>12.3515</v>
       </c>
       <c r="C5" t="n">
-        <v>30.1222</v>
+        <v>15.208</v>
       </c>
       <c r="D5" t="n">
-        <v>43.1839</v>
+        <v>43.013</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +4935,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0422</v>
+        <v>15.0823</v>
       </c>
       <c r="C6" t="n">
-        <v>35.8622</v>
+        <v>17.8946</v>
       </c>
       <c r="D6" t="n">
-        <v>52.6194</v>
+        <v>52.593</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +4949,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8638</v>
+        <v>17.9328</v>
       </c>
       <c r="C7" t="n">
-        <v>41.7641</v>
+        <v>20.5628</v>
       </c>
       <c r="D7" t="n">
-        <v>61.5705</v>
+        <v>61.4495</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +4963,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8605</v>
+        <v>20.9473</v>
       </c>
       <c r="C8" t="n">
-        <v>47.5482</v>
+        <v>23.6663</v>
       </c>
       <c r="D8" t="n">
-        <v>70.3691</v>
+        <v>70.0141</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +4977,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7021</v>
+        <v>23.7571</v>
       </c>
       <c r="C9" t="n">
-        <v>56.7159</v>
+        <v>27.0561</v>
       </c>
       <c r="D9" t="n">
-        <v>78.87990000000001</v>
+        <v>79.08150000000001</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +4991,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0179</v>
+        <v>22.1254</v>
       </c>
       <c r="C10" t="n">
-        <v>51.6985</v>
+        <v>25.4522</v>
       </c>
       <c r="D10" t="n">
-        <v>69.2739</v>
+        <v>71.8515</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5005,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7582</v>
+        <v>21.8322</v>
       </c>
       <c r="C11" t="n">
-        <v>50.7915</v>
+        <v>24.9934</v>
       </c>
       <c r="D11" t="n">
-        <v>70.7535</v>
+        <v>70.3604</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5019,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2623</v>
+        <v>22.1549</v>
       </c>
       <c r="C12" t="n">
-        <v>51.7878</v>
+        <v>25.1877</v>
       </c>
       <c r="D12" t="n">
-        <v>71.3484</v>
+        <v>71.3746</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5033,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6691</v>
+        <v>22.5724</v>
       </c>
       <c r="C13" t="n">
-        <v>52.624</v>
+        <v>25.6319</v>
       </c>
       <c r="D13" t="n">
-        <v>72.20050000000001</v>
+        <v>71.58199999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5047,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.923</v>
+        <v>21.7017</v>
       </c>
       <c r="C14" t="n">
-        <v>51.7274</v>
+        <v>25.9076</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0975</v>
+        <v>71.5402</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5061,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0559</v>
+        <v>22.8735</v>
       </c>
       <c r="C15" t="n">
-        <v>51.4108</v>
+        <v>26.2994</v>
       </c>
       <c r="D15" t="n">
-        <v>69.84229999999999</v>
+        <v>71.5504</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5075,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8044</v>
+        <v>22.6785</v>
       </c>
       <c r="C16" t="n">
-        <v>52.658</v>
+        <v>26.9086</v>
       </c>
       <c r="D16" t="n">
-        <v>72.3711</v>
+        <v>72.59439999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +5089,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5295</v>
+        <v>22.9202</v>
       </c>
       <c r="C17" t="n">
-        <v>52.5415</v>
+        <v>27.7096</v>
       </c>
       <c r="D17" t="n">
-        <v>71.9646</v>
+        <v>73.3352</v>
       </c>
     </row>
   </sheetData>
@@ -5143,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01146</v>
+        <v>3.98053</v>
       </c>
       <c r="C2" t="n">
-        <v>13.5768</v>
+        <v>11.4595</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9099</v>
+        <v>16.899</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +5157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.59335</v>
+        <v>6.52899</v>
       </c>
       <c r="C3" t="n">
-        <v>18.1669</v>
+        <v>10.3581</v>
       </c>
       <c r="D3" t="n">
-        <v>24.5423</v>
+        <v>24.3049</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +5171,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.41724</v>
+        <v>9.44727</v>
       </c>
       <c r="C4" t="n">
-        <v>23.8095</v>
+        <v>12.72</v>
       </c>
       <c r="D4" t="n">
-        <v>33.8139</v>
+        <v>33.7914</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +5185,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1929</v>
+        <v>12.2223</v>
       </c>
       <c r="C5" t="n">
-        <v>29.2388</v>
+        <v>15.2298</v>
       </c>
       <c r="D5" t="n">
-        <v>42.8393</v>
+        <v>42.7455</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +5199,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1376</v>
+        <v>15.0971</v>
       </c>
       <c r="C6" t="n">
-        <v>34.8018</v>
+        <v>17.8699</v>
       </c>
       <c r="D6" t="n">
-        <v>52.1974</v>
+        <v>52.052</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +5213,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8697</v>
+        <v>17.8068</v>
       </c>
       <c r="C7" t="n">
-        <v>40.8872</v>
+        <v>20.6309</v>
       </c>
       <c r="D7" t="n">
-        <v>61.4311</v>
+        <v>60.7317</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +5227,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5563</v>
+        <v>20.8217</v>
       </c>
       <c r="C8" t="n">
-        <v>46.9683</v>
+        <v>23.6228</v>
       </c>
       <c r="D8" t="n">
-        <v>70.35120000000001</v>
+        <v>70.2341</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +5241,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8036</v>
+        <v>23.8264</v>
       </c>
       <c r="C9" t="n">
-        <v>55.0233</v>
+        <v>27.1997</v>
       </c>
       <c r="D9" t="n">
-        <v>78.9264</v>
+        <v>78.80840000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +5255,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2526</v>
+        <v>22.0694</v>
       </c>
       <c r="C10" t="n">
-        <v>51.3243</v>
+        <v>25.2105</v>
       </c>
       <c r="D10" t="n">
-        <v>68.1057</v>
+        <v>68.4126</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +5269,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7207</v>
+        <v>22.0984</v>
       </c>
       <c r="C11" t="n">
-        <v>49.8882</v>
+        <v>25.2772</v>
       </c>
       <c r="D11" t="n">
-        <v>68.46129999999999</v>
+        <v>70.1999</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2067</v>
+        <v>22.0457</v>
       </c>
       <c r="C12" t="n">
-        <v>49.8468</v>
+        <v>25.2481</v>
       </c>
       <c r="D12" t="n">
-        <v>69.2179</v>
+        <v>70.96550000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.523</v>
+        <v>22.6774</v>
       </c>
       <c r="C13" t="n">
-        <v>51.7687</v>
+        <v>25.474</v>
       </c>
       <c r="D13" t="n">
-        <v>71.62139999999999</v>
+        <v>72.2197</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +5311,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8221</v>
+        <v>21.957</v>
       </c>
       <c r="C14" t="n">
-        <v>50.7477</v>
+        <v>25.7658</v>
       </c>
       <c r="D14" t="n">
-        <v>71.47329999999999</v>
+        <v>70.1623</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +5325,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8528</v>
+        <v>23.0661</v>
       </c>
       <c r="C15" t="n">
-        <v>50.3305</v>
+        <v>26.2428</v>
       </c>
       <c r="D15" t="n">
-        <v>70.5553</v>
+        <v>71.8249</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.1025</v>
+        <v>22.8351</v>
       </c>
       <c r="C16" t="n">
-        <v>50.5675</v>
+        <v>26.937</v>
       </c>
       <c r="D16" t="n">
-        <v>72.03530000000001</v>
+        <v>72.0104</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +5353,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8545</v>
+        <v>22.6134</v>
       </c>
       <c r="C17" t="n">
-        <v>51.0253</v>
+        <v>27.5995</v>
       </c>
       <c r="D17" t="n">
-        <v>70.83320000000001</v>
+        <v>71.92489999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5374,7 +5374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="F27" sqref="F27"/>
@@ -5407,13 +5407,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69341</v>
+        <v>8.70149</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5283</v>
+        <v>15.7178</v>
       </c>
       <c r="D2" t="n">
-        <v>20.1842</v>
+        <v>20.232</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2055</v>
+        <v>10.3959</v>
       </c>
       <c r="C3" t="n">
-        <v>20.0442</v>
+        <v>11.9137</v>
       </c>
       <c r="D3" t="n">
-        <v>26.5472</v>
+        <v>26.8306</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +5435,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2859</v>
+        <v>13.3221</v>
       </c>
       <c r="C4" t="n">
-        <v>25.7258</v>
+        <v>13.8447</v>
       </c>
       <c r="D4" t="n">
-        <v>36.4009</v>
+        <v>36.4148</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +5449,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3798</v>
+        <v>16.4002</v>
       </c>
       <c r="C5" t="n">
-        <v>31.717</v>
+        <v>16.3281</v>
       </c>
       <c r="D5" t="n">
-        <v>45.5542</v>
+        <v>45.4964</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +5463,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6789</v>
+        <v>19.6177</v>
       </c>
       <c r="C6" t="n">
-        <v>38.0546</v>
+        <v>19.1733</v>
       </c>
       <c r="D6" t="n">
-        <v>54.6208</v>
+        <v>54.81</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +5477,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.945</v>
+        <v>22.8562</v>
       </c>
       <c r="C7" t="n">
-        <v>44.5374</v>
+        <v>21.8921</v>
       </c>
       <c r="D7" t="n">
-        <v>62.9572</v>
+        <v>62.9682</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +5491,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4907</v>
+        <v>26.5415</v>
       </c>
       <c r="C8" t="n">
-        <v>51.7874</v>
+        <v>24.9064</v>
       </c>
       <c r="D8" t="n">
-        <v>70.8788</v>
+        <v>70.82850000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +5505,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3024</v>
+        <v>31.2839</v>
       </c>
       <c r="C9" t="n">
-        <v>59.8013</v>
+        <v>27.6506</v>
       </c>
       <c r="D9" t="n">
-        <v>79.614</v>
+        <v>78.83320000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +5519,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2829</v>
+        <v>29.2111</v>
       </c>
       <c r="C10" t="n">
-        <v>54.9281</v>
+        <v>26.5949</v>
       </c>
       <c r="D10" t="n">
-        <v>70.4105</v>
+        <v>69.4786</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +5533,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6606</v>
+        <v>29.1995</v>
       </c>
       <c r="C11" t="n">
-        <v>54.9401</v>
+        <v>26.4564</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0449</v>
+        <v>71.5955</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +5547,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4</v>
+        <v>29.6514</v>
       </c>
       <c r="C12" t="n">
-        <v>56.415</v>
+        <v>26.768</v>
       </c>
       <c r="D12" t="n">
-        <v>72.9843</v>
+        <v>73.1241</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +5561,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7252</v>
+        <v>29.5301</v>
       </c>
       <c r="C13" t="n">
-        <v>56.6877</v>
+        <v>27.341</v>
       </c>
       <c r="D13" t="n">
-        <v>74.9529</v>
+        <v>74.03879999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +5575,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8098</v>
+        <v>28.7127</v>
       </c>
       <c r="C14" t="n">
-        <v>56.4462</v>
+        <v>27.8653</v>
       </c>
       <c r="D14" t="n">
-        <v>74.2882</v>
+        <v>74.0829</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +5589,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.1691</v>
+        <v>29.9598</v>
       </c>
       <c r="C15" t="n">
-        <v>57.4557</v>
+        <v>28.5724</v>
       </c>
       <c r="D15" t="n">
-        <v>74.96339999999999</v>
+        <v>74.8413</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +5603,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8822</v>
+        <v>29.8706</v>
       </c>
       <c r="C16" t="n">
-        <v>57.1838</v>
+        <v>29.3514</v>
       </c>
       <c r="D16" t="n">
-        <v>74.80549999999999</v>
+        <v>75.36109999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +5617,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9759</v>
+        <v>30.4259</v>
       </c>
       <c r="C17" t="n">
-        <v>57.1784</v>
+        <v>30.2455</v>
       </c>
       <c r="D17" t="n">
-        <v>73.7501</v>
+        <v>74.3788</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.8155</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.9806</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.2169</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.1888</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>30.3287</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.0105</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.9483</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.5799</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.6174</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.6067</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.923</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.1742</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>37.5687</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.547</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.5465</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7523</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -278,7 +278,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.0237</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.5483</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7479</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.4058</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.3727</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.4698</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.0389</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.9232</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.4942</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0776</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.1283</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2963</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.9511</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.9614</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.9461</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>36.1476</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -424,7 +424,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.3402</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>30.0421</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.4251</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>45.4028</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>40.8164</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.9466</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.5062</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.9299</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.7653</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>40.7763</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.2757</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.4834</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3856</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.812</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.5151</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.17</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.3115</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>21.3377</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.9759</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>36.9453</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.0078</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.567</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.0236</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7934</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1537</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>41.2269</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.044</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.2941</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4397</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.4343</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.9971</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2668</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -856,7 +974,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.8756</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.3022</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>30.7141</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>32.7353</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.4842</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.8729</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.3784</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.8949</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.2611</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.1615</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>35.6816</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.4094</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.4607</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.6837</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>35.4533</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1002,7 +1120,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>18.2281</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>29.3131</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0279</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>43.3401</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.9461</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.324</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3256</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>42.357</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>42.9263</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>44.4764</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>42.4995</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>38.8887</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.0915</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>53.1451</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.3253</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.6415</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.38</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.6113</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.9767</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>34.9982</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>31.855</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>32.9548</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>34.3225</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.5931</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.1243</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.0461</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.6745</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.6163</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.7882</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.093</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.0737</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.2469</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1434,7 +1670,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.6187</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.3232</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>32.0667</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>42.0206</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.439</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>33.6879</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.8504</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>32.7418</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.4355</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.636</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.676</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.8253</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.4019</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.7958</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7958</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>31.9247</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1580,7 +1816,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>19.4058</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>28.4519</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.4547</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>51.6131</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.8486</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.9607</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.7581</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>35.3177</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>35.5044</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.2708</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>37.9998</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>42.7806</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.4542</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>40.6207</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.0763</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>47.8814</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.80876</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.074</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7496</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.5411</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.8405</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.3267</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.6785</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.1948</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.5386</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.7248</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7471</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.862</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.8593</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.8689</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.765</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.7869</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2012,7 +2366,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6049</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.5666</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.408</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.1723</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>35.6446</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.8439</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6128</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.0986</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.8964</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>42.4847</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.5297</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>43.2206</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>43.8155</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>43.8653</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>43.6721</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.1658</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2158,7 +2512,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.5764</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.8358</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>45.2819</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>59.1192</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>54.0172</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>54.4127</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>50.4742</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>51.9251</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.902</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>56.1517</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.5848</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>58.5013</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.9038</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>60.0247</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7863</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.8409</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>6.7868</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>13.0767</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>18.7607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>24.7009</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>27.0746</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.6125</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.971</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.3573</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8574</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.0887</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.2369</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.2309</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1931</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.1652</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.2482</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.2526</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2590,7 +3062,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>12.6582</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>22.6945</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>31.5816</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>40.5794</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>36.116</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.2347</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.8983</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>37.4908</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>40.6198</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>43.3567</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>43.8296</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>44.0611</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>44.0334</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>44.3743</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.3181</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>44.2489</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2736,7 +3208,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>16.2903</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>31.3309</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>44.6355</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>58.5385</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>53.488</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>53.6234</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>49.8641</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>52.2535</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>52.3654</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>55.1198</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>56.0094</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.4396</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>58.1217</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>59.5574</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>59.7426</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>60.2745</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>10.4883</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>20.1754</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>29.4118</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>38.4961</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.4254</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>41.5705</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>43.5271</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>45.6261</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>45.7379</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.3791</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.8115</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.6403</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.7812</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>45.4357</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>45.5424</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>45.8045</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3168,7 +3758,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map</v>
+                  <v>gtl::parallel_flat_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>15.5867</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>27.3727</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>37.9749</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>48.9446</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>41.8231</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>40.5591</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>40.3313</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.9787</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>43.3113</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>45.4197</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>45.7413</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>45.7938</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>45.9366</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>46.0147</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>46.0135</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>46.1628</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3314,7 +3904,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::concurrent_flat_map bulk</v>
+                  <v>boost::concurrent_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>20.0769</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>37.848</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>53.4698</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>70.1417</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>61.037</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>59.6639</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>51.8797</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>54.1691</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>51.4956</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>54.8678</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>54.8131</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>57.006</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>56.6955</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>58.2771</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>58.3954</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>59.4764</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4073,10 +4781,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4093,6 +4806,9 @@
         <v>15.2205</v>
       </c>
       <c r="D2" t="n">
+        <v>18.941</v>
+      </c>
+      <c r="E2" t="n">
         <v>19.4769</v>
       </c>
     </row>
@@ -4107,6 +4823,9 @@
         <v>10.8334</v>
       </c>
       <c r="D3" t="n">
+        <v>18.5586</v>
+      </c>
+      <c r="E3" t="n">
         <v>22.9523</v>
       </c>
     </row>
@@ -4121,6 +4840,9 @@
         <v>12.553</v>
       </c>
       <c r="D4" t="n">
+        <v>23.2864</v>
+      </c>
+      <c r="E4" t="n">
         <v>30.0881</v>
       </c>
     </row>
@@ -4135,6 +4857,9 @@
         <v>15.0555</v>
       </c>
       <c r="D5" t="n">
+        <v>27.4191</v>
+      </c>
+      <c r="E5" t="n">
         <v>36.538</v>
       </c>
     </row>
@@ -4149,6 +4874,9 @@
         <v>17.5567</v>
       </c>
       <c r="D6" t="n">
+        <v>32.1399</v>
+      </c>
+      <c r="E6" t="n">
         <v>42.7988</v>
       </c>
     </row>
@@ -4163,6 +4891,9 @@
         <v>20.4111</v>
       </c>
       <c r="D7" t="n">
+        <v>36.7694</v>
+      </c>
+      <c r="E7" t="n">
         <v>47.9563</v>
       </c>
     </row>
@@ -4177,6 +4908,9 @@
         <v>22.6144</v>
       </c>
       <c r="D8" t="n">
+        <v>40.8433</v>
+      </c>
+      <c r="E8" t="n">
         <v>51.5189</v>
       </c>
     </row>
@@ -4191,6 +4925,9 @@
         <v>24.9057</v>
       </c>
       <c r="D9" t="n">
+        <v>45.479</v>
+      </c>
+      <c r="E9" t="n">
         <v>58.3647</v>
       </c>
     </row>
@@ -4205,6 +4942,9 @@
         <v>24.5327</v>
       </c>
       <c r="D10" t="n">
+        <v>44.5238</v>
+      </c>
+      <c r="E10" t="n">
         <v>54.1539</v>
       </c>
     </row>
@@ -4219,6 +4959,9 @@
         <v>23.8909</v>
       </c>
       <c r="D11" t="n">
+        <v>43.5638</v>
+      </c>
+      <c r="E11" t="n">
         <v>56.1792</v>
       </c>
     </row>
@@ -4233,6 +4976,9 @@
         <v>24.359</v>
       </c>
       <c r="D12" t="n">
+        <v>44.4011</v>
+      </c>
+      <c r="E12" t="n">
         <v>55.3084</v>
       </c>
     </row>
@@ -4247,6 +4993,9 @@
         <v>24.8096</v>
       </c>
       <c r="D13" t="n">
+        <v>44.4143</v>
+      </c>
+      <c r="E13" t="n">
         <v>60.2134</v>
       </c>
     </row>
@@ -4261,6 +5010,9 @@
         <v>25.7331</v>
       </c>
       <c r="D14" t="n">
+        <v>43.8091</v>
+      </c>
+      <c r="E14" t="n">
         <v>59.8583</v>
       </c>
     </row>
@@ -4275,6 +5027,9 @@
         <v>26.2812</v>
       </c>
       <c r="D15" t="n">
+        <v>46.0337</v>
+      </c>
+      <c r="E15" t="n">
         <v>61.4484</v>
       </c>
     </row>
@@ -4289,6 +5044,9 @@
         <v>27.2417</v>
       </c>
       <c r="D16" t="n">
+        <v>46.4066</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.935</v>
       </c>
     </row>
@@ -4303,6 +5061,9 @@
         <v>27.5075</v>
       </c>
       <c r="D17" t="n">
+        <v>43.9103</v>
+      </c>
+      <c r="E17" t="n">
         <v>64.85250000000001</v>
       </c>
     </row>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4337,10 +5098,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4357,6 +5123,9 @@
         <v>15.09</v>
       </c>
       <c r="D2" t="n">
+        <v>18.7976</v>
+      </c>
+      <c r="E2" t="n">
         <v>19.3411</v>
       </c>
     </row>
@@ -4371,6 +5140,9 @@
         <v>10.5937</v>
       </c>
       <c r="D3" t="n">
+        <v>17.8912</v>
+      </c>
+      <c r="E3" t="n">
         <v>22.4723</v>
       </c>
     </row>
@@ -4385,6 +5157,9 @@
         <v>12.4489</v>
       </c>
       <c r="D4" t="n">
+        <v>22.4156</v>
+      </c>
+      <c r="E4" t="n">
         <v>29.2438</v>
       </c>
     </row>
@@ -4399,6 +5174,9 @@
         <v>14.9769</v>
       </c>
       <c r="D5" t="n">
+        <v>26.976</v>
+      </c>
+      <c r="E5" t="n">
         <v>35.5861</v>
       </c>
     </row>
@@ -4413,6 +5191,9 @@
         <v>17.5751</v>
       </c>
       <c r="D6" t="n">
+        <v>31.0219</v>
+      </c>
+      <c r="E6" t="n">
         <v>42.2707</v>
       </c>
     </row>
@@ -4427,6 +5208,9 @@
         <v>20.3141</v>
       </c>
       <c r="D7" t="n">
+        <v>37.3966</v>
+      </c>
+      <c r="E7" t="n">
         <v>47.5656</v>
       </c>
     </row>
@@ -4441,6 +5225,9 @@
         <v>22.4678</v>
       </c>
       <c r="D8" t="n">
+        <v>40.7509</v>
+      </c>
+      <c r="E8" t="n">
         <v>51.8971</v>
       </c>
     </row>
@@ -4455,6 +5242,9 @@
         <v>24.9945</v>
       </c>
       <c r="D9" t="n">
+        <v>43.8879</v>
+      </c>
+      <c r="E9" t="n">
         <v>56.9175</v>
       </c>
     </row>
@@ -4469,6 +5259,9 @@
         <v>24.5736</v>
       </c>
       <c r="D10" t="n">
+        <v>43.8314</v>
+      </c>
+      <c r="E10" t="n">
         <v>53.32</v>
       </c>
     </row>
@@ -4483,6 +5276,9 @@
         <v>23.9086</v>
       </c>
       <c r="D11" t="n">
+        <v>42.7879</v>
+      </c>
+      <c r="E11" t="n">
         <v>53.985</v>
       </c>
     </row>
@@ -4497,6 +5293,9 @@
         <v>24.595</v>
       </c>
       <c r="D12" t="n">
+        <v>41.4259</v>
+      </c>
+      <c r="E12" t="n">
         <v>56.9807</v>
       </c>
     </row>
@@ -4511,6 +5310,9 @@
         <v>24.8315</v>
       </c>
       <c r="D13" t="n">
+        <v>43.2881</v>
+      </c>
+      <c r="E13" t="n">
         <v>60.6776</v>
       </c>
     </row>
@@ -4525,6 +5327,9 @@
         <v>25.6462</v>
       </c>
       <c r="D14" t="n">
+        <v>43.0778</v>
+      </c>
+      <c r="E14" t="n">
         <v>58.7744</v>
       </c>
     </row>
@@ -4539,6 +5344,9 @@
         <v>26.4752</v>
       </c>
       <c r="D15" t="n">
+        <v>44.1512</v>
+      </c>
+      <c r="E15" t="n">
         <v>61.8635</v>
       </c>
     </row>
@@ -4553,6 +5361,9 @@
         <v>27.141</v>
       </c>
       <c r="D16" t="n">
+        <v>43.2377</v>
+      </c>
+      <c r="E16" t="n">
         <v>60.6022</v>
       </c>
     </row>
@@ -4567,6 +5378,9 @@
         <v>27.8822</v>
       </c>
       <c r="D17" t="n">
+        <v>45.3172</v>
+      </c>
+      <c r="E17" t="n">
         <v>60.6852</v>
       </c>
     </row>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4601,10 +5415,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4621,6 +5440,9 @@
         <v>17.3533</v>
       </c>
       <c r="D2" t="n">
+        <v>21.2957</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.522</v>
       </c>
     </row>
@@ -4635,6 +5457,9 @@
         <v>11.92</v>
       </c>
       <c r="D3" t="n">
+        <v>19.54</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.8394</v>
       </c>
     </row>
@@ -4649,6 +5474,9 @@
         <v>14.1874</v>
       </c>
       <c r="D4" t="n">
+        <v>24.5669</v>
+      </c>
+      <c r="E4" t="n">
         <v>31.8012</v>
       </c>
     </row>
@@ -4663,6 +5491,9 @@
         <v>16.9047</v>
       </c>
       <c r="D5" t="n">
+        <v>29.7446</v>
+      </c>
+      <c r="E5" t="n">
         <v>38.0644</v>
       </c>
     </row>
@@ -4677,6 +5508,9 @@
         <v>19.8848</v>
       </c>
       <c r="D6" t="n">
+        <v>35.1189</v>
+      </c>
+      <c r="E6" t="n">
         <v>43.1345</v>
       </c>
     </row>
@@ -4691,6 +5525,9 @@
         <v>22.778</v>
       </c>
       <c r="D7" t="n">
+        <v>40.0028</v>
+      </c>
+      <c r="E7" t="n">
         <v>50.1466</v>
       </c>
     </row>
@@ -4705,6 +5542,9 @@
         <v>25.1844</v>
       </c>
       <c r="D8" t="n">
+        <v>44.1133</v>
+      </c>
+      <c r="E8" t="n">
         <v>53.8736</v>
       </c>
     </row>
@@ -4719,6 +5559,9 @@
         <v>27.498</v>
       </c>
       <c r="D9" t="n">
+        <v>47.2023</v>
+      </c>
+      <c r="E9" t="n">
         <v>57.2219</v>
       </c>
     </row>
@@ -4733,6 +5576,9 @@
         <v>26.5796</v>
       </c>
       <c r="D10" t="n">
+        <v>47.0013</v>
+      </c>
+      <c r="E10" t="n">
         <v>55.592</v>
       </c>
     </row>
@@ -4747,6 +5593,9 @@
         <v>25.6717</v>
       </c>
       <c r="D11" t="n">
+        <v>44.9671</v>
+      </c>
+      <c r="E11" t="n">
         <v>56.6745</v>
       </c>
     </row>
@@ -4761,6 +5610,9 @@
         <v>26.0223</v>
       </c>
       <c r="D12" t="n">
+        <v>44.454</v>
+      </c>
+      <c r="E12" t="n">
         <v>55.8526</v>
       </c>
     </row>
@@ -4775,6 +5627,9 @@
         <v>26.8378</v>
       </c>
       <c r="D13" t="n">
+        <v>48.1515</v>
+      </c>
+      <c r="E13" t="n">
         <v>57.2167</v>
       </c>
     </row>
@@ -4789,6 +5644,9 @@
         <v>27.2584</v>
       </c>
       <c r="D14" t="n">
+        <v>49.0505</v>
+      </c>
+      <c r="E14" t="n">
         <v>60.446</v>
       </c>
     </row>
@@ -4803,6 +5661,9 @@
         <v>28.05</v>
       </c>
       <c r="D15" t="n">
+        <v>47.7697</v>
+      </c>
+      <c r="E15" t="n">
         <v>57.3184</v>
       </c>
     </row>
@@ -4817,6 +5678,9 @@
         <v>28.8754</v>
       </c>
       <c r="D16" t="n">
+        <v>47.7041</v>
+      </c>
+      <c r="E16" t="n">
         <v>54.2403</v>
       </c>
     </row>
@@ -4831,6 +5695,9 @@
         <v>29.4876</v>
       </c>
       <c r="D17" t="n">
+        <v>47.0508</v>
+      </c>
+      <c r="E17" t="n">
         <v>54.641</v>
       </c>
     </row>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,10 +5732,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -4885,6 +5757,9 @@
         <v>11.3296</v>
       </c>
       <c r="D2" t="n">
+        <v>13.594</v>
+      </c>
+      <c r="E2" t="n">
         <v>16.8213</v>
       </c>
     </row>
@@ -4899,6 +5774,9 @@
         <v>10.5081</v>
       </c>
       <c r="D3" t="n">
+        <v>18.6839</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.7023</v>
       </c>
     </row>
@@ -4913,6 +5791,9 @@
         <v>12.7304</v>
       </c>
       <c r="D4" t="n">
+        <v>24.652</v>
+      </c>
+      <c r="E4" t="n">
         <v>34.1128</v>
       </c>
     </row>
@@ -4927,6 +5808,9 @@
         <v>15.208</v>
       </c>
       <c r="D5" t="n">
+        <v>30.1381</v>
+      </c>
+      <c r="E5" t="n">
         <v>43.013</v>
       </c>
     </row>
@@ -4941,6 +5825,9 @@
         <v>17.8946</v>
       </c>
       <c r="D6" t="n">
+        <v>36.0787</v>
+      </c>
+      <c r="E6" t="n">
         <v>52.593</v>
       </c>
     </row>
@@ -4955,6 +5842,9 @@
         <v>20.5628</v>
       </c>
       <c r="D7" t="n">
+        <v>41.8231</v>
+      </c>
+      <c r="E7" t="n">
         <v>61.4495</v>
       </c>
     </row>
@@ -4969,6 +5859,9 @@
         <v>23.6663</v>
       </c>
       <c r="D8" t="n">
+        <v>47.7891</v>
+      </c>
+      <c r="E8" t="n">
         <v>70.0141</v>
       </c>
     </row>
@@ -4983,6 +5876,9 @@
         <v>27.0561</v>
       </c>
       <c r="D9" t="n">
+        <v>56.6414</v>
+      </c>
+      <c r="E9" t="n">
         <v>79.08150000000001</v>
       </c>
     </row>
@@ -4997,6 +5893,9 @@
         <v>25.4522</v>
       </c>
       <c r="D10" t="n">
+        <v>50.6277</v>
+      </c>
+      <c r="E10" t="n">
         <v>71.8515</v>
       </c>
     </row>
@@ -5011,6 +5910,9 @@
         <v>24.9934</v>
       </c>
       <c r="D11" t="n">
+        <v>51.0664</v>
+      </c>
+      <c r="E11" t="n">
         <v>70.3604</v>
       </c>
     </row>
@@ -5025,6 +5927,9 @@
         <v>25.1877</v>
       </c>
       <c r="D12" t="n">
+        <v>52.0888</v>
+      </c>
+      <c r="E12" t="n">
         <v>71.3746</v>
       </c>
     </row>
@@ -5039,6 +5944,9 @@
         <v>25.6319</v>
       </c>
       <c r="D13" t="n">
+        <v>53.1145</v>
+      </c>
+      <c r="E13" t="n">
         <v>71.58199999999999</v>
       </c>
     </row>
@@ -5053,6 +5961,9 @@
         <v>25.9076</v>
       </c>
       <c r="D14" t="n">
+        <v>51.5962</v>
+      </c>
+      <c r="E14" t="n">
         <v>71.5402</v>
       </c>
     </row>
@@ -5067,6 +5978,9 @@
         <v>26.2994</v>
       </c>
       <c r="D15" t="n">
+        <v>52.8615</v>
+      </c>
+      <c r="E15" t="n">
         <v>71.5504</v>
       </c>
     </row>
@@ -5081,6 +5995,9 @@
         <v>26.9086</v>
       </c>
       <c r="D16" t="n">
+        <v>53.2041</v>
+      </c>
+      <c r="E16" t="n">
         <v>72.59439999999999</v>
       </c>
     </row>
@@ -5095,6 +6012,9 @@
         <v>27.7096</v>
       </c>
       <c r="D17" t="n">
+        <v>52.7795</v>
+      </c>
+      <c r="E17" t="n">
         <v>73.3352</v>
       </c>
     </row>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5129,10 +6049,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5149,6 +6074,9 @@
         <v>11.4595</v>
       </c>
       <c r="D2" t="n">
+        <v>13.5385</v>
+      </c>
+      <c r="E2" t="n">
         <v>16.899</v>
       </c>
     </row>
@@ -5163,6 +6091,9 @@
         <v>10.3581</v>
       </c>
       <c r="D3" t="n">
+        <v>17.9821</v>
+      </c>
+      <c r="E3" t="n">
         <v>24.3049</v>
       </c>
     </row>
@@ -5177,6 +6108,9 @@
         <v>12.72</v>
       </c>
       <c r="D4" t="n">
+        <v>23.9755</v>
+      </c>
+      <c r="E4" t="n">
         <v>33.7914</v>
       </c>
     </row>
@@ -5191,6 +6125,9 @@
         <v>15.2298</v>
       </c>
       <c r="D5" t="n">
+        <v>29.3821</v>
+      </c>
+      <c r="E5" t="n">
         <v>42.7455</v>
       </c>
     </row>
@@ -5205,6 +6142,9 @@
         <v>17.8699</v>
       </c>
       <c r="D6" t="n">
+        <v>35.1544</v>
+      </c>
+      <c r="E6" t="n">
         <v>52.052</v>
       </c>
     </row>
@@ -5219,6 +6159,9 @@
         <v>20.6309</v>
       </c>
       <c r="D7" t="n">
+        <v>40.7024</v>
+      </c>
+      <c r="E7" t="n">
         <v>60.7317</v>
       </c>
     </row>
@@ -5233,6 +6176,9 @@
         <v>23.6228</v>
       </c>
       <c r="D8" t="n">
+        <v>46.9972</v>
+      </c>
+      <c r="E8" t="n">
         <v>70.2341</v>
       </c>
     </row>
@@ -5247,6 +6193,9 @@
         <v>27.1997</v>
       </c>
       <c r="D9" t="n">
+        <v>54.9179</v>
+      </c>
+      <c r="E9" t="n">
         <v>78.80840000000001</v>
       </c>
     </row>
@@ -5261,6 +6210,9 @@
         <v>25.2105</v>
       </c>
       <c r="D10" t="n">
+        <v>49.7871</v>
+      </c>
+      <c r="E10" t="n">
         <v>68.4126</v>
       </c>
     </row>
@@ -5275,6 +6227,9 @@
         <v>25.2772</v>
       </c>
       <c r="D11" t="n">
+        <v>50.0245</v>
+      </c>
+      <c r="E11" t="n">
         <v>70.1999</v>
       </c>
     </row>
@@ -5289,6 +6244,9 @@
         <v>25.2481</v>
       </c>
       <c r="D12" t="n">
+        <v>51.0806</v>
+      </c>
+      <c r="E12" t="n">
         <v>70.96550000000001</v>
       </c>
     </row>
@@ -5303,6 +6261,9 @@
         <v>25.474</v>
       </c>
       <c r="D13" t="n">
+        <v>51.089</v>
+      </c>
+      <c r="E13" t="n">
         <v>72.2197</v>
       </c>
     </row>
@@ -5317,6 +6278,9 @@
         <v>25.7658</v>
       </c>
       <c r="D14" t="n">
+        <v>50.8402</v>
+      </c>
+      <c r="E14" t="n">
         <v>70.1623</v>
       </c>
     </row>
@@ -5331,6 +6295,9 @@
         <v>26.2428</v>
       </c>
       <c r="D15" t="n">
+        <v>51.2425</v>
+      </c>
+      <c r="E15" t="n">
         <v>71.8249</v>
       </c>
     </row>
@@ -5345,6 +6312,9 @@
         <v>26.937</v>
       </c>
       <c r="D16" t="n">
+        <v>51.1274</v>
+      </c>
+      <c r="E16" t="n">
         <v>72.0104</v>
       </c>
     </row>
@@ -5359,6 +6329,9 @@
         <v>27.5995</v>
       </c>
       <c r="D17" t="n">
+        <v>50.1972</v>
+      </c>
+      <c r="E17" t="n">
         <v>71.92489999999999</v>
       </c>
     </row>
@@ -5377,7 +6350,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5393,10 +6366,15 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>gtl::parallel_flat_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
@@ -5413,6 +6391,9 @@
         <v>15.7178</v>
       </c>
       <c r="D2" t="n">
+        <v>19.5031</v>
+      </c>
+      <c r="E2" t="n">
         <v>20.232</v>
       </c>
     </row>
@@ -5427,6 +6408,9 @@
         <v>11.9137</v>
       </c>
       <c r="D3" t="n">
+        <v>20.0126</v>
+      </c>
+      <c r="E3" t="n">
         <v>26.8306</v>
       </c>
     </row>
@@ -5441,6 +6425,9 @@
         <v>13.8447</v>
       </c>
       <c r="D4" t="n">
+        <v>25.6663</v>
+      </c>
+      <c r="E4" t="n">
         <v>36.4148</v>
       </c>
     </row>
@@ -5455,6 +6442,9 @@
         <v>16.3281</v>
       </c>
       <c r="D5" t="n">
+        <v>31.9377</v>
+      </c>
+      <c r="E5" t="n">
         <v>45.4964</v>
       </c>
     </row>
@@ -5469,6 +6459,9 @@
         <v>19.1733</v>
       </c>
       <c r="D6" t="n">
+        <v>37.9344</v>
+      </c>
+      <c r="E6" t="n">
         <v>54.81</v>
       </c>
     </row>
@@ -5483,6 +6476,9 @@
         <v>21.8921</v>
       </c>
       <c r="D7" t="n">
+        <v>44.9736</v>
+      </c>
+      <c r="E7" t="n">
         <v>62.9682</v>
       </c>
     </row>
@@ -5497,6 +6493,9 @@
         <v>24.9064</v>
       </c>
       <c r="D8" t="n">
+        <v>51.8634</v>
+      </c>
+      <c r="E8" t="n">
         <v>70.82850000000001</v>
       </c>
     </row>
@@ -5511,6 +6510,9 @@
         <v>27.6506</v>
       </c>
       <c r="D9" t="n">
+        <v>59.2322</v>
+      </c>
+      <c r="E9" t="n">
         <v>78.83320000000001</v>
       </c>
     </row>
@@ -5525,6 +6527,9 @@
         <v>26.5949</v>
       </c>
       <c r="D10" t="n">
+        <v>55.1119</v>
+      </c>
+      <c r="E10" t="n">
         <v>69.4786</v>
       </c>
     </row>
@@ -5539,6 +6544,9 @@
         <v>26.4564</v>
       </c>
       <c r="D11" t="n">
+        <v>55.3238</v>
+      </c>
+      <c r="E11" t="n">
         <v>71.5955</v>
       </c>
     </row>
@@ -5553,6 +6561,9 @@
         <v>26.768</v>
       </c>
       <c r="D12" t="n">
+        <v>55.9805</v>
+      </c>
+      <c r="E12" t="n">
         <v>73.1241</v>
       </c>
     </row>
@@ -5567,6 +6578,9 @@
         <v>27.341</v>
       </c>
       <c r="D13" t="n">
+        <v>57.1765</v>
+      </c>
+      <c r="E13" t="n">
         <v>74.03879999999999</v>
       </c>
     </row>
@@ -5581,6 +6595,9 @@
         <v>27.8653</v>
       </c>
       <c r="D14" t="n">
+        <v>56.4933</v>
+      </c>
+      <c r="E14" t="n">
         <v>74.0829</v>
       </c>
     </row>
@@ -5595,6 +6612,9 @@
         <v>28.5724</v>
       </c>
       <c r="D15" t="n">
+        <v>57.2286</v>
+      </c>
+      <c r="E15" t="n">
         <v>74.8413</v>
       </c>
     </row>
@@ -5609,6 +6629,9 @@
         <v>29.3514</v>
       </c>
       <c r="D16" t="n">
+        <v>57.7125</v>
+      </c>
+      <c r="E16" t="n">
         <v>75.36109999999999</v>
       </c>
     </row>
@@ -5623,6 +6646,9 @@
         <v>30.2455</v>
       </c>
       <c r="D17" t="n">
+        <v>57.5078</v>
+      </c>
+      <c r="E17" t="n">
         <v>74.3788</v>
       </c>
     </row>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1779</v>
+        <v>10.0432</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2205</v>
+        <v>15.2396</v>
       </c>
       <c r="D2" t="n">
-        <v>18.941</v>
+        <v>18.9178</v>
       </c>
       <c r="E2" t="n">
-        <v>19.4769</v>
+        <v>21.889</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.03</v>
+        <v>10.2578</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8334</v>
+        <v>10.914</v>
       </c>
       <c r="D3" t="n">
-        <v>18.5586</v>
+        <v>18.6842</v>
       </c>
       <c r="E3" t="n">
-        <v>22.9523</v>
+        <v>24.5819</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1641</v>
+        <v>11.9108</v>
       </c>
       <c r="C4" t="n">
-        <v>12.553</v>
+        <v>12.7172</v>
       </c>
       <c r="D4" t="n">
-        <v>23.2864</v>
+        <v>22.6596</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0881</v>
+        <v>31.9146</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5061</v>
+        <v>14.624</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0555</v>
+        <v>15.1406</v>
       </c>
       <c r="D5" t="n">
-        <v>27.4191</v>
+        <v>27.2093</v>
       </c>
       <c r="E5" t="n">
-        <v>36.538</v>
+        <v>37.8752</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9889</v>
+        <v>17.8017</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5567</v>
+        <v>17.778</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1399</v>
+        <v>32.793</v>
       </c>
       <c r="E6" t="n">
-        <v>42.7988</v>
+        <v>43.9978</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5454</v>
+        <v>21.4994</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4111</v>
+        <v>20.4982</v>
       </c>
       <c r="D7" t="n">
-        <v>36.7694</v>
+        <v>37.7656</v>
       </c>
       <c r="E7" t="n">
-        <v>47.9563</v>
+        <v>48.026</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1944</v>
+        <v>24.7137</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6144</v>
+        <v>22.9815</v>
       </c>
       <c r="D8" t="n">
-        <v>40.8433</v>
+        <v>40.3754</v>
       </c>
       <c r="E8" t="n">
-        <v>51.5189</v>
+        <v>54.1105</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1675</v>
+        <v>29.4084</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9057</v>
+        <v>25.1433</v>
       </c>
       <c r="D9" t="n">
-        <v>45.479</v>
+        <v>44.1855</v>
       </c>
       <c r="E9" t="n">
-        <v>58.3647</v>
+        <v>57.5636</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.2443</v>
+        <v>24.3959</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5327</v>
+        <v>24.2556</v>
       </c>
       <c r="D10" t="n">
-        <v>44.5238</v>
+        <v>43.4803</v>
       </c>
       <c r="E10" t="n">
-        <v>54.1539</v>
+        <v>57.0594</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.577</v>
+        <v>24.9118</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8909</v>
+        <v>23.7456</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5638</v>
+        <v>41.798</v>
       </c>
       <c r="E11" t="n">
-        <v>56.1792</v>
+        <v>57.8802</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.3408</v>
+        <v>25.3659</v>
       </c>
       <c r="C12" t="n">
-        <v>24.359</v>
+        <v>24.2768</v>
       </c>
       <c r="D12" t="n">
-        <v>44.4011</v>
+        <v>44.7334</v>
       </c>
       <c r="E12" t="n">
-        <v>55.3084</v>
+        <v>58.3582</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.3679</v>
+        <v>26.7346</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8096</v>
+        <v>24.9334</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4143</v>
+        <v>46.3962</v>
       </c>
       <c r="E13" t="n">
-        <v>60.2134</v>
+        <v>62.5659</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.9057</v>
+        <v>24.8151</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7331</v>
+        <v>25.4978</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8091</v>
+        <v>45.1727</v>
       </c>
       <c r="E14" t="n">
-        <v>59.8583</v>
+        <v>63.2127</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4694</v>
+        <v>24.387</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2812</v>
+        <v>26.4067</v>
       </c>
       <c r="D15" t="n">
-        <v>46.0337</v>
+        <v>46.0876</v>
       </c>
       <c r="E15" t="n">
-        <v>61.4484</v>
+        <v>62.0172</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3539</v>
+        <v>26.0344</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2417</v>
+        <v>27.3318</v>
       </c>
       <c r="D16" t="n">
-        <v>46.4066</v>
+        <v>45.737</v>
       </c>
       <c r="E16" t="n">
-        <v>60.935</v>
+        <v>62.0582</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.015</v>
+        <v>25.7893</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5075</v>
+        <v>27.8172</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9103</v>
+        <v>45.3671</v>
       </c>
       <c r="E17" t="n">
-        <v>64.85250000000001</v>
+        <v>58.5849</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0373</v>
+        <v>10.9469</v>
       </c>
       <c r="C2" t="n">
-        <v>15.09</v>
+        <v>15.0936</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7976</v>
+        <v>18.7884</v>
       </c>
       <c r="E2" t="n">
-        <v>19.3411</v>
+        <v>21.746</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.25</v>
+        <v>10.2438</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5937</v>
+        <v>10.7</v>
       </c>
       <c r="D3" t="n">
-        <v>17.8912</v>
+        <v>18.2304</v>
       </c>
       <c r="E3" t="n">
-        <v>22.4723</v>
+        <v>23.6403</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2333</v>
+        <v>12.3479</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4489</v>
+        <v>12.556</v>
       </c>
       <c r="D4" t="n">
-        <v>22.4156</v>
+        <v>22.7729</v>
       </c>
       <c r="E4" t="n">
-        <v>29.2438</v>
+        <v>30.5743</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.3654</v>
+        <v>14.9659</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9769</v>
+        <v>15.0215</v>
       </c>
       <c r="D5" t="n">
-        <v>26.976</v>
+        <v>27.2108</v>
       </c>
       <c r="E5" t="n">
-        <v>35.5861</v>
+        <v>38.1022</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3674</v>
+        <v>18.3284</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5751</v>
+        <v>17.7763</v>
       </c>
       <c r="D6" t="n">
-        <v>31.0219</v>
+        <v>31.9566</v>
       </c>
       <c r="E6" t="n">
-        <v>42.2707</v>
+        <v>45.0079</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0801</v>
+        <v>22.0813</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3141</v>
+        <v>20.2939</v>
       </c>
       <c r="D7" t="n">
-        <v>37.3966</v>
+        <v>36.7305</v>
       </c>
       <c r="E7" t="n">
-        <v>47.5656</v>
+        <v>48.9154</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4896</v>
+        <v>24.6665</v>
       </c>
       <c r="C8" t="n">
-        <v>22.4678</v>
+        <v>22.5121</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7509</v>
+        <v>40.6391</v>
       </c>
       <c r="E8" t="n">
-        <v>51.8971</v>
+        <v>51.7408</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.7975</v>
+        <v>29.407</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9945</v>
+        <v>24.9935</v>
       </c>
       <c r="D9" t="n">
-        <v>43.8879</v>
+        <v>45.2553</v>
       </c>
       <c r="E9" t="n">
-        <v>56.9175</v>
+        <v>55.1751</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4432</v>
+        <v>24.7906</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5736</v>
+        <v>24.7805</v>
       </c>
       <c r="D10" t="n">
-        <v>43.8314</v>
+        <v>42.2874</v>
       </c>
       <c r="E10" t="n">
-        <v>53.32</v>
+        <v>57.746</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9509</v>
+        <v>24.8578</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9086</v>
+        <v>23.9554</v>
       </c>
       <c r="D11" t="n">
-        <v>42.7879</v>
+        <v>42.1267</v>
       </c>
       <c r="E11" t="n">
-        <v>53.985</v>
+        <v>57.7711</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7466</v>
+        <v>25.6249</v>
       </c>
       <c r="C12" t="n">
-        <v>24.595</v>
+        <v>24.1023</v>
       </c>
       <c r="D12" t="n">
-        <v>41.4259</v>
+        <v>42.3663</v>
       </c>
       <c r="E12" t="n">
-        <v>56.9807</v>
+        <v>58.9691</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.706</v>
+        <v>27.0804</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8315</v>
+        <v>25.19</v>
       </c>
       <c r="D13" t="n">
-        <v>43.2881</v>
+        <v>44.7896</v>
       </c>
       <c r="E13" t="n">
-        <v>60.6776</v>
+        <v>60.109</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.0156</v>
+        <v>25.5337</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6462</v>
+        <v>25.7134</v>
       </c>
       <c r="D14" t="n">
-        <v>43.0778</v>
+        <v>43.9891</v>
       </c>
       <c r="E14" t="n">
-        <v>58.7744</v>
+        <v>62.4041</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.905</v>
+        <v>25.2248</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4752</v>
+        <v>26.4984</v>
       </c>
       <c r="D15" t="n">
-        <v>44.1512</v>
+        <v>44.0557</v>
       </c>
       <c r="E15" t="n">
-        <v>61.8635</v>
+        <v>61.1704</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.092</v>
+        <v>25.4563</v>
       </c>
       <c r="C16" t="n">
-        <v>27.141</v>
+        <v>27.0523</v>
       </c>
       <c r="D16" t="n">
-        <v>43.2377</v>
+        <v>44.571</v>
       </c>
       <c r="E16" t="n">
-        <v>60.6022</v>
+        <v>63.5131</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0789</v>
+        <v>25.8131</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8822</v>
+        <v>27.9312</v>
       </c>
       <c r="D17" t="n">
-        <v>45.3172</v>
+        <v>45.8855</v>
       </c>
       <c r="E17" t="n">
-        <v>60.6852</v>
+        <v>63.8771</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2553</v>
+        <v>14.155</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3533</v>
+        <v>17.3748</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2957</v>
+        <v>21.2506</v>
       </c>
       <c r="E2" t="n">
-        <v>20.522</v>
+        <v>23.3287</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1229</v>
+        <v>11.4766</v>
       </c>
       <c r="C3" t="n">
-        <v>11.92</v>
+        <v>11.8702</v>
       </c>
       <c r="D3" t="n">
-        <v>19.54</v>
+        <v>19.4535</v>
       </c>
       <c r="E3" t="n">
-        <v>24.8394</v>
+        <v>26.3264</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2653</v>
+        <v>14.2247</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1874</v>
+        <v>14.1761</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5669</v>
+        <v>24.698</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8012</v>
+        <v>33.0067</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1533</v>
+        <v>17.1352</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9047</v>
+        <v>17.0412</v>
       </c>
       <c r="D5" t="n">
-        <v>29.7446</v>
+        <v>29.6585</v>
       </c>
       <c r="E5" t="n">
-        <v>38.0644</v>
+        <v>39.9481</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7557</v>
+        <v>20.5555</v>
       </c>
       <c r="C6" t="n">
-        <v>19.8848</v>
+        <v>20.0868</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1189</v>
+        <v>34.6509</v>
       </c>
       <c r="E6" t="n">
-        <v>43.1345</v>
+        <v>45.5843</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.3951</v>
+        <v>24.0431</v>
       </c>
       <c r="C7" t="n">
-        <v>22.778</v>
+        <v>22.889</v>
       </c>
       <c r="D7" t="n">
-        <v>40.0028</v>
+        <v>39.3456</v>
       </c>
       <c r="E7" t="n">
-        <v>50.1466</v>
+        <v>51.6185</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5031</v>
+        <v>27.6312</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1844</v>
+        <v>25.1765</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1133</v>
+        <v>42.4973</v>
       </c>
       <c r="E8" t="n">
-        <v>53.8736</v>
+        <v>55.7287</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9595</v>
+        <v>31.7556</v>
       </c>
       <c r="C9" t="n">
-        <v>27.498</v>
+        <v>27.5007</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2023</v>
+        <v>47.4594</v>
       </c>
       <c r="E9" t="n">
-        <v>57.2219</v>
+        <v>57.427</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.3673</v>
+        <v>29.1814</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5796</v>
+        <v>26.5509</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0013</v>
+        <v>46.8971</v>
       </c>
       <c r="E10" t="n">
-        <v>55.592</v>
+        <v>56.7594</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.4913</v>
+        <v>28.3526</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6717</v>
+        <v>25.9062</v>
       </c>
       <c r="D11" t="n">
-        <v>44.9671</v>
+        <v>46.2693</v>
       </c>
       <c r="E11" t="n">
-        <v>56.6745</v>
+        <v>55.9799</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8185</v>
+        <v>28.9465</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0223</v>
+        <v>26.0162</v>
       </c>
       <c r="D12" t="n">
-        <v>44.454</v>
+        <v>47.9282</v>
       </c>
       <c r="E12" t="n">
-        <v>55.8526</v>
+        <v>57.7662</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.439</v>
+        <v>30.2961</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8378</v>
+        <v>26.5837</v>
       </c>
       <c r="D13" t="n">
-        <v>48.1515</v>
+        <v>48.6458</v>
       </c>
       <c r="E13" t="n">
-        <v>57.2167</v>
+        <v>59.8366</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7232</v>
+        <v>28.1679</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2584</v>
+        <v>27.3503</v>
       </c>
       <c r="D14" t="n">
-        <v>49.0505</v>
+        <v>48.1836</v>
       </c>
       <c r="E14" t="n">
-        <v>60.446</v>
+        <v>59.2477</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9122</v>
+        <v>28.543</v>
       </c>
       <c r="C15" t="n">
-        <v>28.05</v>
+        <v>28.109</v>
       </c>
       <c r="D15" t="n">
-        <v>47.7697</v>
+        <v>47.8164</v>
       </c>
       <c r="E15" t="n">
-        <v>57.3184</v>
+        <v>60.3196</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9382</v>
+        <v>28.4961</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8754</v>
+        <v>28.7791</v>
       </c>
       <c r="D16" t="n">
-        <v>47.7041</v>
+        <v>47.6318</v>
       </c>
       <c r="E16" t="n">
-        <v>54.2403</v>
+        <v>58.7904</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.9982</v>
+        <v>28.7956</v>
       </c>
       <c r="C17" t="n">
-        <v>29.4876</v>
+        <v>29.7216</v>
       </c>
       <c r="D17" t="n">
-        <v>47.0508</v>
+        <v>45.4751</v>
       </c>
       <c r="E17" t="n">
-        <v>54.641</v>
+        <v>57.2188</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92673</v>
+        <v>3.946</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3296</v>
+        <v>11.3518</v>
       </c>
       <c r="D2" t="n">
-        <v>13.594</v>
+        <v>13.6164</v>
       </c>
       <c r="E2" t="n">
-        <v>16.8213</v>
+        <v>18.5867</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49615</v>
+        <v>6.51665</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5081</v>
+        <v>10.337</v>
       </c>
       <c r="D3" t="n">
-        <v>18.6839</v>
+        <v>18.4641</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7023</v>
+        <v>26.2909</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.4665</v>
+        <v>9.399100000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7304</v>
+        <v>12.8337</v>
       </c>
       <c r="D4" t="n">
-        <v>24.652</v>
+        <v>24.5744</v>
       </c>
       <c r="E4" t="n">
-        <v>34.1128</v>
+        <v>36.3662</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3515</v>
+        <v>12.1927</v>
       </c>
       <c r="C5" t="n">
-        <v>15.208</v>
+        <v>15.2583</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1381</v>
+        <v>30.0391</v>
       </c>
       <c r="E5" t="n">
-        <v>43.013</v>
+        <v>45.5364</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0823</v>
+        <v>15.1124</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8946</v>
+        <v>17.953</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0787</v>
+        <v>36.1317</v>
       </c>
       <c r="E6" t="n">
-        <v>52.593</v>
+        <v>55.2915</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9328</v>
+        <v>17.8983</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5628</v>
+        <v>20.5887</v>
       </c>
       <c r="D7" t="n">
-        <v>41.8231</v>
+        <v>41.9558</v>
       </c>
       <c r="E7" t="n">
-        <v>61.4495</v>
+        <v>65.2127</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.9473</v>
+        <v>20.5351</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6663</v>
+        <v>23.7539</v>
       </c>
       <c r="D8" t="n">
-        <v>47.7891</v>
+        <v>47.7459</v>
       </c>
       <c r="E8" t="n">
-        <v>70.0141</v>
+        <v>73.0193</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7571</v>
+        <v>23.6353</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0561</v>
+        <v>27.3937</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6414</v>
+        <v>56.9352</v>
       </c>
       <c r="E9" t="n">
-        <v>79.08150000000001</v>
+        <v>82.5411</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1254</v>
+        <v>22.1826</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4522</v>
+        <v>25.4096</v>
       </c>
       <c r="D10" t="n">
-        <v>50.6277</v>
+        <v>51.5717</v>
       </c>
       <c r="E10" t="n">
-        <v>71.8515</v>
+        <v>72.3122</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8322</v>
+        <v>22.0028</v>
       </c>
       <c r="C11" t="n">
-        <v>24.9934</v>
+        <v>25.2847</v>
       </c>
       <c r="D11" t="n">
-        <v>51.0664</v>
+        <v>50.675</v>
       </c>
       <c r="E11" t="n">
-        <v>70.3604</v>
+        <v>74.97499999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1549</v>
+        <v>21.8804</v>
       </c>
       <c r="C12" t="n">
-        <v>25.1877</v>
+        <v>25.4494</v>
       </c>
       <c r="D12" t="n">
-        <v>52.0888</v>
+        <v>52.8138</v>
       </c>
       <c r="E12" t="n">
-        <v>71.3746</v>
+        <v>74.357</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5724</v>
+        <v>22.6744</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6319</v>
+        <v>25.6399</v>
       </c>
       <c r="D13" t="n">
-        <v>53.1145</v>
+        <v>53.0908</v>
       </c>
       <c r="E13" t="n">
-        <v>71.58199999999999</v>
+        <v>76.1561</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7017</v>
+        <v>21.8543</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9076</v>
+        <v>25.8734</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5962</v>
+        <v>52.1894</v>
       </c>
       <c r="E14" t="n">
-        <v>71.5402</v>
+        <v>75.7144</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8735</v>
+        <v>22.5828</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2994</v>
+        <v>26.4418</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8615</v>
+        <v>52.7926</v>
       </c>
       <c r="E15" t="n">
-        <v>71.5504</v>
+        <v>74.1722</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6785</v>
+        <v>22.7044</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9086</v>
+        <v>27.0803</v>
       </c>
       <c r="D16" t="n">
-        <v>53.2041</v>
+        <v>51.853</v>
       </c>
       <c r="E16" t="n">
-        <v>72.59439999999999</v>
+        <v>76.7949</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9202</v>
+        <v>22.4823</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7096</v>
+        <v>27.6645</v>
       </c>
       <c r="D17" t="n">
-        <v>52.7795</v>
+        <v>52.5872</v>
       </c>
       <c r="E17" t="n">
-        <v>73.3352</v>
+        <v>76.161</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98053</v>
+        <v>3.98315</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4595</v>
+        <v>11.4577</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5385</v>
+        <v>13.5436</v>
       </c>
       <c r="E2" t="n">
-        <v>16.899</v>
+        <v>18.6475</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52899</v>
+        <v>6.48609</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3581</v>
+        <v>10.4033</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9821</v>
+        <v>18.0007</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3049</v>
+        <v>25.9824</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.44727</v>
+        <v>9.38598</v>
       </c>
       <c r="C4" t="n">
-        <v>12.72</v>
+        <v>12.8225</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9755</v>
+        <v>23.8959</v>
       </c>
       <c r="E4" t="n">
-        <v>33.7914</v>
+        <v>35.8185</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2223</v>
+        <v>12.1978</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2298</v>
+        <v>15.2575</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3821</v>
+        <v>29.1835</v>
       </c>
       <c r="E5" t="n">
-        <v>42.7455</v>
+        <v>45.0808</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0971</v>
+        <v>15.043</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8699</v>
+        <v>17.8931</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1544</v>
+        <v>35.0229</v>
       </c>
       <c r="E6" t="n">
-        <v>52.052</v>
+        <v>54.6784</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8068</v>
+        <v>17.7964</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6309</v>
+        <v>20.6381</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7024</v>
+        <v>40.7416</v>
       </c>
       <c r="E7" t="n">
-        <v>60.7317</v>
+        <v>64.5459</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8217</v>
+        <v>20.5662</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6228</v>
+        <v>23.8267</v>
       </c>
       <c r="D8" t="n">
-        <v>46.9972</v>
+        <v>46.9608</v>
       </c>
       <c r="E8" t="n">
-        <v>70.2341</v>
+        <v>73.217</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8264</v>
+        <v>23.7993</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1997</v>
+        <v>27.2253</v>
       </c>
       <c r="D9" t="n">
-        <v>54.9179</v>
+        <v>54.9715</v>
       </c>
       <c r="E9" t="n">
-        <v>78.80840000000001</v>
+        <v>82.3691</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0694</v>
+        <v>21.6103</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2105</v>
+        <v>25.6408</v>
       </c>
       <c r="D10" t="n">
-        <v>49.7871</v>
+        <v>49.3908</v>
       </c>
       <c r="E10" t="n">
-        <v>68.4126</v>
+        <v>71.2612</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0984</v>
+        <v>21.5261</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2772</v>
+        <v>25.4346</v>
       </c>
       <c r="D11" t="n">
-        <v>50.0245</v>
+        <v>49.4667</v>
       </c>
       <c r="E11" t="n">
-        <v>70.1999</v>
+        <v>72.80840000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0457</v>
+        <v>22.2389</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2481</v>
+        <v>25.4639</v>
       </c>
       <c r="D12" t="n">
-        <v>51.0806</v>
+        <v>50.0422</v>
       </c>
       <c r="E12" t="n">
-        <v>70.96550000000001</v>
+        <v>72.94329999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6774</v>
+        <v>22.5487</v>
       </c>
       <c r="C13" t="n">
-        <v>25.474</v>
+        <v>25.6517</v>
       </c>
       <c r="D13" t="n">
-        <v>51.089</v>
+        <v>51.6717</v>
       </c>
       <c r="E13" t="n">
-        <v>72.2197</v>
+        <v>75.7771</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.957</v>
+        <v>21.8755</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7658</v>
+        <v>25.9644</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8402</v>
+        <v>49.7714</v>
       </c>
       <c r="E14" t="n">
-        <v>70.1623</v>
+        <v>74.3677</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0661</v>
+        <v>22.8232</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2428</v>
+        <v>26.3635</v>
       </c>
       <c r="D15" t="n">
-        <v>51.2425</v>
+        <v>51.1395</v>
       </c>
       <c r="E15" t="n">
-        <v>71.8249</v>
+        <v>75.3809</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8351</v>
+        <v>22.809</v>
       </c>
       <c r="C16" t="n">
-        <v>26.937</v>
+        <v>27.0902</v>
       </c>
       <c r="D16" t="n">
-        <v>51.1274</v>
+        <v>51.2318</v>
       </c>
       <c r="E16" t="n">
-        <v>72.0104</v>
+        <v>75.8549</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6134</v>
+        <v>22.8084</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5995</v>
+        <v>27.6917</v>
       </c>
       <c r="D17" t="n">
-        <v>50.1972</v>
+        <v>52.2151</v>
       </c>
       <c r="E17" t="n">
-        <v>71.92489999999999</v>
+        <v>73.7946</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.70149</v>
+        <v>8.70378</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7178</v>
+        <v>15.7131</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5031</v>
+        <v>19.518</v>
       </c>
       <c r="E2" t="n">
-        <v>20.232</v>
+        <v>22.9192</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3959</v>
+        <v>10.1781</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9137</v>
+        <v>11.7678</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0126</v>
+        <v>19.9275</v>
       </c>
       <c r="E3" t="n">
-        <v>26.8306</v>
+        <v>28.6311</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3221</v>
+        <v>13.3183</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8447</v>
+        <v>13.9643</v>
       </c>
       <c r="D4" t="n">
-        <v>25.6663</v>
+        <v>25.5326</v>
       </c>
       <c r="E4" t="n">
-        <v>36.4148</v>
+        <v>38.7505</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4002</v>
+        <v>16.2976</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3281</v>
+        <v>16.373</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9377</v>
+        <v>31.7694</v>
       </c>
       <c r="E5" t="n">
-        <v>45.4964</v>
+        <v>48.2472</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6177</v>
+        <v>19.5818</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1733</v>
+        <v>19.2367</v>
       </c>
       <c r="D6" t="n">
-        <v>37.9344</v>
+        <v>38.313</v>
       </c>
       <c r="E6" t="n">
-        <v>54.81</v>
+        <v>57.5375</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8562</v>
+        <v>22.7625</v>
       </c>
       <c r="C7" t="n">
-        <v>21.8921</v>
+        <v>22.0741</v>
       </c>
       <c r="D7" t="n">
-        <v>44.9736</v>
+        <v>44.7456</v>
       </c>
       <c r="E7" t="n">
-        <v>62.9682</v>
+        <v>66.07210000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5415</v>
+        <v>26.4343</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9064</v>
+        <v>25.1197</v>
       </c>
       <c r="D8" t="n">
-        <v>51.8634</v>
+        <v>51.7748</v>
       </c>
       <c r="E8" t="n">
-        <v>70.82850000000001</v>
+        <v>73.9151</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2839</v>
+        <v>31.2515</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6506</v>
+        <v>27.8259</v>
       </c>
       <c r="D9" t="n">
-        <v>59.2322</v>
+        <v>59.4806</v>
       </c>
       <c r="E9" t="n">
-        <v>78.83320000000001</v>
+        <v>82.2577</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2111</v>
+        <v>29.3997</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5949</v>
+        <v>26.8868</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1119</v>
+        <v>56.73</v>
       </c>
       <c r="E10" t="n">
-        <v>69.4786</v>
+        <v>73.5761</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1995</v>
+        <v>28.936</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4564</v>
+        <v>26.5849</v>
       </c>
       <c r="D11" t="n">
-        <v>55.3238</v>
+        <v>55.5005</v>
       </c>
       <c r="E11" t="n">
-        <v>71.5955</v>
+        <v>74.7116</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.6514</v>
+        <v>29.6749</v>
       </c>
       <c r="C12" t="n">
-        <v>26.768</v>
+        <v>27.1431</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9805</v>
+        <v>56.9567</v>
       </c>
       <c r="E12" t="n">
-        <v>73.1241</v>
+        <v>77.22920000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.5301</v>
+        <v>29.4758</v>
       </c>
       <c r="C13" t="n">
-        <v>27.341</v>
+        <v>27.3902</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1765</v>
+        <v>57.2481</v>
       </c>
       <c r="E13" t="n">
-        <v>74.03879999999999</v>
+        <v>76.72450000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7127</v>
+        <v>28.7853</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8653</v>
+        <v>27.892</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4933</v>
+        <v>56.2033</v>
       </c>
       <c r="E14" t="n">
-        <v>74.0829</v>
+        <v>78.2658</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.9598</v>
+        <v>29.9918</v>
       </c>
       <c r="C15" t="n">
-        <v>28.5724</v>
+        <v>28.5702</v>
       </c>
       <c r="D15" t="n">
-        <v>57.2286</v>
+        <v>57.2701</v>
       </c>
       <c r="E15" t="n">
-        <v>74.8413</v>
+        <v>78.66119999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8706</v>
+        <v>29.8774</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3514</v>
+        <v>29.4019</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7125</v>
+        <v>56.4326</v>
       </c>
       <c r="E16" t="n">
-        <v>75.36109999999999</v>
+        <v>78.7663</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.4259</v>
+        <v>30.1719</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2455</v>
+        <v>30.3168</v>
       </c>
       <c r="D17" t="n">
-        <v>57.5078</v>
+        <v>57.3324</v>
       </c>
       <c r="E17" t="n">
-        <v>74.3788</v>
+        <v>80.7766</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,278 +4795,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.0432</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.2396</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.9178</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.889</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.2578</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.914</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.6842</v>
-      </c>
-      <c r="E3" t="n">
-        <v>24.5819</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11.9108</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.7172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.6596</v>
-      </c>
-      <c r="E4" t="n">
-        <v>31.9146</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14.624</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.1406</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.2093</v>
-      </c>
-      <c r="E5" t="n">
-        <v>37.8752</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>17.8017</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.778</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.793</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43.9978</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.4994</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.4982</v>
-      </c>
-      <c r="D7" t="n">
-        <v>37.7656</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48.026</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>24.7137</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.9815</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40.3754</v>
-      </c>
-      <c r="E8" t="n">
-        <v>54.1105</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>29.4084</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25.1433</v>
-      </c>
-      <c r="D9" t="n">
-        <v>44.1855</v>
-      </c>
-      <c r="E9" t="n">
-        <v>57.5636</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24.3959</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24.2556</v>
-      </c>
-      <c r="D10" t="n">
-        <v>43.4803</v>
-      </c>
-      <c r="E10" t="n">
-        <v>57.0594</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.9118</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.7456</v>
-      </c>
-      <c r="D11" t="n">
-        <v>41.798</v>
-      </c>
-      <c r="E11" t="n">
-        <v>57.8802</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.3659</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24.2768</v>
-      </c>
-      <c r="D12" t="n">
-        <v>44.7334</v>
-      </c>
-      <c r="E12" t="n">
-        <v>58.3582</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>26.7346</v>
-      </c>
-      <c r="C13" t="n">
-        <v>24.9334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>46.3962</v>
-      </c>
-      <c r="E13" t="n">
-        <v>62.5659</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>24.8151</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.4978</v>
-      </c>
-      <c r="D14" t="n">
-        <v>45.1727</v>
-      </c>
-      <c r="E14" t="n">
-        <v>63.2127</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>24.387</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.4067</v>
-      </c>
-      <c r="D15" t="n">
-        <v>46.0876</v>
-      </c>
-      <c r="E15" t="n">
-        <v>62.0172</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>26.0344</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.3318</v>
-      </c>
-      <c r="D16" t="n">
-        <v>45.737</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62.0582</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.7893</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27.8172</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.3671</v>
-      </c>
-      <c r="E17" t="n">
-        <v>58.5849</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5079,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5112,278 +4840,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>10.9469</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.0936</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.7884</v>
-      </c>
-      <c r="E2" t="n">
-        <v>21.746</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.2438</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.2304</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23.6403</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12.3479</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.7729</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30.5743</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14.9659</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.0215</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.2108</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38.1022</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>18.3284</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.7763</v>
-      </c>
-      <c r="D6" t="n">
-        <v>31.9566</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45.0079</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.0813</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.2939</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.7305</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48.9154</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>24.6665</v>
-      </c>
-      <c r="C8" t="n">
-        <v>22.5121</v>
-      </c>
-      <c r="D8" t="n">
-        <v>40.6391</v>
-      </c>
-      <c r="E8" t="n">
-        <v>51.7408</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>29.407</v>
-      </c>
-      <c r="C9" t="n">
-        <v>24.9935</v>
-      </c>
-      <c r="D9" t="n">
-        <v>45.2553</v>
-      </c>
-      <c r="E9" t="n">
-        <v>55.1751</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>24.7906</v>
-      </c>
-      <c r="C10" t="n">
-        <v>24.7805</v>
-      </c>
-      <c r="D10" t="n">
-        <v>42.2874</v>
-      </c>
-      <c r="E10" t="n">
-        <v>57.746</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>24.8578</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23.9554</v>
-      </c>
-      <c r="D11" t="n">
-        <v>42.1267</v>
-      </c>
-      <c r="E11" t="n">
-        <v>57.7711</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>25.6249</v>
-      </c>
-      <c r="C12" t="n">
-        <v>24.1023</v>
-      </c>
-      <c r="D12" t="n">
-        <v>42.3663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>58.9691</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>27.0804</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="D13" t="n">
-        <v>44.7896</v>
-      </c>
-      <c r="E13" t="n">
-        <v>60.109</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>25.5337</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.7134</v>
-      </c>
-      <c r="D14" t="n">
-        <v>43.9891</v>
-      </c>
-      <c r="E14" t="n">
-        <v>62.4041</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>25.2248</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.4984</v>
-      </c>
-      <c r="D15" t="n">
-        <v>44.0557</v>
-      </c>
-      <c r="E15" t="n">
-        <v>61.1704</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>25.4563</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.0523</v>
-      </c>
-      <c r="D16" t="n">
-        <v>44.571</v>
-      </c>
-      <c r="E16" t="n">
-        <v>63.5131</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>25.8131</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27.9312</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.8855</v>
-      </c>
-      <c r="E17" t="n">
-        <v>63.8771</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5396,7 +4852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5429,278 +4885,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>14.155</v>
-      </c>
-      <c r="C2" t="n">
-        <v>17.3748</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.2506</v>
-      </c>
-      <c r="E2" t="n">
-        <v>23.3287</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11.4766</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.8702</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.4535</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26.3264</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>14.2247</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14.1761</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.698</v>
-      </c>
-      <c r="E4" t="n">
-        <v>33.0067</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>17.1352</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17.0412</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.6585</v>
-      </c>
-      <c r="E5" t="n">
-        <v>39.9481</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>20.5555</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20.0868</v>
-      </c>
-      <c r="D6" t="n">
-        <v>34.6509</v>
-      </c>
-      <c r="E6" t="n">
-        <v>45.5843</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>24.0431</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22.889</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39.3456</v>
-      </c>
-      <c r="E7" t="n">
-        <v>51.6185</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>27.6312</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.1765</v>
-      </c>
-      <c r="D8" t="n">
-        <v>42.4973</v>
-      </c>
-      <c r="E8" t="n">
-        <v>55.7287</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.7556</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.5007</v>
-      </c>
-      <c r="D9" t="n">
-        <v>47.4594</v>
-      </c>
-      <c r="E9" t="n">
-        <v>57.427</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>29.1814</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26.5509</v>
-      </c>
-      <c r="D10" t="n">
-        <v>46.8971</v>
-      </c>
-      <c r="E10" t="n">
-        <v>56.7594</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>28.3526</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.9062</v>
-      </c>
-      <c r="D11" t="n">
-        <v>46.2693</v>
-      </c>
-      <c r="E11" t="n">
-        <v>55.9799</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>28.9465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>26.0162</v>
-      </c>
-      <c r="D12" t="n">
-        <v>47.9282</v>
-      </c>
-      <c r="E12" t="n">
-        <v>57.7662</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>30.2961</v>
-      </c>
-      <c r="C13" t="n">
-        <v>26.5837</v>
-      </c>
-      <c r="D13" t="n">
-        <v>48.6458</v>
-      </c>
-      <c r="E13" t="n">
-        <v>59.8366</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>28.1679</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.3503</v>
-      </c>
-      <c r="D14" t="n">
-        <v>48.1836</v>
-      </c>
-      <c r="E14" t="n">
-        <v>59.2477</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>28.543</v>
-      </c>
-      <c r="C15" t="n">
-        <v>28.109</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47.8164</v>
-      </c>
-      <c r="E15" t="n">
-        <v>60.3196</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>28.4961</v>
-      </c>
-      <c r="C16" t="n">
-        <v>28.7791</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47.6318</v>
-      </c>
-      <c r="E16" t="n">
-        <v>58.7904</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>28.7956</v>
-      </c>
-      <c r="C17" t="n">
-        <v>29.7216</v>
-      </c>
-      <c r="D17" t="n">
-        <v>45.4751</v>
-      </c>
-      <c r="E17" t="n">
-        <v>57.2188</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -5713,7 +4897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -5746,278 +4930,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.946</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.3518</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.6164</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.5867</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.51665</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.337</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.4641</v>
-      </c>
-      <c r="E3" t="n">
-        <v>26.2909</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.399100000000001</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.8337</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.5744</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.3662</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.1927</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.2583</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30.0391</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45.5364</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.1124</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.953</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.1317</v>
-      </c>
-      <c r="E6" t="n">
-        <v>55.2915</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17.8983</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.5887</v>
-      </c>
-      <c r="D7" t="n">
-        <v>41.9558</v>
-      </c>
-      <c r="E7" t="n">
-        <v>65.2127</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.5351</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.7539</v>
-      </c>
-      <c r="D8" t="n">
-        <v>47.7459</v>
-      </c>
-      <c r="E8" t="n">
-        <v>73.0193</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23.6353</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.3937</v>
-      </c>
-      <c r="D9" t="n">
-        <v>56.9352</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82.5411</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>22.1826</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25.4096</v>
-      </c>
-      <c r="D10" t="n">
-        <v>51.5717</v>
-      </c>
-      <c r="E10" t="n">
-        <v>72.3122</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>22.0028</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.2847</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50.675</v>
-      </c>
-      <c r="E11" t="n">
-        <v>74.97499999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>21.8804</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.4494</v>
-      </c>
-      <c r="D12" t="n">
-        <v>52.8138</v>
-      </c>
-      <c r="E12" t="n">
-        <v>74.357</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22.6744</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25.6399</v>
-      </c>
-      <c r="D13" t="n">
-        <v>53.0908</v>
-      </c>
-      <c r="E13" t="n">
-        <v>76.1561</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.8543</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.8734</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52.1894</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75.7144</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>22.5828</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.4418</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52.7926</v>
-      </c>
-      <c r="E15" t="n">
-        <v>74.1722</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>22.7044</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.0803</v>
-      </c>
-      <c r="D16" t="n">
-        <v>51.853</v>
-      </c>
-      <c r="E16" t="n">
-        <v>76.7949</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>22.4823</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27.6645</v>
-      </c>
-      <c r="D17" t="n">
-        <v>52.5872</v>
-      </c>
-      <c r="E17" t="n">
-        <v>76.161</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -6030,7 +4942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -6061,278 +4973,6 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.98315</v>
-      </c>
-      <c r="C2" t="n">
-        <v>11.4577</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.5436</v>
-      </c>
-      <c r="E2" t="n">
-        <v>18.6475</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.48609</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.4033</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.0007</v>
-      </c>
-      <c r="E3" t="n">
-        <v>25.9824</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>9.38598</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12.8225</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.8959</v>
-      </c>
-      <c r="E4" t="n">
-        <v>35.8185</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12.1978</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15.2575</v>
-      </c>
-      <c r="D5" t="n">
-        <v>29.1835</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45.0808</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>15.043</v>
-      </c>
-      <c r="C6" t="n">
-        <v>17.8931</v>
-      </c>
-      <c r="D6" t="n">
-        <v>35.0229</v>
-      </c>
-      <c r="E6" t="n">
-        <v>54.6784</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>17.7964</v>
-      </c>
-      <c r="C7" t="n">
-        <v>20.6381</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40.7416</v>
-      </c>
-      <c r="E7" t="n">
-        <v>64.5459</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>20.5662</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23.8267</v>
-      </c>
-      <c r="D8" t="n">
-        <v>46.9608</v>
-      </c>
-      <c r="E8" t="n">
-        <v>73.217</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>23.7993</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.2253</v>
-      </c>
-      <c r="D9" t="n">
-        <v>54.9715</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82.3691</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>21.6103</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25.6408</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.3908</v>
-      </c>
-      <c r="E10" t="n">
-        <v>71.2612</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21.5261</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25.4346</v>
-      </c>
-      <c r="D11" t="n">
-        <v>49.4667</v>
-      </c>
-      <c r="E11" t="n">
-        <v>72.80840000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>22.2389</v>
-      </c>
-      <c r="C12" t="n">
-        <v>25.4639</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50.0422</v>
-      </c>
-      <c r="E12" t="n">
-        <v>72.94329999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22.5487</v>
-      </c>
-      <c r="C13" t="n">
-        <v>25.6517</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51.6717</v>
-      </c>
-      <c r="E13" t="n">
-        <v>75.7771</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>21.8755</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25.9644</v>
-      </c>
-      <c r="D14" t="n">
-        <v>49.7714</v>
-      </c>
-      <c r="E14" t="n">
-        <v>74.3677</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>22.8232</v>
-      </c>
-      <c r="C15" t="n">
-        <v>26.3635</v>
-      </c>
-      <c r="D15" t="n">
-        <v>51.1395</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75.3809</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>22.809</v>
-      </c>
-      <c r="C16" t="n">
-        <v>27.0902</v>
-      </c>
-      <c r="D16" t="n">
-        <v>51.2318</v>
-      </c>
-      <c r="E16" t="n">
-        <v>75.8549</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>22.8084</v>
-      </c>
-      <c r="C17" t="n">
-        <v>27.6917</v>
-      </c>
-      <c r="D17" t="n">
-        <v>52.2151</v>
-      </c>
-      <c r="E17" t="n">
-        <v>73.7946</v>
       </c>
     </row>
   </sheetData>
@@ -6380,278 +5020,22 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>8.70378</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15.7131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.518</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22.9192</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10.1781</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11.7678</v>
-      </c>
-      <c r="D3" t="n">
-        <v>19.9275</v>
-      </c>
-      <c r="E3" t="n">
-        <v>28.6311</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>13.3183</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.9643</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.5326</v>
-      </c>
-      <c r="E4" t="n">
-        <v>38.7505</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16.2976</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.373</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31.7694</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48.2472</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>19.5818</v>
-      </c>
-      <c r="C6" t="n">
-        <v>19.2367</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.313</v>
-      </c>
-      <c r="E6" t="n">
-        <v>57.5375</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>22.7625</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22.0741</v>
-      </c>
-      <c r="D7" t="n">
-        <v>44.7456</v>
-      </c>
-      <c r="E7" t="n">
-        <v>66.07210000000001</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>26.4343</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25.1197</v>
-      </c>
-      <c r="D8" t="n">
-        <v>51.7748</v>
-      </c>
-      <c r="E8" t="n">
-        <v>73.9151</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>31.2515</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.8259</v>
-      </c>
-      <c r="D9" t="n">
-        <v>59.4806</v>
-      </c>
-      <c r="E9" t="n">
-        <v>82.2577</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>29.3997</v>
-      </c>
-      <c r="C10" t="n">
-        <v>26.8868</v>
-      </c>
-      <c r="D10" t="n">
-        <v>56.73</v>
-      </c>
-      <c r="E10" t="n">
-        <v>73.5761</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>28.936</v>
-      </c>
-      <c r="C11" t="n">
-        <v>26.5849</v>
-      </c>
-      <c r="D11" t="n">
-        <v>55.5005</v>
-      </c>
-      <c r="E11" t="n">
-        <v>74.7116</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>29.6749</v>
-      </c>
-      <c r="C12" t="n">
-        <v>27.1431</v>
-      </c>
-      <c r="D12" t="n">
-        <v>56.9567</v>
-      </c>
-      <c r="E12" t="n">
-        <v>77.22920000000001</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>29.4758</v>
-      </c>
-      <c r="C13" t="n">
-        <v>27.3902</v>
-      </c>
-      <c r="D13" t="n">
-        <v>57.2481</v>
-      </c>
-      <c r="E13" t="n">
-        <v>76.72450000000001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>28.7853</v>
-      </c>
-      <c r="C14" t="n">
-        <v>27.892</v>
-      </c>
-      <c r="D14" t="n">
-        <v>56.2033</v>
-      </c>
-      <c r="E14" t="n">
-        <v>78.2658</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" t="n">
-        <v>29.9918</v>
-      </c>
-      <c r="C15" t="n">
-        <v>28.5702</v>
-      </c>
-      <c r="D15" t="n">
-        <v>57.2701</v>
-      </c>
-      <c r="E15" t="n">
-        <v>78.66119999999999</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>29.8774</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29.4019</v>
-      </c>
-      <c r="D16" t="n">
-        <v>56.4326</v>
-      </c>
-      <c r="E16" t="n">
-        <v>78.7663</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" t="n">
-        <v>30.1719</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.3168</v>
-      </c>
-      <c r="D17" t="n">
-        <v>57.3324</v>
-      </c>
-      <c r="E17" t="n">
-        <v>80.7766</v>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4762,7 +4762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4795,6 +4795,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.0589</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.2443</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.9289</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.8921</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.0714</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.9017</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.468</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.2136</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.4324</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.7021</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.4116</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.6542</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.0638</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.9729</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.3796</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.7592</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.9398</v>
+      </c>
+      <c r="D6" t="n">
+        <v>32.1523</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.0569</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21.499</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.3821</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.2888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.0513</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>24.1167</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.7781</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.076</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.2733</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>29.346</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.2644</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.3769</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.912</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>24.5824</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.5503</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43.9323</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.6167</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.1167</v>
+      </c>
+      <c r="C11" t="n">
+        <v>24.0962</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42.715</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.6178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.5522</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.2073</v>
+      </c>
+      <c r="D12" t="n">
+        <v>44.3932</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59.6438</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26.0435</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43.5093</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.6251</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24.643</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.9036</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45.6124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.5414</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24.8428</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.3713</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45.5332</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.6932</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>25.1616</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.8431</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46.2368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>66.3775</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26.0737</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.7966</v>
+      </c>
+      <c r="D17" t="n">
+        <v>47.9379</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.3293</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4807,7 +5079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4840,6 +5112,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.9323</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.0656</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.7647</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.7342</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.5109</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.9502</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.9917</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.9507</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.3227</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.5018</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.3401</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.8851</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14.9092</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.9267</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.4918</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37.0212</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.9984</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.5052</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.3802</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.4204</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.1644</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.3337</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37.2177</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.3588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25.2372</v>
+      </c>
+      <c r="C8" t="n">
+        <v>22.9068</v>
+      </c>
+      <c r="D8" t="n">
+        <v>40.958</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.2618</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30.0543</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.2801</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.2462</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.2348</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>25.4567</v>
+      </c>
+      <c r="C10" t="n">
+        <v>24.5699</v>
+      </c>
+      <c r="D10" t="n">
+        <v>42.057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56.8408</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25.0232</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23.8377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>43.5591</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.3231</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25.2848</v>
+      </c>
+      <c r="C12" t="n">
+        <v>24.4263</v>
+      </c>
+      <c r="D12" t="n">
+        <v>43.3308</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.6253</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>25.8438</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.1403</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44.9553</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59.8843</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>25.4367</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.9429</v>
+      </c>
+      <c r="D14" t="n">
+        <v>43.8752</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.9898</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.3058</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43.6958</v>
+      </c>
+      <c r="E15" t="n">
+        <v>63.2881</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24.7436</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27.1251</v>
+      </c>
+      <c r="D16" t="n">
+        <v>43.6944</v>
+      </c>
+      <c r="E16" t="n">
+        <v>66.35420000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>25.6774</v>
+      </c>
+      <c r="C17" t="n">
+        <v>28.0437</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46.941</v>
+      </c>
+      <c r="E17" t="n">
+        <v>63.4008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4852,7 +5396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4885,6 +5429,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14.1391</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17.3614</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.2087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23.2908</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.4994</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.1261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0583</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.395</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14.235</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14.1218</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.6212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33.8834</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.2354</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.0871</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.5319</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.5114</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20.7747</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.9939</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.5013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47.1645</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>24.4177</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.9244</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.7034</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.1296</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>27.6502</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.1319</v>
+      </c>
+      <c r="D8" t="n">
+        <v>42.8566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5473</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32.0687</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.0006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>47.885</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.4374</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.503</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.5052</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46.364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56.723</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>27.8464</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.7161</v>
+      </c>
+      <c r="D11" t="n">
+        <v>46.2081</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.2007</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>28.3897</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.0991</v>
+      </c>
+      <c r="D12" t="n">
+        <v>47.3238</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.9002</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>30.3369</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26.7628</v>
+      </c>
+      <c r="D13" t="n">
+        <v>46.4975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.196</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>29.1516</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.2335</v>
+      </c>
+      <c r="D14" t="n">
+        <v>48.4387</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57.4814</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>28.3797</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.0183</v>
+      </c>
+      <c r="D15" t="n">
+        <v>46.3146</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60.1416</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>27.9536</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28.7434</v>
+      </c>
+      <c r="D16" t="n">
+        <v>46.4287</v>
+      </c>
+      <c r="E16" t="n">
+        <v>56.3897</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>26.5205</v>
+      </c>
+      <c r="C17" t="n">
+        <v>29.4942</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46.3487</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.5422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4897,7 +5713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4930,6 +5746,278 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.94726</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.3403</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.595</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.5236</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.49897</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.3579</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.4832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.2644</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.40124</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.7164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.4886</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.2464</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.236</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.2212</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.0575</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.3501</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14.9758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.8701</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.9595</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.4821</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.8475</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.6143</v>
+      </c>
+      <c r="D7" t="n">
+        <v>42.1385</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.0278</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.7504</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.7844</v>
+      </c>
+      <c r="D8" t="n">
+        <v>47.8469</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.9714</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.7162</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.2097</v>
+      </c>
+      <c r="D9" t="n">
+        <v>56.7654</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.815</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.8815</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.4742</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51.7496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.84</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.8228</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.1407</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51.2342</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.29389999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22.2795</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.397</v>
+      </c>
+      <c r="D12" t="n">
+        <v>52.1125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.9888</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22.7413</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.5429</v>
+      </c>
+      <c r="D13" t="n">
+        <v>53.4394</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.9472</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.7851</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.8417</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51.5989</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.3806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22.8638</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.5165</v>
+      </c>
+      <c r="D15" t="n">
+        <v>52.4848</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.6195</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.7662</v>
+      </c>
+      <c r="C16" t="n">
+        <v>26.9485</v>
+      </c>
+      <c r="D16" t="n">
+        <v>52.0648</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76.3456</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.0742</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.6888</v>
+      </c>
+      <c r="D17" t="n">
+        <v>53.0495</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75.0981</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
@@ -4942,7 +6030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:E1"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I24" sqref="I24"/>
@@ -4973,6 +6061,278 @@
         <is>
           <t>boost::concurrent_flat_map bulk</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.01216</v>
+      </c>
+      <c r="C2" t="n">
+        <v>11.4501</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.535</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.6922</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.49546</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10.3796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.0058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.9457</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.470750000000001</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.7708</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.8744</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35.8536</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12.2549</v>
+      </c>
+      <c r="C5" t="n">
+        <v>15.1672</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.3876</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.008</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>15.101</v>
+      </c>
+      <c r="C6" t="n">
+        <v>17.8443</v>
+      </c>
+      <c r="D6" t="n">
+        <v>35.2198</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54.5945</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.926</v>
+      </c>
+      <c r="C7" t="n">
+        <v>20.5601</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.1925</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.5356</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>20.5483</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23.7382</v>
+      </c>
+      <c r="D8" t="n">
+        <v>46.7612</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.3873</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23.6835</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.0585</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55.2403</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.0714</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>21.549</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.0101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50.7963</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.8715</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>21.476</v>
+      </c>
+      <c r="C11" t="n">
+        <v>25.3255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50.1028</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.7659</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>22.4268</v>
+      </c>
+      <c r="C12" t="n">
+        <v>25.3224</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50.3762</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72.90989999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>22.7666</v>
+      </c>
+      <c r="C13" t="n">
+        <v>25.4831</v>
+      </c>
+      <c r="D13" t="n">
+        <v>51.0768</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.18510000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>21.8251</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25.7612</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50.595</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.5424</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22.954</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.3204</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.011</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74.16670000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>22.6484</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27.0022</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50.8495</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.82899999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>23.0978</v>
+      </c>
+      <c r="C17" t="n">
+        <v>27.5837</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.8297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75.3886</v>
       </c>
     </row>
   </sheetData>
@@ -5020,22 +6380,278 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8.67019</v>
+      </c>
+      <c r="C2" t="n">
+        <v>15.7086</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.5023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.8946</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.133</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11.7275</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0019</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.6248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13.2057</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.9782</v>
+      </c>
+      <c r="D4" t="n">
+        <v>25.5638</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.8187</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>16.3486</v>
+      </c>
+      <c r="C5" t="n">
+        <v>16.3738</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31.4891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48.0431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>19.6108</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.2933</v>
+      </c>
+      <c r="D6" t="n">
+        <v>37.9656</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.3694</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>22.9924</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22.0491</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.6994</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.06699999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>26.4405</v>
+      </c>
+      <c r="C8" t="n">
+        <v>25.1037</v>
+      </c>
+      <c r="D8" t="n">
+        <v>52.0528</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.3616</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31.3461</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.6627</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59.8043</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.0515</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>29.086</v>
+      </c>
+      <c r="C10" t="n">
+        <v>26.7049</v>
+      </c>
+      <c r="D10" t="n">
+        <v>55.1714</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73.6236</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>28.6624</v>
+      </c>
+      <c r="C11" t="n">
+        <v>26.6911</v>
+      </c>
+      <c r="D11" t="n">
+        <v>54.8533</v>
+      </c>
+      <c r="E11" t="n">
+        <v>74.4132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>29.206</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26.9502</v>
+      </c>
+      <c r="D12" t="n">
+        <v>56.3106</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77.00109999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>29.6151</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27.4454</v>
+      </c>
+      <c r="D13" t="n">
+        <v>57.0465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>76.85380000000001</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>28.7779</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27.8643</v>
+      </c>
+      <c r="D14" t="n">
+        <v>56.563</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77.9973</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>29.8219</v>
+      </c>
+      <c r="C15" t="n">
+        <v>28.6281</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57.5213</v>
+      </c>
+      <c r="E15" t="n">
+        <v>77.824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>29.9001</v>
+      </c>
+      <c r="C16" t="n">
+        <v>29.4418</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57.565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79.2593</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>30.1427</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.3203</v>
+      </c>
+      <c r="D17" t="n">
+        <v>57.9592</v>
+      </c>
+      <c r="E17" t="n">
+        <v>77.9949</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="500k, 0.01" sheetId="1" state="visible" r:id="rId1"/>
@@ -115,9 +115,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -217,52 +217,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.04196</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7548</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.5965</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.1211</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.9593</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.1952</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.9931</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>30.6191</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>31.8691</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>29.1933</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.0212</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.0733</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>30.7886</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>31.0243</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>30.3046</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.2738</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -363,52 +363,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.8239</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.1098</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.4315</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.4453</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>22.8333</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.6506</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.7991</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.586</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.6552</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>16.9317</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>16.0848</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>16.3772</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.8073</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>16.3375</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>16.3003</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>16.4925</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -509,52 +509,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.8698</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.1979</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.226</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.5083</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>37.2833</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>37.809</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.5411</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.648</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.5141</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.696</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.562</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.6898</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>39.7771</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.6172</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>40.1725</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.233</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -647,33 +790,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -693,9 +811,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -795,52 +913,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.014760000000001</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>16.7253</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>23.2607</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.5955</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>25.8655</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>27.8528</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>29.2896</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>31.4791</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>32.5906</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>32.0825</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>32.1665</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>32.3791</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>32.3403</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>32.6472</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>32.7387</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>32.6481</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -941,52 +1059,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.7263</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.9888</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1975</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.3554</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>23.0146</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>19.4836</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.1334</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.3752</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>16.058</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.4598</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.3131</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.4539</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.2711</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.6766</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.4165</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.297</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1087,52 +1205,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.5872</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.867</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.8568</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.0436</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.7699</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>28.3931</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>12.9162</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>25.3072</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>36.1843</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.6761</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>24.4303</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.3513</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>31.213</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.823</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8533</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.6766</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1225,33 +1486,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1271,9 +1507,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1373,52 +1609,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.75653</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.6313</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.9494</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>31.5999</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>26.3215</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>29.0275</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>31.7959</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.2449</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.0444</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.5689</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.7024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>34.6463</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.7974</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>34.8285</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>34.7665</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>34.8454</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1519,52 +1755,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5546</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.373</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.1499</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>29.8795</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.456</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>16.4204</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>15.7672</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>14.967</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>15.9969</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>15.8365</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>15.5373</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>15.3003</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>15.3664</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>15.3564</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>15.6061</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>15.5156</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1665,52 +1901,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.2155</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.1683</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>34.1297</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>44.6755</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>34.6211</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>35.7039</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>33.2518</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.6154</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>34.9122</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>35.0458</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>34.0682</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>36.9944</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>36.1704</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>38.0711</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>36.2356</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>39.2473</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'500k, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'500k, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'500k, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1803,33 +2182,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -1849,9 +2203,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -1951,52 +2305,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.08628</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.2805</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.6583</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0278</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.3115</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.9464</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.429</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>33.6642</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.6046</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>33.5257</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.8832</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.5263</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>33.4168</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.5133</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9753</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.5673</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2097,52 +2451,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.224</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.5179</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.1107</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.0303</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4426</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.1139</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4737</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.5707</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>18.4397</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.7371</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.9475</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.448</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6857</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.489</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.5141</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.358</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2243,52 +2597,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.4487</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>26.2258</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>36.5025</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.9713</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.5319</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.4495</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>38.2362</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.7844</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.7962</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.9492</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.1088</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.8895</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>41.5491</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5762</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>42.7578</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>40.7522</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.01'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.01'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.01'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2381,33 +2878,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -2427,9 +2899,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -2529,52 +3001,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>8.09909</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>15.3101</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>21.7179</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.2652</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>29.5296</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>30.98</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>32.674</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>34.0632</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>33.8636</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>34.1339</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>33.7174</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>33.6251</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>34.1161</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>33.9719</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>33.9311</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>33.909</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2675,52 +3147,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.1984</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>18.6114</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>24.403</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>28.5845</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>18.4644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.2278</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>16.4989</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.2178</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>19.597</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>18.323</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>17.3089</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>17.4284</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.3952</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.2446</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.7765</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.6216</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2821,52 +3293,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>14.1478</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>25.7691</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.9245</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.2667</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>38.9787</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>36.5341</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.6022</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>36.4625</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.1908</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.5839</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>40.3806</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>41.092</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>40.9808</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>41.5043</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>41.8637</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>41.843</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.5'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.5'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.5'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2959,33 +3574,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -3005,9 +3595,9 @@
           <wMode val="factor"/>
           <hMode val="factor"/>
           <x val="0.09111301681349238"/>
-          <y val="0.03800606309402162"/>
+          <y val="0.1645017834309173"/>
           <w val="0.8736779189729996"/>
-          <h val="0.8283126059471367"/>
+          <h val="0.698398007941315"/>
         </manualLayout>
       </layout>
       <scatterChart>
@@ -3107,52 +3697,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>9.50034</v>
+                  <v>13.8891</v>
                 </pt>
                 <pt idx="1">
-                  <v>17.8289</v>
+                  <v>26.7801</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.3146</v>
+                  <v>31.3916</v>
                 </pt>
                 <pt idx="3">
-                  <v>33.209</v>
+                  <v>42.1114</v>
                 </pt>
                 <pt idx="4">
-                  <v>32.955</v>
+                  <v>40.0238</v>
                 </pt>
                 <pt idx="5">
-                  <v>34.7817</v>
+                  <v>39.5469</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.3239</v>
+                  <v>37.7463</v>
                 </pt>
                 <pt idx="7">
-                  <v>38.1812</v>
+                  <v>39.7074</v>
                 </pt>
                 <pt idx="8">
-                  <v>37.8878</v>
+                  <v>46.2775</v>
                 </pt>
                 <pt idx="9">
-                  <v>38.009</v>
+                  <v>47.6475</v>
                 </pt>
                 <pt idx="10">
-                  <v>38.3024</v>
+                  <v>41.1897</v>
                 </pt>
                 <pt idx="11">
-                  <v>37.8075</v>
+                  <v>44.6059</v>
                 </pt>
                 <pt idx="12">
-                  <v>38.1555</v>
+                  <v>42.3724</v>
                 </pt>
                 <pt idx="13">
-                  <v>37.9911</v>
+                  <v>46.0471</v>
                 </pt>
                 <pt idx="14">
-                  <v>37.8898</v>
+                  <v>44.8912</v>
                 </pt>
                 <pt idx="15">
-                  <v>38.1378</v>
+                  <v>49.0374</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3253,52 +3843,52 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>11.5142</v>
+                  <v>18.6855</v>
                 </pt>
                 <pt idx="1">
-                  <v>19.5052</v>
+                  <v>31.0102</v>
                 </pt>
                 <pt idx="2">
-                  <v>25.8285</v>
+                  <v>35.7257</v>
                 </pt>
                 <pt idx="3">
-                  <v>30.4771</v>
+                  <v>50.8404</v>
                 </pt>
                 <pt idx="4">
-                  <v>19.2644</v>
+                  <v>40.4798</v>
                 </pt>
                 <pt idx="5">
-                  <v>17.907</v>
+                  <v>40.7141</v>
                 </pt>
                 <pt idx="6">
-                  <v>17.0008</v>
+                  <v>37.2463</v>
                 </pt>
                 <pt idx="7">
-                  <v>16.8152</v>
+                  <v>39.2744</v>
                 </pt>
                 <pt idx="8">
-                  <v>20.8086</v>
+                  <v>40.4141</v>
                 </pt>
                 <pt idx="9">
-                  <v>19.8123</v>
+                  <v>42.6102</v>
                 </pt>
                 <pt idx="10">
-                  <v>18.3327</v>
+                  <v>39.5541</v>
                 </pt>
                 <pt idx="11">
-                  <v>18.6433</v>
+                  <v>43.5443</v>
                 </pt>
                 <pt idx="12">
-                  <v>17.6417</v>
+                  <v>48.8967</v>
                 </pt>
                 <pt idx="13">
-                  <v>17.8255</v>
+                  <v>45.6242</v>
                 </pt>
                 <pt idx="14">
-                  <v>17.8327</v>
+                  <v>49.8071</v>
                 </pt>
                 <pt idx="15">
-                  <v>17.8783</v>
+                  <v>46.0208</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3399,52 +3989,195 @@
                 <formatCode>General</formatCode>
                 <ptCount val="32"/>
                 <pt idx="0">
-                  <v>13.4315</v>
+                  <v>25.1245</v>
                 </pt>
                 <pt idx="1">
-                  <v>24.88</v>
+                  <v>33.3849</v>
                 </pt>
                 <pt idx="2">
-                  <v>35.26</v>
+                  <v>48.2392</v>
                 </pt>
                 <pt idx="3">
-                  <v>46.293</v>
+                  <v>61.9033</v>
                 </pt>
                 <pt idx="4">
-                  <v>39.9577</v>
+                  <v>51.4984</v>
                 </pt>
                 <pt idx="5">
-                  <v>39.6963</v>
+                  <v>49.997</v>
                 </pt>
                 <pt idx="6">
-                  <v>36.2567</v>
+                  <v>53.5658</v>
                 </pt>
                 <pt idx="7">
-                  <v>39.0037</v>
+                  <v>49.8046</v>
                 </pt>
                 <pt idx="8">
-                  <v>38.8414</v>
+                  <v>51.2952</v>
                 </pt>
                 <pt idx="9">
-                  <v>39.8774</v>
+                  <v>55.992</v>
                 </pt>
                 <pt idx="10">
-                  <v>41.0872</v>
+                  <v>51.6304</v>
                 </pt>
                 <pt idx="11">
-                  <v>40.7784</v>
+                  <v>54.8665</v>
                 </pt>
                 <pt idx="12">
-                  <v>42.3415</v>
+                  <v>54.975</v>
                 </pt>
                 <pt idx="13">
-                  <v>42.2976</v>
+                  <v>55.5807</v>
                 </pt>
                 <pt idx="14">
-                  <v>44.8443</v>
+                  <v>44.9125</v>
                 </pt>
                 <pt idx="15">
-                  <v>42.8458</v>
+                  <v>55.7518</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>'5M, 0.99'!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::concurrent_flat_map bulk</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'5M, 0.99'!$A$2:$A$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>1</v>
+                </pt>
+                <pt idx="1">
+                  <v>2</v>
+                </pt>
+                <pt idx="2">
+                  <v>3</v>
+                </pt>
+                <pt idx="3">
+                  <v>4</v>
+                </pt>
+                <pt idx="4">
+                  <v>5</v>
+                </pt>
+                <pt idx="5">
+                  <v>6</v>
+                </pt>
+                <pt idx="6">
+                  <v>7</v>
+                </pt>
+                <pt idx="7">
+                  <v>8</v>
+                </pt>
+                <pt idx="8">
+                  <v>9</v>
+                </pt>
+                <pt idx="9">
+                  <v>10</v>
+                </pt>
+                <pt idx="10">
+                  <v>11</v>
+                </pt>
+                <pt idx="11">
+                  <v>12</v>
+                </pt>
+                <pt idx="12">
+                  <v>13</v>
+                </pt>
+                <pt idx="13">
+                  <v>14</v>
+                </pt>
+                <pt idx="14">
+                  <v>15</v>
+                </pt>
+                <pt idx="15">
+                  <v>16</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'5M, 0.99'!$E$2:$E$33</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="32"/>
+                <pt idx="0">
+                  <v>29.8425</v>
+                </pt>
+                <pt idx="1">
+                  <v>44.9754</v>
+                </pt>
+                <pt idx="2">
+                  <v>55.1248</v>
+                </pt>
+                <pt idx="3">
+                  <v>74.3052</v>
+                </pt>
+                <pt idx="4">
+                  <v>61.2846</v>
+                </pt>
+                <pt idx="5">
+                  <v>63.3506</v>
+                </pt>
+                <pt idx="6">
+                  <v>69.6906</v>
+                </pt>
+                <pt idx="7">
+                  <v>60.9708</v>
+                </pt>
+                <pt idx="8">
+                  <v>59.1547</v>
+                </pt>
+                <pt idx="9">
+                  <v>65.57989999999999</v>
+                </pt>
+                <pt idx="10">
+                  <v>55.923</v>
+                </pt>
+                <pt idx="11">
+                  <v>59.4605</v>
+                </pt>
+                <pt idx="12">
+                  <v>56.9516</v>
+                </pt>
+                <pt idx="13">
+                  <v>58.594</v>
+                </pt>
+                <pt idx="14">
+                  <v>60.4237</v>
+                </pt>
+                <pt idx="15">
+                  <v>59.0957</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3537,33 +4270,8 @@
       </valAx>
     </plotArea>
     <legend>
-      <legendPos val="r"/>
-      <layout>
-        <manualLayout>
-          <xMode val="edge"/>
-          <yMode val="edge"/>
-          <wMode val="factor"/>
-          <hMode val="factor"/>
-          <x val="0.5636849354226762"/>
-          <y val="0.6254994279561209"/>
-          <w val="0.3836870143707284"/>
-          <h val="0.2236395450568679"/>
-        </manualLayout>
-      </layout>
+      <legendPos val="t"/>
       <overlay val="0"/>
-      <spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="65000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
@@ -4050,14 +4758,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+  <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4081,19 +4789,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2049</v>
+        <v>10.0589</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2475</v>
+        <v>15.2443</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0009</v>
+        <v>18.9289</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.8921</v>
       </c>
     </row>
     <row r="3">
@@ -4101,13 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0281</v>
+        <v>10.0714</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7033</v>
+        <v>10.9017</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4182</v>
+        <v>18.468</v>
+      </c>
+      <c r="E3" t="n">
+        <v>24.2136</v>
       </c>
     </row>
     <row r="4">
@@ -4115,13 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0978</v>
+        <v>12.4324</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4562</v>
+        <v>12.7021</v>
       </c>
       <c r="D4" t="n">
-        <v>22.6403</v>
+        <v>22.627</v>
+      </c>
+      <c r="E4" t="n">
+        <v>30.4116</v>
       </c>
     </row>
     <row r="5">
@@ -4129,13 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7796</v>
+        <v>14.6542</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0219</v>
+        <v>15.0638</v>
       </c>
       <c r="D5" t="n">
-        <v>26.472</v>
+        <v>26.9729</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.3796</v>
       </c>
     </row>
     <row r="6">
@@ -4143,13 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0826</v>
+        <v>17.7592</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7316</v>
+        <v>17.9398</v>
       </c>
       <c r="D6" t="n">
-        <v>32.2339</v>
+        <v>32.1523</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.0569</v>
       </c>
     </row>
     <row r="7">
@@ -4157,13 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8113</v>
+        <v>21.499</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6304</v>
+        <v>20.3821</v>
       </c>
       <c r="D7" t="n">
-        <v>36.0661</v>
+        <v>36.2888</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.0513</v>
       </c>
     </row>
     <row r="8">
@@ -4171,13 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3738</v>
+        <v>24.1167</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0563</v>
+        <v>22.7781</v>
       </c>
       <c r="D8" t="n">
-        <v>39.654</v>
+        <v>40.076</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.2733</v>
       </c>
     </row>
     <row r="9">
@@ -4185,13 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8136</v>
+        <v>29.346</v>
       </c>
       <c r="C9" t="n">
-        <v>25.1803</v>
+        <v>25.2644</v>
       </c>
       <c r="D9" t="n">
-        <v>45.1819</v>
+        <v>45.3769</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.912</v>
       </c>
     </row>
     <row r="10">
@@ -4199,13 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0011</v>
+        <v>24.5824</v>
       </c>
       <c r="C10" t="n">
-        <v>24.4594</v>
+        <v>24.5503</v>
       </c>
       <c r="D10" t="n">
-        <v>42.795</v>
+        <v>43.9323</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.6167</v>
       </c>
     </row>
     <row r="11">
@@ -4213,13 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5042</v>
+        <v>25.1167</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7483</v>
+        <v>24.0962</v>
       </c>
       <c r="D11" t="n">
-        <v>42.0836</v>
+        <v>42.715</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.6178</v>
       </c>
     </row>
     <row r="12">
@@ -4227,13 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2126</v>
+        <v>25.5522</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5664</v>
+        <v>24.2073</v>
       </c>
       <c r="D12" t="n">
-        <v>42.3132</v>
+        <v>44.3932</v>
+      </c>
+      <c r="E12" t="n">
+        <v>59.6438</v>
       </c>
     </row>
     <row r="13">
@@ -4241,13 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0463</v>
+        <v>26.0435</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8056</v>
+        <v>24.74</v>
       </c>
       <c r="D13" t="n">
-        <v>44.2291</v>
+        <v>43.5093</v>
+      </c>
+      <c r="E13" t="n">
+        <v>61.6251</v>
       </c>
     </row>
     <row r="14">
@@ -4255,13 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.2091</v>
+        <v>24.643</v>
       </c>
       <c r="C14" t="n">
-        <v>25.684</v>
+        <v>25.9036</v>
       </c>
       <c r="D14" t="n">
-        <v>45.0345</v>
+        <v>45.6124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.5414</v>
       </c>
     </row>
     <row r="15">
@@ -4269,13 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8806</v>
+        <v>24.8428</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5337</v>
+        <v>26.3713</v>
       </c>
       <c r="D15" t="n">
-        <v>45.8568</v>
+        <v>45.5332</v>
+      </c>
+      <c r="E15" t="n">
+        <v>62.6932</v>
       </c>
     </row>
     <row r="16">
@@ -4283,13 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1847</v>
+        <v>25.1616</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1471</v>
+        <v>26.8431</v>
       </c>
       <c r="D16" t="n">
-        <v>45.2227</v>
+        <v>46.2368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>66.3775</v>
       </c>
     </row>
     <row r="17">
@@ -4297,13 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.8478</v>
+        <v>26.0737</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7891</v>
+        <v>27.7966</v>
       </c>
       <c r="D17" t="n">
-        <v>46.4947</v>
+        <v>47.9379</v>
+      </c>
+      <c r="E17" t="n">
+        <v>62.3293</v>
       </c>
     </row>
   </sheetData>
@@ -4318,10 +5079,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4345,19 +5106,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1051</v>
+        <v>10.9323</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1009</v>
+        <v>15.0656</v>
       </c>
       <c r="D2" t="n">
-        <v>18.83</v>
+        <v>18.7647</v>
+      </c>
+      <c r="E2" t="n">
+        <v>21.7342</v>
       </c>
     </row>
     <row r="3">
@@ -4365,13 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.493</v>
+        <v>10.5109</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0141</v>
+        <v>10.9502</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1842</v>
+        <v>17.9917</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.9507</v>
       </c>
     </row>
     <row r="4">
@@ -4379,13 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2979</v>
+        <v>12.3227</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5013</v>
+        <v>12.5018</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2069</v>
+        <v>22.3401</v>
+      </c>
+      <c r="E4" t="n">
+        <v>29.8851</v>
       </c>
     </row>
     <row r="5">
@@ -4393,13 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8403</v>
+        <v>14.9092</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8897</v>
+        <v>14.9267</v>
       </c>
       <c r="D5" t="n">
-        <v>27.344</v>
+        <v>26.4918</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37.0212</v>
       </c>
     </row>
     <row r="6">
@@ -4407,13 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1513</v>
+        <v>17.9984</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5993</v>
+        <v>17.5052</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7932</v>
+        <v>31.3802</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43.4204</v>
       </c>
     </row>
     <row r="7">
@@ -4421,13 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0088</v>
+        <v>22.1644</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1362</v>
+        <v>20.3337</v>
       </c>
       <c r="D7" t="n">
-        <v>36.9236</v>
+        <v>37.2177</v>
+      </c>
+      <c r="E7" t="n">
+        <v>49.3588</v>
       </c>
     </row>
     <row r="8">
@@ -4435,13 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6986</v>
+        <v>25.2372</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3127</v>
+        <v>22.9068</v>
       </c>
       <c r="D8" t="n">
-        <v>39.4255</v>
+        <v>40.958</v>
+      </c>
+      <c r="E8" t="n">
+        <v>53.2618</v>
       </c>
     </row>
     <row r="9">
@@ -4449,13 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.014</v>
+        <v>30.0543</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8995</v>
+        <v>25.2801</v>
       </c>
       <c r="D9" t="n">
-        <v>44.5501</v>
+        <v>45.2462</v>
+      </c>
+      <c r="E9" t="n">
+        <v>56.2348</v>
       </c>
     </row>
     <row r="10">
@@ -4463,13 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5591</v>
+        <v>25.4567</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8603</v>
+        <v>24.5699</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9247</v>
+        <v>42.057</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56.8408</v>
       </c>
     </row>
     <row r="11">
@@ -4477,13 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>26.3336</v>
+        <v>25.0232</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9154</v>
+        <v>23.8377</v>
       </c>
       <c r="D11" t="n">
-        <v>41.0133</v>
+        <v>43.5591</v>
+      </c>
+      <c r="E11" t="n">
+        <v>58.3231</v>
       </c>
     </row>
     <row r="12">
@@ -4491,13 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5452</v>
+        <v>25.2848</v>
       </c>
       <c r="C12" t="n">
-        <v>24.615</v>
+        <v>24.4263</v>
       </c>
       <c r="D12" t="n">
-        <v>42.95</v>
+        <v>43.3308</v>
+      </c>
+      <c r="E12" t="n">
+        <v>60.6253</v>
       </c>
     </row>
     <row r="13">
@@ -4505,13 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5212</v>
+        <v>25.8438</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3336</v>
+        <v>25.1403</v>
       </c>
       <c r="D13" t="n">
-        <v>44.7899</v>
+        <v>44.9553</v>
+      </c>
+      <c r="E13" t="n">
+        <v>59.8843</v>
       </c>
     </row>
     <row r="14">
@@ -4519,13 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.468</v>
+        <v>25.4367</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9657</v>
+        <v>25.9429</v>
       </c>
       <c r="D14" t="n">
-        <v>42.4838</v>
+        <v>43.8752</v>
+      </c>
+      <c r="E14" t="n">
+        <v>64.9898</v>
       </c>
     </row>
     <row r="15">
@@ -4533,13 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6356</v>
+        <v>25.82</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5354</v>
+        <v>26.3058</v>
       </c>
       <c r="D15" t="n">
-        <v>44.8288</v>
+        <v>43.6958</v>
+      </c>
+      <c r="E15" t="n">
+        <v>63.2881</v>
       </c>
     </row>
     <row r="16">
@@ -4547,13 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.1016</v>
+        <v>24.7436</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3103</v>
+        <v>27.1251</v>
       </c>
       <c r="D16" t="n">
-        <v>44.1968</v>
+        <v>43.6944</v>
+      </c>
+      <c r="E16" t="n">
+        <v>66.35420000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4561,13 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1541</v>
+        <v>25.6774</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1024</v>
+        <v>28.0437</v>
       </c>
       <c r="D17" t="n">
-        <v>44.7481</v>
+        <v>46.941</v>
+      </c>
+      <c r="E17" t="n">
+        <v>63.4008</v>
       </c>
     </row>
   </sheetData>
@@ -4582,10 +5396,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4609,19 +5423,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2112</v>
+        <v>14.1391</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3934</v>
+        <v>17.3614</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3203</v>
+        <v>21.2087</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23.2908</v>
       </c>
     </row>
     <row r="3">
@@ -4629,13 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7351</v>
+        <v>11.4994</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8837</v>
+        <v>12.1261</v>
       </c>
       <c r="D3" t="n">
-        <v>19.197</v>
+        <v>20.0583</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.395</v>
       </c>
     </row>
     <row r="4">
@@ -4643,13 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2686</v>
+        <v>14.235</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1771</v>
+        <v>14.1218</v>
       </c>
       <c r="D4" t="n">
-        <v>23.9439</v>
+        <v>24.6212</v>
+      </c>
+      <c r="E4" t="n">
+        <v>33.8834</v>
       </c>
     </row>
     <row r="5">
@@ -4657,13 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0826</v>
+        <v>17.2354</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0842</v>
+        <v>17.0871</v>
       </c>
       <c r="D5" t="n">
-        <v>29.1586</v>
+        <v>29.5319</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40.5114</v>
       </c>
     </row>
     <row r="6">
@@ -4671,13 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.8778</v>
+        <v>20.7747</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2561</v>
+        <v>19.9939</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9592</v>
+        <v>35.5013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>47.1645</v>
       </c>
     </row>
     <row r="7">
@@ -4685,13 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7311</v>
+        <v>24.4177</v>
       </c>
       <c r="C7" t="n">
-        <v>21.7867</v>
+        <v>22.9244</v>
       </c>
       <c r="D7" t="n">
-        <v>38.4474</v>
+        <v>39.7034</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.1296</v>
       </c>
     </row>
     <row r="8">
@@ -4699,13 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.0303</v>
+        <v>27.6502</v>
       </c>
       <c r="C8" t="n">
-        <v>25.152</v>
+        <v>25.1319</v>
       </c>
       <c r="D8" t="n">
-        <v>43.8047</v>
+        <v>42.8566</v>
+      </c>
+      <c r="E8" t="n">
+        <v>54.5473</v>
       </c>
     </row>
     <row r="9">
@@ -4713,13 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.9345</v>
+        <v>32.0687</v>
       </c>
       <c r="C9" t="n">
-        <v>27.043</v>
+        <v>27.0006</v>
       </c>
       <c r="D9" t="n">
-        <v>47.2591</v>
+        <v>47.885</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.4374</v>
       </c>
     </row>
     <row r="10">
@@ -4727,13 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.4147</v>
+        <v>29.503</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7284</v>
+        <v>26.5052</v>
       </c>
       <c r="D10" t="n">
-        <v>47.392</v>
+        <v>46.364</v>
+      </c>
+      <c r="E10" t="n">
+        <v>56.723</v>
       </c>
     </row>
     <row r="11">
@@ -4741,13 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.5209</v>
+        <v>27.8464</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7849</v>
+        <v>25.7161</v>
       </c>
       <c r="D11" t="n">
-        <v>47.1609</v>
+        <v>46.2081</v>
+      </c>
+      <c r="E11" t="n">
+        <v>57.2007</v>
       </c>
     </row>
     <row r="12">
@@ -4755,13 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8048</v>
+        <v>28.3897</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1054</v>
+        <v>26.0991</v>
       </c>
       <c r="D12" t="n">
-        <v>47.9231</v>
+        <v>47.3238</v>
+      </c>
+      <c r="E12" t="n">
+        <v>58.9002</v>
       </c>
     </row>
     <row r="13">
@@ -4769,13 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9679</v>
+        <v>30.3369</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7056</v>
+        <v>26.7628</v>
       </c>
       <c r="D13" t="n">
-        <v>50.6731</v>
+        <v>46.4975</v>
+      </c>
+      <c r="E13" t="n">
+        <v>58.196</v>
       </c>
     </row>
     <row r="14">
@@ -4783,13 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.706</v>
+        <v>29.1516</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2743</v>
+        <v>27.2335</v>
       </c>
       <c r="D14" t="n">
-        <v>48.3673</v>
+        <v>48.4387</v>
+      </c>
+      <c r="E14" t="n">
+        <v>57.4814</v>
       </c>
     </row>
     <row r="15">
@@ -4797,13 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2191</v>
+        <v>28.3797</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2451</v>
+        <v>28.0183</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2928</v>
+        <v>46.3146</v>
+      </c>
+      <c r="E15" t="n">
+        <v>60.1416</v>
       </c>
     </row>
     <row r="16">
@@ -4811,13 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.9379</v>
+        <v>27.9536</v>
       </c>
       <c r="C16" t="n">
-        <v>28.8566</v>
+        <v>28.7434</v>
       </c>
       <c r="D16" t="n">
-        <v>48.9333</v>
+        <v>46.4287</v>
+      </c>
+      <c r="E16" t="n">
+        <v>56.3897</v>
       </c>
     </row>
     <row r="17">
@@ -4825,13 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1892</v>
+        <v>26.5205</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6031</v>
+        <v>29.4942</v>
       </c>
       <c r="D17" t="n">
-        <v>45.192</v>
+        <v>46.3487</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.5422</v>
       </c>
     </row>
   </sheetData>
@@ -4846,10 +5713,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4873,19 +5740,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.96769</v>
+        <v>3.94726</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3445</v>
+        <v>11.3403</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6995</v>
+        <v>13.595</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.5236</v>
       </c>
     </row>
     <row r="3">
@@ -4893,13 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.58909</v>
+        <v>6.49897</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5973</v>
+        <v>10.3579</v>
       </c>
       <c r="D3" t="n">
-        <v>18.71</v>
+        <v>18.4832</v>
+      </c>
+      <c r="E3" t="n">
+        <v>26.2644</v>
       </c>
     </row>
     <row r="4">
@@ -4907,13 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40807</v>
+        <v>9.40124</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7032</v>
+        <v>12.7164</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6691</v>
+        <v>24.4886</v>
+      </c>
+      <c r="E4" t="n">
+        <v>36.2464</v>
       </c>
     </row>
     <row r="5">
@@ -4921,13 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2927</v>
+        <v>12.236</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2623</v>
+        <v>15.2212</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3323</v>
+        <v>30.0575</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.3501</v>
       </c>
     </row>
     <row r="6">
@@ -4935,13 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.2095</v>
+        <v>14.9758</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8839</v>
+        <v>17.8701</v>
       </c>
       <c r="D6" t="n">
-        <v>36.112</v>
+        <v>35.9595</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55.4821</v>
       </c>
     </row>
     <row r="7">
@@ -4949,13 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0466</v>
+        <v>17.8475</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5521</v>
+        <v>20.6143</v>
       </c>
       <c r="D7" t="n">
-        <v>41.8459</v>
+        <v>42.1385</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.0278</v>
       </c>
     </row>
     <row r="8">
@@ -4963,13 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7828</v>
+        <v>20.7504</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6651</v>
+        <v>23.7844</v>
       </c>
       <c r="D8" t="n">
-        <v>47.2037</v>
+        <v>47.8469</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.9714</v>
       </c>
     </row>
     <row r="9">
@@ -4977,13 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8837</v>
+        <v>23.7162</v>
       </c>
       <c r="C9" t="n">
-        <v>27.088</v>
+        <v>27.2097</v>
       </c>
       <c r="D9" t="n">
-        <v>56.5564</v>
+        <v>56.7654</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.815</v>
       </c>
     </row>
     <row r="10">
@@ -4991,13 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2855</v>
+        <v>21.8815</v>
       </c>
       <c r="C10" t="n">
-        <v>25.28</v>
+        <v>25.4742</v>
       </c>
       <c r="D10" t="n">
-        <v>52.036</v>
+        <v>51.7496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.84</v>
       </c>
     </row>
     <row r="11">
@@ -5005,13 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6742</v>
+        <v>21.8228</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5332</v>
+        <v>25.1407</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2204</v>
+        <v>51.2342</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.29389999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5019,13 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.6039</v>
+        <v>22.2795</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3055</v>
+        <v>25.397</v>
       </c>
       <c r="D12" t="n">
-        <v>51.9262</v>
+        <v>52.1125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>73.9888</v>
       </c>
     </row>
     <row r="13">
@@ -5033,13 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4607</v>
+        <v>22.7413</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6299</v>
+        <v>25.5429</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4049</v>
+        <v>53.4394</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75.9472</v>
       </c>
     </row>
     <row r="14">
@@ -5047,13 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0253</v>
+        <v>21.7851</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0419</v>
+        <v>25.8417</v>
       </c>
       <c r="D14" t="n">
-        <v>52.3356</v>
+        <v>51.5989</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75.3806</v>
       </c>
     </row>
     <row r="15">
@@ -5061,13 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7927</v>
+        <v>22.8638</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4541</v>
+        <v>26.5165</v>
       </c>
       <c r="D15" t="n">
-        <v>52.8273</v>
+        <v>52.4848</v>
+      </c>
+      <c r="E15" t="n">
+        <v>73.6195</v>
       </c>
     </row>
     <row r="16">
@@ -5075,13 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6839</v>
+        <v>22.7662</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0204</v>
+        <v>26.9485</v>
       </c>
       <c r="D16" t="n">
-        <v>52.7629</v>
+        <v>52.0648</v>
+      </c>
+      <c r="E16" t="n">
+        <v>76.3456</v>
       </c>
     </row>
     <row r="17">
@@ -5089,13 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6704</v>
+        <v>23.0742</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7049</v>
+        <v>27.6888</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8768</v>
+        <v>53.0495</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75.0981</v>
       </c>
     </row>
   </sheetData>
@@ -5110,10 +6030,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5137,19 +6057,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98151</v>
+        <v>4.01216</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4488</v>
+        <v>11.4501</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6034</v>
+        <v>13.535</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18.6922</v>
       </c>
     </row>
     <row r="3">
@@ -5157,13 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.57914</v>
+        <v>6.49546</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5847</v>
+        <v>10.3796</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0599</v>
+        <v>18.0058</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.9457</v>
       </c>
     </row>
     <row r="4">
@@ -5171,13 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.39771</v>
+        <v>9.470750000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7234</v>
+        <v>12.7708</v>
       </c>
       <c r="D4" t="n">
-        <v>23.778</v>
+        <v>23.8744</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35.8536</v>
       </c>
     </row>
     <row r="5">
@@ -5185,13 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2081</v>
+        <v>12.2549</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1529</v>
+        <v>15.1672</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3727</v>
+        <v>29.3876</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45.008</v>
       </c>
     </row>
     <row r="6">
@@ -5199,13 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1931</v>
+        <v>15.101</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7975</v>
+        <v>17.8443</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0063</v>
+        <v>35.2198</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54.5945</v>
       </c>
     </row>
     <row r="7">
@@ -5213,13 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8613</v>
+        <v>17.926</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5175</v>
+        <v>20.5601</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0009</v>
+        <v>41.1925</v>
+      </c>
+      <c r="E7" t="n">
+        <v>64.5356</v>
       </c>
     </row>
     <row r="8">
@@ -5227,13 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7323</v>
+        <v>20.5483</v>
       </c>
       <c r="C8" t="n">
-        <v>23.2947</v>
+        <v>23.7382</v>
       </c>
       <c r="D8" t="n">
-        <v>47.0113</v>
+        <v>46.7612</v>
+      </c>
+      <c r="E8" t="n">
+        <v>73.3873</v>
       </c>
     </row>
     <row r="9">
@@ -5241,13 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9012</v>
+        <v>23.6835</v>
       </c>
       <c r="C9" t="n">
-        <v>26.7628</v>
+        <v>27.0585</v>
       </c>
       <c r="D9" t="n">
-        <v>55.455</v>
+        <v>55.2403</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.0714</v>
       </c>
     </row>
     <row r="10">
@@ -5255,13 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3181</v>
+        <v>21.549</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3851</v>
+        <v>25.0101</v>
       </c>
       <c r="D10" t="n">
-        <v>51.0489</v>
+        <v>50.7963</v>
+      </c>
+      <c r="E10" t="n">
+        <v>72.8715</v>
       </c>
     </row>
     <row r="11">
@@ -5269,13 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.3076</v>
+        <v>21.476</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2297</v>
+        <v>25.3255</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3943</v>
+        <v>50.1028</v>
+      </c>
+      <c r="E11" t="n">
+        <v>73.7659</v>
       </c>
     </row>
     <row r="12">
@@ -5283,13 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4154</v>
+        <v>22.4268</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3667</v>
+        <v>25.3224</v>
       </c>
       <c r="D12" t="n">
-        <v>51.1616</v>
+        <v>50.3762</v>
+      </c>
+      <c r="E12" t="n">
+        <v>72.90989999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5297,13 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7017</v>
+        <v>22.7666</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4725</v>
+        <v>25.4831</v>
       </c>
       <c r="D13" t="n">
-        <v>51.7301</v>
+        <v>51.0768</v>
+      </c>
+      <c r="E13" t="n">
+        <v>74.18510000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5311,13 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7709</v>
+        <v>21.8251</v>
       </c>
       <c r="C14" t="n">
-        <v>25.745</v>
+        <v>25.7612</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8556</v>
+        <v>50.595</v>
+      </c>
+      <c r="E14" t="n">
+        <v>74.5424</v>
       </c>
     </row>
     <row r="15">
@@ -5325,13 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8932</v>
+        <v>22.954</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2422</v>
+        <v>26.3204</v>
       </c>
       <c r="D15" t="n">
-        <v>51.228</v>
+        <v>51.011</v>
+      </c>
+      <c r="E15" t="n">
+        <v>74.16670000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5339,13 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7413</v>
+        <v>22.6484</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9801</v>
+        <v>27.0022</v>
       </c>
       <c r="D16" t="n">
-        <v>51.5633</v>
+        <v>50.8495</v>
+      </c>
+      <c r="E16" t="n">
+        <v>74.82899999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5353,13 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.092</v>
+        <v>23.0978</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5939</v>
+        <v>27.5837</v>
       </c>
       <c r="D17" t="n">
-        <v>51.1148</v>
+        <v>49.8297</v>
+      </c>
+      <c r="E17" t="n">
+        <v>75.3886</v>
       </c>
     </row>
   </sheetData>
@@ -5374,10 +6347,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5401,19 +6374,27 @@
           <t>boost::concurrent_flat_map</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::concurrent_flat_map bulk</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.75996</v>
+        <v>8.67019</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6935</v>
+        <v>15.7086</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5655</v>
+        <v>19.5023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22.8946</v>
       </c>
     </row>
     <row r="3">
@@ -5421,13 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4874</v>
+        <v>10.133</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9853</v>
+        <v>11.7275</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7088</v>
+        <v>20.0019</v>
+      </c>
+      <c r="E3" t="n">
+        <v>28.6248</v>
       </c>
     </row>
     <row r="4">
@@ -5435,13 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2922</v>
+        <v>13.2057</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8927</v>
+        <v>13.9782</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9254</v>
+        <v>25.5638</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38.8187</v>
       </c>
     </row>
     <row r="5">
@@ -5449,13 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3609</v>
+        <v>16.3486</v>
       </c>
       <c r="C5" t="n">
-        <v>15.8798</v>
+        <v>16.3738</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5844</v>
+        <v>31.4891</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48.0431</v>
       </c>
     </row>
     <row r="6">
@@ -5463,13 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5027</v>
+        <v>19.6108</v>
       </c>
       <c r="C6" t="n">
-        <v>18.7213</v>
+        <v>19.2933</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2901</v>
+        <v>37.9656</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.3694</v>
       </c>
     </row>
     <row r="7">
@@ -5477,13 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8594</v>
+        <v>22.9924</v>
       </c>
       <c r="C7" t="n">
-        <v>21.2776</v>
+        <v>22.0491</v>
       </c>
       <c r="D7" t="n">
-        <v>44.7154</v>
+        <v>44.6994</v>
+      </c>
+      <c r="E7" t="n">
+        <v>65.06699999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5491,13 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4877</v>
+        <v>26.4405</v>
       </c>
       <c r="C8" t="n">
-        <v>24.3464</v>
+        <v>25.1037</v>
       </c>
       <c r="D8" t="n">
-        <v>51.1831</v>
+        <v>52.0528</v>
+      </c>
+      <c r="E8" t="n">
+        <v>74.3616</v>
       </c>
     </row>
     <row r="9">
@@ -5505,13 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1568</v>
+        <v>31.3461</v>
       </c>
       <c r="C9" t="n">
-        <v>26.2211</v>
+        <v>27.6627</v>
       </c>
       <c r="D9" t="n">
-        <v>59.1559</v>
+        <v>59.8043</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.0515</v>
       </c>
     </row>
     <row r="10">
@@ -5519,13 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.721</v>
+        <v>29.086</v>
       </c>
       <c r="C10" t="n">
-        <v>26.34</v>
+        <v>26.7049</v>
       </c>
       <c r="D10" t="n">
-        <v>54.9619</v>
+        <v>55.1714</v>
+      </c>
+      <c r="E10" t="n">
+        <v>73.6236</v>
       </c>
     </row>
     <row r="11">
@@ -5533,13 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2995</v>
+        <v>28.6624</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9142</v>
+        <v>26.6911</v>
       </c>
       <c r="D11" t="n">
-        <v>55.1028</v>
+        <v>54.8533</v>
+      </c>
+      <c r="E11" t="n">
+        <v>74.4132</v>
       </c>
     </row>
     <row r="12">
@@ -5547,13 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1714</v>
+        <v>29.206</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2083</v>
+        <v>26.9502</v>
       </c>
       <c r="D12" t="n">
-        <v>55.5194</v>
+        <v>56.3106</v>
+      </c>
+      <c r="E12" t="n">
+        <v>77.00109999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5561,13 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.4223</v>
+        <v>29.6151</v>
       </c>
       <c r="C13" t="n">
-        <v>26.4454</v>
+        <v>27.4454</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1843</v>
+        <v>57.0465</v>
+      </c>
+      <c r="E13" t="n">
+        <v>76.85380000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5575,13 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3097</v>
+        <v>28.7779</v>
       </c>
       <c r="C14" t="n">
-        <v>27.1526</v>
+        <v>27.8643</v>
       </c>
       <c r="D14" t="n">
-        <v>56.2725</v>
+        <v>56.563</v>
+      </c>
+      <c r="E14" t="n">
+        <v>77.9973</v>
       </c>
     </row>
     <row r="15">
@@ -5589,13 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.1463</v>
+        <v>29.8219</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0986</v>
+        <v>28.6281</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1727</v>
+        <v>57.5213</v>
+      </c>
+      <c r="E15" t="n">
+        <v>77.824</v>
       </c>
     </row>
     <row r="16">
@@ -5603,13 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6874</v>
+        <v>29.9001</v>
       </c>
       <c r="C16" t="n">
-        <v>28.0855</v>
+        <v>29.4418</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7222</v>
+        <v>57.565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>79.2593</v>
       </c>
     </row>
     <row r="17">
@@ -5617,13 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8883</v>
+        <v>30.1427</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3271</v>
+        <v>30.3203</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1903</v>
+        <v>57.9592</v>
+      </c>
+      <c r="E17" t="n">
+        <v>77.9949</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0589</v>
+        <v>10.4914</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2443</v>
+        <v>15.2743</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9289</v>
+        <v>19.1142</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8921</v>
+        <v>21.9252</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0714</v>
+        <v>10.2501</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9017</v>
+        <v>10.7649</v>
       </c>
       <c r="D3" t="n">
-        <v>18.468</v>
+        <v>18.7445</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2136</v>
+        <v>24.7189</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4324</v>
+        <v>12.1621</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7021</v>
+        <v>12.5564</v>
       </c>
       <c r="D4" t="n">
-        <v>22.627</v>
+        <v>23.071</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4116</v>
+        <v>33.1412</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6542</v>
+        <v>14.798</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0638</v>
+        <v>15.0975</v>
       </c>
       <c r="D5" t="n">
-        <v>26.9729</v>
+        <v>28.4974</v>
       </c>
       <c r="E5" t="n">
-        <v>38.3796</v>
+        <v>40.8699</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7592</v>
+        <v>17.765</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9398</v>
+        <v>17.7721</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1523</v>
+        <v>33.7456</v>
       </c>
       <c r="E6" t="n">
-        <v>43.0569</v>
+        <v>48.0216</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.499</v>
+        <v>21.5395</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3821</v>
+        <v>20.4688</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2888</v>
+        <v>39.472</v>
       </c>
       <c r="E7" t="n">
-        <v>50.0513</v>
+        <v>54.943</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1167</v>
+        <v>23.9585</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7781</v>
+        <v>22.6669</v>
       </c>
       <c r="D8" t="n">
-        <v>40.076</v>
+        <v>42.6501</v>
       </c>
       <c r="E8" t="n">
-        <v>54.2733</v>
+        <v>60.1901</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.346</v>
+        <v>29.0381</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2644</v>
+        <v>24.9505</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3769</v>
+        <v>48.7907</v>
       </c>
       <c r="E9" t="n">
-        <v>57.912</v>
+        <v>65.0348</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5824</v>
+        <v>24.3542</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5503</v>
+        <v>24.3125</v>
       </c>
       <c r="D10" t="n">
-        <v>43.9323</v>
+        <v>45.8843</v>
       </c>
       <c r="E10" t="n">
-        <v>57.6167</v>
+        <v>59.8116</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1167</v>
+        <v>24.6021</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0962</v>
+        <v>23.7997</v>
       </c>
       <c r="D11" t="n">
-        <v>42.715</v>
+        <v>42.4366</v>
       </c>
       <c r="E11" t="n">
-        <v>57.6178</v>
+        <v>60.5364</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5522</v>
+        <v>25.5873</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2073</v>
+        <v>24.1714</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3932</v>
+        <v>44.2277</v>
       </c>
       <c r="E12" t="n">
-        <v>59.6438</v>
+        <v>61.802</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0435</v>
+        <v>26.7922</v>
       </c>
       <c r="C13" t="n">
-        <v>24.74</v>
+        <v>24.7592</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5093</v>
+        <v>46.6501</v>
       </c>
       <c r="E13" t="n">
-        <v>61.6251</v>
+        <v>64.2229</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.643</v>
+        <v>24.5745</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9036</v>
+        <v>25.6304</v>
       </c>
       <c r="D14" t="n">
-        <v>45.6124</v>
+        <v>44.7802</v>
       </c>
       <c r="E14" t="n">
-        <v>64.5414</v>
+        <v>64.9293</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8428</v>
+        <v>25.4088</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3713</v>
+        <v>26.3942</v>
       </c>
       <c r="D15" t="n">
-        <v>45.5332</v>
+        <v>44.7104</v>
       </c>
       <c r="E15" t="n">
-        <v>62.6932</v>
+        <v>64.6413</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1616</v>
+        <v>25.7649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8431</v>
+        <v>27.2342</v>
       </c>
       <c r="D16" t="n">
-        <v>46.2368</v>
+        <v>47.1247</v>
       </c>
       <c r="E16" t="n">
-        <v>66.3775</v>
+        <v>67.193</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0737</v>
+        <v>24.0334</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7966</v>
+        <v>27.8772</v>
       </c>
       <c r="D17" t="n">
-        <v>47.9379</v>
+        <v>46.7504</v>
       </c>
       <c r="E17" t="n">
-        <v>62.3293</v>
+        <v>66.18259999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9323</v>
+        <v>11.1696</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0656</v>
+        <v>15.0978</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7647</v>
+        <v>18.804</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7342</v>
+        <v>21.7712</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5109</v>
+        <v>10.2425</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9502</v>
+        <v>10.6689</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9917</v>
+        <v>18.1879</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9507</v>
+        <v>24.6208</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3227</v>
+        <v>12.3813</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5018</v>
+        <v>12.6862</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3401</v>
+        <v>23.0393</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8851</v>
+        <v>32.7123</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9092</v>
+        <v>14.9837</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9267</v>
+        <v>14.6464</v>
       </c>
       <c r="D5" t="n">
-        <v>26.4918</v>
+        <v>27.8981</v>
       </c>
       <c r="E5" t="n">
-        <v>37.0212</v>
+        <v>40.1694</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9984</v>
+        <v>18.5059</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5052</v>
+        <v>17.6482</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3802</v>
+        <v>33.0486</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4204</v>
+        <v>48.7609</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1644</v>
+        <v>21.9566</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3337</v>
+        <v>20.5049</v>
       </c>
       <c r="D7" t="n">
-        <v>37.2177</v>
+        <v>38.951</v>
       </c>
       <c r="E7" t="n">
-        <v>49.3588</v>
+        <v>54.4799</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2372</v>
+        <v>23.7314</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9068</v>
+        <v>22.3967</v>
       </c>
       <c r="D8" t="n">
-        <v>40.958</v>
+        <v>41.6995</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2618</v>
+        <v>60.1755</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0543</v>
+        <v>29.5441</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2801</v>
+        <v>25.4102</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2462</v>
+        <v>47.9594</v>
       </c>
       <c r="E9" t="n">
-        <v>56.2348</v>
+        <v>66.5185</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4567</v>
+        <v>25.3325</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5699</v>
+        <v>24.779</v>
       </c>
       <c r="D10" t="n">
-        <v>42.057</v>
+        <v>45.3808</v>
       </c>
       <c r="E10" t="n">
-        <v>56.8408</v>
+        <v>59.0361</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0232</v>
+        <v>24.9886</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8377</v>
+        <v>23.9655</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5591</v>
+        <v>44.3284</v>
       </c>
       <c r="E11" t="n">
-        <v>58.3231</v>
+        <v>59.8253</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2848</v>
+        <v>26.6007</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4263</v>
+        <v>24.5046</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3308</v>
+        <v>44.0607</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6253</v>
+        <v>63.4038</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8438</v>
+        <v>26.6797</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1403</v>
+        <v>24.9505</v>
       </c>
       <c r="D13" t="n">
-        <v>44.9553</v>
+        <v>45.1516</v>
       </c>
       <c r="E13" t="n">
-        <v>59.8843</v>
+        <v>63.4853</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.4367</v>
+        <v>25.2447</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9429</v>
+        <v>25.7699</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8752</v>
+        <v>44.141</v>
       </c>
       <c r="E14" t="n">
-        <v>64.9898</v>
+        <v>63.78</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.82</v>
+        <v>25.3068</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3058</v>
+        <v>26.5556</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6958</v>
+        <v>47.2695</v>
       </c>
       <c r="E15" t="n">
-        <v>63.2881</v>
+        <v>68.1737</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7436</v>
+        <v>25.1873</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1251</v>
+        <v>27.2469</v>
       </c>
       <c r="D16" t="n">
-        <v>43.6944</v>
+        <v>46.4919</v>
       </c>
       <c r="E16" t="n">
-        <v>66.35420000000001</v>
+        <v>67.0985</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6774</v>
+        <v>24.8797</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0437</v>
+        <v>27.6298</v>
       </c>
       <c r="D17" t="n">
-        <v>46.941</v>
+        <v>47.0247</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4008</v>
+        <v>62.7018</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1391</v>
+        <v>14.1482</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3614</v>
+        <v>17.3659</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2087</v>
+        <v>21.3346</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2908</v>
+        <v>23.3234</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4994</v>
+        <v>11.1657</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1261</v>
+        <v>12.0394</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0583</v>
+        <v>19.7167</v>
       </c>
       <c r="E3" t="n">
-        <v>26.395</v>
+        <v>26.5713</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.235</v>
+        <v>13.9916</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1218</v>
+        <v>14.1383</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6212</v>
+        <v>24.8695</v>
       </c>
       <c r="E4" t="n">
-        <v>33.8834</v>
+        <v>34.9305</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2354</v>
+        <v>17.042</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0871</v>
+        <v>17.0653</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5319</v>
+        <v>30.2723</v>
       </c>
       <c r="E5" t="n">
-        <v>40.5114</v>
+        <v>41.7684</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7747</v>
+        <v>20.2333</v>
       </c>
       <c r="C6" t="n">
-        <v>19.9939</v>
+        <v>19.5454</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5013</v>
+        <v>36.0016</v>
       </c>
       <c r="E6" t="n">
-        <v>47.1645</v>
+        <v>48.691</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4177</v>
+        <v>24.2942</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9244</v>
+        <v>22.6862</v>
       </c>
       <c r="D7" t="n">
-        <v>39.7034</v>
+        <v>41.1706</v>
       </c>
       <c r="E7" t="n">
-        <v>52.1296</v>
+        <v>54.6887</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6502</v>
+        <v>27.4395</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1319</v>
+        <v>24.7585</v>
       </c>
       <c r="D8" t="n">
-        <v>42.8566</v>
+        <v>45.5702</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5473</v>
+        <v>57.413</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0687</v>
+        <v>30.2632</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0006</v>
+        <v>26.666</v>
       </c>
       <c r="D9" t="n">
-        <v>47.885</v>
+        <v>50.1777</v>
       </c>
       <c r="E9" t="n">
-        <v>57.4374</v>
+        <v>60.1969</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.503</v>
+        <v>29.6321</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5052</v>
+        <v>26.6862</v>
       </c>
       <c r="D10" t="n">
-        <v>46.364</v>
+        <v>48.4454</v>
       </c>
       <c r="E10" t="n">
-        <v>56.723</v>
+        <v>59.8013</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8464</v>
+        <v>27.8657</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7161</v>
+        <v>25.6721</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2081</v>
+        <v>46.6179</v>
       </c>
       <c r="E11" t="n">
-        <v>57.2007</v>
+        <v>60.8191</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3897</v>
+        <v>28.48</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0991</v>
+        <v>25.9909</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3238</v>
+        <v>48.5924</v>
       </c>
       <c r="E12" t="n">
-        <v>58.9002</v>
+        <v>60.4395</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3369</v>
+        <v>29.5185</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7628</v>
+        <v>26.4897</v>
       </c>
       <c r="D13" t="n">
-        <v>46.4975</v>
+        <v>50.1325</v>
       </c>
       <c r="E13" t="n">
-        <v>58.196</v>
+        <v>61.179</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.1516</v>
+        <v>28.61</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2335</v>
+        <v>27.3469</v>
       </c>
       <c r="D14" t="n">
-        <v>48.4387</v>
+        <v>50.2471</v>
       </c>
       <c r="E14" t="n">
-        <v>57.4814</v>
+        <v>61.6931</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3797</v>
+        <v>28.3421</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0183</v>
+        <v>27.9946</v>
       </c>
       <c r="D15" t="n">
-        <v>46.3146</v>
+        <v>48.0796</v>
       </c>
       <c r="E15" t="n">
-        <v>60.1416</v>
+        <v>60.7247</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9536</v>
+        <v>28.7979</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7434</v>
+        <v>28.6891</v>
       </c>
       <c r="D16" t="n">
-        <v>46.4287</v>
+        <v>47.059</v>
       </c>
       <c r="E16" t="n">
-        <v>56.3897</v>
+        <v>58.2729</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.5205</v>
+        <v>27.8562</v>
       </c>
       <c r="C17" t="n">
-        <v>29.4942</v>
+        <v>29.5001</v>
       </c>
       <c r="D17" t="n">
-        <v>46.3487</v>
+        <v>46.9898</v>
       </c>
       <c r="E17" t="n">
-        <v>57.5422</v>
+        <v>58.8417</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94726</v>
+        <v>4.0288</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3403</v>
+        <v>11.4351</v>
       </c>
       <c r="D2" t="n">
-        <v>13.595</v>
+        <v>13.8397</v>
       </c>
       <c r="E2" t="n">
-        <v>18.5236</v>
+        <v>18.956</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49897</v>
+        <v>6.416</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3579</v>
+        <v>10.3288</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4832</v>
+        <v>18.4287</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2644</v>
+        <v>26.3504</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40124</v>
+        <v>9.31481</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7164</v>
+        <v>12.6709</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4886</v>
+        <v>24.7406</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2464</v>
+        <v>36.6907</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.236</v>
+        <v>12.2678</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2212</v>
+        <v>15.184</v>
       </c>
       <c r="D5" t="n">
-        <v>30.0575</v>
+        <v>30.5078</v>
       </c>
       <c r="E5" t="n">
-        <v>45.3501</v>
+        <v>46.5043</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9758</v>
+        <v>15.0465</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8701</v>
+        <v>17.8781</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9595</v>
+        <v>36.1037</v>
       </c>
       <c r="E6" t="n">
-        <v>55.4821</v>
+        <v>56.3353</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8475</v>
+        <v>17.8913</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6143</v>
+        <v>20.442</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1385</v>
+        <v>42.2933</v>
       </c>
       <c r="E7" t="n">
-        <v>65.0278</v>
+        <v>65.4495</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7504</v>
+        <v>20.6452</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7844</v>
+        <v>23.5911</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8469</v>
+        <v>47.7634</v>
       </c>
       <c r="E8" t="n">
-        <v>73.9714</v>
+        <v>74.9533</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7162</v>
+        <v>23.7259</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2097</v>
+        <v>26.8976</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7654</v>
+        <v>57.6236</v>
       </c>
       <c r="E9" t="n">
-        <v>82.815</v>
+        <v>84.3336</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8815</v>
+        <v>21.655</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4742</v>
+        <v>25.0931</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7496</v>
+        <v>52.669</v>
       </c>
       <c r="E10" t="n">
-        <v>72.84</v>
+        <v>73.0192</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8228</v>
+        <v>22.0055</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1407</v>
+        <v>25.2795</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2342</v>
+        <v>51.2764</v>
       </c>
       <c r="E11" t="n">
-        <v>73.29389999999999</v>
+        <v>73.8336</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2795</v>
+        <v>22.2616</v>
       </c>
       <c r="C12" t="n">
-        <v>25.397</v>
+        <v>25.3586</v>
       </c>
       <c r="D12" t="n">
-        <v>52.1125</v>
+        <v>51.7596</v>
       </c>
       <c r="E12" t="n">
-        <v>73.9888</v>
+        <v>75.35290000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7413</v>
+        <v>22.8707</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5429</v>
+        <v>25.6992</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4394</v>
+        <v>53.4869</v>
       </c>
       <c r="E13" t="n">
-        <v>75.9472</v>
+        <v>76.41800000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7851</v>
+        <v>21.7367</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8417</v>
+        <v>25.8269</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5989</v>
+        <v>52.563</v>
       </c>
       <c r="E14" t="n">
-        <v>75.3806</v>
+        <v>74.7576</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8638</v>
+        <v>22.668</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5165</v>
+        <v>26.0943</v>
       </c>
       <c r="D15" t="n">
-        <v>52.4848</v>
+        <v>53.0499</v>
       </c>
       <c r="E15" t="n">
-        <v>73.6195</v>
+        <v>74.7722</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7662</v>
+        <v>22.7211</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9485</v>
+        <v>27.0033</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0648</v>
+        <v>53.7674</v>
       </c>
       <c r="E16" t="n">
-        <v>76.3456</v>
+        <v>76.35039999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0742</v>
+        <v>22.3929</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6888</v>
+        <v>27.5568</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0495</v>
+        <v>52.3793</v>
       </c>
       <c r="E17" t="n">
-        <v>75.0981</v>
+        <v>74.9708</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01216</v>
+        <v>3.92721</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4501</v>
+        <v>11.4379</v>
       </c>
       <c r="D2" t="n">
-        <v>13.535</v>
+        <v>13.5926</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6922</v>
+        <v>18.6834</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49546</v>
+        <v>6.47309</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3796</v>
+        <v>10.4648</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0058</v>
+        <v>18.133</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9457</v>
+        <v>26.0435</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.470750000000001</v>
+        <v>9.384589999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7708</v>
+        <v>12.6595</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8744</v>
+        <v>24.1657</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8536</v>
+        <v>36.291</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2549</v>
+        <v>12.1613</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1672</v>
+        <v>15.1863</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3876</v>
+        <v>29.7406</v>
       </c>
       <c r="E5" t="n">
-        <v>45.008</v>
+        <v>46.1019</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.101</v>
+        <v>15.0803</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8443</v>
+        <v>17.7049</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2198</v>
+        <v>35.5022</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5945</v>
+        <v>55.8022</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.926</v>
+        <v>17.7485</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5601</v>
+        <v>20.5698</v>
       </c>
       <c r="D7" t="n">
-        <v>41.1925</v>
+        <v>41.3761</v>
       </c>
       <c r="E7" t="n">
-        <v>64.5356</v>
+        <v>65.23860000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5483</v>
+        <v>20.6391</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7382</v>
+        <v>23.7005</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7612</v>
+        <v>47.9308</v>
       </c>
       <c r="E8" t="n">
-        <v>73.3873</v>
+        <v>74.55889999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6835</v>
+        <v>23.5898</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0585</v>
+        <v>27.1808</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2403</v>
+        <v>56.1025</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0714</v>
+        <v>84.4841</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.549</v>
+        <v>22.1814</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0101</v>
+        <v>25.6438</v>
       </c>
       <c r="D10" t="n">
-        <v>50.7963</v>
+        <v>52.0844</v>
       </c>
       <c r="E10" t="n">
-        <v>72.8715</v>
+        <v>72.04430000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.476</v>
+        <v>21.7426</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3255</v>
+        <v>25.2852</v>
       </c>
       <c r="D11" t="n">
-        <v>50.1028</v>
+        <v>51.439</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7659</v>
+        <v>73.80889999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4268</v>
+        <v>22.1747</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3224</v>
+        <v>25.3654</v>
       </c>
       <c r="D12" t="n">
-        <v>50.3762</v>
+        <v>51.7423</v>
       </c>
       <c r="E12" t="n">
-        <v>72.90989999999999</v>
+        <v>73.55759999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7666</v>
+        <v>22.833</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4831</v>
+        <v>25.3353</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0768</v>
+        <v>52.0356</v>
       </c>
       <c r="E13" t="n">
-        <v>74.18510000000001</v>
+        <v>76.6859</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8251</v>
+        <v>21.7245</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7612</v>
+        <v>25.8233</v>
       </c>
       <c r="D14" t="n">
-        <v>50.595</v>
+        <v>50.9443</v>
       </c>
       <c r="E14" t="n">
-        <v>74.5424</v>
+        <v>75.21259999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.954</v>
+        <v>22.846</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3204</v>
+        <v>26.1821</v>
       </c>
       <c r="D15" t="n">
-        <v>51.011</v>
+        <v>51.8597</v>
       </c>
       <c r="E15" t="n">
-        <v>74.16670000000001</v>
+        <v>73.28440000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6484</v>
+        <v>22.3574</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0022</v>
+        <v>26.7388</v>
       </c>
       <c r="D16" t="n">
-        <v>50.8495</v>
+        <v>52.9837</v>
       </c>
       <c r="E16" t="n">
-        <v>74.82899999999999</v>
+        <v>73.7152</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0978</v>
+        <v>21.9884</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5837</v>
+        <v>27.324</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8297</v>
+        <v>51.7948</v>
       </c>
       <c r="E17" t="n">
-        <v>75.3886</v>
+        <v>73.718</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.67019</v>
+        <v>8.868029999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7086</v>
+        <v>15.7203</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5023</v>
+        <v>19.5442</v>
       </c>
       <c r="E2" t="n">
-        <v>22.8946</v>
+        <v>22.892</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.133</v>
+        <v>10.0884</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7275</v>
+        <v>11.7234</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0019</v>
+        <v>20.1203</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6248</v>
+        <v>28.6768</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2057</v>
+        <v>13.1836</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9782</v>
+        <v>13.82</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5638</v>
+        <v>26.1069</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8187</v>
+        <v>38.926</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3486</v>
+        <v>16.3285</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3738</v>
+        <v>16.1026</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4891</v>
+        <v>31.4558</v>
       </c>
       <c r="E5" t="n">
-        <v>48.0431</v>
+        <v>48.357</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6108</v>
+        <v>19.1533</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2933</v>
+        <v>18.6283</v>
       </c>
       <c r="D6" t="n">
-        <v>37.9656</v>
+        <v>38.6304</v>
       </c>
       <c r="E6" t="n">
-        <v>57.3694</v>
+        <v>57.5657</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9924</v>
+        <v>22.5255</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0491</v>
+        <v>21.3365</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6994</v>
+        <v>45.5518</v>
       </c>
       <c r="E7" t="n">
-        <v>65.06699999999999</v>
+        <v>66.06699999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4405</v>
+        <v>26.18</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1037</v>
+        <v>23.7085</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0528</v>
+        <v>51.7912</v>
       </c>
       <c r="E8" t="n">
-        <v>74.3616</v>
+        <v>74.42149999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3461</v>
+        <v>30.5377</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6627</v>
+        <v>26.857</v>
       </c>
       <c r="D9" t="n">
-        <v>59.8043</v>
+        <v>59.5635</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0515</v>
+        <v>83.79300000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.086</v>
+        <v>28.9503</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7049</v>
+        <v>25.6481</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1714</v>
+        <v>55.6148</v>
       </c>
       <c r="E10" t="n">
-        <v>73.6236</v>
+        <v>72.5628</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6624</v>
+        <v>28.3968</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6911</v>
+        <v>25.9611</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8533</v>
+        <v>55.5832</v>
       </c>
       <c r="E11" t="n">
-        <v>74.4132</v>
+        <v>75.22110000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.206</v>
+        <v>29.0718</v>
       </c>
       <c r="C12" t="n">
-        <v>26.9502</v>
+        <v>26.088</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3106</v>
+        <v>55.918</v>
       </c>
       <c r="E12" t="n">
-        <v>77.00109999999999</v>
+        <v>78.34739999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6151</v>
+        <v>29.3173</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4454</v>
+        <v>26.3713</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0465</v>
+        <v>57.3526</v>
       </c>
       <c r="E13" t="n">
-        <v>76.85380000000001</v>
+        <v>77.48390000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7779</v>
+        <v>28.4971</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8643</v>
+        <v>26.9379</v>
       </c>
       <c r="D14" t="n">
-        <v>56.563</v>
+        <v>56.4424</v>
       </c>
       <c r="E14" t="n">
-        <v>77.9973</v>
+        <v>76.45529999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8219</v>
+        <v>29.4988</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6281</v>
+        <v>27.4817</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5213</v>
+        <v>57.0712</v>
       </c>
       <c r="E15" t="n">
-        <v>77.824</v>
+        <v>78.61709999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.9001</v>
+        <v>29.0542</v>
       </c>
       <c r="C16" t="n">
-        <v>29.4418</v>
+        <v>27.7111</v>
       </c>
       <c r="D16" t="n">
-        <v>57.565</v>
+        <v>57.7669</v>
       </c>
       <c r="E16" t="n">
-        <v>79.2593</v>
+        <v>77.85299999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.1427</v>
+        <v>28.4263</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3203</v>
+        <v>28.7446</v>
       </c>
       <c r="D17" t="n">
-        <v>57.9592</v>
+        <v>56.5605</v>
       </c>
       <c r="E17" t="n">
-        <v>77.9949</v>
+        <v>76.14960000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0589</v>
+        <v>10.3392</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2443</v>
+        <v>15.2374</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9289</v>
+        <v>18.9962</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8921</v>
+        <v>21.8918</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0714</v>
+        <v>10.144</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9017</v>
+        <v>11.112</v>
       </c>
       <c r="D3" t="n">
-        <v>18.468</v>
+        <v>18.8823</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2136</v>
+        <v>24.8771</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4324</v>
+        <v>12.0082</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7021</v>
+        <v>12.699</v>
       </c>
       <c r="D4" t="n">
-        <v>22.627</v>
+        <v>22.8859</v>
       </c>
       <c r="E4" t="n">
-        <v>30.4116</v>
+        <v>31.8896</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6542</v>
+        <v>14.945</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0638</v>
+        <v>15.0216</v>
       </c>
       <c r="D5" t="n">
-        <v>26.9729</v>
+        <v>27.9603</v>
       </c>
       <c r="E5" t="n">
-        <v>38.3796</v>
+        <v>38.3457</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7592</v>
+        <v>17.7733</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9398</v>
+        <v>17.6905</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1523</v>
+        <v>33.2559</v>
       </c>
       <c r="E6" t="n">
-        <v>43.0569</v>
+        <v>46.0314</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.499</v>
+        <v>21.5853</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3821</v>
+        <v>20.5731</v>
       </c>
       <c r="D7" t="n">
-        <v>36.2888</v>
+        <v>38.148</v>
       </c>
       <c r="E7" t="n">
-        <v>50.0513</v>
+        <v>48.3925</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1167</v>
+        <v>23.7387</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7781</v>
+        <v>22.7791</v>
       </c>
       <c r="D8" t="n">
-        <v>40.076</v>
+        <v>41.2624</v>
       </c>
       <c r="E8" t="n">
-        <v>54.2733</v>
+        <v>54.4661</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.346</v>
+        <v>29.3244</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2644</v>
+        <v>24.7905</v>
       </c>
       <c r="D9" t="n">
-        <v>45.3769</v>
+        <v>47.9062</v>
       </c>
       <c r="E9" t="n">
-        <v>57.912</v>
+        <v>59.9348</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5824</v>
+        <v>24.8983</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5503</v>
+        <v>24.8434</v>
       </c>
       <c r="D10" t="n">
-        <v>43.9323</v>
+        <v>44.8941</v>
       </c>
       <c r="E10" t="n">
-        <v>57.6167</v>
+        <v>56.9341</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1167</v>
+        <v>24.124</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0962</v>
+        <v>23.6814</v>
       </c>
       <c r="D11" t="n">
-        <v>42.715</v>
+        <v>44.5172</v>
       </c>
       <c r="E11" t="n">
-        <v>57.6178</v>
+        <v>58.2408</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5522</v>
+        <v>25.3089</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2073</v>
+        <v>24.4445</v>
       </c>
       <c r="D12" t="n">
-        <v>44.3932</v>
+        <v>44.5484</v>
       </c>
       <c r="E12" t="n">
-        <v>59.6438</v>
+        <v>60.3718</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0435</v>
+        <v>25.854</v>
       </c>
       <c r="C13" t="n">
-        <v>24.74</v>
+        <v>24.7534</v>
       </c>
       <c r="D13" t="n">
-        <v>43.5093</v>
+        <v>47.7705</v>
       </c>
       <c r="E13" t="n">
-        <v>61.6251</v>
+        <v>63.1416</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.643</v>
+        <v>25.0019</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9036</v>
+        <v>25.7425</v>
       </c>
       <c r="D14" t="n">
-        <v>45.6124</v>
+        <v>45.6413</v>
       </c>
       <c r="E14" t="n">
-        <v>64.5414</v>
+        <v>62.9031</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8428</v>
+        <v>24.5579</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3713</v>
+        <v>26.281</v>
       </c>
       <c r="D15" t="n">
-        <v>45.5332</v>
+        <v>46.1494</v>
       </c>
       <c r="E15" t="n">
-        <v>62.6932</v>
+        <v>65.1212</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1616</v>
+        <v>24.2981</v>
       </c>
       <c r="C16" t="n">
-        <v>26.8431</v>
+        <v>27.309</v>
       </c>
       <c r="D16" t="n">
-        <v>46.2368</v>
+        <v>44.3893</v>
       </c>
       <c r="E16" t="n">
-        <v>66.3775</v>
+        <v>64.66849999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.0737</v>
+        <v>24.6859</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7966</v>
+        <v>27.8963</v>
       </c>
       <c r="D17" t="n">
-        <v>47.9379</v>
+        <v>46.6513</v>
       </c>
       <c r="E17" t="n">
-        <v>62.3293</v>
+        <v>66.1647</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9323</v>
+        <v>11.2134</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0656</v>
+        <v>15.1356</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7647</v>
+        <v>18.8007</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7342</v>
+        <v>21.7362</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5109</v>
+        <v>10.3084</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9502</v>
+        <v>10.8143</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9917</v>
+        <v>18.1354</v>
       </c>
       <c r="E3" t="n">
-        <v>23.9507</v>
+        <v>24.001</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3227</v>
+        <v>12.2148</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5018</v>
+        <v>12.4866</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3401</v>
+        <v>22.4154</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8851</v>
+        <v>30.9684</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9092</v>
+        <v>15.0577</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9267</v>
+        <v>14.9324</v>
       </c>
       <c r="D5" t="n">
-        <v>26.4918</v>
+        <v>27.8074</v>
       </c>
       <c r="E5" t="n">
-        <v>37.0212</v>
+        <v>37.6401</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.9984</v>
+        <v>18.4324</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5052</v>
+        <v>17.4551</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3802</v>
+        <v>33.2327</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4204</v>
+        <v>42.4382</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1644</v>
+        <v>22.2438</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3337</v>
+        <v>20.3552</v>
       </c>
       <c r="D7" t="n">
-        <v>37.2177</v>
+        <v>37.8616</v>
       </c>
       <c r="E7" t="n">
-        <v>49.3588</v>
+        <v>49.4435</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2372</v>
+        <v>25.2124</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9068</v>
+        <v>22.4231</v>
       </c>
       <c r="D8" t="n">
-        <v>40.958</v>
+        <v>42.1708</v>
       </c>
       <c r="E8" t="n">
-        <v>53.2618</v>
+        <v>53.1844</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0543</v>
+        <v>29.9416</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2801</v>
+        <v>24.9888</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2462</v>
+        <v>46.3666</v>
       </c>
       <c r="E9" t="n">
-        <v>56.2348</v>
+        <v>58.2618</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4567</v>
+        <v>25.0388</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5699</v>
+        <v>24.7579</v>
       </c>
       <c r="D10" t="n">
-        <v>42.057</v>
+        <v>43.5551</v>
       </c>
       <c r="E10" t="n">
-        <v>56.8408</v>
+        <v>58.9146</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.0232</v>
+        <v>24.685</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8377</v>
+        <v>23.9492</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5591</v>
+        <v>42.6502</v>
       </c>
       <c r="E11" t="n">
-        <v>58.3231</v>
+        <v>57.6833</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2848</v>
+        <v>26.6974</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4263</v>
+        <v>24.1876</v>
       </c>
       <c r="D12" t="n">
-        <v>43.3308</v>
+        <v>42.8552</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6253</v>
+        <v>59.0211</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8438</v>
+        <v>26.5907</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1403</v>
+        <v>24.7311</v>
       </c>
       <c r="D13" t="n">
-        <v>44.9553</v>
+        <v>45.8684</v>
       </c>
       <c r="E13" t="n">
-        <v>59.8843</v>
+        <v>62.547</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.4367</v>
+        <v>24.7839</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9429</v>
+        <v>25.7969</v>
       </c>
       <c r="D14" t="n">
-        <v>43.8752</v>
+        <v>42.8358</v>
       </c>
       <c r="E14" t="n">
-        <v>64.9898</v>
+        <v>62.1517</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.82</v>
+        <v>24.5578</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3058</v>
+        <v>26.3087</v>
       </c>
       <c r="D15" t="n">
-        <v>43.6958</v>
+        <v>46.2256</v>
       </c>
       <c r="E15" t="n">
-        <v>63.2881</v>
+        <v>61.7742</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7436</v>
+        <v>25.1722</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1251</v>
+        <v>27.1727</v>
       </c>
       <c r="D16" t="n">
-        <v>43.6944</v>
+        <v>45.9893</v>
       </c>
       <c r="E16" t="n">
-        <v>66.35420000000001</v>
+        <v>62.8711</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.6774</v>
+        <v>25.7909</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0437</v>
+        <v>27.9325</v>
       </c>
       <c r="D17" t="n">
-        <v>46.941</v>
+        <v>44.7526</v>
       </c>
       <c r="E17" t="n">
-        <v>63.4008</v>
+        <v>65.2188</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1391</v>
+        <v>14.1452</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3614</v>
+        <v>17.4488</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2087</v>
+        <v>21.2163</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2908</v>
+        <v>23.2531</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4994</v>
+        <v>11.1384</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1261</v>
+        <v>11.9693</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0583</v>
+        <v>19.8898</v>
       </c>
       <c r="E3" t="n">
-        <v>26.395</v>
+        <v>26.2925</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.235</v>
+        <v>14.1961</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1218</v>
+        <v>14.0552</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6212</v>
+        <v>24.5115</v>
       </c>
       <c r="E4" t="n">
-        <v>33.8834</v>
+        <v>33.6517</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2354</v>
+        <v>17.321</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0871</v>
+        <v>16.9932</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5319</v>
+        <v>30.2367</v>
       </c>
       <c r="E5" t="n">
-        <v>40.5114</v>
+        <v>40.9581</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7747</v>
+        <v>20.7582</v>
       </c>
       <c r="C6" t="n">
-        <v>19.9939</v>
+        <v>19.8946</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5013</v>
+        <v>35.832</v>
       </c>
       <c r="E6" t="n">
-        <v>47.1645</v>
+        <v>46.7306</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4177</v>
+        <v>24.3757</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9244</v>
+        <v>22.4975</v>
       </c>
       <c r="D7" t="n">
-        <v>39.7034</v>
+        <v>41.3601</v>
       </c>
       <c r="E7" t="n">
-        <v>52.1296</v>
+        <v>51.3841</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6502</v>
+        <v>27.6482</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1319</v>
+        <v>24.8094</v>
       </c>
       <c r="D8" t="n">
-        <v>42.8566</v>
+        <v>44.9818</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5473</v>
+        <v>55.6148</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>32.0687</v>
+        <v>31.7677</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0006</v>
+        <v>27.4976</v>
       </c>
       <c r="D9" t="n">
-        <v>47.885</v>
+        <v>49.0938</v>
       </c>
       <c r="E9" t="n">
-        <v>57.4374</v>
+        <v>58.8427</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.503</v>
+        <v>29.8708</v>
       </c>
       <c r="C10" t="n">
-        <v>26.5052</v>
+        <v>26.6693</v>
       </c>
       <c r="D10" t="n">
-        <v>46.364</v>
+        <v>47.9532</v>
       </c>
       <c r="E10" t="n">
-        <v>56.723</v>
+        <v>57.1258</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8464</v>
+        <v>27.6379</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7161</v>
+        <v>25.7211</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2081</v>
+        <v>47.6704</v>
       </c>
       <c r="E11" t="n">
-        <v>57.2007</v>
+        <v>57.3336</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3897</v>
+        <v>28.9946</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0991</v>
+        <v>26.1502</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3238</v>
+        <v>48.4699</v>
       </c>
       <c r="E12" t="n">
-        <v>58.9002</v>
+        <v>59.3226</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3369</v>
+        <v>30.3629</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7628</v>
+        <v>26.6393</v>
       </c>
       <c r="D13" t="n">
-        <v>46.4975</v>
+        <v>50.759</v>
       </c>
       <c r="E13" t="n">
-        <v>58.196</v>
+        <v>60.0247</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.1516</v>
+        <v>28.4593</v>
       </c>
       <c r="C14" t="n">
-        <v>27.2335</v>
+        <v>27.3365</v>
       </c>
       <c r="D14" t="n">
-        <v>48.4387</v>
+        <v>49.0505</v>
       </c>
       <c r="E14" t="n">
-        <v>57.4814</v>
+        <v>60.5183</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3797</v>
+        <v>27.9259</v>
       </c>
       <c r="C15" t="n">
-        <v>28.0183</v>
+        <v>28.0699</v>
       </c>
       <c r="D15" t="n">
-        <v>46.3146</v>
+        <v>48.3268</v>
       </c>
       <c r="E15" t="n">
-        <v>60.1416</v>
+        <v>56.6223</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9536</v>
+        <v>28.262</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7434</v>
+        <v>28.9204</v>
       </c>
       <c r="D16" t="n">
-        <v>46.4287</v>
+        <v>49.2096</v>
       </c>
       <c r="E16" t="n">
-        <v>56.3897</v>
+        <v>58.3656</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.5205</v>
+        <v>27.4047</v>
       </c>
       <c r="C17" t="n">
-        <v>29.4942</v>
+        <v>29.568</v>
       </c>
       <c r="D17" t="n">
-        <v>46.3487</v>
+        <v>47.1376</v>
       </c>
       <c r="E17" t="n">
-        <v>57.5422</v>
+        <v>55.3664</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94726</v>
+        <v>3.92771</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3403</v>
+        <v>11.346</v>
       </c>
       <c r="D2" t="n">
-        <v>13.595</v>
+        <v>13.6796</v>
       </c>
       <c r="E2" t="n">
-        <v>18.5236</v>
+        <v>19.0484</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49897</v>
+        <v>6.45433</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3579</v>
+        <v>10.3955</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4832</v>
+        <v>18.5894</v>
       </c>
       <c r="E3" t="n">
-        <v>26.2644</v>
+        <v>26.8221</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40124</v>
+        <v>9.400690000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7164</v>
+        <v>12.6425</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4886</v>
+        <v>24.3977</v>
       </c>
       <c r="E4" t="n">
-        <v>36.2464</v>
+        <v>36.7806</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.236</v>
+        <v>12.2129</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2212</v>
+        <v>15.1309</v>
       </c>
       <c r="D5" t="n">
-        <v>30.0575</v>
+        <v>30.2799</v>
       </c>
       <c r="E5" t="n">
-        <v>45.3501</v>
+        <v>46.8291</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.9758</v>
+        <v>15.1407</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8701</v>
+        <v>17.8417</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9595</v>
+        <v>36.0483</v>
       </c>
       <c r="E6" t="n">
-        <v>55.4821</v>
+        <v>56.5229</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8475</v>
+        <v>18.0067</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6143</v>
+        <v>20.4183</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1385</v>
+        <v>42.0707</v>
       </c>
       <c r="E7" t="n">
-        <v>65.0278</v>
+        <v>65.3956</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7504</v>
+        <v>20.645</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7844</v>
+        <v>23.548</v>
       </c>
       <c r="D8" t="n">
-        <v>47.8469</v>
+        <v>47.0245</v>
       </c>
       <c r="E8" t="n">
-        <v>73.9714</v>
+        <v>74.4543</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7162</v>
+        <v>23.45</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2097</v>
+        <v>26.9873</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7654</v>
+        <v>57.1924</v>
       </c>
       <c r="E9" t="n">
-        <v>82.815</v>
+        <v>83.72750000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8815</v>
+        <v>21.8474</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4742</v>
+        <v>25.4217</v>
       </c>
       <c r="D10" t="n">
-        <v>51.7496</v>
+        <v>52.4639</v>
       </c>
       <c r="E10" t="n">
-        <v>72.84</v>
+        <v>76.0052</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8228</v>
+        <v>21.4148</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1407</v>
+        <v>25.0965</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2342</v>
+        <v>50.988</v>
       </c>
       <c r="E11" t="n">
-        <v>73.29389999999999</v>
+        <v>75.33110000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2795</v>
+        <v>22.1356</v>
       </c>
       <c r="C12" t="n">
-        <v>25.397</v>
+        <v>25.6257</v>
       </c>
       <c r="D12" t="n">
-        <v>52.1125</v>
+        <v>52.4395</v>
       </c>
       <c r="E12" t="n">
-        <v>73.9888</v>
+        <v>76.6983</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7413</v>
+        <v>22.5707</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5429</v>
+        <v>25.7081</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4394</v>
+        <v>53.4999</v>
       </c>
       <c r="E13" t="n">
-        <v>75.9472</v>
+        <v>75.78579999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7851</v>
+        <v>21.9033</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8417</v>
+        <v>25.9617</v>
       </c>
       <c r="D14" t="n">
-        <v>51.5989</v>
+        <v>52.3024</v>
       </c>
       <c r="E14" t="n">
-        <v>75.3806</v>
+        <v>77.551</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8638</v>
+        <v>22.7421</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5165</v>
+        <v>26.2896</v>
       </c>
       <c r="D15" t="n">
-        <v>52.4848</v>
+        <v>52.3779</v>
       </c>
       <c r="E15" t="n">
-        <v>73.6195</v>
+        <v>76.6567</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7662</v>
+        <v>22.5017</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9485</v>
+        <v>27.0725</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0648</v>
+        <v>53.1985</v>
       </c>
       <c r="E16" t="n">
-        <v>76.3456</v>
+        <v>76.4504</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0742</v>
+        <v>22.2975</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6888</v>
+        <v>27.6871</v>
       </c>
       <c r="D17" t="n">
-        <v>53.0495</v>
+        <v>53.8962</v>
       </c>
       <c r="E17" t="n">
-        <v>75.0981</v>
+        <v>77.9032</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01216</v>
+        <v>4.00897</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4501</v>
+        <v>11.4714</v>
       </c>
       <c r="D2" t="n">
-        <v>13.535</v>
+        <v>13.5441</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6922</v>
+        <v>19.1531</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.49546</v>
+        <v>6.51107</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3796</v>
+        <v>10.3965</v>
       </c>
       <c r="D3" t="n">
-        <v>18.0058</v>
+        <v>17.9709</v>
       </c>
       <c r="E3" t="n">
-        <v>25.9457</v>
+        <v>26.6013</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.470750000000001</v>
+        <v>9.38776</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7708</v>
+        <v>12.6401</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8744</v>
+        <v>23.9513</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8536</v>
+        <v>36.4962</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2549</v>
+        <v>12.1766</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1672</v>
+        <v>15.0674</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3876</v>
+        <v>29.4706</v>
       </c>
       <c r="E5" t="n">
-        <v>45.008</v>
+        <v>46.0349</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.101</v>
+        <v>15.1061</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8443</v>
+        <v>17.7356</v>
       </c>
       <c r="D6" t="n">
-        <v>35.2198</v>
+        <v>35.8312</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5945</v>
+        <v>55.7845</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.926</v>
+        <v>17.783</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5601</v>
+        <v>20.5203</v>
       </c>
       <c r="D7" t="n">
-        <v>41.1925</v>
+        <v>41.7704</v>
       </c>
       <c r="E7" t="n">
-        <v>64.5356</v>
+        <v>65.5424</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5483</v>
+        <v>20.5429</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7382</v>
+        <v>23.5533</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7612</v>
+        <v>47.4862</v>
       </c>
       <c r="E8" t="n">
-        <v>73.3873</v>
+        <v>74.0124</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6835</v>
+        <v>23.5668</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0585</v>
+        <v>26.9683</v>
       </c>
       <c r="D9" t="n">
-        <v>55.2403</v>
+        <v>55.9156</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0714</v>
+        <v>83.0205</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.549</v>
+        <v>22.2932</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0101</v>
+        <v>24.914</v>
       </c>
       <c r="D10" t="n">
-        <v>50.7963</v>
+        <v>51.2389</v>
       </c>
       <c r="E10" t="n">
-        <v>72.8715</v>
+        <v>74.1555</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.476</v>
+        <v>21.3891</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3255</v>
+        <v>25.1042</v>
       </c>
       <c r="D11" t="n">
-        <v>50.1028</v>
+        <v>49.5248</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7659</v>
+        <v>75.282</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4268</v>
+        <v>21.8001</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3224</v>
+        <v>25.1876</v>
       </c>
       <c r="D12" t="n">
-        <v>50.3762</v>
+        <v>51.2336</v>
       </c>
       <c r="E12" t="n">
-        <v>72.90989999999999</v>
+        <v>75.10339999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7666</v>
+        <v>22.739</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4831</v>
+        <v>25.6354</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0768</v>
+        <v>51.7882</v>
       </c>
       <c r="E13" t="n">
-        <v>74.18510000000001</v>
+        <v>76.38549999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8251</v>
+        <v>21.7665</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7612</v>
+        <v>25.7497</v>
       </c>
       <c r="D14" t="n">
-        <v>50.595</v>
+        <v>50.5027</v>
       </c>
       <c r="E14" t="n">
-        <v>74.5424</v>
+        <v>75.6581</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.954</v>
+        <v>22.8252</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3204</v>
+        <v>26.3267</v>
       </c>
       <c r="D15" t="n">
-        <v>51.011</v>
+        <v>52.4443</v>
       </c>
       <c r="E15" t="n">
-        <v>74.16670000000001</v>
+        <v>75.0835</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6484</v>
+        <v>22.5894</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0022</v>
+        <v>26.9326</v>
       </c>
       <c r="D16" t="n">
-        <v>50.8495</v>
+        <v>52.0363</v>
       </c>
       <c r="E16" t="n">
-        <v>74.82899999999999</v>
+        <v>74.3379</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.0978</v>
+        <v>22.8077</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5837</v>
+        <v>27.5743</v>
       </c>
       <c r="D17" t="n">
-        <v>49.8297</v>
+        <v>52.3254</v>
       </c>
       <c r="E17" t="n">
-        <v>75.3886</v>
+        <v>76.11279999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.67019</v>
+        <v>8.83253</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7086</v>
+        <v>15.7857</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5023</v>
+        <v>19.5404</v>
       </c>
       <c r="E2" t="n">
-        <v>22.8946</v>
+        <v>22.8874</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.133</v>
+        <v>10.2416</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7275</v>
+        <v>11.73</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0019</v>
+        <v>20.1142</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6248</v>
+        <v>28.827</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2057</v>
+        <v>13.2414</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9782</v>
+        <v>13.8611</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5638</v>
+        <v>26.0263</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8187</v>
+        <v>38.8661</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3486</v>
+        <v>16.347</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3738</v>
+        <v>16.3439</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4891</v>
+        <v>32.2464</v>
       </c>
       <c r="E5" t="n">
-        <v>48.0431</v>
+        <v>48.4816</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6108</v>
+        <v>19.5324</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2933</v>
+        <v>19.2012</v>
       </c>
       <c r="D6" t="n">
-        <v>37.9656</v>
+        <v>38.6617</v>
       </c>
       <c r="E6" t="n">
-        <v>57.3694</v>
+        <v>57.8437</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9924</v>
+        <v>22.9478</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0491</v>
+        <v>22.0036</v>
       </c>
       <c r="D7" t="n">
-        <v>44.6994</v>
+        <v>45.6167</v>
       </c>
       <c r="E7" t="n">
-        <v>65.06699999999999</v>
+        <v>66.1953</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4405</v>
+        <v>26.453</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1037</v>
+        <v>24.9667</v>
       </c>
       <c r="D8" t="n">
-        <v>52.0528</v>
+        <v>52.1528</v>
       </c>
       <c r="E8" t="n">
-        <v>74.3616</v>
+        <v>74.2881</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3461</v>
+        <v>31.2782</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6627</v>
+        <v>27.518</v>
       </c>
       <c r="D9" t="n">
-        <v>59.8043</v>
+        <v>60.0775</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0515</v>
+        <v>82.47629999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.086</v>
+        <v>29.0921</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7049</v>
+        <v>26.6751</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1714</v>
+        <v>55.6477</v>
       </c>
       <c r="E10" t="n">
-        <v>73.6236</v>
+        <v>72.75109999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6624</v>
+        <v>28.6622</v>
       </c>
       <c r="C11" t="n">
-        <v>26.6911</v>
+        <v>26.6978</v>
       </c>
       <c r="D11" t="n">
-        <v>54.8533</v>
+        <v>56.2025</v>
       </c>
       <c r="E11" t="n">
-        <v>74.4132</v>
+        <v>74.9551</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.206</v>
+        <v>29.3316</v>
       </c>
       <c r="C12" t="n">
-        <v>26.9502</v>
+        <v>27.0106</v>
       </c>
       <c r="D12" t="n">
-        <v>56.3106</v>
+        <v>56.893</v>
       </c>
       <c r="E12" t="n">
-        <v>77.00109999999999</v>
+        <v>77.9247</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6151</v>
+        <v>29.747</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4454</v>
+        <v>27.4275</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0465</v>
+        <v>57.4305</v>
       </c>
       <c r="E13" t="n">
-        <v>76.85380000000001</v>
+        <v>78.70050000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7779</v>
+        <v>28.5524</v>
       </c>
       <c r="C14" t="n">
-        <v>27.8643</v>
+        <v>27.8446</v>
       </c>
       <c r="D14" t="n">
-        <v>56.563</v>
+        <v>56.6764</v>
       </c>
       <c r="E14" t="n">
-        <v>77.9973</v>
+        <v>78.7171</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8219</v>
+        <v>28.9609</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6281</v>
+        <v>28.472</v>
       </c>
       <c r="D15" t="n">
-        <v>57.5213</v>
+        <v>58.1462</v>
       </c>
       <c r="E15" t="n">
-        <v>77.824</v>
+        <v>78.2779</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.9001</v>
+        <v>29.8987</v>
       </c>
       <c r="C16" t="n">
-        <v>29.4418</v>
+        <v>29.3634</v>
       </c>
       <c r="D16" t="n">
-        <v>57.565</v>
+        <v>57.6319</v>
       </c>
       <c r="E16" t="n">
-        <v>79.2593</v>
+        <v>77.8974</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.1427</v>
+        <v>29.6679</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3203</v>
+        <v>30.2191</v>
       </c>
       <c r="D17" t="n">
-        <v>57.9592</v>
+        <v>57.6879</v>
       </c>
       <c r="E17" t="n">
-        <v>77.9949</v>
+        <v>79.60429999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.4914</v>
+        <v>10.5612</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2743</v>
+        <v>15.3019</v>
       </c>
       <c r="D2" t="n">
-        <v>19.1142</v>
+        <v>18.9534</v>
       </c>
       <c r="E2" t="n">
-        <v>21.9252</v>
+        <v>21.8979</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2501</v>
+        <v>10.2392</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7649</v>
+        <v>11.176</v>
       </c>
       <c r="D3" t="n">
-        <v>18.7445</v>
+        <v>18.8159</v>
       </c>
       <c r="E3" t="n">
-        <v>24.7189</v>
+        <v>24.3584</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1621</v>
+        <v>11.8978</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5564</v>
+        <v>12.6789</v>
       </c>
       <c r="D4" t="n">
-        <v>23.071</v>
+        <v>23.0922</v>
       </c>
       <c r="E4" t="n">
-        <v>33.1412</v>
+        <v>30.9975</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.798</v>
+        <v>14.5192</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0975</v>
+        <v>15.1369</v>
       </c>
       <c r="D5" t="n">
-        <v>28.4974</v>
+        <v>27.0019</v>
       </c>
       <c r="E5" t="n">
-        <v>40.8699</v>
+        <v>37.4838</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.765</v>
+        <v>17.3066</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7721</v>
+        <v>17.6809</v>
       </c>
       <c r="D6" t="n">
-        <v>33.7456</v>
+        <v>31.3878</v>
       </c>
       <c r="E6" t="n">
-        <v>48.0216</v>
+        <v>43.4718</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5395</v>
+        <v>21.6437</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4688</v>
+        <v>20.669</v>
       </c>
       <c r="D7" t="n">
-        <v>39.472</v>
+        <v>37.7356</v>
       </c>
       <c r="E7" t="n">
-        <v>54.943</v>
+        <v>50.7862</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.9585</v>
+        <v>24.3094</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6669</v>
+        <v>22.6684</v>
       </c>
       <c r="D8" t="n">
-        <v>42.6501</v>
+        <v>40.7627</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1901</v>
+        <v>55.4232</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.0381</v>
+        <v>28.6929</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9505</v>
+        <v>24.9252</v>
       </c>
       <c r="D9" t="n">
-        <v>48.7907</v>
+        <v>44.6631</v>
       </c>
       <c r="E9" t="n">
-        <v>65.0348</v>
+        <v>56.7936</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3542</v>
+        <v>24.2262</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3125</v>
+        <v>24.7761</v>
       </c>
       <c r="D10" t="n">
-        <v>45.8843</v>
+        <v>43.7575</v>
       </c>
       <c r="E10" t="n">
-        <v>59.8116</v>
+        <v>58.0104</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6021</v>
+        <v>24.8892</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7997</v>
+        <v>23.7322</v>
       </c>
       <c r="D11" t="n">
-        <v>42.4366</v>
+        <v>43.6755</v>
       </c>
       <c r="E11" t="n">
-        <v>60.5364</v>
+        <v>57.3559</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5873</v>
+        <v>25.8334</v>
       </c>
       <c r="C12" t="n">
-        <v>24.1714</v>
+        <v>24.4492</v>
       </c>
       <c r="D12" t="n">
-        <v>44.2277</v>
+        <v>44.6659</v>
       </c>
       <c r="E12" t="n">
-        <v>61.802</v>
+        <v>60.3361</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.7922</v>
+        <v>26.0671</v>
       </c>
       <c r="C13" t="n">
-        <v>24.7592</v>
+        <v>25.0869</v>
       </c>
       <c r="D13" t="n">
-        <v>46.6501</v>
+        <v>46.1693</v>
       </c>
       <c r="E13" t="n">
-        <v>64.2229</v>
+        <v>62.6094</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.5745</v>
+        <v>25.0945</v>
       </c>
       <c r="C14" t="n">
-        <v>25.6304</v>
+        <v>25.7779</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7802</v>
+        <v>44.8067</v>
       </c>
       <c r="E14" t="n">
-        <v>64.9293</v>
+        <v>59.1789</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4088</v>
+        <v>24.6247</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3942</v>
+        <v>26.6112</v>
       </c>
       <c r="D15" t="n">
-        <v>44.7104</v>
+        <v>45.2369</v>
       </c>
       <c r="E15" t="n">
-        <v>64.6413</v>
+        <v>65.2008</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7649</v>
+        <v>24.2869</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2342</v>
+        <v>26.9903</v>
       </c>
       <c r="D16" t="n">
-        <v>47.1247</v>
+        <v>45.1223</v>
       </c>
       <c r="E16" t="n">
-        <v>67.193</v>
+        <v>65.3323</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0334</v>
+        <v>24.7823</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8772</v>
+        <v>27.9442</v>
       </c>
       <c r="D17" t="n">
-        <v>46.7504</v>
+        <v>46.7634</v>
       </c>
       <c r="E17" t="n">
-        <v>66.18259999999999</v>
+        <v>65.06100000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1696</v>
+        <v>11.0514</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0978</v>
+        <v>15.1574</v>
       </c>
       <c r="D2" t="n">
-        <v>18.804</v>
+        <v>18.8481</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7712</v>
+        <v>21.7563</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2425</v>
+        <v>10.2331</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6689</v>
+        <v>10.6558</v>
       </c>
       <c r="D3" t="n">
-        <v>18.1879</v>
+        <v>17.9757</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6208</v>
+        <v>23.8684</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3813</v>
+        <v>12.2687</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6862</v>
+        <v>12.4586</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0393</v>
+        <v>22.2298</v>
       </c>
       <c r="E4" t="n">
-        <v>32.7123</v>
+        <v>29.8745</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9837</v>
+        <v>15.0762</v>
       </c>
       <c r="C5" t="n">
-        <v>14.6464</v>
+        <v>14.9131</v>
       </c>
       <c r="D5" t="n">
-        <v>27.8981</v>
+        <v>26.7921</v>
       </c>
       <c r="E5" t="n">
-        <v>40.1694</v>
+        <v>37.1349</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5059</v>
+        <v>18.427</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6482</v>
+        <v>17.5655</v>
       </c>
       <c r="D6" t="n">
-        <v>33.0486</v>
+        <v>31.4004</v>
       </c>
       <c r="E6" t="n">
-        <v>48.7609</v>
+        <v>44.1174</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9566</v>
+        <v>22.2317</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5049</v>
+        <v>20.3929</v>
       </c>
       <c r="D7" t="n">
-        <v>38.951</v>
+        <v>38.0622</v>
       </c>
       <c r="E7" t="n">
-        <v>54.4799</v>
+        <v>49.5807</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23.7314</v>
+        <v>25.2861</v>
       </c>
       <c r="C8" t="n">
-        <v>22.3967</v>
+        <v>22.5075</v>
       </c>
       <c r="D8" t="n">
-        <v>41.6995</v>
+        <v>39.7252</v>
       </c>
       <c r="E8" t="n">
-        <v>60.1755</v>
+        <v>53.1316</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5441</v>
+        <v>29.2093</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4102</v>
+        <v>25.0216</v>
       </c>
       <c r="D9" t="n">
-        <v>47.9594</v>
+        <v>45.2322</v>
       </c>
       <c r="E9" t="n">
-        <v>66.5185</v>
+        <v>59.5873</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3325</v>
+        <v>26.4203</v>
       </c>
       <c r="C10" t="n">
-        <v>24.779</v>
+        <v>23.9273</v>
       </c>
       <c r="D10" t="n">
-        <v>45.3808</v>
+        <v>42.8583</v>
       </c>
       <c r="E10" t="n">
-        <v>59.0361</v>
+        <v>58.3163</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9886</v>
+        <v>25.2835</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9655</v>
+        <v>24.0409</v>
       </c>
       <c r="D11" t="n">
-        <v>44.3284</v>
+        <v>42.6067</v>
       </c>
       <c r="E11" t="n">
-        <v>59.8253</v>
+        <v>56.8488</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.6007</v>
+        <v>25.5778</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5046</v>
+        <v>24.3894</v>
       </c>
       <c r="D12" t="n">
-        <v>44.0607</v>
+        <v>42.2313</v>
       </c>
       <c r="E12" t="n">
-        <v>63.4038</v>
+        <v>59.3841</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.6797</v>
+        <v>25.8298</v>
       </c>
       <c r="C13" t="n">
-        <v>24.9505</v>
+        <v>24.8384</v>
       </c>
       <c r="D13" t="n">
-        <v>45.1516</v>
+        <v>45.6905</v>
       </c>
       <c r="E13" t="n">
-        <v>63.4853</v>
+        <v>62.8075</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2447</v>
+        <v>26.11</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7699</v>
+        <v>25.8491</v>
       </c>
       <c r="D14" t="n">
-        <v>44.141</v>
+        <v>43.2971</v>
       </c>
       <c r="E14" t="n">
-        <v>63.78</v>
+        <v>61.6708</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3068</v>
+        <v>25.2647</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5556</v>
+        <v>26.5689</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2695</v>
+        <v>45.4718</v>
       </c>
       <c r="E15" t="n">
-        <v>68.1737</v>
+        <v>65.32380000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.1873</v>
+        <v>25.3322</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2469</v>
+        <v>27.0034</v>
       </c>
       <c r="D16" t="n">
-        <v>46.4919</v>
+        <v>45.5542</v>
       </c>
       <c r="E16" t="n">
-        <v>67.0985</v>
+        <v>64.71040000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.8797</v>
+        <v>24.9856</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6298</v>
+        <v>28.0008</v>
       </c>
       <c r="D17" t="n">
-        <v>47.0247</v>
+        <v>44.2501</v>
       </c>
       <c r="E17" t="n">
-        <v>62.7018</v>
+        <v>63.2188</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1482</v>
+        <v>14.2279</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3659</v>
+        <v>17.3674</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3346</v>
+        <v>21.3585</v>
       </c>
       <c r="E2" t="n">
-        <v>23.3234</v>
+        <v>23.2888</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1657</v>
+        <v>11.1149</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0394</v>
+        <v>12.0274</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7167</v>
+        <v>19.7446</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5713</v>
+        <v>26.4614</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9916</v>
+        <v>14.1198</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1383</v>
+        <v>14.1031</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8695</v>
+        <v>24.2766</v>
       </c>
       <c r="E4" t="n">
-        <v>34.9305</v>
+        <v>33.4176</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.042</v>
+        <v>17.2303</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0653</v>
+        <v>16.9674</v>
       </c>
       <c r="D5" t="n">
-        <v>30.2723</v>
+        <v>29.9748</v>
       </c>
       <c r="E5" t="n">
-        <v>41.7684</v>
+        <v>39.8252</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.2333</v>
+        <v>20.671</v>
       </c>
       <c r="C6" t="n">
-        <v>19.5454</v>
+        <v>19.9885</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0016</v>
+        <v>34.8342</v>
       </c>
       <c r="E6" t="n">
-        <v>48.691</v>
+        <v>45.9821</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2942</v>
+        <v>24.2709</v>
       </c>
       <c r="C7" t="n">
-        <v>22.6862</v>
+        <v>22.8579</v>
       </c>
       <c r="D7" t="n">
-        <v>41.1706</v>
+        <v>39.1515</v>
       </c>
       <c r="E7" t="n">
-        <v>54.6887</v>
+        <v>51.5733</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4395</v>
+        <v>27.4732</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7585</v>
+        <v>25.2003</v>
       </c>
       <c r="D8" t="n">
-        <v>45.5702</v>
+        <v>43.1414</v>
       </c>
       <c r="E8" t="n">
-        <v>57.413</v>
+        <v>55.0848</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.2632</v>
+        <v>31.7718</v>
       </c>
       <c r="C9" t="n">
-        <v>26.666</v>
+        <v>27.6254</v>
       </c>
       <c r="D9" t="n">
-        <v>50.1777</v>
+        <v>47.8407</v>
       </c>
       <c r="E9" t="n">
-        <v>60.1969</v>
+        <v>59.0158</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.6321</v>
+        <v>29.4972</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6862</v>
+        <v>26.9739</v>
       </c>
       <c r="D10" t="n">
-        <v>48.4454</v>
+        <v>45.4219</v>
       </c>
       <c r="E10" t="n">
-        <v>59.8013</v>
+        <v>58.9056</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8657</v>
+        <v>27.7822</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6721</v>
+        <v>25.5609</v>
       </c>
       <c r="D11" t="n">
-        <v>46.6179</v>
+        <v>44.5836</v>
       </c>
       <c r="E11" t="n">
-        <v>60.8191</v>
+        <v>55.6598</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.48</v>
+        <v>28.8991</v>
       </c>
       <c r="C12" t="n">
-        <v>25.9909</v>
+        <v>25.962</v>
       </c>
       <c r="D12" t="n">
-        <v>48.5924</v>
+        <v>47.3274</v>
       </c>
       <c r="E12" t="n">
-        <v>60.4395</v>
+        <v>58.5522</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.5185</v>
+        <v>29.9529</v>
       </c>
       <c r="C13" t="n">
-        <v>26.4897</v>
+        <v>26.6127</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1325</v>
+        <v>48.5044</v>
       </c>
       <c r="E13" t="n">
-        <v>61.179</v>
+        <v>61.1137</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.61</v>
+        <v>28.9921</v>
       </c>
       <c r="C14" t="n">
-        <v>27.3469</v>
+        <v>27.5317</v>
       </c>
       <c r="D14" t="n">
-        <v>50.2471</v>
+        <v>48.0414</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6931</v>
+        <v>58.972</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.3421</v>
+        <v>27.8168</v>
       </c>
       <c r="C15" t="n">
-        <v>27.9946</v>
+        <v>28.2142</v>
       </c>
       <c r="D15" t="n">
-        <v>48.0796</v>
+        <v>47.2677</v>
       </c>
       <c r="E15" t="n">
-        <v>60.7247</v>
+        <v>57.8553</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.7979</v>
+        <v>28.2</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6891</v>
+        <v>28.7091</v>
       </c>
       <c r="D16" t="n">
-        <v>47.059</v>
+        <v>46.3516</v>
       </c>
       <c r="E16" t="n">
-        <v>58.2729</v>
+        <v>58.8808</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8562</v>
+        <v>27.308</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5001</v>
+        <v>29.5669</v>
       </c>
       <c r="D17" t="n">
-        <v>46.9898</v>
+        <v>46.3166</v>
       </c>
       <c r="E17" t="n">
-        <v>58.8417</v>
+        <v>57.2505</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0288</v>
+        <v>3.94692</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4351</v>
+        <v>11.3422</v>
       </c>
       <c r="D2" t="n">
-        <v>13.8397</v>
+        <v>13.6425</v>
       </c>
       <c r="E2" t="n">
-        <v>18.956</v>
+        <v>19.0243</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.416</v>
+        <v>6.42306</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3288</v>
+        <v>10.3793</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4287</v>
+        <v>18.4638</v>
       </c>
       <c r="E3" t="n">
-        <v>26.3504</v>
+        <v>26.9234</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.31481</v>
+        <v>9.36994</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6709</v>
+        <v>12.647</v>
       </c>
       <c r="D4" t="n">
-        <v>24.7406</v>
+        <v>24.5531</v>
       </c>
       <c r="E4" t="n">
-        <v>36.6907</v>
+        <v>36.8891</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2678</v>
+        <v>12.2021</v>
       </c>
       <c r="C5" t="n">
-        <v>15.184</v>
+        <v>15.0925</v>
       </c>
       <c r="D5" t="n">
-        <v>30.5078</v>
+        <v>30.1131</v>
       </c>
       <c r="E5" t="n">
-        <v>46.5043</v>
+        <v>46.7634</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0465</v>
+        <v>15.0618</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8781</v>
+        <v>17.805</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1037</v>
+        <v>35.6342</v>
       </c>
       <c r="E6" t="n">
-        <v>56.3353</v>
+        <v>56.4086</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8913</v>
+        <v>18.0753</v>
       </c>
       <c r="C7" t="n">
-        <v>20.442</v>
+        <v>20.4991</v>
       </c>
       <c r="D7" t="n">
-        <v>42.2933</v>
+        <v>41.3282</v>
       </c>
       <c r="E7" t="n">
-        <v>65.4495</v>
+        <v>66.03660000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6452</v>
+        <v>20.8065</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5911</v>
+        <v>23.5963</v>
       </c>
       <c r="D8" t="n">
-        <v>47.7634</v>
+        <v>47.1086</v>
       </c>
       <c r="E8" t="n">
-        <v>74.9533</v>
+        <v>75.2762</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7259</v>
+        <v>23.6417</v>
       </c>
       <c r="C9" t="n">
-        <v>26.8976</v>
+        <v>27.0397</v>
       </c>
       <c r="D9" t="n">
-        <v>57.6236</v>
+        <v>56.7376</v>
       </c>
       <c r="E9" t="n">
-        <v>84.3336</v>
+        <v>83.13549999999999</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.655</v>
+        <v>21.7296</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0931</v>
+        <v>25.3388</v>
       </c>
       <c r="D10" t="n">
-        <v>52.669</v>
+        <v>52.3101</v>
       </c>
       <c r="E10" t="n">
-        <v>73.0192</v>
+        <v>74.3617</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0055</v>
+        <v>22.2686</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2795</v>
+        <v>25.0981</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2764</v>
+        <v>51.2584</v>
       </c>
       <c r="E11" t="n">
-        <v>73.8336</v>
+        <v>73.7208</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2616</v>
+        <v>22.0434</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3586</v>
+        <v>25.4435</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7596</v>
+        <v>52.2083</v>
       </c>
       <c r="E12" t="n">
-        <v>75.35290000000001</v>
+        <v>77.10890000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8707</v>
+        <v>22.6629</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6992</v>
+        <v>25.5727</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4869</v>
+        <v>53.4848</v>
       </c>
       <c r="E13" t="n">
-        <v>76.41800000000001</v>
+        <v>76.6164</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7367</v>
+        <v>21.8306</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8269</v>
+        <v>25.8787</v>
       </c>
       <c r="D14" t="n">
-        <v>52.563</v>
+        <v>52.4136</v>
       </c>
       <c r="E14" t="n">
-        <v>74.7576</v>
+        <v>77.9174</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.668</v>
+        <v>22.4413</v>
       </c>
       <c r="C15" t="n">
-        <v>26.0943</v>
+        <v>26.3188</v>
       </c>
       <c r="D15" t="n">
-        <v>53.0499</v>
+        <v>53.4201</v>
       </c>
       <c r="E15" t="n">
-        <v>74.7722</v>
+        <v>75.8824</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7211</v>
+        <v>22.7387</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0033</v>
+        <v>26.9641</v>
       </c>
       <c r="D16" t="n">
-        <v>53.7674</v>
+        <v>53.1431</v>
       </c>
       <c r="E16" t="n">
-        <v>76.35039999999999</v>
+        <v>75.5458</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3929</v>
+        <v>22.7197</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5568</v>
+        <v>27.5821</v>
       </c>
       <c r="D17" t="n">
-        <v>52.3793</v>
+        <v>53.1553</v>
       </c>
       <c r="E17" t="n">
-        <v>74.9708</v>
+        <v>76.645</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92721</v>
+        <v>3.95496</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4379</v>
+        <v>11.4326</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5926</v>
+        <v>13.5504</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6834</v>
+        <v>19.1139</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.47309</v>
+        <v>6.41868</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4648</v>
+        <v>10.3614</v>
       </c>
       <c r="D3" t="n">
-        <v>18.133</v>
+        <v>17.988</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0435</v>
+        <v>26.5389</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.384589999999999</v>
+        <v>9.406129999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6595</v>
+        <v>12.822</v>
       </c>
       <c r="D4" t="n">
-        <v>24.1657</v>
+        <v>23.8744</v>
       </c>
       <c r="E4" t="n">
-        <v>36.291</v>
+        <v>36.7924</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1613</v>
+        <v>12.2036</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1863</v>
+        <v>15.2169</v>
       </c>
       <c r="D5" t="n">
-        <v>29.7406</v>
+        <v>29.5476</v>
       </c>
       <c r="E5" t="n">
-        <v>46.1019</v>
+        <v>45.9217</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0803</v>
+        <v>15.0792</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7049</v>
+        <v>17.7468</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5022</v>
+        <v>35.0043</v>
       </c>
       <c r="E6" t="n">
-        <v>55.8022</v>
+        <v>56.1301</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7485</v>
+        <v>17.9253</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5698</v>
+        <v>20.3804</v>
       </c>
       <c r="D7" t="n">
-        <v>41.3761</v>
+        <v>40.8809</v>
       </c>
       <c r="E7" t="n">
-        <v>65.23860000000001</v>
+        <v>65.5099</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6391</v>
+        <v>20.4891</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7005</v>
+        <v>23.6197</v>
       </c>
       <c r="D8" t="n">
-        <v>47.9308</v>
+        <v>46.2499</v>
       </c>
       <c r="E8" t="n">
-        <v>74.55889999999999</v>
+        <v>74.4554</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5898</v>
+        <v>23.4683</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1808</v>
+        <v>26.9719</v>
       </c>
       <c r="D9" t="n">
-        <v>56.1025</v>
+        <v>55.4011</v>
       </c>
       <c r="E9" t="n">
-        <v>84.4841</v>
+        <v>82.6939</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1814</v>
+        <v>21.9233</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6438</v>
+        <v>24.9895</v>
       </c>
       <c r="D10" t="n">
-        <v>52.0844</v>
+        <v>49.3567</v>
       </c>
       <c r="E10" t="n">
-        <v>72.04430000000001</v>
+        <v>72.6481</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7426</v>
+        <v>22.0648</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2852</v>
+        <v>25.2481</v>
       </c>
       <c r="D11" t="n">
-        <v>51.439</v>
+        <v>50.4718</v>
       </c>
       <c r="E11" t="n">
-        <v>73.80889999999999</v>
+        <v>71.977</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1747</v>
+        <v>22.371</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3654</v>
+        <v>25.2368</v>
       </c>
       <c r="D12" t="n">
-        <v>51.7423</v>
+        <v>51.2181</v>
       </c>
       <c r="E12" t="n">
-        <v>73.55759999999999</v>
+        <v>75.68899999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.833</v>
+        <v>22.7319</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3353</v>
+        <v>25.5919</v>
       </c>
       <c r="D13" t="n">
-        <v>52.0356</v>
+        <v>52.2328</v>
       </c>
       <c r="E13" t="n">
-        <v>76.6859</v>
+        <v>75.14749999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7245</v>
+        <v>21.6259</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8233</v>
+        <v>25.9457</v>
       </c>
       <c r="D14" t="n">
-        <v>50.9443</v>
+        <v>50.8328</v>
       </c>
       <c r="E14" t="n">
-        <v>75.21259999999999</v>
+        <v>76.2376</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.846</v>
+        <v>22.605</v>
       </c>
       <c r="C15" t="n">
-        <v>26.1821</v>
+        <v>26.2562</v>
       </c>
       <c r="D15" t="n">
-        <v>51.8597</v>
+        <v>51.5252</v>
       </c>
       <c r="E15" t="n">
-        <v>73.28440000000001</v>
+        <v>75.63339999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.3574</v>
+        <v>22.8574</v>
       </c>
       <c r="C16" t="n">
-        <v>26.7388</v>
+        <v>26.9167</v>
       </c>
       <c r="D16" t="n">
-        <v>52.9837</v>
+        <v>51.9045</v>
       </c>
       <c r="E16" t="n">
-        <v>73.7152</v>
+        <v>76.0384</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.9884</v>
+        <v>22.7875</v>
       </c>
       <c r="C17" t="n">
-        <v>27.324</v>
+        <v>27.4887</v>
       </c>
       <c r="D17" t="n">
-        <v>51.7948</v>
+        <v>51.2268</v>
       </c>
       <c r="E17" t="n">
-        <v>73.718</v>
+        <v>75.6673</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.868029999999999</v>
+        <v>8.74661</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7203</v>
+        <v>15.6987</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5442</v>
+        <v>19.4951</v>
       </c>
       <c r="E2" t="n">
-        <v>22.892</v>
+        <v>22.836</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0884</v>
+        <v>10.247</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7234</v>
+        <v>11.7847</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1203</v>
+        <v>20.1719</v>
       </c>
       <c r="E3" t="n">
-        <v>28.6768</v>
+        <v>28.8491</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1836</v>
+        <v>13.1544</v>
       </c>
       <c r="C4" t="n">
-        <v>13.82</v>
+        <v>13.8621</v>
       </c>
       <c r="D4" t="n">
-        <v>26.1069</v>
+        <v>25.9293</v>
       </c>
       <c r="E4" t="n">
-        <v>38.926</v>
+        <v>38.7616</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3285</v>
+        <v>16.3832</v>
       </c>
       <c r="C5" t="n">
-        <v>16.1026</v>
+        <v>16.3089</v>
       </c>
       <c r="D5" t="n">
-        <v>31.4558</v>
+        <v>32.1136</v>
       </c>
       <c r="E5" t="n">
-        <v>48.357</v>
+        <v>48.5537</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1533</v>
+        <v>19.4984</v>
       </c>
       <c r="C6" t="n">
-        <v>18.6283</v>
+        <v>19.2502</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6304</v>
+        <v>38.6167</v>
       </c>
       <c r="E6" t="n">
-        <v>57.5657</v>
+        <v>57.8597</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.5255</v>
+        <v>22.8221</v>
       </c>
       <c r="C7" t="n">
-        <v>21.3365</v>
+        <v>21.9979</v>
       </c>
       <c r="D7" t="n">
-        <v>45.5518</v>
+        <v>45.0645</v>
       </c>
       <c r="E7" t="n">
-        <v>66.06699999999999</v>
+        <v>65.9521</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.18</v>
+        <v>26.2803</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7085</v>
+        <v>25.1338</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7912</v>
+        <v>51.721</v>
       </c>
       <c r="E8" t="n">
-        <v>74.42149999999999</v>
+        <v>73.53270000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.5377</v>
+        <v>31.3054</v>
       </c>
       <c r="C9" t="n">
-        <v>26.857</v>
+        <v>27.8077</v>
       </c>
       <c r="D9" t="n">
-        <v>59.5635</v>
+        <v>59.0644</v>
       </c>
       <c r="E9" t="n">
-        <v>83.79300000000001</v>
+        <v>81.6267</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.9503</v>
+        <v>29.0994</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6481</v>
+        <v>26.3908</v>
       </c>
       <c r="D10" t="n">
-        <v>55.6148</v>
+        <v>54.6393</v>
       </c>
       <c r="E10" t="n">
-        <v>72.5628</v>
+        <v>72.1913</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3968</v>
+        <v>28.95</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9611</v>
+        <v>26.625</v>
       </c>
       <c r="D11" t="n">
-        <v>55.5832</v>
+        <v>55.7342</v>
       </c>
       <c r="E11" t="n">
-        <v>75.22110000000001</v>
+        <v>75.01090000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.0718</v>
+        <v>29.4219</v>
       </c>
       <c r="C12" t="n">
-        <v>26.088</v>
+        <v>27.0039</v>
       </c>
       <c r="D12" t="n">
-        <v>55.918</v>
+        <v>56.2723</v>
       </c>
       <c r="E12" t="n">
-        <v>78.34739999999999</v>
+        <v>77.57980000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.3173</v>
+        <v>29.7085</v>
       </c>
       <c r="C13" t="n">
-        <v>26.3713</v>
+        <v>27.2984</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3526</v>
+        <v>57.3908</v>
       </c>
       <c r="E13" t="n">
-        <v>77.48390000000001</v>
+        <v>78.6661</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.4971</v>
+        <v>28.649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.9379</v>
+        <v>28.0042</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4424</v>
+        <v>56.0628</v>
       </c>
       <c r="E14" t="n">
-        <v>76.45529999999999</v>
+        <v>78.0438</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.4988</v>
+        <v>29.713</v>
       </c>
       <c r="C15" t="n">
-        <v>27.4817</v>
+        <v>28.4777</v>
       </c>
       <c r="D15" t="n">
-        <v>57.0712</v>
+        <v>57.8458</v>
       </c>
       <c r="E15" t="n">
-        <v>78.61709999999999</v>
+        <v>79.05670000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.0542</v>
+        <v>30.11</v>
       </c>
       <c r="C16" t="n">
-        <v>27.7111</v>
+        <v>29.3868</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7669</v>
+        <v>57.6362</v>
       </c>
       <c r="E16" t="n">
-        <v>77.85299999999999</v>
+        <v>78.80840000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.4263</v>
+        <v>29.6651</v>
       </c>
       <c r="C17" t="n">
-        <v>28.7446</v>
+        <v>30.2227</v>
       </c>
       <c r="D17" t="n">
-        <v>56.5605</v>
+        <v>57.3398</v>
       </c>
       <c r="E17" t="n">
-        <v>76.14960000000001</v>
+        <v>78.892</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5612</v>
+        <v>10.1671</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3019</v>
+        <v>15.248</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9534</v>
+        <v>16.9957</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8979</v>
+        <v>19.1133</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2392</v>
+        <v>9.97494</v>
       </c>
       <c r="C3" t="n">
-        <v>11.176</v>
+        <v>10.7992</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8159</v>
+        <v>16.132</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3584</v>
+        <v>19.3471</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8978</v>
+        <v>12.1007</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6789</v>
+        <v>12.6914</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0922</v>
+        <v>19.6225</v>
       </c>
       <c r="E4" t="n">
-        <v>30.9975</v>
+        <v>25.053</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5192</v>
+        <v>14.7644</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1369</v>
+        <v>15.1589</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0019</v>
+        <v>23.0673</v>
       </c>
       <c r="E5" t="n">
-        <v>37.4838</v>
+        <v>29.4394</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3066</v>
+        <v>18.2636</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6809</v>
+        <v>17.8179</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3878</v>
+        <v>26.7221</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4718</v>
+        <v>34.6359</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6437</v>
+        <v>21.7965</v>
       </c>
       <c r="C7" t="n">
-        <v>20.669</v>
+        <v>20.5553</v>
       </c>
       <c r="D7" t="n">
-        <v>37.7356</v>
+        <v>30.0962</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7862</v>
+        <v>39.0424</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3094</v>
+        <v>24.647</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6684</v>
+        <v>22.9823</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7627</v>
+        <v>32.1652</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4232</v>
+        <v>42.6301</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6929</v>
+        <v>29.5737</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9252</v>
+        <v>25.7485</v>
       </c>
       <c r="D9" t="n">
-        <v>44.6631</v>
+        <v>34.9362</v>
       </c>
       <c r="E9" t="n">
-        <v>56.7936</v>
+        <v>45.8483</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2262</v>
+        <v>24.3671</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7761</v>
+        <v>24.5808</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7575</v>
+        <v>30.8997</v>
       </c>
       <c r="E10" t="n">
-        <v>58.0104</v>
+        <v>42.0339</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8892</v>
+        <v>24.3965</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7322</v>
+        <v>24.4207</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6755</v>
+        <v>29.6975</v>
       </c>
       <c r="E11" t="n">
-        <v>57.3559</v>
+        <v>40.8082</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8334</v>
+        <v>26.084</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4492</v>
+        <v>24.244</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6659</v>
+        <v>28.1521</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3361</v>
+        <v>40.8914</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0671</v>
+        <v>26.1301</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0869</v>
+        <v>25.1152</v>
       </c>
       <c r="D13" t="n">
-        <v>46.1693</v>
+        <v>29.0996</v>
       </c>
       <c r="E13" t="n">
-        <v>62.6094</v>
+        <v>41.0352</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0945</v>
+        <v>25.131</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7779</v>
+        <v>25.7431</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8067</v>
+        <v>25.6289</v>
       </c>
       <c r="E14" t="n">
-        <v>59.1789</v>
+        <v>38.8592</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6247</v>
+        <v>25.1685</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6112</v>
+        <v>26.5492</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2369</v>
+        <v>27.448</v>
       </c>
       <c r="E15" t="n">
-        <v>65.2008</v>
+        <v>38.3209</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.2869</v>
+        <v>25.4023</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9903</v>
+        <v>27.4429</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1223</v>
+        <v>23.8459</v>
       </c>
       <c r="E16" t="n">
-        <v>65.3323</v>
+        <v>35.4712</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7823</v>
+        <v>24.9732</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9442</v>
+        <v>28.2098</v>
       </c>
       <c r="D17" t="n">
-        <v>46.7634</v>
+        <v>22.927</v>
       </c>
       <c r="E17" t="n">
-        <v>65.06100000000001</v>
+        <v>37.8039</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0514</v>
+        <v>11.0221</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1574</v>
+        <v>15.1525</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8481</v>
+        <v>17.0808</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7563</v>
+        <v>19.2538</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2331</v>
+        <v>10.4989</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6558</v>
+        <v>11.1288</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9757</v>
+        <v>16.6324</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8684</v>
+        <v>19.8935</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2687</v>
+        <v>12.5824</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4586</v>
+        <v>12.7357</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2298</v>
+        <v>20.2242</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8745</v>
+        <v>25.824</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0762</v>
+        <v>14.6337</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9131</v>
+        <v>15.15</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7921</v>
+        <v>23.28</v>
       </c>
       <c r="E5" t="n">
-        <v>37.1349</v>
+        <v>30.0698</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.427</v>
+        <v>18.1405</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5655</v>
+        <v>17.6707</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4004</v>
+        <v>27.0468</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1174</v>
+        <v>34.5219</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2317</v>
+        <v>22.3067</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3929</v>
+        <v>20.1767</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0622</v>
+        <v>29.7204</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5807</v>
+        <v>39.2609</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2861</v>
+        <v>25.1552</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5075</v>
+        <v>22.7042</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7252</v>
+        <v>32.265</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1316</v>
+        <v>42.0345</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2093</v>
+        <v>29.7282</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0216</v>
+        <v>25.2713</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2322</v>
+        <v>34.7757</v>
       </c>
       <c r="E9" t="n">
-        <v>59.5873</v>
+        <v>44.689</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4203</v>
+        <v>26.2296</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9273</v>
+        <v>24.7955</v>
       </c>
       <c r="D10" t="n">
-        <v>42.8583</v>
+        <v>28.4162</v>
       </c>
       <c r="E10" t="n">
-        <v>58.3163</v>
+        <v>40.9786</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2835</v>
+        <v>25.7221</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0409</v>
+        <v>24.0985</v>
       </c>
       <c r="D11" t="n">
-        <v>42.6067</v>
+        <v>30.1693</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8488</v>
+        <v>40.1194</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5778</v>
+        <v>25.7612</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3894</v>
+        <v>24.4565</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2313</v>
+        <v>29.3042</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3841</v>
+        <v>38.9331</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8298</v>
+        <v>27.2468</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8384</v>
+        <v>25.0272</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6905</v>
+        <v>29.5331</v>
       </c>
       <c r="E13" t="n">
-        <v>62.8075</v>
+        <v>40.7602</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.11</v>
+        <v>25.0345</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8491</v>
+        <v>26.0939</v>
       </c>
       <c r="D14" t="n">
-        <v>43.2971</v>
+        <v>26.4588</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6708</v>
+        <v>37.0534</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2647</v>
+        <v>25.3848</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5689</v>
+        <v>26.6843</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4718</v>
+        <v>27.5748</v>
       </c>
       <c r="E15" t="n">
-        <v>65.32380000000001</v>
+        <v>36.5028</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3322</v>
+        <v>25.3513</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0034</v>
+        <v>27.3884</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5542</v>
+        <v>25.1594</v>
       </c>
       <c r="E16" t="n">
-        <v>64.71040000000001</v>
+        <v>38.959</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9856</v>
+        <v>25.7771</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0008</v>
+        <v>28.2092</v>
       </c>
       <c r="D17" t="n">
-        <v>44.2501</v>
+        <v>23.105</v>
       </c>
       <c r="E17" t="n">
-        <v>63.2188</v>
+        <v>39.0292</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2279</v>
+        <v>14.1437</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3674</v>
+        <v>17.4911</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3585</v>
+        <v>20.2453</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2888</v>
+        <v>21.8229</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1149</v>
+        <v>11.3799</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0274</v>
+        <v>12.4558</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7446</v>
+        <v>20.9484</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4614</v>
+        <v>25.3585</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1198</v>
+        <v>14.183</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1031</v>
+        <v>14.3108</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2766</v>
+        <v>25.598</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4176</v>
+        <v>31.1853</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2303</v>
+        <v>17.18</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9674</v>
+        <v>17.1122</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9748</v>
+        <v>29.3647</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8252</v>
+        <v>37.3146</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.671</v>
+        <v>20.6527</v>
       </c>
       <c r="C6" t="n">
-        <v>19.9885</v>
+        <v>20.2099</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8342</v>
+        <v>33.6264</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9821</v>
+        <v>41.6005</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2709</v>
+        <v>24.2094</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8579</v>
+        <v>23.1166</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1515</v>
+        <v>38.2606</v>
       </c>
       <c r="E7" t="n">
-        <v>51.5733</v>
+        <v>46.6611</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4732</v>
+        <v>27.5411</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2003</v>
+        <v>25.0367</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1414</v>
+        <v>40.6833</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0848</v>
+        <v>50.0505</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7718</v>
+        <v>31.5581</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6254</v>
+        <v>27.7692</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8407</v>
+        <v>42.6549</v>
       </c>
       <c r="E9" t="n">
-        <v>59.0158</v>
+        <v>54.2167</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4972</v>
+        <v>29.7274</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9739</v>
+        <v>26.9278</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4219</v>
+        <v>41.6217</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9056</v>
+        <v>52.2539</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7822</v>
+        <v>27.9206</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5609</v>
+        <v>26.0888</v>
       </c>
       <c r="D11" t="n">
-        <v>44.5836</v>
+        <v>39.7641</v>
       </c>
       <c r="E11" t="n">
-        <v>55.6598</v>
+        <v>52.953</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8991</v>
+        <v>28.7513</v>
       </c>
       <c r="C12" t="n">
-        <v>25.962</v>
+        <v>26.0364</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3274</v>
+        <v>41.373</v>
       </c>
       <c r="E12" t="n">
-        <v>58.5522</v>
+        <v>52.3615</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9529</v>
+        <v>29.8682</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6127</v>
+        <v>26.8002</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5044</v>
+        <v>38.6505</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1137</v>
+        <v>54.2039</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9921</v>
+        <v>29.2083</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5317</v>
+        <v>27.6999</v>
       </c>
       <c r="D14" t="n">
-        <v>48.0414</v>
+        <v>38.3363</v>
       </c>
       <c r="E14" t="n">
-        <v>58.972</v>
+        <v>52.4402</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.8168</v>
+        <v>27.7369</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2142</v>
+        <v>28.2674</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2677</v>
+        <v>37.6734</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8553</v>
+        <v>53.5655</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2</v>
+        <v>27.6888</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7091</v>
+        <v>29.0085</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3516</v>
+        <v>40.6129</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8808</v>
+        <v>50.3525</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.308</v>
+        <v>27.581</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5669</v>
+        <v>29.7809</v>
       </c>
       <c r="D17" t="n">
-        <v>46.3166</v>
+        <v>32.7697</v>
       </c>
       <c r="E17" t="n">
-        <v>57.2505</v>
+        <v>50.2666</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94692</v>
+        <v>4.05813</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3422</v>
+        <v>11.4122</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6425</v>
+        <v>12.732</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0243</v>
+        <v>17.1882</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.42306</v>
+        <v>6.42495</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3793</v>
+        <v>10.3247</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4638</v>
+        <v>16.2864</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9234</v>
+        <v>20.9073</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36994</v>
+        <v>9.360440000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.647</v>
+        <v>12.7096</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5531</v>
+        <v>20.1428</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8891</v>
+        <v>27.5397</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2021</v>
+        <v>12.2654</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0925</v>
+        <v>15.228</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1131</v>
+        <v>24.246</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7634</v>
+        <v>33.9937</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0618</v>
+        <v>15.0052</v>
       </c>
       <c r="C6" t="n">
-        <v>17.805</v>
+        <v>17.8142</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6342</v>
+        <v>27.952</v>
       </c>
       <c r="E6" t="n">
-        <v>56.4086</v>
+        <v>40.4723</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0753</v>
+        <v>18.0789</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4991</v>
+        <v>20.6849</v>
       </c>
       <c r="D7" t="n">
-        <v>41.3282</v>
+        <v>31.3703</v>
       </c>
       <c r="E7" t="n">
-        <v>66.03660000000001</v>
+        <v>45.8733</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8065</v>
+        <v>20.7397</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5963</v>
+        <v>23.66</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1086</v>
+        <v>34.566</v>
       </c>
       <c r="E8" t="n">
-        <v>75.2762</v>
+        <v>50.7214</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6417</v>
+        <v>23.9042</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0397</v>
+        <v>27.0867</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7376</v>
+        <v>38.9869</v>
       </c>
       <c r="E9" t="n">
-        <v>83.13549999999999</v>
+        <v>55.4671</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7296</v>
+        <v>22.1613</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3388</v>
+        <v>24.7366</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3101</v>
+        <v>33.0195</v>
       </c>
       <c r="E10" t="n">
-        <v>74.3617</v>
+        <v>49.5288</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.2686</v>
+        <v>21.9203</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0981</v>
+        <v>25.3554</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2584</v>
+        <v>30.1746</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7208</v>
+        <v>47.5498</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0434</v>
+        <v>21.9649</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4435</v>
+        <v>25.2056</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2083</v>
+        <v>27.8181</v>
       </c>
       <c r="E12" t="n">
-        <v>77.10890000000001</v>
+        <v>44.3222</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6629</v>
+        <v>22.6087</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5727</v>
+        <v>25.6914</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4848</v>
+        <v>25.996</v>
       </c>
       <c r="E13" t="n">
-        <v>76.6164</v>
+        <v>42.4505</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8306</v>
+        <v>21.7847</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8787</v>
+        <v>25.7755</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4136</v>
+        <v>24.7678</v>
       </c>
       <c r="E14" t="n">
-        <v>77.9174</v>
+        <v>41.2284</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4413</v>
+        <v>22.8363</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3188</v>
+        <v>26.4307</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4201</v>
+        <v>23.4919</v>
       </c>
       <c r="E15" t="n">
-        <v>75.8824</v>
+        <v>39.2941</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7387</v>
+        <v>22.5548</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9641</v>
+        <v>27.1209</v>
       </c>
       <c r="D16" t="n">
-        <v>53.1431</v>
+        <v>21.441</v>
       </c>
       <c r="E16" t="n">
-        <v>75.5458</v>
+        <v>38.5288</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7197</v>
+        <v>22.6542</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5821</v>
+        <v>27.705</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1553</v>
+        <v>21.1106</v>
       </c>
       <c r="E17" t="n">
-        <v>76.645</v>
+        <v>36.3408</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95496</v>
+        <v>4.10232</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4326</v>
+        <v>11.592</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5504</v>
+        <v>12.8117</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1139</v>
+        <v>17.4778</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.41868</v>
+        <v>6.62208</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3614</v>
+        <v>10.7837</v>
       </c>
       <c r="D3" t="n">
-        <v>17.988</v>
+        <v>16.3357</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5389</v>
+        <v>21.3956</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.406129999999999</v>
+        <v>9.43732</v>
       </c>
       <c r="C4" t="n">
-        <v>12.822</v>
+        <v>12.7967</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8744</v>
+        <v>20.4039</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7924</v>
+        <v>28.2546</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2036</v>
+        <v>12.1711</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2169</v>
+        <v>15.1962</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5476</v>
+        <v>24.3634</v>
       </c>
       <c r="E5" t="n">
-        <v>45.9217</v>
+        <v>34.2118</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0792</v>
+        <v>15.1003</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7468</v>
+        <v>17.843</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0043</v>
+        <v>28.1527</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1301</v>
+        <v>40.345</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9253</v>
+        <v>17.818</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3804</v>
+        <v>20.5522</v>
       </c>
       <c r="D7" t="n">
-        <v>40.8809</v>
+        <v>31.4147</v>
       </c>
       <c r="E7" t="n">
-        <v>65.5099</v>
+        <v>45.9565</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4891</v>
+        <v>20.4973</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6197</v>
+        <v>23.6475</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2499</v>
+        <v>34.6438</v>
       </c>
       <c r="E8" t="n">
-        <v>74.4554</v>
+        <v>50.8029</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4683</v>
+        <v>23.8982</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9719</v>
+        <v>27.1526</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4011</v>
+        <v>39.059</v>
       </c>
       <c r="E9" t="n">
-        <v>82.6939</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9233</v>
+        <v>21.6953</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9895</v>
+        <v>25.4029</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3567</v>
+        <v>32.7458</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6481</v>
+        <v>48.5884</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0648</v>
+        <v>21.8599</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2481</v>
+        <v>25.2534</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4718</v>
+        <v>29.5412</v>
       </c>
       <c r="E11" t="n">
-        <v>71.977</v>
+        <v>46.1575</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.371</v>
+        <v>22.1271</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2368</v>
+        <v>25.4926</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2181</v>
+        <v>26.8563</v>
       </c>
       <c r="E12" t="n">
-        <v>75.68899999999999</v>
+        <v>44.7531</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7319</v>
+        <v>22.9194</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5919</v>
+        <v>25.5945</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2328</v>
+        <v>25.0154</v>
       </c>
       <c r="E13" t="n">
-        <v>75.14749999999999</v>
+        <v>42.5234</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6259</v>
+        <v>21.8114</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9457</v>
+        <v>25.7781</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8328</v>
+        <v>22.8272</v>
       </c>
       <c r="E14" t="n">
-        <v>76.2376</v>
+        <v>39.1487</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.605</v>
+        <v>22.8838</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2562</v>
+        <v>26.3734</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5252</v>
+        <v>22.4974</v>
       </c>
       <c r="E15" t="n">
-        <v>75.63339999999999</v>
+        <v>40.0771</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8574</v>
+        <v>22.8591</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9167</v>
+        <v>27.0567</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9045</v>
+        <v>21.3724</v>
       </c>
       <c r="E16" t="n">
-        <v>76.0384</v>
+        <v>38.4445</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7875</v>
+        <v>22.3866</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4887</v>
+        <v>27.6148</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2268</v>
+        <v>20.2815</v>
       </c>
       <c r="E17" t="n">
-        <v>75.6673</v>
+        <v>36.2196</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.74661</v>
+        <v>8.64639</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6987</v>
+        <v>15.8548</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4951</v>
+        <v>18.8541</v>
       </c>
       <c r="E2" t="n">
-        <v>22.836</v>
+        <v>21.614</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.247</v>
+        <v>10.1526</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7847</v>
+        <v>11.7733</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1719</v>
+        <v>21.369</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8491</v>
+        <v>25.7013</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1544</v>
+        <v>13.3167</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8621</v>
+        <v>14.0902</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9293</v>
+        <v>27.5734</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7616</v>
+        <v>34.9937</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3832</v>
+        <v>16.4162</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3089</v>
+        <v>16.462</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1136</v>
+        <v>31.8893</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5537</v>
+        <v>42.0628</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4984</v>
+        <v>19.5524</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2502</v>
+        <v>19.3608</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6167</v>
+        <v>37.291</v>
       </c>
       <c r="E6" t="n">
-        <v>57.8597</v>
+        <v>49.7171</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8221</v>
+        <v>22.8032</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9979</v>
+        <v>22.122</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0645</v>
+        <v>41.8028</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9521</v>
+        <v>56.1447</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2803</v>
+        <v>26.3513</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1338</v>
+        <v>25.0823</v>
       </c>
       <c r="D8" t="n">
-        <v>51.721</v>
+        <v>46.0457</v>
       </c>
       <c r="E8" t="n">
-        <v>73.53270000000001</v>
+        <v>62.1239</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3054</v>
+        <v>31.2023</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8077</v>
+        <v>27.773</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0644</v>
+        <v>50.5426</v>
       </c>
       <c r="E9" t="n">
-        <v>81.6267</v>
+        <v>67.5787</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0994</v>
+        <v>29.0075</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3908</v>
+        <v>26.8227</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6393</v>
+        <v>45.755</v>
       </c>
       <c r="E10" t="n">
-        <v>72.1913</v>
+        <v>63.2609</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.95</v>
+        <v>29.3594</v>
       </c>
       <c r="C11" t="n">
-        <v>26.625</v>
+        <v>26.7802</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7342</v>
+        <v>43.9776</v>
       </c>
       <c r="E11" t="n">
-        <v>75.01090000000001</v>
+        <v>63.3276</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4219</v>
+        <v>29.2413</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0039</v>
+        <v>27.0345</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2723</v>
+        <v>42.0758</v>
       </c>
       <c r="E12" t="n">
-        <v>77.57980000000001</v>
+        <v>64.2921</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7085</v>
+        <v>29.7581</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2984</v>
+        <v>27.5689</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3908</v>
+        <v>39.918</v>
       </c>
       <c r="E13" t="n">
-        <v>78.6661</v>
+        <v>64.7998</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.649</v>
+        <v>28.7423</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0042</v>
+        <v>28.0849</v>
       </c>
       <c r="D14" t="n">
-        <v>56.0628</v>
+        <v>38.1789</v>
       </c>
       <c r="E14" t="n">
-        <v>78.0438</v>
+        <v>64.1904</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.713</v>
+        <v>29.7984</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4777</v>
+        <v>28.7805</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8458</v>
+        <v>36.9288</v>
       </c>
       <c r="E15" t="n">
-        <v>79.05670000000001</v>
+        <v>62.8872</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.11</v>
+        <v>29.4932</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3868</v>
+        <v>29.6038</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6362</v>
+        <v>35.1302</v>
       </c>
       <c r="E16" t="n">
-        <v>78.80840000000001</v>
+        <v>63.9117</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.6651</v>
+        <v>29.0776</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2227</v>
+        <v>30.4619</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3398</v>
+        <v>33.0436</v>
       </c>
       <c r="E17" t="n">
-        <v>78.892</v>
+        <v>62.7539</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4803,13 +4803,13 @@
         <v>10.1671</v>
       </c>
       <c r="C2" t="n">
-        <v>15.248</v>
+        <v>15.3823</v>
       </c>
       <c r="D2" t="n">
-        <v>16.9957</v>
+        <v>18.7604</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1133</v>
+        <v>21.4963</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.97494</v>
+        <v>9.884180000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7992</v>
+        <v>10.7194</v>
       </c>
       <c r="D3" t="n">
-        <v>16.132</v>
+        <v>17.5935</v>
       </c>
       <c r="E3" t="n">
-        <v>19.3471</v>
+        <v>21.6376</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1007</v>
+        <v>12.0523</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6914</v>
+        <v>12.6897</v>
       </c>
       <c r="D4" t="n">
-        <v>19.6225</v>
+        <v>20.6396</v>
       </c>
       <c r="E4" t="n">
-        <v>25.053</v>
+        <v>26.9213</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7644</v>
+        <v>14.6515</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1589</v>
+        <v>15.2563</v>
       </c>
       <c r="D5" t="n">
-        <v>23.0673</v>
+        <v>23.8804</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4394</v>
+        <v>32.0141</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2636</v>
+        <v>17.8985</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8179</v>
+        <v>17.8065</v>
       </c>
       <c r="D6" t="n">
-        <v>26.7221</v>
+        <v>27.7668</v>
       </c>
       <c r="E6" t="n">
-        <v>34.6359</v>
+        <v>36.5214</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7965</v>
+        <v>22.0628</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5553</v>
+        <v>20.7707</v>
       </c>
       <c r="D7" t="n">
-        <v>30.0962</v>
+        <v>30.6798</v>
       </c>
       <c r="E7" t="n">
-        <v>39.0424</v>
+        <v>40.6428</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.647</v>
+        <v>24.6337</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9823</v>
+        <v>22.9627</v>
       </c>
       <c r="D8" t="n">
-        <v>32.1652</v>
+        <v>32.5796</v>
       </c>
       <c r="E8" t="n">
-        <v>42.6301</v>
+        <v>43.8035</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5737</v>
+        <v>28.8538</v>
       </c>
       <c r="C9" t="n">
-        <v>25.7485</v>
+        <v>25.5341</v>
       </c>
       <c r="D9" t="n">
-        <v>34.9362</v>
+        <v>35.6754</v>
       </c>
       <c r="E9" t="n">
-        <v>45.8483</v>
+        <v>45.1511</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.3671</v>
+        <v>24.1304</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5808</v>
+        <v>24.7996</v>
       </c>
       <c r="D10" t="n">
-        <v>30.8997</v>
+        <v>31.5394</v>
       </c>
       <c r="E10" t="n">
-        <v>42.0339</v>
+        <v>43.0725</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3965</v>
+        <v>24.696</v>
       </c>
       <c r="C11" t="n">
-        <v>24.4207</v>
+        <v>24.084</v>
       </c>
       <c r="D11" t="n">
-        <v>29.6975</v>
+        <v>30.2812</v>
       </c>
       <c r="E11" t="n">
-        <v>40.8082</v>
+        <v>40.7347</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.084</v>
+        <v>24.9155</v>
       </c>
       <c r="C12" t="n">
-        <v>24.244</v>
+        <v>24.3643</v>
       </c>
       <c r="D12" t="n">
-        <v>28.1521</v>
+        <v>29.3745</v>
       </c>
       <c r="E12" t="n">
-        <v>40.8914</v>
+        <v>40.7294</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.1301</v>
+        <v>25.7235</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1152</v>
+        <v>25.1049</v>
       </c>
       <c r="D13" t="n">
-        <v>29.0996</v>
+        <v>27.8228</v>
       </c>
       <c r="E13" t="n">
-        <v>41.0352</v>
+        <v>37.1447</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.131</v>
+        <v>25.9105</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7431</v>
+        <v>25.9252</v>
       </c>
       <c r="D14" t="n">
-        <v>25.6289</v>
+        <v>25.4259</v>
       </c>
       <c r="E14" t="n">
-        <v>38.8592</v>
+        <v>40.0507</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1685</v>
+        <v>24.5155</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5492</v>
+        <v>26.7296</v>
       </c>
       <c r="D15" t="n">
-        <v>27.448</v>
+        <v>24.9</v>
       </c>
       <c r="E15" t="n">
-        <v>38.3209</v>
+        <v>38.1999</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4023</v>
+        <v>25.2005</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4429</v>
+        <v>27.3711</v>
       </c>
       <c r="D16" t="n">
-        <v>23.8459</v>
+        <v>25.3726</v>
       </c>
       <c r="E16" t="n">
-        <v>35.4712</v>
+        <v>38.9637</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9732</v>
+        <v>25.3519</v>
       </c>
       <c r="C17" t="n">
-        <v>28.2098</v>
+        <v>28.1079</v>
       </c>
       <c r="D17" t="n">
-        <v>22.927</v>
+        <v>24.0803</v>
       </c>
       <c r="E17" t="n">
-        <v>37.8039</v>
+        <v>40.0589</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0221</v>
+        <v>10.8958</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1525</v>
+        <v>15.1435</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0808</v>
+        <v>18.7199</v>
       </c>
       <c r="E2" t="n">
-        <v>19.2538</v>
+        <v>21.3953</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4989</v>
+        <v>10.5644</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1288</v>
+        <v>11.1043</v>
       </c>
       <c r="D3" t="n">
-        <v>16.6324</v>
+        <v>18.2731</v>
       </c>
       <c r="E3" t="n">
-        <v>19.8935</v>
+        <v>22.1456</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5824</v>
+        <v>12.6353</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7357</v>
+        <v>12.7906</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2242</v>
+        <v>21.2342</v>
       </c>
       <c r="E4" t="n">
-        <v>25.824</v>
+        <v>27.6156</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6337</v>
+        <v>15.0381</v>
       </c>
       <c r="C5" t="n">
-        <v>15.15</v>
+        <v>15.0274</v>
       </c>
       <c r="D5" t="n">
-        <v>23.28</v>
+        <v>24.3735</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0698</v>
+        <v>32.4055</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1405</v>
+        <v>18.3594</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6707</v>
+        <v>17.8578</v>
       </c>
       <c r="D6" t="n">
-        <v>27.0468</v>
+        <v>27.4683</v>
       </c>
       <c r="E6" t="n">
-        <v>34.5219</v>
+        <v>37.2931</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.3067</v>
+        <v>22.1987</v>
       </c>
       <c r="C7" t="n">
-        <v>20.1767</v>
+        <v>20.2361</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7204</v>
+        <v>31.3251</v>
       </c>
       <c r="E7" t="n">
-        <v>39.2609</v>
+        <v>40.1782</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.1552</v>
+        <v>25.091</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7042</v>
+        <v>22.5119</v>
       </c>
       <c r="D8" t="n">
-        <v>32.265</v>
+        <v>32.9774</v>
       </c>
       <c r="E8" t="n">
-        <v>42.0345</v>
+        <v>43.9359</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7282</v>
+        <v>28.9031</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2713</v>
+        <v>25.4803</v>
       </c>
       <c r="D9" t="n">
-        <v>34.7757</v>
+        <v>35.4159</v>
       </c>
       <c r="E9" t="n">
-        <v>44.689</v>
+        <v>46.638</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.2296</v>
+        <v>25.4937</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7955</v>
+        <v>24.5031</v>
       </c>
       <c r="D10" t="n">
-        <v>28.4162</v>
+        <v>29.8675</v>
       </c>
       <c r="E10" t="n">
-        <v>40.9786</v>
+        <v>41.2698</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.7221</v>
+        <v>24.9527</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0985</v>
+        <v>24.3147</v>
       </c>
       <c r="D11" t="n">
-        <v>30.1693</v>
+        <v>29.272</v>
       </c>
       <c r="E11" t="n">
-        <v>40.1194</v>
+        <v>38.6821</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7612</v>
+        <v>25.6152</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4565</v>
+        <v>24.4874</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3042</v>
+        <v>28.4234</v>
       </c>
       <c r="E12" t="n">
-        <v>38.9331</v>
+        <v>40.4481</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.2468</v>
+        <v>26.5828</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0272</v>
+        <v>25.4475</v>
       </c>
       <c r="D13" t="n">
-        <v>29.5331</v>
+        <v>30.4716</v>
       </c>
       <c r="E13" t="n">
-        <v>40.7602</v>
+        <v>38.8969</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0345</v>
+        <v>25.3447</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0939</v>
+        <v>26.0231</v>
       </c>
       <c r="D14" t="n">
-        <v>26.4588</v>
+        <v>27.1712</v>
       </c>
       <c r="E14" t="n">
-        <v>37.0534</v>
+        <v>38.2707</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3848</v>
+        <v>25.6579</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6843</v>
+        <v>26.674</v>
       </c>
       <c r="D15" t="n">
-        <v>27.5748</v>
+        <v>23.945</v>
       </c>
       <c r="E15" t="n">
-        <v>36.5028</v>
+        <v>40.2695</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3513</v>
+        <v>25.0963</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3884</v>
+        <v>27.5171</v>
       </c>
       <c r="D16" t="n">
-        <v>25.1594</v>
+        <v>22.9222</v>
       </c>
       <c r="E16" t="n">
-        <v>38.959</v>
+        <v>38.1517</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7771</v>
+        <v>25.5554</v>
       </c>
       <c r="C17" t="n">
-        <v>28.2092</v>
+        <v>28.1241</v>
       </c>
       <c r="D17" t="n">
-        <v>23.105</v>
+        <v>21.1025</v>
       </c>
       <c r="E17" t="n">
-        <v>39.0292</v>
+        <v>33.9998</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1437</v>
+        <v>14.1529</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4911</v>
+        <v>17.5533</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2453</v>
+        <v>21.188</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8229</v>
+        <v>22.9137</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3799</v>
+        <v>11.3294</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4558</v>
+        <v>12.0916</v>
       </c>
       <c r="D3" t="n">
-        <v>20.9484</v>
+        <v>21.986</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3585</v>
+        <v>25.6231</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.183</v>
+        <v>14.1215</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3108</v>
+        <v>14.2356</v>
       </c>
       <c r="D4" t="n">
-        <v>25.598</v>
+        <v>26.2949</v>
       </c>
       <c r="E4" t="n">
-        <v>31.1853</v>
+        <v>32.5559</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.18</v>
+        <v>17.2343</v>
       </c>
       <c r="C5" t="n">
-        <v>17.1122</v>
+        <v>17.2245</v>
       </c>
       <c r="D5" t="n">
-        <v>29.3647</v>
+        <v>31.0374</v>
       </c>
       <c r="E5" t="n">
-        <v>37.3146</v>
+        <v>39.4146</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6527</v>
+        <v>20.7255</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2099</v>
+        <v>20.093</v>
       </c>
       <c r="D6" t="n">
-        <v>33.6264</v>
+        <v>34.8574</v>
       </c>
       <c r="E6" t="n">
-        <v>41.6005</v>
+        <v>44.3439</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2094</v>
+        <v>24.2643</v>
       </c>
       <c r="C7" t="n">
-        <v>23.1166</v>
+        <v>23.0235</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2606</v>
+        <v>38.3847</v>
       </c>
       <c r="E7" t="n">
-        <v>46.6611</v>
+        <v>48.6637</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5411</v>
+        <v>27.5063</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0367</v>
+        <v>25.1838</v>
       </c>
       <c r="D8" t="n">
-        <v>40.6833</v>
+        <v>40.814</v>
       </c>
       <c r="E8" t="n">
-        <v>50.0505</v>
+        <v>50.1941</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.5581</v>
+        <v>31.7398</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7692</v>
+        <v>27.6878</v>
       </c>
       <c r="D9" t="n">
-        <v>42.6549</v>
+        <v>43.1295</v>
       </c>
       <c r="E9" t="n">
-        <v>54.2167</v>
+        <v>54.59</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7274</v>
+        <v>29.7702</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9278</v>
+        <v>26.9083</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6217</v>
+        <v>42.5334</v>
       </c>
       <c r="E10" t="n">
-        <v>52.2539</v>
+        <v>53.9012</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9206</v>
+        <v>27.714</v>
       </c>
       <c r="C11" t="n">
-        <v>26.0888</v>
+        <v>26.074</v>
       </c>
       <c r="D11" t="n">
-        <v>39.7641</v>
+        <v>41.6115</v>
       </c>
       <c r="E11" t="n">
-        <v>52.953</v>
+        <v>53.4023</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7513</v>
+        <v>29.1008</v>
       </c>
       <c r="C12" t="n">
-        <v>26.0364</v>
+        <v>26.1619</v>
       </c>
       <c r="D12" t="n">
-        <v>41.373</v>
+        <v>42.5284</v>
       </c>
       <c r="E12" t="n">
-        <v>52.3615</v>
+        <v>52.7733</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8682</v>
+        <v>30.2266</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8002</v>
+        <v>26.8456</v>
       </c>
       <c r="D13" t="n">
-        <v>38.6505</v>
+        <v>41.501</v>
       </c>
       <c r="E13" t="n">
-        <v>54.2039</v>
+        <v>50.5445</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>29.2083</v>
+        <v>27.8686</v>
       </c>
       <c r="C14" t="n">
-        <v>27.6999</v>
+        <v>27.471</v>
       </c>
       <c r="D14" t="n">
-        <v>38.3363</v>
+        <v>41.1978</v>
       </c>
       <c r="E14" t="n">
-        <v>52.4402</v>
+        <v>53.5972</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7369</v>
+        <v>28.0834</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2674</v>
+        <v>28.3455</v>
       </c>
       <c r="D15" t="n">
-        <v>37.6734</v>
+        <v>38.2981</v>
       </c>
       <c r="E15" t="n">
-        <v>53.5655</v>
+        <v>51.789</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.6888</v>
+        <v>27.9211</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0085</v>
+        <v>29.0038</v>
       </c>
       <c r="D16" t="n">
-        <v>40.6129</v>
+        <v>35.5719</v>
       </c>
       <c r="E16" t="n">
-        <v>50.3525</v>
+        <v>53.5035</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.581</v>
+        <v>28.3262</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7809</v>
+        <v>29.8126</v>
       </c>
       <c r="D17" t="n">
-        <v>32.7697</v>
+        <v>38.5816</v>
       </c>
       <c r="E17" t="n">
-        <v>50.2666</v>
+        <v>48.8943</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.05813</v>
+        <v>4.00926</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4122</v>
+        <v>11.384</v>
       </c>
       <c r="D2" t="n">
-        <v>12.732</v>
+        <v>13.4782</v>
       </c>
       <c r="E2" t="n">
-        <v>17.1882</v>
+        <v>18.7307</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.42495</v>
+        <v>6.58445</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3247</v>
+        <v>10.7413</v>
       </c>
       <c r="D3" t="n">
-        <v>16.2864</v>
+        <v>17.6055</v>
       </c>
       <c r="E3" t="n">
-        <v>20.9073</v>
+        <v>23.8873</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.360440000000001</v>
+        <v>9.39753</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7096</v>
+        <v>12.805</v>
       </c>
       <c r="D4" t="n">
-        <v>20.1428</v>
+        <v>21.6082</v>
       </c>
       <c r="E4" t="n">
-        <v>27.5397</v>
+        <v>30.895</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2654</v>
+        <v>12.3287</v>
       </c>
       <c r="C5" t="n">
-        <v>15.228</v>
+        <v>15.2173</v>
       </c>
       <c r="D5" t="n">
-        <v>24.246</v>
+        <v>25.2695</v>
       </c>
       <c r="E5" t="n">
-        <v>33.9937</v>
+        <v>37.0159</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0052</v>
+        <v>15.0981</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8142</v>
+        <v>17.8832</v>
       </c>
       <c r="D6" t="n">
-        <v>27.952</v>
+        <v>29.0453</v>
       </c>
       <c r="E6" t="n">
-        <v>40.4723</v>
+        <v>43.3236</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0789</v>
+        <v>17.9763</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6849</v>
+        <v>20.6526</v>
       </c>
       <c r="D7" t="n">
-        <v>31.3703</v>
+        <v>32.4737</v>
       </c>
       <c r="E7" t="n">
-        <v>45.8733</v>
+        <v>48.7505</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7397</v>
+        <v>20.6622</v>
       </c>
       <c r="C8" t="n">
-        <v>23.66</v>
+        <v>23.7558</v>
       </c>
       <c r="D8" t="n">
-        <v>34.566</v>
+        <v>35.3734</v>
       </c>
       <c r="E8" t="n">
-        <v>50.7214</v>
+        <v>53.4361</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9042</v>
+        <v>23.8683</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0867</v>
+        <v>27.2773</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9869</v>
+        <v>39.6976</v>
       </c>
       <c r="E9" t="n">
-        <v>55.4671</v>
+        <v>57.7746</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1613</v>
+        <v>21.3492</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7366</v>
+        <v>25.2505</v>
       </c>
       <c r="D10" t="n">
-        <v>33.0195</v>
+        <v>33.6141</v>
       </c>
       <c r="E10" t="n">
-        <v>49.5288</v>
+        <v>51.32</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9203</v>
+        <v>21.8666</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3554</v>
+        <v>25.367</v>
       </c>
       <c r="D11" t="n">
-        <v>30.1746</v>
+        <v>29.3476</v>
       </c>
       <c r="E11" t="n">
-        <v>47.5498</v>
+        <v>48.1825</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.9649</v>
+        <v>22.1666</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2056</v>
+        <v>25.4914</v>
       </c>
       <c r="D12" t="n">
-        <v>27.8181</v>
+        <v>26.7061</v>
       </c>
       <c r="E12" t="n">
-        <v>44.3222</v>
+        <v>45.7456</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6087</v>
+        <v>22.6242</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6914</v>
+        <v>25.6098</v>
       </c>
       <c r="D13" t="n">
-        <v>25.996</v>
+        <v>24.7519</v>
       </c>
       <c r="E13" t="n">
-        <v>42.4505</v>
+        <v>42.3722</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7847</v>
+        <v>21.8071</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7755</v>
+        <v>25.9063</v>
       </c>
       <c r="D14" t="n">
-        <v>24.7678</v>
+        <v>23.5581</v>
       </c>
       <c r="E14" t="n">
-        <v>41.2284</v>
+        <v>40.4488</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8363</v>
+        <v>22.9168</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4307</v>
+        <v>26.4736</v>
       </c>
       <c r="D15" t="n">
-        <v>23.4919</v>
+        <v>22.7177</v>
       </c>
       <c r="E15" t="n">
-        <v>39.2941</v>
+        <v>39.9581</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5548</v>
+        <v>22.889</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1209</v>
+        <v>27.0966</v>
       </c>
       <c r="D16" t="n">
-        <v>21.441</v>
+        <v>21.9802</v>
       </c>
       <c r="E16" t="n">
-        <v>38.5288</v>
+        <v>38.278</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6542</v>
+        <v>23.044</v>
       </c>
       <c r="C17" t="n">
-        <v>27.705</v>
+        <v>27.7863</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1106</v>
+        <v>19.8407</v>
       </c>
       <c r="E17" t="n">
-        <v>36.3408</v>
+        <v>36.2167</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.10232</v>
+        <v>4.09816</v>
       </c>
       <c r="C2" t="n">
-        <v>11.592</v>
+        <v>11.5378</v>
       </c>
       <c r="D2" t="n">
-        <v>12.8117</v>
+        <v>13.5584</v>
       </c>
       <c r="E2" t="n">
-        <v>17.4778</v>
+        <v>18.9466</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.62208</v>
+        <v>6.45844</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7837</v>
+        <v>10.3837</v>
       </c>
       <c r="D3" t="n">
-        <v>16.3357</v>
+        <v>17.1718</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3956</v>
+        <v>23.348</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.43732</v>
+        <v>9.39986</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7967</v>
+        <v>12.743</v>
       </c>
       <c r="D4" t="n">
-        <v>20.4039</v>
+        <v>21.5981</v>
       </c>
       <c r="E4" t="n">
-        <v>28.2546</v>
+        <v>30.6641</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1711</v>
+        <v>12.1927</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1962</v>
+        <v>15.2037</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3634</v>
+        <v>25.1973</v>
       </c>
       <c r="E5" t="n">
-        <v>34.2118</v>
+        <v>36.8378</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1003</v>
+        <v>15.137</v>
       </c>
       <c r="C6" t="n">
-        <v>17.843</v>
+        <v>17.8155</v>
       </c>
       <c r="D6" t="n">
-        <v>28.1527</v>
+        <v>28.9353</v>
       </c>
       <c r="E6" t="n">
-        <v>40.345</v>
+        <v>42.8287</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.818</v>
+        <v>17.9455</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5522</v>
+        <v>20.6396</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4147</v>
+        <v>32.2084</v>
       </c>
       <c r="E7" t="n">
-        <v>45.9565</v>
+        <v>48.2266</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4973</v>
+        <v>20.722</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6475</v>
+        <v>23.777</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6438</v>
+        <v>35.0226</v>
       </c>
       <c r="E8" t="n">
-        <v>50.8029</v>
+        <v>52.4539</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8982</v>
+        <v>23.8737</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1526</v>
+        <v>27.0356</v>
       </c>
       <c r="D9" t="n">
-        <v>39.059</v>
+        <v>38.9753</v>
       </c>
       <c r="E9" t="n">
-        <v>55.3</v>
+        <v>56.7018</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.6953</v>
+        <v>21.4691</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4029</v>
+        <v>25.1435</v>
       </c>
       <c r="D10" t="n">
-        <v>32.7458</v>
+        <v>32.3221</v>
       </c>
       <c r="E10" t="n">
-        <v>48.5884</v>
+        <v>49.4117</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8599</v>
+        <v>21.317</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2534</v>
+        <v>25.5303</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5412</v>
+        <v>28.4459</v>
       </c>
       <c r="E11" t="n">
-        <v>46.1575</v>
+        <v>45.579</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1271</v>
+        <v>22.1162</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4926</v>
+        <v>25.3352</v>
       </c>
       <c r="D12" t="n">
-        <v>26.8563</v>
+        <v>26.2917</v>
       </c>
       <c r="E12" t="n">
-        <v>44.7531</v>
+        <v>43.3581</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9194</v>
+        <v>22.6953</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5945</v>
+        <v>25.6283</v>
       </c>
       <c r="D13" t="n">
-        <v>25.0154</v>
+        <v>23.4604</v>
       </c>
       <c r="E13" t="n">
-        <v>42.5234</v>
+        <v>40.9216</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8114</v>
+        <v>21.6708</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7781</v>
+        <v>25.9896</v>
       </c>
       <c r="D14" t="n">
-        <v>22.8272</v>
+        <v>22.6</v>
       </c>
       <c r="E14" t="n">
-        <v>39.1487</v>
+        <v>38.2462</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8838</v>
+        <v>22.9428</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3734</v>
+        <v>26.4726</v>
       </c>
       <c r="D15" t="n">
-        <v>22.4974</v>
+        <v>21.6131</v>
       </c>
       <c r="E15" t="n">
-        <v>40.0771</v>
+        <v>37.462</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8591</v>
+        <v>22.7401</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0567</v>
+        <v>27.0851</v>
       </c>
       <c r="D16" t="n">
-        <v>21.3724</v>
+        <v>20.1223</v>
       </c>
       <c r="E16" t="n">
-        <v>38.4445</v>
+        <v>36.8605</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3866</v>
+        <v>22.3913</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6148</v>
+        <v>27.6729</v>
       </c>
       <c r="D17" t="n">
-        <v>20.2815</v>
+        <v>19.0741</v>
       </c>
       <c r="E17" t="n">
-        <v>36.2196</v>
+        <v>34.6526</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.64639</v>
+        <v>8.927440000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8548</v>
+        <v>15.7809</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8541</v>
+        <v>19.5646</v>
       </c>
       <c r="E2" t="n">
-        <v>21.614</v>
+        <v>22.5745</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1526</v>
+        <v>10.1824</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7733</v>
+        <v>11.783</v>
       </c>
       <c r="D3" t="n">
-        <v>21.369</v>
+        <v>22.5296</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7013</v>
+        <v>27.5145</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3167</v>
+        <v>13.2484</v>
       </c>
       <c r="C4" t="n">
-        <v>14.0902</v>
+        <v>13.9714</v>
       </c>
       <c r="D4" t="n">
-        <v>27.5734</v>
+        <v>28.2911</v>
       </c>
       <c r="E4" t="n">
-        <v>34.9937</v>
+        <v>36.307</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4162</v>
+        <v>16.3241</v>
       </c>
       <c r="C5" t="n">
-        <v>16.462</v>
+        <v>16.4354</v>
       </c>
       <c r="D5" t="n">
-        <v>31.8893</v>
+        <v>33.1016</v>
       </c>
       <c r="E5" t="n">
-        <v>42.0628</v>
+        <v>44.3875</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5524</v>
+        <v>19.4831</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3608</v>
+        <v>19.3538</v>
       </c>
       <c r="D6" t="n">
-        <v>37.291</v>
+        <v>38.1033</v>
       </c>
       <c r="E6" t="n">
-        <v>49.7171</v>
+        <v>51.7824</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8032</v>
+        <v>22.8315</v>
       </c>
       <c r="C7" t="n">
-        <v>22.122</v>
+        <v>22.1541</v>
       </c>
       <c r="D7" t="n">
-        <v>41.8028</v>
+        <v>42.2149</v>
       </c>
       <c r="E7" t="n">
-        <v>56.1447</v>
+        <v>57.6665</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.3513</v>
+        <v>26.4678</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0823</v>
+        <v>25.1588</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0457</v>
+        <v>46.2093</v>
       </c>
       <c r="E8" t="n">
-        <v>62.1239</v>
+        <v>63.6054</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2023</v>
+        <v>31.067</v>
       </c>
       <c r="C9" t="n">
-        <v>27.773</v>
+        <v>27.88</v>
       </c>
       <c r="D9" t="n">
-        <v>50.5426</v>
+        <v>50.7829</v>
       </c>
       <c r="E9" t="n">
-        <v>67.5787</v>
+        <v>68.4385</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0075</v>
+        <v>29.2175</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8227</v>
+        <v>26.886</v>
       </c>
       <c r="D10" t="n">
-        <v>45.755</v>
+        <v>47.5613</v>
       </c>
       <c r="E10" t="n">
-        <v>63.2609</v>
+        <v>63.7881</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.3594</v>
+        <v>28.7933</v>
       </c>
       <c r="C11" t="n">
-        <v>26.7802</v>
+        <v>26.7833</v>
       </c>
       <c r="D11" t="n">
-        <v>43.9776</v>
+        <v>44.8279</v>
       </c>
       <c r="E11" t="n">
-        <v>63.3276</v>
+        <v>65.0339</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.2413</v>
+        <v>29.1437</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0345</v>
+        <v>27.1824</v>
       </c>
       <c r="D12" t="n">
-        <v>42.0758</v>
+        <v>43.475</v>
       </c>
       <c r="E12" t="n">
-        <v>64.2921</v>
+        <v>65.8703</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7581</v>
+        <v>29.7103</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5689</v>
+        <v>27.5101</v>
       </c>
       <c r="D13" t="n">
-        <v>39.918</v>
+        <v>41.0823</v>
       </c>
       <c r="E13" t="n">
-        <v>64.7998</v>
+        <v>65.7869</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7423</v>
+        <v>28.866</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0849</v>
+        <v>28.1326</v>
       </c>
       <c r="D14" t="n">
-        <v>38.1789</v>
+        <v>41.1458</v>
       </c>
       <c r="E14" t="n">
-        <v>64.1904</v>
+        <v>64.238</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7984</v>
+        <v>29.5452</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7805</v>
+        <v>28.746</v>
       </c>
       <c r="D15" t="n">
-        <v>36.9288</v>
+        <v>38.0938</v>
       </c>
       <c r="E15" t="n">
-        <v>62.8872</v>
+        <v>65.3678</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4932</v>
+        <v>29.8763</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6038</v>
+        <v>29.533</v>
       </c>
       <c r="D16" t="n">
-        <v>35.1302</v>
+        <v>37.3784</v>
       </c>
       <c r="E16" t="n">
-        <v>63.9117</v>
+        <v>65.5121</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.0776</v>
+        <v>29.5854</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4619</v>
+        <v>30.4026</v>
       </c>
       <c r="D17" t="n">
-        <v>33.0436</v>
+        <v>36.1759</v>
       </c>
       <c r="E17" t="n">
-        <v>62.7539</v>
+        <v>64.5457</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1671</v>
+        <v>10.1975</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3823</v>
+        <v>15.3209</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7604</v>
+        <v>18.7702</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4963</v>
+        <v>21.4617</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.884180000000001</v>
+        <v>9.91422</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7194</v>
+        <v>10.7193</v>
       </c>
       <c r="D3" t="n">
-        <v>17.5935</v>
+        <v>17.7472</v>
       </c>
       <c r="E3" t="n">
-        <v>21.6376</v>
+        <v>21.4695</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0523</v>
+        <v>12.1238</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6897</v>
+        <v>12.8649</v>
       </c>
       <c r="D4" t="n">
-        <v>20.6396</v>
+        <v>20.8366</v>
       </c>
       <c r="E4" t="n">
-        <v>26.9213</v>
+        <v>26.8929</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6515</v>
+        <v>14.8732</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2563</v>
+        <v>15.2775</v>
       </c>
       <c r="D5" t="n">
-        <v>23.8804</v>
+        <v>24.2676</v>
       </c>
       <c r="E5" t="n">
-        <v>32.0141</v>
+        <v>31.3688</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8985</v>
+        <v>18.0286</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8065</v>
+        <v>17.7698</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7668</v>
+        <v>27.8424</v>
       </c>
       <c r="E6" t="n">
-        <v>36.5214</v>
+        <v>36.1967</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0628</v>
+        <v>21.3043</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7707</v>
+        <v>20.7204</v>
       </c>
       <c r="D7" t="n">
-        <v>30.6798</v>
+        <v>31.0751</v>
       </c>
       <c r="E7" t="n">
-        <v>40.6428</v>
+        <v>40.6916</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6337</v>
+        <v>24.5163</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9627</v>
+        <v>22.8325</v>
       </c>
       <c r="D8" t="n">
-        <v>32.5796</v>
+        <v>32.8694</v>
       </c>
       <c r="E8" t="n">
-        <v>43.8035</v>
+        <v>43.1881</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8538</v>
+        <v>28.7272</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5341</v>
+        <v>25.4114</v>
       </c>
       <c r="D9" t="n">
-        <v>35.6754</v>
+        <v>36.1029</v>
       </c>
       <c r="E9" t="n">
-        <v>45.1511</v>
+        <v>46.1858</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1304</v>
+        <v>24.8617</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7996</v>
+        <v>24.6874</v>
       </c>
       <c r="D10" t="n">
-        <v>31.5394</v>
+        <v>32.6511</v>
       </c>
       <c r="E10" t="n">
-        <v>43.0725</v>
+        <v>42.1764</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.696</v>
+        <v>24.4605</v>
       </c>
       <c r="C11" t="n">
-        <v>24.084</v>
+        <v>24.3135</v>
       </c>
       <c r="D11" t="n">
-        <v>30.2812</v>
+        <v>30.0669</v>
       </c>
       <c r="E11" t="n">
-        <v>40.7347</v>
+        <v>38.6242</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.9155</v>
+        <v>25.6124</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3643</v>
+        <v>24.7692</v>
       </c>
       <c r="D12" t="n">
-        <v>29.3745</v>
+        <v>29.2607</v>
       </c>
       <c r="E12" t="n">
-        <v>40.7294</v>
+        <v>40.4366</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7235</v>
+        <v>27.9648</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1049</v>
+        <v>25.1603</v>
       </c>
       <c r="D13" t="n">
-        <v>27.8228</v>
+        <v>26.4062</v>
       </c>
       <c r="E13" t="n">
-        <v>37.1447</v>
+        <v>40.5029</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.9105</v>
+        <v>24.7511</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9252</v>
+        <v>26.0246</v>
       </c>
       <c r="D14" t="n">
-        <v>25.4259</v>
+        <v>27.5</v>
       </c>
       <c r="E14" t="n">
-        <v>40.0507</v>
+        <v>40.3826</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5155</v>
+        <v>24.7809</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7296</v>
+        <v>26.4983</v>
       </c>
       <c r="D15" t="n">
-        <v>24.9</v>
+        <v>25.8306</v>
       </c>
       <c r="E15" t="n">
-        <v>38.1999</v>
+        <v>40.1967</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.2005</v>
+        <v>25.5594</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3711</v>
+        <v>27.319</v>
       </c>
       <c r="D16" t="n">
-        <v>25.3726</v>
+        <v>24.8345</v>
       </c>
       <c r="E16" t="n">
-        <v>38.9637</v>
+        <v>38.8463</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.3519</v>
+        <v>24.7857</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1079</v>
+        <v>27.5776</v>
       </c>
       <c r="D17" t="n">
-        <v>24.0803</v>
+        <v>24.4652</v>
       </c>
       <c r="E17" t="n">
-        <v>40.0589</v>
+        <v>36.9104</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8958</v>
+        <v>10.9188</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1435</v>
+        <v>15.1901</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7199</v>
+        <v>18.7133</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3953</v>
+        <v>21.4096</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5644</v>
+        <v>10.3411</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1043</v>
+        <v>10.6478</v>
       </c>
       <c r="D3" t="n">
-        <v>18.2731</v>
+        <v>17.7431</v>
       </c>
       <c r="E3" t="n">
-        <v>22.1456</v>
+        <v>21.6238</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.6353</v>
+        <v>12.5873</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7906</v>
+        <v>12.5551</v>
       </c>
       <c r="D4" t="n">
-        <v>21.2342</v>
+        <v>21.2511</v>
       </c>
       <c r="E4" t="n">
-        <v>27.6156</v>
+        <v>27.0509</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0381</v>
+        <v>14.904</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0274</v>
+        <v>14.9434</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3735</v>
+        <v>24.3969</v>
       </c>
       <c r="E5" t="n">
-        <v>32.4055</v>
+        <v>31.3829</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3594</v>
+        <v>18.2414</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8578</v>
+        <v>17.7066</v>
       </c>
       <c r="D6" t="n">
-        <v>27.4683</v>
+        <v>27.9823</v>
       </c>
       <c r="E6" t="n">
-        <v>37.2931</v>
+        <v>35.8158</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.1987</v>
+        <v>22.326</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2361</v>
+        <v>20.5838</v>
       </c>
       <c r="D7" t="n">
-        <v>31.3251</v>
+        <v>30.9138</v>
       </c>
       <c r="E7" t="n">
-        <v>40.1782</v>
+        <v>39.9519</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.091</v>
+        <v>25.1761</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5119</v>
+        <v>22.9422</v>
       </c>
       <c r="D8" t="n">
-        <v>32.9774</v>
+        <v>33.4067</v>
       </c>
       <c r="E8" t="n">
-        <v>43.9359</v>
+        <v>42.679</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9031</v>
+        <v>29.3992</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4803</v>
+        <v>25.2685</v>
       </c>
       <c r="D9" t="n">
-        <v>35.4159</v>
+        <v>36.186</v>
       </c>
       <c r="E9" t="n">
-        <v>46.638</v>
+        <v>45.3423</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.4937</v>
+        <v>25.0996</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5031</v>
+        <v>25.0871</v>
       </c>
       <c r="D10" t="n">
-        <v>29.8675</v>
+        <v>31.6818</v>
       </c>
       <c r="E10" t="n">
-        <v>41.2698</v>
+        <v>43.526</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9527</v>
+        <v>24.4872</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3147</v>
+        <v>24.408</v>
       </c>
       <c r="D11" t="n">
-        <v>29.272</v>
+        <v>29.9056</v>
       </c>
       <c r="E11" t="n">
-        <v>38.6821</v>
+        <v>43.1895</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6152</v>
+        <v>26.2864</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4874</v>
+        <v>24.46</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4234</v>
+        <v>27.0082</v>
       </c>
       <c r="E12" t="n">
-        <v>40.4481</v>
+        <v>41.2278</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.5828</v>
+        <v>27.0625</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4475</v>
+        <v>25.1955</v>
       </c>
       <c r="D13" t="n">
-        <v>30.4716</v>
+        <v>27.2959</v>
       </c>
       <c r="E13" t="n">
-        <v>38.8969</v>
+        <v>39.6036</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3447</v>
+        <v>25.3918</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0231</v>
+        <v>25.8489</v>
       </c>
       <c r="D14" t="n">
-        <v>27.1712</v>
+        <v>24.5678</v>
       </c>
       <c r="E14" t="n">
-        <v>38.2707</v>
+        <v>37.8119</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.6579</v>
+        <v>25.1205</v>
       </c>
       <c r="C15" t="n">
-        <v>26.674</v>
+        <v>26.8109</v>
       </c>
       <c r="D15" t="n">
-        <v>23.945</v>
+        <v>26.6142</v>
       </c>
       <c r="E15" t="n">
-        <v>40.2695</v>
+        <v>38.1043</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0963</v>
+        <v>24.6198</v>
       </c>
       <c r="C16" t="n">
-        <v>27.5171</v>
+        <v>27.4549</v>
       </c>
       <c r="D16" t="n">
-        <v>22.9222</v>
+        <v>24.6419</v>
       </c>
       <c r="E16" t="n">
-        <v>38.1517</v>
+        <v>35.1355</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.5554</v>
+        <v>25.1621</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1241</v>
+        <v>27.9655</v>
       </c>
       <c r="D17" t="n">
-        <v>21.1025</v>
+        <v>23.202</v>
       </c>
       <c r="E17" t="n">
-        <v>33.9998</v>
+        <v>34.6235</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1529</v>
+        <v>14.2008</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5533</v>
+        <v>17.4644</v>
       </c>
       <c r="D2" t="n">
-        <v>21.188</v>
+        <v>21.2126</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9137</v>
+        <v>22.9485</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3294</v>
+        <v>11.5725</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0916</v>
+        <v>12.089</v>
       </c>
       <c r="D3" t="n">
-        <v>21.986</v>
+        <v>21.929</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6231</v>
+        <v>25.7029</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1215</v>
+        <v>14.1874</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2356</v>
+        <v>14.1889</v>
       </c>
       <c r="D4" t="n">
-        <v>26.2949</v>
+        <v>26.5887</v>
       </c>
       <c r="E4" t="n">
-        <v>32.5559</v>
+        <v>32.6881</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2343</v>
+        <v>17.0522</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2245</v>
+        <v>17.1268</v>
       </c>
       <c r="D5" t="n">
-        <v>31.0374</v>
+        <v>30.7574</v>
       </c>
       <c r="E5" t="n">
-        <v>39.4146</v>
+        <v>38.5804</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7255</v>
+        <v>20.4924</v>
       </c>
       <c r="C6" t="n">
-        <v>20.093</v>
+        <v>20.2747</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8574</v>
+        <v>35.0727</v>
       </c>
       <c r="E6" t="n">
-        <v>44.3439</v>
+        <v>43.8391</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2643</v>
+        <v>24.2889</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0235</v>
+        <v>23.0631</v>
       </c>
       <c r="D7" t="n">
-        <v>38.3847</v>
+        <v>38.7467</v>
       </c>
       <c r="E7" t="n">
-        <v>48.6637</v>
+        <v>48.013</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5063</v>
+        <v>27.499</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1838</v>
+        <v>25.3085</v>
       </c>
       <c r="D8" t="n">
-        <v>40.814</v>
+        <v>40.282</v>
       </c>
       <c r="E8" t="n">
-        <v>50.1941</v>
+        <v>51.724</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7398</v>
+        <v>31.8499</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6878</v>
+        <v>27.5407</v>
       </c>
       <c r="D9" t="n">
-        <v>43.1295</v>
+        <v>44.0151</v>
       </c>
       <c r="E9" t="n">
-        <v>54.59</v>
+        <v>53.6526</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7702</v>
+        <v>30.1666</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9083</v>
+        <v>27.3471</v>
       </c>
       <c r="D10" t="n">
-        <v>42.5334</v>
+        <v>42.6769</v>
       </c>
       <c r="E10" t="n">
-        <v>53.9012</v>
+        <v>53.0983</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.714</v>
+        <v>28.1564</v>
       </c>
       <c r="C11" t="n">
-        <v>26.074</v>
+        <v>25.968</v>
       </c>
       <c r="D11" t="n">
-        <v>41.6115</v>
+        <v>41.8435</v>
       </c>
       <c r="E11" t="n">
-        <v>53.4023</v>
+        <v>51.7252</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1008</v>
+        <v>28.9435</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1619</v>
+        <v>26.108</v>
       </c>
       <c r="D12" t="n">
-        <v>42.5284</v>
+        <v>40.5532</v>
       </c>
       <c r="E12" t="n">
-        <v>52.7733</v>
+        <v>53.5347</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.2266</v>
+        <v>29.9008</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8456</v>
+        <v>26.7718</v>
       </c>
       <c r="D13" t="n">
-        <v>41.501</v>
+        <v>40.8721</v>
       </c>
       <c r="E13" t="n">
-        <v>50.5445</v>
+        <v>53.9904</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.8686</v>
+        <v>28.5535</v>
       </c>
       <c r="C14" t="n">
-        <v>27.471</v>
+        <v>27.4264</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1978</v>
+        <v>41.6638</v>
       </c>
       <c r="E14" t="n">
-        <v>53.5972</v>
+        <v>49.3114</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.0834</v>
+        <v>27.6961</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3455</v>
+        <v>28.2883</v>
       </c>
       <c r="D15" t="n">
-        <v>38.2981</v>
+        <v>37.5464</v>
       </c>
       <c r="E15" t="n">
-        <v>51.789</v>
+        <v>52.2209</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.9211</v>
+        <v>28.0149</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0038</v>
+        <v>29.0017</v>
       </c>
       <c r="D16" t="n">
-        <v>35.5719</v>
+        <v>38.0624</v>
       </c>
       <c r="E16" t="n">
-        <v>53.5035</v>
+        <v>52.2193</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.3262</v>
+        <v>28.2724</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8126</v>
+        <v>29.7862</v>
       </c>
       <c r="D17" t="n">
-        <v>38.5816</v>
+        <v>35.0215</v>
       </c>
       <c r="E17" t="n">
-        <v>48.8943</v>
+        <v>51.5925</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.00926</v>
+        <v>3.94296</v>
       </c>
       <c r="C2" t="n">
-        <v>11.384</v>
+        <v>11.3397</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4782</v>
+        <v>13.4869</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7307</v>
+        <v>18.6445</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.58445</v>
+        <v>6.45941</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7413</v>
+        <v>10.3477</v>
       </c>
       <c r="D3" t="n">
-        <v>17.6055</v>
+        <v>17.1073</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8873</v>
+        <v>23.2998</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.39753</v>
+        <v>9.33257</v>
       </c>
       <c r="C4" t="n">
-        <v>12.805</v>
+        <v>12.8318</v>
       </c>
       <c r="D4" t="n">
-        <v>21.6082</v>
+        <v>21.6959</v>
       </c>
       <c r="E4" t="n">
-        <v>30.895</v>
+        <v>30.8092</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3287</v>
+        <v>12.2598</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2173</v>
+        <v>15.286</v>
       </c>
       <c r="D5" t="n">
-        <v>25.2695</v>
+        <v>25.3327</v>
       </c>
       <c r="E5" t="n">
-        <v>37.0159</v>
+        <v>37.0292</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0981</v>
+        <v>15.1206</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8832</v>
+        <v>17.9079</v>
       </c>
       <c r="D6" t="n">
-        <v>29.0453</v>
+        <v>29.2497</v>
       </c>
       <c r="E6" t="n">
-        <v>43.3236</v>
+        <v>43.3062</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9763</v>
+        <v>17.8516</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6526</v>
+        <v>20.6378</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4737</v>
+        <v>32.4856</v>
       </c>
       <c r="E7" t="n">
-        <v>48.7505</v>
+        <v>48.6571</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6622</v>
+        <v>20.7684</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7558</v>
+        <v>23.8176</v>
       </c>
       <c r="D8" t="n">
-        <v>35.3734</v>
+        <v>35.5508</v>
       </c>
       <c r="E8" t="n">
-        <v>53.4361</v>
+        <v>53.5394</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8683</v>
+        <v>23.8099</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2773</v>
+        <v>27.3303</v>
       </c>
       <c r="D9" t="n">
-        <v>39.6976</v>
+        <v>40.0394</v>
       </c>
       <c r="E9" t="n">
-        <v>57.7746</v>
+        <v>57.6845</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3492</v>
+        <v>22.3497</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2505</v>
+        <v>25.5501</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6141</v>
+        <v>33.2598</v>
       </c>
       <c r="E10" t="n">
-        <v>51.32</v>
+        <v>50.2119</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8666</v>
+        <v>22.0804</v>
       </c>
       <c r="C11" t="n">
-        <v>25.367</v>
+        <v>25.4561</v>
       </c>
       <c r="D11" t="n">
-        <v>29.3476</v>
+        <v>28.713</v>
       </c>
       <c r="E11" t="n">
-        <v>48.1825</v>
+        <v>47.0257</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1666</v>
+        <v>22.4071</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4914</v>
+        <v>25.5777</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7061</v>
+        <v>27.2295</v>
       </c>
       <c r="E12" t="n">
-        <v>45.7456</v>
+        <v>44.2669</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6242</v>
+        <v>22.4899</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6098</v>
+        <v>25.8168</v>
       </c>
       <c r="D13" t="n">
-        <v>24.7519</v>
+        <v>24.4469</v>
       </c>
       <c r="E13" t="n">
-        <v>42.3722</v>
+        <v>44.0562</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8071</v>
+        <v>21.8225</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9063</v>
+        <v>25.8478</v>
       </c>
       <c r="D14" t="n">
-        <v>23.5581</v>
+        <v>22.5988</v>
       </c>
       <c r="E14" t="n">
-        <v>40.4488</v>
+        <v>40.5225</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9168</v>
+        <v>22.5842</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4736</v>
+        <v>26.5926</v>
       </c>
       <c r="D15" t="n">
-        <v>22.7177</v>
+        <v>22.6763</v>
       </c>
       <c r="E15" t="n">
-        <v>39.9581</v>
+        <v>38.5422</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.889</v>
+        <v>22.8614</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0966</v>
+        <v>27.0615</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9802</v>
+        <v>21.5197</v>
       </c>
       <c r="E16" t="n">
-        <v>38.278</v>
+        <v>37.7506</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.044</v>
+        <v>22.8778</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7863</v>
+        <v>27.6257</v>
       </c>
       <c r="D17" t="n">
-        <v>19.8407</v>
+        <v>19.479</v>
       </c>
       <c r="E17" t="n">
-        <v>36.2167</v>
+        <v>35.7512</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.09816</v>
+        <v>3.99986</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5378</v>
+        <v>11.4682</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5584</v>
+        <v>13.4667</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9466</v>
+        <v>18.8312</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.45844</v>
+        <v>6.46582</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3837</v>
+        <v>10.4664</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1718</v>
+        <v>17.3937</v>
       </c>
       <c r="E3" t="n">
-        <v>23.348</v>
+        <v>23.4716</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.39986</v>
+        <v>9.41717</v>
       </c>
       <c r="C4" t="n">
-        <v>12.743</v>
+        <v>12.6954</v>
       </c>
       <c r="D4" t="n">
-        <v>21.5981</v>
+        <v>21.6405</v>
       </c>
       <c r="E4" t="n">
-        <v>30.6641</v>
+        <v>30.5821</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1927</v>
+        <v>12.1554</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2037</v>
+        <v>15.2397</v>
       </c>
       <c r="D5" t="n">
-        <v>25.1973</v>
+        <v>25.3858</v>
       </c>
       <c r="E5" t="n">
-        <v>36.8378</v>
+        <v>36.8212</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.137</v>
+        <v>15.0195</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8155</v>
+        <v>17.8634</v>
       </c>
       <c r="D6" t="n">
-        <v>28.9353</v>
+        <v>29.1241</v>
       </c>
       <c r="E6" t="n">
-        <v>42.8287</v>
+        <v>42.7016</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9455</v>
+        <v>17.9844</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6396</v>
+        <v>20.5914</v>
       </c>
       <c r="D7" t="n">
-        <v>32.2084</v>
+        <v>32.5</v>
       </c>
       <c r="E7" t="n">
-        <v>48.2266</v>
+        <v>48.1314</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.722</v>
+        <v>20.5993</v>
       </c>
       <c r="C8" t="n">
-        <v>23.777</v>
+        <v>23.7581</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0226</v>
+        <v>35.0023</v>
       </c>
       <c r="E8" t="n">
-        <v>52.4539</v>
+        <v>52.447</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8737</v>
+        <v>23.8234</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0356</v>
+        <v>27.2943</v>
       </c>
       <c r="D9" t="n">
-        <v>38.9753</v>
+        <v>39.4168</v>
       </c>
       <c r="E9" t="n">
-        <v>56.7018</v>
+        <v>56.9259</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4691</v>
+        <v>22.217</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1435</v>
+        <v>25.575</v>
       </c>
       <c r="D10" t="n">
-        <v>32.3221</v>
+        <v>31.6771</v>
       </c>
       <c r="E10" t="n">
-        <v>49.4117</v>
+        <v>48.5977</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.317</v>
+        <v>21.8626</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5303</v>
+        <v>25.2797</v>
       </c>
       <c r="D11" t="n">
-        <v>28.4459</v>
+        <v>28.7653</v>
       </c>
       <c r="E11" t="n">
-        <v>45.579</v>
+        <v>45.4662</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1162</v>
+        <v>22.3622</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3352</v>
+        <v>25.776</v>
       </c>
       <c r="D12" t="n">
-        <v>26.2917</v>
+        <v>25.9657</v>
       </c>
       <c r="E12" t="n">
-        <v>43.3581</v>
+        <v>42.8056</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6953</v>
+        <v>22.8769</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6283</v>
+        <v>25.9142</v>
       </c>
       <c r="D13" t="n">
-        <v>23.4604</v>
+        <v>23.0953</v>
       </c>
       <c r="E13" t="n">
-        <v>40.9216</v>
+        <v>40.5029</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6708</v>
+        <v>21.8254</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9896</v>
+        <v>26.0784</v>
       </c>
       <c r="D14" t="n">
-        <v>22.6</v>
+        <v>22.5423</v>
       </c>
       <c r="E14" t="n">
-        <v>38.2462</v>
+        <v>39.8854</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9428</v>
+        <v>22.9754</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4726</v>
+        <v>26.4373</v>
       </c>
       <c r="D15" t="n">
-        <v>21.6131</v>
+        <v>21.7917</v>
       </c>
       <c r="E15" t="n">
-        <v>37.462</v>
+        <v>39.2837</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7401</v>
+        <v>22.7107</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0851</v>
+        <v>27.0176</v>
       </c>
       <c r="D16" t="n">
-        <v>20.1223</v>
+        <v>21.1535</v>
       </c>
       <c r="E16" t="n">
-        <v>36.8605</v>
+        <v>36.3079</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.3913</v>
+        <v>22.8663</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6729</v>
+        <v>27.6568</v>
       </c>
       <c r="D17" t="n">
-        <v>19.0741</v>
+        <v>19.2177</v>
       </c>
       <c r="E17" t="n">
-        <v>34.6526</v>
+        <v>33.2402</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.927440000000001</v>
+        <v>8.69852</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7809</v>
+        <v>15.7453</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5646</v>
+        <v>19.5222</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5745</v>
+        <v>22.5232</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1824</v>
+        <v>10.1717</v>
       </c>
       <c r="C3" t="n">
-        <v>11.783</v>
+        <v>11.761</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5296</v>
+        <v>22.5718</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5145</v>
+        <v>27.3945</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2484</v>
+        <v>13.2137</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9714</v>
+        <v>14.1934</v>
       </c>
       <c r="D4" t="n">
-        <v>28.2911</v>
+        <v>28.5941</v>
       </c>
       <c r="E4" t="n">
-        <v>36.307</v>
+        <v>36.4589</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3241</v>
+        <v>16.2555</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4354</v>
+        <v>16.4842</v>
       </c>
       <c r="D5" t="n">
-        <v>33.1016</v>
+        <v>33.2132</v>
       </c>
       <c r="E5" t="n">
-        <v>44.3875</v>
+        <v>44.0828</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4831</v>
+        <v>19.5285</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3538</v>
+        <v>19.3398</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1033</v>
+        <v>38.2696</v>
       </c>
       <c r="E6" t="n">
-        <v>51.7824</v>
+        <v>51.478</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8315</v>
+        <v>22.7766</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1541</v>
+        <v>22.17</v>
       </c>
       <c r="D7" t="n">
-        <v>42.2149</v>
+        <v>42.4104</v>
       </c>
       <c r="E7" t="n">
-        <v>57.6665</v>
+        <v>57.8666</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4678</v>
+        <v>26.5823</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1588</v>
+        <v>25.2688</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2093</v>
+        <v>46.4978</v>
       </c>
       <c r="E8" t="n">
-        <v>63.6054</v>
+        <v>63.4409</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.067</v>
+        <v>31.3864</v>
       </c>
       <c r="C9" t="n">
-        <v>27.88</v>
+        <v>27.9031</v>
       </c>
       <c r="D9" t="n">
-        <v>50.7829</v>
+        <v>51.1583</v>
       </c>
       <c r="E9" t="n">
-        <v>68.4385</v>
+        <v>68.5724</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2175</v>
+        <v>29.1796</v>
       </c>
       <c r="C10" t="n">
-        <v>26.886</v>
+        <v>26.4849</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5613</v>
+        <v>47.6782</v>
       </c>
       <c r="E10" t="n">
-        <v>63.7881</v>
+        <v>63.4494</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.7933</v>
+        <v>28.6231</v>
       </c>
       <c r="C11" t="n">
-        <v>26.7833</v>
+        <v>27.0108</v>
       </c>
       <c r="D11" t="n">
-        <v>44.8279</v>
+        <v>45.4029</v>
       </c>
       <c r="E11" t="n">
-        <v>65.0339</v>
+        <v>64.744</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1437</v>
+        <v>29.1156</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1824</v>
+        <v>27.1535</v>
       </c>
       <c r="D12" t="n">
-        <v>43.475</v>
+        <v>42.9926</v>
       </c>
       <c r="E12" t="n">
-        <v>65.8703</v>
+        <v>65.36020000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7103</v>
+        <v>29.8429</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5101</v>
+        <v>27.6399</v>
       </c>
       <c r="D13" t="n">
-        <v>41.0823</v>
+        <v>41.9059</v>
       </c>
       <c r="E13" t="n">
-        <v>65.7869</v>
+        <v>65.6217</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.866</v>
+        <v>28.8299</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1326</v>
+        <v>28.1235</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1458</v>
+        <v>39.4437</v>
       </c>
       <c r="E14" t="n">
-        <v>64.238</v>
+        <v>65.239</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.5452</v>
+        <v>29.6068</v>
       </c>
       <c r="C15" t="n">
-        <v>28.746</v>
+        <v>28.7834</v>
       </c>
       <c r="D15" t="n">
-        <v>38.0938</v>
+        <v>38.5619</v>
       </c>
       <c r="E15" t="n">
-        <v>65.3678</v>
+        <v>64.95950000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8763</v>
+        <v>29.6176</v>
       </c>
       <c r="C16" t="n">
-        <v>29.533</v>
+        <v>29.5427</v>
       </c>
       <c r="D16" t="n">
-        <v>37.3784</v>
+        <v>37.1465</v>
       </c>
       <c r="E16" t="n">
-        <v>65.5121</v>
+        <v>65.9392</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.5854</v>
+        <v>29.9348</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4026</v>
+        <v>30.3705</v>
       </c>
       <c r="D17" t="n">
-        <v>36.1759</v>
+        <v>35.8819</v>
       </c>
       <c r="E17" t="n">
-        <v>64.5457</v>
+        <v>64.9636</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1975</v>
+        <v>10.1859</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3209</v>
+        <v>15.2651</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7702</v>
+        <v>16.96</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4617</v>
+        <v>19.0742</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.91422</v>
+        <v>10.122</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7193</v>
+        <v>10.9278</v>
       </c>
       <c r="D3" t="n">
-        <v>17.7472</v>
+        <v>16.3086</v>
       </c>
       <c r="E3" t="n">
-        <v>21.4695</v>
+        <v>19.4853</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1238</v>
+        <v>12.4175</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8649</v>
+        <v>12.6869</v>
       </c>
       <c r="D4" t="n">
-        <v>20.8366</v>
+        <v>19.3858</v>
       </c>
       <c r="E4" t="n">
-        <v>26.8929</v>
+        <v>24.1896</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.8732</v>
+        <v>14.7204</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2775</v>
+        <v>15.1652</v>
       </c>
       <c r="D5" t="n">
-        <v>24.2676</v>
+        <v>23.1505</v>
       </c>
       <c r="E5" t="n">
-        <v>31.3688</v>
+        <v>29.483</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0286</v>
+        <v>17.807</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7698</v>
+        <v>18.0699</v>
       </c>
       <c r="D6" t="n">
-        <v>27.8424</v>
+        <v>26.7496</v>
       </c>
       <c r="E6" t="n">
-        <v>36.1967</v>
+        <v>33.6586</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3043</v>
+        <v>21.7248</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7204</v>
+        <v>20.7657</v>
       </c>
       <c r="D7" t="n">
-        <v>31.0751</v>
+        <v>29.3286</v>
       </c>
       <c r="E7" t="n">
-        <v>40.6916</v>
+        <v>38.0301</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.5163</v>
+        <v>24.1167</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8325</v>
+        <v>22.9888</v>
       </c>
       <c r="D8" t="n">
-        <v>32.8694</v>
+        <v>31.8953</v>
       </c>
       <c r="E8" t="n">
-        <v>43.1881</v>
+        <v>40.9683</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.7272</v>
+        <v>29.5403</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4114</v>
+        <v>25.2985</v>
       </c>
       <c r="D9" t="n">
-        <v>36.1029</v>
+        <v>35.1</v>
       </c>
       <c r="E9" t="n">
-        <v>46.1858</v>
+        <v>42.4851</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8617</v>
+        <v>24.5067</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6874</v>
+        <v>24.834</v>
       </c>
       <c r="D10" t="n">
-        <v>32.6511</v>
+        <v>30.2077</v>
       </c>
       <c r="E10" t="n">
-        <v>42.1764</v>
+        <v>41.7091</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4605</v>
+        <v>23.9833</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3135</v>
+        <v>24.2068</v>
       </c>
       <c r="D11" t="n">
-        <v>30.0669</v>
+        <v>29.743</v>
       </c>
       <c r="E11" t="n">
-        <v>38.6242</v>
+        <v>38.7401</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6124</v>
+        <v>25.0435</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7692</v>
+        <v>24.8245</v>
       </c>
       <c r="D12" t="n">
-        <v>29.2607</v>
+        <v>28.9166</v>
       </c>
       <c r="E12" t="n">
-        <v>40.4366</v>
+        <v>41.6914</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.9648</v>
+        <v>26.7496</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1603</v>
+        <v>25.2871</v>
       </c>
       <c r="D13" t="n">
-        <v>26.4062</v>
+        <v>27.2368</v>
       </c>
       <c r="E13" t="n">
-        <v>40.5029</v>
+        <v>41.1391</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.7511</v>
+        <v>25.3192</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0246</v>
+        <v>25.9811</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5</v>
+        <v>27.8662</v>
       </c>
       <c r="E14" t="n">
-        <v>40.3826</v>
+        <v>39.2821</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.7809</v>
+        <v>25.1509</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4983</v>
+        <v>26.5163</v>
       </c>
       <c r="D15" t="n">
-        <v>25.8306</v>
+        <v>26.6013</v>
       </c>
       <c r="E15" t="n">
-        <v>40.1967</v>
+        <v>37.7773</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5594</v>
+        <v>25.0433</v>
       </c>
       <c r="C16" t="n">
-        <v>27.319</v>
+        <v>27.3149</v>
       </c>
       <c r="D16" t="n">
-        <v>24.8345</v>
+        <v>25.5618</v>
       </c>
       <c r="E16" t="n">
-        <v>38.8463</v>
+        <v>38.4581</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7857</v>
+        <v>24.0936</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5776</v>
+        <v>27.9988</v>
       </c>
       <c r="D17" t="n">
-        <v>24.4652</v>
+        <v>26.9297</v>
       </c>
       <c r="E17" t="n">
-        <v>36.9104</v>
+        <v>35.5696</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9188</v>
+        <v>10.8881</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1901</v>
+        <v>15.111</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7133</v>
+        <v>17.0552</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4096</v>
+        <v>19.2624</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3411</v>
+        <v>10.3107</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6478</v>
+        <v>11.1287</v>
       </c>
       <c r="D3" t="n">
-        <v>17.7431</v>
+        <v>16.8803</v>
       </c>
       <c r="E3" t="n">
-        <v>21.6238</v>
+        <v>19.7689</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5873</v>
+        <v>12.3218</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5551</v>
+        <v>12.6645</v>
       </c>
       <c r="D4" t="n">
-        <v>21.2511</v>
+        <v>19.9914</v>
       </c>
       <c r="E4" t="n">
-        <v>27.0509</v>
+        <v>25.4881</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.904</v>
+        <v>14.9154</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9434</v>
+        <v>15.0945</v>
       </c>
       <c r="D5" t="n">
-        <v>24.3969</v>
+        <v>23.2828</v>
       </c>
       <c r="E5" t="n">
-        <v>31.3829</v>
+        <v>29.4806</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2414</v>
+        <v>18.3836</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7066</v>
+        <v>17.8522</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9823</v>
+        <v>26.9177</v>
       </c>
       <c r="E6" t="n">
-        <v>35.8158</v>
+        <v>33.9732</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.326</v>
+        <v>21.4051</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5838</v>
+        <v>20.4772</v>
       </c>
       <c r="D7" t="n">
-        <v>30.9138</v>
+        <v>30.4454</v>
       </c>
       <c r="E7" t="n">
-        <v>39.9519</v>
+        <v>37.8148</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.1761</v>
+        <v>24.3395</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9422</v>
+        <v>22.845</v>
       </c>
       <c r="D8" t="n">
-        <v>33.4067</v>
+        <v>32.6385</v>
       </c>
       <c r="E8" t="n">
-        <v>42.679</v>
+        <v>40.4786</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3992</v>
+        <v>29.2773</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2685</v>
+        <v>25.5597</v>
       </c>
       <c r="D9" t="n">
-        <v>36.186</v>
+        <v>35.0818</v>
       </c>
       <c r="E9" t="n">
-        <v>45.3423</v>
+        <v>43.1681</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0996</v>
+        <v>25.0967</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0871</v>
+        <v>24.8119</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6818</v>
+        <v>30.4502</v>
       </c>
       <c r="E10" t="n">
-        <v>43.526</v>
+        <v>39.6724</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4872</v>
+        <v>25.5038</v>
       </c>
       <c r="C11" t="n">
-        <v>24.408</v>
+        <v>23.9609</v>
       </c>
       <c r="D11" t="n">
-        <v>29.9056</v>
+        <v>28.1032</v>
       </c>
       <c r="E11" t="n">
-        <v>43.1895</v>
+        <v>40.16</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>26.2864</v>
+        <v>25.6368</v>
       </c>
       <c r="C12" t="n">
-        <v>24.46</v>
+        <v>24.5089</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0082</v>
+        <v>26.7229</v>
       </c>
       <c r="E12" t="n">
-        <v>41.2278</v>
+        <v>38.6211</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.0625</v>
+        <v>26.6119</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1955</v>
+        <v>25.3314</v>
       </c>
       <c r="D13" t="n">
-        <v>27.2959</v>
+        <v>26.5884</v>
       </c>
       <c r="E13" t="n">
-        <v>39.6036</v>
+        <v>37.3322</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3918</v>
+        <v>25.2994</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8489</v>
+        <v>25.7308</v>
       </c>
       <c r="D14" t="n">
-        <v>24.5678</v>
+        <v>27.5264</v>
       </c>
       <c r="E14" t="n">
-        <v>37.8119</v>
+        <v>37.4964</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1205</v>
+        <v>24.8189</v>
       </c>
       <c r="C15" t="n">
-        <v>26.8109</v>
+        <v>26.533</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6142</v>
+        <v>25.087</v>
       </c>
       <c r="E15" t="n">
-        <v>38.1043</v>
+        <v>36.4939</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.6198</v>
+        <v>24.7857</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4549</v>
+        <v>27.4968</v>
       </c>
       <c r="D16" t="n">
-        <v>24.6419</v>
+        <v>25.4293</v>
       </c>
       <c r="E16" t="n">
-        <v>35.1355</v>
+        <v>37.6182</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1621</v>
+        <v>25.1847</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9655</v>
+        <v>28.1795</v>
       </c>
       <c r="D17" t="n">
-        <v>23.202</v>
+        <v>23.8223</v>
       </c>
       <c r="E17" t="n">
-        <v>34.6235</v>
+        <v>38.0837</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2008</v>
+        <v>14.1942</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4644</v>
+        <v>17.4747</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2126</v>
+        <v>20.2261</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9485</v>
+        <v>21.7958</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.5725</v>
+        <v>10.9998</v>
       </c>
       <c r="C3" t="n">
-        <v>12.089</v>
+        <v>12.0115</v>
       </c>
       <c r="D3" t="n">
-        <v>21.929</v>
+        <v>20.5582</v>
       </c>
       <c r="E3" t="n">
-        <v>25.7029</v>
+        <v>24.4014</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1874</v>
+        <v>14.0787</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1889</v>
+        <v>14.4048</v>
       </c>
       <c r="D4" t="n">
-        <v>26.5887</v>
+        <v>25.8547</v>
       </c>
       <c r="E4" t="n">
-        <v>32.6881</v>
+        <v>30.7488</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0522</v>
+        <v>17.1174</v>
       </c>
       <c r="C5" t="n">
-        <v>17.1268</v>
+        <v>17.188</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7574</v>
+        <v>29.4633</v>
       </c>
       <c r="E5" t="n">
-        <v>38.5804</v>
+        <v>36.9509</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.4924</v>
+        <v>20.4678</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2747</v>
+        <v>20.2261</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0727</v>
+        <v>33.601</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8391</v>
+        <v>41.896</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2889</v>
+        <v>24.2118</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0631</v>
+        <v>23.1746</v>
       </c>
       <c r="D7" t="n">
-        <v>38.7467</v>
+        <v>38.2661</v>
       </c>
       <c r="E7" t="n">
-        <v>48.013</v>
+        <v>45.7895</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.499</v>
+        <v>27.6033</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3085</v>
+        <v>25.3839</v>
       </c>
       <c r="D8" t="n">
-        <v>40.282</v>
+        <v>39.9963</v>
       </c>
       <c r="E8" t="n">
-        <v>51.724</v>
+        <v>49.8765</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8499</v>
+        <v>31.794</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5407</v>
+        <v>27.7509</v>
       </c>
       <c r="D9" t="n">
-        <v>44.0151</v>
+        <v>42.3684</v>
       </c>
       <c r="E9" t="n">
-        <v>53.6526</v>
+        <v>52.0951</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1666</v>
+        <v>29.7548</v>
       </c>
       <c r="C10" t="n">
-        <v>27.3471</v>
+        <v>27.3072</v>
       </c>
       <c r="D10" t="n">
-        <v>42.6769</v>
+        <v>41.9998</v>
       </c>
       <c r="E10" t="n">
-        <v>53.0983</v>
+        <v>50.9292</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1564</v>
+        <v>28.1834</v>
       </c>
       <c r="C11" t="n">
-        <v>25.968</v>
+        <v>26.1218</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8435</v>
+        <v>41.8384</v>
       </c>
       <c r="E11" t="n">
-        <v>51.7252</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.9435</v>
+        <v>28.7239</v>
       </c>
       <c r="C12" t="n">
-        <v>26.108</v>
+        <v>26.2695</v>
       </c>
       <c r="D12" t="n">
-        <v>40.5532</v>
+        <v>40.4604</v>
       </c>
       <c r="E12" t="n">
-        <v>53.5347</v>
+        <v>52.4899</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9008</v>
+        <v>29.7587</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7718</v>
+        <v>26.8412</v>
       </c>
       <c r="D13" t="n">
-        <v>40.8721</v>
+        <v>39.8471</v>
       </c>
       <c r="E13" t="n">
-        <v>53.9904</v>
+        <v>51.0868</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.5535</v>
+        <v>28.3526</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4264</v>
+        <v>27.5774</v>
       </c>
       <c r="D14" t="n">
-        <v>41.6638</v>
+        <v>40.1371</v>
       </c>
       <c r="E14" t="n">
-        <v>49.3114</v>
+        <v>52.5131</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6961</v>
+        <v>27.6249</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2883</v>
+        <v>28.3938</v>
       </c>
       <c r="D15" t="n">
-        <v>37.5464</v>
+        <v>42.0681</v>
       </c>
       <c r="E15" t="n">
-        <v>52.2209</v>
+        <v>49.2299</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0149</v>
+        <v>28.1076</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0017</v>
+        <v>28.9767</v>
       </c>
       <c r="D16" t="n">
-        <v>38.0624</v>
+        <v>35.4501</v>
       </c>
       <c r="E16" t="n">
-        <v>52.2193</v>
+        <v>49.1432</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.2724</v>
+        <v>27.3628</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7862</v>
+        <v>29.6388</v>
       </c>
       <c r="D17" t="n">
-        <v>35.0215</v>
+        <v>35.1581</v>
       </c>
       <c r="E17" t="n">
-        <v>51.5925</v>
+        <v>49.9703</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94296</v>
+        <v>4.01184</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3397</v>
+        <v>11.4081</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4869</v>
+        <v>12.65</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6445</v>
+        <v>17.0628</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.45941</v>
+        <v>6.60475</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3477</v>
+        <v>10.7241</v>
       </c>
       <c r="D3" t="n">
-        <v>17.1073</v>
+        <v>16.8477</v>
       </c>
       <c r="E3" t="n">
-        <v>23.2998</v>
+        <v>21.3481</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.33257</v>
+        <v>9.40035</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8318</v>
+        <v>12.8152</v>
       </c>
       <c r="D4" t="n">
-        <v>21.6959</v>
+        <v>20.2435</v>
       </c>
       <c r="E4" t="n">
-        <v>30.8092</v>
+        <v>27.602</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2598</v>
+        <v>12.1625</v>
       </c>
       <c r="C5" t="n">
-        <v>15.286</v>
+        <v>15.2671</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3327</v>
+        <v>24.242</v>
       </c>
       <c r="E5" t="n">
-        <v>37.0292</v>
+        <v>33.7558</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1206</v>
+        <v>15.1211</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9079</v>
+        <v>17.9008</v>
       </c>
       <c r="D6" t="n">
-        <v>29.2497</v>
+        <v>27.7873</v>
       </c>
       <c r="E6" t="n">
-        <v>43.3062</v>
+        <v>40.1605</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8516</v>
+        <v>18.0767</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6378</v>
+        <v>20.6456</v>
       </c>
       <c r="D7" t="n">
-        <v>32.4856</v>
+        <v>31.4003</v>
       </c>
       <c r="E7" t="n">
-        <v>48.6571</v>
+        <v>45.6278</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7684</v>
+        <v>20.8706</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8176</v>
+        <v>23.7522</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5508</v>
+        <v>34.6468</v>
       </c>
       <c r="E8" t="n">
-        <v>53.5394</v>
+        <v>50.3805</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8099</v>
+        <v>23.7594</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3303</v>
+        <v>27.3238</v>
       </c>
       <c r="D9" t="n">
-        <v>40.0394</v>
+        <v>39.3049</v>
       </c>
       <c r="E9" t="n">
-        <v>57.6845</v>
+        <v>55.1912</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.3497</v>
+        <v>22.242</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5501</v>
+        <v>25.2698</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2598</v>
+        <v>32.4807</v>
       </c>
       <c r="E10" t="n">
-        <v>50.2119</v>
+        <v>48.8652</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0804</v>
+        <v>22.0176</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4561</v>
+        <v>25.3996</v>
       </c>
       <c r="D11" t="n">
-        <v>28.713</v>
+        <v>29.4907</v>
       </c>
       <c r="E11" t="n">
-        <v>47.0257</v>
+        <v>47.0139</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4071</v>
+        <v>22.189</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5777</v>
+        <v>25.6434</v>
       </c>
       <c r="D12" t="n">
-        <v>27.2295</v>
+        <v>28.4041</v>
       </c>
       <c r="E12" t="n">
-        <v>44.2669</v>
+        <v>45.0537</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4899</v>
+        <v>22.7506</v>
       </c>
       <c r="C13" t="n">
-        <v>25.8168</v>
+        <v>25.7302</v>
       </c>
       <c r="D13" t="n">
-        <v>24.4469</v>
+        <v>26.713</v>
       </c>
       <c r="E13" t="n">
-        <v>44.0562</v>
+        <v>42.2299</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8225</v>
+        <v>21.8834</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8478</v>
+        <v>26.1259</v>
       </c>
       <c r="D14" t="n">
-        <v>22.5988</v>
+        <v>24.38</v>
       </c>
       <c r="E14" t="n">
-        <v>40.5225</v>
+        <v>41.0343</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5842</v>
+        <v>22.96</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5926</v>
+        <v>26.4254</v>
       </c>
       <c r="D15" t="n">
-        <v>22.6763</v>
+        <v>23.1713</v>
       </c>
       <c r="E15" t="n">
-        <v>38.5422</v>
+        <v>39.5318</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8614</v>
+        <v>22.8458</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0615</v>
+        <v>27.0514</v>
       </c>
       <c r="D16" t="n">
-        <v>21.5197</v>
+        <v>22.3567</v>
       </c>
       <c r="E16" t="n">
-        <v>37.7506</v>
+        <v>38.7773</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8778</v>
+        <v>22.5949</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6257</v>
+        <v>27.7263</v>
       </c>
       <c r="D17" t="n">
-        <v>19.479</v>
+        <v>21.8081</v>
       </c>
       <c r="E17" t="n">
-        <v>35.7512</v>
+        <v>35.9495</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99986</v>
+        <v>3.98848</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4682</v>
+        <v>11.4221</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4667</v>
+        <v>12.7184</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8312</v>
+        <v>17.3819</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.46582</v>
+        <v>6.48111</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4664</v>
+        <v>10.5633</v>
       </c>
       <c r="D3" t="n">
-        <v>17.3937</v>
+        <v>15.9775</v>
       </c>
       <c r="E3" t="n">
-        <v>23.4716</v>
+        <v>21.0234</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.41717</v>
+        <v>9.347239999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6954</v>
+        <v>12.7819</v>
       </c>
       <c r="D4" t="n">
-        <v>21.6405</v>
+        <v>20.3966</v>
       </c>
       <c r="E4" t="n">
-        <v>30.5821</v>
+        <v>27.9935</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1554</v>
+        <v>12.1963</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2397</v>
+        <v>15.278</v>
       </c>
       <c r="D5" t="n">
-        <v>25.3858</v>
+        <v>24.4637</v>
       </c>
       <c r="E5" t="n">
-        <v>36.8212</v>
+        <v>34.1555</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0195</v>
+        <v>15.1507</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8634</v>
+        <v>17.9511</v>
       </c>
       <c r="D6" t="n">
-        <v>29.1241</v>
+        <v>28.2684</v>
       </c>
       <c r="E6" t="n">
-        <v>42.7016</v>
+        <v>40.0476</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9844</v>
+        <v>17.7273</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5914</v>
+        <v>20.706</v>
       </c>
       <c r="D7" t="n">
-        <v>32.5</v>
+        <v>31.4418</v>
       </c>
       <c r="E7" t="n">
-        <v>48.1314</v>
+        <v>45.5908</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5993</v>
+        <v>20.7209</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7581</v>
+        <v>23.8183</v>
       </c>
       <c r="D8" t="n">
-        <v>35.0023</v>
+        <v>34.7277</v>
       </c>
       <c r="E8" t="n">
-        <v>52.447</v>
+        <v>49.9051</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8234</v>
+        <v>23.9386</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2943</v>
+        <v>27.3022</v>
       </c>
       <c r="D9" t="n">
-        <v>39.4168</v>
+        <v>38.989</v>
       </c>
       <c r="E9" t="n">
-        <v>56.9259</v>
+        <v>54.7018</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.217</v>
+        <v>21.5693</v>
       </c>
       <c r="C10" t="n">
-        <v>25.575</v>
+        <v>25.6489</v>
       </c>
       <c r="D10" t="n">
-        <v>31.6771</v>
+        <v>33.2546</v>
       </c>
       <c r="E10" t="n">
-        <v>48.5977</v>
+        <v>48.7897</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8626</v>
+        <v>22.0057</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2797</v>
+        <v>25.5572</v>
       </c>
       <c r="D11" t="n">
-        <v>28.7653</v>
+        <v>29.5154</v>
       </c>
       <c r="E11" t="n">
-        <v>45.4662</v>
+        <v>46.2367</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3622</v>
+        <v>22.3821</v>
       </c>
       <c r="C12" t="n">
-        <v>25.776</v>
+        <v>25.9144</v>
       </c>
       <c r="D12" t="n">
-        <v>25.9657</v>
+        <v>27.0784</v>
       </c>
       <c r="E12" t="n">
-        <v>42.8056</v>
+        <v>44.7405</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8769</v>
+        <v>22.6006</v>
       </c>
       <c r="C13" t="n">
-        <v>25.9142</v>
+        <v>25.775</v>
       </c>
       <c r="D13" t="n">
-        <v>23.0953</v>
+        <v>25.066</v>
       </c>
       <c r="E13" t="n">
-        <v>40.5029</v>
+        <v>41.2637</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8254</v>
+        <v>21.7922</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0784</v>
+        <v>26.1063</v>
       </c>
       <c r="D14" t="n">
-        <v>22.5423</v>
+        <v>24.0537</v>
       </c>
       <c r="E14" t="n">
-        <v>39.8854</v>
+        <v>39.6598</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9754</v>
+        <v>22.6978</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4373</v>
+        <v>26.5392</v>
       </c>
       <c r="D15" t="n">
-        <v>21.7917</v>
+        <v>22.7268</v>
       </c>
       <c r="E15" t="n">
-        <v>39.2837</v>
+        <v>38.8849</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7107</v>
+        <v>22.7687</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0176</v>
+        <v>27.152</v>
       </c>
       <c r="D16" t="n">
-        <v>21.1535</v>
+        <v>21.7849</v>
       </c>
       <c r="E16" t="n">
-        <v>36.3079</v>
+        <v>38.0139</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8663</v>
+        <v>22.9175</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6568</v>
+        <v>27.7805</v>
       </c>
       <c r="D17" t="n">
-        <v>19.2177</v>
+        <v>20.1982</v>
       </c>
       <c r="E17" t="n">
-        <v>33.2402</v>
+        <v>35.9429</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69852</v>
+        <v>8.603809999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7453</v>
+        <v>15.7936</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5222</v>
+        <v>18.8042</v>
       </c>
       <c r="E2" t="n">
-        <v>22.5232</v>
+        <v>21.5651</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1717</v>
+        <v>10.1649</v>
       </c>
       <c r="C3" t="n">
-        <v>11.761</v>
+        <v>11.7975</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5718</v>
+        <v>21.3624</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3945</v>
+        <v>25.6161</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2137</v>
+        <v>13.2632</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1934</v>
+        <v>14.1156</v>
       </c>
       <c r="D4" t="n">
-        <v>28.5941</v>
+        <v>27.2748</v>
       </c>
       <c r="E4" t="n">
-        <v>36.4589</v>
+        <v>35.2235</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2555</v>
+        <v>16.4743</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4842</v>
+        <v>16.6144</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2132</v>
+        <v>31.865</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0828</v>
+        <v>41.8916</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5285</v>
+        <v>19.5661</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3398</v>
+        <v>19.4856</v>
       </c>
       <c r="D6" t="n">
-        <v>38.2696</v>
+        <v>37.3992</v>
       </c>
       <c r="E6" t="n">
-        <v>51.478</v>
+        <v>49.1854</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7766</v>
+        <v>22.8027</v>
       </c>
       <c r="C7" t="n">
-        <v>22.17</v>
+        <v>22.2515</v>
       </c>
       <c r="D7" t="n">
-        <v>42.4104</v>
+        <v>41.7189</v>
       </c>
       <c r="E7" t="n">
-        <v>57.8666</v>
+        <v>55.7566</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5823</v>
+        <v>26.368</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2688</v>
+        <v>25.4276</v>
       </c>
       <c r="D8" t="n">
-        <v>46.4978</v>
+        <v>46.0062</v>
       </c>
       <c r="E8" t="n">
-        <v>63.4409</v>
+        <v>61.5294</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3864</v>
+        <v>31.1584</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9031</v>
+        <v>28.1849</v>
       </c>
       <c r="D9" t="n">
-        <v>51.1583</v>
+        <v>50.2484</v>
       </c>
       <c r="E9" t="n">
-        <v>68.5724</v>
+        <v>67.1018</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1796</v>
+        <v>29.4738</v>
       </c>
       <c r="C10" t="n">
-        <v>26.4849</v>
+        <v>27.045</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6782</v>
+        <v>46.4939</v>
       </c>
       <c r="E10" t="n">
-        <v>63.4494</v>
+        <v>63.6451</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6231</v>
+        <v>29.1255</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0108</v>
+        <v>26.8528</v>
       </c>
       <c r="D11" t="n">
-        <v>45.4029</v>
+        <v>43.6135</v>
       </c>
       <c r="E11" t="n">
-        <v>64.744</v>
+        <v>62.3437</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1156</v>
+        <v>29.1255</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1535</v>
+        <v>27.5556</v>
       </c>
       <c r="D12" t="n">
-        <v>42.9926</v>
+        <v>41.7902</v>
       </c>
       <c r="E12" t="n">
-        <v>65.36020000000001</v>
+        <v>64.3312</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8429</v>
+        <v>29.4729</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6399</v>
+        <v>27.6367</v>
       </c>
       <c r="D13" t="n">
-        <v>41.9059</v>
+        <v>39.7277</v>
       </c>
       <c r="E13" t="n">
-        <v>65.6217</v>
+        <v>64.7713</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8299</v>
+        <v>28.4242</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1235</v>
+        <v>28.1793</v>
       </c>
       <c r="D14" t="n">
-        <v>39.4437</v>
+        <v>38.1403</v>
       </c>
       <c r="E14" t="n">
-        <v>65.239</v>
+        <v>62.2306</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.6068</v>
+        <v>29.7114</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7834</v>
+        <v>28.8188</v>
       </c>
       <c r="D15" t="n">
-        <v>38.5619</v>
+        <v>35.8092</v>
       </c>
       <c r="E15" t="n">
-        <v>64.95950000000001</v>
+        <v>64.2685</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6176</v>
+        <v>29.759</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5427</v>
+        <v>29.6305</v>
       </c>
       <c r="D16" t="n">
-        <v>37.1465</v>
+        <v>34.0416</v>
       </c>
       <c r="E16" t="n">
-        <v>65.9392</v>
+        <v>64.5544</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9348</v>
+        <v>30.0593</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3705</v>
+        <v>30.5176</v>
       </c>
       <c r="D17" t="n">
-        <v>35.8819</v>
+        <v>32.4035</v>
       </c>
       <c r="E17" t="n">
-        <v>64.9636</v>
+        <v>64.18940000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1859</v>
+        <v>10.1017</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2651</v>
+        <v>15.2888</v>
       </c>
       <c r="D2" t="n">
-        <v>16.96</v>
+        <v>18.8282</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0742</v>
+        <v>21.4561</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.122</v>
+        <v>10.1438</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9278</v>
+        <v>11.0328</v>
       </c>
       <c r="D3" t="n">
-        <v>16.3086</v>
+        <v>20.7323</v>
       </c>
       <c r="E3" t="n">
-        <v>19.4853</v>
+        <v>24.9949</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4175</v>
+        <v>12.0432</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6869</v>
+        <v>12.7621</v>
       </c>
       <c r="D4" t="n">
-        <v>19.3858</v>
+        <v>25.8703</v>
       </c>
       <c r="E4" t="n">
-        <v>24.1896</v>
+        <v>31.7209</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7204</v>
+        <v>15.1755</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1652</v>
+        <v>15.0479</v>
       </c>
       <c r="D5" t="n">
-        <v>23.1505</v>
+        <v>31.202</v>
       </c>
       <c r="E5" t="n">
-        <v>29.483</v>
+        <v>39.8698</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.807</v>
+        <v>17.8649</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0699</v>
+        <v>17.8903</v>
       </c>
       <c r="D6" t="n">
-        <v>26.7496</v>
+        <v>36.1292</v>
       </c>
       <c r="E6" t="n">
-        <v>33.6586</v>
+        <v>46.0858</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7248</v>
+        <v>21.2029</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7657</v>
+        <v>20.6421</v>
       </c>
       <c r="D7" t="n">
-        <v>29.3286</v>
+        <v>42.1999</v>
       </c>
       <c r="E7" t="n">
-        <v>38.0301</v>
+        <v>51.033</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1167</v>
+        <v>24.1665</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9888</v>
+        <v>22.8781</v>
       </c>
       <c r="D8" t="n">
-        <v>31.8953</v>
+        <v>46.1452</v>
       </c>
       <c r="E8" t="n">
-        <v>40.9683</v>
+        <v>53.4749</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.5403</v>
+        <v>29.7939</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2985</v>
+        <v>25.7277</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1</v>
+        <v>49.5434</v>
       </c>
       <c r="E9" t="n">
-        <v>42.4851</v>
+        <v>59.9529</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5067</v>
+        <v>24.9305</v>
       </c>
       <c r="C10" t="n">
-        <v>24.834</v>
+        <v>24.7058</v>
       </c>
       <c r="D10" t="n">
-        <v>30.2077</v>
+        <v>48.3064</v>
       </c>
       <c r="E10" t="n">
-        <v>41.7091</v>
+        <v>58.6257</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.9833</v>
+        <v>24.5001</v>
       </c>
       <c r="C11" t="n">
-        <v>24.2068</v>
+        <v>24.0618</v>
       </c>
       <c r="D11" t="n">
-        <v>29.743</v>
+        <v>48.6528</v>
       </c>
       <c r="E11" t="n">
-        <v>38.7401</v>
+        <v>61.3207</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0435</v>
+        <v>24.8391</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8245</v>
+        <v>23.8592</v>
       </c>
       <c r="D12" t="n">
-        <v>28.9166</v>
+        <v>49.9347</v>
       </c>
       <c r="E12" t="n">
-        <v>41.6914</v>
+        <v>60.3562</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.7496</v>
+        <v>26.36</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2871</v>
+        <v>25.0272</v>
       </c>
       <c r="D13" t="n">
-        <v>27.2368</v>
+        <v>51.9182</v>
       </c>
       <c r="E13" t="n">
-        <v>41.1391</v>
+        <v>62.3394</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3192</v>
+        <v>24.8388</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9811</v>
+        <v>26.0753</v>
       </c>
       <c r="D14" t="n">
-        <v>27.8662</v>
+        <v>50.853</v>
       </c>
       <c r="E14" t="n">
-        <v>39.2821</v>
+        <v>62.8669</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1509</v>
+        <v>24.715</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5163</v>
+        <v>26.6394</v>
       </c>
       <c r="D15" t="n">
-        <v>26.6013</v>
+        <v>50.9569</v>
       </c>
       <c r="E15" t="n">
-        <v>37.7773</v>
+        <v>68.1009</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0433</v>
+        <v>25.0852</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3149</v>
+        <v>27.2448</v>
       </c>
       <c r="D16" t="n">
-        <v>25.5618</v>
+        <v>53.0977</v>
       </c>
       <c r="E16" t="n">
-        <v>38.4581</v>
+        <v>68.66119999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.0936</v>
+        <v>24.5689</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9988</v>
+        <v>27.7793</v>
       </c>
       <c r="D17" t="n">
-        <v>26.9297</v>
+        <v>53.754</v>
       </c>
       <c r="E17" t="n">
-        <v>35.5696</v>
+        <v>69.1778</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8881</v>
+        <v>10.955</v>
       </c>
       <c r="C2" t="n">
-        <v>15.111</v>
+        <v>15.149</v>
       </c>
       <c r="D2" t="n">
-        <v>17.0552</v>
+        <v>18.705</v>
       </c>
       <c r="E2" t="n">
-        <v>19.2624</v>
+        <v>21.3686</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3107</v>
+        <v>10.2789</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1287</v>
+        <v>10.6941</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8803</v>
+        <v>20.4029</v>
       </c>
       <c r="E3" t="n">
-        <v>19.7689</v>
+        <v>24.3008</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3218</v>
+        <v>12.3516</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6645</v>
+        <v>12.6305</v>
       </c>
       <c r="D4" t="n">
-        <v>19.9914</v>
+        <v>25.4915</v>
       </c>
       <c r="E4" t="n">
-        <v>25.4881</v>
+        <v>31.7788</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.9154</v>
+        <v>14.7762</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0945</v>
+        <v>15.0641</v>
       </c>
       <c r="D5" t="n">
-        <v>23.2828</v>
+        <v>30.0115</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4806</v>
+        <v>38.8499</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3836</v>
+        <v>18.7601</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8522</v>
+        <v>17.732</v>
       </c>
       <c r="D6" t="n">
-        <v>26.9177</v>
+        <v>35.8146</v>
       </c>
       <c r="E6" t="n">
-        <v>33.9732</v>
+        <v>44.7015</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4051</v>
+        <v>21.7915</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4772</v>
+        <v>20.4832</v>
       </c>
       <c r="D7" t="n">
-        <v>30.4454</v>
+        <v>43.4545</v>
       </c>
       <c r="E7" t="n">
-        <v>37.8148</v>
+        <v>49.247</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3395</v>
+        <v>25.0638</v>
       </c>
       <c r="C8" t="n">
-        <v>22.845</v>
+        <v>22.583</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6385</v>
+        <v>46.7166</v>
       </c>
       <c r="E8" t="n">
-        <v>40.4786</v>
+        <v>54.5982</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2773</v>
+        <v>29.2464</v>
       </c>
       <c r="C9" t="n">
-        <v>25.5597</v>
+        <v>25.0772</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0818</v>
+        <v>52.3234</v>
       </c>
       <c r="E9" t="n">
-        <v>43.1681</v>
+        <v>58.9346</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.0967</v>
+        <v>25.3365</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8119</v>
+        <v>25.0555</v>
       </c>
       <c r="D10" t="n">
-        <v>30.4502</v>
+        <v>49.4021</v>
       </c>
       <c r="E10" t="n">
-        <v>39.6724</v>
+        <v>58.6785</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.5038</v>
+        <v>25.1969</v>
       </c>
       <c r="C11" t="n">
-        <v>23.9609</v>
+        <v>23.8711</v>
       </c>
       <c r="D11" t="n">
-        <v>28.1032</v>
+        <v>48.7954</v>
       </c>
       <c r="E11" t="n">
-        <v>40.16</v>
+        <v>56.8323</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6368</v>
+        <v>25.8877</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5089</v>
+        <v>24.6216</v>
       </c>
       <c r="D12" t="n">
-        <v>26.7229</v>
+        <v>49.0894</v>
       </c>
       <c r="E12" t="n">
-        <v>38.6211</v>
+        <v>62.6241</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.6119</v>
+        <v>26.9626</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3314</v>
+        <v>25.076</v>
       </c>
       <c r="D13" t="n">
-        <v>26.5884</v>
+        <v>51.1178</v>
       </c>
       <c r="E13" t="n">
-        <v>37.3322</v>
+        <v>62.3426</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2994</v>
+        <v>25.618</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7308</v>
+        <v>25.731</v>
       </c>
       <c r="D14" t="n">
-        <v>27.5264</v>
+        <v>52.9969</v>
       </c>
       <c r="E14" t="n">
-        <v>37.4964</v>
+        <v>62.9103</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8189</v>
+        <v>25.3508</v>
       </c>
       <c r="C15" t="n">
-        <v>26.533</v>
+        <v>26.6077</v>
       </c>
       <c r="D15" t="n">
-        <v>25.087</v>
+        <v>51.8041</v>
       </c>
       <c r="E15" t="n">
-        <v>36.4939</v>
+        <v>69.2405</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.7857</v>
+        <v>25.0555</v>
       </c>
       <c r="C16" t="n">
-        <v>27.4968</v>
+        <v>27.3382</v>
       </c>
       <c r="D16" t="n">
-        <v>25.4293</v>
+        <v>53.162</v>
       </c>
       <c r="E16" t="n">
-        <v>37.6182</v>
+        <v>70.3319</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1847</v>
+        <v>25.8167</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1795</v>
+        <v>28.0831</v>
       </c>
       <c r="D17" t="n">
-        <v>23.8223</v>
+        <v>52.8028</v>
       </c>
       <c r="E17" t="n">
-        <v>38.0837</v>
+        <v>68.0278</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1942</v>
+        <v>14.2718</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4747</v>
+        <v>17.4381</v>
       </c>
       <c r="D2" t="n">
-        <v>20.2261</v>
+        <v>21.1097</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7958</v>
+        <v>22.818</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9998</v>
+        <v>11.386</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0115</v>
+        <v>12.3639</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5582</v>
+        <v>23.7726</v>
       </c>
       <c r="E3" t="n">
-        <v>24.4014</v>
+        <v>28.2697</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0787</v>
+        <v>14.299</v>
       </c>
       <c r="C4" t="n">
-        <v>14.4048</v>
+        <v>14.2647</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8547</v>
+        <v>31.099</v>
       </c>
       <c r="E4" t="n">
-        <v>30.7488</v>
+        <v>35.8649</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1174</v>
+        <v>16.9745</v>
       </c>
       <c r="C5" t="n">
-        <v>17.188</v>
+        <v>17.0396</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4633</v>
+        <v>36.1756</v>
       </c>
       <c r="E5" t="n">
-        <v>36.9509</v>
+        <v>42.8433</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.4678</v>
+        <v>20.4588</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2261</v>
+        <v>20.2734</v>
       </c>
       <c r="D6" t="n">
-        <v>33.601</v>
+        <v>44.0417</v>
       </c>
       <c r="E6" t="n">
-        <v>41.896</v>
+        <v>49.4667</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2118</v>
+        <v>24.2918</v>
       </c>
       <c r="C7" t="n">
-        <v>23.1746</v>
+        <v>23.0304</v>
       </c>
       <c r="D7" t="n">
-        <v>38.2661</v>
+        <v>51.0595</v>
       </c>
       <c r="E7" t="n">
-        <v>45.7895</v>
+        <v>56.0596</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.6033</v>
+        <v>27.526</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3839</v>
+        <v>25.4364</v>
       </c>
       <c r="D8" t="n">
-        <v>39.9963</v>
+        <v>53.2255</v>
       </c>
       <c r="E8" t="n">
-        <v>49.8765</v>
+        <v>60.5787</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.794</v>
+        <v>31.8269</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7509</v>
+        <v>27.6726</v>
       </c>
       <c r="D9" t="n">
-        <v>42.3684</v>
+        <v>58.2404</v>
       </c>
       <c r="E9" t="n">
-        <v>52.0951</v>
+        <v>64.8133</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7548</v>
+        <v>29.9099</v>
       </c>
       <c r="C10" t="n">
-        <v>27.3072</v>
+        <v>26.9714</v>
       </c>
       <c r="D10" t="n">
-        <v>41.9998</v>
+        <v>56.3896</v>
       </c>
       <c r="E10" t="n">
-        <v>50.9292</v>
+        <v>63.1865</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.1834</v>
+        <v>28.3192</v>
       </c>
       <c r="C11" t="n">
-        <v>26.1218</v>
+        <v>25.9036</v>
       </c>
       <c r="D11" t="n">
-        <v>41.8384</v>
+        <v>57.0276</v>
       </c>
       <c r="E11" t="n">
-        <v>52.57</v>
+        <v>64.6978</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7239</v>
+        <v>28.651</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2695</v>
+        <v>26.1332</v>
       </c>
       <c r="D12" t="n">
-        <v>40.4604</v>
+        <v>55.9186</v>
       </c>
       <c r="E12" t="n">
-        <v>52.4899</v>
+        <v>69.5239</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7587</v>
+        <v>29.7195</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8412</v>
+        <v>26.7367</v>
       </c>
       <c r="D13" t="n">
-        <v>39.8471</v>
+        <v>58.4266</v>
       </c>
       <c r="E13" t="n">
-        <v>51.0868</v>
+        <v>65.9575</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.3526</v>
+        <v>27.831</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5774</v>
+        <v>27.4076</v>
       </c>
       <c r="D14" t="n">
-        <v>40.1371</v>
+        <v>60.6918</v>
       </c>
       <c r="E14" t="n">
-        <v>52.5131</v>
+        <v>64.84610000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.6249</v>
+        <v>27.4587</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3938</v>
+        <v>28.1212</v>
       </c>
       <c r="D15" t="n">
-        <v>42.0681</v>
+        <v>58.3319</v>
       </c>
       <c r="E15" t="n">
-        <v>49.2299</v>
+        <v>67.8018</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.1076</v>
+        <v>27.611</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9767</v>
+        <v>29.0134</v>
       </c>
       <c r="D16" t="n">
-        <v>35.4501</v>
+        <v>58.3435</v>
       </c>
       <c r="E16" t="n">
-        <v>49.1432</v>
+        <v>71.3797</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.3628</v>
+        <v>28.0746</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6388</v>
+        <v>29.7325</v>
       </c>
       <c r="D17" t="n">
-        <v>35.1581</v>
+        <v>58.7278</v>
       </c>
       <c r="E17" t="n">
-        <v>49.9703</v>
+        <v>72.4867</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.01184</v>
+        <v>4.04509</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4081</v>
+        <v>11.421</v>
       </c>
       <c r="D2" t="n">
-        <v>12.65</v>
+        <v>13.6679</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0628</v>
+        <v>18.8478</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.60475</v>
+        <v>6.451</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7241</v>
+        <v>10.358</v>
       </c>
       <c r="D3" t="n">
-        <v>16.8477</v>
+        <v>19.7955</v>
       </c>
       <c r="E3" t="n">
-        <v>21.3481</v>
+        <v>27.2884</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40035</v>
+        <v>9.36121</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8152</v>
+        <v>12.742</v>
       </c>
       <c r="D4" t="n">
-        <v>20.2435</v>
+        <v>26.9384</v>
       </c>
       <c r="E4" t="n">
-        <v>27.602</v>
+        <v>38.2982</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1625</v>
+        <v>12.2654</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2671</v>
+        <v>15.2389</v>
       </c>
       <c r="D5" t="n">
-        <v>24.242</v>
+        <v>33.4251</v>
       </c>
       <c r="E5" t="n">
-        <v>33.7558</v>
+        <v>48.5013</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1211</v>
+        <v>15.0665</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9008</v>
+        <v>17.9096</v>
       </c>
       <c r="D6" t="n">
-        <v>27.7873</v>
+        <v>39.4743</v>
       </c>
       <c r="E6" t="n">
-        <v>40.1605</v>
+        <v>58.5795</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0767</v>
+        <v>17.9081</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6456</v>
+        <v>20.7077</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4003</v>
+        <v>47.1756</v>
       </c>
       <c r="E7" t="n">
-        <v>45.6278</v>
+        <v>68.5839</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8706</v>
+        <v>20.7665</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7522</v>
+        <v>23.7319</v>
       </c>
       <c r="D8" t="n">
-        <v>34.6468</v>
+        <v>52.3439</v>
       </c>
       <c r="E8" t="n">
-        <v>50.3805</v>
+        <v>77.45189999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7594</v>
+        <v>23.7584</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3238</v>
+        <v>27.299</v>
       </c>
       <c r="D9" t="n">
-        <v>39.3049</v>
+        <v>62.8916</v>
       </c>
       <c r="E9" t="n">
-        <v>55.1912</v>
+        <v>86.3657</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.242</v>
+        <v>21.9402</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2698</v>
+        <v>25.4833</v>
       </c>
       <c r="D10" t="n">
-        <v>32.4807</v>
+        <v>57.8934</v>
       </c>
       <c r="E10" t="n">
-        <v>48.8652</v>
+        <v>78.2728</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0176</v>
+        <v>21.6119</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3996</v>
+        <v>25.2888</v>
       </c>
       <c r="D11" t="n">
-        <v>29.4907</v>
+        <v>57.0235</v>
       </c>
       <c r="E11" t="n">
-        <v>47.0139</v>
+        <v>76.9414</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.189</v>
+        <v>22.3705</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6434</v>
+        <v>25.4</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4041</v>
+        <v>57.964</v>
       </c>
       <c r="E12" t="n">
-        <v>45.0537</v>
+        <v>78.843</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7506</v>
+        <v>22.8343</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7302</v>
+        <v>25.9077</v>
       </c>
       <c r="D13" t="n">
-        <v>26.713</v>
+        <v>58.6384</v>
       </c>
       <c r="E13" t="n">
-        <v>42.2299</v>
+        <v>79.4558</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8834</v>
+        <v>21.8426</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1259</v>
+        <v>26.1038</v>
       </c>
       <c r="D14" t="n">
-        <v>24.38</v>
+        <v>57.6467</v>
       </c>
       <c r="E14" t="n">
-        <v>41.0343</v>
+        <v>78.7385</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.96</v>
+        <v>23.0135</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4254</v>
+        <v>26.4628</v>
       </c>
       <c r="D15" t="n">
-        <v>23.1713</v>
+        <v>58.3032</v>
       </c>
       <c r="E15" t="n">
-        <v>39.5318</v>
+        <v>78.4893</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8458</v>
+        <v>22.5959</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0514</v>
+        <v>27.1498</v>
       </c>
       <c r="D16" t="n">
-        <v>22.3567</v>
+        <v>59.4713</v>
       </c>
       <c r="E16" t="n">
-        <v>38.7773</v>
+        <v>79.8616</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5949</v>
+        <v>22.9119</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7263</v>
+        <v>27.7254</v>
       </c>
       <c r="D17" t="n">
-        <v>21.8081</v>
+        <v>58.8818</v>
       </c>
       <c r="E17" t="n">
-        <v>35.9495</v>
+        <v>81.9979</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98848</v>
+        <v>3.99148</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4221</v>
+        <v>11.4676</v>
       </c>
       <c r="D2" t="n">
-        <v>12.7184</v>
+        <v>13.5264</v>
       </c>
       <c r="E2" t="n">
-        <v>17.3819</v>
+        <v>18.8346</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.48111</v>
+        <v>6.52124</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5633</v>
+        <v>10.5238</v>
       </c>
       <c r="D3" t="n">
-        <v>15.9775</v>
+        <v>19.9484</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0234</v>
+        <v>27.2838</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.347239999999999</v>
+        <v>9.36218</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7819</v>
+        <v>12.7033</v>
       </c>
       <c r="D4" t="n">
-        <v>20.3966</v>
+        <v>27.1231</v>
       </c>
       <c r="E4" t="n">
-        <v>27.9935</v>
+        <v>37.8358</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1963</v>
+        <v>12.1675</v>
       </c>
       <c r="C5" t="n">
-        <v>15.278</v>
+        <v>15.2732</v>
       </c>
       <c r="D5" t="n">
-        <v>24.4637</v>
+        <v>34.4003</v>
       </c>
       <c r="E5" t="n">
-        <v>34.1555</v>
+        <v>48.2192</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1507</v>
+        <v>15.0196</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9511</v>
+        <v>17.8635</v>
       </c>
       <c r="D6" t="n">
-        <v>28.2684</v>
+        <v>40.8647</v>
       </c>
       <c r="E6" t="n">
-        <v>40.0476</v>
+        <v>58.5579</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7273</v>
+        <v>17.9918</v>
       </c>
       <c r="C7" t="n">
-        <v>20.706</v>
+        <v>20.5488</v>
       </c>
       <c r="D7" t="n">
-        <v>31.4418</v>
+        <v>46.9174</v>
       </c>
       <c r="E7" t="n">
-        <v>45.5908</v>
+        <v>68.1185</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7209</v>
+        <v>20.8258</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8183</v>
+        <v>23.8198</v>
       </c>
       <c r="D8" t="n">
-        <v>34.7277</v>
+        <v>53.2463</v>
       </c>
       <c r="E8" t="n">
-        <v>49.9051</v>
+        <v>77.3058</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9386</v>
+        <v>23.8375</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3022</v>
+        <v>27.2747</v>
       </c>
       <c r="D9" t="n">
-        <v>38.989</v>
+        <v>64.087</v>
       </c>
       <c r="E9" t="n">
-        <v>54.7018</v>
+        <v>86.6931</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.5693</v>
+        <v>22.4529</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6489</v>
+        <v>25.2023</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2546</v>
+        <v>57.9863</v>
       </c>
       <c r="E10" t="n">
-        <v>48.7897</v>
+        <v>76.46210000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0057</v>
+        <v>21.9545</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5572</v>
+        <v>25.3049</v>
       </c>
       <c r="D11" t="n">
-        <v>29.5154</v>
+        <v>58.108</v>
       </c>
       <c r="E11" t="n">
-        <v>46.2367</v>
+        <v>77.2162</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3821</v>
+        <v>22.3707</v>
       </c>
       <c r="C12" t="n">
-        <v>25.9144</v>
+        <v>25.6016</v>
       </c>
       <c r="D12" t="n">
-        <v>27.0784</v>
+        <v>59.0853</v>
       </c>
       <c r="E12" t="n">
-        <v>44.7405</v>
+        <v>78.6347</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6006</v>
+        <v>22.7503</v>
       </c>
       <c r="C13" t="n">
-        <v>25.775</v>
+        <v>25.6358</v>
       </c>
       <c r="D13" t="n">
-        <v>25.066</v>
+        <v>60.4432</v>
       </c>
       <c r="E13" t="n">
-        <v>41.2637</v>
+        <v>79.52370000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7922</v>
+        <v>21.9232</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1063</v>
+        <v>26.0213</v>
       </c>
       <c r="D14" t="n">
-        <v>24.0537</v>
+        <v>57.9343</v>
       </c>
       <c r="E14" t="n">
-        <v>39.6598</v>
+        <v>79.3523</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6978</v>
+        <v>22.8596</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5392</v>
+        <v>26.4465</v>
       </c>
       <c r="D15" t="n">
-        <v>22.7268</v>
+        <v>59.4114</v>
       </c>
       <c r="E15" t="n">
-        <v>38.8849</v>
+        <v>79.4864</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7687</v>
+        <v>22.8163</v>
       </c>
       <c r="C16" t="n">
-        <v>27.152</v>
+        <v>27.0731</v>
       </c>
       <c r="D16" t="n">
-        <v>21.7849</v>
+        <v>59.4576</v>
       </c>
       <c r="E16" t="n">
-        <v>38.0139</v>
+        <v>79.3706</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9175</v>
+        <v>22.8462</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7805</v>
+        <v>27.8514</v>
       </c>
       <c r="D17" t="n">
-        <v>20.1982</v>
+        <v>59.3668</v>
       </c>
       <c r="E17" t="n">
-        <v>35.9429</v>
+        <v>78.4695</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.603809999999999</v>
+        <v>8.69815</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7936</v>
+        <v>15.7655</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8042</v>
+        <v>19.446</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5651</v>
+        <v>22.4309</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1649</v>
+        <v>10.2799</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7975</v>
+        <v>11.9534</v>
       </c>
       <c r="D3" t="n">
-        <v>21.3624</v>
+        <v>24.7896</v>
       </c>
       <c r="E3" t="n">
-        <v>25.6161</v>
+        <v>29.8263</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2632</v>
+        <v>13.2368</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1156</v>
+        <v>13.9793</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2748</v>
+        <v>33.0142</v>
       </c>
       <c r="E4" t="n">
-        <v>35.2235</v>
+        <v>41.0048</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4743</v>
+        <v>16.3622</v>
       </c>
       <c r="C5" t="n">
-        <v>16.6144</v>
+        <v>16.3944</v>
       </c>
       <c r="D5" t="n">
-        <v>31.865</v>
+        <v>40.6787</v>
       </c>
       <c r="E5" t="n">
-        <v>41.8916</v>
+        <v>52.4054</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5661</v>
+        <v>19.613</v>
       </c>
       <c r="C6" t="n">
-        <v>19.4856</v>
+        <v>19.335</v>
       </c>
       <c r="D6" t="n">
-        <v>37.3992</v>
+        <v>48.5339</v>
       </c>
       <c r="E6" t="n">
-        <v>49.1854</v>
+        <v>63.0455</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8027</v>
+        <v>22.9219</v>
       </c>
       <c r="C7" t="n">
-        <v>22.2515</v>
+        <v>22.0803</v>
       </c>
       <c r="D7" t="n">
-        <v>41.7189</v>
+        <v>55.8275</v>
       </c>
       <c r="E7" t="n">
-        <v>55.7566</v>
+        <v>73.7687</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.368</v>
+        <v>26.5097</v>
       </c>
       <c r="C8" t="n">
-        <v>25.4276</v>
+        <v>25.1354</v>
       </c>
       <c r="D8" t="n">
-        <v>46.0062</v>
+        <v>64.54819999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>61.5294</v>
+        <v>83.6092</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1584</v>
+        <v>31.2268</v>
       </c>
       <c r="C9" t="n">
-        <v>28.1849</v>
+        <v>27.8728</v>
       </c>
       <c r="D9" t="n">
-        <v>50.2484</v>
+        <v>75.4235</v>
       </c>
       <c r="E9" t="n">
-        <v>67.1018</v>
+        <v>94.09310000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4738</v>
+        <v>28.9818</v>
       </c>
       <c r="C10" t="n">
-        <v>27.045</v>
+        <v>26.6965</v>
       </c>
       <c r="D10" t="n">
-        <v>46.4939</v>
+        <v>69.4654</v>
       </c>
       <c r="E10" t="n">
-        <v>63.6451</v>
+        <v>82.55159999999999</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1255</v>
+        <v>28.6518</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8528</v>
+        <v>26.8017</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6135</v>
+        <v>69.6484</v>
       </c>
       <c r="E11" t="n">
-        <v>62.3437</v>
+        <v>85.76349999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1255</v>
+        <v>28.7979</v>
       </c>
       <c r="C12" t="n">
-        <v>27.5556</v>
+        <v>27.0711</v>
       </c>
       <c r="D12" t="n">
-        <v>41.7902</v>
+        <v>71.2563</v>
       </c>
       <c r="E12" t="n">
-        <v>64.3312</v>
+        <v>88.3002</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.4729</v>
+        <v>29.6473</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6367</v>
+        <v>27.6372</v>
       </c>
       <c r="D13" t="n">
-        <v>39.7277</v>
+        <v>71.3793</v>
       </c>
       <c r="E13" t="n">
-        <v>64.7713</v>
+        <v>87.7851</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.4242</v>
+        <v>28.6387</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1793</v>
+        <v>28.0017</v>
       </c>
       <c r="D14" t="n">
-        <v>38.1403</v>
+        <v>71.41930000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>62.2306</v>
+        <v>88.8823</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7114</v>
+        <v>29.7658</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8188</v>
+        <v>28.781</v>
       </c>
       <c r="D15" t="n">
-        <v>35.8092</v>
+        <v>71.9524</v>
       </c>
       <c r="E15" t="n">
-        <v>64.2685</v>
+        <v>90.2238</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.759</v>
+        <v>29.7786</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6305</v>
+        <v>29.5844</v>
       </c>
       <c r="D16" t="n">
-        <v>34.0416</v>
+        <v>72.0256</v>
       </c>
       <c r="E16" t="n">
-        <v>64.5544</v>
+        <v>89.8434</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.0593</v>
+        <v>29.6292</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5176</v>
+        <v>30.4152</v>
       </c>
       <c r="D17" t="n">
-        <v>32.4035</v>
+        <v>73.0985</v>
       </c>
       <c r="E17" t="n">
-        <v>64.18940000000001</v>
+        <v>91.5038</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1017</v>
+        <v>10.1675</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2888</v>
+        <v>15.2558</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8282</v>
+        <v>18.8389</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4561</v>
+        <v>21.454</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1438</v>
+        <v>9.96068</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0328</v>
+        <v>11.1399</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7323</v>
+        <v>20.7055</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9949</v>
+        <v>25.0121</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0432</v>
+        <v>12.1476</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7621</v>
+        <v>12.7754</v>
       </c>
       <c r="D4" t="n">
-        <v>25.8703</v>
+        <v>25.619</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7209</v>
+        <v>32.4803</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1755</v>
+        <v>14.5504</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0479</v>
+        <v>15.1701</v>
       </c>
       <c r="D5" t="n">
-        <v>31.202</v>
+        <v>30.6902</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8698</v>
+        <v>39.7698</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8649</v>
+        <v>17.7641</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8903</v>
+        <v>17.8753</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1292</v>
+        <v>36.3327</v>
       </c>
       <c r="E6" t="n">
-        <v>46.0858</v>
+        <v>45.4683</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2029</v>
+        <v>21.6973</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6421</v>
+        <v>20.6515</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1999</v>
+        <v>41.5651</v>
       </c>
       <c r="E7" t="n">
-        <v>51.033</v>
+        <v>49.3193</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1665</v>
+        <v>24.2141</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8781</v>
+        <v>23.1698</v>
       </c>
       <c r="D8" t="n">
-        <v>46.1452</v>
+        <v>45.503</v>
       </c>
       <c r="E8" t="n">
-        <v>53.4749</v>
+        <v>55.9931</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.7939</v>
+        <v>29.1546</v>
       </c>
       <c r="C9" t="n">
-        <v>25.7277</v>
+        <v>25.4918</v>
       </c>
       <c r="D9" t="n">
-        <v>49.5434</v>
+        <v>50.1541</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9529</v>
+        <v>59.5125</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9305</v>
+        <v>24.857</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7058</v>
+        <v>24.6133</v>
       </c>
       <c r="D10" t="n">
-        <v>48.3064</v>
+        <v>47.6415</v>
       </c>
       <c r="E10" t="n">
-        <v>58.6257</v>
+        <v>57.7695</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5001</v>
+        <v>24.3438</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0618</v>
+        <v>23.7507</v>
       </c>
       <c r="D11" t="n">
-        <v>48.6528</v>
+        <v>47.9672</v>
       </c>
       <c r="E11" t="n">
-        <v>61.3207</v>
+        <v>60.862</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>24.8391</v>
+        <v>25.0094</v>
       </c>
       <c r="C12" t="n">
-        <v>23.8592</v>
+        <v>24.2135</v>
       </c>
       <c r="D12" t="n">
-        <v>49.9347</v>
+        <v>50.7341</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3562</v>
+        <v>61.3753</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.36</v>
+        <v>26.482</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0272</v>
+        <v>25.0643</v>
       </c>
       <c r="D13" t="n">
-        <v>51.9182</v>
+        <v>49.6097</v>
       </c>
       <c r="E13" t="n">
-        <v>62.3394</v>
+        <v>64.3704</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8388</v>
+        <v>25.4353</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0753</v>
+        <v>25.7338</v>
       </c>
       <c r="D14" t="n">
-        <v>50.853</v>
+        <v>53.4695</v>
       </c>
       <c r="E14" t="n">
-        <v>62.8669</v>
+        <v>66.31</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.715</v>
+        <v>24.733</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6394</v>
+        <v>26.7157</v>
       </c>
       <c r="D15" t="n">
-        <v>50.9569</v>
+        <v>52.439</v>
       </c>
       <c r="E15" t="n">
-        <v>68.1009</v>
+        <v>66.3695</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0852</v>
+        <v>25.4281</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2448</v>
+        <v>27.147</v>
       </c>
       <c r="D16" t="n">
-        <v>53.0977</v>
+        <v>50.7005</v>
       </c>
       <c r="E16" t="n">
-        <v>68.66119999999999</v>
+        <v>67.0945</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5689</v>
+        <v>25.2212</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7793</v>
+        <v>27.8702</v>
       </c>
       <c r="D17" t="n">
-        <v>53.754</v>
+        <v>53.1944</v>
       </c>
       <c r="E17" t="n">
-        <v>69.1778</v>
+        <v>64.9327</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.955</v>
+        <v>10.7761</v>
       </c>
       <c r="C2" t="n">
-        <v>15.149</v>
+        <v>15.1117</v>
       </c>
       <c r="D2" t="n">
-        <v>18.705</v>
+        <v>18.6992</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3686</v>
+        <v>21.3398</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2789</v>
+        <v>10.143</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6941</v>
+        <v>10.7508</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4029</v>
+        <v>20.5788</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3008</v>
+        <v>24.6884</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3516</v>
+        <v>12.1497</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6305</v>
+        <v>12.6644</v>
       </c>
       <c r="D4" t="n">
-        <v>25.4915</v>
+        <v>25.7688</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7788</v>
+        <v>32.1996</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7762</v>
+        <v>14.6436</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0641</v>
+        <v>15.1071</v>
       </c>
       <c r="D5" t="n">
-        <v>30.0115</v>
+        <v>31.3184</v>
       </c>
       <c r="E5" t="n">
-        <v>38.8499</v>
+        <v>37.6105</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.7601</v>
+        <v>18.2245</v>
       </c>
       <c r="C6" t="n">
-        <v>17.732</v>
+        <v>17.86</v>
       </c>
       <c r="D6" t="n">
-        <v>35.8146</v>
+        <v>36.5717</v>
       </c>
       <c r="E6" t="n">
-        <v>44.7015</v>
+        <v>44.2962</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7915</v>
+        <v>21.6745</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4832</v>
+        <v>20.4539</v>
       </c>
       <c r="D7" t="n">
-        <v>43.4545</v>
+        <v>42.9026</v>
       </c>
       <c r="E7" t="n">
-        <v>49.247</v>
+        <v>49.6569</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0638</v>
+        <v>25.2705</v>
       </c>
       <c r="C8" t="n">
-        <v>22.583</v>
+        <v>22.851</v>
       </c>
       <c r="D8" t="n">
-        <v>46.7166</v>
+        <v>45.698</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5982</v>
+        <v>56.2664</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2464</v>
+        <v>29.2255</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0772</v>
+        <v>24.8262</v>
       </c>
       <c r="D9" t="n">
-        <v>52.3234</v>
+        <v>51.7819</v>
       </c>
       <c r="E9" t="n">
-        <v>58.9346</v>
+        <v>57.2349</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.3365</v>
+        <v>24.9911</v>
       </c>
       <c r="C10" t="n">
-        <v>25.0555</v>
+        <v>25.1421</v>
       </c>
       <c r="D10" t="n">
-        <v>49.4021</v>
+        <v>49.7571</v>
       </c>
       <c r="E10" t="n">
-        <v>58.6785</v>
+        <v>59.0167</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1969</v>
+        <v>24.6304</v>
       </c>
       <c r="C11" t="n">
-        <v>23.8711</v>
+        <v>24.106</v>
       </c>
       <c r="D11" t="n">
-        <v>48.7954</v>
+        <v>48.9539</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8323</v>
+        <v>60.0843</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8877</v>
+        <v>25.9428</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6216</v>
+        <v>24.5368</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0894</v>
+        <v>48.9283</v>
       </c>
       <c r="E12" t="n">
-        <v>62.6241</v>
+        <v>62.9863</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9626</v>
+        <v>26.4059</v>
       </c>
       <c r="C13" t="n">
-        <v>25.076</v>
+        <v>25.155</v>
       </c>
       <c r="D13" t="n">
-        <v>51.1178</v>
+        <v>51.6569</v>
       </c>
       <c r="E13" t="n">
-        <v>62.3426</v>
+        <v>61.5585</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.618</v>
+        <v>25.6642</v>
       </c>
       <c r="C14" t="n">
-        <v>25.731</v>
+        <v>25.9321</v>
       </c>
       <c r="D14" t="n">
-        <v>52.9969</v>
+        <v>53.0334</v>
       </c>
       <c r="E14" t="n">
-        <v>62.9103</v>
+        <v>64.28270000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3508</v>
+        <v>24.859</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6077</v>
+        <v>26.4075</v>
       </c>
       <c r="D15" t="n">
-        <v>51.8041</v>
+        <v>54.6714</v>
       </c>
       <c r="E15" t="n">
-        <v>69.2405</v>
+        <v>68.3871</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0555</v>
+        <v>24.657</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3382</v>
+        <v>27.3923</v>
       </c>
       <c r="D16" t="n">
-        <v>53.162</v>
+        <v>52.0539</v>
       </c>
       <c r="E16" t="n">
-        <v>70.3319</v>
+        <v>66.32810000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.8167</v>
+        <v>26.2537</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0831</v>
+        <v>27.9927</v>
       </c>
       <c r="D17" t="n">
-        <v>52.8028</v>
+        <v>54.8229</v>
       </c>
       <c r="E17" t="n">
-        <v>68.0278</v>
+        <v>70.0796</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2718</v>
+        <v>14.1422</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4381</v>
+        <v>17.4769</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1097</v>
+        <v>21.1027</v>
       </c>
       <c r="E2" t="n">
-        <v>22.818</v>
+        <v>22.7963</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.386</v>
+        <v>11.0676</v>
       </c>
       <c r="C3" t="n">
-        <v>12.3639</v>
+        <v>12.1134</v>
       </c>
       <c r="D3" t="n">
-        <v>23.7726</v>
+        <v>23.8486</v>
       </c>
       <c r="E3" t="n">
-        <v>28.2697</v>
+        <v>28.0528</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.299</v>
+        <v>14.1633</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2647</v>
+        <v>14.1552</v>
       </c>
       <c r="D4" t="n">
-        <v>31.099</v>
+        <v>31.3779</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8649</v>
+        <v>35.6864</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.9745</v>
+        <v>17.0729</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0396</v>
+        <v>17.0505</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1756</v>
+        <v>37.0393</v>
       </c>
       <c r="E5" t="n">
-        <v>42.8433</v>
+        <v>43.4568</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.4588</v>
+        <v>20.7675</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2734</v>
+        <v>20.049</v>
       </c>
       <c r="D6" t="n">
-        <v>44.0417</v>
+        <v>43.8318</v>
       </c>
       <c r="E6" t="n">
-        <v>49.4667</v>
+        <v>50.7784</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2918</v>
+        <v>24.2841</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0304</v>
+        <v>22.9556</v>
       </c>
       <c r="D7" t="n">
-        <v>51.0595</v>
+        <v>52.3629</v>
       </c>
       <c r="E7" t="n">
-        <v>56.0596</v>
+        <v>54.5381</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.526</v>
+        <v>27.5211</v>
       </c>
       <c r="C8" t="n">
-        <v>25.4364</v>
+        <v>25.4004</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2255</v>
+        <v>54.5232</v>
       </c>
       <c r="E8" t="n">
-        <v>60.5787</v>
+        <v>61.0794</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8269</v>
+        <v>31.7898</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6726</v>
+        <v>27.8514</v>
       </c>
       <c r="D9" t="n">
-        <v>58.2404</v>
+        <v>59.0057</v>
       </c>
       <c r="E9" t="n">
-        <v>64.8133</v>
+        <v>66.7809</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9099</v>
+        <v>30.2191</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9714</v>
+        <v>26.6994</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3896</v>
+        <v>55.3904</v>
       </c>
       <c r="E10" t="n">
-        <v>63.1865</v>
+        <v>65.148</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3192</v>
+        <v>27.9633</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9036</v>
+        <v>25.9467</v>
       </c>
       <c r="D11" t="n">
-        <v>57.0276</v>
+        <v>57.2561</v>
       </c>
       <c r="E11" t="n">
-        <v>64.6978</v>
+        <v>66.1249</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.651</v>
+        <v>28.7032</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1332</v>
+        <v>26.2115</v>
       </c>
       <c r="D12" t="n">
-        <v>55.9186</v>
+        <v>55.7471</v>
       </c>
       <c r="E12" t="n">
-        <v>69.5239</v>
+        <v>69.0487</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7195</v>
+        <v>29.8715</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7367</v>
+        <v>26.7468</v>
       </c>
       <c r="D13" t="n">
-        <v>58.4266</v>
+        <v>59.2402</v>
       </c>
       <c r="E13" t="n">
-        <v>65.9575</v>
+        <v>68.4953</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.831</v>
+        <v>27.856</v>
       </c>
       <c r="C14" t="n">
-        <v>27.4076</v>
+        <v>27.5393</v>
       </c>
       <c r="D14" t="n">
-        <v>60.6918</v>
+        <v>60.9287</v>
       </c>
       <c r="E14" t="n">
-        <v>64.84610000000001</v>
+        <v>67.9104</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.4587</v>
+        <v>27.7135</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1212</v>
+        <v>28.4066</v>
       </c>
       <c r="D15" t="n">
-        <v>58.3319</v>
+        <v>59.4766</v>
       </c>
       <c r="E15" t="n">
-        <v>67.8018</v>
+        <v>64.8215</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.611</v>
+        <v>28.5981</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0134</v>
+        <v>28.9531</v>
       </c>
       <c r="D16" t="n">
-        <v>58.3435</v>
+        <v>60.1227</v>
       </c>
       <c r="E16" t="n">
-        <v>71.3797</v>
+        <v>68.8211</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.0746</v>
+        <v>27.8489</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7325</v>
+        <v>29.7579</v>
       </c>
       <c r="D17" t="n">
-        <v>58.7278</v>
+        <v>59.7061</v>
       </c>
       <c r="E17" t="n">
-        <v>72.4867</v>
+        <v>68.1388</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.04509</v>
+        <v>3.9418</v>
       </c>
       <c r="C2" t="n">
-        <v>11.421</v>
+        <v>11.3296</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6679</v>
+        <v>13.5846</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8478</v>
+        <v>18.7059</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.451</v>
+        <v>6.52931</v>
       </c>
       <c r="C3" t="n">
-        <v>10.358</v>
+        <v>10.4905</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7955</v>
+        <v>19.9666</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2884</v>
+        <v>27.5544</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36121</v>
+        <v>9.407159999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.742</v>
+        <v>12.7101</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9384</v>
+        <v>27.1025</v>
       </c>
       <c r="E4" t="n">
-        <v>38.2982</v>
+        <v>38.2657</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2654</v>
+        <v>12.0855</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2389</v>
+        <v>15.2778</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4251</v>
+        <v>34.0299</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5013</v>
+        <v>48.5251</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0665</v>
+        <v>15.1986</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9096</v>
+        <v>17.9234</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4743</v>
+        <v>40.8371</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5795</v>
+        <v>58.5472</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9081</v>
+        <v>17.8337</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7077</v>
+        <v>20.6131</v>
       </c>
       <c r="D7" t="n">
-        <v>47.1756</v>
+        <v>46.2985</v>
       </c>
       <c r="E7" t="n">
-        <v>68.5839</v>
+        <v>68.6058</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7665</v>
+        <v>20.6557</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7319</v>
+        <v>23.7404</v>
       </c>
       <c r="D8" t="n">
-        <v>52.3439</v>
+        <v>52.6153</v>
       </c>
       <c r="E8" t="n">
-        <v>77.45189999999999</v>
+        <v>78.1533</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7584</v>
+        <v>23.7544</v>
       </c>
       <c r="C9" t="n">
-        <v>27.299</v>
+        <v>27.2639</v>
       </c>
       <c r="D9" t="n">
-        <v>62.8916</v>
+        <v>63.3932</v>
       </c>
       <c r="E9" t="n">
-        <v>86.3657</v>
+        <v>86.5248</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9402</v>
+        <v>21.4805</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4833</v>
+        <v>25.3871</v>
       </c>
       <c r="D10" t="n">
-        <v>57.8934</v>
+        <v>56.4938</v>
       </c>
       <c r="E10" t="n">
-        <v>78.2728</v>
+        <v>77.2205</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6119</v>
+        <v>21.9623</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2888</v>
+        <v>25.1813</v>
       </c>
       <c r="D11" t="n">
-        <v>57.0235</v>
+        <v>57.075</v>
       </c>
       <c r="E11" t="n">
-        <v>76.9414</v>
+        <v>77.1755</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3705</v>
+        <v>22.2465</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4</v>
+        <v>25.3724</v>
       </c>
       <c r="D12" t="n">
-        <v>57.964</v>
+        <v>58.6047</v>
       </c>
       <c r="E12" t="n">
-        <v>78.843</v>
+        <v>79.0835</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8343</v>
+        <v>22.7423</v>
       </c>
       <c r="C13" t="n">
-        <v>25.9077</v>
+        <v>25.8174</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6384</v>
+        <v>59.4507</v>
       </c>
       <c r="E13" t="n">
-        <v>79.4558</v>
+        <v>79.7389</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8426</v>
+        <v>21.88</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1038</v>
+        <v>25.9024</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6467</v>
+        <v>58.192</v>
       </c>
       <c r="E14" t="n">
-        <v>78.7385</v>
+        <v>79.7535</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.0135</v>
+        <v>22.8935</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4628</v>
+        <v>26.4641</v>
       </c>
       <c r="D15" t="n">
-        <v>58.3032</v>
+        <v>59.0967</v>
       </c>
       <c r="E15" t="n">
-        <v>78.4893</v>
+        <v>80.8107</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.5959</v>
+        <v>22.733</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1498</v>
+        <v>27.099</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4713</v>
+        <v>59.9979</v>
       </c>
       <c r="E16" t="n">
-        <v>79.8616</v>
+        <v>81.0258</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9119</v>
+        <v>22.9102</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7254</v>
+        <v>27.6784</v>
       </c>
       <c r="D17" t="n">
-        <v>58.8818</v>
+        <v>59.0149</v>
       </c>
       <c r="E17" t="n">
-        <v>81.9979</v>
+        <v>81.8107</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99148</v>
+        <v>4.06648</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4676</v>
+        <v>11.4916</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5264</v>
+        <v>13.5738</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8346</v>
+        <v>18.9358</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52124</v>
+        <v>6.63986</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5238</v>
+        <v>10.7133</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9484</v>
+        <v>20.6659</v>
       </c>
       <c r="E3" t="n">
-        <v>27.2838</v>
+        <v>27.7031</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36218</v>
+        <v>9.527749999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7033</v>
+        <v>12.8113</v>
       </c>
       <c r="D4" t="n">
-        <v>27.1231</v>
+        <v>27.2475</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8358</v>
+        <v>38.0757</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1675</v>
+        <v>12.2724</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2732</v>
+        <v>15.223</v>
       </c>
       <c r="D5" t="n">
-        <v>34.4003</v>
+        <v>34.512</v>
       </c>
       <c r="E5" t="n">
-        <v>48.2192</v>
+        <v>48.2343</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0196</v>
+        <v>14.8674</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8635</v>
+        <v>17.8843</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8647</v>
+        <v>40.5942</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5579</v>
+        <v>58.365</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9918</v>
+        <v>17.7317</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5488</v>
+        <v>20.6382</v>
       </c>
       <c r="D7" t="n">
-        <v>46.9174</v>
+        <v>47.0153</v>
       </c>
       <c r="E7" t="n">
-        <v>68.1185</v>
+        <v>68.43429999999999</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8258</v>
+        <v>20.8185</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8198</v>
+        <v>23.7981</v>
       </c>
       <c r="D8" t="n">
-        <v>53.2463</v>
+        <v>53.8733</v>
       </c>
       <c r="E8" t="n">
-        <v>77.3058</v>
+        <v>77.48099999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8375</v>
+        <v>23.7151</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2747</v>
+        <v>27.1221</v>
       </c>
       <c r="D9" t="n">
-        <v>64.087</v>
+        <v>63.7423</v>
       </c>
       <c r="E9" t="n">
-        <v>86.6931</v>
+        <v>86.4845</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.4529</v>
+        <v>21.8054</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2023</v>
+        <v>25.4252</v>
       </c>
       <c r="D10" t="n">
-        <v>57.9863</v>
+        <v>58.6781</v>
       </c>
       <c r="E10" t="n">
-        <v>76.46210000000001</v>
+        <v>74.8539</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9545</v>
+        <v>21.7123</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3049</v>
+        <v>25.245</v>
       </c>
       <c r="D11" t="n">
-        <v>58.108</v>
+        <v>57.152</v>
       </c>
       <c r="E11" t="n">
-        <v>77.2162</v>
+        <v>76.691</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.3707</v>
+        <v>22.5621</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6016</v>
+        <v>25.3528</v>
       </c>
       <c r="D12" t="n">
-        <v>59.0853</v>
+        <v>58.023</v>
       </c>
       <c r="E12" t="n">
-        <v>78.6347</v>
+        <v>80.2201</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7503</v>
+        <v>22.6639</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6358</v>
+        <v>25.6282</v>
       </c>
       <c r="D13" t="n">
-        <v>60.4432</v>
+        <v>59.0538</v>
       </c>
       <c r="E13" t="n">
-        <v>79.52370000000001</v>
+        <v>80.0909</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9232</v>
+        <v>21.7847</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0213</v>
+        <v>25.9231</v>
       </c>
       <c r="D14" t="n">
-        <v>57.9343</v>
+        <v>58.9265</v>
       </c>
       <c r="E14" t="n">
-        <v>79.3523</v>
+        <v>79.04179999999999</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8596</v>
+        <v>22.8026</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4465</v>
+        <v>26.4612</v>
       </c>
       <c r="D15" t="n">
-        <v>59.4114</v>
+        <v>59.5896</v>
       </c>
       <c r="E15" t="n">
-        <v>79.4864</v>
+        <v>80.2503</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8163</v>
+        <v>23.0327</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0731</v>
+        <v>27.125</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4576</v>
+        <v>58.5175</v>
       </c>
       <c r="E16" t="n">
-        <v>79.3706</v>
+        <v>81.01739999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8462</v>
+        <v>22.5492</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8514</v>
+        <v>27.7819</v>
       </c>
       <c r="D17" t="n">
-        <v>59.3668</v>
+        <v>59.8968</v>
       </c>
       <c r="E17" t="n">
-        <v>78.4695</v>
+        <v>79.9213</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.69815</v>
+        <v>8.792009999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7655</v>
+        <v>15.76</v>
       </c>
       <c r="D2" t="n">
-        <v>19.446</v>
+        <v>19.4816</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4309</v>
+        <v>22.4624</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2799</v>
+        <v>10.2957</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9534</v>
+        <v>12.1404</v>
       </c>
       <c r="D3" t="n">
-        <v>24.7896</v>
+        <v>25.1947</v>
       </c>
       <c r="E3" t="n">
-        <v>29.8263</v>
+        <v>30.2716</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2368</v>
+        <v>13.2892</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9793</v>
+        <v>14.0603</v>
       </c>
       <c r="D4" t="n">
-        <v>33.0142</v>
+        <v>32.9678</v>
       </c>
       <c r="E4" t="n">
-        <v>41.0048</v>
+        <v>41.4625</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3622</v>
+        <v>16.3304</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3944</v>
+        <v>16.382</v>
       </c>
       <c r="D5" t="n">
-        <v>40.6787</v>
+        <v>40.4314</v>
       </c>
       <c r="E5" t="n">
-        <v>52.4054</v>
+        <v>52.2695</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.613</v>
+        <v>19.6355</v>
       </c>
       <c r="C6" t="n">
-        <v>19.335</v>
+        <v>19.2713</v>
       </c>
       <c r="D6" t="n">
-        <v>48.5339</v>
+        <v>48.0344</v>
       </c>
       <c r="E6" t="n">
-        <v>63.0455</v>
+        <v>63.0191</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9219</v>
+        <v>22.7585</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0803</v>
+        <v>22.1082</v>
       </c>
       <c r="D7" t="n">
-        <v>55.8275</v>
+        <v>55.5855</v>
       </c>
       <c r="E7" t="n">
-        <v>73.7687</v>
+        <v>73.2534</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5097</v>
+        <v>26.4705</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1354</v>
+        <v>25.0174</v>
       </c>
       <c r="D8" t="n">
-        <v>64.54819999999999</v>
+        <v>64.4525</v>
       </c>
       <c r="E8" t="n">
-        <v>83.6092</v>
+        <v>84.453</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2268</v>
+        <v>31.2474</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8728</v>
+        <v>27.7551</v>
       </c>
       <c r="D9" t="n">
-        <v>75.4235</v>
+        <v>75.7054</v>
       </c>
       <c r="E9" t="n">
-        <v>94.09310000000001</v>
+        <v>94.9286</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.9818</v>
+        <v>29.3135</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6965</v>
+        <v>26.8517</v>
       </c>
       <c r="D10" t="n">
-        <v>69.4654</v>
+        <v>69.4392</v>
       </c>
       <c r="E10" t="n">
-        <v>82.55159999999999</v>
+        <v>84.9316</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6518</v>
+        <v>28.9502</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8017</v>
+        <v>26.5417</v>
       </c>
       <c r="D11" t="n">
-        <v>69.6484</v>
+        <v>69.2413</v>
       </c>
       <c r="E11" t="n">
-        <v>85.76349999999999</v>
+        <v>86.5151</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7979</v>
+        <v>29.5183</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0711</v>
+        <v>27.0937</v>
       </c>
       <c r="D12" t="n">
-        <v>71.2563</v>
+        <v>69.53660000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>88.3002</v>
+        <v>88.318</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6473</v>
+        <v>29.8533</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6372</v>
+        <v>27.4979</v>
       </c>
       <c r="D13" t="n">
-        <v>71.3793</v>
+        <v>71.6803</v>
       </c>
       <c r="E13" t="n">
-        <v>87.7851</v>
+        <v>87.37390000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6387</v>
+        <v>28.8618</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0017</v>
+        <v>28.0765</v>
       </c>
       <c r="D14" t="n">
-        <v>71.41930000000001</v>
+        <v>71.3438</v>
       </c>
       <c r="E14" t="n">
-        <v>88.8823</v>
+        <v>87.6734</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.7658</v>
+        <v>29.8358</v>
       </c>
       <c r="C15" t="n">
-        <v>28.781</v>
+        <v>28.7846</v>
       </c>
       <c r="D15" t="n">
-        <v>71.9524</v>
+        <v>71.5985</v>
       </c>
       <c r="E15" t="n">
-        <v>90.2238</v>
+        <v>90.16240000000001</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7786</v>
+        <v>29.6888</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5844</v>
+        <v>29.566</v>
       </c>
       <c r="D16" t="n">
-        <v>72.0256</v>
+        <v>72.9448</v>
       </c>
       <c r="E16" t="n">
-        <v>89.8434</v>
+        <v>90.80029999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.6292</v>
+        <v>29.8316</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4152</v>
+        <v>30.3904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.0985</v>
+        <v>72.01900000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>91.5038</v>
+        <v>91.44889999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1675</v>
+        <v>10.1608</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2558</v>
+        <v>15.2758</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8389</v>
+        <v>18.8285</v>
       </c>
       <c r="E2" t="n">
-        <v>21.454</v>
+        <v>21.4446</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.96068</v>
+        <v>10.0588</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1399</v>
+        <v>10.9826</v>
       </c>
       <c r="D3" t="n">
-        <v>20.7055</v>
+        <v>20.8927</v>
       </c>
       <c r="E3" t="n">
-        <v>25.0121</v>
+        <v>24.6644</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1476</v>
+        <v>12.0628</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7754</v>
+        <v>12.7863</v>
       </c>
       <c r="D4" t="n">
-        <v>25.619</v>
+        <v>25.3835</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4803</v>
+        <v>32.3941</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5504</v>
+        <v>14.6662</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1701</v>
+        <v>15.216</v>
       </c>
       <c r="D5" t="n">
-        <v>30.6902</v>
+        <v>30.322</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7698</v>
+        <v>38.2575</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7641</v>
+        <v>17.7848</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8753</v>
+        <v>17.9344</v>
       </c>
       <c r="D6" t="n">
-        <v>36.3327</v>
+        <v>35.6513</v>
       </c>
       <c r="E6" t="n">
-        <v>45.4683</v>
+        <v>45.2427</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6973</v>
+        <v>21.7042</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6515</v>
+        <v>20.7383</v>
       </c>
       <c r="D7" t="n">
-        <v>41.5651</v>
+        <v>41.5544</v>
       </c>
       <c r="E7" t="n">
-        <v>49.3193</v>
+        <v>49.0619</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.2141</v>
+        <v>24.0024</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1698</v>
+        <v>23.1296</v>
       </c>
       <c r="D8" t="n">
-        <v>45.503</v>
+        <v>44.8766</v>
       </c>
       <c r="E8" t="n">
-        <v>55.9931</v>
+        <v>55.789</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1546</v>
+        <v>28.6108</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4918</v>
+        <v>25.3996</v>
       </c>
       <c r="D9" t="n">
-        <v>50.1541</v>
+        <v>49.533</v>
       </c>
       <c r="E9" t="n">
-        <v>59.5125</v>
+        <v>60.3629</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.857</v>
+        <v>24.7355</v>
       </c>
       <c r="C10" t="n">
-        <v>24.6133</v>
+        <v>24.3313</v>
       </c>
       <c r="D10" t="n">
-        <v>47.6415</v>
+        <v>47.5413</v>
       </c>
       <c r="E10" t="n">
-        <v>57.7695</v>
+        <v>58.8867</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.3438</v>
+        <v>24.9426</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7507</v>
+        <v>24.1004</v>
       </c>
       <c r="D11" t="n">
-        <v>47.9672</v>
+        <v>49.8958</v>
       </c>
       <c r="E11" t="n">
-        <v>60.862</v>
+        <v>60.336</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0094</v>
+        <v>25.2133</v>
       </c>
       <c r="C12" t="n">
-        <v>24.2135</v>
+        <v>24.3351</v>
       </c>
       <c r="D12" t="n">
-        <v>50.7341</v>
+        <v>47.9361</v>
       </c>
       <c r="E12" t="n">
-        <v>61.3753</v>
+        <v>60.5488</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.482</v>
+        <v>25.7038</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0643</v>
+        <v>25.2694</v>
       </c>
       <c r="D13" t="n">
-        <v>49.6097</v>
+        <v>51.8812</v>
       </c>
       <c r="E13" t="n">
-        <v>64.3704</v>
+        <v>61.4969</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.4353</v>
+        <v>24.6064</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7338</v>
+        <v>25.8369</v>
       </c>
       <c r="D14" t="n">
-        <v>53.4695</v>
+        <v>50.0626</v>
       </c>
       <c r="E14" t="n">
-        <v>66.31</v>
+        <v>64.47929999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.733</v>
+        <v>25.0231</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7157</v>
+        <v>26.6192</v>
       </c>
       <c r="D15" t="n">
-        <v>52.439</v>
+        <v>49.7191</v>
       </c>
       <c r="E15" t="n">
-        <v>66.3695</v>
+        <v>66.8159</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4281</v>
+        <v>24.9676</v>
       </c>
       <c r="C16" t="n">
-        <v>27.147</v>
+        <v>27.1122</v>
       </c>
       <c r="D16" t="n">
-        <v>50.7005</v>
+        <v>52.8402</v>
       </c>
       <c r="E16" t="n">
-        <v>67.0945</v>
+        <v>72.387</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.2212</v>
+        <v>25.1013</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8702</v>
+        <v>27.8658</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1944</v>
+        <v>52.0921</v>
       </c>
       <c r="E17" t="n">
-        <v>64.9327</v>
+        <v>67.86239999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.7761</v>
+        <v>10.9513</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1117</v>
+        <v>15.123</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6992</v>
+        <v>18.692</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3398</v>
+        <v>21.3528</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.143</v>
+        <v>10.5088</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7508</v>
+        <v>11.0938</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5788</v>
+        <v>20.6506</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6884</v>
+        <v>24.9496</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1497</v>
+        <v>12.3916</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6644</v>
+        <v>12.8054</v>
       </c>
       <c r="D4" t="n">
-        <v>25.7688</v>
+        <v>25.2723</v>
       </c>
       <c r="E4" t="n">
-        <v>32.1996</v>
+        <v>31.386</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6436</v>
+        <v>14.5702</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1071</v>
+        <v>15.014</v>
       </c>
       <c r="D5" t="n">
-        <v>31.3184</v>
+        <v>30.3683</v>
       </c>
       <c r="E5" t="n">
-        <v>37.6105</v>
+        <v>37.8659</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2245</v>
+        <v>17.755</v>
       </c>
       <c r="C6" t="n">
-        <v>17.86</v>
+        <v>17.7568</v>
       </c>
       <c r="D6" t="n">
-        <v>36.5717</v>
+        <v>36.359</v>
       </c>
       <c r="E6" t="n">
-        <v>44.2962</v>
+        <v>44.2823</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6745</v>
+        <v>22.4257</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4539</v>
+        <v>20.5678</v>
       </c>
       <c r="D7" t="n">
-        <v>42.9026</v>
+        <v>41.7992</v>
       </c>
       <c r="E7" t="n">
-        <v>49.6569</v>
+        <v>49.1296</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2705</v>
+        <v>24.944</v>
       </c>
       <c r="C8" t="n">
-        <v>22.851</v>
+        <v>22.5101</v>
       </c>
       <c r="D8" t="n">
-        <v>45.698</v>
+        <v>45.3031</v>
       </c>
       <c r="E8" t="n">
-        <v>56.2664</v>
+        <v>55.6315</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2255</v>
+        <v>29.6056</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8262</v>
+        <v>25.4593</v>
       </c>
       <c r="D9" t="n">
-        <v>51.7819</v>
+        <v>51.5703</v>
       </c>
       <c r="E9" t="n">
-        <v>57.2349</v>
+        <v>58.3881</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.9911</v>
+        <v>24.1533</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1421</v>
+        <v>24.8658</v>
       </c>
       <c r="D10" t="n">
-        <v>49.7571</v>
+        <v>48.7844</v>
       </c>
       <c r="E10" t="n">
-        <v>59.0167</v>
+        <v>59.0395</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6304</v>
+        <v>24.6154</v>
       </c>
       <c r="C11" t="n">
-        <v>24.106</v>
+        <v>24.2048</v>
       </c>
       <c r="D11" t="n">
-        <v>48.9539</v>
+        <v>47.9225</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0843</v>
+        <v>58.7915</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.9428</v>
+        <v>25.8164</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5368</v>
+        <v>24.4219</v>
       </c>
       <c r="D12" t="n">
-        <v>48.9283</v>
+        <v>49.2862</v>
       </c>
       <c r="E12" t="n">
-        <v>62.9863</v>
+        <v>63.3299</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.4059</v>
+        <v>26.6832</v>
       </c>
       <c r="C13" t="n">
-        <v>25.155</v>
+        <v>25.4425</v>
       </c>
       <c r="D13" t="n">
-        <v>51.6569</v>
+        <v>50.0163</v>
       </c>
       <c r="E13" t="n">
-        <v>61.5585</v>
+        <v>63.7131</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.6642</v>
+        <v>25.1217</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9321</v>
+        <v>25.895</v>
       </c>
       <c r="D14" t="n">
-        <v>53.0334</v>
+        <v>50.1521</v>
       </c>
       <c r="E14" t="n">
-        <v>64.28270000000001</v>
+        <v>65.074</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.859</v>
+        <v>24.5922</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4075</v>
+        <v>26.7233</v>
       </c>
       <c r="D15" t="n">
-        <v>54.6714</v>
+        <v>53.7167</v>
       </c>
       <c r="E15" t="n">
-        <v>68.3871</v>
+        <v>64.2642</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.657</v>
+        <v>25.3427</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3923</v>
+        <v>27.6299</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0539</v>
+        <v>53.9944</v>
       </c>
       <c r="E16" t="n">
-        <v>66.32810000000001</v>
+        <v>62.7635</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.2537</v>
+        <v>25.7562</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9927</v>
+        <v>27.9988</v>
       </c>
       <c r="D17" t="n">
-        <v>54.8229</v>
+        <v>50.9825</v>
       </c>
       <c r="E17" t="n">
-        <v>70.0796</v>
+        <v>68.319</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1422</v>
+        <v>14.2568</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4769</v>
+        <v>17.4401</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1027</v>
+        <v>21.2513</v>
       </c>
       <c r="E2" t="n">
-        <v>22.7963</v>
+        <v>22.9391</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.0676</v>
+        <v>11.3483</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1134</v>
+        <v>12.2997</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8486</v>
+        <v>24.0626</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0528</v>
+        <v>28.1591</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1633</v>
+        <v>14.2371</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1552</v>
+        <v>14.2943</v>
       </c>
       <c r="D4" t="n">
-        <v>31.3779</v>
+        <v>29.6736</v>
       </c>
       <c r="E4" t="n">
-        <v>35.6864</v>
+        <v>35.8657</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0729</v>
+        <v>17.0728</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0505</v>
+        <v>17.0387</v>
       </c>
       <c r="D5" t="n">
-        <v>37.0393</v>
+        <v>36.2316</v>
       </c>
       <c r="E5" t="n">
-        <v>43.4568</v>
+        <v>41.4438</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7675</v>
+        <v>20.249</v>
       </c>
       <c r="C6" t="n">
-        <v>20.049</v>
+        <v>20.0394</v>
       </c>
       <c r="D6" t="n">
-        <v>43.8318</v>
+        <v>42.0803</v>
       </c>
       <c r="E6" t="n">
-        <v>50.7784</v>
+        <v>49.2204</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2841</v>
+        <v>24.2667</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9556</v>
+        <v>23.2376</v>
       </c>
       <c r="D7" t="n">
-        <v>52.3629</v>
+        <v>50.571</v>
       </c>
       <c r="E7" t="n">
-        <v>54.5381</v>
+        <v>55.0845</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5211</v>
+        <v>27.5488</v>
       </c>
       <c r="C8" t="n">
-        <v>25.4004</v>
+        <v>25.3848</v>
       </c>
       <c r="D8" t="n">
-        <v>54.5232</v>
+        <v>51.7026</v>
       </c>
       <c r="E8" t="n">
-        <v>61.0794</v>
+        <v>59.3372</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7898</v>
+        <v>31.8418</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8514</v>
+        <v>27.7447</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0057</v>
+        <v>57.7555</v>
       </c>
       <c r="E9" t="n">
-        <v>66.7809</v>
+        <v>64.3419</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2191</v>
+        <v>30.2279</v>
       </c>
       <c r="C10" t="n">
-        <v>26.6994</v>
+        <v>27.0025</v>
       </c>
       <c r="D10" t="n">
-        <v>55.3904</v>
+        <v>58.1049</v>
       </c>
       <c r="E10" t="n">
-        <v>65.148</v>
+        <v>64.25369999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.9633</v>
+        <v>28.2477</v>
       </c>
       <c r="C11" t="n">
-        <v>25.9467</v>
+        <v>26.192</v>
       </c>
       <c r="D11" t="n">
-        <v>57.2561</v>
+        <v>55.6017</v>
       </c>
       <c r="E11" t="n">
-        <v>66.1249</v>
+        <v>64.8942</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7032</v>
+        <v>28.6739</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2115</v>
+        <v>26.3009</v>
       </c>
       <c r="D12" t="n">
-        <v>55.7471</v>
+        <v>58.8469</v>
       </c>
       <c r="E12" t="n">
-        <v>69.0487</v>
+        <v>65.51139999999999</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8715</v>
+        <v>30.1938</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7468</v>
+        <v>26.575</v>
       </c>
       <c r="D13" t="n">
-        <v>59.2402</v>
+        <v>57.9774</v>
       </c>
       <c r="E13" t="n">
-        <v>68.4953</v>
+        <v>68.9605</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>27.856</v>
+        <v>28.4457</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5393</v>
+        <v>27.5619</v>
       </c>
       <c r="D14" t="n">
-        <v>60.9287</v>
+        <v>60.1578</v>
       </c>
       <c r="E14" t="n">
-        <v>67.9104</v>
+        <v>67.8152</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.7135</v>
+        <v>28.5669</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4066</v>
+        <v>28.3248</v>
       </c>
       <c r="D15" t="n">
-        <v>59.4766</v>
+        <v>58.0206</v>
       </c>
       <c r="E15" t="n">
-        <v>64.8215</v>
+        <v>69.2285</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.5981</v>
+        <v>28.3792</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9531</v>
+        <v>29.1229</v>
       </c>
       <c r="D16" t="n">
-        <v>60.1227</v>
+        <v>59.1645</v>
       </c>
       <c r="E16" t="n">
-        <v>68.8211</v>
+        <v>73.9345</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8489</v>
+        <v>27.8262</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7579</v>
+        <v>29.8356</v>
       </c>
       <c r="D17" t="n">
-        <v>59.7061</v>
+        <v>58.6185</v>
       </c>
       <c r="E17" t="n">
-        <v>68.1388</v>
+        <v>62.6898</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9418</v>
+        <v>3.95186</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3296</v>
+        <v>11.3432</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5846</v>
+        <v>13.5113</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7059</v>
+        <v>18.6179</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52931</v>
+        <v>6.45404</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4905</v>
+        <v>10.3536</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9666</v>
+        <v>19.5311</v>
       </c>
       <c r="E3" t="n">
-        <v>27.5544</v>
+        <v>26.8651</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.407159999999999</v>
+        <v>9.44107</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7101</v>
+        <v>12.8219</v>
       </c>
       <c r="D4" t="n">
-        <v>27.1025</v>
+        <v>26.9079</v>
       </c>
       <c r="E4" t="n">
-        <v>38.2657</v>
+        <v>37.3594</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0855</v>
+        <v>12.3749</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2778</v>
+        <v>15.3159</v>
       </c>
       <c r="D5" t="n">
-        <v>34.0299</v>
+        <v>33.0503</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5251</v>
+        <v>47.2425</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1986</v>
+        <v>15.0989</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9234</v>
+        <v>17.9279</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8371</v>
+        <v>39.0919</v>
       </c>
       <c r="E6" t="n">
-        <v>58.5472</v>
+        <v>56.7821</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8337</v>
+        <v>17.8229</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6131</v>
+        <v>20.619</v>
       </c>
       <c r="D7" t="n">
-        <v>46.2985</v>
+        <v>45.4266</v>
       </c>
       <c r="E7" t="n">
-        <v>68.6058</v>
+        <v>65.70869999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6557</v>
+        <v>20.8612</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7404</v>
+        <v>23.7821</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6153</v>
+        <v>51.5431</v>
       </c>
       <c r="E8" t="n">
-        <v>78.1533</v>
+        <v>75.21599999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7544</v>
+        <v>23.6283</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2639</v>
+        <v>27.305</v>
       </c>
       <c r="D9" t="n">
-        <v>63.3932</v>
+        <v>62.1296</v>
       </c>
       <c r="E9" t="n">
-        <v>86.5248</v>
+        <v>85.2246</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4805</v>
+        <v>22.1707</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3871</v>
+        <v>25.6408</v>
       </c>
       <c r="D10" t="n">
-        <v>56.4938</v>
+        <v>56.3568</v>
       </c>
       <c r="E10" t="n">
-        <v>77.2205</v>
+        <v>74.38549999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9623</v>
+        <v>21.855</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1813</v>
+        <v>25.4365</v>
       </c>
       <c r="D11" t="n">
-        <v>57.075</v>
+        <v>56.7296</v>
       </c>
       <c r="E11" t="n">
-        <v>77.1755</v>
+        <v>74.762</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2465</v>
+        <v>21.886</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3724</v>
+        <v>25.5075</v>
       </c>
       <c r="D12" t="n">
-        <v>58.6047</v>
+        <v>56.9709</v>
       </c>
       <c r="E12" t="n">
-        <v>79.0835</v>
+        <v>77.20780000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7423</v>
+        <v>22.9157</v>
       </c>
       <c r="C13" t="n">
-        <v>25.8174</v>
+        <v>25.9489</v>
       </c>
       <c r="D13" t="n">
-        <v>59.4507</v>
+        <v>58.3192</v>
       </c>
       <c r="E13" t="n">
-        <v>79.7389</v>
+        <v>79.2072</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.88</v>
+        <v>21.7908</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9024</v>
+        <v>26.0027</v>
       </c>
       <c r="D14" t="n">
-        <v>58.192</v>
+        <v>57.6526</v>
       </c>
       <c r="E14" t="n">
-        <v>79.7535</v>
+        <v>78.32210000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8935</v>
+        <v>22.8139</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4641</v>
+        <v>26.543</v>
       </c>
       <c r="D15" t="n">
-        <v>59.0967</v>
+        <v>57.9635</v>
       </c>
       <c r="E15" t="n">
-        <v>80.8107</v>
+        <v>77.8583</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.733</v>
+        <v>22.7827</v>
       </c>
       <c r="C16" t="n">
-        <v>27.099</v>
+        <v>27.2296</v>
       </c>
       <c r="D16" t="n">
-        <v>59.9979</v>
+        <v>57.6766</v>
       </c>
       <c r="E16" t="n">
-        <v>81.0258</v>
+        <v>79.7484</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.9102</v>
+        <v>22.2941</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6784</v>
+        <v>27.7889</v>
       </c>
       <c r="D17" t="n">
-        <v>59.0149</v>
+        <v>57.655</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8107</v>
+        <v>78.6027</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.06648</v>
+        <v>3.9735</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4916</v>
+        <v>11.4539</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5738</v>
+        <v>13.5407</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9358</v>
+        <v>18.8575</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.63986</v>
+        <v>6.53706</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7133</v>
+        <v>10.5424</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6659</v>
+        <v>19.8948</v>
       </c>
       <c r="E3" t="n">
-        <v>27.7031</v>
+        <v>26.8321</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.527749999999999</v>
+        <v>9.41174</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8113</v>
+        <v>12.7323</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2475</v>
+        <v>26.8957</v>
       </c>
       <c r="E4" t="n">
-        <v>38.0757</v>
+        <v>36.953</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2724</v>
+        <v>12.2228</v>
       </c>
       <c r="C5" t="n">
-        <v>15.223</v>
+        <v>15.259</v>
       </c>
       <c r="D5" t="n">
-        <v>34.512</v>
+        <v>33.6833</v>
       </c>
       <c r="E5" t="n">
-        <v>48.2343</v>
+        <v>46.9693</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8674</v>
+        <v>15.1681</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8843</v>
+        <v>17.9631</v>
       </c>
       <c r="D6" t="n">
-        <v>40.5942</v>
+        <v>39.6948</v>
       </c>
       <c r="E6" t="n">
-        <v>58.365</v>
+        <v>56.7693</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7317</v>
+        <v>17.8624</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6382</v>
+        <v>20.6402</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0153</v>
+        <v>46.482</v>
       </c>
       <c r="E7" t="n">
-        <v>68.43429999999999</v>
+        <v>66.1096</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8185</v>
+        <v>20.7683</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7981</v>
+        <v>23.7784</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8733</v>
+        <v>52.3932</v>
       </c>
       <c r="E8" t="n">
-        <v>77.48099999999999</v>
+        <v>76.33880000000001</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7151</v>
+        <v>23.7029</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1221</v>
+        <v>27.3393</v>
       </c>
       <c r="D9" t="n">
-        <v>63.7423</v>
+        <v>62.5256</v>
       </c>
       <c r="E9" t="n">
-        <v>86.4845</v>
+        <v>85.8455</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8054</v>
+        <v>21.7366</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4252</v>
+        <v>25.4576</v>
       </c>
       <c r="D10" t="n">
-        <v>58.6781</v>
+        <v>56.9633</v>
       </c>
       <c r="E10" t="n">
-        <v>74.8539</v>
+        <v>76.8147</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7123</v>
+        <v>21.7562</v>
       </c>
       <c r="C11" t="n">
-        <v>25.245</v>
+        <v>25.6984</v>
       </c>
       <c r="D11" t="n">
-        <v>57.152</v>
+        <v>56.4137</v>
       </c>
       <c r="E11" t="n">
-        <v>76.691</v>
+        <v>76.03279999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.5621</v>
+        <v>22.1843</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3528</v>
+        <v>25.5646</v>
       </c>
       <c r="D12" t="n">
-        <v>58.023</v>
+        <v>58.2698</v>
       </c>
       <c r="E12" t="n">
-        <v>80.2201</v>
+        <v>77.58669999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6639</v>
+        <v>22.8492</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6282</v>
+        <v>25.7007</v>
       </c>
       <c r="D13" t="n">
-        <v>59.0538</v>
+        <v>58.1925</v>
       </c>
       <c r="E13" t="n">
-        <v>80.0909</v>
+        <v>78.6773</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7847</v>
+        <v>21.9081</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9231</v>
+        <v>25.9755</v>
       </c>
       <c r="D14" t="n">
-        <v>58.9265</v>
+        <v>56.9614</v>
       </c>
       <c r="E14" t="n">
-        <v>79.04179999999999</v>
+        <v>77.7445</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8026</v>
+        <v>22.8956</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4612</v>
+        <v>26.5471</v>
       </c>
       <c r="D15" t="n">
-        <v>59.5896</v>
+        <v>58.8474</v>
       </c>
       <c r="E15" t="n">
-        <v>80.2503</v>
+        <v>76.9461</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.0327</v>
+        <v>22.7177</v>
       </c>
       <c r="C16" t="n">
-        <v>27.125</v>
+        <v>27.2378</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5175</v>
+        <v>59.4076</v>
       </c>
       <c r="E16" t="n">
-        <v>81.01739999999999</v>
+        <v>79.1125</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5492</v>
+        <v>22.908</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7819</v>
+        <v>27.835</v>
       </c>
       <c r="D17" t="n">
-        <v>59.8968</v>
+        <v>56.0652</v>
       </c>
       <c r="E17" t="n">
-        <v>79.9213</v>
+        <v>78.77419999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.792009999999999</v>
+        <v>8.73611</v>
       </c>
       <c r="C2" t="n">
-        <v>15.76</v>
+        <v>15.7633</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4816</v>
+        <v>19.664</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4624</v>
+        <v>22.6569</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2957</v>
+        <v>10.2095</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1404</v>
+        <v>12.1962</v>
       </c>
       <c r="D3" t="n">
-        <v>25.1947</v>
+        <v>24.8588</v>
       </c>
       <c r="E3" t="n">
-        <v>30.2716</v>
+        <v>29.93</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2892</v>
+        <v>13.2701</v>
       </c>
       <c r="C4" t="n">
-        <v>14.0603</v>
+        <v>14.119</v>
       </c>
       <c r="D4" t="n">
-        <v>32.9678</v>
+        <v>32.7297</v>
       </c>
       <c r="E4" t="n">
-        <v>41.4625</v>
+        <v>40.5162</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3304</v>
+        <v>16.2989</v>
       </c>
       <c r="C5" t="n">
-        <v>16.382</v>
+        <v>16.4417</v>
       </c>
       <c r="D5" t="n">
-        <v>40.4314</v>
+        <v>39.8776</v>
       </c>
       <c r="E5" t="n">
-        <v>52.2695</v>
+        <v>51.2664</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6355</v>
+        <v>19.4744</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2713</v>
+        <v>19.403</v>
       </c>
       <c r="D6" t="n">
-        <v>48.0344</v>
+        <v>47.4212</v>
       </c>
       <c r="E6" t="n">
-        <v>63.0191</v>
+        <v>61.5272</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7585</v>
+        <v>22.8613</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1082</v>
+        <v>22.1213</v>
       </c>
       <c r="D7" t="n">
-        <v>55.5855</v>
+        <v>55.5913</v>
       </c>
       <c r="E7" t="n">
-        <v>73.2534</v>
+        <v>71.43380000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4705</v>
+        <v>26.4054</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0174</v>
+        <v>25.3499</v>
       </c>
       <c r="D8" t="n">
-        <v>64.4525</v>
+        <v>62.9999</v>
       </c>
       <c r="E8" t="n">
-        <v>84.453</v>
+        <v>82.4716</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2474</v>
+        <v>31.3227</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7551</v>
+        <v>27.8567</v>
       </c>
       <c r="D9" t="n">
-        <v>75.7054</v>
+        <v>75.0501</v>
       </c>
       <c r="E9" t="n">
-        <v>94.9286</v>
+        <v>92.9521</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.3135</v>
+        <v>28.9058</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8517</v>
+        <v>26.863</v>
       </c>
       <c r="D10" t="n">
-        <v>69.4392</v>
+        <v>69.2118</v>
       </c>
       <c r="E10" t="n">
-        <v>84.9316</v>
+        <v>84.54770000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.9502</v>
+        <v>29.2033</v>
       </c>
       <c r="C11" t="n">
-        <v>26.5417</v>
+        <v>26.7425</v>
       </c>
       <c r="D11" t="n">
-        <v>69.2413</v>
+        <v>68.4834</v>
       </c>
       <c r="E11" t="n">
-        <v>86.5151</v>
+        <v>84.48009999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.5183</v>
+        <v>29.4165</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0937</v>
+        <v>27.1778</v>
       </c>
       <c r="D12" t="n">
-        <v>69.53660000000001</v>
+        <v>69.9042</v>
       </c>
       <c r="E12" t="n">
-        <v>88.318</v>
+        <v>85.7681</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.8533</v>
+        <v>29.6881</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4979</v>
+        <v>27.5694</v>
       </c>
       <c r="D13" t="n">
-        <v>71.6803</v>
+        <v>70.15470000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>87.37390000000001</v>
+        <v>87.64490000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8618</v>
+        <v>28.7042</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0765</v>
+        <v>28.0739</v>
       </c>
       <c r="D14" t="n">
-        <v>71.3438</v>
+        <v>70.92149999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>87.6734</v>
+        <v>86.73820000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8358</v>
+        <v>30.075</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7846</v>
+        <v>28.8439</v>
       </c>
       <c r="D15" t="n">
-        <v>71.5985</v>
+        <v>70.7101</v>
       </c>
       <c r="E15" t="n">
-        <v>90.16240000000001</v>
+        <v>86.2949</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6888</v>
+        <v>29.7663</v>
       </c>
       <c r="C16" t="n">
-        <v>29.566</v>
+        <v>29.6189</v>
       </c>
       <c r="D16" t="n">
-        <v>72.9448</v>
+        <v>72.349</v>
       </c>
       <c r="E16" t="n">
-        <v>90.80029999999999</v>
+        <v>88.5598</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.8316</v>
+        <v>30.2113</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3904</v>
+        <v>30.4353</v>
       </c>
       <c r="D17" t="n">
-        <v>72.01900000000001</v>
+        <v>71.4469</v>
       </c>
       <c r="E17" t="n">
-        <v>91.44889999999999</v>
+        <v>87.38290000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1608</v>
+        <v>10.2095</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2758</v>
+        <v>15.3186</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8285</v>
+        <v>18.829</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4446</v>
+        <v>21.5248</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0588</v>
+        <v>9.947319999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9826</v>
+        <v>10.691</v>
       </c>
       <c r="D3" t="n">
-        <v>20.8927</v>
+        <v>20.353</v>
       </c>
       <c r="E3" t="n">
-        <v>24.6644</v>
+        <v>24.2558</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.0628</v>
+        <v>12.1678</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7863</v>
+        <v>12.7253</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3835</v>
+        <v>25.1542</v>
       </c>
       <c r="E4" t="n">
-        <v>32.3941</v>
+        <v>31.8016</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.6662</v>
+        <v>14.5161</v>
       </c>
       <c r="C5" t="n">
-        <v>15.216</v>
+        <v>15.2039</v>
       </c>
       <c r="D5" t="n">
-        <v>30.322</v>
+        <v>30.219</v>
       </c>
       <c r="E5" t="n">
-        <v>38.2575</v>
+        <v>37.8329</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7848</v>
+        <v>18.0169</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9344</v>
+        <v>17.9034</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6513</v>
+        <v>34.7439</v>
       </c>
       <c r="E6" t="n">
-        <v>45.2427</v>
+        <v>45.5353</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.7042</v>
+        <v>21.8398</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7383</v>
+        <v>20.2476</v>
       </c>
       <c r="D7" t="n">
-        <v>41.5544</v>
+        <v>41.1043</v>
       </c>
       <c r="E7" t="n">
-        <v>49.0619</v>
+        <v>49.4541</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.0024</v>
+        <v>24.2981</v>
       </c>
       <c r="C8" t="n">
-        <v>23.1296</v>
+        <v>22.841</v>
       </c>
       <c r="D8" t="n">
-        <v>44.8766</v>
+        <v>43.7839</v>
       </c>
       <c r="E8" t="n">
-        <v>55.789</v>
+        <v>54.703</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6108</v>
+        <v>30.0241</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3996</v>
+        <v>25.2888</v>
       </c>
       <c r="D9" t="n">
-        <v>49.533</v>
+        <v>48.57</v>
       </c>
       <c r="E9" t="n">
-        <v>60.3629</v>
+        <v>61.7598</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7355</v>
+        <v>24.5181</v>
       </c>
       <c r="C10" t="n">
-        <v>24.3313</v>
+        <v>24.2572</v>
       </c>
       <c r="D10" t="n">
-        <v>47.5413</v>
+        <v>48.8503</v>
       </c>
       <c r="E10" t="n">
-        <v>58.8867</v>
+        <v>57.7589</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.9426</v>
+        <v>24.4103</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1004</v>
+        <v>24.3569</v>
       </c>
       <c r="D11" t="n">
-        <v>49.8958</v>
+        <v>47.6577</v>
       </c>
       <c r="E11" t="n">
-        <v>60.336</v>
+        <v>59.2826</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2133</v>
+        <v>25.7452</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3351</v>
+        <v>24.5905</v>
       </c>
       <c r="D12" t="n">
-        <v>47.9361</v>
+        <v>48.6211</v>
       </c>
       <c r="E12" t="n">
-        <v>60.5488</v>
+        <v>60.8961</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.7038</v>
+        <v>26.9308</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2694</v>
+        <v>25.3101</v>
       </c>
       <c r="D13" t="n">
-        <v>51.8812</v>
+        <v>50.1184</v>
       </c>
       <c r="E13" t="n">
-        <v>61.4969</v>
+        <v>63.6904</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.6064</v>
+        <v>25.3626</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8369</v>
+        <v>25.8737</v>
       </c>
       <c r="D14" t="n">
-        <v>50.0626</v>
+        <v>49.8243</v>
       </c>
       <c r="E14" t="n">
-        <v>64.47929999999999</v>
+        <v>65.7657</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.0231</v>
+        <v>25.1007</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6192</v>
+        <v>26.6787</v>
       </c>
       <c r="D15" t="n">
-        <v>49.7191</v>
+        <v>50.7182</v>
       </c>
       <c r="E15" t="n">
-        <v>66.8159</v>
+        <v>67.3485</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.9676</v>
+        <v>24.1932</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1122</v>
+        <v>27.3436</v>
       </c>
       <c r="D16" t="n">
-        <v>52.8402</v>
+        <v>50.8252</v>
       </c>
       <c r="E16" t="n">
-        <v>72.387</v>
+        <v>68.1644</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.1013</v>
+        <v>24.6553</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8658</v>
+        <v>28.0187</v>
       </c>
       <c r="D17" t="n">
-        <v>52.0921</v>
+        <v>54.457</v>
       </c>
       <c r="E17" t="n">
-        <v>67.86239999999999</v>
+        <v>67.83750000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9513</v>
+        <v>10.9789</v>
       </c>
       <c r="C2" t="n">
-        <v>15.123</v>
+        <v>15.1286</v>
       </c>
       <c r="D2" t="n">
-        <v>18.692</v>
+        <v>18.7137</v>
       </c>
       <c r="E2" t="n">
-        <v>21.3528</v>
+        <v>21.4244</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.5088</v>
+        <v>10.3632</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0938</v>
+        <v>10.7244</v>
       </c>
       <c r="D3" t="n">
-        <v>20.6506</v>
+        <v>20.3522</v>
       </c>
       <c r="E3" t="n">
-        <v>24.9496</v>
+        <v>24.1826</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3916</v>
+        <v>12.1546</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8054</v>
+        <v>12.7379</v>
       </c>
       <c r="D4" t="n">
-        <v>25.2723</v>
+        <v>25.0258</v>
       </c>
       <c r="E4" t="n">
-        <v>31.386</v>
+        <v>31.7214</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5702</v>
+        <v>15.4184</v>
       </c>
       <c r="C5" t="n">
-        <v>15.014</v>
+        <v>15.0539</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3683</v>
+        <v>30.2697</v>
       </c>
       <c r="E5" t="n">
-        <v>37.8659</v>
+        <v>38.0823</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.755</v>
+        <v>18.1138</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7568</v>
+        <v>17.5356</v>
       </c>
       <c r="D6" t="n">
-        <v>36.359</v>
+        <v>35.9178</v>
       </c>
       <c r="E6" t="n">
-        <v>44.2823</v>
+        <v>44.1971</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.4257</v>
+        <v>21.9276</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5678</v>
+        <v>20.4369</v>
       </c>
       <c r="D7" t="n">
-        <v>41.7992</v>
+        <v>40.7549</v>
       </c>
       <c r="E7" t="n">
-        <v>49.1296</v>
+        <v>50.7634</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.944</v>
+        <v>24.8731</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5101</v>
+        <v>22.6554</v>
       </c>
       <c r="D8" t="n">
-        <v>45.3031</v>
+        <v>45.0337</v>
       </c>
       <c r="E8" t="n">
-        <v>55.6315</v>
+        <v>54.9836</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.6056</v>
+        <v>29.1907</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4593</v>
+        <v>24.8904</v>
       </c>
       <c r="D9" t="n">
-        <v>51.5703</v>
+        <v>50.0662</v>
       </c>
       <c r="E9" t="n">
-        <v>58.3881</v>
+        <v>58.9942</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.1533</v>
+        <v>25.5375</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8658</v>
+        <v>24.8674</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7844</v>
+        <v>48.075</v>
       </c>
       <c r="E10" t="n">
-        <v>59.0395</v>
+        <v>57.9616</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6154</v>
+        <v>24.7125</v>
       </c>
       <c r="C11" t="n">
-        <v>24.2048</v>
+        <v>24.0444</v>
       </c>
       <c r="D11" t="n">
-        <v>47.9225</v>
+        <v>48.5669</v>
       </c>
       <c r="E11" t="n">
-        <v>58.7915</v>
+        <v>57.8973</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8164</v>
+        <v>25.7563</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4219</v>
+        <v>24.5163</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2862</v>
+        <v>51.2707</v>
       </c>
       <c r="E12" t="n">
-        <v>63.3299</v>
+        <v>62.6293</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.6832</v>
+        <v>25.9973</v>
       </c>
       <c r="C13" t="n">
-        <v>25.4425</v>
+        <v>25.2437</v>
       </c>
       <c r="D13" t="n">
-        <v>50.0163</v>
+        <v>51.3482</v>
       </c>
       <c r="E13" t="n">
-        <v>63.7131</v>
+        <v>64.94840000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.1217</v>
+        <v>24.8629</v>
       </c>
       <c r="C14" t="n">
-        <v>25.895</v>
+        <v>25.7358</v>
       </c>
       <c r="D14" t="n">
-        <v>50.1521</v>
+        <v>51.3095</v>
       </c>
       <c r="E14" t="n">
-        <v>65.074</v>
+        <v>65.2139</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.5922</v>
+        <v>25.4638</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7233</v>
+        <v>26.5328</v>
       </c>
       <c r="D15" t="n">
-        <v>53.7167</v>
+        <v>50.5114</v>
       </c>
       <c r="E15" t="n">
-        <v>64.2642</v>
+        <v>65.07689999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3427</v>
+        <v>26.6277</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6299</v>
+        <v>27.2303</v>
       </c>
       <c r="D16" t="n">
-        <v>53.9944</v>
+        <v>51.2261</v>
       </c>
       <c r="E16" t="n">
-        <v>62.7635</v>
+        <v>65.7561</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7562</v>
+        <v>24.7453</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9988</v>
+        <v>27.6863</v>
       </c>
       <c r="D17" t="n">
-        <v>50.9825</v>
+        <v>51.9455</v>
       </c>
       <c r="E17" t="n">
-        <v>68.319</v>
+        <v>63.6506</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2568</v>
+        <v>14.2185</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4401</v>
+        <v>17.5</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2513</v>
+        <v>21.1785</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9391</v>
+        <v>22.9548</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3483</v>
+        <v>11.1953</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2997</v>
+        <v>11.9938</v>
       </c>
       <c r="D3" t="n">
-        <v>24.0626</v>
+        <v>23.736</v>
       </c>
       <c r="E3" t="n">
-        <v>28.1591</v>
+        <v>27.6108</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2371</v>
+        <v>14.2015</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2943</v>
+        <v>14.2453</v>
       </c>
       <c r="D4" t="n">
-        <v>29.6736</v>
+        <v>29.9577</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8657</v>
+        <v>35.4637</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0728</v>
+        <v>17.0725</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0387</v>
+        <v>16.9384</v>
       </c>
       <c r="D5" t="n">
-        <v>36.2316</v>
+        <v>36.073</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4438</v>
+        <v>42.7961</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.249</v>
+        <v>20.7515</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0394</v>
+        <v>20.0651</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0803</v>
+        <v>40.9038</v>
       </c>
       <c r="E6" t="n">
-        <v>49.2204</v>
+        <v>49.4614</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2667</v>
+        <v>24.2372</v>
       </c>
       <c r="C7" t="n">
-        <v>23.2376</v>
+        <v>22.9212</v>
       </c>
       <c r="D7" t="n">
-        <v>50.571</v>
+        <v>46.6008</v>
       </c>
       <c r="E7" t="n">
-        <v>55.0845</v>
+        <v>55.6382</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5488</v>
+        <v>27.5262</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3848</v>
+        <v>24.9873</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7026</v>
+        <v>51.5792</v>
       </c>
       <c r="E8" t="n">
-        <v>59.3372</v>
+        <v>61.8541</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8418</v>
+        <v>31.7237</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7447</v>
+        <v>27.7552</v>
       </c>
       <c r="D9" t="n">
-        <v>57.7555</v>
+        <v>56.6</v>
       </c>
       <c r="E9" t="n">
-        <v>64.3419</v>
+        <v>64.52460000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.2279</v>
+        <v>30.1911</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0025</v>
+        <v>27.0027</v>
       </c>
       <c r="D10" t="n">
-        <v>58.1049</v>
+        <v>56.4771</v>
       </c>
       <c r="E10" t="n">
-        <v>64.25369999999999</v>
+        <v>63.5161</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.2477</v>
+        <v>27.8626</v>
       </c>
       <c r="C11" t="n">
-        <v>26.192</v>
+        <v>25.7794</v>
       </c>
       <c r="D11" t="n">
-        <v>55.6017</v>
+        <v>54.9577</v>
       </c>
       <c r="E11" t="n">
-        <v>64.8942</v>
+        <v>64.5371</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.6739</v>
+        <v>28.7251</v>
       </c>
       <c r="C12" t="n">
-        <v>26.3009</v>
+        <v>26.1334</v>
       </c>
       <c r="D12" t="n">
-        <v>58.8469</v>
+        <v>56.5567</v>
       </c>
       <c r="E12" t="n">
-        <v>65.51139999999999</v>
+        <v>66.20310000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.1938</v>
+        <v>30.0605</v>
       </c>
       <c r="C13" t="n">
-        <v>26.575</v>
+        <v>26.6769</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9774</v>
+        <v>59.3602</v>
       </c>
       <c r="E13" t="n">
-        <v>68.9605</v>
+        <v>65.5856</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.4457</v>
+        <v>28.002</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5619</v>
+        <v>27.5596</v>
       </c>
       <c r="D14" t="n">
-        <v>60.1578</v>
+        <v>56.9293</v>
       </c>
       <c r="E14" t="n">
-        <v>67.8152</v>
+        <v>70.1621</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.5669</v>
+        <v>28.7076</v>
       </c>
       <c r="C15" t="n">
-        <v>28.3248</v>
+        <v>28.261</v>
       </c>
       <c r="D15" t="n">
-        <v>58.0206</v>
+        <v>57.091</v>
       </c>
       <c r="E15" t="n">
-        <v>69.2285</v>
+        <v>68.64149999999999</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3792</v>
+        <v>28.3193</v>
       </c>
       <c r="C16" t="n">
-        <v>29.1229</v>
+        <v>28.9995</v>
       </c>
       <c r="D16" t="n">
-        <v>59.1645</v>
+        <v>59.969</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9345</v>
+        <v>69.5185</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8262</v>
+        <v>28.4519</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8356</v>
+        <v>29.8101</v>
       </c>
       <c r="D17" t="n">
-        <v>58.6185</v>
+        <v>57.8286</v>
       </c>
       <c r="E17" t="n">
-        <v>62.6898</v>
+        <v>68.82810000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95186</v>
+        <v>3.97636</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3432</v>
+        <v>11.3956</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5113</v>
+        <v>13.595</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6179</v>
+        <v>18.7481</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.45404</v>
+        <v>6.57866</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3536</v>
+        <v>10.7134</v>
       </c>
       <c r="D3" t="n">
-        <v>19.5311</v>
+        <v>20.249</v>
       </c>
       <c r="E3" t="n">
-        <v>26.8651</v>
+        <v>27.3275</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.44107</v>
+        <v>9.390940000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8219</v>
+        <v>12.8009</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9079</v>
+        <v>26.4806</v>
       </c>
       <c r="E4" t="n">
-        <v>37.3594</v>
+        <v>37.2253</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3749</v>
+        <v>12.2993</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3159</v>
+        <v>15.2292</v>
       </c>
       <c r="D5" t="n">
-        <v>33.0503</v>
+        <v>33.2072</v>
       </c>
       <c r="E5" t="n">
-        <v>47.2425</v>
+        <v>47.0106</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0989</v>
+        <v>15.1378</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9279</v>
+        <v>17.8384</v>
       </c>
       <c r="D6" t="n">
-        <v>39.0919</v>
+        <v>39.3636</v>
       </c>
       <c r="E6" t="n">
-        <v>56.7821</v>
+        <v>56.6677</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8229</v>
+        <v>18.0669</v>
       </c>
       <c r="C7" t="n">
-        <v>20.619</v>
+        <v>20.5902</v>
       </c>
       <c r="D7" t="n">
-        <v>45.4266</v>
+        <v>45.607</v>
       </c>
       <c r="E7" t="n">
-        <v>65.70869999999999</v>
+        <v>66.0408</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8612</v>
+        <v>20.6451</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7821</v>
+        <v>23.5856</v>
       </c>
       <c r="D8" t="n">
-        <v>51.5431</v>
+        <v>50.9918</v>
       </c>
       <c r="E8" t="n">
-        <v>75.21599999999999</v>
+        <v>75.99379999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6283</v>
+        <v>24.0301</v>
       </c>
       <c r="C9" t="n">
-        <v>27.305</v>
+        <v>27.2369</v>
       </c>
       <c r="D9" t="n">
-        <v>62.1296</v>
+        <v>62.3667</v>
       </c>
       <c r="E9" t="n">
-        <v>85.2246</v>
+        <v>85.3858</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1707</v>
+        <v>21.4186</v>
       </c>
       <c r="C10" t="n">
-        <v>25.6408</v>
+        <v>25.3616</v>
       </c>
       <c r="D10" t="n">
-        <v>56.3568</v>
+        <v>55.2184</v>
       </c>
       <c r="E10" t="n">
-        <v>74.38549999999999</v>
+        <v>73.71850000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.855</v>
+        <v>21.8307</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4365</v>
+        <v>25.2424</v>
       </c>
       <c r="D11" t="n">
-        <v>56.7296</v>
+        <v>55.9502</v>
       </c>
       <c r="E11" t="n">
-        <v>74.762</v>
+        <v>75.929</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.886</v>
+        <v>22.1552</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5075</v>
+        <v>25.2892</v>
       </c>
       <c r="D12" t="n">
-        <v>56.9709</v>
+        <v>57.378</v>
       </c>
       <c r="E12" t="n">
-        <v>77.20780000000001</v>
+        <v>77.6927</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9157</v>
+        <v>22.623</v>
       </c>
       <c r="C13" t="n">
-        <v>25.9489</v>
+        <v>25.6489</v>
       </c>
       <c r="D13" t="n">
-        <v>58.3192</v>
+        <v>59.3013</v>
       </c>
       <c r="E13" t="n">
-        <v>79.2072</v>
+        <v>79.2413</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7908</v>
+        <v>21.7543</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0027</v>
+        <v>25.8445</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6526</v>
+        <v>58.3251</v>
       </c>
       <c r="E14" t="n">
-        <v>78.32210000000001</v>
+        <v>78.0498</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8139</v>
+        <v>22.8083</v>
       </c>
       <c r="C15" t="n">
-        <v>26.543</v>
+        <v>26.4838</v>
       </c>
       <c r="D15" t="n">
-        <v>57.9635</v>
+        <v>58.5575</v>
       </c>
       <c r="E15" t="n">
-        <v>77.8583</v>
+        <v>78.0694</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7827</v>
+        <v>22.7749</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2296</v>
+        <v>27.0954</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6766</v>
+        <v>59.0348</v>
       </c>
       <c r="E16" t="n">
-        <v>79.7484</v>
+        <v>79.3355</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.2941</v>
+        <v>22.1638</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7889</v>
+        <v>27.6655</v>
       </c>
       <c r="D17" t="n">
-        <v>57.655</v>
+        <v>57.6745</v>
       </c>
       <c r="E17" t="n">
-        <v>78.6027</v>
+        <v>78.5583</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.9735</v>
+        <v>4.10914</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4539</v>
+        <v>11.5492</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5407</v>
+        <v>13.5639</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8575</v>
+        <v>18.949</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53706</v>
+        <v>6.52197</v>
       </c>
       <c r="C3" t="n">
-        <v>10.5424</v>
+        <v>10.385</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8948</v>
+        <v>19.6955</v>
       </c>
       <c r="E3" t="n">
-        <v>26.8321</v>
+        <v>26.8823</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.41174</v>
+        <v>9.40448</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7323</v>
+        <v>12.6552</v>
       </c>
       <c r="D4" t="n">
-        <v>26.8957</v>
+        <v>27.0988</v>
       </c>
       <c r="E4" t="n">
-        <v>36.953</v>
+        <v>36.9836</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2228</v>
+        <v>12.0717</v>
       </c>
       <c r="C5" t="n">
-        <v>15.259</v>
+        <v>15.1484</v>
       </c>
       <c r="D5" t="n">
-        <v>33.6833</v>
+        <v>33.3494</v>
       </c>
       <c r="E5" t="n">
-        <v>46.9693</v>
+        <v>46.9215</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1681</v>
+        <v>15.003</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9631</v>
+        <v>17.846</v>
       </c>
       <c r="D6" t="n">
-        <v>39.6948</v>
+        <v>40.0925</v>
       </c>
       <c r="E6" t="n">
-        <v>56.7693</v>
+        <v>56.6992</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8624</v>
+        <v>17.9734</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6402</v>
+        <v>20.5718</v>
       </c>
       <c r="D7" t="n">
-        <v>46.482</v>
+        <v>46.9</v>
       </c>
       <c r="E7" t="n">
-        <v>66.1096</v>
+        <v>66.0129</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7683</v>
+        <v>20.5412</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7784</v>
+        <v>23.7013</v>
       </c>
       <c r="D8" t="n">
-        <v>52.3932</v>
+        <v>52.8907</v>
       </c>
       <c r="E8" t="n">
-        <v>76.33880000000001</v>
+        <v>75.1202</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7029</v>
+        <v>23.8289</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3393</v>
+        <v>26.9993</v>
       </c>
       <c r="D9" t="n">
-        <v>62.5256</v>
+        <v>62.5388</v>
       </c>
       <c r="E9" t="n">
-        <v>85.8455</v>
+        <v>84.798</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7366</v>
+        <v>21.8599</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4576</v>
+        <v>24.956</v>
       </c>
       <c r="D10" t="n">
-        <v>56.9633</v>
+        <v>57.2868</v>
       </c>
       <c r="E10" t="n">
-        <v>76.8147</v>
+        <v>76.88500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7562</v>
+        <v>22.1371</v>
       </c>
       <c r="C11" t="n">
-        <v>25.6984</v>
+        <v>25.2369</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4137</v>
+        <v>56.3294</v>
       </c>
       <c r="E11" t="n">
-        <v>76.03279999999999</v>
+        <v>76.05710000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1843</v>
+        <v>22.1694</v>
       </c>
       <c r="C12" t="n">
-        <v>25.5646</v>
+        <v>25.3987</v>
       </c>
       <c r="D12" t="n">
-        <v>58.2698</v>
+        <v>57.49</v>
       </c>
       <c r="E12" t="n">
-        <v>77.58669999999999</v>
+        <v>76.30500000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8492</v>
+        <v>22.7162</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7007</v>
+        <v>25.7672</v>
       </c>
       <c r="D13" t="n">
-        <v>58.1925</v>
+        <v>59.8206</v>
       </c>
       <c r="E13" t="n">
-        <v>78.6773</v>
+        <v>78.5136</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9081</v>
+        <v>22.0517</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9755</v>
+        <v>25.8645</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9614</v>
+        <v>57.6786</v>
       </c>
       <c r="E14" t="n">
-        <v>77.7445</v>
+        <v>78.2475</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8956</v>
+        <v>22.8495</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5471</v>
+        <v>26.4033</v>
       </c>
       <c r="D15" t="n">
-        <v>58.8474</v>
+        <v>59.2762</v>
       </c>
       <c r="E15" t="n">
-        <v>76.9461</v>
+        <v>77.1242</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7177</v>
+        <v>22.8871</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2378</v>
+        <v>26.9975</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4076</v>
+        <v>58.0772</v>
       </c>
       <c r="E16" t="n">
-        <v>79.1125</v>
+        <v>78.40130000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.908</v>
+        <v>22.4395</v>
       </c>
       <c r="C17" t="n">
-        <v>27.835</v>
+        <v>27.6739</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0652</v>
+        <v>58.4727</v>
       </c>
       <c r="E17" t="n">
-        <v>78.77419999999999</v>
+        <v>78.0286</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.73611</v>
+        <v>8.712199999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7633</v>
+        <v>15.8124</v>
       </c>
       <c r="D2" t="n">
-        <v>19.664</v>
+        <v>19.5038</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6569</v>
+        <v>22.6042</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2095</v>
+        <v>10.2276</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1962</v>
+        <v>11.736</v>
       </c>
       <c r="D3" t="n">
-        <v>24.8588</v>
+        <v>24.3219</v>
       </c>
       <c r="E3" t="n">
-        <v>29.93</v>
+        <v>29.4346</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2701</v>
+        <v>13.2747</v>
       </c>
       <c r="C4" t="n">
-        <v>14.119</v>
+        <v>13.9279</v>
       </c>
       <c r="D4" t="n">
-        <v>32.7297</v>
+        <v>32.3838</v>
       </c>
       <c r="E4" t="n">
-        <v>40.5162</v>
+        <v>40.6352</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2989</v>
+        <v>16.3286</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4417</v>
+        <v>16.333</v>
       </c>
       <c r="D5" t="n">
-        <v>39.8776</v>
+        <v>39.9559</v>
       </c>
       <c r="E5" t="n">
-        <v>51.2664</v>
+        <v>50.7713</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4744</v>
+        <v>19.5323</v>
       </c>
       <c r="C6" t="n">
-        <v>19.403</v>
+        <v>19.2525</v>
       </c>
       <c r="D6" t="n">
-        <v>47.4212</v>
+        <v>47.9036</v>
       </c>
       <c r="E6" t="n">
-        <v>61.5272</v>
+        <v>61.3588</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8613</v>
+        <v>22.7496</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1213</v>
+        <v>22.0317</v>
       </c>
       <c r="D7" t="n">
-        <v>55.5913</v>
+        <v>55.3798</v>
       </c>
       <c r="E7" t="n">
-        <v>71.43380000000001</v>
+        <v>70.8622</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4054</v>
+        <v>26.3813</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3499</v>
+        <v>25.0443</v>
       </c>
       <c r="D8" t="n">
-        <v>62.9999</v>
+        <v>63.192</v>
       </c>
       <c r="E8" t="n">
-        <v>82.4716</v>
+        <v>81.84739999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3227</v>
+        <v>31.11</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8567</v>
+        <v>27.738</v>
       </c>
       <c r="D9" t="n">
-        <v>75.0501</v>
+        <v>74.5903</v>
       </c>
       <c r="E9" t="n">
-        <v>92.9521</v>
+        <v>92.0967</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.9058</v>
+        <v>28.8542</v>
       </c>
       <c r="C10" t="n">
-        <v>26.863</v>
+        <v>26.7376</v>
       </c>
       <c r="D10" t="n">
-        <v>69.2118</v>
+        <v>68.2171</v>
       </c>
       <c r="E10" t="n">
-        <v>84.54770000000001</v>
+        <v>84.31270000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.2033</v>
+        <v>28.7122</v>
       </c>
       <c r="C11" t="n">
-        <v>26.7425</v>
+        <v>26.5291</v>
       </c>
       <c r="D11" t="n">
-        <v>68.4834</v>
+        <v>69.5278</v>
       </c>
       <c r="E11" t="n">
-        <v>84.48009999999999</v>
+        <v>84.7932</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4165</v>
+        <v>28.9987</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1778</v>
+        <v>27.0923</v>
       </c>
       <c r="D12" t="n">
-        <v>69.9042</v>
+        <v>70.0566</v>
       </c>
       <c r="E12" t="n">
-        <v>85.7681</v>
+        <v>85.1568</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6881</v>
+        <v>29.5071</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5694</v>
+        <v>27.4838</v>
       </c>
       <c r="D13" t="n">
-        <v>70.15470000000001</v>
+        <v>70.2067</v>
       </c>
       <c r="E13" t="n">
-        <v>87.64490000000001</v>
+        <v>85.0371</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7042</v>
+        <v>28.873</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0739</v>
+        <v>28.081</v>
       </c>
       <c r="D14" t="n">
-        <v>70.92149999999999</v>
+        <v>70.2928</v>
       </c>
       <c r="E14" t="n">
-        <v>86.73820000000001</v>
+        <v>86.7022</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.075</v>
+        <v>29.8711</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8439</v>
+        <v>28.6956</v>
       </c>
       <c r="D15" t="n">
-        <v>70.7101</v>
+        <v>70.3955</v>
       </c>
       <c r="E15" t="n">
-        <v>86.2949</v>
+        <v>88.0275</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7663</v>
+        <v>29.3689</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6189</v>
+        <v>29.5331</v>
       </c>
       <c r="D16" t="n">
-        <v>72.349</v>
+        <v>71.3044</v>
       </c>
       <c r="E16" t="n">
-        <v>88.5598</v>
+        <v>88.02809999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>30.2113</v>
+        <v>29.8126</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4353</v>
+        <v>30.5225</v>
       </c>
       <c r="D17" t="n">
-        <v>71.4469</v>
+        <v>72.2115</v>
       </c>
       <c r="E17" t="n">
-        <v>87.38290000000001</v>
+        <v>88.34099999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2095</v>
+        <v>10.155</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3186</v>
+        <v>15.3577</v>
       </c>
       <c r="D2" t="n">
-        <v>18.829</v>
+        <v>18.5368</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5248</v>
+        <v>21.2389</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>9.947319999999999</v>
+        <v>10.0177</v>
       </c>
       <c r="C3" t="n">
-        <v>10.691</v>
+        <v>11.0244</v>
       </c>
       <c r="D3" t="n">
-        <v>20.353</v>
+        <v>20.1012</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2558</v>
+        <v>24.1896</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1678</v>
+        <v>12.1392</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7253</v>
+        <v>12.7716</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1542</v>
+        <v>25.1639</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8016</v>
+        <v>31.4718</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5161</v>
+        <v>14.5818</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2039</v>
+        <v>15.2032</v>
       </c>
       <c r="D5" t="n">
-        <v>30.219</v>
+        <v>30.4097</v>
       </c>
       <c r="E5" t="n">
-        <v>37.8329</v>
+        <v>37.8036</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0169</v>
+        <v>17.7935</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9034</v>
+        <v>17.8428</v>
       </c>
       <c r="D6" t="n">
-        <v>34.7439</v>
+        <v>34.6888</v>
       </c>
       <c r="E6" t="n">
-        <v>45.5353</v>
+        <v>42.6926</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.8398</v>
+        <v>21.3633</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2476</v>
+        <v>20.5569</v>
       </c>
       <c r="D7" t="n">
-        <v>41.1043</v>
+        <v>41.9459</v>
       </c>
       <c r="E7" t="n">
-        <v>49.4541</v>
+        <v>48.8697</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.2981</v>
+        <v>25.1222</v>
       </c>
       <c r="C8" t="n">
-        <v>22.841</v>
+        <v>23.0619</v>
       </c>
       <c r="D8" t="n">
-        <v>43.7839</v>
+        <v>44.6511</v>
       </c>
       <c r="E8" t="n">
-        <v>54.703</v>
+        <v>53.8297</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>30.0241</v>
+        <v>28.9328</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2888</v>
+        <v>25.8893</v>
       </c>
       <c r="D9" t="n">
-        <v>48.57</v>
+        <v>49.492</v>
       </c>
       <c r="E9" t="n">
-        <v>61.7598</v>
+        <v>58.257</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5181</v>
+        <v>24.8083</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2572</v>
+        <v>24.8693</v>
       </c>
       <c r="D10" t="n">
-        <v>48.8503</v>
+        <v>48.008</v>
       </c>
       <c r="E10" t="n">
-        <v>57.7589</v>
+        <v>55.0566</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4103</v>
+        <v>24.4543</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3569</v>
+        <v>23.721</v>
       </c>
       <c r="D11" t="n">
-        <v>47.6577</v>
+        <v>46.2278</v>
       </c>
       <c r="E11" t="n">
-        <v>59.2826</v>
+        <v>56.0324</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7452</v>
+        <v>25.2032</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5905</v>
+        <v>24.3467</v>
       </c>
       <c r="D12" t="n">
-        <v>48.6211</v>
+        <v>49.0029</v>
       </c>
       <c r="E12" t="n">
-        <v>60.8961</v>
+        <v>57.2104</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9308</v>
+        <v>26.9183</v>
       </c>
       <c r="C13" t="n">
-        <v>25.3101</v>
+        <v>25.1316</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1184</v>
+        <v>50.8665</v>
       </c>
       <c r="E13" t="n">
-        <v>63.6904</v>
+        <v>59.3613</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.3626</v>
+        <v>25.2181</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8737</v>
+        <v>25.8063</v>
       </c>
       <c r="D14" t="n">
-        <v>49.8243</v>
+        <v>47.3506</v>
       </c>
       <c r="E14" t="n">
-        <v>65.7657</v>
+        <v>61.7254</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1007</v>
+        <v>25.1349</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6787</v>
+        <v>26.6904</v>
       </c>
       <c r="D15" t="n">
-        <v>50.7182</v>
+        <v>51.1469</v>
       </c>
       <c r="E15" t="n">
-        <v>67.3485</v>
+        <v>61.9523</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.1932</v>
+        <v>25.4127</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3436</v>
+        <v>27.3303</v>
       </c>
       <c r="D16" t="n">
-        <v>50.8252</v>
+        <v>50.6469</v>
       </c>
       <c r="E16" t="n">
-        <v>68.1644</v>
+        <v>64.3537</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.6553</v>
+        <v>24.7487</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0187</v>
+        <v>27.7646</v>
       </c>
       <c r="D17" t="n">
-        <v>54.457</v>
+        <v>50.197</v>
       </c>
       <c r="E17" t="n">
-        <v>67.83750000000001</v>
+        <v>66.33620000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9789</v>
+        <v>10.8834</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1286</v>
+        <v>15.1455</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7137</v>
+        <v>18.4394</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4244</v>
+        <v>21.1453</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3632</v>
+        <v>10.4776</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7244</v>
+        <v>11.0625</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3522</v>
+        <v>20.3294</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1826</v>
+        <v>24.2599</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1546</v>
+        <v>12.3717</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7379</v>
+        <v>12.6641</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0258</v>
+        <v>25.3316</v>
       </c>
       <c r="E4" t="n">
-        <v>31.7214</v>
+        <v>31.6515</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.4184</v>
+        <v>15.5373</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0539</v>
+        <v>15.134</v>
       </c>
       <c r="D5" t="n">
-        <v>30.2697</v>
+        <v>30.4311</v>
       </c>
       <c r="E5" t="n">
-        <v>38.0823</v>
+        <v>36.481</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.1138</v>
+        <v>18.4367</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5356</v>
+        <v>17.8289</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9178</v>
+        <v>36.0757</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1971</v>
+        <v>43.7954</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9276</v>
+        <v>22.2052</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4369</v>
+        <v>20.5362</v>
       </c>
       <c r="D7" t="n">
-        <v>40.7549</v>
+        <v>41.0017</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7634</v>
+        <v>47.6245</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.8731</v>
+        <v>24.8961</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6554</v>
+        <v>22.7385</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0337</v>
+        <v>43.6344</v>
       </c>
       <c r="E8" t="n">
-        <v>54.9836</v>
+        <v>52.7927</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1907</v>
+        <v>28.8925</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8904</v>
+        <v>24.8759</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0662</v>
+        <v>50.1136</v>
       </c>
       <c r="E9" t="n">
-        <v>58.9942</v>
+        <v>57.0125</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>25.5375</v>
+        <v>24.277</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8674</v>
+        <v>25.1647</v>
       </c>
       <c r="D10" t="n">
-        <v>48.075</v>
+        <v>47.8783</v>
       </c>
       <c r="E10" t="n">
-        <v>57.9616</v>
+        <v>55.0284</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7125</v>
+        <v>24.8705</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0444</v>
+        <v>24.3133</v>
       </c>
       <c r="D11" t="n">
-        <v>48.5669</v>
+        <v>47.7518</v>
       </c>
       <c r="E11" t="n">
-        <v>57.8973</v>
+        <v>57.7209</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.7563</v>
+        <v>25.6033</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5163</v>
+        <v>24.583</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2707</v>
+        <v>50.1584</v>
       </c>
       <c r="E12" t="n">
-        <v>62.6293</v>
+        <v>59.3298</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.9973</v>
+        <v>27.276</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2437</v>
+        <v>25.302</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3482</v>
+        <v>50.5093</v>
       </c>
       <c r="E13" t="n">
-        <v>64.94840000000001</v>
+        <v>58.5522</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8629</v>
+        <v>24.3829</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7358</v>
+        <v>26.0097</v>
       </c>
       <c r="D14" t="n">
-        <v>51.3095</v>
+        <v>49.3839</v>
       </c>
       <c r="E14" t="n">
-        <v>65.2139</v>
+        <v>63.1419</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4638</v>
+        <v>24.8688</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5328</v>
+        <v>26.9078</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5114</v>
+        <v>49.6225</v>
       </c>
       <c r="E15" t="n">
-        <v>65.07689999999999</v>
+        <v>63.4857</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>26.6277</v>
+        <v>25.0769</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2303</v>
+        <v>27.1433</v>
       </c>
       <c r="D16" t="n">
-        <v>51.2261</v>
+        <v>52.0211</v>
       </c>
       <c r="E16" t="n">
-        <v>65.7561</v>
+        <v>65.2696</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7453</v>
+        <v>24.9016</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6863</v>
+        <v>28.1533</v>
       </c>
       <c r="D17" t="n">
-        <v>51.9455</v>
+        <v>49.0173</v>
       </c>
       <c r="E17" t="n">
-        <v>63.6506</v>
+        <v>69.6063</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2185</v>
+        <v>14.2158</v>
       </c>
       <c r="C2" t="n">
-        <v>17.5</v>
+        <v>17.4686</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1785</v>
+        <v>20.7256</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9548</v>
+        <v>22.4327</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1953</v>
+        <v>11.4996</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9938</v>
+        <v>11.9135</v>
       </c>
       <c r="D3" t="n">
-        <v>23.736</v>
+        <v>23.3786</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6108</v>
+        <v>27.1374</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2015</v>
+        <v>14.2215</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2453</v>
+        <v>14.2473</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9577</v>
+        <v>30.1964</v>
       </c>
       <c r="E4" t="n">
-        <v>35.4637</v>
+        <v>35.1964</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0725</v>
+        <v>17.0537</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9384</v>
+        <v>17.0596</v>
       </c>
       <c r="D5" t="n">
-        <v>36.073</v>
+        <v>36.1716</v>
       </c>
       <c r="E5" t="n">
-        <v>42.7961</v>
+        <v>41.9058</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.7515</v>
+        <v>20.4626</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0651</v>
+        <v>20.108</v>
       </c>
       <c r="D6" t="n">
-        <v>40.9038</v>
+        <v>41.5642</v>
       </c>
       <c r="E6" t="n">
-        <v>49.4614</v>
+        <v>49.2259</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2372</v>
+        <v>24.2926</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9212</v>
+        <v>22.9644</v>
       </c>
       <c r="D7" t="n">
-        <v>46.6008</v>
+        <v>46.8169</v>
       </c>
       <c r="E7" t="n">
-        <v>55.6382</v>
+        <v>54.1582</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5262</v>
+        <v>27.5062</v>
       </c>
       <c r="C8" t="n">
-        <v>24.9873</v>
+        <v>25.2865</v>
       </c>
       <c r="D8" t="n">
-        <v>51.5792</v>
+        <v>52.4738</v>
       </c>
       <c r="E8" t="n">
-        <v>61.8541</v>
+        <v>60.3699</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7237</v>
+        <v>31.6216</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7552</v>
+        <v>27.7026</v>
       </c>
       <c r="D9" t="n">
-        <v>56.6</v>
+        <v>56.4057</v>
       </c>
       <c r="E9" t="n">
-        <v>64.52460000000001</v>
+        <v>67.14700000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1911</v>
+        <v>29.7234</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0027</v>
+        <v>27.0884</v>
       </c>
       <c r="D10" t="n">
-        <v>56.4771</v>
+        <v>56.6818</v>
       </c>
       <c r="E10" t="n">
-        <v>63.5161</v>
+        <v>64.13549999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8626</v>
+        <v>27.348</v>
       </c>
       <c r="C11" t="n">
-        <v>25.7794</v>
+        <v>26.1259</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9577</v>
+        <v>56.6589</v>
       </c>
       <c r="E11" t="n">
-        <v>64.5371</v>
+        <v>64.39530000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7251</v>
+        <v>28.7153</v>
       </c>
       <c r="C12" t="n">
-        <v>26.1334</v>
+        <v>26.2458</v>
       </c>
       <c r="D12" t="n">
-        <v>56.5567</v>
+        <v>56.6529</v>
       </c>
       <c r="E12" t="n">
-        <v>66.20310000000001</v>
+        <v>65.2997</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0605</v>
+        <v>30.2083</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6769</v>
+        <v>26.8367</v>
       </c>
       <c r="D13" t="n">
-        <v>59.3602</v>
+        <v>56.6648</v>
       </c>
       <c r="E13" t="n">
-        <v>65.5856</v>
+        <v>66.97369999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.002</v>
+        <v>28.9965</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5596</v>
+        <v>27.3813</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9293</v>
+        <v>59.5752</v>
       </c>
       <c r="E14" t="n">
-        <v>70.1621</v>
+        <v>68.7139</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.7076</v>
+        <v>27.1605</v>
       </c>
       <c r="C15" t="n">
-        <v>28.261</v>
+        <v>28.2439</v>
       </c>
       <c r="D15" t="n">
-        <v>57.091</v>
+        <v>55.5184</v>
       </c>
       <c r="E15" t="n">
-        <v>68.64149999999999</v>
+        <v>68.0085</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3193</v>
+        <v>28.0701</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9995</v>
+        <v>29.0638</v>
       </c>
       <c r="D16" t="n">
-        <v>59.969</v>
+        <v>59.4942</v>
       </c>
       <c r="E16" t="n">
-        <v>69.5185</v>
+        <v>70.3314</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>28.4519</v>
+        <v>27.8147</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8101</v>
+        <v>29.8171</v>
       </c>
       <c r="D17" t="n">
-        <v>57.8286</v>
+        <v>54.0417</v>
       </c>
       <c r="E17" t="n">
-        <v>68.82810000000001</v>
+        <v>65.47020000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97636</v>
+        <v>3.92686</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3956</v>
+        <v>11.3431</v>
       </c>
       <c r="D2" t="n">
-        <v>13.595</v>
+        <v>13.4697</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7481</v>
+        <v>18.6547</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.57866</v>
+        <v>6.48585</v>
       </c>
       <c r="C3" t="n">
-        <v>10.7134</v>
+        <v>10.3856</v>
       </c>
       <c r="D3" t="n">
-        <v>20.249</v>
+        <v>19.4069</v>
       </c>
       <c r="E3" t="n">
-        <v>27.3275</v>
+        <v>26.225</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.390940000000001</v>
+        <v>9.51371</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8009</v>
+        <v>12.7941</v>
       </c>
       <c r="D4" t="n">
-        <v>26.4806</v>
+        <v>26.563</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2253</v>
+        <v>35.9265</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2993</v>
+        <v>12.34</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2292</v>
+        <v>15.3121</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2072</v>
+        <v>32.8978</v>
       </c>
       <c r="E5" t="n">
-        <v>47.0106</v>
+        <v>45.0851</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1378</v>
+        <v>15.1413</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8384</v>
+        <v>18.0075</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3636</v>
+        <v>39.1753</v>
       </c>
       <c r="E6" t="n">
-        <v>56.6677</v>
+        <v>53.7938</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0669</v>
+        <v>17.971</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5902</v>
+        <v>20.6129</v>
       </c>
       <c r="D7" t="n">
-        <v>45.607</v>
+        <v>44.8695</v>
       </c>
       <c r="E7" t="n">
-        <v>66.0408</v>
+        <v>62.3691</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6451</v>
+        <v>20.7703</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5856</v>
+        <v>23.8316</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9918</v>
+        <v>51.1758</v>
       </c>
       <c r="E8" t="n">
-        <v>75.99379999999999</v>
+        <v>71.44110000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0301</v>
+        <v>23.654</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2369</v>
+        <v>27.2324</v>
       </c>
       <c r="D9" t="n">
-        <v>62.3667</v>
+        <v>61.708</v>
       </c>
       <c r="E9" t="n">
-        <v>85.3858</v>
+        <v>81.4087</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.4186</v>
+        <v>21.3706</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3616</v>
+        <v>25.5741</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2184</v>
+        <v>56.6777</v>
       </c>
       <c r="E10" t="n">
-        <v>73.71850000000001</v>
+        <v>74.23180000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8307</v>
+        <v>21.7714</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2424</v>
+        <v>25.5261</v>
       </c>
       <c r="D11" t="n">
-        <v>55.9502</v>
+        <v>54.6546</v>
       </c>
       <c r="E11" t="n">
-        <v>75.929</v>
+        <v>72.3066</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1552</v>
+        <v>22.2686</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2892</v>
+        <v>25.6313</v>
       </c>
       <c r="D12" t="n">
-        <v>57.378</v>
+        <v>57.1327</v>
       </c>
       <c r="E12" t="n">
-        <v>77.6927</v>
+        <v>72.1357</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.623</v>
+        <v>22.5173</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6489</v>
+        <v>25.8245</v>
       </c>
       <c r="D13" t="n">
-        <v>59.3013</v>
+        <v>57.6093</v>
       </c>
       <c r="E13" t="n">
-        <v>79.2413</v>
+        <v>75.28660000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7543</v>
+        <v>21.8256</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8445</v>
+        <v>26.0148</v>
       </c>
       <c r="D14" t="n">
-        <v>58.3251</v>
+        <v>56.7947</v>
       </c>
       <c r="E14" t="n">
-        <v>78.0498</v>
+        <v>75.29089999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8083</v>
+        <v>22.6594</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4838</v>
+        <v>26.5033</v>
       </c>
       <c r="D15" t="n">
-        <v>58.5575</v>
+        <v>55.6905</v>
       </c>
       <c r="E15" t="n">
-        <v>78.0694</v>
+        <v>74.4241</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7749</v>
+        <v>22.9042</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0954</v>
+        <v>27.1354</v>
       </c>
       <c r="D16" t="n">
-        <v>59.0348</v>
+        <v>56.5638</v>
       </c>
       <c r="E16" t="n">
-        <v>79.3355</v>
+        <v>73.5819</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.1638</v>
+        <v>22.6889</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6655</v>
+        <v>27.8226</v>
       </c>
       <c r="D17" t="n">
-        <v>57.6745</v>
+        <v>58.1356</v>
       </c>
       <c r="E17" t="n">
-        <v>78.5583</v>
+        <v>72.8036</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.10914</v>
+        <v>4.1094</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5492</v>
+        <v>11.5075</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5639</v>
+        <v>13.5035</v>
       </c>
       <c r="E2" t="n">
-        <v>18.949</v>
+        <v>18.8955</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52197</v>
+        <v>6.51965</v>
       </c>
       <c r="C3" t="n">
-        <v>10.385</v>
+        <v>10.4015</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6955</v>
+        <v>19.6612</v>
       </c>
       <c r="E3" t="n">
-        <v>26.8823</v>
+        <v>26.0959</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40448</v>
+        <v>9.42501</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6552</v>
+        <v>12.7747</v>
       </c>
       <c r="D4" t="n">
-        <v>27.0988</v>
+        <v>26.6398</v>
       </c>
       <c r="E4" t="n">
-        <v>36.9836</v>
+        <v>36.0498</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.0717</v>
+        <v>12.1791</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1484</v>
+        <v>15.2516</v>
       </c>
       <c r="D5" t="n">
-        <v>33.3494</v>
+        <v>33.2259</v>
       </c>
       <c r="E5" t="n">
-        <v>46.9215</v>
+        <v>44.8582</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.003</v>
+        <v>15.0775</v>
       </c>
       <c r="C6" t="n">
-        <v>17.846</v>
+        <v>17.9369</v>
       </c>
       <c r="D6" t="n">
-        <v>40.0925</v>
+        <v>39.5543</v>
       </c>
       <c r="E6" t="n">
-        <v>56.6992</v>
+        <v>54.477</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9734</v>
+        <v>17.7736</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5718</v>
+        <v>20.6799</v>
       </c>
       <c r="D7" t="n">
-        <v>46.9</v>
+        <v>46.4456</v>
       </c>
       <c r="E7" t="n">
-        <v>66.0129</v>
+        <v>63.4375</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5412</v>
+        <v>20.6072</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7013</v>
+        <v>23.7335</v>
       </c>
       <c r="D8" t="n">
-        <v>52.8907</v>
+        <v>52.6058</v>
       </c>
       <c r="E8" t="n">
-        <v>75.1202</v>
+        <v>72.1567</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8289</v>
+        <v>24.0343</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9993</v>
+        <v>27.3467</v>
       </c>
       <c r="D9" t="n">
-        <v>62.5388</v>
+        <v>61.7148</v>
       </c>
       <c r="E9" t="n">
-        <v>84.798</v>
+        <v>81.8265</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.8599</v>
+        <v>22.0395</v>
       </c>
       <c r="C10" t="n">
-        <v>24.956</v>
+        <v>25.3901</v>
       </c>
       <c r="D10" t="n">
-        <v>57.2868</v>
+        <v>56.0341</v>
       </c>
       <c r="E10" t="n">
-        <v>76.88500000000001</v>
+        <v>73.7251</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.1371</v>
+        <v>21.9499</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2369</v>
+        <v>25.3878</v>
       </c>
       <c r="D11" t="n">
-        <v>56.3294</v>
+        <v>56.5674</v>
       </c>
       <c r="E11" t="n">
-        <v>76.05710000000001</v>
+        <v>73.5176</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.1694</v>
+        <v>22.0186</v>
       </c>
       <c r="C12" t="n">
-        <v>25.3987</v>
+        <v>25.2717</v>
       </c>
       <c r="D12" t="n">
-        <v>57.49</v>
+        <v>57.4642</v>
       </c>
       <c r="E12" t="n">
-        <v>76.30500000000001</v>
+        <v>73.44750000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7162</v>
+        <v>23.0595</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7672</v>
+        <v>25.7067</v>
       </c>
       <c r="D13" t="n">
-        <v>59.8206</v>
+        <v>57.1657</v>
       </c>
       <c r="E13" t="n">
-        <v>78.5136</v>
+        <v>74.9451</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0517</v>
+        <v>21.8919</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8645</v>
+        <v>26.1742</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6786</v>
+        <v>56.3641</v>
       </c>
       <c r="E14" t="n">
-        <v>78.2475</v>
+        <v>73.6878</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8495</v>
+        <v>22.8406</v>
       </c>
       <c r="C15" t="n">
-        <v>26.4033</v>
+        <v>26.5372</v>
       </c>
       <c r="D15" t="n">
-        <v>59.2762</v>
+        <v>57.1309</v>
       </c>
       <c r="E15" t="n">
-        <v>77.1242</v>
+        <v>73.78</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8871</v>
+        <v>22.9062</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9975</v>
+        <v>27.1278</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0772</v>
+        <v>57.2876</v>
       </c>
       <c r="E16" t="n">
-        <v>78.40130000000001</v>
+        <v>74.4545</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4395</v>
+        <v>22.472</v>
       </c>
       <c r="C17" t="n">
-        <v>27.6739</v>
+        <v>27.8373</v>
       </c>
       <c r="D17" t="n">
-        <v>58.4727</v>
+        <v>58.7305</v>
       </c>
       <c r="E17" t="n">
-        <v>78.0286</v>
+        <v>75.0283</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.712199999999999</v>
+        <v>8.733470000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8124</v>
+        <v>15.774</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5038</v>
+        <v>19.2435</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6042</v>
+        <v>22.2012</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2276</v>
+        <v>10.1816</v>
       </c>
       <c r="C3" t="n">
-        <v>11.736</v>
+        <v>11.8024</v>
       </c>
       <c r="D3" t="n">
-        <v>24.3219</v>
+        <v>24.2368</v>
       </c>
       <c r="E3" t="n">
-        <v>29.4346</v>
+        <v>28.9882</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2747</v>
+        <v>13.2193</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9279</v>
+        <v>14.0463</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3838</v>
+        <v>32.3443</v>
       </c>
       <c r="E4" t="n">
-        <v>40.6352</v>
+        <v>39.7034</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3286</v>
+        <v>16.2614</v>
       </c>
       <c r="C5" t="n">
-        <v>16.333</v>
+        <v>16.4857</v>
       </c>
       <c r="D5" t="n">
-        <v>39.9559</v>
+        <v>39.4562</v>
       </c>
       <c r="E5" t="n">
-        <v>50.7713</v>
+        <v>50.2294</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5323</v>
+        <v>19.4966</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2525</v>
+        <v>19.3507</v>
       </c>
       <c r="D6" t="n">
-        <v>47.9036</v>
+        <v>47.2307</v>
       </c>
       <c r="E6" t="n">
-        <v>61.3588</v>
+        <v>60.178</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.7496</v>
+        <v>22.9944</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0317</v>
+        <v>22.2023</v>
       </c>
       <c r="D7" t="n">
-        <v>55.3798</v>
+        <v>55.5237</v>
       </c>
       <c r="E7" t="n">
-        <v>70.8622</v>
+        <v>70.7371</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.3813</v>
+        <v>26.5169</v>
       </c>
       <c r="C8" t="n">
-        <v>25.0443</v>
+        <v>25.3741</v>
       </c>
       <c r="D8" t="n">
-        <v>63.192</v>
+        <v>62.6101</v>
       </c>
       <c r="E8" t="n">
-        <v>81.84739999999999</v>
+        <v>80.8043</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.11</v>
+        <v>31.2229</v>
       </c>
       <c r="C9" t="n">
-        <v>27.738</v>
+        <v>27.9827</v>
       </c>
       <c r="D9" t="n">
-        <v>74.5903</v>
+        <v>74.2484</v>
       </c>
       <c r="E9" t="n">
-        <v>92.0967</v>
+        <v>91.06359999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>28.8542</v>
+        <v>29.2867</v>
       </c>
       <c r="C10" t="n">
-        <v>26.7376</v>
+        <v>27.0465</v>
       </c>
       <c r="D10" t="n">
-        <v>68.2171</v>
+        <v>68.24250000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>84.31270000000001</v>
+        <v>79.3634</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.7122</v>
+        <v>28.9548</v>
       </c>
       <c r="C11" t="n">
-        <v>26.5291</v>
+        <v>26.8687</v>
       </c>
       <c r="D11" t="n">
-        <v>69.5278</v>
+        <v>66.7632</v>
       </c>
       <c r="E11" t="n">
-        <v>84.7932</v>
+        <v>83.7634</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.9987</v>
+        <v>29.1329</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0923</v>
+        <v>27.081</v>
       </c>
       <c r="D12" t="n">
-        <v>70.0566</v>
+        <v>69.80249999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>85.1568</v>
+        <v>86.4769</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.5071</v>
+        <v>29.9222</v>
       </c>
       <c r="C13" t="n">
-        <v>27.4838</v>
+        <v>27.5749</v>
       </c>
       <c r="D13" t="n">
-        <v>70.2067</v>
+        <v>69.8439</v>
       </c>
       <c r="E13" t="n">
-        <v>85.0371</v>
+        <v>85.3553</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.873</v>
+        <v>28.8011</v>
       </c>
       <c r="C14" t="n">
-        <v>28.081</v>
+        <v>28.0903</v>
       </c>
       <c r="D14" t="n">
-        <v>70.2928</v>
+        <v>69.45440000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>86.7022</v>
+        <v>84.5301</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8711</v>
+        <v>29.8827</v>
       </c>
       <c r="C15" t="n">
-        <v>28.6956</v>
+        <v>28.69</v>
       </c>
       <c r="D15" t="n">
-        <v>70.3955</v>
+        <v>70.6476</v>
       </c>
       <c r="E15" t="n">
-        <v>88.0275</v>
+        <v>87.1724</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.3689</v>
+        <v>29.6554</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5331</v>
+        <v>29.5931</v>
       </c>
       <c r="D16" t="n">
-        <v>71.3044</v>
+        <v>71.3865</v>
       </c>
       <c r="E16" t="n">
-        <v>88.02809999999999</v>
+        <v>87.1181</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.8126</v>
+        <v>29.2655</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5225</v>
+        <v>30.4316</v>
       </c>
       <c r="D17" t="n">
-        <v>72.2115</v>
+        <v>71.5348</v>
       </c>
       <c r="E17" t="n">
-        <v>88.34099999999999</v>
+        <v>88.377</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.155</v>
+        <v>10.21</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3577</v>
+        <v>15.3218</v>
       </c>
       <c r="D2" t="n">
-        <v>18.5368</v>
+        <v>18.9759</v>
       </c>
       <c r="E2" t="n">
-        <v>21.2389</v>
+        <v>21.8459</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0177</v>
+        <v>10.0968</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0244</v>
+        <v>10.8966</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1012</v>
+        <v>20.5475</v>
       </c>
       <c r="E3" t="n">
-        <v>24.1896</v>
+        <v>25.1164</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1392</v>
+        <v>12.3884</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7716</v>
+        <v>12.6755</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1639</v>
+        <v>25.0824</v>
       </c>
       <c r="E4" t="n">
-        <v>31.4718</v>
+        <v>32.2687</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5818</v>
+        <v>14.811</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2032</v>
+        <v>15.2013</v>
       </c>
       <c r="D5" t="n">
-        <v>30.4097</v>
+        <v>30.5253</v>
       </c>
       <c r="E5" t="n">
-        <v>37.8036</v>
+        <v>38.6455</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7935</v>
+        <v>17.8441</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8428</v>
+        <v>17.7615</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6888</v>
+        <v>35.9662</v>
       </c>
       <c r="E6" t="n">
-        <v>42.6926</v>
+        <v>45.9226</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.3633</v>
+        <v>21.2973</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5569</v>
+        <v>20.3209</v>
       </c>
       <c r="D7" t="n">
-        <v>41.9459</v>
+        <v>41.7598</v>
       </c>
       <c r="E7" t="n">
-        <v>48.8697</v>
+        <v>51.6619</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.1222</v>
+        <v>24.4654</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0619</v>
+        <v>22.8101</v>
       </c>
       <c r="D8" t="n">
-        <v>44.6511</v>
+        <v>45.3354</v>
       </c>
       <c r="E8" t="n">
-        <v>53.8297</v>
+        <v>55.3285</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9328</v>
+        <v>28.9394</v>
       </c>
       <c r="C9" t="n">
-        <v>25.8893</v>
+        <v>25.7434</v>
       </c>
       <c r="D9" t="n">
-        <v>49.492</v>
+        <v>49.6597</v>
       </c>
       <c r="E9" t="n">
-        <v>58.257</v>
+        <v>59.81</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.8083</v>
+        <v>24.108</v>
       </c>
       <c r="C10" t="n">
-        <v>24.8693</v>
+        <v>24.5959</v>
       </c>
       <c r="D10" t="n">
-        <v>48.008</v>
+        <v>48.5614</v>
       </c>
       <c r="E10" t="n">
-        <v>55.0566</v>
+        <v>57.2305</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.4543</v>
+        <v>24.1272</v>
       </c>
       <c r="C11" t="n">
-        <v>23.721</v>
+        <v>24.0381</v>
       </c>
       <c r="D11" t="n">
-        <v>46.2278</v>
+        <v>47.639</v>
       </c>
       <c r="E11" t="n">
-        <v>56.0324</v>
+        <v>61.5231</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.2032</v>
+        <v>25.4658</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3467</v>
+        <v>24.3843</v>
       </c>
       <c r="D12" t="n">
-        <v>49.0029</v>
+        <v>51.4472</v>
       </c>
       <c r="E12" t="n">
-        <v>57.2104</v>
+        <v>60.1108</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.9183</v>
+        <v>27.5401</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1316</v>
+        <v>25.1825</v>
       </c>
       <c r="D13" t="n">
-        <v>50.8665</v>
+        <v>50.3181</v>
       </c>
       <c r="E13" t="n">
-        <v>59.3613</v>
+        <v>61.791</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2181</v>
+        <v>25.2664</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8063</v>
+        <v>25.9659</v>
       </c>
       <c r="D14" t="n">
-        <v>47.3506</v>
+        <v>52.4921</v>
       </c>
       <c r="E14" t="n">
-        <v>61.7254</v>
+        <v>67.91330000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.1349</v>
+        <v>24.4798</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6904</v>
+        <v>26.766</v>
       </c>
       <c r="D15" t="n">
-        <v>51.1469</v>
+        <v>50.5446</v>
       </c>
       <c r="E15" t="n">
-        <v>61.9523</v>
+        <v>65.8343</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4127</v>
+        <v>24.5805</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3303</v>
+        <v>27.1132</v>
       </c>
       <c r="D16" t="n">
-        <v>50.6469</v>
+        <v>53.9133</v>
       </c>
       <c r="E16" t="n">
-        <v>64.3537</v>
+        <v>67.6704</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7487</v>
+        <v>24.4892</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7646</v>
+        <v>27.8896</v>
       </c>
       <c r="D17" t="n">
-        <v>50.197</v>
+        <v>52.7112</v>
       </c>
       <c r="E17" t="n">
-        <v>66.33620000000001</v>
+        <v>69.672</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8834</v>
+        <v>10.9897</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1455</v>
+        <v>15.1589</v>
       </c>
       <c r="D2" t="n">
-        <v>18.4394</v>
+        <v>18.8062</v>
       </c>
       <c r="E2" t="n">
-        <v>21.1453</v>
+        <v>21.6896</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4776</v>
+        <v>10.4135</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0625</v>
+        <v>11.1156</v>
       </c>
       <c r="D3" t="n">
-        <v>20.3294</v>
+        <v>21.3486</v>
       </c>
       <c r="E3" t="n">
-        <v>24.2599</v>
+        <v>24.8474</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3717</v>
+        <v>12.1794</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6641</v>
+        <v>12.6964</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3316</v>
+        <v>25.3938</v>
       </c>
       <c r="E4" t="n">
-        <v>31.6515</v>
+        <v>32.4944</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5373</v>
+        <v>14.7039</v>
       </c>
       <c r="C5" t="n">
-        <v>15.134</v>
+        <v>15.015</v>
       </c>
       <c r="D5" t="n">
-        <v>30.4311</v>
+        <v>30.3835</v>
       </c>
       <c r="E5" t="n">
-        <v>36.481</v>
+        <v>37.6796</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.4367</v>
+        <v>18.3557</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8289</v>
+        <v>17.7397</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0757</v>
+        <v>36.7082</v>
       </c>
       <c r="E6" t="n">
-        <v>43.7954</v>
+        <v>43.9124</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2052</v>
+        <v>22.0111</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5362</v>
+        <v>20.4982</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0017</v>
+        <v>44.0613</v>
       </c>
       <c r="E7" t="n">
-        <v>47.6245</v>
+        <v>50.9746</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.8961</v>
+        <v>24.7355</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7385</v>
+        <v>22.8004</v>
       </c>
       <c r="D8" t="n">
-        <v>43.6344</v>
+        <v>46.218</v>
       </c>
       <c r="E8" t="n">
-        <v>52.7927</v>
+        <v>55.6042</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8925</v>
+        <v>28.9248</v>
       </c>
       <c r="C9" t="n">
-        <v>24.8759</v>
+        <v>25.3166</v>
       </c>
       <c r="D9" t="n">
-        <v>50.1136</v>
+        <v>51.6318</v>
       </c>
       <c r="E9" t="n">
-        <v>57.0125</v>
+        <v>59.9469</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.277</v>
+        <v>24.5395</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1647</v>
+        <v>24.9949</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8783</v>
+        <v>47.8575</v>
       </c>
       <c r="E10" t="n">
-        <v>55.0284</v>
+        <v>59.1738</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8705</v>
+        <v>24.8067</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3133</v>
+        <v>24.3147</v>
       </c>
       <c r="D11" t="n">
-        <v>47.7518</v>
+        <v>48.4711</v>
       </c>
       <c r="E11" t="n">
-        <v>57.7209</v>
+        <v>59.5417</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6033</v>
+        <v>25.4471</v>
       </c>
       <c r="C12" t="n">
-        <v>24.583</v>
+        <v>24.6352</v>
       </c>
       <c r="D12" t="n">
-        <v>50.1584</v>
+        <v>49.5379</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3298</v>
+        <v>63.2347</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.276</v>
+        <v>26.0436</v>
       </c>
       <c r="C13" t="n">
-        <v>25.302</v>
+        <v>25.2536</v>
       </c>
       <c r="D13" t="n">
-        <v>50.5093</v>
+        <v>51.0032</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5522</v>
+        <v>62.2384</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.3829</v>
+        <v>25.894</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0097</v>
+        <v>26.0378</v>
       </c>
       <c r="D14" t="n">
-        <v>49.3839</v>
+        <v>50.8414</v>
       </c>
       <c r="E14" t="n">
-        <v>63.1419</v>
+        <v>65.565</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.8688</v>
+        <v>25.3837</v>
       </c>
       <c r="C15" t="n">
-        <v>26.9078</v>
+        <v>26.6286</v>
       </c>
       <c r="D15" t="n">
-        <v>49.6225</v>
+        <v>52.2964</v>
       </c>
       <c r="E15" t="n">
-        <v>63.4857</v>
+        <v>65.3318</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.0769</v>
+        <v>25.5291</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1433</v>
+        <v>27.3912</v>
       </c>
       <c r="D16" t="n">
-        <v>52.0211</v>
+        <v>49.7426</v>
       </c>
       <c r="E16" t="n">
-        <v>65.2696</v>
+        <v>69.2316</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9016</v>
+        <v>26.4466</v>
       </c>
       <c r="C17" t="n">
-        <v>28.1533</v>
+        <v>28.0714</v>
       </c>
       <c r="D17" t="n">
-        <v>49.0173</v>
+        <v>53.4329</v>
       </c>
       <c r="E17" t="n">
-        <v>69.6063</v>
+        <v>69.2847</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2158</v>
+        <v>14.2924</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4686</v>
+        <v>17.4819</v>
       </c>
       <c r="D2" t="n">
-        <v>20.7256</v>
+        <v>21.1559</v>
       </c>
       <c r="E2" t="n">
-        <v>22.4327</v>
+        <v>22.9883</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.4996</v>
+        <v>11.115</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9135</v>
+        <v>11.9828</v>
       </c>
       <c r="D3" t="n">
-        <v>23.3786</v>
+        <v>23.8768</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1374</v>
+        <v>27.0307</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2215</v>
+        <v>13.9664</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2473</v>
+        <v>14.3196</v>
       </c>
       <c r="D4" t="n">
-        <v>30.1964</v>
+        <v>30.5031</v>
       </c>
       <c r="E4" t="n">
-        <v>35.1964</v>
+        <v>35.5972</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0537</v>
+        <v>17.1736</v>
       </c>
       <c r="C5" t="n">
-        <v>17.0596</v>
+        <v>17.2015</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1716</v>
+        <v>36.9864</v>
       </c>
       <c r="E5" t="n">
-        <v>41.9058</v>
+        <v>44.0666</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.4626</v>
+        <v>20.5927</v>
       </c>
       <c r="C6" t="n">
-        <v>20.108</v>
+        <v>20.2102</v>
       </c>
       <c r="D6" t="n">
-        <v>41.5642</v>
+        <v>42.571</v>
       </c>
       <c r="E6" t="n">
-        <v>49.2259</v>
+        <v>49.3769</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2926</v>
+        <v>24.0842</v>
       </c>
       <c r="C7" t="n">
-        <v>22.9644</v>
+        <v>23.1341</v>
       </c>
       <c r="D7" t="n">
-        <v>46.8169</v>
+        <v>49.5548</v>
       </c>
       <c r="E7" t="n">
-        <v>54.1582</v>
+        <v>54.751</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5062</v>
+        <v>27.517</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2865</v>
+        <v>25.1145</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4738</v>
+        <v>53.745</v>
       </c>
       <c r="E8" t="n">
-        <v>60.3699</v>
+        <v>61.1572</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.6216</v>
+        <v>31.8997</v>
       </c>
       <c r="C9" t="n">
-        <v>27.7026</v>
+        <v>27.5786</v>
       </c>
       <c r="D9" t="n">
-        <v>56.4057</v>
+        <v>56.7943</v>
       </c>
       <c r="E9" t="n">
-        <v>67.14700000000001</v>
+        <v>65.5398</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.7234</v>
+        <v>30.1786</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0884</v>
+        <v>27.0913</v>
       </c>
       <c r="D10" t="n">
-        <v>56.6818</v>
+        <v>53.9842</v>
       </c>
       <c r="E10" t="n">
-        <v>64.13549999999999</v>
+        <v>64.46259999999999</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.348</v>
+        <v>27.6719</v>
       </c>
       <c r="C11" t="n">
-        <v>26.1259</v>
+        <v>26.4551</v>
       </c>
       <c r="D11" t="n">
-        <v>56.6589</v>
+        <v>57.2174</v>
       </c>
       <c r="E11" t="n">
-        <v>64.39530000000001</v>
+        <v>67.04810000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7153</v>
+        <v>29.3118</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2458</v>
+        <v>26.319</v>
       </c>
       <c r="D12" t="n">
-        <v>56.6529</v>
+        <v>58.5279</v>
       </c>
       <c r="E12" t="n">
-        <v>65.2997</v>
+        <v>65.95350000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.2083</v>
+        <v>30.5213</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8367</v>
+        <v>26.7378</v>
       </c>
       <c r="D13" t="n">
-        <v>56.6648</v>
+        <v>60.6632</v>
       </c>
       <c r="E13" t="n">
-        <v>66.97369999999999</v>
+        <v>68.8909</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9965</v>
+        <v>28.6221</v>
       </c>
       <c r="C14" t="n">
-        <v>27.3813</v>
+        <v>27.5993</v>
       </c>
       <c r="D14" t="n">
-        <v>59.5752</v>
+        <v>59.8963</v>
       </c>
       <c r="E14" t="n">
-        <v>68.7139</v>
+        <v>70.32299999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.1605</v>
+        <v>28.4836</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2439</v>
+        <v>28.1972</v>
       </c>
       <c r="D15" t="n">
-        <v>55.5184</v>
+        <v>57.7083</v>
       </c>
       <c r="E15" t="n">
-        <v>68.0085</v>
+        <v>71.12130000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0701</v>
+        <v>28.2745</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0638</v>
+        <v>29.0421</v>
       </c>
       <c r="D16" t="n">
-        <v>59.4942</v>
+        <v>61.8776</v>
       </c>
       <c r="E16" t="n">
-        <v>70.3314</v>
+        <v>68.08969999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8147</v>
+        <v>27.8114</v>
       </c>
       <c r="C17" t="n">
-        <v>29.8171</v>
+        <v>29.811</v>
       </c>
       <c r="D17" t="n">
-        <v>54.0417</v>
+        <v>59.4686</v>
       </c>
       <c r="E17" t="n">
-        <v>65.47020000000001</v>
+        <v>66.0564</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.92686</v>
+        <v>3.94429</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3431</v>
+        <v>11.3536</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4697</v>
+        <v>13.615</v>
       </c>
       <c r="E2" t="n">
-        <v>18.6547</v>
+        <v>18.9016</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.48585</v>
+        <v>6.45118</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3856</v>
+        <v>10.3558</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4069</v>
+        <v>19.6114</v>
       </c>
       <c r="E3" t="n">
-        <v>26.225</v>
+        <v>27.1527</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.51371</v>
+        <v>9.43763</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7941</v>
+        <v>12.7948</v>
       </c>
       <c r="D4" t="n">
-        <v>26.563</v>
+        <v>26.714</v>
       </c>
       <c r="E4" t="n">
-        <v>35.9265</v>
+        <v>37.624</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.34</v>
+        <v>12.2887</v>
       </c>
       <c r="C5" t="n">
-        <v>15.3121</v>
+        <v>15.2508</v>
       </c>
       <c r="D5" t="n">
-        <v>32.8978</v>
+        <v>33.236</v>
       </c>
       <c r="E5" t="n">
-        <v>45.0851</v>
+        <v>47.0826</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1413</v>
+        <v>15.0742</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0075</v>
+        <v>17.8808</v>
       </c>
       <c r="D6" t="n">
-        <v>39.1753</v>
+        <v>39.3776</v>
       </c>
       <c r="E6" t="n">
-        <v>53.7938</v>
+        <v>57.2358</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.971</v>
+        <v>17.9938</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6129</v>
+        <v>20.6042</v>
       </c>
       <c r="D7" t="n">
-        <v>44.8695</v>
+        <v>45.968</v>
       </c>
       <c r="E7" t="n">
-        <v>62.3691</v>
+        <v>67.62690000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7703</v>
+        <v>20.5788</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8316</v>
+        <v>23.8501</v>
       </c>
       <c r="D8" t="n">
-        <v>51.1758</v>
+        <v>51.7018</v>
       </c>
       <c r="E8" t="n">
-        <v>71.44110000000001</v>
+        <v>75.9254</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.654</v>
+        <v>23.8224</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2324</v>
+        <v>27.3965</v>
       </c>
       <c r="D9" t="n">
-        <v>61.708</v>
+        <v>62.1142</v>
       </c>
       <c r="E9" t="n">
-        <v>81.4087</v>
+        <v>84.9419</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.3706</v>
+        <v>22.1081</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5741</v>
+        <v>25.2492</v>
       </c>
       <c r="D10" t="n">
-        <v>56.6777</v>
+        <v>55.2368</v>
       </c>
       <c r="E10" t="n">
-        <v>74.23180000000001</v>
+        <v>76.58150000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.7714</v>
+        <v>21.6069</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5261</v>
+        <v>25.4772</v>
       </c>
       <c r="D11" t="n">
-        <v>54.6546</v>
+        <v>55.3932</v>
       </c>
       <c r="E11" t="n">
-        <v>72.3066</v>
+        <v>77.47839999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2686</v>
+        <v>22.0839</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6313</v>
+        <v>25.551</v>
       </c>
       <c r="D12" t="n">
-        <v>57.1327</v>
+        <v>57.1485</v>
       </c>
       <c r="E12" t="n">
-        <v>72.1357</v>
+        <v>79.205</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.5173</v>
+        <v>22.8912</v>
       </c>
       <c r="C13" t="n">
-        <v>25.8245</v>
+        <v>25.6751</v>
       </c>
       <c r="D13" t="n">
-        <v>57.6093</v>
+        <v>57.9016</v>
       </c>
       <c r="E13" t="n">
-        <v>75.28660000000001</v>
+        <v>79.62869999999999</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8256</v>
+        <v>21.8661</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0148</v>
+        <v>26.0336</v>
       </c>
       <c r="D14" t="n">
-        <v>56.7947</v>
+        <v>57.6759</v>
       </c>
       <c r="E14" t="n">
-        <v>75.29089999999999</v>
+        <v>76.9564</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.6594</v>
+        <v>22.5902</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5033</v>
+        <v>26.5158</v>
       </c>
       <c r="D15" t="n">
-        <v>55.6905</v>
+        <v>58.1331</v>
       </c>
       <c r="E15" t="n">
-        <v>74.4241</v>
+        <v>79.3793</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9042</v>
+        <v>22.6376</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1354</v>
+        <v>27.1406</v>
       </c>
       <c r="D16" t="n">
-        <v>56.5638</v>
+        <v>58.0453</v>
       </c>
       <c r="E16" t="n">
-        <v>73.5819</v>
+        <v>78.006</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.6889</v>
+        <v>22.7059</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8226</v>
+        <v>27.8259</v>
       </c>
       <c r="D17" t="n">
-        <v>58.1356</v>
+        <v>57.1333</v>
       </c>
       <c r="E17" t="n">
-        <v>72.8036</v>
+        <v>79.6695</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.1094</v>
+        <v>4.10983</v>
       </c>
       <c r="C2" t="n">
-        <v>11.5075</v>
+        <v>11.561</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5035</v>
+        <v>13.7106</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8955</v>
+        <v>19.1898</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.51965</v>
+        <v>6.52315</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4015</v>
+        <v>10.4198</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6612</v>
+        <v>19.7581</v>
       </c>
       <c r="E3" t="n">
-        <v>26.0959</v>
+        <v>27.1012</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.42501</v>
+        <v>9.42881</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7747</v>
+        <v>12.7563</v>
       </c>
       <c r="D4" t="n">
-        <v>26.6398</v>
+        <v>26.9328</v>
       </c>
       <c r="E4" t="n">
-        <v>36.0498</v>
+        <v>37.3194</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.1791</v>
+        <v>12.2565</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2516</v>
+        <v>15.2794</v>
       </c>
       <c r="D5" t="n">
-        <v>33.2259</v>
+        <v>33.4404</v>
       </c>
       <c r="E5" t="n">
-        <v>44.8582</v>
+        <v>47.2554</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0775</v>
+        <v>15.1473</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9369</v>
+        <v>17.8735</v>
       </c>
       <c r="D6" t="n">
-        <v>39.5543</v>
+        <v>39.984</v>
       </c>
       <c r="E6" t="n">
-        <v>54.477</v>
+        <v>57.2646</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7736</v>
+        <v>17.9769</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6799</v>
+        <v>20.7271</v>
       </c>
       <c r="D7" t="n">
-        <v>46.4456</v>
+        <v>46.8598</v>
       </c>
       <c r="E7" t="n">
-        <v>63.4375</v>
+        <v>66.736</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6072</v>
+        <v>20.744</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7335</v>
+        <v>23.7019</v>
       </c>
       <c r="D8" t="n">
-        <v>52.6058</v>
+        <v>52.4934</v>
       </c>
       <c r="E8" t="n">
-        <v>72.1567</v>
+        <v>76.6563</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.0343</v>
+        <v>23.8357</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3467</v>
+        <v>27.3018</v>
       </c>
       <c r="D9" t="n">
-        <v>61.7148</v>
+        <v>62.2972</v>
       </c>
       <c r="E9" t="n">
-        <v>81.8265</v>
+        <v>85.2042</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0395</v>
+        <v>22.2571</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3901</v>
+        <v>25.4802</v>
       </c>
       <c r="D10" t="n">
-        <v>56.0341</v>
+        <v>56.1821</v>
       </c>
       <c r="E10" t="n">
-        <v>73.7251</v>
+        <v>75.6277</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9499</v>
+        <v>21.6639</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3878</v>
+        <v>25.5488</v>
       </c>
       <c r="D11" t="n">
-        <v>56.5674</v>
+        <v>57.3775</v>
       </c>
       <c r="E11" t="n">
-        <v>73.5176</v>
+        <v>76.52200000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0186</v>
+        <v>22.4778</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2717</v>
+        <v>25.693</v>
       </c>
       <c r="D12" t="n">
-        <v>57.4642</v>
+        <v>58.1368</v>
       </c>
       <c r="E12" t="n">
-        <v>73.44750000000001</v>
+        <v>78.51479999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.0595</v>
+        <v>22.9148</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7067</v>
+        <v>25.7418</v>
       </c>
       <c r="D13" t="n">
-        <v>57.1657</v>
+        <v>58.6325</v>
       </c>
       <c r="E13" t="n">
-        <v>74.9451</v>
+        <v>79.4002</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8919</v>
+        <v>21.7039</v>
       </c>
       <c r="C14" t="n">
-        <v>26.1742</v>
+        <v>26.221</v>
       </c>
       <c r="D14" t="n">
-        <v>56.3641</v>
+        <v>56.9715</v>
       </c>
       <c r="E14" t="n">
-        <v>73.6878</v>
+        <v>77.8323</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8406</v>
+        <v>22.7685</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5372</v>
+        <v>26.6066</v>
       </c>
       <c r="D15" t="n">
-        <v>57.1309</v>
+        <v>57.6118</v>
       </c>
       <c r="E15" t="n">
-        <v>73.78</v>
+        <v>77.4725</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.9062</v>
+        <v>22.7932</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1278</v>
+        <v>27.0926</v>
       </c>
       <c r="D16" t="n">
-        <v>57.2876</v>
+        <v>57.8621</v>
       </c>
       <c r="E16" t="n">
-        <v>74.4545</v>
+        <v>79.3995</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.472</v>
+        <v>22.5705</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8373</v>
+        <v>27.7154</v>
       </c>
       <c r="D17" t="n">
-        <v>58.7305</v>
+        <v>57.3834</v>
       </c>
       <c r="E17" t="n">
-        <v>75.0283</v>
+        <v>79.12179999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.733470000000001</v>
+        <v>8.865740000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>15.774</v>
+        <v>15.8087</v>
       </c>
       <c r="D2" t="n">
-        <v>19.2435</v>
+        <v>19.5069</v>
       </c>
       <c r="E2" t="n">
-        <v>22.2012</v>
+        <v>22.6512</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1816</v>
+        <v>10.2393</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8024</v>
+        <v>11.7878</v>
       </c>
       <c r="D3" t="n">
-        <v>24.2368</v>
+        <v>24.4208</v>
       </c>
       <c r="E3" t="n">
-        <v>28.9882</v>
+        <v>29.6128</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2193</v>
+        <v>13.2713</v>
       </c>
       <c r="C4" t="n">
-        <v>14.0463</v>
+        <v>13.9555</v>
       </c>
       <c r="D4" t="n">
-        <v>32.3443</v>
+        <v>32.5107</v>
       </c>
       <c r="E4" t="n">
-        <v>39.7034</v>
+        <v>40.7186</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.2614</v>
+        <v>16.4305</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4857</v>
+        <v>16.4274</v>
       </c>
       <c r="D5" t="n">
-        <v>39.4562</v>
+        <v>40.1358</v>
       </c>
       <c r="E5" t="n">
-        <v>50.2294</v>
+        <v>51.0984</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4966</v>
+        <v>19.5758</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3507</v>
+        <v>19.3394</v>
       </c>
       <c r="D6" t="n">
-        <v>47.2307</v>
+        <v>48.0479</v>
       </c>
       <c r="E6" t="n">
-        <v>60.178</v>
+        <v>61.4501</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9944</v>
+        <v>22.8321</v>
       </c>
       <c r="C7" t="n">
-        <v>22.2023</v>
+        <v>22.1977</v>
       </c>
       <c r="D7" t="n">
-        <v>55.5237</v>
+        <v>55.4356</v>
       </c>
       <c r="E7" t="n">
-        <v>70.7371</v>
+        <v>71.68300000000001</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5169</v>
+        <v>26.4846</v>
       </c>
       <c r="C8" t="n">
-        <v>25.3741</v>
+        <v>25.2917</v>
       </c>
       <c r="D8" t="n">
-        <v>62.6101</v>
+        <v>63.4264</v>
       </c>
       <c r="E8" t="n">
-        <v>80.8043</v>
+        <v>82.092</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2229</v>
+        <v>31.2074</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9827</v>
+        <v>27.994</v>
       </c>
       <c r="D9" t="n">
-        <v>74.2484</v>
+        <v>75.3944</v>
       </c>
       <c r="E9" t="n">
-        <v>91.06359999999999</v>
+        <v>92.1489</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2867</v>
+        <v>29.8007</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0465</v>
+        <v>26.9466</v>
       </c>
       <c r="D10" t="n">
-        <v>68.24250000000001</v>
+        <v>69.2105</v>
       </c>
       <c r="E10" t="n">
-        <v>79.3634</v>
+        <v>84.0124</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.9548</v>
+        <v>29.1926</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8687</v>
+        <v>27.0623</v>
       </c>
       <c r="D11" t="n">
-        <v>66.7632</v>
+        <v>68.79600000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>83.7634</v>
+        <v>82.9803</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.1329</v>
+        <v>29.3814</v>
       </c>
       <c r="C12" t="n">
-        <v>27.081</v>
+        <v>27.1512</v>
       </c>
       <c r="D12" t="n">
-        <v>69.80249999999999</v>
+        <v>69.77209999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>86.4769</v>
+        <v>85.1293</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9222</v>
+        <v>29.5719</v>
       </c>
       <c r="C13" t="n">
-        <v>27.5749</v>
+        <v>27.6279</v>
       </c>
       <c r="D13" t="n">
-        <v>69.8439</v>
+        <v>72.1508</v>
       </c>
       <c r="E13" t="n">
-        <v>85.3553</v>
+        <v>87.8938</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8011</v>
+        <v>28.8066</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0903</v>
+        <v>28.2121</v>
       </c>
       <c r="D14" t="n">
-        <v>69.45440000000001</v>
+        <v>70.40779999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>84.5301</v>
+        <v>87.524</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8827</v>
+        <v>30.0157</v>
       </c>
       <c r="C15" t="n">
-        <v>28.69</v>
+        <v>28.8844</v>
       </c>
       <c r="D15" t="n">
-        <v>70.6476</v>
+        <v>71.09780000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87.1724</v>
+        <v>87.52079999999999</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.6554</v>
+        <v>29.8139</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5931</v>
+        <v>29.5911</v>
       </c>
       <c r="D16" t="n">
-        <v>71.3865</v>
+        <v>72.6829</v>
       </c>
       <c r="E16" t="n">
-        <v>87.1181</v>
+        <v>88.65770000000001</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.2655</v>
+        <v>29.7501</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4316</v>
+        <v>30.3993</v>
       </c>
       <c r="D17" t="n">
-        <v>71.5348</v>
+        <v>70.20140000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>88.377</v>
+        <v>87.9126</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.21</v>
+        <v>10.1765</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3218</v>
+        <v>15.2962</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9759</v>
+        <v>18.9881</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8459</v>
+        <v>21.7337</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0968</v>
+        <v>10.0804</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8966</v>
+        <v>10.9252</v>
       </c>
       <c r="D3" t="n">
-        <v>20.5475</v>
+        <v>19.8849</v>
       </c>
       <c r="E3" t="n">
-        <v>25.1164</v>
+        <v>24.3312</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3884</v>
+        <v>12.1688</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6755</v>
+        <v>12.6519</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0824</v>
+        <v>24.4127</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2687</v>
+        <v>32.1286</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.811</v>
+        <v>14.7827</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2013</v>
+        <v>15.054</v>
       </c>
       <c r="D5" t="n">
-        <v>30.5253</v>
+        <v>29.5412</v>
       </c>
       <c r="E5" t="n">
-        <v>38.6455</v>
+        <v>39.0114</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.8441</v>
+        <v>18.0651</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7615</v>
+        <v>17.9229</v>
       </c>
       <c r="D6" t="n">
-        <v>35.9662</v>
+        <v>35.3702</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9226</v>
+        <v>45.654</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.2973</v>
+        <v>21.6124</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3209</v>
+        <v>20.5973</v>
       </c>
       <c r="D7" t="n">
-        <v>41.7598</v>
+        <v>41.4414</v>
       </c>
       <c r="E7" t="n">
-        <v>51.6619</v>
+        <v>50.7093</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.4654</v>
+        <v>25.1933</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8101</v>
+        <v>22.9001</v>
       </c>
       <c r="D8" t="n">
-        <v>45.3354</v>
+        <v>44.9945</v>
       </c>
       <c r="E8" t="n">
-        <v>55.3285</v>
+        <v>57.1746</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9394</v>
+        <v>29.62</v>
       </c>
       <c r="C9" t="n">
-        <v>25.7434</v>
+        <v>25.4054</v>
       </c>
       <c r="D9" t="n">
-        <v>49.6597</v>
+        <v>50.0073</v>
       </c>
       <c r="E9" t="n">
-        <v>59.81</v>
+        <v>62.6258</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.108</v>
+        <v>24.806</v>
       </c>
       <c r="C10" t="n">
-        <v>24.5959</v>
+        <v>24.2254</v>
       </c>
       <c r="D10" t="n">
-        <v>48.5614</v>
+        <v>47.7521</v>
       </c>
       <c r="E10" t="n">
-        <v>57.2305</v>
+        <v>60.4799</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.1272</v>
+        <v>24.5945</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0381</v>
+        <v>24.1188</v>
       </c>
       <c r="D11" t="n">
-        <v>47.639</v>
+        <v>49.1871</v>
       </c>
       <c r="E11" t="n">
-        <v>61.5231</v>
+        <v>59.8212</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4658</v>
+        <v>25.0725</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3843</v>
+        <v>24.3667</v>
       </c>
       <c r="D12" t="n">
-        <v>51.4472</v>
+        <v>50.4384</v>
       </c>
       <c r="E12" t="n">
-        <v>60.1108</v>
+        <v>61.5985</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.5401</v>
+        <v>26.0683</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1825</v>
+        <v>25.0921</v>
       </c>
       <c r="D13" t="n">
-        <v>50.3181</v>
+        <v>51.3994</v>
       </c>
       <c r="E13" t="n">
-        <v>61.791</v>
+        <v>66.2837</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2664</v>
+        <v>25.2969</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9659</v>
+        <v>26.0188</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4921</v>
+        <v>51.7679</v>
       </c>
       <c r="E14" t="n">
-        <v>67.91330000000001</v>
+        <v>66.35169999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.4798</v>
+        <v>24.6371</v>
       </c>
       <c r="C15" t="n">
-        <v>26.766</v>
+        <v>26.7692</v>
       </c>
       <c r="D15" t="n">
-        <v>50.5446</v>
+        <v>50.3889</v>
       </c>
       <c r="E15" t="n">
-        <v>65.8343</v>
+        <v>66.9509</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.5805</v>
+        <v>25.4014</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1132</v>
+        <v>27.6243</v>
       </c>
       <c r="D16" t="n">
-        <v>53.9133</v>
+        <v>53.6177</v>
       </c>
       <c r="E16" t="n">
-        <v>67.6704</v>
+        <v>70.3545</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4892</v>
+        <v>24.4501</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8896</v>
+        <v>27.9208</v>
       </c>
       <c r="D17" t="n">
-        <v>52.7112</v>
+        <v>53.3515</v>
       </c>
       <c r="E17" t="n">
-        <v>69.672</v>
+        <v>73.47329999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9897</v>
+        <v>11.1467</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1589</v>
+        <v>15.1786</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8062</v>
+        <v>18.8599</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6896</v>
+        <v>21.5947</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.4135</v>
+        <v>10.3951</v>
       </c>
       <c r="C3" t="n">
-        <v>11.1156</v>
+        <v>10.8298</v>
       </c>
       <c r="D3" t="n">
-        <v>21.3486</v>
+        <v>20.1883</v>
       </c>
       <c r="E3" t="n">
-        <v>24.8474</v>
+        <v>24.303</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1794</v>
+        <v>12.4676</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6964</v>
+        <v>12.5662</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3938</v>
+        <v>25.1876</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4944</v>
+        <v>31.2048</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7039</v>
+        <v>14.894</v>
       </c>
       <c r="C5" t="n">
-        <v>15.015</v>
+        <v>14.8883</v>
       </c>
       <c r="D5" t="n">
-        <v>30.3835</v>
+        <v>30.2859</v>
       </c>
       <c r="E5" t="n">
-        <v>37.6796</v>
+        <v>38.9234</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.3557</v>
+        <v>18.5193</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7397</v>
+        <v>17.7006</v>
       </c>
       <c r="D6" t="n">
-        <v>36.7082</v>
+        <v>36.0435</v>
       </c>
       <c r="E6" t="n">
-        <v>43.9124</v>
+        <v>45.8147</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0111</v>
+        <v>21.9259</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4982</v>
+        <v>20.2214</v>
       </c>
       <c r="D7" t="n">
-        <v>44.0613</v>
+        <v>41.1118</v>
       </c>
       <c r="E7" t="n">
-        <v>50.9746</v>
+        <v>52.6228</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.7355</v>
+        <v>25.0977</v>
       </c>
       <c r="C8" t="n">
-        <v>22.8004</v>
+        <v>22.6481</v>
       </c>
       <c r="D8" t="n">
-        <v>46.218</v>
+        <v>45.0853</v>
       </c>
       <c r="E8" t="n">
-        <v>55.6042</v>
+        <v>59.2835</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.9248</v>
+        <v>29.1743</v>
       </c>
       <c r="C9" t="n">
-        <v>25.3166</v>
+        <v>25.0384</v>
       </c>
       <c r="D9" t="n">
-        <v>51.6318</v>
+        <v>53.1354</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9469</v>
+        <v>64.3871</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.5395</v>
+        <v>24.7775</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9949</v>
+        <v>24.996</v>
       </c>
       <c r="D10" t="n">
-        <v>47.8575</v>
+        <v>47.742</v>
       </c>
       <c r="E10" t="n">
-        <v>59.1738</v>
+        <v>57.3083</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8067</v>
+        <v>24.6723</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3147</v>
+        <v>24.0261</v>
       </c>
       <c r="D11" t="n">
-        <v>48.4711</v>
+        <v>48.2814</v>
       </c>
       <c r="E11" t="n">
-        <v>59.5417</v>
+        <v>60.7256</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.4471</v>
+        <v>25.3188</v>
       </c>
       <c r="C12" t="n">
-        <v>24.6352</v>
+        <v>24.8224</v>
       </c>
       <c r="D12" t="n">
-        <v>49.5379</v>
+        <v>50.3613</v>
       </c>
       <c r="E12" t="n">
-        <v>63.2347</v>
+        <v>62.0402</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0436</v>
+        <v>27.112</v>
       </c>
       <c r="C13" t="n">
-        <v>25.2536</v>
+        <v>25.234</v>
       </c>
       <c r="D13" t="n">
-        <v>51.0032</v>
+        <v>51.3194</v>
       </c>
       <c r="E13" t="n">
-        <v>62.2384</v>
+        <v>63.6086</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.894</v>
+        <v>26.1535</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0378</v>
+        <v>26.0708</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8414</v>
+        <v>51.4527</v>
       </c>
       <c r="E14" t="n">
-        <v>65.565</v>
+        <v>66.68519999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.3837</v>
+        <v>24.3379</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6286</v>
+        <v>26.6936</v>
       </c>
       <c r="D15" t="n">
-        <v>52.2964</v>
+        <v>53.0861</v>
       </c>
       <c r="E15" t="n">
-        <v>65.3318</v>
+        <v>68.617</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5291</v>
+        <v>25.5032</v>
       </c>
       <c r="C16" t="n">
-        <v>27.3912</v>
+        <v>27.7669</v>
       </c>
       <c r="D16" t="n">
-        <v>49.7426</v>
+        <v>52.068</v>
       </c>
       <c r="E16" t="n">
-        <v>69.2316</v>
+        <v>66.48650000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.4466</v>
+        <v>24.9655</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0714</v>
+        <v>28.335</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4329</v>
+        <v>54.4213</v>
       </c>
       <c r="E17" t="n">
-        <v>69.2847</v>
+        <v>70.87309999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2924</v>
+        <v>14.1707</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4819</v>
+        <v>17.4923</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1559</v>
+        <v>21.1523</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9883</v>
+        <v>22.8815</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.115</v>
+        <v>11.3447</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9828</v>
+        <v>12.4344</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8768</v>
+        <v>23.8166</v>
       </c>
       <c r="E3" t="n">
-        <v>27.0307</v>
+        <v>27.6705</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.9664</v>
+        <v>14.1961</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3196</v>
+        <v>14.3192</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5031</v>
+        <v>29.9163</v>
       </c>
       <c r="E4" t="n">
-        <v>35.5972</v>
+        <v>35.788</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.1736</v>
+        <v>17.2658</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2015</v>
+        <v>16.9948</v>
       </c>
       <c r="D5" t="n">
-        <v>36.9864</v>
+        <v>36.1409</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0666</v>
+        <v>42.8806</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.5927</v>
+        <v>20.6939</v>
       </c>
       <c r="C6" t="n">
-        <v>20.2102</v>
+        <v>20.0934</v>
       </c>
       <c r="D6" t="n">
-        <v>42.571</v>
+        <v>41.5558</v>
       </c>
       <c r="E6" t="n">
-        <v>49.3769</v>
+        <v>51.6833</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.0842</v>
+        <v>24.4526</v>
       </c>
       <c r="C7" t="n">
-        <v>23.1341</v>
+        <v>23.1013</v>
       </c>
       <c r="D7" t="n">
-        <v>49.5548</v>
+        <v>50.3208</v>
       </c>
       <c r="E7" t="n">
-        <v>54.751</v>
+        <v>56.2551</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.517</v>
+        <v>27.5032</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1145</v>
+        <v>25.234</v>
       </c>
       <c r="D8" t="n">
-        <v>53.745</v>
+        <v>53.8161</v>
       </c>
       <c r="E8" t="n">
-        <v>61.1572</v>
+        <v>61.3163</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.8997</v>
+        <v>31.788</v>
       </c>
       <c r="C9" t="n">
-        <v>27.5786</v>
+        <v>27.3271</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7943</v>
+        <v>59.6209</v>
       </c>
       <c r="E9" t="n">
-        <v>65.5398</v>
+        <v>68.0936</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>30.1786</v>
+        <v>29.9746</v>
       </c>
       <c r="C10" t="n">
-        <v>27.0913</v>
+        <v>27.1847</v>
       </c>
       <c r="D10" t="n">
-        <v>53.9842</v>
+        <v>55.4273</v>
       </c>
       <c r="E10" t="n">
-        <v>64.46259999999999</v>
+        <v>64.8963</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.6719</v>
+        <v>28.3251</v>
       </c>
       <c r="C11" t="n">
-        <v>26.4551</v>
+        <v>25.8443</v>
       </c>
       <c r="D11" t="n">
-        <v>57.2174</v>
+        <v>56.4991</v>
       </c>
       <c r="E11" t="n">
-        <v>67.04810000000001</v>
+        <v>65.6574</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3118</v>
+        <v>28.7679</v>
       </c>
       <c r="C12" t="n">
-        <v>26.319</v>
+        <v>26.3232</v>
       </c>
       <c r="D12" t="n">
-        <v>58.5279</v>
+        <v>58.1732</v>
       </c>
       <c r="E12" t="n">
-        <v>65.95350000000001</v>
+        <v>67.4316</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.5213</v>
+        <v>30.0163</v>
       </c>
       <c r="C13" t="n">
-        <v>26.7378</v>
+        <v>26.8966</v>
       </c>
       <c r="D13" t="n">
-        <v>60.6632</v>
+        <v>59.9599</v>
       </c>
       <c r="E13" t="n">
-        <v>68.8909</v>
+        <v>67.6803</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6221</v>
+        <v>28.56</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5993</v>
+        <v>27.5886</v>
       </c>
       <c r="D14" t="n">
-        <v>59.8963</v>
+        <v>58.1713</v>
       </c>
       <c r="E14" t="n">
-        <v>70.32299999999999</v>
+        <v>68.45489999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.4836</v>
+        <v>27.9607</v>
       </c>
       <c r="C15" t="n">
-        <v>28.1972</v>
+        <v>28.2778</v>
       </c>
       <c r="D15" t="n">
-        <v>57.7083</v>
+        <v>57.866</v>
       </c>
       <c r="E15" t="n">
-        <v>71.12130000000001</v>
+        <v>69.1233</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2745</v>
+        <v>28.0007</v>
       </c>
       <c r="C16" t="n">
-        <v>29.0421</v>
+        <v>28.9605</v>
       </c>
       <c r="D16" t="n">
-        <v>61.8776</v>
+        <v>60.2347</v>
       </c>
       <c r="E16" t="n">
-        <v>68.08969999999999</v>
+        <v>69.8561</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.8114</v>
+        <v>26.9593</v>
       </c>
       <c r="C17" t="n">
-        <v>29.811</v>
+        <v>29.871</v>
       </c>
       <c r="D17" t="n">
-        <v>59.4686</v>
+        <v>57.138</v>
       </c>
       <c r="E17" t="n">
-        <v>66.0564</v>
+        <v>68.2611</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94429</v>
+        <v>3.95993</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3536</v>
+        <v>11.4179</v>
       </c>
       <c r="D2" t="n">
-        <v>13.615</v>
+        <v>13.7017</v>
       </c>
       <c r="E2" t="n">
-        <v>18.9016</v>
+        <v>18.8002</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.45118</v>
+        <v>6.52396</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3558</v>
+        <v>10.4299</v>
       </c>
       <c r="D3" t="n">
-        <v>19.6114</v>
+        <v>19.0962</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1527</v>
+        <v>26.3059</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.43763</v>
+        <v>9.3672</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7948</v>
+        <v>12.7342</v>
       </c>
       <c r="D4" t="n">
-        <v>26.714</v>
+        <v>25.5138</v>
       </c>
       <c r="E4" t="n">
-        <v>37.624</v>
+        <v>35.8943</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2887</v>
+        <v>12.152</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2508</v>
+        <v>15.2424</v>
       </c>
       <c r="D5" t="n">
-        <v>33.236</v>
+        <v>32.094</v>
       </c>
       <c r="E5" t="n">
-        <v>47.0826</v>
+        <v>45.3633</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0742</v>
+        <v>15.1088</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8808</v>
+        <v>17.9334</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3776</v>
+        <v>38.1817</v>
       </c>
       <c r="E6" t="n">
-        <v>57.2358</v>
+        <v>54.9815</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9938</v>
+        <v>17.968</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6042</v>
+        <v>20.6349</v>
       </c>
       <c r="D7" t="n">
-        <v>45.968</v>
+        <v>44.676</v>
       </c>
       <c r="E7" t="n">
-        <v>67.62690000000001</v>
+        <v>64.68980000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.5788</v>
+        <v>20.8958</v>
       </c>
       <c r="C8" t="n">
-        <v>23.8501</v>
+        <v>23.766</v>
       </c>
       <c r="D8" t="n">
-        <v>51.7018</v>
+        <v>50.5637</v>
       </c>
       <c r="E8" t="n">
-        <v>75.9254</v>
+        <v>74.19750000000001</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8224</v>
+        <v>23.8043</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3965</v>
+        <v>27.2454</v>
       </c>
       <c r="D9" t="n">
-        <v>62.1142</v>
+        <v>60.2254</v>
       </c>
       <c r="E9" t="n">
-        <v>84.9419</v>
+        <v>84.9894</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.1081</v>
+        <v>22.0478</v>
       </c>
       <c r="C10" t="n">
-        <v>25.2492</v>
+        <v>25.4763</v>
       </c>
       <c r="D10" t="n">
-        <v>55.2368</v>
+        <v>54.5376</v>
       </c>
       <c r="E10" t="n">
-        <v>76.58150000000001</v>
+        <v>75.5424</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6069</v>
+        <v>21.9354</v>
       </c>
       <c r="C11" t="n">
-        <v>25.4772</v>
+        <v>25.1121</v>
       </c>
       <c r="D11" t="n">
-        <v>55.3932</v>
+        <v>54.9792</v>
       </c>
       <c r="E11" t="n">
-        <v>77.47839999999999</v>
+        <v>75.3359</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0839</v>
+        <v>22.2409</v>
       </c>
       <c r="C12" t="n">
-        <v>25.551</v>
+        <v>25.7013</v>
       </c>
       <c r="D12" t="n">
-        <v>57.1485</v>
+        <v>56.4413</v>
       </c>
       <c r="E12" t="n">
-        <v>79.205</v>
+        <v>77.42100000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8912</v>
+        <v>22.8353</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6751</v>
+        <v>25.6228</v>
       </c>
       <c r="D13" t="n">
-        <v>57.9016</v>
+        <v>57.8175</v>
       </c>
       <c r="E13" t="n">
-        <v>79.62869999999999</v>
+        <v>79.1867</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8661</v>
+        <v>21.8928</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0336</v>
+        <v>26.0381</v>
       </c>
       <c r="D14" t="n">
-        <v>57.6759</v>
+        <v>56.159</v>
       </c>
       <c r="E14" t="n">
-        <v>76.9564</v>
+        <v>78.95050000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.5902</v>
+        <v>22.7796</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5158</v>
+        <v>26.6448</v>
       </c>
       <c r="D15" t="n">
-        <v>58.1331</v>
+        <v>56.4557</v>
       </c>
       <c r="E15" t="n">
-        <v>79.3793</v>
+        <v>78.7876</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6376</v>
+        <v>22.6572</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1406</v>
+        <v>27.2845</v>
       </c>
       <c r="D16" t="n">
-        <v>58.0453</v>
+        <v>57.1355</v>
       </c>
       <c r="E16" t="n">
-        <v>78.006</v>
+        <v>79.7587</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7059</v>
+        <v>22.5005</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8259</v>
+        <v>27.9258</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1333</v>
+        <v>57.3379</v>
       </c>
       <c r="E17" t="n">
-        <v>79.6695</v>
+        <v>79.65600000000001</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.10983</v>
+        <v>3.97032</v>
       </c>
       <c r="C2" t="n">
-        <v>11.561</v>
+        <v>11.541</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7106</v>
+        <v>13.7115</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1898</v>
+        <v>19.0777</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52315</v>
+        <v>6.53907</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4198</v>
+        <v>10.4765</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7581</v>
+        <v>19.0036</v>
       </c>
       <c r="E3" t="n">
-        <v>27.1012</v>
+        <v>25.8816</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.42881</v>
+        <v>9.36191</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7563</v>
+        <v>12.7075</v>
       </c>
       <c r="D4" t="n">
-        <v>26.9328</v>
+        <v>25.5924</v>
       </c>
       <c r="E4" t="n">
-        <v>37.3194</v>
+        <v>35.4965</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2565</v>
+        <v>12.2042</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2794</v>
+        <v>15.2342</v>
       </c>
       <c r="D5" t="n">
-        <v>33.4404</v>
+        <v>31.9641</v>
       </c>
       <c r="E5" t="n">
-        <v>47.2554</v>
+        <v>45.1099</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1473</v>
+        <v>15.0717</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8735</v>
+        <v>17.843</v>
       </c>
       <c r="D6" t="n">
-        <v>39.984</v>
+        <v>38.6868</v>
       </c>
       <c r="E6" t="n">
-        <v>57.2646</v>
+        <v>54.5719</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9769</v>
+        <v>17.8841</v>
       </c>
       <c r="C7" t="n">
-        <v>20.7271</v>
+        <v>20.5353</v>
       </c>
       <c r="D7" t="n">
-        <v>46.8598</v>
+        <v>44.2132</v>
       </c>
       <c r="E7" t="n">
-        <v>66.736</v>
+        <v>64.1444</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.744</v>
+        <v>20.7027</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7019</v>
+        <v>23.7243</v>
       </c>
       <c r="D8" t="n">
-        <v>52.4934</v>
+        <v>49.6825</v>
       </c>
       <c r="E8" t="n">
-        <v>76.6563</v>
+        <v>73.4601</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8357</v>
+        <v>23.7646</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3018</v>
+        <v>27.1458</v>
       </c>
       <c r="D9" t="n">
-        <v>62.2972</v>
+        <v>60.1905</v>
       </c>
       <c r="E9" t="n">
-        <v>85.2042</v>
+        <v>84.3926</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.2571</v>
+        <v>22.276</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4802</v>
+        <v>25.5405</v>
       </c>
       <c r="D10" t="n">
-        <v>56.1821</v>
+        <v>55.8578</v>
       </c>
       <c r="E10" t="n">
-        <v>75.6277</v>
+        <v>75.5171</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.6639</v>
+        <v>21.4836</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5488</v>
+        <v>25.3421</v>
       </c>
       <c r="D11" t="n">
-        <v>57.3775</v>
+        <v>55.4601</v>
       </c>
       <c r="E11" t="n">
-        <v>76.52200000000001</v>
+        <v>76.0214</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4778</v>
+        <v>22.2369</v>
       </c>
       <c r="C12" t="n">
-        <v>25.693</v>
+        <v>25.6815</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1368</v>
+        <v>56.7135</v>
       </c>
       <c r="E12" t="n">
-        <v>78.51479999999999</v>
+        <v>77.62649999999999</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.9148</v>
+        <v>23.0178</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7418</v>
+        <v>25.7121</v>
       </c>
       <c r="D13" t="n">
-        <v>58.6325</v>
+        <v>56.5495</v>
       </c>
       <c r="E13" t="n">
-        <v>79.4002</v>
+        <v>77.9173</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.7039</v>
+        <v>21.5826</v>
       </c>
       <c r="C14" t="n">
-        <v>26.221</v>
+        <v>26.0771</v>
       </c>
       <c r="D14" t="n">
-        <v>56.9715</v>
+        <v>56.7843</v>
       </c>
       <c r="E14" t="n">
-        <v>77.8323</v>
+        <v>77.2216</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7685</v>
+        <v>22.9507</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6066</v>
+        <v>26.6222</v>
       </c>
       <c r="D15" t="n">
-        <v>57.6118</v>
+        <v>56.8208</v>
       </c>
       <c r="E15" t="n">
-        <v>77.4725</v>
+        <v>76.4237</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7932</v>
+        <v>22.7993</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0926</v>
+        <v>27.1225</v>
       </c>
       <c r="D16" t="n">
-        <v>57.8621</v>
+        <v>56.9234</v>
       </c>
       <c r="E16" t="n">
-        <v>79.3995</v>
+        <v>78.9804</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5705</v>
+        <v>22.4294</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7154</v>
+        <v>27.8001</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3834</v>
+        <v>56.0566</v>
       </c>
       <c r="E17" t="n">
-        <v>79.12179999999999</v>
+        <v>79.2443</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.865740000000001</v>
+        <v>8.65452</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8087</v>
+        <v>15.9119</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5069</v>
+        <v>19.5747</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6512</v>
+        <v>22.6075</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2393</v>
+        <v>10.3128</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7878</v>
+        <v>11.8513</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4208</v>
+        <v>24.062</v>
       </c>
       <c r="E3" t="n">
-        <v>29.6128</v>
+        <v>29.0287</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.2713</v>
+        <v>13.3277</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9555</v>
+        <v>13.9228</v>
       </c>
       <c r="D4" t="n">
-        <v>32.5107</v>
+        <v>31.5586</v>
       </c>
       <c r="E4" t="n">
-        <v>40.7186</v>
+        <v>39.6508</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.4305</v>
+        <v>16.3887</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4274</v>
+        <v>16.4557</v>
       </c>
       <c r="D5" t="n">
-        <v>40.1358</v>
+        <v>38.9708</v>
       </c>
       <c r="E5" t="n">
-        <v>51.0984</v>
+        <v>50.4739</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.5758</v>
+        <v>19.6445</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3394</v>
+        <v>19.3473</v>
       </c>
       <c r="D6" t="n">
-        <v>48.0479</v>
+        <v>46.6719</v>
       </c>
       <c r="E6" t="n">
-        <v>61.4501</v>
+        <v>60.2735</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8321</v>
+        <v>22.9576</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1977</v>
+        <v>22.1541</v>
       </c>
       <c r="D7" t="n">
-        <v>55.4356</v>
+        <v>54.5297</v>
       </c>
       <c r="E7" t="n">
-        <v>71.68300000000001</v>
+        <v>70.5693</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.4846</v>
+        <v>26.5018</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2917</v>
+        <v>25.2209</v>
       </c>
       <c r="D8" t="n">
-        <v>63.4264</v>
+        <v>62.3016</v>
       </c>
       <c r="E8" t="n">
-        <v>82.092</v>
+        <v>80.852</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.2074</v>
+        <v>31.27</v>
       </c>
       <c r="C9" t="n">
-        <v>27.994</v>
+        <v>27.8484</v>
       </c>
       <c r="D9" t="n">
-        <v>75.3944</v>
+        <v>73.723</v>
       </c>
       <c r="E9" t="n">
-        <v>92.1489</v>
+        <v>92.4978</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.8007</v>
+        <v>29.2851</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9466</v>
+        <v>26.8728</v>
       </c>
       <c r="D10" t="n">
-        <v>69.2105</v>
+        <v>66.6972</v>
       </c>
       <c r="E10" t="n">
-        <v>84.0124</v>
+        <v>81.7103</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1926</v>
+        <v>29.0208</v>
       </c>
       <c r="C11" t="n">
-        <v>27.0623</v>
+        <v>26.7846</v>
       </c>
       <c r="D11" t="n">
-        <v>68.79600000000001</v>
+        <v>66.40179999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>82.9803</v>
+        <v>80.64100000000001</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.3814</v>
+        <v>29.4382</v>
       </c>
       <c r="C12" t="n">
-        <v>27.1512</v>
+        <v>27.0194</v>
       </c>
       <c r="D12" t="n">
-        <v>69.77209999999999</v>
+        <v>66.7985</v>
       </c>
       <c r="E12" t="n">
-        <v>85.1293</v>
+        <v>81.89700000000001</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.5719</v>
+        <v>29.4037</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6279</v>
+        <v>27.6076</v>
       </c>
       <c r="D13" t="n">
-        <v>72.1508</v>
+        <v>68.6097</v>
       </c>
       <c r="E13" t="n">
-        <v>87.8938</v>
+        <v>84.10639999999999</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.8066</v>
+        <v>28.7609</v>
       </c>
       <c r="C14" t="n">
-        <v>28.2121</v>
+        <v>28.1017</v>
       </c>
       <c r="D14" t="n">
-        <v>70.40779999999999</v>
+        <v>68.4141</v>
       </c>
       <c r="E14" t="n">
-        <v>87.524</v>
+        <v>83.67400000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>30.0157</v>
+        <v>29.8496</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8844</v>
+        <v>28.7785</v>
       </c>
       <c r="D15" t="n">
-        <v>71.09780000000001</v>
+        <v>69.422</v>
       </c>
       <c r="E15" t="n">
-        <v>87.52079999999999</v>
+        <v>85.6964</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8139</v>
+        <v>29.7522</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5911</v>
+        <v>29.6039</v>
       </c>
       <c r="D16" t="n">
-        <v>72.6829</v>
+        <v>69.5244</v>
       </c>
       <c r="E16" t="n">
-        <v>88.65770000000001</v>
+        <v>86.11669999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.7501</v>
+        <v>29.9408</v>
       </c>
       <c r="C17" t="n">
-        <v>30.3993</v>
+        <v>30.4481</v>
       </c>
       <c r="D17" t="n">
-        <v>70.20140000000001</v>
+        <v>69.86709999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>87.9126</v>
+        <v>84.7056</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.1765</v>
+        <v>10.2116</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2962</v>
+        <v>15.3298</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9881</v>
+        <v>19.0212</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7337</v>
+        <v>21.6719</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0804</v>
+        <v>10.0052</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9252</v>
+        <v>11.0042</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8849</v>
+        <v>19.8163</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3312</v>
+        <v>24.5176</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.1688</v>
+        <v>11.9566</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6519</v>
+        <v>12.6606</v>
       </c>
       <c r="D4" t="n">
-        <v>24.4127</v>
+        <v>24.7287</v>
       </c>
       <c r="E4" t="n">
-        <v>32.1286</v>
+        <v>31.156</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7827</v>
+        <v>15.0202</v>
       </c>
       <c r="C5" t="n">
-        <v>15.054</v>
+        <v>15.184</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5412</v>
+        <v>29.7802</v>
       </c>
       <c r="E5" t="n">
-        <v>39.0114</v>
+        <v>37.5771</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0651</v>
+        <v>18.0091</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9229</v>
+        <v>17.942</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3702</v>
+        <v>36.0903</v>
       </c>
       <c r="E6" t="n">
-        <v>45.654</v>
+        <v>44.525</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6124</v>
+        <v>21.4645</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5973</v>
+        <v>20.6268</v>
       </c>
       <c r="D7" t="n">
-        <v>41.4414</v>
+        <v>41.2426</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7093</v>
+        <v>48.9568</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.1933</v>
+        <v>24.1897</v>
       </c>
       <c r="C8" t="n">
-        <v>22.9001</v>
+        <v>23.0387</v>
       </c>
       <c r="D8" t="n">
-        <v>44.9945</v>
+        <v>43.2588</v>
       </c>
       <c r="E8" t="n">
-        <v>57.1746</v>
+        <v>54.5088</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.62</v>
+        <v>29.3593</v>
       </c>
       <c r="C9" t="n">
-        <v>25.4054</v>
+        <v>25.6055</v>
       </c>
       <c r="D9" t="n">
-        <v>50.0073</v>
+        <v>49.6735</v>
       </c>
       <c r="E9" t="n">
-        <v>62.6258</v>
+        <v>62.3417</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.806</v>
+        <v>24.438</v>
       </c>
       <c r="C10" t="n">
-        <v>24.2254</v>
+        <v>24.1918</v>
       </c>
       <c r="D10" t="n">
-        <v>47.7521</v>
+        <v>47.0003</v>
       </c>
       <c r="E10" t="n">
-        <v>60.4799</v>
+        <v>59.2924</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.5945</v>
+        <v>24.7065</v>
       </c>
       <c r="C11" t="n">
-        <v>24.1188</v>
+        <v>24.2466</v>
       </c>
       <c r="D11" t="n">
-        <v>49.1871</v>
+        <v>48.1846</v>
       </c>
       <c r="E11" t="n">
-        <v>59.8212</v>
+        <v>60.7002</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.0725</v>
+        <v>25.6915</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3667</v>
+        <v>24.5541</v>
       </c>
       <c r="D12" t="n">
-        <v>50.4384</v>
+        <v>49.2</v>
       </c>
       <c r="E12" t="n">
-        <v>61.5985</v>
+        <v>62.3318</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0683</v>
+        <v>26.2911</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0921</v>
+        <v>25.139</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3994</v>
+        <v>50.1701</v>
       </c>
       <c r="E13" t="n">
-        <v>66.2837</v>
+        <v>65.9002</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.2969</v>
+        <v>25.5753</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0188</v>
+        <v>25.7624</v>
       </c>
       <c r="D14" t="n">
-        <v>51.7679</v>
+        <v>52.8913</v>
       </c>
       <c r="E14" t="n">
-        <v>66.35169999999999</v>
+        <v>66.8536</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6371</v>
+        <v>25.4416</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7692</v>
+        <v>26.6595</v>
       </c>
       <c r="D15" t="n">
-        <v>50.3889</v>
+        <v>52.5616</v>
       </c>
       <c r="E15" t="n">
-        <v>66.9509</v>
+        <v>71.8201</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.4014</v>
+        <v>25.7422</v>
       </c>
       <c r="C16" t="n">
-        <v>27.6243</v>
+        <v>27.1506</v>
       </c>
       <c r="D16" t="n">
-        <v>53.6177</v>
+        <v>53.332</v>
       </c>
       <c r="E16" t="n">
-        <v>70.3545</v>
+        <v>72.81010000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.4501</v>
+        <v>24.5879</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9208</v>
+        <v>28.0171</v>
       </c>
       <c r="D17" t="n">
-        <v>53.3515</v>
+        <v>51.838</v>
       </c>
       <c r="E17" t="n">
-        <v>73.47329999999999</v>
+        <v>71.8172</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1467</v>
+        <v>10.9028</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1786</v>
+        <v>15.1471</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8599</v>
+        <v>18.891</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5947</v>
+        <v>21.4886</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3951</v>
+        <v>10.411</v>
       </c>
       <c r="C3" t="n">
-        <v>10.8298</v>
+        <v>11.0099</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1883</v>
+        <v>19.9366</v>
       </c>
       <c r="E3" t="n">
-        <v>24.303</v>
+        <v>24.213</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.4676</v>
+        <v>12.3227</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5662</v>
+        <v>12.6982</v>
       </c>
       <c r="D4" t="n">
-        <v>25.1876</v>
+        <v>25.0291</v>
       </c>
       <c r="E4" t="n">
-        <v>31.2048</v>
+        <v>30.8253</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.894</v>
+        <v>14.7749</v>
       </c>
       <c r="C5" t="n">
-        <v>14.8883</v>
+        <v>15.0597</v>
       </c>
       <c r="D5" t="n">
-        <v>30.2859</v>
+        <v>30.39</v>
       </c>
       <c r="E5" t="n">
-        <v>38.9234</v>
+        <v>37.5455</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.5193</v>
+        <v>18.525</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7006</v>
+        <v>17.647</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0435</v>
+        <v>35.3829</v>
       </c>
       <c r="E6" t="n">
-        <v>45.8147</v>
+        <v>43.8687</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.9259</v>
+        <v>22.0015</v>
       </c>
       <c r="C7" t="n">
-        <v>20.2214</v>
+        <v>20.4185</v>
       </c>
       <c r="D7" t="n">
-        <v>41.1118</v>
+        <v>41.0605</v>
       </c>
       <c r="E7" t="n">
-        <v>52.6228</v>
+        <v>48.0345</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.0977</v>
+        <v>24.6781</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6481</v>
+        <v>22.7617</v>
       </c>
       <c r="D8" t="n">
-        <v>45.0853</v>
+        <v>44.1094</v>
       </c>
       <c r="E8" t="n">
-        <v>59.2835</v>
+        <v>52.1789</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.1743</v>
+        <v>29.2433</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0384</v>
+        <v>25.2239</v>
       </c>
       <c r="D9" t="n">
-        <v>53.1354</v>
+        <v>50.8174</v>
       </c>
       <c r="E9" t="n">
-        <v>64.3871</v>
+        <v>60.0796</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.7775</v>
+        <v>27.1139</v>
       </c>
       <c r="C10" t="n">
-        <v>24.996</v>
+        <v>24.9739</v>
       </c>
       <c r="D10" t="n">
-        <v>47.742</v>
+        <v>48.7561</v>
       </c>
       <c r="E10" t="n">
-        <v>57.3083</v>
+        <v>57.7844</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.6723</v>
+        <v>25.1435</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0261</v>
+        <v>24.3421</v>
       </c>
       <c r="D11" t="n">
-        <v>48.2814</v>
+        <v>49.3099</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7256</v>
+        <v>59.348</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3188</v>
+        <v>25.3034</v>
       </c>
       <c r="C12" t="n">
-        <v>24.8224</v>
+        <v>24.7141</v>
       </c>
       <c r="D12" t="n">
-        <v>50.3613</v>
+        <v>49.086</v>
       </c>
       <c r="E12" t="n">
-        <v>62.0402</v>
+        <v>61.1561</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.112</v>
+        <v>27.1564</v>
       </c>
       <c r="C13" t="n">
-        <v>25.234</v>
+        <v>25.1686</v>
       </c>
       <c r="D13" t="n">
-        <v>51.3194</v>
+        <v>52.4948</v>
       </c>
       <c r="E13" t="n">
-        <v>63.6086</v>
+        <v>64.8613</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.1535</v>
+        <v>24.8294</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0708</v>
+        <v>25.9911</v>
       </c>
       <c r="D14" t="n">
-        <v>51.4527</v>
+        <v>50.7255</v>
       </c>
       <c r="E14" t="n">
-        <v>66.68519999999999</v>
+        <v>66.89579999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.3379</v>
+        <v>25.24</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6936</v>
+        <v>26.7455</v>
       </c>
       <c r="D15" t="n">
-        <v>53.0861</v>
+        <v>51.3647</v>
       </c>
       <c r="E15" t="n">
-        <v>68.617</v>
+        <v>67.5658</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.5032</v>
+        <v>25.6477</v>
       </c>
       <c r="C16" t="n">
-        <v>27.7669</v>
+        <v>27.5364</v>
       </c>
       <c r="D16" t="n">
-        <v>52.068</v>
+        <v>52.5204</v>
       </c>
       <c r="E16" t="n">
-        <v>66.48650000000001</v>
+        <v>68.8473</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9655</v>
+        <v>24.5166</v>
       </c>
       <c r="C17" t="n">
-        <v>28.335</v>
+        <v>27.8634</v>
       </c>
       <c r="D17" t="n">
-        <v>54.4213</v>
+        <v>55.265</v>
       </c>
       <c r="E17" t="n">
-        <v>70.87309999999999</v>
+        <v>74.5205</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1707</v>
+        <v>14.1846</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4923</v>
+        <v>17.477</v>
       </c>
       <c r="D2" t="n">
-        <v>21.1523</v>
+        <v>21.2973</v>
       </c>
       <c r="E2" t="n">
-        <v>22.8815</v>
+        <v>22.9472</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3447</v>
+        <v>11.2329</v>
       </c>
       <c r="C3" t="n">
-        <v>12.4344</v>
+        <v>12.1387</v>
       </c>
       <c r="D3" t="n">
-        <v>23.8166</v>
+        <v>24.1009</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6705</v>
+        <v>28.0397</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1961</v>
+        <v>13.8111</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3192</v>
+        <v>14.2322</v>
       </c>
       <c r="D4" t="n">
-        <v>29.9163</v>
+        <v>30.0659</v>
       </c>
       <c r="E4" t="n">
-        <v>35.788</v>
+        <v>36.8541</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2658</v>
+        <v>17.0938</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9948</v>
+        <v>17.2502</v>
       </c>
       <c r="D5" t="n">
-        <v>36.1409</v>
+        <v>37.2029</v>
       </c>
       <c r="E5" t="n">
-        <v>42.8806</v>
+        <v>44.0037</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6939</v>
+        <v>20.6393</v>
       </c>
       <c r="C6" t="n">
-        <v>20.0934</v>
+        <v>20.1143</v>
       </c>
       <c r="D6" t="n">
-        <v>41.5558</v>
+        <v>43.6031</v>
       </c>
       <c r="E6" t="n">
-        <v>51.6833</v>
+        <v>52.2855</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.4526</v>
+        <v>24.2054</v>
       </c>
       <c r="C7" t="n">
-        <v>23.1013</v>
+        <v>23.0356</v>
       </c>
       <c r="D7" t="n">
-        <v>50.3208</v>
+        <v>50.0862</v>
       </c>
       <c r="E7" t="n">
-        <v>56.2551</v>
+        <v>59.0595</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.5032</v>
+        <v>27.3548</v>
       </c>
       <c r="C8" t="n">
-        <v>25.234</v>
+        <v>25.2068</v>
       </c>
       <c r="D8" t="n">
-        <v>53.8161</v>
+        <v>53.4138</v>
       </c>
       <c r="E8" t="n">
-        <v>61.3163</v>
+        <v>62.4332</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.788</v>
+        <v>31.6843</v>
       </c>
       <c r="C9" t="n">
-        <v>27.3271</v>
+        <v>27.8119</v>
       </c>
       <c r="D9" t="n">
-        <v>59.6209</v>
+        <v>59.0477</v>
       </c>
       <c r="E9" t="n">
-        <v>68.0936</v>
+        <v>68.7051</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.9746</v>
+        <v>29.711</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1847</v>
+        <v>27.1239</v>
       </c>
       <c r="D10" t="n">
-        <v>55.4273</v>
+        <v>58.2847</v>
       </c>
       <c r="E10" t="n">
-        <v>64.8963</v>
+        <v>69.5697</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.3251</v>
+        <v>27.8059</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8443</v>
+        <v>26.1371</v>
       </c>
       <c r="D11" t="n">
-        <v>56.4991</v>
+        <v>58.4323</v>
       </c>
       <c r="E11" t="n">
-        <v>65.6574</v>
+        <v>67.8792</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.7679</v>
+        <v>28.619</v>
       </c>
       <c r="C12" t="n">
-        <v>26.3232</v>
+        <v>26.2571</v>
       </c>
       <c r="D12" t="n">
-        <v>58.1732</v>
+        <v>58.7623</v>
       </c>
       <c r="E12" t="n">
-        <v>67.4316</v>
+        <v>71.5334</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.0163</v>
+        <v>30.3014</v>
       </c>
       <c r="C13" t="n">
-        <v>26.8966</v>
+        <v>26.9398</v>
       </c>
       <c r="D13" t="n">
-        <v>59.9599</v>
+        <v>61.126</v>
       </c>
       <c r="E13" t="n">
-        <v>67.6803</v>
+        <v>73.79810000000001</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.56</v>
+        <v>28.6813</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5886</v>
+        <v>27.5248</v>
       </c>
       <c r="D14" t="n">
-        <v>58.1713</v>
+        <v>63.2443</v>
       </c>
       <c r="E14" t="n">
-        <v>68.45489999999999</v>
+        <v>74.45950000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.9607</v>
+        <v>28.2523</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2778</v>
+        <v>28.2749</v>
       </c>
       <c r="D15" t="n">
-        <v>57.866</v>
+        <v>63.9718</v>
       </c>
       <c r="E15" t="n">
-        <v>69.1233</v>
+        <v>76.4033</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.0007</v>
+        <v>27.0962</v>
       </c>
       <c r="C16" t="n">
-        <v>28.9605</v>
+        <v>28.953</v>
       </c>
       <c r="D16" t="n">
-        <v>60.2347</v>
+        <v>63.3088</v>
       </c>
       <c r="E16" t="n">
-        <v>69.8561</v>
+        <v>74.98260000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>26.9593</v>
+        <v>27.0412</v>
       </c>
       <c r="C17" t="n">
-        <v>29.871</v>
+        <v>29.7795</v>
       </c>
       <c r="D17" t="n">
-        <v>57.138</v>
+        <v>61.7352</v>
       </c>
       <c r="E17" t="n">
-        <v>68.2611</v>
+        <v>77.0031</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95993</v>
+        <v>3.95122</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4179</v>
+        <v>11.4701</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7017</v>
+        <v>13.6478</v>
       </c>
       <c r="E2" t="n">
-        <v>18.8002</v>
+        <v>18.7283</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.52396</v>
+        <v>6.46038</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4299</v>
+        <v>10.393</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0962</v>
+        <v>18.917</v>
       </c>
       <c r="E3" t="n">
-        <v>26.3059</v>
+        <v>26.5372</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.3672</v>
+        <v>9.40959</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7342</v>
+        <v>12.8448</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5138</v>
+        <v>25.6283</v>
       </c>
       <c r="E4" t="n">
-        <v>35.8943</v>
+        <v>36.5103</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.152</v>
+        <v>12.3277</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2424</v>
+        <v>15.2977</v>
       </c>
       <c r="D5" t="n">
-        <v>32.094</v>
+        <v>31.7854</v>
       </c>
       <c r="E5" t="n">
-        <v>45.3633</v>
+        <v>46.4157</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1088</v>
+        <v>15.1454</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9334</v>
+        <v>17.9835</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1817</v>
+        <v>37.8805</v>
       </c>
       <c r="E6" t="n">
-        <v>54.9815</v>
+        <v>56.0087</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.968</v>
+        <v>17.9242</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6349</v>
+        <v>20.6056</v>
       </c>
       <c r="D7" t="n">
-        <v>44.676</v>
+        <v>43.7782</v>
       </c>
       <c r="E7" t="n">
-        <v>64.68980000000001</v>
+        <v>65.265</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8958</v>
+        <v>20.8454</v>
       </c>
       <c r="C8" t="n">
-        <v>23.766</v>
+        <v>23.6866</v>
       </c>
       <c r="D8" t="n">
-        <v>50.5637</v>
+        <v>49.9839</v>
       </c>
       <c r="E8" t="n">
-        <v>74.19750000000001</v>
+        <v>75.46639999999999</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.8043</v>
+        <v>23.762</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2454</v>
+        <v>27.2537</v>
       </c>
       <c r="D9" t="n">
-        <v>60.2254</v>
+        <v>59.7764</v>
       </c>
       <c r="E9" t="n">
-        <v>84.9894</v>
+        <v>85.7069</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0478</v>
+        <v>21.948</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4763</v>
+        <v>25.1631</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5376</v>
+        <v>54.5923</v>
       </c>
       <c r="E10" t="n">
-        <v>75.5424</v>
+        <v>78.4704</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9354</v>
+        <v>21.9948</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1121</v>
+        <v>25.3138</v>
       </c>
       <c r="D11" t="n">
-        <v>54.9792</v>
+        <v>53.5416</v>
       </c>
       <c r="E11" t="n">
-        <v>75.3359</v>
+        <v>75.6182</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2409</v>
+        <v>22.143</v>
       </c>
       <c r="C12" t="n">
-        <v>25.7013</v>
+        <v>25.1684</v>
       </c>
       <c r="D12" t="n">
-        <v>56.4413</v>
+        <v>55.4908</v>
       </c>
       <c r="E12" t="n">
-        <v>77.42100000000001</v>
+        <v>77.9302</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.8353</v>
+        <v>22.6547</v>
       </c>
       <c r="C13" t="n">
-        <v>25.6228</v>
+        <v>25.7389</v>
       </c>
       <c r="D13" t="n">
-        <v>57.8175</v>
+        <v>56.2374</v>
       </c>
       <c r="E13" t="n">
-        <v>79.1867</v>
+        <v>80.3139</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8928</v>
+        <v>21.916</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0381</v>
+        <v>25.8903</v>
       </c>
       <c r="D14" t="n">
-        <v>56.159</v>
+        <v>56.4734</v>
       </c>
       <c r="E14" t="n">
-        <v>78.95050000000001</v>
+        <v>80.1558</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7796</v>
+        <v>22.7831</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6448</v>
+        <v>26.3862</v>
       </c>
       <c r="D15" t="n">
-        <v>56.4557</v>
+        <v>55.6377</v>
       </c>
       <c r="E15" t="n">
-        <v>78.7876</v>
+        <v>79.8</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.6572</v>
+        <v>22.7792</v>
       </c>
       <c r="C16" t="n">
-        <v>27.2845</v>
+        <v>27.0644</v>
       </c>
       <c r="D16" t="n">
-        <v>57.1355</v>
+        <v>57.0413</v>
       </c>
       <c r="E16" t="n">
-        <v>79.7587</v>
+        <v>80.0421</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.5005</v>
+        <v>22.8725</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9258</v>
+        <v>27.7454</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3379</v>
+        <v>57.1849</v>
       </c>
       <c r="E17" t="n">
-        <v>79.65600000000001</v>
+        <v>81.8689</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.97032</v>
+        <v>4.12216</v>
       </c>
       <c r="C2" t="n">
-        <v>11.541</v>
+        <v>11.6862</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7115</v>
+        <v>13.7308</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0777</v>
+        <v>19.021</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.53907</v>
+        <v>6.48</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4765</v>
+        <v>10.4331</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0036</v>
+        <v>18.9012</v>
       </c>
       <c r="E3" t="n">
-        <v>25.8816</v>
+        <v>26.717</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36191</v>
+        <v>9.43449</v>
       </c>
       <c r="C4" t="n">
-        <v>12.7075</v>
+        <v>12.791</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5924</v>
+        <v>25.5641</v>
       </c>
       <c r="E4" t="n">
-        <v>35.4965</v>
+        <v>36.6952</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2042</v>
+        <v>12.2014</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2342</v>
+        <v>15.2619</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9641</v>
+        <v>31.9258</v>
       </c>
       <c r="E5" t="n">
-        <v>45.1099</v>
+        <v>46.7657</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0717</v>
+        <v>15.1247</v>
       </c>
       <c r="C6" t="n">
-        <v>17.843</v>
+        <v>17.9135</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6868</v>
+        <v>39.3233</v>
       </c>
       <c r="E6" t="n">
-        <v>54.5719</v>
+        <v>56.2325</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.8841</v>
+        <v>18.003</v>
       </c>
       <c r="C7" t="n">
-        <v>20.5353</v>
+        <v>20.6474</v>
       </c>
       <c r="D7" t="n">
-        <v>44.2132</v>
+        <v>45.2798</v>
       </c>
       <c r="E7" t="n">
-        <v>64.1444</v>
+        <v>66.9121</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.7027</v>
+        <v>20.8764</v>
       </c>
       <c r="C8" t="n">
-        <v>23.7243</v>
+        <v>23.757</v>
       </c>
       <c r="D8" t="n">
-        <v>49.6825</v>
+        <v>50.0354</v>
       </c>
       <c r="E8" t="n">
-        <v>73.4601</v>
+        <v>75.45699999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.7646</v>
+        <v>23.9303</v>
       </c>
       <c r="C9" t="n">
-        <v>27.1458</v>
+        <v>27.2425</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1905</v>
+        <v>60.1656</v>
       </c>
       <c r="E9" t="n">
-        <v>84.3926</v>
+        <v>85.74160000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.276</v>
+        <v>22.0079</v>
       </c>
       <c r="C10" t="n">
-        <v>25.5405</v>
+        <v>25.4575</v>
       </c>
       <c r="D10" t="n">
-        <v>55.8578</v>
+        <v>55.1744</v>
       </c>
       <c r="E10" t="n">
-        <v>75.5171</v>
+        <v>77.0604</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.4836</v>
+        <v>22.1419</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3421</v>
+        <v>25.1357</v>
       </c>
       <c r="D11" t="n">
-        <v>55.4601</v>
+        <v>55.2926</v>
       </c>
       <c r="E11" t="n">
-        <v>76.0214</v>
+        <v>78.1931</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.2369</v>
+        <v>22.4128</v>
       </c>
       <c r="C12" t="n">
-        <v>25.6815</v>
+        <v>25.464</v>
       </c>
       <c r="D12" t="n">
-        <v>56.7135</v>
+        <v>56.5067</v>
       </c>
       <c r="E12" t="n">
-        <v>77.62649999999999</v>
+        <v>79.3528</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.0178</v>
+        <v>22.7686</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7121</v>
+        <v>25.7051</v>
       </c>
       <c r="D13" t="n">
-        <v>56.5495</v>
+        <v>57.2434</v>
       </c>
       <c r="E13" t="n">
-        <v>77.9173</v>
+        <v>81.374</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.5826</v>
+        <v>21.947</v>
       </c>
       <c r="C14" t="n">
-        <v>26.0771</v>
+        <v>25.9956</v>
       </c>
       <c r="D14" t="n">
-        <v>56.7843</v>
+        <v>55.7319</v>
       </c>
       <c r="E14" t="n">
-        <v>77.2216</v>
+        <v>79.7336</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.9507</v>
+        <v>22.8375</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6222</v>
+        <v>26.5312</v>
       </c>
       <c r="D15" t="n">
-        <v>56.8208</v>
+        <v>56.5229</v>
       </c>
       <c r="E15" t="n">
-        <v>76.4237</v>
+        <v>82.008</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7993</v>
+        <v>22.8356</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1225</v>
+        <v>27.1096</v>
       </c>
       <c r="D16" t="n">
-        <v>56.9234</v>
+        <v>57.6136</v>
       </c>
       <c r="E16" t="n">
-        <v>78.9804</v>
+        <v>80.58759999999999</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.4294</v>
+        <v>23.348</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8001</v>
+        <v>27.8035</v>
       </c>
       <c r="D17" t="n">
-        <v>56.0566</v>
+        <v>56.2379</v>
       </c>
       <c r="E17" t="n">
-        <v>79.2443</v>
+        <v>81.7591</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.65452</v>
+        <v>8.7011</v>
       </c>
       <c r="C2" t="n">
-        <v>15.9119</v>
+        <v>15.8428</v>
       </c>
       <c r="D2" t="n">
-        <v>19.5747</v>
+        <v>19.6418</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6075</v>
+        <v>22.6277</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.3128</v>
+        <v>10.1662</v>
       </c>
       <c r="C3" t="n">
-        <v>11.8513</v>
+        <v>11.771</v>
       </c>
       <c r="D3" t="n">
-        <v>24.062</v>
+        <v>24.4709</v>
       </c>
       <c r="E3" t="n">
-        <v>29.0287</v>
+        <v>30.5865</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.3277</v>
+        <v>13.243</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9228</v>
+        <v>13.9856</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5586</v>
+        <v>32.1458</v>
       </c>
       <c r="E4" t="n">
-        <v>39.6508</v>
+        <v>42.0115</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3887</v>
+        <v>16.3866</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4557</v>
+        <v>16.4778</v>
       </c>
       <c r="D5" t="n">
-        <v>38.9708</v>
+        <v>39.4874</v>
       </c>
       <c r="E5" t="n">
-        <v>50.4739</v>
+        <v>53.2027</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.6445</v>
+        <v>19.4155</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3473</v>
+        <v>19.365</v>
       </c>
       <c r="D6" t="n">
-        <v>46.6719</v>
+        <v>47.4466</v>
       </c>
       <c r="E6" t="n">
-        <v>60.2735</v>
+        <v>64.6533</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.9576</v>
+        <v>22.665</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1541</v>
+        <v>22.1211</v>
       </c>
       <c r="D7" t="n">
-        <v>54.5297</v>
+        <v>55.3079</v>
       </c>
       <c r="E7" t="n">
-        <v>70.5693</v>
+        <v>76.068</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.5018</v>
+        <v>26.2725</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2209</v>
+        <v>25.2313</v>
       </c>
       <c r="D8" t="n">
-        <v>62.3016</v>
+        <v>62.5381</v>
       </c>
       <c r="E8" t="n">
-        <v>80.852</v>
+        <v>85.2796</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.27</v>
+        <v>31.0764</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8484</v>
+        <v>27.9174</v>
       </c>
       <c r="D9" t="n">
-        <v>73.723</v>
+        <v>74.5553</v>
       </c>
       <c r="E9" t="n">
-        <v>92.4978</v>
+        <v>98.17319999999999</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.2851</v>
+        <v>29.1345</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8728</v>
+        <v>26.8628</v>
       </c>
       <c r="D10" t="n">
-        <v>66.6972</v>
+        <v>69.14709999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>81.7103</v>
+        <v>88.56570000000001</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.0208</v>
+        <v>29.1578</v>
       </c>
       <c r="C11" t="n">
-        <v>26.7846</v>
+        <v>26.8574</v>
       </c>
       <c r="D11" t="n">
-        <v>66.40179999999999</v>
+        <v>67.81829999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>80.64100000000001</v>
+        <v>87.62739999999999</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4382</v>
+        <v>29.0231</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0194</v>
+        <v>27.2076</v>
       </c>
       <c r="D12" t="n">
-        <v>66.7985</v>
+        <v>68.83029999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>81.89700000000001</v>
+        <v>89.4003</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.4037</v>
+        <v>29.6754</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6076</v>
+        <v>27.6318</v>
       </c>
       <c r="D13" t="n">
-        <v>68.6097</v>
+        <v>68.86620000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>84.10639999999999</v>
+        <v>91.2487</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7609</v>
+        <v>28.6092</v>
       </c>
       <c r="C14" t="n">
-        <v>28.1017</v>
+        <v>28.0997</v>
       </c>
       <c r="D14" t="n">
-        <v>68.4141</v>
+        <v>70.7503</v>
       </c>
       <c r="E14" t="n">
-        <v>83.67400000000001</v>
+        <v>92.04040000000001</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.8496</v>
+        <v>29.6377</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7785</v>
+        <v>28.7027</v>
       </c>
       <c r="D15" t="n">
-        <v>69.422</v>
+        <v>70.8019</v>
       </c>
       <c r="E15" t="n">
-        <v>85.6964</v>
+        <v>91.1371</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.7522</v>
+        <v>29.8266</v>
       </c>
       <c r="C16" t="n">
-        <v>29.6039</v>
+        <v>29.5478</v>
       </c>
       <c r="D16" t="n">
-        <v>69.5244</v>
+        <v>70.7757</v>
       </c>
       <c r="E16" t="n">
-        <v>86.11669999999999</v>
+        <v>93.6677</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.9408</v>
+        <v>29.6693</v>
       </c>
       <c r="C17" t="n">
-        <v>30.4481</v>
+        <v>30.5006</v>
       </c>
       <c r="D17" t="n">
-        <v>69.86709999999999</v>
+        <v>71.36669999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>84.7056</v>
+        <v>94.4337</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.2116</v>
+        <v>10.4447</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3298</v>
+        <v>15.2909</v>
       </c>
       <c r="D2" t="n">
-        <v>19.0212</v>
+        <v>18.4846</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6719</v>
+        <v>21.177</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.0052</v>
+        <v>12.0535</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0042</v>
+        <v>19.7205</v>
       </c>
       <c r="D3" t="n">
-        <v>19.8163</v>
+        <v>23.7212</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5176</v>
+        <v>36.2991</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9566</v>
+        <v>14.4183</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6606</v>
+        <v>16.0532</v>
       </c>
       <c r="D4" t="n">
-        <v>24.7287</v>
+        <v>25.919</v>
       </c>
       <c r="E4" t="n">
-        <v>31.156</v>
+        <v>32.6934</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0202</v>
+        <v>15.6351</v>
       </c>
       <c r="C5" t="n">
-        <v>15.184</v>
+        <v>17.8114</v>
       </c>
       <c r="D5" t="n">
-        <v>29.7802</v>
+        <v>29.45</v>
       </c>
       <c r="E5" t="n">
-        <v>37.5771</v>
+        <v>38.8443</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.0091</v>
+        <v>17.9462</v>
       </c>
       <c r="C6" t="n">
-        <v>17.942</v>
+        <v>17.3822</v>
       </c>
       <c r="D6" t="n">
-        <v>36.0903</v>
+        <v>34.1615</v>
       </c>
       <c r="E6" t="n">
-        <v>44.525</v>
+        <v>42.1683</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.4645</v>
+        <v>18.6743</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6268</v>
+        <v>17.5582</v>
       </c>
       <c r="D7" t="n">
-        <v>41.2426</v>
+        <v>34.6081</v>
       </c>
       <c r="E7" t="n">
-        <v>48.9568</v>
+        <v>41.9276</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.1897</v>
+        <v>18.8353</v>
       </c>
       <c r="C8" t="n">
-        <v>23.0387</v>
+        <v>17.3064</v>
       </c>
       <c r="D8" t="n">
-        <v>43.2588</v>
+        <v>34.0309</v>
       </c>
       <c r="E8" t="n">
-        <v>54.5088</v>
+        <v>46.0145</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.3593</v>
+        <v>19.7274</v>
       </c>
       <c r="C9" t="n">
-        <v>25.6055</v>
+        <v>17.6739</v>
       </c>
       <c r="D9" t="n">
-        <v>49.6735</v>
+        <v>36.4532</v>
       </c>
       <c r="E9" t="n">
-        <v>62.3417</v>
+        <v>46.8904</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.438</v>
+        <v>19.6006</v>
       </c>
       <c r="C10" t="n">
-        <v>24.1918</v>
+        <v>18.7269</v>
       </c>
       <c r="D10" t="n">
-        <v>47.0003</v>
+        <v>36.8559</v>
       </c>
       <c r="E10" t="n">
-        <v>59.2924</v>
+        <v>47.8414</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.7065</v>
+        <v>19.6173</v>
       </c>
       <c r="C11" t="n">
-        <v>24.2466</v>
+        <v>19.1635</v>
       </c>
       <c r="D11" t="n">
-        <v>48.1846</v>
+        <v>37.366</v>
       </c>
       <c r="E11" t="n">
-        <v>60.7002</v>
+        <v>50.5843</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.6915</v>
+        <v>20.0616</v>
       </c>
       <c r="C12" t="n">
-        <v>24.5541</v>
+        <v>19.863</v>
       </c>
       <c r="D12" t="n">
-        <v>49.2</v>
+        <v>38.983</v>
       </c>
       <c r="E12" t="n">
-        <v>62.3318</v>
+        <v>52.1699</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.2911</v>
+        <v>19.1629</v>
       </c>
       <c r="C13" t="n">
-        <v>25.139</v>
+        <v>19.4331</v>
       </c>
       <c r="D13" t="n">
-        <v>50.1701</v>
+        <v>40.1601</v>
       </c>
       <c r="E13" t="n">
-        <v>65.9002</v>
+        <v>46.9943</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.5753</v>
+        <v>18.6553</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7624</v>
+        <v>19.8585</v>
       </c>
       <c r="D14" t="n">
-        <v>52.8913</v>
+        <v>36.6535</v>
       </c>
       <c r="E14" t="n">
-        <v>66.8536</v>
+        <v>50.0832</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.4416</v>
+        <v>19.5252</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6595</v>
+        <v>19.7357</v>
       </c>
       <c r="D15" t="n">
-        <v>52.5616</v>
+        <v>39.0942</v>
       </c>
       <c r="E15" t="n">
-        <v>71.8201</v>
+        <v>45.3295</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.7422</v>
+        <v>19.6155</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1506</v>
+        <v>20.6717</v>
       </c>
       <c r="D16" t="n">
-        <v>53.332</v>
+        <v>35.1141</v>
       </c>
       <c r="E16" t="n">
-        <v>72.81010000000001</v>
+        <v>48.4227</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5879</v>
+        <v>19.4574</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0171</v>
+        <v>20.8648</v>
       </c>
       <c r="D17" t="n">
-        <v>51.838</v>
+        <v>34.8373</v>
       </c>
       <c r="E17" t="n">
-        <v>71.8172</v>
+        <v>48.7987</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9028</v>
+        <v>11.2881</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1471</v>
+        <v>15.1179</v>
       </c>
       <c r="D2" t="n">
-        <v>18.891</v>
+        <v>18.5889</v>
       </c>
       <c r="E2" t="n">
-        <v>21.4886</v>
+        <v>21.398</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.411</v>
+        <v>14.0209</v>
       </c>
       <c r="C3" t="n">
-        <v>11.0099</v>
+        <v>13.2753</v>
       </c>
       <c r="D3" t="n">
-        <v>19.9366</v>
+        <v>30.9602</v>
       </c>
       <c r="E3" t="n">
-        <v>24.213</v>
+        <v>31.2442</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.3227</v>
+        <v>15.1058</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6982</v>
+        <v>16.3851</v>
       </c>
       <c r="D4" t="n">
-        <v>25.0291</v>
+        <v>26.1964</v>
       </c>
       <c r="E4" t="n">
-        <v>30.8253</v>
+        <v>33.0979</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.7749</v>
+        <v>15.9686</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0597</v>
+        <v>16.3989</v>
       </c>
       <c r="D5" t="n">
-        <v>30.39</v>
+        <v>33.2498</v>
       </c>
       <c r="E5" t="n">
-        <v>37.5455</v>
+        <v>39.6469</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.525</v>
+        <v>18.0066</v>
       </c>
       <c r="C6" t="n">
-        <v>17.647</v>
+        <v>17.1629</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3829</v>
+        <v>33.7972</v>
       </c>
       <c r="E6" t="n">
-        <v>43.8687</v>
+        <v>40.537</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.0015</v>
+        <v>18.7067</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4185</v>
+        <v>17.0486</v>
       </c>
       <c r="D7" t="n">
-        <v>41.0605</v>
+        <v>34.4495</v>
       </c>
       <c r="E7" t="n">
-        <v>48.0345</v>
+        <v>43.891</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.6781</v>
+        <v>18.9927</v>
       </c>
       <c r="C8" t="n">
-        <v>22.7617</v>
+        <v>18.1025</v>
       </c>
       <c r="D8" t="n">
-        <v>44.1094</v>
+        <v>35.1329</v>
       </c>
       <c r="E8" t="n">
-        <v>52.1789</v>
+        <v>44.0776</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2433</v>
+        <v>19.4727</v>
       </c>
       <c r="C9" t="n">
-        <v>25.2239</v>
+        <v>17.7656</v>
       </c>
       <c r="D9" t="n">
-        <v>50.8174</v>
+        <v>37.3544</v>
       </c>
       <c r="E9" t="n">
-        <v>60.0796</v>
+        <v>44.9844</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>27.1139</v>
+        <v>19.3029</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9739</v>
+        <v>18.7104</v>
       </c>
       <c r="D10" t="n">
-        <v>48.7561</v>
+        <v>38.0777</v>
       </c>
       <c r="E10" t="n">
-        <v>57.7844</v>
+        <v>46.7334</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.1435</v>
+        <v>20.7837</v>
       </c>
       <c r="C11" t="n">
-        <v>24.3421</v>
+        <v>18.6566</v>
       </c>
       <c r="D11" t="n">
-        <v>49.3099</v>
+        <v>38.7455</v>
       </c>
       <c r="E11" t="n">
-        <v>59.348</v>
+        <v>47.572</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.3034</v>
+        <v>20.0994</v>
       </c>
       <c r="C12" t="n">
-        <v>24.7141</v>
+        <v>20.2684</v>
       </c>
       <c r="D12" t="n">
-        <v>49.086</v>
+        <v>35.8219</v>
       </c>
       <c r="E12" t="n">
-        <v>61.1561</v>
+        <v>51.1507</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>27.1564</v>
+        <v>19.7297</v>
       </c>
       <c r="C13" t="n">
-        <v>25.1686</v>
+        <v>19.7752</v>
       </c>
       <c r="D13" t="n">
-        <v>52.4948</v>
+        <v>38.8368</v>
       </c>
       <c r="E13" t="n">
-        <v>64.8613</v>
+        <v>48.7953</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>24.8294</v>
+        <v>18.8556</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9911</v>
+        <v>20.3288</v>
       </c>
       <c r="D14" t="n">
-        <v>50.7255</v>
+        <v>38.0088</v>
       </c>
       <c r="E14" t="n">
-        <v>66.89579999999999</v>
+        <v>49.3229</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.24</v>
+        <v>19.4131</v>
       </c>
       <c r="C15" t="n">
-        <v>26.7455</v>
+        <v>20.5123</v>
       </c>
       <c r="D15" t="n">
-        <v>51.3647</v>
+        <v>37.8327</v>
       </c>
       <c r="E15" t="n">
-        <v>67.5658</v>
+        <v>49.9856</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.6477</v>
+        <v>19.5626</v>
       </c>
       <c r="C16" t="n">
-        <v>27.5364</v>
+        <v>20.7598</v>
       </c>
       <c r="D16" t="n">
-        <v>52.5204</v>
+        <v>37.6997</v>
       </c>
       <c r="E16" t="n">
-        <v>68.8473</v>
+        <v>45.3251</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.5166</v>
+        <v>19.4666</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8634</v>
+        <v>20.5213</v>
       </c>
       <c r="D17" t="n">
-        <v>55.265</v>
+        <v>35.8232</v>
       </c>
       <c r="E17" t="n">
-        <v>74.5205</v>
+        <v>49.798</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1846</v>
+        <v>14.2917</v>
       </c>
       <c r="C2" t="n">
-        <v>17.477</v>
+        <v>17.4646</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2973</v>
+        <v>21.0048</v>
       </c>
       <c r="E2" t="n">
-        <v>22.9472</v>
+        <v>22.9665</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.2329</v>
+        <v>18.5954</v>
       </c>
       <c r="C3" t="n">
-        <v>12.1387</v>
+        <v>16.7948</v>
       </c>
       <c r="D3" t="n">
-        <v>24.1009</v>
+        <v>28.2442</v>
       </c>
       <c r="E3" t="n">
-        <v>28.0397</v>
+        <v>29.889</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.8111</v>
+        <v>17.7915</v>
       </c>
       <c r="C4" t="n">
-        <v>14.2322</v>
+        <v>17.8754</v>
       </c>
       <c r="D4" t="n">
-        <v>30.0659</v>
+        <v>32.6025</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8541</v>
+        <v>38.289</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.0938</v>
+        <v>18.0202</v>
       </c>
       <c r="C5" t="n">
-        <v>17.2502</v>
+        <v>17.7164</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2029</v>
+        <v>35.8322</v>
       </c>
       <c r="E5" t="n">
-        <v>44.0037</v>
+        <v>46.5131</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6393</v>
+        <v>21.7723</v>
       </c>
       <c r="C6" t="n">
-        <v>20.1143</v>
+        <v>20.0554</v>
       </c>
       <c r="D6" t="n">
-        <v>43.6031</v>
+        <v>40.0427</v>
       </c>
       <c r="E6" t="n">
-        <v>52.2855</v>
+        <v>47.2712</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2054</v>
+        <v>21.2314</v>
       </c>
       <c r="C7" t="n">
-        <v>23.0356</v>
+        <v>19.5998</v>
       </c>
       <c r="D7" t="n">
-        <v>50.0862</v>
+        <v>41.7034</v>
       </c>
       <c r="E7" t="n">
-        <v>59.0595</v>
+        <v>51.2921</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.3548</v>
+        <v>22.1339</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2068</v>
+        <v>20.0025</v>
       </c>
       <c r="D8" t="n">
-        <v>53.4138</v>
+        <v>42.5739</v>
       </c>
       <c r="E8" t="n">
-        <v>62.4332</v>
+        <v>51.4292</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.6843</v>
+        <v>21.6012</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8119</v>
+        <v>19.4796</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0477</v>
+        <v>41.1971</v>
       </c>
       <c r="E9" t="n">
-        <v>68.7051</v>
+        <v>54.7501</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.711</v>
+        <v>22.1897</v>
       </c>
       <c r="C10" t="n">
-        <v>27.1239</v>
+        <v>20.5169</v>
       </c>
       <c r="D10" t="n">
-        <v>58.2847</v>
+        <v>42.6851</v>
       </c>
       <c r="E10" t="n">
-        <v>69.5697</v>
+        <v>56.3175</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.8059</v>
+        <v>21.8397</v>
       </c>
       <c r="C11" t="n">
-        <v>26.1371</v>
+        <v>20.8494</v>
       </c>
       <c r="D11" t="n">
-        <v>58.4323</v>
+        <v>45.2908</v>
       </c>
       <c r="E11" t="n">
-        <v>67.8792</v>
+        <v>53.2018</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.619</v>
+        <v>20.8405</v>
       </c>
       <c r="C12" t="n">
-        <v>26.2571</v>
+        <v>21.5135</v>
       </c>
       <c r="D12" t="n">
-        <v>58.7623</v>
+        <v>43.4892</v>
       </c>
       <c r="E12" t="n">
-        <v>71.5334</v>
+        <v>57.1321</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.3014</v>
+        <v>22.0854</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9398</v>
+        <v>22.4326</v>
       </c>
       <c r="D13" t="n">
-        <v>61.126</v>
+        <v>48.1374</v>
       </c>
       <c r="E13" t="n">
-        <v>73.79810000000001</v>
+        <v>55.4827</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6813</v>
+        <v>22.5409</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5248</v>
+        <v>21.8682</v>
       </c>
       <c r="D14" t="n">
-        <v>63.2443</v>
+        <v>40.2192</v>
       </c>
       <c r="E14" t="n">
-        <v>74.45950000000001</v>
+        <v>50.9601</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>28.2523</v>
+        <v>22.4074</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2749</v>
+        <v>22.512</v>
       </c>
       <c r="D15" t="n">
-        <v>63.9718</v>
+        <v>41.9837</v>
       </c>
       <c r="E15" t="n">
-        <v>76.4033</v>
+        <v>57.8987</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>27.0962</v>
+        <v>22.4287</v>
       </c>
       <c r="C16" t="n">
-        <v>28.953</v>
+        <v>22.9794</v>
       </c>
       <c r="D16" t="n">
-        <v>63.3088</v>
+        <v>44.7004</v>
       </c>
       <c r="E16" t="n">
-        <v>74.98260000000001</v>
+        <v>59.1245</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.0412</v>
+        <v>20.5103</v>
       </c>
       <c r="C17" t="n">
-        <v>29.7795</v>
+        <v>23.1781</v>
       </c>
       <c r="D17" t="n">
-        <v>61.7352</v>
+        <v>42.7608</v>
       </c>
       <c r="E17" t="n">
-        <v>77.0031</v>
+        <v>54.8411</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95122</v>
+        <v>4.05213</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4701</v>
+        <v>11.3776</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6478</v>
+        <v>13.5403</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7283</v>
+        <v>18.483</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.46038</v>
+        <v>6.56901</v>
       </c>
       <c r="C3" t="n">
-        <v>10.393</v>
+        <v>13.4788</v>
       </c>
       <c r="D3" t="n">
-        <v>18.917</v>
+        <v>18.6052</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5372</v>
+        <v>26.5294</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.40959</v>
+        <v>9.484909999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.8448</v>
+        <v>14.7137</v>
       </c>
       <c r="D4" t="n">
-        <v>25.6283</v>
+        <v>25.0097</v>
       </c>
       <c r="E4" t="n">
-        <v>36.5103</v>
+        <v>37.2985</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3277</v>
+        <v>12.4499</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2977</v>
+        <v>15.7466</v>
       </c>
       <c r="D5" t="n">
-        <v>31.7854</v>
+        <v>31.0192</v>
       </c>
       <c r="E5" t="n">
-        <v>46.4157</v>
+        <v>46.5879</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1454</v>
+        <v>14.8755</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9835</v>
+        <v>17.9092</v>
       </c>
       <c r="D6" t="n">
-        <v>37.8805</v>
+        <v>37.183</v>
       </c>
       <c r="E6" t="n">
-        <v>56.0087</v>
+        <v>55.3244</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9242</v>
+        <v>16.0672</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6056</v>
+        <v>17.5676</v>
       </c>
       <c r="D7" t="n">
-        <v>43.7782</v>
+        <v>39.5475</v>
       </c>
       <c r="E7" t="n">
-        <v>65.265</v>
+        <v>58.463</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8454</v>
+        <v>16.7127</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6866</v>
+        <v>17.1886</v>
       </c>
       <c r="D8" t="n">
-        <v>49.9839</v>
+        <v>40.5967</v>
       </c>
       <c r="E8" t="n">
-        <v>75.46639999999999</v>
+        <v>58.6392</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.762</v>
+        <v>16.9831</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2537</v>
+        <v>17.4157</v>
       </c>
       <c r="D9" t="n">
-        <v>59.7764</v>
+        <v>42.4085</v>
       </c>
       <c r="E9" t="n">
-        <v>85.7069</v>
+        <v>61.4956</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.948</v>
+        <v>17.7667</v>
       </c>
       <c r="C10" t="n">
-        <v>25.1631</v>
+        <v>17.7569</v>
       </c>
       <c r="D10" t="n">
-        <v>54.5923</v>
+        <v>43.1884</v>
       </c>
       <c r="E10" t="n">
-        <v>78.4704</v>
+        <v>62.9103</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9948</v>
+        <v>17.0701</v>
       </c>
       <c r="C11" t="n">
-        <v>25.3138</v>
+        <v>18.3344</v>
       </c>
       <c r="D11" t="n">
-        <v>53.5416</v>
+        <v>44.1105</v>
       </c>
       <c r="E11" t="n">
-        <v>75.6182</v>
+        <v>61.696</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.143</v>
+        <v>17.8513</v>
       </c>
       <c r="C12" t="n">
-        <v>25.1684</v>
+        <v>18.8786</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4908</v>
+        <v>43.3273</v>
       </c>
       <c r="E12" t="n">
-        <v>77.9302</v>
+        <v>61.2924</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6547</v>
+        <v>17.3483</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7389</v>
+        <v>19.2687</v>
       </c>
       <c r="D13" t="n">
-        <v>56.2374</v>
+        <v>44.105</v>
       </c>
       <c r="E13" t="n">
-        <v>80.3139</v>
+        <v>62.6626</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.916</v>
+        <v>17.4606</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8903</v>
+        <v>19.4193</v>
       </c>
       <c r="D14" t="n">
-        <v>56.4734</v>
+        <v>44.1173</v>
       </c>
       <c r="E14" t="n">
-        <v>80.1558</v>
+        <v>60.0491</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.7831</v>
+        <v>17.8692</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3862</v>
+        <v>19.6791</v>
       </c>
       <c r="D15" t="n">
-        <v>55.6377</v>
+        <v>43.7879</v>
       </c>
       <c r="E15" t="n">
-        <v>79.8</v>
+        <v>62.5815</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7792</v>
+        <v>17.7095</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0644</v>
+        <v>19.9326</v>
       </c>
       <c r="D16" t="n">
-        <v>57.0413</v>
+        <v>44.9494</v>
       </c>
       <c r="E16" t="n">
-        <v>80.0421</v>
+        <v>60.9949</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.8725</v>
+        <v>17.952</v>
       </c>
       <c r="C17" t="n">
-        <v>27.7454</v>
+        <v>20.3309</v>
       </c>
       <c r="D17" t="n">
-        <v>57.1849</v>
+        <v>44.7575</v>
       </c>
       <c r="E17" t="n">
-        <v>81.8689</v>
+        <v>62.8731</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.12216</v>
+        <v>4.15931</v>
       </c>
       <c r="C2" t="n">
-        <v>11.6862</v>
+        <v>11.6432</v>
       </c>
       <c r="D2" t="n">
-        <v>13.7308</v>
+        <v>13.6729</v>
       </c>
       <c r="E2" t="n">
-        <v>19.021</v>
+        <v>18.8827</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.48</v>
+        <v>6.80309</v>
       </c>
       <c r="C3" t="n">
-        <v>10.4331</v>
+        <v>17.795</v>
       </c>
       <c r="D3" t="n">
-        <v>18.9012</v>
+        <v>19.7637</v>
       </c>
       <c r="E3" t="n">
-        <v>26.717</v>
+        <v>27.9379</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.43449</v>
+        <v>9.441090000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>12.791</v>
+        <v>14.8981</v>
       </c>
       <c r="D4" t="n">
-        <v>25.5641</v>
+        <v>25.515</v>
       </c>
       <c r="E4" t="n">
-        <v>36.6952</v>
+        <v>37.9142</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2014</v>
+        <v>12.2637</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2619</v>
+        <v>16.6574</v>
       </c>
       <c r="D5" t="n">
-        <v>31.9258</v>
+        <v>31.3051</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7657</v>
+        <v>46.6921</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1247</v>
+        <v>15.1549</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9135</v>
+        <v>18.0169</v>
       </c>
       <c r="D6" t="n">
-        <v>39.3233</v>
+        <v>37.9115</v>
       </c>
       <c r="E6" t="n">
-        <v>56.2325</v>
+        <v>56.1345</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.003</v>
+        <v>16.1017</v>
       </c>
       <c r="C7" t="n">
-        <v>20.6474</v>
+        <v>17.4667</v>
       </c>
       <c r="D7" t="n">
-        <v>45.2798</v>
+        <v>39.5783</v>
       </c>
       <c r="E7" t="n">
-        <v>66.9121</v>
+        <v>58.2201</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8764</v>
+        <v>16.7288</v>
       </c>
       <c r="C8" t="n">
-        <v>23.757</v>
+        <v>17.0201</v>
       </c>
       <c r="D8" t="n">
-        <v>50.0354</v>
+        <v>40.4757</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45699999999999</v>
+        <v>57.4141</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.9303</v>
+        <v>17.0126</v>
       </c>
       <c r="C9" t="n">
-        <v>27.2425</v>
+        <v>17.3679</v>
       </c>
       <c r="D9" t="n">
-        <v>60.1656</v>
+        <v>42.4106</v>
       </c>
       <c r="E9" t="n">
-        <v>85.74160000000001</v>
+        <v>60.8028</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.0079</v>
+        <v>17.7738</v>
       </c>
       <c r="C10" t="n">
-        <v>25.4575</v>
+        <v>17.76</v>
       </c>
       <c r="D10" t="n">
-        <v>55.1744</v>
+        <v>42.8624</v>
       </c>
       <c r="E10" t="n">
-        <v>77.0604</v>
+        <v>63.0064</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.1419</v>
+        <v>17.2523</v>
       </c>
       <c r="C11" t="n">
-        <v>25.1357</v>
+        <v>18.5431</v>
       </c>
       <c r="D11" t="n">
-        <v>55.2926</v>
+        <v>43.8147</v>
       </c>
       <c r="E11" t="n">
-        <v>78.1931</v>
+        <v>61.4279</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.4128</v>
+        <v>17.7333</v>
       </c>
       <c r="C12" t="n">
-        <v>25.464</v>
+        <v>18.789</v>
       </c>
       <c r="D12" t="n">
-        <v>56.5067</v>
+        <v>43.6675</v>
       </c>
       <c r="E12" t="n">
-        <v>79.3528</v>
+        <v>61.0069</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7686</v>
+        <v>17.5738</v>
       </c>
       <c r="C13" t="n">
-        <v>25.7051</v>
+        <v>19.1401</v>
       </c>
       <c r="D13" t="n">
-        <v>57.2434</v>
+        <v>43.5862</v>
       </c>
       <c r="E13" t="n">
-        <v>81.374</v>
+        <v>61.9501</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.947</v>
+        <v>17.4696</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9956</v>
+        <v>19.3116</v>
       </c>
       <c r="D14" t="n">
-        <v>55.7319</v>
+        <v>44.7905</v>
       </c>
       <c r="E14" t="n">
-        <v>79.7336</v>
+        <v>64.9306</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.8375</v>
+        <v>17.786</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5312</v>
+        <v>19.6917</v>
       </c>
       <c r="D15" t="n">
-        <v>56.5229</v>
+        <v>44.33</v>
       </c>
       <c r="E15" t="n">
-        <v>82.008</v>
+        <v>64.325</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8356</v>
+        <v>17.92</v>
       </c>
       <c r="C16" t="n">
-        <v>27.1096</v>
+        <v>19.8094</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6136</v>
+        <v>45.085</v>
       </c>
       <c r="E16" t="n">
-        <v>80.58759999999999</v>
+        <v>63.7177</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.348</v>
+        <v>17.4562</v>
       </c>
       <c r="C17" t="n">
-        <v>27.8035</v>
+        <v>20.0894</v>
       </c>
       <c r="D17" t="n">
-        <v>56.2379</v>
+        <v>44.3008</v>
       </c>
       <c r="E17" t="n">
-        <v>81.7591</v>
+        <v>59.0761</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.7011</v>
+        <v>9.122</v>
       </c>
       <c r="C2" t="n">
-        <v>15.8428</v>
+        <v>15.966</v>
       </c>
       <c r="D2" t="n">
-        <v>19.6418</v>
+        <v>19.6357</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6277</v>
+        <v>22.6004</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.1662</v>
+        <v>11.6185</v>
       </c>
       <c r="C3" t="n">
-        <v>11.771</v>
+        <v>14.5325</v>
       </c>
       <c r="D3" t="n">
-        <v>24.4709</v>
+        <v>27.8561</v>
       </c>
       <c r="E3" t="n">
-        <v>30.5865</v>
+        <v>35.4092</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.243</v>
+        <v>14.0487</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9856</v>
+        <v>18.0334</v>
       </c>
       <c r="D4" t="n">
-        <v>32.1458</v>
+        <v>33.0741</v>
       </c>
       <c r="E4" t="n">
-        <v>42.0115</v>
+        <v>43.3301</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3866</v>
+        <v>17.387</v>
       </c>
       <c r="C5" t="n">
-        <v>16.4778</v>
+        <v>17.3346</v>
       </c>
       <c r="D5" t="n">
-        <v>39.4874</v>
+        <v>41.5516</v>
       </c>
       <c r="E5" t="n">
-        <v>53.2027</v>
+        <v>53.8017</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4155</v>
+        <v>19.8181</v>
       </c>
       <c r="C6" t="n">
-        <v>19.365</v>
+        <v>19.5683</v>
       </c>
       <c r="D6" t="n">
-        <v>47.4466</v>
+        <v>46.9431</v>
       </c>
       <c r="E6" t="n">
-        <v>64.6533</v>
+        <v>63.97</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.665</v>
+        <v>21.659</v>
       </c>
       <c r="C7" t="n">
-        <v>22.1211</v>
+        <v>18.6457</v>
       </c>
       <c r="D7" t="n">
-        <v>55.3079</v>
+        <v>51.0013</v>
       </c>
       <c r="E7" t="n">
-        <v>76.068</v>
+        <v>66.075</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2725</v>
+        <v>22.1275</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2313</v>
+        <v>19.1719</v>
       </c>
       <c r="D8" t="n">
-        <v>62.5381</v>
+        <v>51.0762</v>
       </c>
       <c r="E8" t="n">
-        <v>85.2796</v>
+        <v>66.46899999999999</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.0764</v>
+        <v>22.6346</v>
       </c>
       <c r="C9" t="n">
-        <v>27.9174</v>
+        <v>19.5735</v>
       </c>
       <c r="D9" t="n">
-        <v>74.5553</v>
+        <v>52.2768</v>
       </c>
       <c r="E9" t="n">
-        <v>98.17319999999999</v>
+        <v>69.25530000000001</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.1345</v>
+        <v>23.4059</v>
       </c>
       <c r="C10" t="n">
-        <v>26.8628</v>
+        <v>20.0394</v>
       </c>
       <c r="D10" t="n">
-        <v>69.14709999999999</v>
+        <v>53.4469</v>
       </c>
       <c r="E10" t="n">
-        <v>88.56570000000001</v>
+        <v>71.3477</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>29.1578</v>
+        <v>22.8779</v>
       </c>
       <c r="C11" t="n">
-        <v>26.8574</v>
+        <v>20.795</v>
       </c>
       <c r="D11" t="n">
-        <v>67.81829999999999</v>
+        <v>53.7348</v>
       </c>
       <c r="E11" t="n">
-        <v>87.62739999999999</v>
+        <v>70.863</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.0231</v>
+        <v>23.3755</v>
       </c>
       <c r="C12" t="n">
-        <v>27.2076</v>
+        <v>21.5368</v>
       </c>
       <c r="D12" t="n">
-        <v>68.83029999999999</v>
+        <v>55.2548</v>
       </c>
       <c r="E12" t="n">
-        <v>89.4003</v>
+        <v>72.6521</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.6754</v>
+        <v>23.7632</v>
       </c>
       <c r="C13" t="n">
-        <v>27.6318</v>
+        <v>21.7764</v>
       </c>
       <c r="D13" t="n">
-        <v>68.86620000000001</v>
+        <v>55.9428</v>
       </c>
       <c r="E13" t="n">
-        <v>91.2487</v>
+        <v>71.54770000000001</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.6092</v>
+        <v>23.2667</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0997</v>
+        <v>22.3167</v>
       </c>
       <c r="D14" t="n">
-        <v>70.7503</v>
+        <v>55.5053</v>
       </c>
       <c r="E14" t="n">
-        <v>92.04040000000001</v>
+        <v>74.995</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.6377</v>
+        <v>22.6562</v>
       </c>
       <c r="C15" t="n">
-        <v>28.7027</v>
+        <v>22.4835</v>
       </c>
       <c r="D15" t="n">
-        <v>70.8019</v>
+        <v>54.6538</v>
       </c>
       <c r="E15" t="n">
-        <v>91.1371</v>
+        <v>73.5275</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>29.8266</v>
+        <v>23.2461</v>
       </c>
       <c r="C16" t="n">
-        <v>29.5478</v>
+        <v>22.921</v>
       </c>
       <c r="D16" t="n">
-        <v>70.7757</v>
+        <v>54.0323</v>
       </c>
       <c r="E16" t="n">
-        <v>93.6677</v>
+        <v>72.9937</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.6693</v>
+        <v>22.451</v>
       </c>
       <c r="C17" t="n">
-        <v>30.5006</v>
+        <v>23.043</v>
       </c>
       <c r="D17" t="n">
-        <v>71.36669999999999</v>
+        <v>54.7433</v>
       </c>
       <c r="E17" t="n">
-        <v>94.4337</v>
+        <v>69.7732</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5612</v>
+        <v>10.3772</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3019</v>
+        <v>15.2722</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9534</v>
+        <v>18.8467</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8979</v>
+        <v>21.8362</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2392</v>
+        <v>10.9056</v>
       </c>
       <c r="C3" t="n">
-        <v>11.176</v>
+        <v>11.9159</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8159</v>
+        <v>22.954</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3584</v>
+        <v>28.9703</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8978</v>
+        <v>14.2347</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6789</v>
+        <v>15.8017</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0922</v>
+        <v>25.087</v>
       </c>
       <c r="E4" t="n">
-        <v>30.9975</v>
+        <v>32.2465</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5192</v>
+        <v>15.5954</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1369</v>
+        <v>15.7481</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0019</v>
+        <v>26.9875</v>
       </c>
       <c r="E5" t="n">
-        <v>37.4838</v>
+        <v>38.3872</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3066</v>
+        <v>17.6416</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6809</v>
+        <v>18.3625</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3878</v>
+        <v>31.5582</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4718</v>
+        <v>40.7442</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6437</v>
+        <v>18.9563</v>
       </c>
       <c r="C7" t="n">
-        <v>20.669</v>
+        <v>16.7657</v>
       </c>
       <c r="D7" t="n">
-        <v>37.7356</v>
+        <v>31.6478</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7862</v>
+        <v>41.7116</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3094</v>
+        <v>18.7724</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6684</v>
+        <v>17.2961</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7627</v>
+        <v>31.7376</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4232</v>
+        <v>42.178</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6929</v>
+        <v>19.382</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9252</v>
+        <v>17.9658</v>
       </c>
       <c r="D9" t="n">
-        <v>44.6631</v>
+        <v>33.1736</v>
       </c>
       <c r="E9" t="n">
-        <v>56.7936</v>
+        <v>45.0634</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2262</v>
+        <v>19.9741</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7761</v>
+        <v>17.6883</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7575</v>
+        <v>34.4901</v>
       </c>
       <c r="E10" t="n">
-        <v>58.0104</v>
+        <v>46.5208</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8892</v>
+        <v>19.2253</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7322</v>
+        <v>19.3616</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6755</v>
+        <v>31.9834</v>
       </c>
       <c r="E11" t="n">
-        <v>57.3559</v>
+        <v>46.4087</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8334</v>
+        <v>19.5822</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4492</v>
+        <v>18.5277</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6659</v>
+        <v>34.6555</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3361</v>
+        <v>42.2639</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0671</v>
+        <v>19.8483</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0869</v>
+        <v>19.948</v>
       </c>
       <c r="D13" t="n">
-        <v>46.1693</v>
+        <v>33.2471</v>
       </c>
       <c r="E13" t="n">
-        <v>62.6094</v>
+        <v>46.7566</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0945</v>
+        <v>19.3545</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7779</v>
+        <v>19.8247</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8067</v>
+        <v>32.487</v>
       </c>
       <c r="E14" t="n">
-        <v>59.1789</v>
+        <v>45.3922</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6247</v>
+        <v>18.6693</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6112</v>
+        <v>20.1172</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2369</v>
+        <v>32.0418</v>
       </c>
       <c r="E15" t="n">
-        <v>65.2008</v>
+        <v>43.9679</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.2869</v>
+        <v>18.7533</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9903</v>
+        <v>20.1618</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1223</v>
+        <v>31.8289</v>
       </c>
       <c r="E16" t="n">
-        <v>65.3323</v>
+        <v>48.6928</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7823</v>
+        <v>19.0267</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9442</v>
+        <v>20.7307</v>
       </c>
       <c r="D17" t="n">
-        <v>46.7634</v>
+        <v>31.8699</v>
       </c>
       <c r="E17" t="n">
-        <v>65.06100000000001</v>
+        <v>42.9093</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0514</v>
+        <v>10.9492</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1574</v>
+        <v>15.0152</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8481</v>
+        <v>18.7292</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7563</v>
+        <v>21.6859</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2331</v>
+        <v>15.6043</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6558</v>
+        <v>18.9478</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9757</v>
+        <v>22.1681</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8684</v>
+        <v>30.0749</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2687</v>
+        <v>15.1734</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4586</v>
+        <v>15.5381</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2298</v>
+        <v>24.6789</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8745</v>
+        <v>31.8909</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0762</v>
+        <v>16.0761</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9131</v>
+        <v>15.7293</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7921</v>
+        <v>30.179</v>
       </c>
       <c r="E5" t="n">
-        <v>37.1349</v>
+        <v>39.7609</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.427</v>
+        <v>17.7927</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5655</v>
+        <v>16.9271</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4004</v>
+        <v>30.5328</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1174</v>
+        <v>42.0628</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2317</v>
+        <v>19.3247</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3929</v>
+        <v>17.3256</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0622</v>
+        <v>31.9326</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5807</v>
+        <v>41.1968</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2861</v>
+        <v>18.894</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5075</v>
+        <v>17.4363</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7252</v>
+        <v>32.007</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1316</v>
+        <v>40.7527</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2093</v>
+        <v>19.852</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0216</v>
+        <v>17.6959</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2322</v>
+        <v>31.4411</v>
       </c>
       <c r="E9" t="n">
-        <v>59.5873</v>
+        <v>45.4883</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4203</v>
+        <v>19.1904</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9273</v>
+        <v>18.0209</v>
       </c>
       <c r="D10" t="n">
-        <v>42.8583</v>
+        <v>33.8665</v>
       </c>
       <c r="E10" t="n">
-        <v>58.3163</v>
+        <v>46.6042</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2835</v>
+        <v>20.4691</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0409</v>
+        <v>19.1275</v>
       </c>
       <c r="D11" t="n">
-        <v>42.6067</v>
+        <v>34.7051</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8488</v>
+        <v>45.9771</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5778</v>
+        <v>19.3488</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3894</v>
+        <v>19.4823</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2313</v>
+        <v>32.241</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3841</v>
+        <v>43.5487</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8298</v>
+        <v>19.5505</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8384</v>
+        <v>19.6102</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6905</v>
+        <v>31.3647</v>
       </c>
       <c r="E13" t="n">
-        <v>62.8075</v>
+        <v>43.5141</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.11</v>
+        <v>19.7572</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8491</v>
+        <v>20.3871</v>
       </c>
       <c r="D14" t="n">
-        <v>43.2971</v>
+        <v>31.6818</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6708</v>
+        <v>46.8142</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2647</v>
+        <v>19.9416</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5689</v>
+        <v>20.0834</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4718</v>
+        <v>31.363</v>
       </c>
       <c r="E15" t="n">
-        <v>65.32380000000001</v>
+        <v>42.5308</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3322</v>
+        <v>19.2952</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0034</v>
+        <v>20.6893</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5542</v>
+        <v>30.9176</v>
       </c>
       <c r="E16" t="n">
-        <v>64.71040000000001</v>
+        <v>40.0034</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9856</v>
+        <v>19.3616</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0008</v>
+        <v>20.5097</v>
       </c>
       <c r="D17" t="n">
-        <v>44.2501</v>
+        <v>32.5619</v>
       </c>
       <c r="E17" t="n">
-        <v>63.2188</v>
+        <v>43.3112</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2279</v>
+        <v>14.2569</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3674</v>
+        <v>17.4287</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3585</v>
+        <v>21.2048</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2888</v>
+        <v>23.0944</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1149</v>
+        <v>16.0866</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0274</v>
+        <v>22.0347</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7446</v>
+        <v>23.2031</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4614</v>
+        <v>27.4231</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1198</v>
+        <v>17.732</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1031</v>
+        <v>18.9618</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2766</v>
+        <v>27.2383</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4176</v>
+        <v>34.8969</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2303</v>
+        <v>17.9992</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9674</v>
+        <v>17.7078</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9748</v>
+        <v>31.1213</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8252</v>
+        <v>42.2393</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.671</v>
+        <v>20.6374</v>
       </c>
       <c r="C6" t="n">
-        <v>19.9885</v>
+        <v>19.113</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8342</v>
+        <v>34.5592</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9821</v>
+        <v>44.5017</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2709</v>
+        <v>21.1511</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8579</v>
+        <v>19.1554</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1515</v>
+        <v>33.3265</v>
       </c>
       <c r="E7" t="n">
-        <v>51.5733</v>
+        <v>42.9896</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4732</v>
+        <v>20.6625</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2003</v>
+        <v>19.0499</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1414</v>
+        <v>34.0064</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0848</v>
+        <v>46.5316</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7718</v>
+        <v>21.588</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6254</v>
+        <v>19.6083</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8407</v>
+        <v>34.2008</v>
       </c>
       <c r="E9" t="n">
-        <v>59.0158</v>
+        <v>44.371</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4972</v>
+        <v>21.2615</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9739</v>
+        <v>20.0779</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4219</v>
+        <v>35.9107</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9056</v>
+        <v>45.2368</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7822</v>
+        <v>21.9355</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5609</v>
+        <v>22.0393</v>
       </c>
       <c r="D11" t="n">
-        <v>44.5836</v>
+        <v>34.3778</v>
       </c>
       <c r="E11" t="n">
-        <v>55.6598</v>
+        <v>44.2741</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8991</v>
+        <v>21.2966</v>
       </c>
       <c r="C12" t="n">
-        <v>25.962</v>
+        <v>21.331</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3274</v>
+        <v>35.1153</v>
       </c>
       <c r="E12" t="n">
-        <v>58.5522</v>
+        <v>48.047</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9529</v>
+        <v>22.1995</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6127</v>
+        <v>22.2347</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5044</v>
+        <v>31.3813</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1137</v>
+        <v>44.3167</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9921</v>
+        <v>21.9546</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5317</v>
+        <v>22.2468</v>
       </c>
       <c r="D14" t="n">
-        <v>48.0414</v>
+        <v>32.2891</v>
       </c>
       <c r="E14" t="n">
-        <v>58.972</v>
+        <v>38.9997</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.8168</v>
+        <v>21.7778</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2142</v>
+        <v>22.5216</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2677</v>
+        <v>33.7418</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8553</v>
+        <v>41.644</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2</v>
+        <v>22.454</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7091</v>
+        <v>22.6042</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3516</v>
+        <v>31.3403</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8808</v>
+        <v>40.997</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.308</v>
+        <v>20.7691</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5669</v>
+        <v>23.3038</v>
       </c>
       <c r="D17" t="n">
-        <v>46.3166</v>
+        <v>31.9856</v>
       </c>
       <c r="E17" t="n">
-        <v>57.2505</v>
+        <v>35.1914</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94692</v>
+        <v>4.08823</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3422</v>
+        <v>11.4401</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6425</v>
+        <v>13.6226</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0243</v>
+        <v>19.0212</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.42306</v>
+        <v>6.67805</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3793</v>
+        <v>13.5287</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4638</v>
+        <v>19.153</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9234</v>
+        <v>29.2091</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36994</v>
+        <v>9.43801</v>
       </c>
       <c r="C4" t="n">
-        <v>12.647</v>
+        <v>14.6668</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5531</v>
+        <v>24.6239</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8891</v>
+        <v>37.8811</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2021</v>
+        <v>12.2853</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0925</v>
+        <v>15.6081</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1131</v>
+        <v>30.1615</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7634</v>
+        <v>46.8109</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0618</v>
+        <v>15.0085</v>
       </c>
       <c r="C6" t="n">
-        <v>17.805</v>
+        <v>17.8592</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6342</v>
+        <v>35.1125</v>
       </c>
       <c r="E6" t="n">
-        <v>56.4086</v>
+        <v>56.7115</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0753</v>
+        <v>16.1117</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4991</v>
+        <v>17.0335</v>
       </c>
       <c r="D7" t="n">
-        <v>41.3282</v>
+        <v>37.8092</v>
       </c>
       <c r="E7" t="n">
-        <v>66.03660000000001</v>
+        <v>56.0174</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8065</v>
+        <v>16.7195</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5963</v>
+        <v>17.2894</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1086</v>
+        <v>38.9505</v>
       </c>
       <c r="E8" t="n">
-        <v>75.2762</v>
+        <v>58.6607</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6417</v>
+        <v>17.5765</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0397</v>
+        <v>17.3225</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7376</v>
+        <v>40.4064</v>
       </c>
       <c r="E9" t="n">
-        <v>83.13549999999999</v>
+        <v>59.9477</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7296</v>
+        <v>17.8467</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3388</v>
+        <v>17.7036</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3101</v>
+        <v>40.5612</v>
       </c>
       <c r="E10" t="n">
-        <v>74.3617</v>
+        <v>61.1513</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.2686</v>
+        <v>17.2537</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0981</v>
+        <v>18.4677</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2584</v>
+        <v>41.6187</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7208</v>
+        <v>60.4729</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0434</v>
+        <v>17.8147</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4435</v>
+        <v>18.8772</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2083</v>
+        <v>40.9915</v>
       </c>
       <c r="E12" t="n">
-        <v>77.10890000000001</v>
+        <v>62.586</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6629</v>
+        <v>17.5821</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5727</v>
+        <v>19.1718</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4848</v>
+        <v>40.2915</v>
       </c>
       <c r="E13" t="n">
-        <v>76.6164</v>
+        <v>61.7831</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8306</v>
+        <v>17.84</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8787</v>
+        <v>19.2788</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4136</v>
+        <v>42.5303</v>
       </c>
       <c r="E14" t="n">
-        <v>77.9174</v>
+        <v>60.5705</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4413</v>
+        <v>17.6775</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3188</v>
+        <v>19.3296</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4201</v>
+        <v>41.3253</v>
       </c>
       <c r="E15" t="n">
-        <v>75.8824</v>
+        <v>62.2686</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7387</v>
+        <v>17.7759</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9641</v>
+        <v>19.6022</v>
       </c>
       <c r="D16" t="n">
-        <v>53.1431</v>
+        <v>42.4178</v>
       </c>
       <c r="E16" t="n">
-        <v>75.5458</v>
+        <v>58.4264</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7197</v>
+        <v>17.8481</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5821</v>
+        <v>19.7621</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1553</v>
+        <v>42.0202</v>
       </c>
       <c r="E17" t="n">
-        <v>76.645</v>
+        <v>60.6789</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95496</v>
+        <v>4.07362</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4326</v>
+        <v>11.4758</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5504</v>
+        <v>13.457</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1139</v>
+        <v>18.956</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.41868</v>
+        <v>6.72549</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3614</v>
+        <v>13.3634</v>
       </c>
       <c r="D3" t="n">
-        <v>17.988</v>
+        <v>22.5887</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5389</v>
+        <v>27.4713</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.406129999999999</v>
+        <v>9.38325</v>
       </c>
       <c r="C4" t="n">
-        <v>12.822</v>
+        <v>14.7694</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8744</v>
+        <v>24.1132</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7924</v>
+        <v>37.4699</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2036</v>
+        <v>12.3427</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2169</v>
+        <v>15.5909</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5476</v>
+        <v>29.4118</v>
       </c>
       <c r="E5" t="n">
-        <v>45.9217</v>
+        <v>46.3127</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0792</v>
+        <v>15.0599</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7468</v>
+        <v>18.1758</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0043</v>
+        <v>34.6299</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1301</v>
+        <v>54.9741</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9253</v>
+        <v>16.0113</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3804</v>
+        <v>17.1795</v>
       </c>
       <c r="D7" t="n">
-        <v>40.8809</v>
+        <v>36.9398</v>
       </c>
       <c r="E7" t="n">
-        <v>65.5099</v>
+        <v>57.8039</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4891</v>
+        <v>16.3664</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6197</v>
+        <v>17.2374</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2499</v>
+        <v>38.4219</v>
       </c>
       <c r="E8" t="n">
-        <v>74.4554</v>
+        <v>58.0895</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4683</v>
+        <v>17.2561</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9719</v>
+        <v>17.2776</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4011</v>
+        <v>39.101</v>
       </c>
       <c r="E9" t="n">
-        <v>82.6939</v>
+        <v>59.7361</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9233</v>
+        <v>17.3639</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9895</v>
+        <v>17.6596</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3567</v>
+        <v>39.7004</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6481</v>
+        <v>59.2154</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0648</v>
+        <v>17.2406</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2481</v>
+        <v>18.4033</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4718</v>
+        <v>40.0462</v>
       </c>
       <c r="E11" t="n">
-        <v>71.977</v>
+        <v>60.0048</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.371</v>
+        <v>17.5015</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2368</v>
+        <v>18.9878</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2181</v>
+        <v>40.9008</v>
       </c>
       <c r="E12" t="n">
-        <v>75.68899999999999</v>
+        <v>59.8399</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7319</v>
+        <v>17.6158</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5919</v>
+        <v>18.9462</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2328</v>
+        <v>40.1721</v>
       </c>
       <c r="E13" t="n">
-        <v>75.14749999999999</v>
+        <v>60.5326</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6259</v>
+        <v>17.7421</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9457</v>
+        <v>19.0454</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8328</v>
+        <v>39.9795</v>
       </c>
       <c r="E14" t="n">
-        <v>76.2376</v>
+        <v>60.2141</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.605</v>
+        <v>17.7076</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2562</v>
+        <v>19.3835</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5252</v>
+        <v>40.2278</v>
       </c>
       <c r="E15" t="n">
-        <v>75.63339999999999</v>
+        <v>60.1703</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8574</v>
+        <v>17.5609</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9167</v>
+        <v>19.4546</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9045</v>
+        <v>40.8186</v>
       </c>
       <c r="E16" t="n">
-        <v>76.0384</v>
+        <v>59.1329</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7875</v>
+        <v>17.557</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4887</v>
+        <v>20.0533</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2268</v>
+        <v>39.4352</v>
       </c>
       <c r="E17" t="n">
-        <v>75.6673</v>
+        <v>55.472</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.74661</v>
+        <v>9.02406</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6987</v>
+        <v>15.796</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4951</v>
+        <v>19.4342</v>
       </c>
       <c r="E2" t="n">
-        <v>22.836</v>
+        <v>22.6413</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.247</v>
+        <v>11.7739</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7847</v>
+        <v>14.4768</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1719</v>
+        <v>25.6885</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8491</v>
+        <v>32.0628</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1544</v>
+        <v>14.3782</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8621</v>
+        <v>17.9036</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9293</v>
+        <v>29.2078</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7616</v>
+        <v>40.4427</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3832</v>
+        <v>17.2048</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3089</v>
+        <v>17.3368</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1136</v>
+        <v>32.7345</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5537</v>
+        <v>48.9469</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4984</v>
+        <v>19.4907</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2502</v>
+        <v>19.2628</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6167</v>
+        <v>39.1127</v>
       </c>
       <c r="E6" t="n">
-        <v>57.8597</v>
+        <v>57.5667</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8221</v>
+        <v>21.427</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9979</v>
+        <v>18.9743</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0645</v>
+        <v>40.4859</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9521</v>
+        <v>55.4184</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2803</v>
+        <v>22.2235</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1338</v>
+        <v>18.9273</v>
       </c>
       <c r="D8" t="n">
-        <v>51.721</v>
+        <v>40.0494</v>
       </c>
       <c r="E8" t="n">
-        <v>73.53270000000001</v>
+        <v>56.075</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3054</v>
+        <v>23.0309</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8077</v>
+        <v>19.445</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0644</v>
+        <v>41.7205</v>
       </c>
       <c r="E9" t="n">
-        <v>81.6267</v>
+        <v>57.2671</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0994</v>
+        <v>23.5938</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3908</v>
+        <v>19.83</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6393</v>
+        <v>42.249</v>
       </c>
       <c r="E10" t="n">
-        <v>72.1913</v>
+        <v>58.3096</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.95</v>
+        <v>23.4087</v>
       </c>
       <c r="C11" t="n">
-        <v>26.625</v>
+        <v>20.6522</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7342</v>
+        <v>43.0981</v>
       </c>
       <c r="E11" t="n">
-        <v>75.01090000000001</v>
+        <v>60.3272</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4219</v>
+        <v>23.6644</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0039</v>
+        <v>21.3895</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2723</v>
+        <v>44.1119</v>
       </c>
       <c r="E12" t="n">
-        <v>77.57980000000001</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7085</v>
+        <v>23.2607</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2984</v>
+        <v>21.7399</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3908</v>
+        <v>43.7146</v>
       </c>
       <c r="E13" t="n">
-        <v>78.6661</v>
+        <v>61.1166</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.649</v>
+        <v>22.7261</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0042</v>
+        <v>22.5021</v>
       </c>
       <c r="D14" t="n">
-        <v>56.0628</v>
+        <v>44.7385</v>
       </c>
       <c r="E14" t="n">
-        <v>78.0438</v>
+        <v>61.4065</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.713</v>
+        <v>22.881</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4777</v>
+        <v>22.4853</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8458</v>
+        <v>43.8426</v>
       </c>
       <c r="E15" t="n">
-        <v>79.05670000000001</v>
+        <v>60.9102</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.11</v>
+        <v>23.4267</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3868</v>
+        <v>22.5298</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6362</v>
+        <v>42.7374</v>
       </c>
       <c r="E16" t="n">
-        <v>78.80840000000001</v>
+        <v>60.5912</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.6651</v>
+        <v>23.1827</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2227</v>
+        <v>22.7894</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3398</v>
+        <v>43.9466</v>
       </c>
       <c r="E17" t="n">
-        <v>78.892</v>
+        <v>60.7631</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3772</v>
+        <v>10.5531</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2722</v>
+        <v>15.2918</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8467</v>
+        <v>18.8145</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8362</v>
+        <v>21.6171</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.9056</v>
+        <v>15.0467</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9159</v>
+        <v>16.6936</v>
       </c>
       <c r="D3" t="n">
-        <v>22.954</v>
+        <v>23.1759</v>
       </c>
       <c r="E3" t="n">
-        <v>28.9703</v>
+        <v>28.9266</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.2347</v>
+        <v>14.4687</v>
       </c>
       <c r="C4" t="n">
-        <v>15.8017</v>
+        <v>15.9794</v>
       </c>
       <c r="D4" t="n">
-        <v>25.087</v>
+        <v>25.3985</v>
       </c>
       <c r="E4" t="n">
-        <v>32.2465</v>
+        <v>32.8055</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5954</v>
+        <v>15.5145</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7481</v>
+        <v>15.681</v>
       </c>
       <c r="D5" t="n">
-        <v>26.9875</v>
+        <v>28.6158</v>
       </c>
       <c r="E5" t="n">
-        <v>38.3872</v>
+        <v>40.0209</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.6416</v>
+        <v>18.2405</v>
       </c>
       <c r="C6" t="n">
-        <v>18.3625</v>
+        <v>17.4012</v>
       </c>
       <c r="D6" t="n">
-        <v>31.5582</v>
+        <v>31.1167</v>
       </c>
       <c r="E6" t="n">
-        <v>40.7442</v>
+        <v>41.3409</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9563</v>
+        <v>18.752</v>
       </c>
       <c r="C7" t="n">
-        <v>16.7657</v>
+        <v>17.2763</v>
       </c>
       <c r="D7" t="n">
-        <v>31.6478</v>
+        <v>32.1724</v>
       </c>
       <c r="E7" t="n">
-        <v>41.7116</v>
+        <v>43.2804</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7724</v>
+        <v>18.7313</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2961</v>
+        <v>17.6685</v>
       </c>
       <c r="D8" t="n">
-        <v>31.7376</v>
+        <v>32.7574</v>
       </c>
       <c r="E8" t="n">
-        <v>42.178</v>
+        <v>41.9207</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.382</v>
+        <v>18.7526</v>
       </c>
       <c r="C9" t="n">
-        <v>17.9658</v>
+        <v>18.255</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1736</v>
+        <v>33.1439</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0634</v>
+        <v>44.4409</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.9741</v>
+        <v>18.7738</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6883</v>
+        <v>18.4381</v>
       </c>
       <c r="D10" t="n">
-        <v>34.4901</v>
+        <v>34.2836</v>
       </c>
       <c r="E10" t="n">
-        <v>46.5208</v>
+        <v>43.8823</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2253</v>
+        <v>19.2999</v>
       </c>
       <c r="C11" t="n">
-        <v>19.3616</v>
+        <v>18.5448</v>
       </c>
       <c r="D11" t="n">
-        <v>31.9834</v>
+        <v>32.7201</v>
       </c>
       <c r="E11" t="n">
-        <v>46.4087</v>
+        <v>48.6191</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.5822</v>
+        <v>19.39</v>
       </c>
       <c r="C12" t="n">
-        <v>18.5277</v>
+        <v>18.8849</v>
       </c>
       <c r="D12" t="n">
-        <v>34.6555</v>
+        <v>36.0663</v>
       </c>
       <c r="E12" t="n">
-        <v>42.2639</v>
+        <v>44.8017</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.8483</v>
+        <v>19.2308</v>
       </c>
       <c r="C13" t="n">
-        <v>19.948</v>
+        <v>19.2312</v>
       </c>
       <c r="D13" t="n">
-        <v>33.2471</v>
+        <v>34.0531</v>
       </c>
       <c r="E13" t="n">
-        <v>46.7566</v>
+        <v>45.5905</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.3545</v>
+        <v>20.111</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8247</v>
+        <v>19.6817</v>
       </c>
       <c r="D14" t="n">
-        <v>32.487</v>
+        <v>34.8907</v>
       </c>
       <c r="E14" t="n">
-        <v>45.3922</v>
+        <v>44.2409</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.6693</v>
+        <v>19.0495</v>
       </c>
       <c r="C15" t="n">
-        <v>20.1172</v>
+        <v>19.6474</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0418</v>
+        <v>31.3407</v>
       </c>
       <c r="E15" t="n">
-        <v>43.9679</v>
+        <v>46.4906</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>18.7533</v>
+        <v>19.8128</v>
       </c>
       <c r="C16" t="n">
-        <v>20.1618</v>
+        <v>20.4201</v>
       </c>
       <c r="D16" t="n">
-        <v>31.8289</v>
+        <v>31.2064</v>
       </c>
       <c r="E16" t="n">
-        <v>48.6928</v>
+        <v>42.6413</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.0267</v>
+        <v>18.8214</v>
       </c>
       <c r="C17" t="n">
-        <v>20.7307</v>
+        <v>20.4999</v>
       </c>
       <c r="D17" t="n">
-        <v>31.8699</v>
+        <v>31.9457</v>
       </c>
       <c r="E17" t="n">
-        <v>42.9093</v>
+        <v>39.3192</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.9492</v>
+        <v>11.1758</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0152</v>
+        <v>15.1259</v>
       </c>
       <c r="D2" t="n">
-        <v>18.7292</v>
+        <v>18.3444</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6859</v>
+        <v>21.6078</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6043</v>
+        <v>17.9598</v>
       </c>
       <c r="C3" t="n">
-        <v>18.9478</v>
+        <v>19.1366</v>
       </c>
       <c r="D3" t="n">
-        <v>22.1681</v>
+        <v>19.4485</v>
       </c>
       <c r="E3" t="n">
-        <v>30.0749</v>
+        <v>30.1482</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>15.1734</v>
+        <v>14.8613</v>
       </c>
       <c r="C4" t="n">
-        <v>15.5381</v>
+        <v>15.7798</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6789</v>
+        <v>24.8211</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8909</v>
+        <v>32.4382</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0761</v>
+        <v>16.0317</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7293</v>
+        <v>18.664</v>
       </c>
       <c r="D5" t="n">
-        <v>30.179</v>
+        <v>28.0353</v>
       </c>
       <c r="E5" t="n">
-        <v>39.7609</v>
+        <v>38.1082</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.7927</v>
+        <v>18.2377</v>
       </c>
       <c r="C6" t="n">
-        <v>16.9271</v>
+        <v>17.9028</v>
       </c>
       <c r="D6" t="n">
-        <v>30.5328</v>
+        <v>31.3442</v>
       </c>
       <c r="E6" t="n">
-        <v>42.0628</v>
+        <v>40.435</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.3247</v>
+        <v>18.9059</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3256</v>
+        <v>17.4603</v>
       </c>
       <c r="D7" t="n">
-        <v>31.9326</v>
+        <v>31.2613</v>
       </c>
       <c r="E7" t="n">
-        <v>41.1968</v>
+        <v>41.6043</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.894</v>
+        <v>18.3854</v>
       </c>
       <c r="C8" t="n">
-        <v>17.4363</v>
+        <v>18.4233</v>
       </c>
       <c r="D8" t="n">
-        <v>32.007</v>
+        <v>32.0536</v>
       </c>
       <c r="E8" t="n">
-        <v>40.7527</v>
+        <v>42.8873</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.852</v>
+        <v>19.4966</v>
       </c>
       <c r="C9" t="n">
-        <v>17.6959</v>
+        <v>18.1396</v>
       </c>
       <c r="D9" t="n">
-        <v>31.4411</v>
+        <v>32.3168</v>
       </c>
       <c r="E9" t="n">
-        <v>45.4883</v>
+        <v>44.5017</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.1904</v>
+        <v>19.6008</v>
       </c>
       <c r="C10" t="n">
-        <v>18.0209</v>
+        <v>18.3889</v>
       </c>
       <c r="D10" t="n">
-        <v>33.8665</v>
+        <v>32.0179</v>
       </c>
       <c r="E10" t="n">
-        <v>46.6042</v>
+        <v>45.1142</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.4691</v>
+        <v>20.3104</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1275</v>
+        <v>18.4477</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7051</v>
+        <v>33.8025</v>
       </c>
       <c r="E11" t="n">
-        <v>45.9771</v>
+        <v>46.9401</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.3488</v>
+        <v>19.4576</v>
       </c>
       <c r="C12" t="n">
-        <v>19.4823</v>
+        <v>19.0698</v>
       </c>
       <c r="D12" t="n">
-        <v>32.241</v>
+        <v>32.9611</v>
       </c>
       <c r="E12" t="n">
-        <v>43.5487</v>
+        <v>45.8767</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.5505</v>
+        <v>19.646</v>
       </c>
       <c r="C13" t="n">
-        <v>19.6102</v>
+        <v>19.5783</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3647</v>
+        <v>33.1205</v>
       </c>
       <c r="E13" t="n">
-        <v>43.5141</v>
+        <v>43.9543</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>19.7572</v>
+        <v>20.0999</v>
       </c>
       <c r="C14" t="n">
-        <v>20.3871</v>
+        <v>19.9145</v>
       </c>
       <c r="D14" t="n">
-        <v>31.6818</v>
+        <v>31.4737</v>
       </c>
       <c r="E14" t="n">
-        <v>46.8142</v>
+        <v>43.3877</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.9416</v>
+        <v>18.8828</v>
       </c>
       <c r="C15" t="n">
-        <v>20.0834</v>
+        <v>20.7883</v>
       </c>
       <c r="D15" t="n">
-        <v>31.363</v>
+        <v>32.0204</v>
       </c>
       <c r="E15" t="n">
-        <v>42.5308</v>
+        <v>44.0687</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.2952</v>
+        <v>19.5612</v>
       </c>
       <c r="C16" t="n">
-        <v>20.6893</v>
+        <v>20.4813</v>
       </c>
       <c r="D16" t="n">
-        <v>30.9176</v>
+        <v>30.2716</v>
       </c>
       <c r="E16" t="n">
-        <v>40.0034</v>
+        <v>40.8074</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.3616</v>
+        <v>19.2714</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5097</v>
+        <v>20.9283</v>
       </c>
       <c r="D17" t="n">
-        <v>32.5619</v>
+        <v>30.7034</v>
       </c>
       <c r="E17" t="n">
-        <v>43.3112</v>
+        <v>41.9125</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2569</v>
+        <v>14.3872</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4287</v>
+        <v>17.4262</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2048</v>
+        <v>21.2057</v>
       </c>
       <c r="E2" t="n">
-        <v>23.0944</v>
+        <v>23.1551</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16.0866</v>
+        <v>21.3804</v>
       </c>
       <c r="C3" t="n">
-        <v>22.0347</v>
+        <v>26.7365</v>
       </c>
       <c r="D3" t="n">
-        <v>23.2031</v>
+        <v>23.051</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4231</v>
+        <v>35.1185</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.732</v>
+        <v>17.6003</v>
       </c>
       <c r="C4" t="n">
-        <v>18.9618</v>
+        <v>18.6431</v>
       </c>
       <c r="D4" t="n">
-        <v>27.2383</v>
+        <v>28.1002</v>
       </c>
       <c r="E4" t="n">
-        <v>34.8969</v>
+        <v>35.6384</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.9992</v>
+        <v>17.995</v>
       </c>
       <c r="C5" t="n">
-        <v>17.7078</v>
+        <v>17.6507</v>
       </c>
       <c r="D5" t="n">
-        <v>31.1213</v>
+        <v>30.7814</v>
       </c>
       <c r="E5" t="n">
-        <v>42.2393</v>
+        <v>41.2545</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.6374</v>
+        <v>20.9436</v>
       </c>
       <c r="C6" t="n">
-        <v>19.113</v>
+        <v>19.8382</v>
       </c>
       <c r="D6" t="n">
-        <v>34.5592</v>
+        <v>33.8546</v>
       </c>
       <c r="E6" t="n">
-        <v>44.5017</v>
+        <v>45.1781</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1511</v>
+        <v>21.1512</v>
       </c>
       <c r="C7" t="n">
-        <v>19.1554</v>
+        <v>19.8974</v>
       </c>
       <c r="D7" t="n">
-        <v>33.3265</v>
+        <v>34.1776</v>
       </c>
       <c r="E7" t="n">
-        <v>42.9896</v>
+        <v>44.2204</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.6625</v>
+        <v>21.2694</v>
       </c>
       <c r="C8" t="n">
-        <v>19.0499</v>
+        <v>19.6387</v>
       </c>
       <c r="D8" t="n">
-        <v>34.0064</v>
+        <v>35.7124</v>
       </c>
       <c r="E8" t="n">
-        <v>46.5316</v>
+        <v>48.565</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.588</v>
+        <v>21.5847</v>
       </c>
       <c r="C9" t="n">
-        <v>19.6083</v>
+        <v>19.7411</v>
       </c>
       <c r="D9" t="n">
-        <v>34.2008</v>
+        <v>35.0497</v>
       </c>
       <c r="E9" t="n">
-        <v>44.371</v>
+        <v>45.4592</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.2615</v>
+        <v>21.0291</v>
       </c>
       <c r="C10" t="n">
-        <v>20.0779</v>
+        <v>20.2666</v>
       </c>
       <c r="D10" t="n">
-        <v>35.9107</v>
+        <v>36.1021</v>
       </c>
       <c r="E10" t="n">
-        <v>45.2368</v>
+        <v>46.6099</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.9355</v>
+        <v>21.8608</v>
       </c>
       <c r="C11" t="n">
-        <v>22.0393</v>
+        <v>21.1638</v>
       </c>
       <c r="D11" t="n">
-        <v>34.3778</v>
+        <v>34.7097</v>
       </c>
       <c r="E11" t="n">
-        <v>44.2741</v>
+        <v>44.4029</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>21.2966</v>
+        <v>22.0732</v>
       </c>
       <c r="C12" t="n">
-        <v>21.331</v>
+        <v>22.2083</v>
       </c>
       <c r="D12" t="n">
-        <v>35.1153</v>
+        <v>34.861</v>
       </c>
       <c r="E12" t="n">
-        <v>48.047</v>
+        <v>43.3686</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.1995</v>
+        <v>22.4957</v>
       </c>
       <c r="C13" t="n">
-        <v>22.2347</v>
+        <v>21.733</v>
       </c>
       <c r="D13" t="n">
-        <v>31.3813</v>
+        <v>34.1253</v>
       </c>
       <c r="E13" t="n">
-        <v>44.3167</v>
+        <v>41.4105</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.9546</v>
+        <v>22.1142</v>
       </c>
       <c r="C14" t="n">
-        <v>22.2468</v>
+        <v>21.6647</v>
       </c>
       <c r="D14" t="n">
-        <v>32.2891</v>
+        <v>33.9726</v>
       </c>
       <c r="E14" t="n">
-        <v>38.9997</v>
+        <v>45.6759</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>21.7778</v>
+        <v>22.1315</v>
       </c>
       <c r="C15" t="n">
-        <v>22.5216</v>
+        <v>22.2845</v>
       </c>
       <c r="D15" t="n">
-        <v>33.7418</v>
+        <v>32.7592</v>
       </c>
       <c r="E15" t="n">
-        <v>41.644</v>
+        <v>39.6742</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.454</v>
+        <v>22.2047</v>
       </c>
       <c r="C16" t="n">
-        <v>22.6042</v>
+        <v>22.9132</v>
       </c>
       <c r="D16" t="n">
-        <v>31.3403</v>
+        <v>34.1375</v>
       </c>
       <c r="E16" t="n">
-        <v>40.997</v>
+        <v>38.8923</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>20.7691</v>
+        <v>21.0708</v>
       </c>
       <c r="C17" t="n">
-        <v>23.3038</v>
+        <v>22.7131</v>
       </c>
       <c r="D17" t="n">
-        <v>31.9856</v>
+        <v>29.4384</v>
       </c>
       <c r="E17" t="n">
-        <v>35.1914</v>
+        <v>37.1558</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.08823</v>
+        <v>4.0911</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4401</v>
+        <v>11.2377</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6226</v>
+        <v>13.5664</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0212</v>
+        <v>18.7953</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.67805</v>
+        <v>6.7229</v>
       </c>
       <c r="C3" t="n">
-        <v>13.5287</v>
+        <v>11.6568</v>
       </c>
       <c r="D3" t="n">
-        <v>19.153</v>
+        <v>20.4627</v>
       </c>
       <c r="E3" t="n">
-        <v>29.2091</v>
+        <v>27.8828</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.43801</v>
+        <v>9.44046</v>
       </c>
       <c r="C4" t="n">
-        <v>14.6668</v>
+        <v>13.9978</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6239</v>
+        <v>24.6678</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8811</v>
+        <v>37.8743</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2853</v>
+        <v>12.2942</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6081</v>
+        <v>15.6817</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1615</v>
+        <v>30.1491</v>
       </c>
       <c r="E5" t="n">
-        <v>46.8109</v>
+        <v>47.0295</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0085</v>
+        <v>15.1825</v>
       </c>
       <c r="C6" t="n">
-        <v>17.8592</v>
+        <v>18.013</v>
       </c>
       <c r="D6" t="n">
-        <v>35.1125</v>
+        <v>35.3675</v>
       </c>
       <c r="E6" t="n">
-        <v>56.7115</v>
+        <v>55.7009</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1117</v>
+        <v>16.0182</v>
       </c>
       <c r="C7" t="n">
-        <v>17.0335</v>
+        <v>17.3446</v>
       </c>
       <c r="D7" t="n">
-        <v>37.8092</v>
+        <v>38.5006</v>
       </c>
       <c r="E7" t="n">
-        <v>56.0174</v>
+        <v>57.8691</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.7195</v>
+        <v>16.5221</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2894</v>
+        <v>17.1398</v>
       </c>
       <c r="D8" t="n">
-        <v>38.9505</v>
+        <v>38.3527</v>
       </c>
       <c r="E8" t="n">
-        <v>58.6607</v>
+        <v>56.9646</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.5765</v>
+        <v>17.3293</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3225</v>
+        <v>17.3037</v>
       </c>
       <c r="D9" t="n">
-        <v>40.4064</v>
+        <v>40.3284</v>
       </c>
       <c r="E9" t="n">
-        <v>59.9477</v>
+        <v>58.3676</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8467</v>
+        <v>17.8438</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7036</v>
+        <v>17.7994</v>
       </c>
       <c r="D10" t="n">
-        <v>40.5612</v>
+        <v>40.9885</v>
       </c>
       <c r="E10" t="n">
-        <v>61.1513</v>
+        <v>60.2718</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2537</v>
+        <v>17.178</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4677</v>
+        <v>18.3863</v>
       </c>
       <c r="D11" t="n">
-        <v>41.6187</v>
+        <v>41.3016</v>
       </c>
       <c r="E11" t="n">
-        <v>60.4729</v>
+        <v>60.9709</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.8147</v>
+        <v>17.9052</v>
       </c>
       <c r="C12" t="n">
-        <v>18.8772</v>
+        <v>18.8729</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9915</v>
+        <v>42.3159</v>
       </c>
       <c r="E12" t="n">
-        <v>62.586</v>
+        <v>62.6975</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.5821</v>
+        <v>17.7014</v>
       </c>
       <c r="C13" t="n">
-        <v>19.1718</v>
+        <v>18.9397</v>
       </c>
       <c r="D13" t="n">
-        <v>40.2915</v>
+        <v>41.4353</v>
       </c>
       <c r="E13" t="n">
-        <v>61.7831</v>
+        <v>60.7175</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.84</v>
+        <v>17.511</v>
       </c>
       <c r="C14" t="n">
-        <v>19.2788</v>
+        <v>19.1355</v>
       </c>
       <c r="D14" t="n">
-        <v>42.5303</v>
+        <v>40.9242</v>
       </c>
       <c r="E14" t="n">
-        <v>60.5705</v>
+        <v>62.9986</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.6775</v>
+        <v>17.4722</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3296</v>
+        <v>19.4112</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3253</v>
+        <v>41.3305</v>
       </c>
       <c r="E15" t="n">
-        <v>62.2686</v>
+        <v>58.5916</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7759</v>
+        <v>17.7703</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6022</v>
+        <v>19.6216</v>
       </c>
       <c r="D16" t="n">
-        <v>42.4178</v>
+        <v>41.7578</v>
       </c>
       <c r="E16" t="n">
-        <v>58.4264</v>
+        <v>61.0429</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.8481</v>
+        <v>18.1864</v>
       </c>
       <c r="C17" t="n">
-        <v>19.7621</v>
+        <v>19.8903</v>
       </c>
       <c r="D17" t="n">
-        <v>42.0202</v>
+        <v>40.8693</v>
       </c>
       <c r="E17" t="n">
-        <v>60.6789</v>
+        <v>60.3709</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.07362</v>
+        <v>4.05447</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4758</v>
+        <v>11.4841</v>
       </c>
       <c r="D2" t="n">
-        <v>13.457</v>
+        <v>13.4891</v>
       </c>
       <c r="E2" t="n">
-        <v>18.956</v>
+        <v>19.0256</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.72549</v>
+        <v>6.73212</v>
       </c>
       <c r="C3" t="n">
-        <v>13.3634</v>
+        <v>12.0348</v>
       </c>
       <c r="D3" t="n">
-        <v>22.5887</v>
+        <v>18.8623</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4713</v>
+        <v>27.6007</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.38325</v>
+        <v>9.44256</v>
       </c>
       <c r="C4" t="n">
-        <v>14.7694</v>
+        <v>14.3626</v>
       </c>
       <c r="D4" t="n">
-        <v>24.1132</v>
+        <v>24.1307</v>
       </c>
       <c r="E4" t="n">
-        <v>37.4699</v>
+        <v>37.2622</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3427</v>
+        <v>12.3007</v>
       </c>
       <c r="C5" t="n">
-        <v>15.5909</v>
+        <v>15.7281</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4118</v>
+        <v>29.4404</v>
       </c>
       <c r="E5" t="n">
-        <v>46.3127</v>
+        <v>46.1549</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0599</v>
+        <v>15.1182</v>
       </c>
       <c r="C6" t="n">
-        <v>18.1758</v>
+        <v>17.9355</v>
       </c>
       <c r="D6" t="n">
-        <v>34.6299</v>
+        <v>34.9106</v>
       </c>
       <c r="E6" t="n">
-        <v>54.9741</v>
+        <v>55.0428</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0113</v>
+        <v>15.9822</v>
       </c>
       <c r="C7" t="n">
-        <v>17.1795</v>
+        <v>17.2884</v>
       </c>
       <c r="D7" t="n">
-        <v>36.9398</v>
+        <v>37.6398</v>
       </c>
       <c r="E7" t="n">
-        <v>57.8039</v>
+        <v>56.8059</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.3664</v>
+        <v>16.2206</v>
       </c>
       <c r="C8" t="n">
-        <v>17.2374</v>
+        <v>17.1771</v>
       </c>
       <c r="D8" t="n">
-        <v>38.4219</v>
+        <v>38.3786</v>
       </c>
       <c r="E8" t="n">
-        <v>58.0895</v>
+        <v>56.7111</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.2561</v>
+        <v>16.9986</v>
       </c>
       <c r="C9" t="n">
-        <v>17.2776</v>
+        <v>17.4735</v>
       </c>
       <c r="D9" t="n">
-        <v>39.101</v>
+        <v>39.9346</v>
       </c>
       <c r="E9" t="n">
-        <v>59.7361</v>
+        <v>58.7942</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.3639</v>
+        <v>17.5331</v>
       </c>
       <c r="C10" t="n">
-        <v>17.6596</v>
+        <v>17.7019</v>
       </c>
       <c r="D10" t="n">
-        <v>39.7004</v>
+        <v>39.776</v>
       </c>
       <c r="E10" t="n">
-        <v>59.2154</v>
+        <v>60.0937</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.2406</v>
+        <v>17.1921</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4033</v>
+        <v>18.3969</v>
       </c>
       <c r="D11" t="n">
-        <v>40.0462</v>
+        <v>40.1193</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0048</v>
+        <v>60.889</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.5015</v>
+        <v>17.7507</v>
       </c>
       <c r="C12" t="n">
-        <v>18.9878</v>
+        <v>18.838</v>
       </c>
       <c r="D12" t="n">
-        <v>40.9008</v>
+        <v>40.3658</v>
       </c>
       <c r="E12" t="n">
-        <v>59.8399</v>
+        <v>60.6495</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6158</v>
+        <v>17.6358</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9462</v>
+        <v>18.8333</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1721</v>
+        <v>40.1446</v>
       </c>
       <c r="E13" t="n">
-        <v>60.5326</v>
+        <v>58.8261</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.7421</v>
+        <v>17.5353</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0454</v>
+        <v>19.0878</v>
       </c>
       <c r="D14" t="n">
-        <v>39.9795</v>
+        <v>40.2349</v>
       </c>
       <c r="E14" t="n">
-        <v>60.2141</v>
+        <v>60.6543</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.7076</v>
+        <v>17.9988</v>
       </c>
       <c r="C15" t="n">
-        <v>19.3835</v>
+        <v>19.5214</v>
       </c>
       <c r="D15" t="n">
-        <v>40.2278</v>
+        <v>40.8409</v>
       </c>
       <c r="E15" t="n">
-        <v>60.1703</v>
+        <v>59.2254</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.5609</v>
+        <v>17.3887</v>
       </c>
       <c r="C16" t="n">
-        <v>19.4546</v>
+        <v>19.5434</v>
       </c>
       <c r="D16" t="n">
-        <v>40.8186</v>
+        <v>41.4148</v>
       </c>
       <c r="E16" t="n">
-        <v>59.1329</v>
+        <v>57.9144</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>17.557</v>
+        <v>18.0135</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0533</v>
+        <v>20.102</v>
       </c>
       <c r="D17" t="n">
-        <v>39.4352</v>
+        <v>40.1952</v>
       </c>
       <c r="E17" t="n">
-        <v>55.472</v>
+        <v>58.1543</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.02406</v>
+        <v>9.038019999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.796</v>
+        <v>15.7668</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4342</v>
+        <v>19.4627</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6413</v>
+        <v>22.6961</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7739</v>
+        <v>10.8674</v>
       </c>
       <c r="C3" t="n">
-        <v>14.4768</v>
+        <v>12.9183</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6885</v>
+        <v>21.5905</v>
       </c>
       <c r="E3" t="n">
-        <v>32.0628</v>
+        <v>30.279</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.3782</v>
+        <v>14.0016</v>
       </c>
       <c r="C4" t="n">
-        <v>17.9036</v>
+        <v>17.8544</v>
       </c>
       <c r="D4" t="n">
-        <v>29.2078</v>
+        <v>29.3275</v>
       </c>
       <c r="E4" t="n">
-        <v>40.4427</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2048</v>
+        <v>16.5906</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3368</v>
+        <v>17.3237</v>
       </c>
       <c r="D5" t="n">
-        <v>32.7345</v>
+        <v>33.45</v>
       </c>
       <c r="E5" t="n">
-        <v>48.9469</v>
+        <v>48.4135</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4907</v>
+        <v>19.7029</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2628</v>
+        <v>19.1571</v>
       </c>
       <c r="D6" t="n">
-        <v>39.1127</v>
+        <v>38.1751</v>
       </c>
       <c r="E6" t="n">
-        <v>57.5667</v>
+        <v>57.5633</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.427</v>
+        <v>21.5395</v>
       </c>
       <c r="C7" t="n">
-        <v>18.9743</v>
+        <v>18.8003</v>
       </c>
       <c r="D7" t="n">
-        <v>40.4859</v>
+        <v>40.6035</v>
       </c>
       <c r="E7" t="n">
-        <v>55.4184</v>
+        <v>54.87</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>22.2235</v>
+        <v>21.967</v>
       </c>
       <c r="C8" t="n">
-        <v>18.9273</v>
+        <v>19.1766</v>
       </c>
       <c r="D8" t="n">
-        <v>40.0494</v>
+        <v>40.2583</v>
       </c>
       <c r="E8" t="n">
-        <v>56.075</v>
+        <v>57.2786</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.0309</v>
+        <v>23.2377</v>
       </c>
       <c r="C9" t="n">
-        <v>19.445</v>
+        <v>19.281</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7205</v>
+        <v>41.7163</v>
       </c>
       <c r="E9" t="n">
-        <v>57.2671</v>
+        <v>57.4852</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.5938</v>
+        <v>23.7927</v>
       </c>
       <c r="C10" t="n">
-        <v>19.83</v>
+        <v>19.7543</v>
       </c>
       <c r="D10" t="n">
-        <v>42.249</v>
+        <v>41.6366</v>
       </c>
       <c r="E10" t="n">
-        <v>58.3096</v>
+        <v>58.4625</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.4087</v>
+        <v>23.2209</v>
       </c>
       <c r="C11" t="n">
-        <v>20.6522</v>
+        <v>20.7937</v>
       </c>
       <c r="D11" t="n">
-        <v>43.0981</v>
+        <v>43.5952</v>
       </c>
       <c r="E11" t="n">
-        <v>60.3272</v>
+        <v>60.0498</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.6644</v>
+        <v>23.3364</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3895</v>
+        <v>21.2874</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1119</v>
+        <v>44.1193</v>
       </c>
       <c r="E12" t="n">
-        <v>61.1</v>
+        <v>60.5521</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.2607</v>
+        <v>23.308</v>
       </c>
       <c r="C13" t="n">
-        <v>21.7399</v>
+        <v>21.6323</v>
       </c>
       <c r="D13" t="n">
-        <v>43.7146</v>
+        <v>44.4283</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1166</v>
+        <v>59.6802</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.7261</v>
+        <v>22.9347</v>
       </c>
       <c r="C14" t="n">
-        <v>22.5021</v>
+        <v>21.8842</v>
       </c>
       <c r="D14" t="n">
-        <v>44.7385</v>
+        <v>44.548</v>
       </c>
       <c r="E14" t="n">
-        <v>61.4065</v>
+        <v>61.5367</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.881</v>
+        <v>23.1762</v>
       </c>
       <c r="C15" t="n">
-        <v>22.4853</v>
+        <v>22.2549</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8426</v>
+        <v>43.5376</v>
       </c>
       <c r="E15" t="n">
-        <v>60.9102</v>
+        <v>61.5464</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.4267</v>
+        <v>23.7469</v>
       </c>
       <c r="C16" t="n">
-        <v>22.5298</v>
+        <v>22.4013</v>
       </c>
       <c r="D16" t="n">
-        <v>42.7374</v>
+        <v>43.8161</v>
       </c>
       <c r="E16" t="n">
-        <v>60.5912</v>
+        <v>61.6005</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.1827</v>
+        <v>23.7515</v>
       </c>
       <c r="C17" t="n">
-        <v>22.7894</v>
+        <v>22.9317</v>
       </c>
       <c r="D17" t="n">
-        <v>43.9466</v>
+        <v>44.0183</v>
       </c>
       <c r="E17" t="n">
-        <v>60.7631</v>
+        <v>62.4489</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5531</v>
+        <v>10.3887</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2918</v>
+        <v>15.2698</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8145</v>
+        <v>18.9166</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6171</v>
+        <v>21.7604</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.0467</v>
+        <v>13.2244</v>
       </c>
       <c r="C3" t="n">
-        <v>16.6936</v>
+        <v>19.7798</v>
       </c>
       <c r="D3" t="n">
-        <v>23.1759</v>
+        <v>25.3012</v>
       </c>
       <c r="E3" t="n">
-        <v>28.9266</v>
+        <v>34.3262</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.4687</v>
+        <v>14.3804</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9794</v>
+        <v>15.8514</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3985</v>
+        <v>25.1682</v>
       </c>
       <c r="E4" t="n">
-        <v>32.8055</v>
+        <v>33.7355</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.5145</v>
+        <v>16.8303</v>
       </c>
       <c r="C5" t="n">
-        <v>15.681</v>
+        <v>17.4711</v>
       </c>
       <c r="D5" t="n">
-        <v>28.6158</v>
+        <v>27.7176</v>
       </c>
       <c r="E5" t="n">
-        <v>40.0209</v>
+        <v>40.378</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2405</v>
+        <v>18.1966</v>
       </c>
       <c r="C6" t="n">
-        <v>17.4012</v>
+        <v>17.135</v>
       </c>
       <c r="D6" t="n">
-        <v>31.1167</v>
+        <v>31.3462</v>
       </c>
       <c r="E6" t="n">
-        <v>41.3409</v>
+        <v>41.0012</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.752</v>
+        <v>18.3528</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2763</v>
+        <v>17.3507</v>
       </c>
       <c r="D7" t="n">
-        <v>32.1724</v>
+        <v>32.3383</v>
       </c>
       <c r="E7" t="n">
-        <v>43.2804</v>
+        <v>42.6117</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.7313</v>
+        <v>18.7921</v>
       </c>
       <c r="C8" t="n">
-        <v>17.6685</v>
+        <v>17.5229</v>
       </c>
       <c r="D8" t="n">
-        <v>32.7574</v>
+        <v>32.4432</v>
       </c>
       <c r="E8" t="n">
-        <v>41.9207</v>
+        <v>44.0159</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>18.7526</v>
+        <v>18.5509</v>
       </c>
       <c r="C9" t="n">
-        <v>18.255</v>
+        <v>17.3005</v>
       </c>
       <c r="D9" t="n">
-        <v>33.1439</v>
+        <v>34.5903</v>
       </c>
       <c r="E9" t="n">
-        <v>44.4409</v>
+        <v>44.8476</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>18.7738</v>
+        <v>19.636</v>
       </c>
       <c r="C10" t="n">
-        <v>18.4381</v>
+        <v>17.9032</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2836</v>
+        <v>33.4711</v>
       </c>
       <c r="E10" t="n">
-        <v>43.8823</v>
+        <v>45.7382</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.2999</v>
+        <v>18.7888</v>
       </c>
       <c r="C11" t="n">
-        <v>18.5448</v>
+        <v>18.8699</v>
       </c>
       <c r="D11" t="n">
-        <v>32.7201</v>
+        <v>33.4934</v>
       </c>
       <c r="E11" t="n">
-        <v>48.6191</v>
+        <v>47.4858</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.39</v>
+        <v>19.9507</v>
       </c>
       <c r="C12" t="n">
-        <v>18.8849</v>
+        <v>19.7464</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0663</v>
+        <v>34.0034</v>
       </c>
       <c r="E12" t="n">
-        <v>44.8017</v>
+        <v>48.0661</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.2308</v>
+        <v>19.6988</v>
       </c>
       <c r="C13" t="n">
-        <v>19.2312</v>
+        <v>19.2203</v>
       </c>
       <c r="D13" t="n">
-        <v>34.0531</v>
+        <v>33.2689</v>
       </c>
       <c r="E13" t="n">
-        <v>45.5905</v>
+        <v>46.0333</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.111</v>
+        <v>20.1968</v>
       </c>
       <c r="C14" t="n">
-        <v>19.6817</v>
+        <v>19.2528</v>
       </c>
       <c r="D14" t="n">
-        <v>34.8907</v>
+        <v>32.4571</v>
       </c>
       <c r="E14" t="n">
-        <v>44.2409</v>
+        <v>42.6307</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>19.0495</v>
+        <v>18.5393</v>
       </c>
       <c r="C15" t="n">
-        <v>19.6474</v>
+        <v>20.1166</v>
       </c>
       <c r="D15" t="n">
-        <v>31.3407</v>
+        <v>34.4464</v>
       </c>
       <c r="E15" t="n">
-        <v>46.4906</v>
+        <v>45.5929</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.8128</v>
+        <v>19.3113</v>
       </c>
       <c r="C16" t="n">
-        <v>20.4201</v>
+        <v>20.4781</v>
       </c>
       <c r="D16" t="n">
-        <v>31.2064</v>
+        <v>32.7412</v>
       </c>
       <c r="E16" t="n">
-        <v>42.6413</v>
+        <v>41.9968</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.8214</v>
+        <v>18.5022</v>
       </c>
       <c r="C17" t="n">
-        <v>20.4999</v>
+        <v>20.8739</v>
       </c>
       <c r="D17" t="n">
-        <v>31.9457</v>
+        <v>31.0676</v>
       </c>
       <c r="E17" t="n">
-        <v>39.3192</v>
+        <v>43.5324</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1758</v>
+        <v>11.132</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1259</v>
+        <v>15.1628</v>
       </c>
       <c r="D2" t="n">
-        <v>18.3444</v>
+        <v>18.6513</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6078</v>
+        <v>21.6905</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>17.9598</v>
+        <v>21.1594</v>
       </c>
       <c r="C3" t="n">
-        <v>19.1366</v>
+        <v>14.6371</v>
       </c>
       <c r="D3" t="n">
-        <v>19.4485</v>
+        <v>20.9473</v>
       </c>
       <c r="E3" t="n">
-        <v>30.1482</v>
+        <v>29.0498</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.8613</v>
+        <v>14.9997</v>
       </c>
       <c r="C4" t="n">
-        <v>15.7798</v>
+        <v>16.0096</v>
       </c>
       <c r="D4" t="n">
-        <v>24.8211</v>
+        <v>25.353</v>
       </c>
       <c r="E4" t="n">
-        <v>32.4382</v>
+        <v>33.0342</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.0317</v>
+        <v>16.0711</v>
       </c>
       <c r="C5" t="n">
-        <v>18.664</v>
+        <v>15.9746</v>
       </c>
       <c r="D5" t="n">
-        <v>28.0353</v>
+        <v>27.4617</v>
       </c>
       <c r="E5" t="n">
-        <v>38.1082</v>
+        <v>39.424</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.2377</v>
+        <v>18.0525</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9028</v>
+        <v>17.4332</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3442</v>
+        <v>31.1526</v>
       </c>
       <c r="E6" t="n">
-        <v>40.435</v>
+        <v>44.0952</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.9059</v>
+        <v>18.7099</v>
       </c>
       <c r="C7" t="n">
-        <v>17.4603</v>
+        <v>16.9854</v>
       </c>
       <c r="D7" t="n">
-        <v>31.2613</v>
+        <v>32.5193</v>
       </c>
       <c r="E7" t="n">
-        <v>41.6043</v>
+        <v>43.2272</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>18.3854</v>
+        <v>19.1029</v>
       </c>
       <c r="C8" t="n">
-        <v>18.4233</v>
+        <v>17.6117</v>
       </c>
       <c r="D8" t="n">
-        <v>32.0536</v>
+        <v>33.2543</v>
       </c>
       <c r="E8" t="n">
-        <v>42.8873</v>
+        <v>44.2425</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.4966</v>
+        <v>18.4343</v>
       </c>
       <c r="C9" t="n">
-        <v>18.1396</v>
+        <v>18.0203</v>
       </c>
       <c r="D9" t="n">
-        <v>32.3168</v>
+        <v>33.5777</v>
       </c>
       <c r="E9" t="n">
-        <v>44.5017</v>
+        <v>43.8129</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>19.6008</v>
+        <v>19.7464</v>
       </c>
       <c r="C10" t="n">
-        <v>18.3889</v>
+        <v>18.0764</v>
       </c>
       <c r="D10" t="n">
-        <v>32.0179</v>
+        <v>33.1919</v>
       </c>
       <c r="E10" t="n">
-        <v>45.1142</v>
+        <v>44.9739</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>20.3104</v>
+        <v>19.4234</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4477</v>
+        <v>19.6137</v>
       </c>
       <c r="D11" t="n">
-        <v>33.8025</v>
+        <v>33.314</v>
       </c>
       <c r="E11" t="n">
-        <v>46.9401</v>
+        <v>45.5006</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.4576</v>
+        <v>19.1686</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0698</v>
+        <v>19.1222</v>
       </c>
       <c r="D12" t="n">
-        <v>32.9611</v>
+        <v>34.6109</v>
       </c>
       <c r="E12" t="n">
-        <v>45.8767</v>
+        <v>48.6311</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>19.646</v>
+        <v>19.2779</v>
       </c>
       <c r="C13" t="n">
-        <v>19.5783</v>
+        <v>19.5013</v>
       </c>
       <c r="D13" t="n">
-        <v>33.1205</v>
+        <v>33.9771</v>
       </c>
       <c r="E13" t="n">
-        <v>43.9543</v>
+        <v>44.8266</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>20.0999</v>
+        <v>19.7512</v>
       </c>
       <c r="C14" t="n">
-        <v>19.9145</v>
+        <v>19.8411</v>
       </c>
       <c r="D14" t="n">
-        <v>31.4737</v>
+        <v>29.3872</v>
       </c>
       <c r="E14" t="n">
-        <v>43.3877</v>
+        <v>46.2525</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>18.8828</v>
+        <v>20.8283</v>
       </c>
       <c r="C15" t="n">
-        <v>20.7883</v>
+        <v>19.6906</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0204</v>
+        <v>33.9671</v>
       </c>
       <c r="E15" t="n">
-        <v>44.0687</v>
+        <v>45.079</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19.5612</v>
+        <v>20.0099</v>
       </c>
       <c r="C16" t="n">
-        <v>20.4813</v>
+        <v>20.309</v>
       </c>
       <c r="D16" t="n">
-        <v>30.2716</v>
+        <v>30.8471</v>
       </c>
       <c r="E16" t="n">
-        <v>40.8074</v>
+        <v>46.685</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>19.2714</v>
+        <v>20.089</v>
       </c>
       <c r="C17" t="n">
-        <v>20.9283</v>
+        <v>20.5625</v>
       </c>
       <c r="D17" t="n">
-        <v>30.7034</v>
+        <v>30.0462</v>
       </c>
       <c r="E17" t="n">
-        <v>41.9125</v>
+        <v>39.1903</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.3872</v>
+        <v>14.2054</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4262</v>
+        <v>17.4787</v>
       </c>
       <c r="D2" t="n">
-        <v>21.2057</v>
+        <v>20.8581</v>
       </c>
       <c r="E2" t="n">
-        <v>23.1551</v>
+        <v>23.0529</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.3804</v>
+        <v>25.1431</v>
       </c>
       <c r="C3" t="n">
-        <v>26.7365</v>
+        <v>18.8743</v>
       </c>
       <c r="D3" t="n">
-        <v>23.051</v>
+        <v>24.9936</v>
       </c>
       <c r="E3" t="n">
-        <v>35.1185</v>
+        <v>33.1372</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.6003</v>
+        <v>18.3773</v>
       </c>
       <c r="C4" t="n">
-        <v>18.6431</v>
+        <v>19.0339</v>
       </c>
       <c r="D4" t="n">
-        <v>28.1002</v>
+        <v>29.2278</v>
       </c>
       <c r="E4" t="n">
-        <v>35.6384</v>
+        <v>35.3586</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.995</v>
+        <v>18.0244</v>
       </c>
       <c r="C5" t="n">
-        <v>17.6507</v>
+        <v>18.2744</v>
       </c>
       <c r="D5" t="n">
-        <v>30.7814</v>
+        <v>30.7393</v>
       </c>
       <c r="E5" t="n">
-        <v>41.2545</v>
+        <v>40.0584</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.9436</v>
+        <v>20.9139</v>
       </c>
       <c r="C6" t="n">
-        <v>19.8382</v>
+        <v>19.1107</v>
       </c>
       <c r="D6" t="n">
-        <v>33.8546</v>
+        <v>33.9754</v>
       </c>
       <c r="E6" t="n">
-        <v>45.1781</v>
+        <v>44.0736</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.1512</v>
+        <v>21.3501</v>
       </c>
       <c r="C7" t="n">
-        <v>19.8974</v>
+        <v>19.2356</v>
       </c>
       <c r="D7" t="n">
-        <v>34.1776</v>
+        <v>35.5639</v>
       </c>
       <c r="E7" t="n">
-        <v>44.2204</v>
+        <v>44.3875</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.2694</v>
+        <v>21.3366</v>
       </c>
       <c r="C8" t="n">
-        <v>19.6387</v>
+        <v>20.2149</v>
       </c>
       <c r="D8" t="n">
-        <v>35.7124</v>
+        <v>34.8315</v>
       </c>
       <c r="E8" t="n">
-        <v>48.565</v>
+        <v>45.2863</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>21.5847</v>
+        <v>21.6266</v>
       </c>
       <c r="C9" t="n">
-        <v>19.7411</v>
+        <v>20.1573</v>
       </c>
       <c r="D9" t="n">
-        <v>35.0497</v>
+        <v>34.7329</v>
       </c>
       <c r="E9" t="n">
-        <v>45.4592</v>
+        <v>45.4179</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.0291</v>
+        <v>21.5336</v>
       </c>
       <c r="C10" t="n">
-        <v>20.2666</v>
+        <v>20.3098</v>
       </c>
       <c r="D10" t="n">
-        <v>36.1021</v>
+        <v>35.3676</v>
       </c>
       <c r="E10" t="n">
-        <v>46.6099</v>
+        <v>47.4866</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>21.8608</v>
+        <v>22.209</v>
       </c>
       <c r="C11" t="n">
-        <v>21.1638</v>
+        <v>20.8</v>
       </c>
       <c r="D11" t="n">
-        <v>34.7097</v>
+        <v>37.1896</v>
       </c>
       <c r="E11" t="n">
-        <v>44.4029</v>
+        <v>47.7672</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0732</v>
+        <v>21.6689</v>
       </c>
       <c r="C12" t="n">
-        <v>22.2083</v>
+        <v>21.219</v>
       </c>
       <c r="D12" t="n">
-        <v>34.861</v>
+        <v>35.4617</v>
       </c>
       <c r="E12" t="n">
-        <v>43.3686</v>
+        <v>40.952</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.4957</v>
+        <v>21.4561</v>
       </c>
       <c r="C13" t="n">
-        <v>21.733</v>
+        <v>21.9095</v>
       </c>
       <c r="D13" t="n">
-        <v>34.1253</v>
+        <v>35.593</v>
       </c>
       <c r="E13" t="n">
-        <v>41.4105</v>
+        <v>46.6462</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1142</v>
+        <v>21.7112</v>
       </c>
       <c r="C14" t="n">
-        <v>21.6647</v>
+        <v>22.4399</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9726</v>
+        <v>31.3436</v>
       </c>
       <c r="E14" t="n">
-        <v>45.6759</v>
+        <v>41.805</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.1315</v>
+        <v>22.7708</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2845</v>
+        <v>22.1752</v>
       </c>
       <c r="D15" t="n">
-        <v>32.7592</v>
+        <v>32.3154</v>
       </c>
       <c r="E15" t="n">
-        <v>39.6742</v>
+        <v>39.5954</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.2047</v>
+        <v>22.0146</v>
       </c>
       <c r="C16" t="n">
-        <v>22.9132</v>
+        <v>22.62</v>
       </c>
       <c r="D16" t="n">
-        <v>34.1375</v>
+        <v>31.5403</v>
       </c>
       <c r="E16" t="n">
-        <v>38.8923</v>
+        <v>43.5943</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0708</v>
+        <v>21.3451</v>
       </c>
       <c r="C17" t="n">
-        <v>22.7131</v>
+        <v>23.1839</v>
       </c>
       <c r="D17" t="n">
-        <v>29.4384</v>
+        <v>29.8784</v>
       </c>
       <c r="E17" t="n">
-        <v>37.1558</v>
+        <v>41.4964</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0911</v>
+        <v>4.09165</v>
       </c>
       <c r="C2" t="n">
-        <v>11.2377</v>
+        <v>11.4326</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5664</v>
+        <v>13.5679</v>
       </c>
       <c r="E2" t="n">
-        <v>18.7953</v>
+        <v>18.8669</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.7229</v>
+        <v>6.45684</v>
       </c>
       <c r="C3" t="n">
-        <v>11.6568</v>
+        <v>16.7782</v>
       </c>
       <c r="D3" t="n">
-        <v>20.4627</v>
+        <v>21.7552</v>
       </c>
       <c r="E3" t="n">
-        <v>27.8828</v>
+        <v>27.9172</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.44046</v>
+        <v>9.440950000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>13.9978</v>
+        <v>14.2301</v>
       </c>
       <c r="D4" t="n">
-        <v>24.6678</v>
+        <v>24.6241</v>
       </c>
       <c r="E4" t="n">
-        <v>37.8743</v>
+        <v>37.8069</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2942</v>
+        <v>12.2693</v>
       </c>
       <c r="C5" t="n">
-        <v>15.6817</v>
+        <v>15.6124</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1491</v>
+        <v>30.7369</v>
       </c>
       <c r="E5" t="n">
-        <v>47.0295</v>
+        <v>47.2857</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1825</v>
+        <v>15.027</v>
       </c>
       <c r="C6" t="n">
-        <v>18.013</v>
+        <v>17.8372</v>
       </c>
       <c r="D6" t="n">
-        <v>35.3675</v>
+        <v>35.3293</v>
       </c>
       <c r="E6" t="n">
-        <v>55.7009</v>
+        <v>56.4368</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.0182</v>
+        <v>15.7852</v>
       </c>
       <c r="C7" t="n">
-        <v>17.3446</v>
+        <v>17.3895</v>
       </c>
       <c r="D7" t="n">
-        <v>38.5006</v>
+        <v>38.0633</v>
       </c>
       <c r="E7" t="n">
-        <v>57.8691</v>
+        <v>58.2849</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.5221</v>
+        <v>16.3447</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1398</v>
+        <v>17.2114</v>
       </c>
       <c r="D8" t="n">
-        <v>38.3527</v>
+        <v>38.2864</v>
       </c>
       <c r="E8" t="n">
-        <v>56.9646</v>
+        <v>58.0917</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>17.3293</v>
+        <v>16.8926</v>
       </c>
       <c r="C9" t="n">
-        <v>17.3037</v>
+        <v>17.2493</v>
       </c>
       <c r="D9" t="n">
-        <v>40.3284</v>
+        <v>39.7284</v>
       </c>
       <c r="E9" t="n">
-        <v>58.3676</v>
+        <v>59.9082</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.8438</v>
+        <v>17.4229</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7994</v>
+        <v>17.5772</v>
       </c>
       <c r="D10" t="n">
-        <v>40.9885</v>
+        <v>40.9267</v>
       </c>
       <c r="E10" t="n">
-        <v>60.2718</v>
+        <v>61.3588</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.178</v>
+        <v>17.0699</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3863</v>
+        <v>18.5277</v>
       </c>
       <c r="D11" t="n">
-        <v>41.3016</v>
+        <v>41.179</v>
       </c>
       <c r="E11" t="n">
-        <v>60.9709</v>
+        <v>61.2393</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.9052</v>
+        <v>18.0534</v>
       </c>
       <c r="C12" t="n">
-        <v>18.8729</v>
+        <v>18.8818</v>
       </c>
       <c r="D12" t="n">
-        <v>42.3159</v>
+        <v>41.2795</v>
       </c>
       <c r="E12" t="n">
-        <v>62.6975</v>
+        <v>60.9612</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.7014</v>
+        <v>17.4046</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9397</v>
+        <v>18.9974</v>
       </c>
       <c r="D13" t="n">
-        <v>41.4353</v>
+        <v>42.0727</v>
       </c>
       <c r="E13" t="n">
-        <v>60.7175</v>
+        <v>58.9425</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.511</v>
+        <v>17.7235</v>
       </c>
       <c r="C14" t="n">
-        <v>19.1355</v>
+        <v>18.9336</v>
       </c>
       <c r="D14" t="n">
-        <v>40.9242</v>
+        <v>41.2462</v>
       </c>
       <c r="E14" t="n">
-        <v>62.9986</v>
+        <v>61.9228</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.4722</v>
+        <v>17.6408</v>
       </c>
       <c r="C15" t="n">
-        <v>19.4112</v>
+        <v>19.4296</v>
       </c>
       <c r="D15" t="n">
-        <v>41.3305</v>
+        <v>42.5631</v>
       </c>
       <c r="E15" t="n">
-        <v>58.5916</v>
+        <v>61.0656</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.7703</v>
+        <v>17.7037</v>
       </c>
       <c r="C16" t="n">
-        <v>19.6216</v>
+        <v>19.5329</v>
       </c>
       <c r="D16" t="n">
-        <v>41.7578</v>
+        <v>41.6062</v>
       </c>
       <c r="E16" t="n">
-        <v>61.0429</v>
+        <v>62.4178</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.1864</v>
+        <v>17.8191</v>
       </c>
       <c r="C17" t="n">
-        <v>19.8903</v>
+        <v>19.874</v>
       </c>
       <c r="D17" t="n">
-        <v>40.8693</v>
+        <v>40.4068</v>
       </c>
       <c r="E17" t="n">
-        <v>60.3709</v>
+        <v>59.2192</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4.05447</v>
+        <v>4.13965</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4841</v>
+        <v>11.4738</v>
       </c>
       <c r="D2" t="n">
-        <v>13.4891</v>
+        <v>13.5388</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0256</v>
+        <v>19.042</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.73212</v>
+        <v>6.4565</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0348</v>
+        <v>13.361</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8623</v>
+        <v>19.925</v>
       </c>
       <c r="E3" t="n">
-        <v>27.6007</v>
+        <v>28.9638</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.44256</v>
+        <v>9.42169</v>
       </c>
       <c r="C4" t="n">
-        <v>14.3626</v>
+        <v>14.697</v>
       </c>
       <c r="D4" t="n">
-        <v>24.1307</v>
+        <v>24.2446</v>
       </c>
       <c r="E4" t="n">
-        <v>37.2622</v>
+        <v>37.4477</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.3007</v>
+        <v>12.2108</v>
       </c>
       <c r="C5" t="n">
-        <v>15.7281</v>
+        <v>15.6212</v>
       </c>
       <c r="D5" t="n">
-        <v>29.4404</v>
+        <v>30.3693</v>
       </c>
       <c r="E5" t="n">
-        <v>46.1549</v>
+        <v>46.6384</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.1182</v>
+        <v>14.9764</v>
       </c>
       <c r="C6" t="n">
-        <v>17.9355</v>
+        <v>17.7986</v>
       </c>
       <c r="D6" t="n">
-        <v>34.9106</v>
+        <v>34.5946</v>
       </c>
       <c r="E6" t="n">
-        <v>55.0428</v>
+        <v>55.0714</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.9822</v>
+        <v>15.9828</v>
       </c>
       <c r="C7" t="n">
-        <v>17.2884</v>
+        <v>17.1933</v>
       </c>
       <c r="D7" t="n">
-        <v>37.6398</v>
+        <v>37.134</v>
       </c>
       <c r="E7" t="n">
-        <v>56.8059</v>
+        <v>55.9705</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>16.2206</v>
+        <v>16.4574</v>
       </c>
       <c r="C8" t="n">
-        <v>17.1771</v>
+        <v>16.9857</v>
       </c>
       <c r="D8" t="n">
-        <v>38.3786</v>
+        <v>37.5637</v>
       </c>
       <c r="E8" t="n">
-        <v>56.7111</v>
+        <v>56.3989</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.9986</v>
+        <v>16.9445</v>
       </c>
       <c r="C9" t="n">
-        <v>17.4735</v>
+        <v>17.3207</v>
       </c>
       <c r="D9" t="n">
-        <v>39.9346</v>
+        <v>38.839</v>
       </c>
       <c r="E9" t="n">
-        <v>58.7942</v>
+        <v>58.9226</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>17.5331</v>
+        <v>17.7426</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7019</v>
+        <v>17.7146</v>
       </c>
       <c r="D10" t="n">
-        <v>39.776</v>
+        <v>39.3384</v>
       </c>
       <c r="E10" t="n">
-        <v>60.0937</v>
+        <v>59.0043</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.1921</v>
+        <v>17.221</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3969</v>
+        <v>18.3703</v>
       </c>
       <c r="D11" t="n">
-        <v>40.1193</v>
+        <v>40.3361</v>
       </c>
       <c r="E11" t="n">
-        <v>60.889</v>
+        <v>59.3448</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>17.7507</v>
+        <v>17.8389</v>
       </c>
       <c r="C12" t="n">
-        <v>18.838</v>
+        <v>18.9147</v>
       </c>
       <c r="D12" t="n">
-        <v>40.3658</v>
+        <v>40.4365</v>
       </c>
       <c r="E12" t="n">
-        <v>60.6495</v>
+        <v>60.7048</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>17.6358</v>
+        <v>17.6628</v>
       </c>
       <c r="C13" t="n">
-        <v>18.8333</v>
+        <v>18.7811</v>
       </c>
       <c r="D13" t="n">
-        <v>40.1446</v>
+        <v>39.9897</v>
       </c>
       <c r="E13" t="n">
-        <v>58.8261</v>
+        <v>60.5573</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>17.5353</v>
+        <v>17.5895</v>
       </c>
       <c r="C14" t="n">
-        <v>19.0878</v>
+        <v>19.1923</v>
       </c>
       <c r="D14" t="n">
-        <v>40.2349</v>
+        <v>41.0404</v>
       </c>
       <c r="E14" t="n">
-        <v>60.6543</v>
+        <v>59.6118</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>17.9988</v>
+        <v>17.6605</v>
       </c>
       <c r="C15" t="n">
-        <v>19.5214</v>
+        <v>19.3172</v>
       </c>
       <c r="D15" t="n">
-        <v>40.8409</v>
+        <v>39.8875</v>
       </c>
       <c r="E15" t="n">
-        <v>59.2254</v>
+        <v>60.8231</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>17.3887</v>
+        <v>18.0235</v>
       </c>
       <c r="C16" t="n">
-        <v>19.5434</v>
+        <v>19.6489</v>
       </c>
       <c r="D16" t="n">
-        <v>41.4148</v>
+        <v>40.4856</v>
       </c>
       <c r="E16" t="n">
-        <v>57.9144</v>
+        <v>61.0071</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>18.0135</v>
+        <v>17.7215</v>
       </c>
       <c r="C17" t="n">
-        <v>20.102</v>
+        <v>19.9153</v>
       </c>
       <c r="D17" t="n">
-        <v>40.1952</v>
+        <v>41.7887</v>
       </c>
       <c r="E17" t="n">
-        <v>58.1543</v>
+        <v>57.9589</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.038019999999999</v>
+        <v>9.099679999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>15.7668</v>
+        <v>15.7559</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4627</v>
+        <v>19.4237</v>
       </c>
       <c r="E2" t="n">
-        <v>22.6961</v>
+        <v>22.7131</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.8674</v>
+        <v>11.7225</v>
       </c>
       <c r="C3" t="n">
-        <v>12.9183</v>
+        <v>14.2819</v>
       </c>
       <c r="D3" t="n">
-        <v>21.5905</v>
+        <v>25.866</v>
       </c>
       <c r="E3" t="n">
-        <v>30.279</v>
+        <v>36.4716</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.0016</v>
+        <v>13.5382</v>
       </c>
       <c r="C4" t="n">
-        <v>17.8544</v>
+        <v>17.0914</v>
       </c>
       <c r="D4" t="n">
-        <v>29.3275</v>
+        <v>29.3248</v>
       </c>
       <c r="E4" t="n">
-        <v>40.34</v>
+        <v>40.426</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.5906</v>
+        <v>16.5836</v>
       </c>
       <c r="C5" t="n">
-        <v>17.3237</v>
+        <v>17.2457</v>
       </c>
       <c r="D5" t="n">
-        <v>33.45</v>
+        <v>33.4912</v>
       </c>
       <c r="E5" t="n">
-        <v>48.4135</v>
+        <v>49.135</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.7029</v>
+        <v>19.6911</v>
       </c>
       <c r="C6" t="n">
-        <v>19.1571</v>
+        <v>19.1934</v>
       </c>
       <c r="D6" t="n">
-        <v>38.1751</v>
+        <v>37.9571</v>
       </c>
       <c r="E6" t="n">
-        <v>57.5633</v>
+        <v>57.4802</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.5395</v>
+        <v>21.4274</v>
       </c>
       <c r="C7" t="n">
-        <v>18.8003</v>
+        <v>18.8796</v>
       </c>
       <c r="D7" t="n">
-        <v>40.6035</v>
+        <v>40.377</v>
       </c>
       <c r="E7" t="n">
-        <v>54.87</v>
+        <v>55.6831</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>21.967</v>
+        <v>22.3408</v>
       </c>
       <c r="C8" t="n">
-        <v>19.1766</v>
+        <v>19.1532</v>
       </c>
       <c r="D8" t="n">
-        <v>40.2583</v>
+        <v>39.9655</v>
       </c>
       <c r="E8" t="n">
-        <v>57.2786</v>
+        <v>57.5196</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.2377</v>
+        <v>23.0039</v>
       </c>
       <c r="C9" t="n">
-        <v>19.281</v>
+        <v>19.5</v>
       </c>
       <c r="D9" t="n">
-        <v>41.7163</v>
+        <v>41.0514</v>
       </c>
       <c r="E9" t="n">
-        <v>57.4852</v>
+        <v>56.6299</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>23.7927</v>
+        <v>22.901</v>
       </c>
       <c r="C10" t="n">
-        <v>19.7543</v>
+        <v>19.8238</v>
       </c>
       <c r="D10" t="n">
-        <v>41.6366</v>
+        <v>42.2551</v>
       </c>
       <c r="E10" t="n">
-        <v>58.4625</v>
+        <v>58.9919</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>23.2209</v>
+        <v>22.8438</v>
       </c>
       <c r="C11" t="n">
-        <v>20.7937</v>
+        <v>20.6507</v>
       </c>
       <c r="D11" t="n">
-        <v>43.5952</v>
+        <v>43.4011</v>
       </c>
       <c r="E11" t="n">
-        <v>60.0498</v>
+        <v>59.6738</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>23.3364</v>
+        <v>23.1681</v>
       </c>
       <c r="C12" t="n">
-        <v>21.2874</v>
+        <v>21.2817</v>
       </c>
       <c r="D12" t="n">
-        <v>44.1193</v>
+        <v>43.459</v>
       </c>
       <c r="E12" t="n">
-        <v>60.5521</v>
+        <v>60.6455</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>23.308</v>
+        <v>22.7889</v>
       </c>
       <c r="C13" t="n">
-        <v>21.6323</v>
+        <v>21.5813</v>
       </c>
       <c r="D13" t="n">
-        <v>44.4283</v>
+        <v>43.924</v>
       </c>
       <c r="E13" t="n">
-        <v>59.6802</v>
+        <v>61.0563</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>22.9347</v>
+        <v>22.9236</v>
       </c>
       <c r="C14" t="n">
-        <v>21.8842</v>
+        <v>21.9314</v>
       </c>
       <c r="D14" t="n">
-        <v>44.548</v>
+        <v>43.8026</v>
       </c>
       <c r="E14" t="n">
-        <v>61.5367</v>
+        <v>62.2119</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>23.1762</v>
+        <v>23.426</v>
       </c>
       <c r="C15" t="n">
-        <v>22.2549</v>
+        <v>22.119</v>
       </c>
       <c r="D15" t="n">
-        <v>43.5376</v>
+        <v>44.9792</v>
       </c>
       <c r="E15" t="n">
-        <v>61.5464</v>
+        <v>60.5957</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>23.7469</v>
+        <v>22.7931</v>
       </c>
       <c r="C16" t="n">
-        <v>22.4013</v>
+        <v>22.3587</v>
       </c>
       <c r="D16" t="n">
-        <v>43.8161</v>
+        <v>44.9103</v>
       </c>
       <c r="E16" t="n">
-        <v>61.6005</v>
+        <v>61.8707</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>23.7515</v>
+        <v>22.8321</v>
       </c>
       <c r="C17" t="n">
-        <v>22.9317</v>
+        <v>22.8179</v>
       </c>
       <c r="D17" t="n">
-        <v>44.0183</v>
+        <v>43.8673</v>
       </c>
       <c r="E17" t="n">
-        <v>62.4489</v>
+        <v>61.0193</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.5612</v>
+        <v>10.3842</v>
       </c>
       <c r="C2" t="n">
-        <v>15.3019</v>
+        <v>15.2932</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9534</v>
+        <v>18.9389</v>
       </c>
       <c r="E2" t="n">
-        <v>21.8979</v>
+        <v>21.6143</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2392</v>
+        <v>12.7069</v>
       </c>
       <c r="C3" t="n">
-        <v>11.176</v>
+        <v>23.2051</v>
       </c>
       <c r="D3" t="n">
-        <v>18.8159</v>
+        <v>25.6349</v>
       </c>
       <c r="E3" t="n">
-        <v>24.3584</v>
+        <v>31.7006</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11.8978</v>
+        <v>12.8554</v>
       </c>
       <c r="C4" t="n">
-        <v>12.6789</v>
+        <v>16.368</v>
       </c>
       <c r="D4" t="n">
-        <v>23.0922</v>
+        <v>25.4017</v>
       </c>
       <c r="E4" t="n">
-        <v>30.9975</v>
+        <v>33.6784</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.5192</v>
+        <v>13.7272</v>
       </c>
       <c r="C5" t="n">
-        <v>15.1369</v>
+        <v>17.1836</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0019</v>
+        <v>30.1532</v>
       </c>
       <c r="E5" t="n">
-        <v>37.4838</v>
+        <v>39.4853</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>17.3066</v>
+        <v>15.0094</v>
       </c>
       <c r="C6" t="n">
-        <v>17.6809</v>
+        <v>18.4287</v>
       </c>
       <c r="D6" t="n">
-        <v>31.3878</v>
+        <v>32.1449</v>
       </c>
       <c r="E6" t="n">
-        <v>43.4718</v>
+        <v>41.6434</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>21.6437</v>
+        <v>15.7167</v>
       </c>
       <c r="C7" t="n">
-        <v>20.669</v>
+        <v>17.612</v>
       </c>
       <c r="D7" t="n">
-        <v>37.7356</v>
+        <v>32.3739</v>
       </c>
       <c r="E7" t="n">
-        <v>50.7862</v>
+        <v>43.0207</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>24.3094</v>
+        <v>15.329</v>
       </c>
       <c r="C8" t="n">
-        <v>22.6684</v>
+        <v>16.806</v>
       </c>
       <c r="D8" t="n">
-        <v>40.7627</v>
+        <v>31.7578</v>
       </c>
       <c r="E8" t="n">
-        <v>55.4232</v>
+        <v>44.554</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>28.6929</v>
+        <v>15.8035</v>
       </c>
       <c r="C9" t="n">
-        <v>24.9252</v>
+        <v>17.8613</v>
       </c>
       <c r="D9" t="n">
-        <v>44.6631</v>
+        <v>34.3548</v>
       </c>
       <c r="E9" t="n">
-        <v>56.7936</v>
+        <v>45.5866</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24.2262</v>
+        <v>15.7075</v>
       </c>
       <c r="C10" t="n">
-        <v>24.7761</v>
+        <v>17.7386</v>
       </c>
       <c r="D10" t="n">
-        <v>43.7575</v>
+        <v>33.6386</v>
       </c>
       <c r="E10" t="n">
-        <v>58.0104</v>
+        <v>48.4571</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>24.8892</v>
+        <v>16.1379</v>
       </c>
       <c r="C11" t="n">
-        <v>23.7322</v>
+        <v>18.4757</v>
       </c>
       <c r="D11" t="n">
-        <v>43.6755</v>
+        <v>34.0821</v>
       </c>
       <c r="E11" t="n">
-        <v>57.3559</v>
+        <v>49.1366</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8334</v>
+        <v>16.0796</v>
       </c>
       <c r="C12" t="n">
-        <v>24.4492</v>
+        <v>19.0774</v>
       </c>
       <c r="D12" t="n">
-        <v>44.6659</v>
+        <v>33.508</v>
       </c>
       <c r="E12" t="n">
-        <v>60.3361</v>
+        <v>46.7442</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>26.0671</v>
+        <v>15.8482</v>
       </c>
       <c r="C13" t="n">
-        <v>25.0869</v>
+        <v>18.9869</v>
       </c>
       <c r="D13" t="n">
-        <v>46.1693</v>
+        <v>35.0938</v>
       </c>
       <c r="E13" t="n">
-        <v>62.6094</v>
+        <v>43.0665</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>25.0945</v>
+        <v>16.2824</v>
       </c>
       <c r="C14" t="n">
-        <v>25.7779</v>
+        <v>19.8515</v>
       </c>
       <c r="D14" t="n">
-        <v>44.8067</v>
+        <v>32.1463</v>
       </c>
       <c r="E14" t="n">
-        <v>59.1789</v>
+        <v>44.1144</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>24.6247</v>
+        <v>16.1263</v>
       </c>
       <c r="C15" t="n">
-        <v>26.6112</v>
+        <v>20.3215</v>
       </c>
       <c r="D15" t="n">
-        <v>45.2369</v>
+        <v>32.5716</v>
       </c>
       <c r="E15" t="n">
-        <v>65.2008</v>
+        <v>42.6781</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>24.2869</v>
+        <v>15.9721</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9903</v>
+        <v>19.9854</v>
       </c>
       <c r="D16" t="n">
-        <v>45.1223</v>
+        <v>33.0182</v>
       </c>
       <c r="E16" t="n">
-        <v>65.3323</v>
+        <v>45.4045</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.7823</v>
+        <v>16.1221</v>
       </c>
       <c r="C17" t="n">
-        <v>27.9442</v>
+        <v>20.5183</v>
       </c>
       <c r="D17" t="n">
-        <v>46.7634</v>
+        <v>30.2334</v>
       </c>
       <c r="E17" t="n">
-        <v>65.06100000000001</v>
+        <v>41.6057</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.0514</v>
+        <v>11.1529</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1574</v>
+        <v>15.1291</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8481</v>
+        <v>18.6063</v>
       </c>
       <c r="E2" t="n">
-        <v>21.7563</v>
+        <v>21.5266</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.2331</v>
+        <v>11.9093</v>
       </c>
       <c r="C3" t="n">
-        <v>10.6558</v>
+        <v>14.7866</v>
       </c>
       <c r="D3" t="n">
-        <v>17.9757</v>
+        <v>22.3025</v>
       </c>
       <c r="E3" t="n">
-        <v>23.8684</v>
+        <v>29.9775</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.2687</v>
+        <v>13.6126</v>
       </c>
       <c r="C4" t="n">
-        <v>12.4586</v>
+        <v>15.9778</v>
       </c>
       <c r="D4" t="n">
-        <v>22.2298</v>
+        <v>25.3689</v>
       </c>
       <c r="E4" t="n">
-        <v>29.8745</v>
+        <v>32.7555</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>15.0762</v>
+        <v>14.1078</v>
       </c>
       <c r="C5" t="n">
-        <v>14.9131</v>
+        <v>15.9435</v>
       </c>
       <c r="D5" t="n">
-        <v>26.7921</v>
+        <v>27.5306</v>
       </c>
       <c r="E5" t="n">
-        <v>37.1349</v>
+        <v>36.6202</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18.427</v>
+        <v>15.8693</v>
       </c>
       <c r="C6" t="n">
-        <v>17.5655</v>
+        <v>17.7087</v>
       </c>
       <c r="D6" t="n">
-        <v>31.4004</v>
+        <v>30.7038</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1174</v>
+        <v>41.526</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.2317</v>
+        <v>16.1709</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3929</v>
+        <v>17.7347</v>
       </c>
       <c r="D7" t="n">
-        <v>38.0622</v>
+        <v>32.2973</v>
       </c>
       <c r="E7" t="n">
-        <v>49.5807</v>
+        <v>41.5558</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>25.2861</v>
+        <v>15.7529</v>
       </c>
       <c r="C8" t="n">
-        <v>22.5075</v>
+        <v>17.9492</v>
       </c>
       <c r="D8" t="n">
-        <v>39.7252</v>
+        <v>32.6065</v>
       </c>
       <c r="E8" t="n">
-        <v>53.1316</v>
+        <v>46.0012</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>29.2093</v>
+        <v>16.5276</v>
       </c>
       <c r="C9" t="n">
-        <v>25.0216</v>
+        <v>19.0533</v>
       </c>
       <c r="D9" t="n">
-        <v>45.2322</v>
+        <v>32.6409</v>
       </c>
       <c r="E9" t="n">
-        <v>59.5873</v>
+        <v>45.0571</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>26.4203</v>
+        <v>16.9983</v>
       </c>
       <c r="C10" t="n">
-        <v>23.9273</v>
+        <v>18.2205</v>
       </c>
       <c r="D10" t="n">
-        <v>42.8583</v>
+        <v>34.2282</v>
       </c>
       <c r="E10" t="n">
-        <v>58.3163</v>
+        <v>47.08</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>25.2835</v>
+        <v>17.4448</v>
       </c>
       <c r="C11" t="n">
-        <v>24.0409</v>
+        <v>18.3361</v>
       </c>
       <c r="D11" t="n">
-        <v>42.6067</v>
+        <v>32.646</v>
       </c>
       <c r="E11" t="n">
-        <v>56.8488</v>
+        <v>44.5254</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>25.5778</v>
+        <v>16.7889</v>
       </c>
       <c r="C12" t="n">
-        <v>24.3894</v>
+        <v>19.1952</v>
       </c>
       <c r="D12" t="n">
-        <v>42.2313</v>
+        <v>34.2543</v>
       </c>
       <c r="E12" t="n">
-        <v>59.3841</v>
+        <v>45.4782</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>25.8298</v>
+        <v>16.4138</v>
       </c>
       <c r="C13" t="n">
-        <v>24.8384</v>
+        <v>19.4633</v>
       </c>
       <c r="D13" t="n">
-        <v>45.6905</v>
+        <v>31.931</v>
       </c>
       <c r="E13" t="n">
-        <v>62.8075</v>
+        <v>46.1739</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>26.11</v>
+        <v>16.6368</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8491</v>
+        <v>20.6825</v>
       </c>
       <c r="D14" t="n">
-        <v>43.2971</v>
+        <v>33.9046</v>
       </c>
       <c r="E14" t="n">
-        <v>61.6708</v>
+        <v>43.3183</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.2647</v>
+        <v>16.7496</v>
       </c>
       <c r="C15" t="n">
-        <v>26.5689</v>
+        <v>20.129</v>
       </c>
       <c r="D15" t="n">
-        <v>45.4718</v>
+        <v>32.0721</v>
       </c>
       <c r="E15" t="n">
-        <v>65.32380000000001</v>
+        <v>43.4255</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>25.3322</v>
+        <v>16.4526</v>
       </c>
       <c r="C16" t="n">
-        <v>27.0034</v>
+        <v>20.3961</v>
       </c>
       <c r="D16" t="n">
-        <v>45.5542</v>
+        <v>29.9263</v>
       </c>
       <c r="E16" t="n">
-        <v>64.71040000000001</v>
+        <v>43.4302</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>24.9856</v>
+        <v>16.9572</v>
       </c>
       <c r="C17" t="n">
-        <v>28.0008</v>
+        <v>20.8195</v>
       </c>
       <c r="D17" t="n">
-        <v>44.2501</v>
+        <v>28.7348</v>
       </c>
       <c r="E17" t="n">
-        <v>63.2188</v>
+        <v>40.6824</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.2279</v>
+        <v>14.4113</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3674</v>
+        <v>17.4605</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3585</v>
+        <v>21.3501</v>
       </c>
       <c r="E2" t="n">
-        <v>23.2888</v>
+        <v>22.8728</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.1149</v>
+        <v>15.6094</v>
       </c>
       <c r="C3" t="n">
-        <v>12.0274</v>
+        <v>18.968</v>
       </c>
       <c r="D3" t="n">
-        <v>19.7446</v>
+        <v>25.3473</v>
       </c>
       <c r="E3" t="n">
-        <v>26.4614</v>
+        <v>33.3154</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.1198</v>
+        <v>17.4812</v>
       </c>
       <c r="C4" t="n">
-        <v>14.1031</v>
+        <v>18.8282</v>
       </c>
       <c r="D4" t="n">
-        <v>24.2766</v>
+        <v>27.8185</v>
       </c>
       <c r="E4" t="n">
-        <v>33.4176</v>
+        <v>36.3676</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.2303</v>
+        <v>17.3423</v>
       </c>
       <c r="C5" t="n">
-        <v>16.9674</v>
+        <v>17.8381</v>
       </c>
       <c r="D5" t="n">
-        <v>29.9748</v>
+        <v>30.875</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8252</v>
+        <v>41.9341</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>20.671</v>
+        <v>19.1915</v>
       </c>
       <c r="C6" t="n">
-        <v>19.9885</v>
+        <v>19.3516</v>
       </c>
       <c r="D6" t="n">
-        <v>34.8342</v>
+        <v>35.5837</v>
       </c>
       <c r="E6" t="n">
-        <v>45.9821</v>
+        <v>44.6938</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24.2709</v>
+        <v>19.0444</v>
       </c>
       <c r="C7" t="n">
-        <v>22.8579</v>
+        <v>19.3441</v>
       </c>
       <c r="D7" t="n">
-        <v>39.1515</v>
+        <v>34.2567</v>
       </c>
       <c r="E7" t="n">
-        <v>51.5733</v>
+        <v>43.9659</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>27.4732</v>
+        <v>19.4886</v>
       </c>
       <c r="C8" t="n">
-        <v>25.2003</v>
+        <v>19.0147</v>
       </c>
       <c r="D8" t="n">
-        <v>43.1414</v>
+        <v>34.3812</v>
       </c>
       <c r="E8" t="n">
-        <v>55.0848</v>
+        <v>46.4212</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.7718</v>
+        <v>19.9077</v>
       </c>
       <c r="C9" t="n">
-        <v>27.6254</v>
+        <v>20.5394</v>
       </c>
       <c r="D9" t="n">
-        <v>47.8407</v>
+        <v>34.5768</v>
       </c>
       <c r="E9" t="n">
-        <v>59.0158</v>
+        <v>45.9838</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.4972</v>
+        <v>20.505</v>
       </c>
       <c r="C10" t="n">
-        <v>26.9739</v>
+        <v>20.2539</v>
       </c>
       <c r="D10" t="n">
-        <v>45.4219</v>
+        <v>36.0895</v>
       </c>
       <c r="E10" t="n">
-        <v>58.9056</v>
+        <v>45.6845</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>27.7822</v>
+        <v>19.5443</v>
       </c>
       <c r="C11" t="n">
-        <v>25.5609</v>
+        <v>22.3532</v>
       </c>
       <c r="D11" t="n">
-        <v>44.5836</v>
+        <v>36.8546</v>
       </c>
       <c r="E11" t="n">
-        <v>55.6598</v>
+        <v>43.7044</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8991</v>
+        <v>19.3513</v>
       </c>
       <c r="C12" t="n">
-        <v>25.962</v>
+        <v>21.3382</v>
       </c>
       <c r="D12" t="n">
-        <v>47.3274</v>
+        <v>34.5272</v>
       </c>
       <c r="E12" t="n">
-        <v>58.5522</v>
+        <v>46.099</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.9529</v>
+        <v>20.116</v>
       </c>
       <c r="C13" t="n">
-        <v>26.6127</v>
+        <v>21.6949</v>
       </c>
       <c r="D13" t="n">
-        <v>48.5044</v>
+        <v>33.4998</v>
       </c>
       <c r="E13" t="n">
-        <v>61.1137</v>
+        <v>43.4802</v>
       </c>
     </row>
     <row r="14">
@@ -5638,16 +5638,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.9921</v>
+        <v>20.5825</v>
       </c>
       <c r="C14" t="n">
-        <v>27.5317</v>
+        <v>21.6745</v>
       </c>
       <c r="D14" t="n">
-        <v>48.0414</v>
+        <v>35.3204</v>
       </c>
       <c r="E14" t="n">
-        <v>58.972</v>
+        <v>40.9426</v>
       </c>
     </row>
     <row r="15">
@@ -5655,16 +5655,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>27.8168</v>
+        <v>20.7272</v>
       </c>
       <c r="C15" t="n">
-        <v>28.2142</v>
+        <v>22.0779</v>
       </c>
       <c r="D15" t="n">
-        <v>47.2677</v>
+        <v>31.4436</v>
       </c>
       <c r="E15" t="n">
-        <v>57.8553</v>
+        <v>41.9476</v>
       </c>
     </row>
     <row r="16">
@@ -5672,16 +5672,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>28.2</v>
+        <v>20.5738</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7091</v>
+        <v>22.6262</v>
       </c>
       <c r="D16" t="n">
-        <v>46.3516</v>
+        <v>31.3943</v>
       </c>
       <c r="E16" t="n">
-        <v>58.8808</v>
+        <v>38.8794</v>
       </c>
     </row>
     <row r="17">
@@ -5689,16 +5689,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.308</v>
+        <v>19.6703</v>
       </c>
       <c r="C17" t="n">
-        <v>29.5669</v>
+        <v>23.1847</v>
       </c>
       <c r="D17" t="n">
-        <v>46.3166</v>
+        <v>28.093</v>
       </c>
       <c r="E17" t="n">
-        <v>57.2505</v>
+        <v>35.2975</v>
       </c>
     </row>
   </sheetData>
@@ -5751,16 +5751,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.94692</v>
+        <v>4.04859</v>
       </c>
       <c r="C2" t="n">
-        <v>11.3422</v>
+        <v>11.3888</v>
       </c>
       <c r="D2" t="n">
-        <v>13.6425</v>
+        <v>13.5662</v>
       </c>
       <c r="E2" t="n">
-        <v>19.0243</v>
+        <v>18.9048</v>
       </c>
     </row>
     <row r="3">
@@ -5768,16 +5768,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.42306</v>
+        <v>6.25832</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3793</v>
+        <v>12.2853</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4638</v>
+        <v>21.7973</v>
       </c>
       <c r="E3" t="n">
-        <v>26.9234</v>
+        <v>28.1511</v>
       </c>
     </row>
     <row r="4">
@@ -5785,16 +5785,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.36994</v>
+        <v>8.7592</v>
       </c>
       <c r="C4" t="n">
-        <v>12.647</v>
+        <v>14.3562</v>
       </c>
       <c r="D4" t="n">
-        <v>24.5531</v>
+        <v>25.0191</v>
       </c>
       <c r="E4" t="n">
-        <v>36.8891</v>
+        <v>37.4879</v>
       </c>
     </row>
     <row r="5">
@@ -5802,16 +5802,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2021</v>
+        <v>10.9241</v>
       </c>
       <c r="C5" t="n">
-        <v>15.0925</v>
+        <v>15.7487</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1131</v>
+        <v>30.6294</v>
       </c>
       <c r="E5" t="n">
-        <v>46.7634</v>
+        <v>47.2218</v>
       </c>
     </row>
     <row r="6">
@@ -5819,16 +5819,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0618</v>
+        <v>12.7606</v>
       </c>
       <c r="C6" t="n">
-        <v>17.805</v>
+        <v>17.9723</v>
       </c>
       <c r="D6" t="n">
-        <v>35.6342</v>
+        <v>36.266</v>
       </c>
       <c r="E6" t="n">
-        <v>56.4086</v>
+        <v>55.8231</v>
       </c>
     </row>
     <row r="7">
@@ -5836,16 +5836,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>18.0753</v>
+        <v>13.3997</v>
       </c>
       <c r="C7" t="n">
-        <v>20.4991</v>
+        <v>17.9477</v>
       </c>
       <c r="D7" t="n">
-        <v>41.3282</v>
+        <v>37.2188</v>
       </c>
       <c r="E7" t="n">
-        <v>66.03660000000001</v>
+        <v>55.4951</v>
       </c>
     </row>
     <row r="8">
@@ -5853,16 +5853,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.8065</v>
+        <v>13.0367</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5963</v>
+        <v>17.7414</v>
       </c>
       <c r="D8" t="n">
-        <v>47.1086</v>
+        <v>36.7191</v>
       </c>
       <c r="E8" t="n">
-        <v>75.2762</v>
+        <v>55.472</v>
       </c>
     </row>
     <row r="9">
@@ -5870,16 +5870,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.6417</v>
+        <v>13.294</v>
       </c>
       <c r="C9" t="n">
-        <v>27.0397</v>
+        <v>18.1085</v>
       </c>
       <c r="D9" t="n">
-        <v>56.7376</v>
+        <v>37.6778</v>
       </c>
       <c r="E9" t="n">
-        <v>83.13549999999999</v>
+        <v>55.7406</v>
       </c>
     </row>
     <row r="10">
@@ -5887,16 +5887,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.7296</v>
+        <v>13.873</v>
       </c>
       <c r="C10" t="n">
-        <v>25.3388</v>
+        <v>18.6601</v>
       </c>
       <c r="D10" t="n">
-        <v>52.3101</v>
+        <v>39.4144</v>
       </c>
       <c r="E10" t="n">
-        <v>74.3617</v>
+        <v>57.7312</v>
       </c>
     </row>
     <row r="11">
@@ -5904,16 +5904,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.2686</v>
+        <v>14.0483</v>
       </c>
       <c r="C11" t="n">
-        <v>25.0981</v>
+        <v>18.9864</v>
       </c>
       <c r="D11" t="n">
-        <v>51.2584</v>
+        <v>40.331</v>
       </c>
       <c r="E11" t="n">
-        <v>73.7208</v>
+        <v>60.4353</v>
       </c>
     </row>
     <row r="12">
@@ -5921,16 +5921,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.0434</v>
+        <v>14.5409</v>
       </c>
       <c r="C12" t="n">
-        <v>25.4435</v>
+        <v>19.2344</v>
       </c>
       <c r="D12" t="n">
-        <v>52.2083</v>
+        <v>41.771</v>
       </c>
       <c r="E12" t="n">
-        <v>77.10890000000001</v>
+        <v>60.3412</v>
       </c>
     </row>
     <row r="13">
@@ -5938,16 +5938,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.6629</v>
+        <v>14.3789</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5727</v>
+        <v>19.2175</v>
       </c>
       <c r="D13" t="n">
-        <v>53.4848</v>
+        <v>41.8561</v>
       </c>
       <c r="E13" t="n">
-        <v>76.6164</v>
+        <v>63.0639</v>
       </c>
     </row>
     <row r="14">
@@ -5955,16 +5955,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.8306</v>
+        <v>14.4966</v>
       </c>
       <c r="C14" t="n">
-        <v>25.8787</v>
+        <v>19.0527</v>
       </c>
       <c r="D14" t="n">
-        <v>52.4136</v>
+        <v>41.4172</v>
       </c>
       <c r="E14" t="n">
-        <v>77.9174</v>
+        <v>61.965</v>
       </c>
     </row>
     <row r="15">
@@ -5972,16 +5972,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.4413</v>
+        <v>14.7563</v>
       </c>
       <c r="C15" t="n">
-        <v>26.3188</v>
+        <v>19.2998</v>
       </c>
       <c r="D15" t="n">
-        <v>53.4201</v>
+        <v>40.4855</v>
       </c>
       <c r="E15" t="n">
-        <v>75.8824</v>
+        <v>61.5112</v>
       </c>
     </row>
     <row r="16">
@@ -5989,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.7387</v>
+        <v>15.0409</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9641</v>
+        <v>19.6987</v>
       </c>
       <c r="D16" t="n">
-        <v>53.1431</v>
+        <v>40.6511</v>
       </c>
       <c r="E16" t="n">
-        <v>75.5458</v>
+        <v>59.8986</v>
       </c>
     </row>
     <row r="17">
@@ -6006,16 +6006,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7197</v>
+        <v>14.7155</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5821</v>
+        <v>19.8593</v>
       </c>
       <c r="D17" t="n">
-        <v>53.1553</v>
+        <v>40.8307</v>
       </c>
       <c r="E17" t="n">
-        <v>76.645</v>
+        <v>59.2909</v>
       </c>
     </row>
   </sheetData>
@@ -6068,16 +6068,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3.95496</v>
+        <v>4.12112</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4326</v>
+        <v>11.5037</v>
       </c>
       <c r="D2" t="n">
-        <v>13.5504</v>
+        <v>13.5488</v>
       </c>
       <c r="E2" t="n">
-        <v>19.1139</v>
+        <v>19.0381</v>
       </c>
     </row>
     <row r="3">
@@ -6085,16 +6085,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6.41868</v>
+        <v>6.3373</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3614</v>
+        <v>12.2799</v>
       </c>
       <c r="D3" t="n">
-        <v>17.988</v>
+        <v>20.2175</v>
       </c>
       <c r="E3" t="n">
-        <v>26.5389</v>
+        <v>30.725</v>
       </c>
     </row>
     <row r="4">
@@ -6102,16 +6102,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>9.406129999999999</v>
+        <v>8.675599999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>12.822</v>
+        <v>14.5343</v>
       </c>
       <c r="D4" t="n">
-        <v>23.8744</v>
+        <v>24.4627</v>
       </c>
       <c r="E4" t="n">
-        <v>36.7924</v>
+        <v>37.8879</v>
       </c>
     </row>
     <row r="5">
@@ -6119,16 +6119,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>12.2036</v>
+        <v>10.8489</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2169</v>
+        <v>15.8271</v>
       </c>
       <c r="D5" t="n">
-        <v>29.5476</v>
+        <v>30.2362</v>
       </c>
       <c r="E5" t="n">
-        <v>45.9217</v>
+        <v>46.7629</v>
       </c>
     </row>
     <row r="6">
@@ -6136,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0792</v>
+        <v>12.8622</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7468</v>
+        <v>18.2863</v>
       </c>
       <c r="D6" t="n">
-        <v>35.0043</v>
+        <v>35.1975</v>
       </c>
       <c r="E6" t="n">
-        <v>56.1301</v>
+        <v>55.9862</v>
       </c>
     </row>
     <row r="7">
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>17.9253</v>
+        <v>13.6385</v>
       </c>
       <c r="C7" t="n">
-        <v>20.3804</v>
+        <v>17.5384</v>
       </c>
       <c r="D7" t="n">
-        <v>40.8809</v>
+        <v>36.5797</v>
       </c>
       <c r="E7" t="n">
-        <v>65.5099</v>
+        <v>55.9896</v>
       </c>
     </row>
     <row r="8">
@@ -6170,16 +6170,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>20.4891</v>
+        <v>13.5543</v>
       </c>
       <c r="C8" t="n">
-        <v>23.6197</v>
+        <v>17.4698</v>
       </c>
       <c r="D8" t="n">
-        <v>46.2499</v>
+        <v>35.9754</v>
       </c>
       <c r="E8" t="n">
-        <v>74.4554</v>
+        <v>54.5693</v>
       </c>
     </row>
     <row r="9">
@@ -6187,16 +6187,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>23.4683</v>
+        <v>13.701</v>
       </c>
       <c r="C9" t="n">
-        <v>26.9719</v>
+        <v>18.0434</v>
       </c>
       <c r="D9" t="n">
-        <v>55.4011</v>
+        <v>36.3669</v>
       </c>
       <c r="E9" t="n">
-        <v>82.6939</v>
+        <v>55.1408</v>
       </c>
     </row>
     <row r="10">
@@ -6204,16 +6204,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21.9233</v>
+        <v>13.9445</v>
       </c>
       <c r="C10" t="n">
-        <v>24.9895</v>
+        <v>18.4749</v>
       </c>
       <c r="D10" t="n">
-        <v>49.3567</v>
+        <v>37.3701</v>
       </c>
       <c r="E10" t="n">
-        <v>72.6481</v>
+        <v>56.3739</v>
       </c>
     </row>
     <row r="11">
@@ -6221,16 +6221,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>22.0648</v>
+        <v>14.3164</v>
       </c>
       <c r="C11" t="n">
-        <v>25.2481</v>
+        <v>19.1922</v>
       </c>
       <c r="D11" t="n">
-        <v>50.4718</v>
+        <v>38.3622</v>
       </c>
       <c r="E11" t="n">
-        <v>71.977</v>
+        <v>58.4063</v>
       </c>
     </row>
     <row r="12">
@@ -6238,16 +6238,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>22.371</v>
+        <v>14.7617</v>
       </c>
       <c r="C12" t="n">
-        <v>25.2368</v>
+        <v>19.1583</v>
       </c>
       <c r="D12" t="n">
-        <v>51.2181</v>
+        <v>39.67</v>
       </c>
       <c r="E12" t="n">
-        <v>75.68899999999999</v>
+        <v>61.129</v>
       </c>
     </row>
     <row r="13">
@@ -6255,16 +6255,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>22.7319</v>
+        <v>14.9654</v>
       </c>
       <c r="C13" t="n">
-        <v>25.5919</v>
+        <v>19.3929</v>
       </c>
       <c r="D13" t="n">
-        <v>52.2328</v>
+        <v>40.4391</v>
       </c>
       <c r="E13" t="n">
-        <v>75.14749999999999</v>
+        <v>61.2388</v>
       </c>
     </row>
     <row r="14">
@@ -6272,16 +6272,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>21.6259</v>
+        <v>14.6665</v>
       </c>
       <c r="C14" t="n">
-        <v>25.9457</v>
+        <v>18.9142</v>
       </c>
       <c r="D14" t="n">
-        <v>50.8328</v>
+        <v>39.5186</v>
       </c>
       <c r="E14" t="n">
-        <v>76.2376</v>
+        <v>61.2024</v>
       </c>
     </row>
     <row r="15">
@@ -6289,16 +6289,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>22.605</v>
+        <v>14.931</v>
       </c>
       <c r="C15" t="n">
-        <v>26.2562</v>
+        <v>19.2952</v>
       </c>
       <c r="D15" t="n">
-        <v>51.5252</v>
+        <v>39.34</v>
       </c>
       <c r="E15" t="n">
-        <v>75.63339999999999</v>
+        <v>59.1974</v>
       </c>
     </row>
     <row r="16">
@@ -6306,16 +6306,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>22.8574</v>
+        <v>14.8086</v>
       </c>
       <c r="C16" t="n">
-        <v>26.9167</v>
+        <v>19.5252</v>
       </c>
       <c r="D16" t="n">
-        <v>51.9045</v>
+        <v>40.4051</v>
       </c>
       <c r="E16" t="n">
-        <v>76.0384</v>
+        <v>57.7784</v>
       </c>
     </row>
     <row r="17">
@@ -6323,16 +6323,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>22.7875</v>
+        <v>15.0425</v>
       </c>
       <c r="C17" t="n">
-        <v>27.4887</v>
+        <v>19.9691</v>
       </c>
       <c r="D17" t="n">
-        <v>51.2268</v>
+        <v>37.8874</v>
       </c>
       <c r="E17" t="n">
-        <v>75.6673</v>
+        <v>54.5502</v>
       </c>
     </row>
   </sheetData>
@@ -6385,16 +6385,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8.74661</v>
+        <v>9.01193</v>
       </c>
       <c r="C2" t="n">
-        <v>15.6987</v>
+        <v>15.7829</v>
       </c>
       <c r="D2" t="n">
-        <v>19.4951</v>
+        <v>19.4741</v>
       </c>
       <c r="E2" t="n">
-        <v>22.836</v>
+        <v>22.6453</v>
       </c>
     </row>
     <row r="3">
@@ -6402,16 +6402,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10.247</v>
+        <v>10.6467</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7847</v>
+        <v>13.2946</v>
       </c>
       <c r="D3" t="n">
-        <v>20.1719</v>
+        <v>23.4714</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8491</v>
+        <v>32.2116</v>
       </c>
     </row>
     <row r="4">
@@ -6419,16 +6419,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.1544</v>
+        <v>13.8983</v>
       </c>
       <c r="C4" t="n">
-        <v>13.8621</v>
+        <v>18.2183</v>
       </c>
       <c r="D4" t="n">
-        <v>25.9293</v>
+        <v>29.3028</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7616</v>
+        <v>40.7179</v>
       </c>
     </row>
     <row r="5">
@@ -6436,16 +6436,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>16.3832</v>
+        <v>16.0346</v>
       </c>
       <c r="C5" t="n">
-        <v>16.3089</v>
+        <v>17.4222</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1136</v>
+        <v>33.31</v>
       </c>
       <c r="E5" t="n">
-        <v>48.5537</v>
+        <v>49.5991</v>
       </c>
     </row>
     <row r="6">
@@ -6453,16 +6453,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.4984</v>
+        <v>17.964</v>
       </c>
       <c r="C6" t="n">
-        <v>19.2502</v>
+        <v>20.2037</v>
       </c>
       <c r="D6" t="n">
-        <v>38.6167</v>
+        <v>38.119</v>
       </c>
       <c r="E6" t="n">
-        <v>57.8597</v>
+        <v>57.7841</v>
       </c>
     </row>
     <row r="7">
@@ -6470,16 +6470,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>22.8221</v>
+        <v>19.4906</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9979</v>
+        <v>18.9005</v>
       </c>
       <c r="D7" t="n">
-        <v>45.0645</v>
+        <v>39.475</v>
       </c>
       <c r="E7" t="n">
-        <v>65.9521</v>
+        <v>54.1897</v>
       </c>
     </row>
     <row r="8">
@@ -6487,16 +6487,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>26.2803</v>
+        <v>19.5258</v>
       </c>
       <c r="C8" t="n">
-        <v>25.1338</v>
+        <v>19.3695</v>
       </c>
       <c r="D8" t="n">
-        <v>51.721</v>
+        <v>38.0876</v>
       </c>
       <c r="E8" t="n">
-        <v>73.53270000000001</v>
+        <v>54.2675</v>
       </c>
     </row>
     <row r="9">
@@ -6504,16 +6504,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>31.3054</v>
+        <v>19.0065</v>
       </c>
       <c r="C9" t="n">
-        <v>27.8077</v>
+        <v>19.6149</v>
       </c>
       <c r="D9" t="n">
-        <v>59.0644</v>
+        <v>41.0934</v>
       </c>
       <c r="E9" t="n">
-        <v>81.6267</v>
+        <v>55.2374</v>
       </c>
     </row>
     <row r="10">
@@ -6521,16 +6521,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>29.0994</v>
+        <v>20.3054</v>
       </c>
       <c r="C10" t="n">
-        <v>26.3908</v>
+        <v>20.375</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6393</v>
+        <v>41.482</v>
       </c>
       <c r="E10" t="n">
-        <v>72.1913</v>
+        <v>57.5901</v>
       </c>
     </row>
     <row r="11">
@@ -6538,16 +6538,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>28.95</v>
+        <v>20.1027</v>
       </c>
       <c r="C11" t="n">
-        <v>26.625</v>
+        <v>20.9405</v>
       </c>
       <c r="D11" t="n">
-        <v>55.7342</v>
+        <v>41.5713</v>
       </c>
       <c r="E11" t="n">
-        <v>75.01090000000001</v>
+        <v>60.2281</v>
       </c>
     </row>
     <row r="12">
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>29.4219</v>
+        <v>20.9654</v>
       </c>
       <c r="C12" t="n">
-        <v>27.0039</v>
+        <v>21.7149</v>
       </c>
       <c r="D12" t="n">
-        <v>56.2723</v>
+        <v>41.6487</v>
       </c>
       <c r="E12" t="n">
-        <v>77.57980000000001</v>
+        <v>60.1574</v>
       </c>
     </row>
     <row r="13">
@@ -6572,16 +6572,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>29.7085</v>
+        <v>20.9404</v>
       </c>
       <c r="C13" t="n">
-        <v>27.2984</v>
+        <v>21.8421</v>
       </c>
       <c r="D13" t="n">
-        <v>57.3908</v>
+        <v>43.9337</v>
       </c>
       <c r="E13" t="n">
-        <v>78.6661</v>
+        <v>60.5083</v>
       </c>
     </row>
     <row r="14">
@@ -6589,16 +6589,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>28.649</v>
+        <v>20.8124</v>
       </c>
       <c r="C14" t="n">
-        <v>28.0042</v>
+        <v>21.6397</v>
       </c>
       <c r="D14" t="n">
-        <v>56.0628</v>
+        <v>43.9093</v>
       </c>
       <c r="E14" t="n">
-        <v>78.0438</v>
+        <v>59.8193</v>
       </c>
     </row>
     <row r="15">
@@ -6606,16 +6606,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>29.713</v>
+        <v>21.251</v>
       </c>
       <c r="C15" t="n">
-        <v>28.4777</v>
+        <v>21.8783</v>
       </c>
       <c r="D15" t="n">
-        <v>57.8458</v>
+        <v>44.6863</v>
       </c>
       <c r="E15" t="n">
-        <v>79.05670000000001</v>
+        <v>60.7501</v>
       </c>
     </row>
     <row r="16">
@@ -6623,16 +6623,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>30.11</v>
+        <v>21.3715</v>
       </c>
       <c r="C16" t="n">
-        <v>29.3868</v>
+        <v>22.0642</v>
       </c>
       <c r="D16" t="n">
-        <v>57.6362</v>
+        <v>45.2817</v>
       </c>
       <c r="E16" t="n">
-        <v>78.80840000000001</v>
+        <v>57.8742</v>
       </c>
     </row>
     <row r="17">
@@ -6640,16 +6640,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>29.6651</v>
+        <v>20.5539</v>
       </c>
       <c r="C17" t="n">
-        <v>30.2227</v>
+        <v>22.4551</v>
       </c>
       <c r="D17" t="n">
-        <v>57.3398</v>
+        <v>44.2335</v>
       </c>
       <c r="E17" t="n">
-        <v>78.892</v>
+        <v>58.5714</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x64/Parallel workload.xlsx
+++ b/gcc-x64/Parallel workload.xlsx
@@ -4800,16 +4800,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>10.3842</v>
+        <v>10.6011</v>
       </c>
       <c r="C2" t="n">
-        <v>15.2932</v>
+        <v>15.3677</v>
       </c>
       <c r="D2" t="n">
-        <v>18.9389</v>
+        <v>18.9987</v>
       </c>
       <c r="E2" t="n">
-        <v>21.6143</v>
+        <v>21.7109</v>
       </c>
     </row>
     <row r="3">
@@ -4817,16 +4817,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>12.7069</v>
+        <v>9.287240000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>23.2051</v>
+        <v>10.8738</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6349</v>
+        <v>18.298</v>
       </c>
       <c r="E3" t="n">
-        <v>31.7006</v>
+        <v>24.1205</v>
       </c>
     </row>
     <row r="4">
@@ -4834,16 +4834,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12.8554</v>
+        <v>10.255</v>
       </c>
       <c r="C4" t="n">
-        <v>16.368</v>
+        <v>12.5862</v>
       </c>
       <c r="D4" t="n">
-        <v>25.4017</v>
+        <v>22.6958</v>
       </c>
       <c r="E4" t="n">
-        <v>33.6784</v>
+        <v>31.5711</v>
       </c>
     </row>
     <row r="5">
@@ -4851,16 +4851,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>13.7272</v>
+        <v>12.809</v>
       </c>
       <c r="C5" t="n">
-        <v>17.1836</v>
+        <v>14.7445</v>
       </c>
       <c r="D5" t="n">
-        <v>30.1532</v>
+        <v>27.0756</v>
       </c>
       <c r="E5" t="n">
-        <v>39.4853</v>
+        <v>37.0618</v>
       </c>
     </row>
     <row r="6">
@@ -4868,16 +4868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.0094</v>
+        <v>14.6522</v>
       </c>
       <c r="C6" t="n">
-        <v>18.4287</v>
+        <v>17.6541</v>
       </c>
       <c r="D6" t="n">
-        <v>32.1449</v>
+        <v>32.7383</v>
       </c>
       <c r="E6" t="n">
-        <v>41.6434</v>
+        <v>43.298</v>
       </c>
     </row>
     <row r="7">
@@ -4885,16 +4885,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>15.7167</v>
+        <v>17.0766</v>
       </c>
       <c r="C7" t="n">
-        <v>17.612</v>
+        <v>20.7101</v>
       </c>
       <c r="D7" t="n">
-        <v>32.3739</v>
+        <v>38.0667</v>
       </c>
       <c r="E7" t="n">
-        <v>43.0207</v>
+        <v>49.5503</v>
       </c>
     </row>
     <row r="8">
@@ -4902,16 +4902,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.329</v>
+        <v>18.7363</v>
       </c>
       <c r="C8" t="n">
-        <v>16.806</v>
+        <v>23.0516</v>
       </c>
       <c r="D8" t="n">
-        <v>31.7578</v>
+        <v>41.4178</v>
       </c>
       <c r="E8" t="n">
-        <v>44.554</v>
+        <v>53.3305</v>
       </c>
     </row>
     <row r="9">
@@ -4919,16 +4919,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>15.8035</v>
+        <v>22.1259</v>
       </c>
       <c r="C9" t="n">
-        <v>17.8613</v>
+        <v>25.3732</v>
       </c>
       <c r="D9" t="n">
-        <v>34.3548</v>
+        <v>45.2026</v>
       </c>
       <c r="E9" t="n">
-        <v>45.5866</v>
+        <v>58.493</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>15.7075</v>
+        <v>19.074</v>
       </c>
       <c r="C10" t="n">
-        <v>17.7386</v>
+        <v>24.4939</v>
       </c>
       <c r="D10" t="n">
-        <v>33.6386</v>
+        <v>42.9444</v>
       </c>
       <c r="E10" t="n">
-        <v>48.4571</v>
+        <v>56.4526</v>
       </c>
     </row>
     <row r="11">
@@ -4953,16 +4953,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16.1379</v>
+        <v>18.7355</v>
       </c>
       <c r="C11" t="n">
-        <v>18.4757</v>
+        <v>24.3172</v>
       </c>
       <c r="D11" t="n">
-        <v>34.0821</v>
+        <v>41.8739</v>
       </c>
       <c r="E11" t="n">
-        <v>49.1366</v>
+        <v>57.1392</v>
       </c>
     </row>
     <row r="12">
@@ -4970,16 +4970,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.0796</v>
+        <v>19.4477</v>
       </c>
       <c r="C12" t="n">
-        <v>19.0774</v>
+        <v>24.6522</v>
       </c>
       <c r="D12" t="n">
-        <v>33.508</v>
+        <v>43.995</v>
       </c>
       <c r="E12" t="n">
-        <v>46.7442</v>
+        <v>58.3962</v>
       </c>
     </row>
     <row r="13">
@@ -4987,16 +4987,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>15.8482</v>
+        <v>19.9466</v>
       </c>
       <c r="C13" t="n">
-        <v>18.9869</v>
+        <v>25.2708</v>
       </c>
       <c r="D13" t="n">
-        <v>35.0938</v>
+        <v>43.9411</v>
       </c>
       <c r="E13" t="n">
-        <v>43.0665</v>
+        <v>59.799</v>
       </c>
     </row>
     <row r="14">
@@ -5004,16 +5004,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.2824</v>
+        <v>19.6174</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8515</v>
+        <v>25.7527</v>
       </c>
       <c r="D14" t="n">
-        <v>32.1463</v>
+        <v>44.3243</v>
       </c>
       <c r="E14" t="n">
-        <v>44.1144</v>
+        <v>63.6234</v>
       </c>
     </row>
     <row r="15">
@@ -5021,16 +5021,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.1263</v>
+        <v>19.8029</v>
       </c>
       <c r="C15" t="n">
-        <v>20.3215</v>
+        <v>26.7858</v>
       </c>
       <c r="D15" t="n">
-        <v>32.5716</v>
+        <v>45.6693</v>
       </c>
       <c r="E15" t="n">
-        <v>42.6781</v>
+        <v>62.873</v>
       </c>
     </row>
     <row r="16">
@@ -5038,16 +5038,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>15.9721</v>
+        <v>19.8836</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9854</v>
+        <v>27.2021</v>
       </c>
       <c r="D16" t="n">
-        <v>33.0182</v>
+        <v>46.0971</v>
       </c>
       <c r="E16" t="n">
-        <v>45.4045</v>
+        <v>65.80200000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5055,16 +5055,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.1221</v>
+        <v>19.6539</v>
       </c>
       <c r="C17" t="n">
-        <v>20.5183</v>
+        <v>27.7838</v>
       </c>
       <c r="D17" t="n">
-        <v>30.2334</v>
+        <v>46.4029</v>
       </c>
       <c r="E17" t="n">
-        <v>41.6057</v>
+        <v>66.4666</v>
       </c>
     </row>
   </sheetData>
@@ -5117,16 +5117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11.1529</v>
+        <v>11.4711</v>
       </c>
       <c r="C2" t="n">
-        <v>15.1291</v>
+        <v>15.2845</v>
       </c>
       <c r="D2" t="n">
-        <v>18.6063</v>
+        <v>18.9616</v>
       </c>
       <c r="E2" t="n">
-        <v>21.5266</v>
+        <v>21.6859</v>
       </c>
     </row>
     <row r="3">
@@ -5134,16 +5134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9093</v>
+        <v>9.658469999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7866</v>
+        <v>11.4877</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3025</v>
+        <v>18.0437</v>
       </c>
       <c r="E3" t="n">
-        <v>29.9775</v>
+        <v>23.4803</v>
       </c>
     </row>
     <row r="4">
@@ -5151,16 +5151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>13.6126</v>
+        <v>11.0454</v>
       </c>
       <c r="C4" t="n">
-        <v>15.9778</v>
+        <v>12.4466</v>
       </c>
       <c r="D4" t="n">
-        <v>25.3689</v>
+        <v>22.1929</v>
       </c>
       <c r="E4" t="n">
-        <v>32.7555</v>
+        <v>31.3923</v>
       </c>
     </row>
     <row r="5">
@@ -5168,16 +5168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>14.1078</v>
+        <v>13.3649</v>
       </c>
       <c r="C5" t="n">
-        <v>15.9435</v>
+        <v>14.853</v>
       </c>
       <c r="D5" t="n">
-        <v>27.5306</v>
+        <v>26.7074</v>
       </c>
       <c r="E5" t="n">
-        <v>36.6202</v>
+        <v>37.3902</v>
       </c>
     </row>
     <row r="6">
@@ -5185,16 +5185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15.8693</v>
+        <v>15.2877</v>
       </c>
       <c r="C6" t="n">
-        <v>17.7087</v>
+        <v>17.8625</v>
       </c>
       <c r="D6" t="n">
-        <v>30.7038</v>
+        <v>31.3726</v>
       </c>
       <c r="E6" t="n">
-        <v>41.526</v>
+        <v>44.5807</v>
       </c>
     </row>
     <row r="7">
@@ -5202,16 +5202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>16.1709</v>
+        <v>17.7891</v>
       </c>
       <c r="C7" t="n">
-        <v>17.7347</v>
+        <v>20.4801</v>
       </c>
       <c r="D7" t="n">
-        <v>32.2973</v>
+        <v>37.2681</v>
       </c>
       <c r="E7" t="n">
-        <v>41.5558</v>
+        <v>46.9005</v>
       </c>
     </row>
     <row r="8">
@@ -5219,16 +5219,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.7529</v>
+        <v>19.3545</v>
       </c>
       <c r="C8" t="n">
-        <v>17.9492</v>
+        <v>22.6413</v>
       </c>
       <c r="D8" t="n">
-        <v>32.6065</v>
+        <v>41.602</v>
       </c>
       <c r="E8" t="n">
-        <v>46.0012</v>
+        <v>54.0858</v>
       </c>
     </row>
     <row r="9">
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5276</v>
+        <v>23.0265</v>
       </c>
       <c r="C9" t="n">
-        <v>19.0533</v>
+        <v>25.068</v>
       </c>
       <c r="D9" t="n">
-        <v>32.6409</v>
+        <v>44.7904</v>
       </c>
       <c r="E9" t="n">
-        <v>45.0571</v>
+        <v>57.6978</v>
       </c>
     </row>
     <row r="10">
@@ -5253,16 +5253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>16.9983</v>
+        <v>19.9629</v>
       </c>
       <c r="C10" t="n">
-        <v>18.2205</v>
+        <v>24.9497</v>
       </c>
       <c r="D10" t="n">
-        <v>34.2282</v>
+        <v>42.2829</v>
       </c>
       <c r="E10" t="n">
-        <v>47.08</v>
+        <v>56.4195</v>
       </c>
     </row>
     <row r="11">
@@ -5270,16 +5270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17.4448</v>
+        <v>19.602</v>
       </c>
       <c r="C11" t="n">
-        <v>18.3361</v>
+        <v>24.0551</v>
       </c>
       <c r="D11" t="n">
-        <v>32.646</v>
+        <v>42.4301</v>
       </c>
       <c r="E11" t="n">
-        <v>44.5254</v>
+        <v>57.1197</v>
       </c>
     </row>
     <row r="12">
@@ -5287,16 +5287,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>16.7889</v>
+        <v>20.2993</v>
       </c>
       <c r="C12" t="n">
-        <v>19.1952</v>
+        <v>24.5278</v>
       </c>
       <c r="D12" t="n">
-        <v>34.2543</v>
+        <v>44.2825</v>
       </c>
       <c r="E12" t="n">
-        <v>45.4782</v>
+        <v>59.0801</v>
       </c>
     </row>
     <row r="13">
@@ -5304,16 +5304,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>16.4138</v>
+        <v>20.793</v>
       </c>
       <c r="C13" t="n">
-        <v>19.4633</v>
+        <v>25.0981</v>
       </c>
       <c r="D13" t="n">
-        <v>31.931</v>
+        <v>41.7622</v>
       </c>
       <c r="E13" t="n">
-        <v>46.1739</v>
+        <v>63.6133</v>
       </c>
     </row>
     <row r="14">
@@ -5321,16 +5321,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>16.6368</v>
+        <v>20.26</v>
       </c>
       <c r="C14" t="n">
-        <v>20.6825</v>
+        <v>26.0659</v>
       </c>
       <c r="D14" t="n">
-        <v>33.9046</v>
+        <v>44.0857</v>
       </c>
       <c r="E14" t="n">
-        <v>43.3183</v>
+        <v>66.22020000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5338,16 +5338,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>16.7496</v>
+        <v>20.2834</v>
       </c>
       <c r="C15" t="n">
-        <v>20.129</v>
+        <v>26.5803</v>
       </c>
       <c r="D15" t="n">
-        <v>32.0721</v>
+        <v>44.5219</v>
       </c>
       <c r="E15" t="n">
-        <v>43.4255</v>
+        <v>60.2399</v>
       </c>
     </row>
     <row r="16">
@@ -5355,16 +5355,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>16.4526</v>
+        <v>20.8903</v>
       </c>
       <c r="C16" t="n">
-        <v>20.3961</v>
+        <v>27.2961</v>
       </c>
       <c r="D16" t="n">
-        <v>29.9263</v>
+        <v>44.3191</v>
       </c>
       <c r="E16" t="n">
-        <v>43.4302</v>
+        <v>64.5446</v>
       </c>
     </row>
     <row r="17">
@@ -5372,16 +5372,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>16.9572</v>
+        <v>20.2304</v>
       </c>
       <c r="C17" t="n">
-        <v>20.8195</v>
+        <v>28.2022</v>
       </c>
       <c r="D17" t="n">
-        <v>28.7348</v>
+        <v>44.8808</v>
       </c>
       <c r="E17" t="n">
-        <v>40.6824</v>
+        <v>63.5236</v>
       </c>
     </row>
   </sheetData>
@@ -5434,16 +5434,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14.4113</v>
+        <v>14.3</v>
       </c>
       <c r="C2" t="n">
-        <v>17.4605</v>
+        <v>17.4671</v>
       </c>
       <c r="D2" t="n">
-        <v>21.3501</v>
+        <v>21.3589</v>
       </c>
       <c r="E2" t="n">
-        <v>22.8728</v>
+        <v>23.1102</v>
       </c>
     </row>
     <row r="3">
@@ -5451,16 +5451,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15.6094</v>
+        <v>11.0953</v>
       </c>
       <c r="C3" t="n">
-        <v>18.968</v>
+        <v>12.4719</v>
       </c>
       <c r="D3" t="n">
-        <v>25.3473</v>
+        <v>20.0625</v>
       </c>
       <c r="E3" t="n">
-        <v>33.3154</v>
+        <v>26.0456</v>
       </c>
     </row>
     <row r="4">
@@ -5468,16 +5468,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>17.4812</v>
+        <v>12.6652</v>
       </c>
       <c r="C4" t="n">
-        <v>18.8282</v>
+        <v>13.9984</v>
       </c>
       <c r="D4" t="n">
-        <v>27.8185</v>
+        <v>23.4933</v>
       </c>
       <c r="E4" t="n">
-        <v>36.3676</v>
+        <v>32.9972</v>
       </c>
     </row>
     <row r="5">
@@ -5485,16 +5485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>17.3423</v>
+        <v>14.7874</v>
       </c>
       <c r="C5" t="n">
-        <v>17.8381</v>
+        <v>16.4152</v>
       </c>
       <c r="D5" t="n">
-        <v>30.875</v>
+        <v>29.0079</v>
       </c>
       <c r="E5" t="n">
-        <v>41.9341</v>
+        <v>37.9741</v>
       </c>
     </row>
     <row r="6">
@@ -5502,16 +5502,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>19.1915</v>
+        <v>17.6205</v>
       </c>
       <c r="C6" t="n">
-        <v>19.3516</v>
+        <v>19.5401</v>
       </c>
       <c r="D6" t="n">
-        <v>35.5837</v>
+        <v>33.396</v>
       </c>
       <c r="E6" t="n">
-        <v>44.6938</v>
+        <v>44.7701</v>
       </c>
     </row>
     <row r="7">
@@ -5519,16 +5519,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>19.0444</v>
+        <v>20.049</v>
       </c>
       <c r="C7" t="n">
-        <v>19.3441</v>
+        <v>21.5191</v>
       </c>
       <c r="D7" t="n">
-        <v>34.2567</v>
+        <v>37.5374</v>
       </c>
       <c r="E7" t="n">
-        <v>43.9659</v>
+        <v>48.4252</v>
       </c>
     </row>
     <row r="8">
@@ -5536,16 +5536,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>19.4886</v>
+        <v>24.2729</v>
       </c>
       <c r="C8" t="n">
-        <v>19.0147</v>
+        <v>25.4009</v>
       </c>
       <c r="D8" t="n">
-        <v>34.3812</v>
+        <v>44.3337</v>
       </c>
       <c r="E8" t="n">
-        <v>46.4212</v>
+        <v>53.5919</v>
       </c>
     </row>
     <row r="9">
@@ -5553,16 +5553,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>19.9077</v>
+        <v>27.7896</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5394</v>
+        <v>27.5542</v>
       </c>
       <c r="D9" t="n">
-        <v>34.5768</v>
+        <v>47.5274</v>
       </c>
       <c r="E9" t="n">
-        <v>45.9838</v>
+        <v>58.3855</v>
       </c>
     </row>
     <row r="10">
@@ -5570,16 +5570,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>20.505</v>
+        <v>26.4611</v>
       </c>
       <c r="C10" t="n">
-        <v>20.2539</v>
+        <v>26.8384</v>
       </c>
       <c r="D10" t="n">
-        <v>36.0895</v>
+        <v>45.6573</v>
       </c>
       <c r="E10" t="n">
-        <v>45.6845</v>
+        <v>57.5165</v>
       </c>
     </row>
     <row r="11">
@@ -5587,16 +5587,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>19.5443</v>
+        <v>25.013</v>
       </c>
       <c r="C11" t="n">
-        <v>22.3532</v>
+        <v>26.0801</v>
       </c>
       <c r="D11" t="n">
-        <v>36.8546</v>
+        <v>46.8082</v>
       </c>
       <c r="E11" t="n">
-        <v>43.7044</v>
+        <v>58.2416</v>
       </c>
     </row>
     <row r="12">
@@ -5604,16 +5604,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>19.3513</v>
+        <v>25.6065</v>
       </c>
       <c r="C12" t="n">
-        <v>21.3382</v>
+        <v>26.1385</v>
       </c>
       <c r="D12" t="n">
-        <v>34.5272</v>
+        <v>46.2443</v>
       </c>
       <c r="E12" t="n">
-        <v>46.099</v>
+        <v>58.8468</v>
       </c>
     </row>
     <row r="13">
@@ -5621,16 +5621,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>20.116</v>
+        <v>26.4472</v>
       </c>
       <c r="C13" t="n">
-        <v>21.6949</v>
+        <v>26.8514</v>
       </c>
  